--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E864D1-B4DD-4A24-89A4-AA97FFE844E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A87061-3733-43D7-89D2-9CECA2CABEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="2235" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="4035" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -702,2688 +702,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>0.30670915245996166</v>
+            <v>0.61341830491992333</v>
           </cell>
           <cell r="C2">
-            <v>0.29524709921777309</v>
+            <v>0.59049419843554618</v>
           </cell>
           <cell r="D2">
-            <v>0.28473065329069519</v>
+            <v>0.56946130658139038</v>
           </cell>
           <cell r="E2">
-            <v>0.29332442446475548</v>
+            <v>0.58664884892951097</v>
           </cell>
           <cell r="F2">
-            <v>0.28504746411189491</v>
+            <v>0.57009492822378982</v>
           </cell>
           <cell r="G2">
-            <v>0.28542711205313198</v>
+            <v>0.57085422410626396</v>
           </cell>
           <cell r="H2">
-            <v>0.28806160253156365</v>
+            <v>0.57612320506312731</v>
           </cell>
           <cell r="I2">
-            <v>0.37390296208829021</v>
+            <v>0.74780592417658043</v>
           </cell>
           <cell r="J2">
-            <v>0.38137833498276347</v>
+            <v>0.76275666996552693</v>
           </cell>
           <cell r="K2">
-            <v>0.37773979219152559</v>
+            <v>0.75547958438305118</v>
           </cell>
           <cell r="L2">
-            <v>0.37659295723955727</v>
+            <v>0.75318591447911454</v>
           </cell>
           <cell r="M2">
-            <v>0.3845070668127254</v>
+            <v>0.76901413362545079</v>
           </cell>
           <cell r="N2">
-            <v>0.38036798832561508</v>
+            <v>0.76073597665123016</v>
           </cell>
           <cell r="O2">
-            <v>0.37363469852429715</v>
+            <v>0.7472693970485943</v>
           </cell>
           <cell r="P2">
-            <v>0.32502741306816457</v>
+            <v>0.65005482613632914</v>
           </cell>
           <cell r="Q2">
-            <v>0.34967855541240345</v>
+            <v>0.69935711082480689</v>
           </cell>
           <cell r="R2">
-            <v>0.38017044914361153</v>
+            <v>0.76034089828722307</v>
           </cell>
           <cell r="S2">
-            <v>0.37437969681133076</v>
+            <v>0.74875939362266153</v>
           </cell>
           <cell r="T2">
-            <v>0.35508847478100186</v>
+            <v>0.71017694956200372</v>
           </cell>
           <cell r="U2">
-            <v>0.33862359507663187</v>
+            <v>0.67724719015326373</v>
           </cell>
           <cell r="V2">
-            <v>0.33623133439829411</v>
+            <v>0.67246266879658823</v>
           </cell>
           <cell r="W2">
-            <v>0.32128846813869005</v>
+            <v>0.64257693627738011</v>
           </cell>
           <cell r="X2">
-            <v>0.29017158042441898</v>
+            <v>0.58034316084883797</v>
           </cell>
           <cell r="Y2">
-            <v>0.2838849744914736</v>
+            <v>0.56776994898294719</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.22186252434879794</v>
+            <v>0.44372504869759588</v>
           </cell>
           <cell r="C3">
-            <v>0.2155482653575167</v>
+            <v>0.4310965307150334</v>
           </cell>
           <cell r="D3">
-            <v>0.20639262317538185</v>
+            <v>0.41278524635076369</v>
           </cell>
           <cell r="E3">
-            <v>0.20468364980096199</v>
+            <v>0.40936729960192397</v>
           </cell>
           <cell r="F3">
-            <v>0.20674035343276509</v>
+            <v>0.41348070686553018</v>
           </cell>
           <cell r="G3">
-            <v>0.22073923162661524</v>
+            <v>0.44147846325323048</v>
           </cell>
           <cell r="H3">
-            <v>0.26611264190536893</v>
+            <v>0.53222528381073786</v>
           </cell>
           <cell r="I3">
-            <v>0.31067617913698342</v>
+            <v>0.62135235827396684</v>
           </cell>
           <cell r="J3">
-            <v>0.33774740567400341</v>
+            <v>0.67549481134800682</v>
           </cell>
           <cell r="K3">
-            <v>0.34794857349388919</v>
+            <v>0.69589714698777838</v>
           </cell>
           <cell r="L3">
-            <v>0.34719590671293632</v>
+            <v>0.69439181342587264</v>
           </cell>
           <cell r="M3">
-            <v>0.33892788407272867</v>
+            <v>0.67785576814545734</v>
           </cell>
           <cell r="N3">
-            <v>0.32663339188067164</v>
+            <v>0.65326678376134328</v>
           </cell>
           <cell r="O3">
-            <v>0.3106304207127204</v>
+            <v>0.6212608414254408</v>
           </cell>
           <cell r="P3">
-            <v>0.28930836627642015</v>
+            <v>0.5786167325528403</v>
           </cell>
           <cell r="Q3">
-            <v>0.29828789288180191</v>
+            <v>0.59657578576360382</v>
           </cell>
           <cell r="R3">
-            <v>0.33179919348718268</v>
+            <v>0.66359838697436535</v>
           </cell>
           <cell r="S3">
-            <v>0.39669644107596042</v>
+            <v>0.79339288215192083</v>
           </cell>
           <cell r="T3">
-            <v>0.37783145589412115</v>
+            <v>0.7556629117882423</v>
           </cell>
           <cell r="U3">
-            <v>0.34900552226599074</v>
+            <v>0.69801104453198148</v>
           </cell>
           <cell r="V3">
-            <v>0.3383376366375086</v>
+            <v>0.6766752732750172</v>
           </cell>
           <cell r="W3">
-            <v>0.31554684879002698</v>
+            <v>0.63109369758005396</v>
           </cell>
           <cell r="X3">
-            <v>0.28878904604597921</v>
+            <v>0.57757809209195843</v>
           </cell>
           <cell r="Y3">
-            <v>0.25544704996320017</v>
+            <v>0.51089409992640034</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.18710665766466361</v>
+            <v>0.37421331532932722</v>
           </cell>
           <cell r="C4">
-            <v>0.17592445267295354</v>
+            <v>0.35184890534590707</v>
           </cell>
           <cell r="D4">
-            <v>0.17023786050785256</v>
+            <v>0.34047572101570511</v>
           </cell>
           <cell r="E4">
-            <v>0.17379889210497018</v>
+            <v>0.34759778420994036</v>
           </cell>
           <cell r="F4">
-            <v>0.17543387487727341</v>
+            <v>0.35086774975454682</v>
           </cell>
           <cell r="G4">
-            <v>0.20058398540181288</v>
+            <v>0.40116797080362576</v>
           </cell>
           <cell r="H4">
-            <v>0.3239435708772363</v>
+            <v>0.6478871417544726</v>
           </cell>
           <cell r="I4">
-            <v>0.37980952597446127</v>
+            <v>0.75961905194892254</v>
           </cell>
           <cell r="J4">
-            <v>0.39681239757096498</v>
+            <v>0.79362479514192996</v>
           </cell>
           <cell r="K4">
-            <v>0.38427143934992147</v>
+            <v>0.76854287869984295</v>
           </cell>
           <cell r="L4">
-            <v>0.37014761364148058</v>
+            <v>0.74029522728296115</v>
           </cell>
           <cell r="M4">
-            <v>0.39376025231477496</v>
+            <v>0.78752050462954992</v>
           </cell>
           <cell r="N4">
-            <v>0.36503510766713232</v>
+            <v>0.73007021533426464</v>
           </cell>
           <cell r="O4">
-            <v>0.34757664649131104</v>
+            <v>0.69515329298262207</v>
           </cell>
           <cell r="P4">
-            <v>0.30061471537922146</v>
+            <v>0.60122943075844293</v>
           </cell>
           <cell r="Q4">
-            <v>0.29937307458028262</v>
+            <v>0.59874614916056523</v>
           </cell>
           <cell r="R4">
-            <v>0.31194701279686954</v>
+            <v>0.62389402559373908</v>
           </cell>
           <cell r="S4">
-            <v>0.33690956968620367</v>
+            <v>0.67381913937240734</v>
           </cell>
           <cell r="T4">
-            <v>0.30787700219398489</v>
+            <v>0.61575400438796979</v>
           </cell>
           <cell r="U4">
-            <v>0.31993920462582881</v>
+            <v>0.63987840925165762</v>
           </cell>
           <cell r="V4">
-            <v>0.31064342700059411</v>
+            <v>0.62128685400118822</v>
           </cell>
           <cell r="W4">
-            <v>0.29213314315805544</v>
+            <v>0.58426628631611088</v>
           </cell>
           <cell r="X4">
-            <v>0.24268261525080828</v>
+            <v>0.48536523050161656</v>
           </cell>
           <cell r="Y4">
-            <v>0.21404403838583064</v>
+            <v>0.42808807677166127</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>0.30670915245996166</v>
+            <v>0.61341830491992333</v>
           </cell>
           <cell r="C2">
-            <v>0.29819957020995086</v>
+            <v>0.59639914041990172</v>
           </cell>
           <cell r="D2">
-            <v>0.28188334675778831</v>
+            <v>0.56376669351557662</v>
           </cell>
           <cell r="E2">
-            <v>0.28745793597546038</v>
+            <v>0.57491587195092075</v>
           </cell>
           <cell r="F2">
-            <v>0.28504746411189491</v>
+            <v>0.57009492822378982</v>
           </cell>
           <cell r="G2">
-            <v>0.29113565429419469</v>
+            <v>0.58227130858838938</v>
           </cell>
           <cell r="H2">
-            <v>0.28230037048093237</v>
+            <v>0.56460074096186474</v>
           </cell>
           <cell r="I2">
-            <v>0.38138102133005602</v>
+            <v>0.76276204266011205</v>
           </cell>
           <cell r="J2">
-            <v>0.38519211833259109</v>
+            <v>0.77038423666518219</v>
           </cell>
           <cell r="K2">
-            <v>0.3852945880353561</v>
+            <v>0.7705891760707122</v>
           </cell>
           <cell r="L2">
-            <v>0.37282702766716169</v>
+            <v>0.74565405533432338</v>
           </cell>
           <cell r="M2">
-            <v>0.38066199614459811</v>
+            <v>0.76132399228919623</v>
           </cell>
           <cell r="N2">
-            <v>0.37656430844235894</v>
+            <v>0.75312861688471788</v>
           </cell>
           <cell r="O2">
-            <v>0.3661620045538112</v>
+            <v>0.73232400910762241</v>
           </cell>
           <cell r="P2">
-            <v>0.3282776871988462</v>
+            <v>0.6565553743976924</v>
           </cell>
           <cell r="Q2">
-            <v>0.3566721265206515</v>
+            <v>0.713344253041303</v>
           </cell>
           <cell r="R2">
-            <v>0.38777385812648379</v>
+            <v>0.77554771625296759</v>
           </cell>
           <cell r="S2">
-            <v>0.38186729074755738</v>
+            <v>0.76373458149511475</v>
           </cell>
           <cell r="T2">
-            <v>0.35863935952881187</v>
+            <v>0.71727871905762375</v>
           </cell>
           <cell r="U2">
-            <v>0.34200983102739824</v>
+            <v>0.68401966205479647</v>
           </cell>
           <cell r="V2">
-            <v>0.32950670771032819</v>
+            <v>0.65901341542065639</v>
           </cell>
           <cell r="W2">
-            <v>0.31807558345730319</v>
+            <v>0.63615116691460638</v>
           </cell>
           <cell r="X2">
-            <v>0.29597501203290738</v>
+            <v>0.59195002406581476</v>
           </cell>
           <cell r="Y2">
-            <v>0.28672382423638837</v>
+            <v>0.57344764847277674</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.22186252434879794</v>
+            <v>0.44372504869759588</v>
           </cell>
           <cell r="C3">
-            <v>0.21123730005036637</v>
+            <v>0.42247460010073273</v>
           </cell>
           <cell r="D3">
-            <v>0.20226477071187421</v>
+            <v>0.40452954142374842</v>
           </cell>
           <cell r="E3">
-            <v>0.20468364980096199</v>
+            <v>0.40936729960192397</v>
           </cell>
           <cell r="F3">
-            <v>0.20674035343276509</v>
+            <v>0.41348070686553018</v>
           </cell>
           <cell r="G3">
-            <v>0.22294662394288142</v>
+            <v>0.44589324788576284</v>
           </cell>
           <cell r="H3">
-            <v>0.26079038906726154</v>
+            <v>0.52158077813452308</v>
           </cell>
           <cell r="I3">
-            <v>0.31067617913698342</v>
+            <v>0.62135235827396684</v>
           </cell>
           <cell r="J3">
-            <v>0.33774740567400341</v>
+            <v>0.67549481134800682</v>
           </cell>
           <cell r="K3">
-            <v>0.35142805922882808</v>
+            <v>0.70285611845765616</v>
           </cell>
           <cell r="L3">
-            <v>0.34025198857867761</v>
+            <v>0.68050397715735522</v>
           </cell>
           <cell r="M3">
-            <v>0.34570644175418325</v>
+            <v>0.69141288350836649</v>
           </cell>
           <cell r="N3">
-            <v>0.33316605971828506</v>
+            <v>0.66633211943657011</v>
           </cell>
           <cell r="O3">
-            <v>0.31684302912697482</v>
+            <v>0.63368605825394964</v>
           </cell>
           <cell r="P3">
-            <v>0.29509453360194854</v>
+            <v>0.59018906720389708</v>
           </cell>
           <cell r="Q3">
-            <v>0.30127077181061995</v>
+            <v>0.60254154362123991</v>
           </cell>
           <cell r="R3">
-            <v>0.33179919348718268</v>
+            <v>0.66359838697436535</v>
           </cell>
           <cell r="S3">
-            <v>0.38876251225444125</v>
+            <v>0.7775250245088825</v>
           </cell>
           <cell r="T3">
-            <v>0.38160977045306232</v>
+            <v>0.76321954090612465</v>
           </cell>
           <cell r="U3">
-            <v>0.35249557748865062</v>
+            <v>0.70499115497730125</v>
           </cell>
           <cell r="V3">
-            <v>0.34510438937025878</v>
+            <v>0.69020877874051756</v>
           </cell>
           <cell r="W3">
-            <v>0.31554684879002698</v>
+            <v>0.63109369758005396</v>
           </cell>
           <cell r="X3">
-            <v>0.28301326512505959</v>
+            <v>0.56602653025011918</v>
           </cell>
           <cell r="Y3">
-            <v>0.2580015204628322</v>
+            <v>0.5160030409256644</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.19084879081795691</v>
+            <v>0.38169758163591383</v>
           </cell>
           <cell r="C4">
-            <v>0.17944294172641259</v>
+            <v>0.35888588345282518</v>
           </cell>
           <cell r="D4">
-            <v>0.16853548190277404</v>
+            <v>0.33707096380554807</v>
           </cell>
           <cell r="E4">
-            <v>0.17727486994706956</v>
+            <v>0.35454973989413913</v>
           </cell>
           <cell r="F4">
-            <v>0.17192519737972795</v>
+            <v>0.34385039475945589</v>
           </cell>
           <cell r="G4">
-            <v>0.19657230569377659</v>
+            <v>0.39314461138755319</v>
           </cell>
           <cell r="H4">
-            <v>0.32718300658600868</v>
+            <v>0.65436601317201737</v>
           </cell>
           <cell r="I4">
-            <v>0.37980952597446122</v>
+            <v>0.75961905194892243</v>
           </cell>
           <cell r="J4">
-            <v>0.38887614961954564</v>
+            <v>0.77775229923909128</v>
           </cell>
           <cell r="K4">
-            <v>0.38042872495642222</v>
+            <v>0.76085744991284443</v>
           </cell>
           <cell r="L4">
-            <v>0.37014761364148058</v>
+            <v>0.74029522728296115</v>
           </cell>
           <cell r="M4">
-            <v>0.3858850472684795</v>
+            <v>0.77177009453695899</v>
           </cell>
           <cell r="N4">
-            <v>0.35773440551378966</v>
+            <v>0.71546881102757931</v>
           </cell>
           <cell r="O4">
-            <v>0.34757664649131104</v>
+            <v>0.69515329298262207</v>
           </cell>
           <cell r="P4">
-            <v>0.30061471537922146</v>
+            <v>0.60122943075844293</v>
           </cell>
           <cell r="Q4">
-            <v>0.30236680532608545</v>
+            <v>0.60473361065217091</v>
           </cell>
           <cell r="R4">
-            <v>0.30570807254093219</v>
+            <v>0.61141614508186437</v>
           </cell>
           <cell r="S4">
-            <v>0.34027866538306573</v>
+            <v>0.68055733076613145</v>
           </cell>
           <cell r="T4">
-            <v>0.3017194621501052</v>
+            <v>0.6034389243002104</v>
           </cell>
           <cell r="U4">
-            <v>0.31993920462582881</v>
+            <v>0.63987840925165762</v>
           </cell>
           <cell r="V4">
-            <v>0.30753699273058821</v>
+            <v>0.61507398546117642</v>
           </cell>
           <cell r="W4">
-            <v>0.28629048029489435</v>
+            <v>0.57258096058978869</v>
           </cell>
           <cell r="X4">
-            <v>0.23782896294579212</v>
+            <v>0.47565792589158423</v>
           </cell>
           <cell r="Y4">
-            <v>0.21832491915354724</v>
+            <v>0.43664983830709447</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>0.30057496941076239</v>
+            <v>0.60114993882152479</v>
           </cell>
           <cell r="C2">
-            <v>0.29229462822559538</v>
+            <v>0.58458925645119075</v>
           </cell>
           <cell r="D2">
-            <v>0.29042526635650912</v>
+            <v>0.58085053271301823</v>
           </cell>
           <cell r="E2">
-            <v>0.29919091295405059</v>
+            <v>0.59838182590810118</v>
           </cell>
           <cell r="F2">
-            <v>0.279346514829657</v>
+            <v>0.558693029659314</v>
           </cell>
           <cell r="G2">
-            <v>0.27971856981206938</v>
+            <v>0.55943713962413877</v>
           </cell>
           <cell r="H2">
-            <v>0.28806160253156365</v>
+            <v>0.57612320506312731</v>
           </cell>
           <cell r="I2">
-            <v>0.37390296208829016</v>
+            <v>0.74780592417658032</v>
           </cell>
           <cell r="J2">
-            <v>0.38900590168241878</v>
+            <v>0.77801180336483755</v>
           </cell>
           <cell r="K2">
-            <v>0.38151719011344087</v>
+            <v>0.76303438022688175</v>
           </cell>
           <cell r="L2">
-            <v>0.38412481638434842</v>
+            <v>0.76824963276869684</v>
           </cell>
           <cell r="M2">
-            <v>0.38835213748085262</v>
+            <v>0.77670427496170524</v>
           </cell>
           <cell r="N2">
-            <v>0.3727606285591028</v>
+            <v>0.7455212571182056</v>
           </cell>
           <cell r="O2">
-            <v>0.38110739249478309</v>
+            <v>0.76221478498956619</v>
           </cell>
           <cell r="P2">
-            <v>0.33152796132952789</v>
+            <v>0.66305592265905577</v>
           </cell>
           <cell r="Q2">
-            <v>0.3566721265206515</v>
+            <v>0.713344253041303</v>
           </cell>
           <cell r="R2">
-            <v>0.38017044914361153</v>
+            <v>0.76034089828722307</v>
           </cell>
           <cell r="S2">
-            <v>0.37437969681133076</v>
+            <v>0.74875939362266153</v>
           </cell>
           <cell r="T2">
-            <v>0.35153759003319185</v>
+            <v>0.7030751800663837</v>
           </cell>
           <cell r="U2">
-            <v>0.33185112317509929</v>
+            <v>0.66370224635019859</v>
           </cell>
           <cell r="V2">
-            <v>0.33286902105431121</v>
+            <v>0.66573804210862242</v>
           </cell>
           <cell r="W2">
-            <v>0.32771423750146389</v>
+            <v>0.65542847500292778</v>
           </cell>
           <cell r="X2">
-            <v>0.28436814881593059</v>
+            <v>0.56873629763186118</v>
           </cell>
           <cell r="Y2">
-            <v>0.28104612474655888</v>
+            <v>0.56209224949311776</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.21964389910530999</v>
+            <v>0.43928779821061997</v>
           </cell>
           <cell r="C3">
-            <v>0.21985923066466706</v>
+            <v>0.43971846132933412</v>
           </cell>
           <cell r="D3">
-            <v>0.20226477071187421</v>
+            <v>0.40452954142374842</v>
           </cell>
           <cell r="E3">
-            <v>0.20468364980096199</v>
+            <v>0.40936729960192397</v>
           </cell>
           <cell r="F3">
-            <v>0.20467294989843743</v>
+            <v>0.40934589979687486</v>
           </cell>
           <cell r="G3">
-            <v>0.22294662394288142</v>
+            <v>0.44589324788576284</v>
           </cell>
           <cell r="H3">
-            <v>0.27143489474347632</v>
+            <v>0.54286978948695264</v>
           </cell>
           <cell r="I3">
-            <v>0.31067617913698342</v>
+            <v>0.62135235827396684</v>
           </cell>
           <cell r="J3">
-            <v>0.33099245756052331</v>
+            <v>0.66198491512104662</v>
           </cell>
           <cell r="K3">
-            <v>0.35490754496376697</v>
+            <v>0.70981508992753395</v>
           </cell>
           <cell r="L3">
-            <v>0.34372394764580694</v>
+            <v>0.68744789529161388</v>
           </cell>
           <cell r="M3">
-            <v>0.34570644175418325</v>
+            <v>0.69141288350836649</v>
           </cell>
           <cell r="N3">
-            <v>0.32010072404305823</v>
+            <v>0.64020144808611645</v>
           </cell>
           <cell r="O3">
-            <v>0.3106304207127204</v>
+            <v>0.6212608414254408</v>
           </cell>
           <cell r="P3">
-            <v>0.28352219895089176</v>
+            <v>0.56704439790178351</v>
           </cell>
           <cell r="Q3">
-            <v>0.29232213502416587</v>
+            <v>0.58464427004833175</v>
           </cell>
           <cell r="R3">
-            <v>0.32516320961743905</v>
+            <v>0.65032641923487811</v>
           </cell>
           <cell r="S3">
-            <v>0.40066340548672008</v>
+            <v>0.80132681097344016</v>
           </cell>
           <cell r="T3">
-            <v>0.37783145589412115</v>
+            <v>0.7556629117882423</v>
           </cell>
           <cell r="U3">
-            <v>0.35598563271131056</v>
+            <v>0.71197126542262112</v>
           </cell>
           <cell r="V3">
-            <v>0.33495426027113351</v>
+            <v>0.66990852054226702</v>
           </cell>
           <cell r="W3">
-            <v>0.31239138030212671</v>
+            <v>0.62478276060425342</v>
           </cell>
           <cell r="X3">
-            <v>0.29167693650643906</v>
+            <v>0.58335387301287811</v>
           </cell>
           <cell r="Y3">
-            <v>0.2580015204628322</v>
+            <v>0.5160030409256644</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.18710665766466361</v>
+            <v>0.37421331532932722</v>
           </cell>
           <cell r="C4">
-            <v>0.17240596361949445</v>
+            <v>0.3448119272389889</v>
           </cell>
           <cell r="D4">
-            <v>0.16853548190277404</v>
+            <v>0.33707096380554807</v>
           </cell>
           <cell r="E4">
-            <v>0.17553688102601989</v>
+            <v>0.35107376205203977</v>
           </cell>
           <cell r="F4">
-            <v>0.17718821362604614</v>
+            <v>0.35437642725209229</v>
           </cell>
           <cell r="G4">
-            <v>0.19657230569377659</v>
+            <v>0.39314461138755319</v>
           </cell>
           <cell r="H4">
-            <v>0.31746469945969163</v>
+            <v>0.63492939891938327</v>
           </cell>
           <cell r="I4">
-            <v>0.37980952597446122</v>
+            <v>0.75961905194892243</v>
           </cell>
           <cell r="J4">
-            <v>0.39284427359525531</v>
+            <v>0.78568854719051062</v>
           </cell>
           <cell r="K4">
-            <v>0.37658601056292307</v>
+            <v>0.75317202112584614</v>
           </cell>
           <cell r="L4">
-            <v>0.37014761364148058</v>
+            <v>0.74029522728296115</v>
           </cell>
           <cell r="M4">
-            <v>0.3858850472684795</v>
+            <v>0.77177009453695899</v>
           </cell>
           <cell r="N4">
-            <v>0.35773440551378966</v>
+            <v>0.71546881102757931</v>
           </cell>
           <cell r="O4">
-            <v>0.35105241295622408</v>
+            <v>0.70210482591244816</v>
           </cell>
           <cell r="P4">
-            <v>0.30362086253301368</v>
+            <v>0.60724172506602736</v>
           </cell>
           <cell r="Q4">
-            <v>0.30536053607188829</v>
+            <v>0.61072107214377658</v>
           </cell>
           <cell r="R4">
-            <v>0.30570807254093219</v>
+            <v>0.61141614508186437</v>
           </cell>
           <cell r="S4">
-            <v>0.33017137829247956</v>
+            <v>0.66034275658495911</v>
           </cell>
           <cell r="T4">
-            <v>0.31403454223786459</v>
+            <v>0.62806908447572918</v>
           </cell>
           <cell r="U4">
-            <v>0.32633798871834535</v>
+            <v>0.6526759774366907</v>
           </cell>
           <cell r="V4">
-            <v>0.31064342700059411</v>
+            <v>0.62128685400118822</v>
           </cell>
           <cell r="W4">
-            <v>0.29505447458963596</v>
+            <v>0.59010894917927192</v>
           </cell>
           <cell r="X4">
-            <v>0.23782896294579212</v>
+            <v>0.47565792589158423</v>
           </cell>
           <cell r="Y4">
-            <v>0.21404403838583064</v>
+            <v>0.42808807677166127</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>9.5780447948999869E-2</v>
+            <v>0.19156089589799974</v>
           </cell>
           <cell r="C2">
-            <v>6.767050476559551E-2</v>
+            <v>0.13534100953119102</v>
           </cell>
           <cell r="D2">
-            <v>5.8663040999948381E-2</v>
+            <v>0.11732608199989676</v>
           </cell>
           <cell r="E2">
-            <v>7.5195840810525549E-2</v>
+            <v>0.1503916816210511</v>
           </cell>
           <cell r="F2">
-            <v>6.4745839653979717E-2</v>
+            <v>0.12949167930795943</v>
           </cell>
           <cell r="G2">
-            <v>5.3232129686275255E-2</v>
+            <v>0.10646425937255051</v>
           </cell>
           <cell r="H2">
-            <v>4.4044187798885914E-2</v>
+            <v>8.8088375597771829E-2</v>
           </cell>
           <cell r="I2">
-            <v>0.15391392769457801</v>
+            <v>0.30782785538915602</v>
           </cell>
           <cell r="J2">
-            <v>0.16096179262552199</v>
+            <v>0.32192358525104398</v>
           </cell>
           <cell r="K2">
-            <v>0.1380577242847163</v>
+            <v>0.2761154485694326</v>
           </cell>
           <cell r="L2">
-            <v>0.16084727179955</v>
+            <v>0.32169454359909999</v>
           </cell>
           <cell r="M2">
-            <v>0.14945909548089117</v>
+            <v>0.29891819096178235</v>
           </cell>
           <cell r="N2">
-            <v>0.15011758026000743</v>
+            <v>0.30023516052001487</v>
           </cell>
           <cell r="O2">
-            <v>0.13404927887943358</v>
+            <v>0.26809855775886715</v>
           </cell>
           <cell r="P2">
-            <v>7.95454387484784E-2</v>
+            <v>0.1590908774969568</v>
           </cell>
           <cell r="Q2">
-            <v>0.12454372557936395</v>
+            <v>0.24908745115872791</v>
           </cell>
           <cell r="R2">
-            <v>0.14937099289630179</v>
+            <v>0.29874198579260358</v>
           </cell>
           <cell r="S2">
-            <v>0.13937249469669613</v>
+            <v>0.27874498939339226</v>
           </cell>
           <cell r="T2">
-            <v>9.7407622468802593E-2</v>
+            <v>0.19481524493760519</v>
           </cell>
           <cell r="U2">
-            <v>0.10105462166537356</v>
+            <v>0.20210924333074712</v>
           </cell>
           <cell r="V2">
-            <v>9.4123550771165396E-2</v>
+            <v>0.18824710154233079</v>
           </cell>
           <cell r="W2">
-            <v>5.8385595341365039E-2</v>
+            <v>0.11677119068273008</v>
           </cell>
           <cell r="X2">
-            <v>4.6574550545211653E-2</v>
+            <v>9.3149101090423306E-2</v>
           </cell>
           <cell r="Y2">
-            <v>4.8272513645816445E-2</v>
+            <v>9.654502729163289E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.18141265882809074</v>
+            <v>-0.36282531765618148</v>
           </cell>
           <cell r="C3">
-            <v>-0.18137266241695793</v>
+            <v>-0.36274532483391586</v>
           </cell>
           <cell r="D3">
-            <v>-0.18637727641735929</v>
+            <v>-0.37275455283471859</v>
           </cell>
           <cell r="E3">
-            <v>-0.19491523102972019</v>
+            <v>-0.38983046205944039</v>
           </cell>
           <cell r="F3">
-            <v>-0.19304343502150617</v>
+            <v>-0.38608687004301234</v>
           </cell>
           <cell r="G3">
-            <v>-0.17716875134447396</v>
+            <v>-0.35433750268894793</v>
           </cell>
           <cell r="H3">
-            <v>-0.11233892886728361</v>
+            <v>-0.22467785773456722</v>
           </cell>
           <cell r="I3">
-            <v>-2.1594765010274755E-2</v>
+            <v>-4.318953002054951E-2</v>
           </cell>
           <cell r="J3">
-            <v>-2.3206314100104167E-2</v>
+            <v>-4.6412628200208333E-2</v>
           </cell>
           <cell r="K3">
-            <v>-1.5378980408604779E-2</v>
+            <v>-3.0757960817209558E-2</v>
           </cell>
           <cell r="L3">
-            <v>-1.3547306926333458E-2</v>
+            <v>-2.7094613852666916E-2</v>
           </cell>
           <cell r="M3">
-            <v>-6.0460755052970022E-2</v>
+            <v>-0.12092151010594004</v>
           </cell>
           <cell r="N3">
-            <v>-8.8326669066451341E-2</v>
+            <v>-0.17665333813290268</v>
           </cell>
           <cell r="O3">
-            <v>-0.11450091505302767</v>
+            <v>-0.22900183010605535</v>
           </cell>
           <cell r="P3">
-            <v>-0.11364009139360108</v>
+            <v>-0.22728018278720216</v>
           </cell>
           <cell r="Q3">
-            <v>-0.11556188291573116</v>
+            <v>-0.23112376583146232</v>
           </cell>
           <cell r="R3">
-            <v>-9.0859036432406615E-2</v>
+            <v>-0.18171807286481323</v>
           </cell>
           <cell r="S3">
-            <v>2.9862779880291818E-2</v>
+            <v>5.9725559760583635E-2</v>
           </cell>
           <cell r="T3">
-            <v>-4.2087034352593228E-3</v>
+            <v>-8.4174068705186456E-3</v>
           </cell>
           <cell r="U3">
-            <v>-4.9680803416197974E-2</v>
+            <v>-9.9361606832395949E-2</v>
           </cell>
           <cell r="V3">
-            <v>-9.2090205239241593E-2</v>
+            <v>-0.18418041047848319</v>
           </cell>
           <cell r="W3">
-            <v>-0.12113700428321926</v>
+            <v>-0.24227400856643852</v>
           </cell>
           <cell r="X3">
-            <v>-0.13285775438528222</v>
+            <v>-0.26571550877056443</v>
           </cell>
           <cell r="Y3">
-            <v>-0.15211577411612434</v>
+            <v>-0.30423154823224868</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.17349538254263785</v>
+            <v>-0.34699076508527571</v>
           </cell>
           <cell r="C4">
-            <v>-0.1872020212876746</v>
+            <v>-0.37440404257534921</v>
           </cell>
           <cell r="D4">
-            <v>-0.19063571788213207</v>
+            <v>-0.38127143576426414</v>
           </cell>
           <cell r="E4">
-            <v>-0.18808627686047572</v>
+            <v>-0.37617255372095143</v>
           </cell>
           <cell r="F4">
-            <v>-0.1882427132366169</v>
+            <v>-0.3764854264732338</v>
           </cell>
           <cell r="G4">
-            <v>-0.15719072499544465</v>
+            <v>-0.31438144999088929</v>
           </cell>
           <cell r="H4">
-            <v>-5.8533143644997751E-3</v>
+            <v>-1.170662872899955E-2</v>
           </cell>
           <cell r="I4">
-            <v>8.1042261128106266E-2</v>
+            <v>0.16208452225621253</v>
           </cell>
           <cell r="J4">
-            <v>0.103289876572887</v>
+            <v>0.20657975314577401</v>
           </cell>
           <cell r="K4">
-            <v>7.1954164815946964E-2</v>
+            <v>0.14390832963189393</v>
           </cell>
           <cell r="L4">
-            <v>4.2483394244964785E-2</v>
+            <v>8.4966788489929571E-2</v>
           </cell>
           <cell r="M4">
-            <v>8.4267617727923613E-2</v>
+            <v>0.16853523545584723</v>
           </cell>
           <cell r="N4">
-            <v>5.3134942602328261E-2</v>
+            <v>0.10626988520465652</v>
           </cell>
           <cell r="O4">
-            <v>1.6120779797293382E-2</v>
+            <v>3.2241559594586765E-2</v>
           </cell>
           <cell r="P4">
-            <v>-6.3777579254783709E-2</v>
+            <v>-0.12755515850956742</v>
           </cell>
           <cell r="Q4">
-            <v>-6.3804718863318455E-2</v>
+            <v>-0.12760943772663691</v>
           </cell>
           <cell r="R4">
-            <v>-5.2559688198193233E-2</v>
+            <v>-0.10511937639638647</v>
           </cell>
           <cell r="S4">
-            <v>-2.6515301230393126E-2</v>
+            <v>-5.3030602460786253E-2</v>
           </cell>
           <cell r="T4">
-            <v>-6.4624692022906924E-2</v>
+            <v>-0.12924938404581385</v>
           </cell>
           <cell r="U4">
-            <v>-3.6821347668080338E-2</v>
+            <v>-7.3642695336160677E-2</v>
           </cell>
           <cell r="V4">
-            <v>-5.0553745606266243E-2</v>
+            <v>-0.10110749121253249</v>
           </cell>
           <cell r="W4">
-            <v>-8.3849236296423851E-2</v>
+            <v>-0.1676984725928477</v>
           </cell>
           <cell r="X4">
-            <v>-0.13247022700834707</v>
+            <v>-0.26494045401669414</v>
           </cell>
           <cell r="Y4">
-            <v>-0.14953743885562409</v>
+            <v>-0.29907487771124819</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>9.6738252428489865E-2</v>
+            <v>0.19347650485697973</v>
           </cell>
           <cell r="C2">
-            <v>6.63170946702836E-2</v>
+            <v>0.1326341893405672</v>
           </cell>
           <cell r="D2">
-            <v>5.9249671409947871E-2</v>
+            <v>0.11849934281989574</v>
           </cell>
           <cell r="E2">
-            <v>7.5195840810525549E-2</v>
+            <v>0.1503916816210511</v>
           </cell>
           <cell r="F2">
-            <v>6.5393298050519508E-2</v>
+            <v>0.13078659610103902</v>
           </cell>
           <cell r="G2">
-            <v>5.3232129686275255E-2</v>
+            <v>0.10646425937255051</v>
           </cell>
           <cell r="H2">
-            <v>4.4044187798885914E-2</v>
+            <v>8.8088375597771829E-2</v>
           </cell>
           <cell r="I2">
-            <v>0.15545306697152381</v>
+            <v>0.31090613394304761</v>
           </cell>
           <cell r="J2">
-            <v>0.16096179262552199</v>
+            <v>0.32192358525104398</v>
           </cell>
           <cell r="K2">
-            <v>0.13529656979902197</v>
+            <v>0.27059313959804393</v>
           </cell>
           <cell r="L2">
-            <v>0.16084727179955</v>
+            <v>0.32169454359909999</v>
           </cell>
           <cell r="M2">
-            <v>0.15244827739050901</v>
+            <v>0.30489655478101801</v>
           </cell>
           <cell r="N2">
-            <v>0.15161875606260752</v>
+            <v>0.30323751212521505</v>
           </cell>
           <cell r="O2">
-            <v>0.13538977166822791</v>
+            <v>0.27077954333645582</v>
           </cell>
           <cell r="P2">
-            <v>7.7954529973508824E-2</v>
+            <v>0.15590905994701765</v>
           </cell>
           <cell r="Q2">
-            <v>0.12329828832357033</v>
+            <v>0.24659657664714066</v>
           </cell>
           <cell r="R2">
-            <v>0.14937099289630179</v>
+            <v>0.29874198579260358</v>
           </cell>
           <cell r="S2">
-            <v>0.13937249469669613</v>
+            <v>0.27874498939339226</v>
           </cell>
           <cell r="T2">
-            <v>9.7407622468802593E-2</v>
+            <v>0.19481524493760519</v>
           </cell>
           <cell r="U2">
-            <v>0.1020651678820273</v>
+            <v>0.20413033576405459</v>
           </cell>
           <cell r="V2">
-            <v>9.2241079755742084E-2</v>
+            <v>0.18448215951148417</v>
           </cell>
           <cell r="W2">
-            <v>5.8385595341365039E-2</v>
+            <v>0.11677119068273008</v>
           </cell>
           <cell r="X2">
-            <v>4.7506041556115881E-2</v>
+            <v>9.5012083112231763E-2</v>
           </cell>
           <cell r="Y2">
-            <v>4.923796391873278E-2</v>
+            <v>9.847592783746556E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.18504091200465256</v>
+            <v>-0.37008182400930512</v>
           </cell>
           <cell r="C3">
-            <v>-0.17774520916861875</v>
+            <v>-0.35549041833723749</v>
           </cell>
           <cell r="D3">
-            <v>-0.18637727641735927</v>
+            <v>-0.37275455283471853</v>
           </cell>
           <cell r="E3">
-            <v>-0.19101692640912582</v>
+            <v>-0.38203385281825164</v>
           </cell>
           <cell r="F3">
-            <v>-0.19304343502150617</v>
+            <v>-0.38608687004301234</v>
           </cell>
           <cell r="G3">
-            <v>-0.17716875134447396</v>
+            <v>-0.35433750268894793</v>
           </cell>
           <cell r="H3">
-            <v>-0.11233892886728361</v>
+            <v>-0.22467785773456722</v>
           </cell>
           <cell r="I3">
-            <v>-2.1162869710069261E-2</v>
+            <v>-4.2325739420138522E-2</v>
           </cell>
           <cell r="J3">
-            <v>-2.2974250959103125E-2</v>
+            <v>-4.594850191820625E-2</v>
           </cell>
           <cell r="K3">
-            <v>-1.5686560016776874E-2</v>
+            <v>-3.1373120033553747E-2</v>
           </cell>
           <cell r="L3">
-            <v>-1.3276360787806791E-2</v>
+            <v>-2.6552721575613582E-2</v>
           </cell>
           <cell r="M3">
-            <v>-6.106536260349972E-2</v>
+            <v>-0.12213072520699944</v>
           </cell>
           <cell r="N3">
-            <v>-8.9209935757115846E-2</v>
+            <v>-0.17841987151423169</v>
           </cell>
           <cell r="O3">
-            <v>-0.11221089675196712</v>
+            <v>-0.22442179350393424</v>
           </cell>
           <cell r="P3">
-            <v>-0.11364009139360108</v>
+            <v>-0.22728018278720216</v>
           </cell>
           <cell r="Q3">
-            <v>-0.11787312057404578</v>
+            <v>-0.23574624114809156</v>
           </cell>
           <cell r="R3">
-            <v>-8.9041855703758499E-2</v>
+            <v>-0.178083711407517</v>
           </cell>
           <cell r="S3">
-            <v>3.016140767909474E-2</v>
+            <v>6.032281535818948E-2</v>
           </cell>
           <cell r="T3">
-            <v>-4.1666164009067294E-3</v>
+            <v>-8.3332328018134588E-3</v>
           </cell>
           <cell r="U3">
-            <v>-4.9680803416197981E-2</v>
+            <v>-9.9361606832395963E-2</v>
           </cell>
           <cell r="V3">
-            <v>-9.3011107291634018E-2</v>
+            <v>-0.18602221458326804</v>
           </cell>
           <cell r="W3">
-            <v>-0.11992563424038705</v>
+            <v>-0.23985126848077409</v>
           </cell>
           <cell r="X3">
-            <v>-0.13020059929757657</v>
+            <v>-0.26040119859515315</v>
           </cell>
           <cell r="Y3">
-            <v>-0.15363693185728561</v>
+            <v>-0.30727386371457122</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.1752303363680642</v>
+            <v>-0.35046067273612841</v>
           </cell>
           <cell r="C4">
-            <v>-0.18720202128767457</v>
+            <v>-0.37440404257534915</v>
           </cell>
           <cell r="D4">
-            <v>-0.19254207506095339</v>
+            <v>-0.38508415012190678</v>
           </cell>
           <cell r="E4">
-            <v>-0.18996713962908049</v>
+            <v>-0.37993427925816098</v>
           </cell>
           <cell r="F4">
-            <v>-0.19012514036898309</v>
+            <v>-0.38025028073796618</v>
           </cell>
           <cell r="G4">
-            <v>-0.16033453949535356</v>
+            <v>-0.32066907899070712</v>
           </cell>
           <cell r="H4">
-            <v>-5.9118475081447724E-3</v>
+            <v>-1.1823695016289545E-2</v>
           </cell>
           <cell r="I4">
-            <v>8.2663106350668383E-2</v>
+            <v>0.16532621270133677</v>
           </cell>
           <cell r="J4">
-            <v>0.10432277533861588</v>
+            <v>0.20864555067723176</v>
           </cell>
           <cell r="K4">
-            <v>7.0515081519628028E-2</v>
+            <v>0.14103016303925606</v>
           </cell>
           <cell r="L4">
-            <v>4.3333062129864083E-2</v>
+            <v>8.6666124259728167E-2</v>
           </cell>
           <cell r="M4">
-            <v>8.3424941550644366E-2</v>
+            <v>0.16684988310128873</v>
           </cell>
           <cell r="N4">
-            <v>5.4197641454374827E-2</v>
+            <v>0.10839528290874965</v>
           </cell>
           <cell r="O4">
-            <v>1.6443195393239247E-2</v>
+            <v>3.2886390786478495E-2</v>
           </cell>
           <cell r="P4">
-            <v>-6.4415355047331549E-2</v>
+            <v>-0.1288307100946631</v>
           </cell>
           <cell r="Q4">
-            <v>-6.5080813240584817E-2</v>
+            <v>-0.13016162648116963</v>
           </cell>
           <cell r="R4">
-            <v>-5.3610881962157103E-2</v>
+            <v>-0.10722176392431421</v>
           </cell>
           <cell r="S4">
-            <v>-2.5984995205785261E-2</v>
+            <v>-5.1969990411570521E-2</v>
           </cell>
           <cell r="T4">
-            <v>-6.4624692022906924E-2</v>
+            <v>-0.12924938404581385</v>
           </cell>
           <cell r="U4">
-            <v>-3.6084920714718735E-2</v>
+            <v>-7.216984142943747E-2</v>
           </cell>
           <cell r="V4">
-            <v>-5.0553745606266243E-2</v>
+            <v>-0.10110749121253249</v>
           </cell>
           <cell r="W4">
-            <v>-8.2172251570495361E-2</v>
+            <v>-0.16434450314099072</v>
           </cell>
           <cell r="X4">
-            <v>-0.13247022700834707</v>
+            <v>-0.26494045401669414</v>
           </cell>
           <cell r="Y4">
-            <v>-0.14654669007851159</v>
+            <v>-0.29309338015702319</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>9.6738252428489865E-2</v>
+            <v>0.19347650485697973</v>
           </cell>
           <cell r="C2">
-            <v>6.9023914860907407E-2</v>
+            <v>0.13804782972181481</v>
           </cell>
           <cell r="D2">
-            <v>5.7489780179949414E-2</v>
+            <v>0.11497956035989883</v>
           </cell>
           <cell r="E2">
-            <v>7.3691923994315039E-2</v>
+            <v>0.14738384798863008</v>
           </cell>
           <cell r="F2">
-            <v>6.6040756447059312E-2</v>
+            <v>0.13208151289411862</v>
           </cell>
           <cell r="G2">
-            <v>5.2167487092549751E-2</v>
+            <v>0.1043349741850995</v>
           </cell>
           <cell r="H2">
-            <v>4.4925071554863638E-2</v>
+            <v>8.9850143109727276E-2</v>
           </cell>
           <cell r="I2">
-            <v>0.15083564914068645</v>
+            <v>0.3016712982813729</v>
           </cell>
           <cell r="J2">
-            <v>0.16257141055177718</v>
+            <v>0.32514282110355436</v>
           </cell>
           <cell r="K2">
-            <v>0.13943830152756345</v>
+            <v>0.2788766030551269</v>
           </cell>
           <cell r="L2">
-            <v>0.16245574451754552</v>
+            <v>0.32491148903509104</v>
           </cell>
           <cell r="M2">
-            <v>0.15095368643570009</v>
+            <v>0.30190737287140018</v>
           </cell>
           <cell r="N2">
-            <v>0.14711522865480728</v>
+            <v>0.29423045730961456</v>
           </cell>
           <cell r="O2">
-            <v>0.13270878609063924</v>
+            <v>0.26541757218127848</v>
           </cell>
           <cell r="P2">
-            <v>8.0340893135963182E-2</v>
+            <v>0.16068178627192636</v>
           </cell>
           <cell r="Q2">
-            <v>0.12454372557936395</v>
+            <v>0.24908745115872791</v>
           </cell>
           <cell r="R2">
-            <v>0.15086470282526482</v>
+            <v>0.30172940565052964</v>
           </cell>
           <cell r="S2">
-            <v>0.14076621964366307</v>
+            <v>0.28153243928732613</v>
           </cell>
           <cell r="T2">
-            <v>9.6433546244114571E-2</v>
+            <v>0.19286709248822914</v>
           </cell>
           <cell r="U2">
-            <v>0.10307571409868105</v>
+            <v>0.2061514281973621</v>
           </cell>
           <cell r="V2">
-            <v>9.4123550771165396E-2</v>
+            <v>0.18824710154233079</v>
           </cell>
           <cell r="W2">
-            <v>5.7801739387951391E-2</v>
+            <v>0.11560347877590278</v>
           </cell>
           <cell r="X2">
-            <v>4.5643059534307417E-2</v>
+            <v>9.1286119068614835E-2</v>
           </cell>
           <cell r="Y2">
-            <v>4.8755238782274612E-2</v>
+            <v>9.7510477564549225E-2</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.18322678541637163</v>
+            <v>-0.36645357083274327</v>
           </cell>
           <cell r="C3">
-            <v>-0.1813726624169579</v>
+            <v>-0.36274532483391581</v>
           </cell>
           <cell r="D3">
-            <v>-0.18637727641735927</v>
+            <v>-0.37275455283471853</v>
           </cell>
           <cell r="E3">
-            <v>-0.19686438334001741</v>
+            <v>-0.39372876668003481</v>
           </cell>
           <cell r="F3">
-            <v>-0.19690430372193629</v>
+            <v>-0.39380860744387258</v>
           </cell>
           <cell r="G3">
-            <v>-0.17894043885791869</v>
+            <v>-0.35788087771583738</v>
           </cell>
           <cell r="H3">
-            <v>-0.11458570744462929</v>
+            <v>-0.22917141488925857</v>
           </cell>
           <cell r="I3">
-            <v>-2.1378817360172005E-2</v>
+            <v>-4.2757634720344009E-2</v>
           </cell>
           <cell r="J3">
-            <v>-2.3206314100104167E-2</v>
+            <v>-4.6412628200208333E-2</v>
           </cell>
           <cell r="K3">
-            <v>-1.5071400800432684E-2</v>
+            <v>-3.0142801600865368E-2</v>
           </cell>
           <cell r="L3">
-            <v>-1.3276360787806791E-2</v>
+            <v>-2.6552721575613582E-2</v>
           </cell>
           <cell r="M3">
-            <v>-6.0460755052970022E-2</v>
+            <v>-0.12092151010594004</v>
           </cell>
           <cell r="N3">
-            <v>-8.7443402375786822E-2</v>
+            <v>-0.17488680475157364</v>
           </cell>
           <cell r="O3">
-            <v>-0.11564592420355796</v>
+            <v>-0.23129184840711592</v>
           </cell>
           <cell r="P3">
-            <v>-0.11591289322147309</v>
+            <v>-0.23182578644294619</v>
           </cell>
           <cell r="Q3">
-            <v>-0.11787312057404578</v>
+            <v>-0.23574624114809156</v>
           </cell>
           <cell r="R3">
-            <v>-8.9041855703758499E-2</v>
+            <v>-0.178083711407517</v>
           </cell>
           <cell r="S3">
-            <v>2.926552428268598E-2</v>
+            <v>5.853104856537196E-2</v>
           </cell>
           <cell r="T3">
-            <v>-4.1666164009067294E-3</v>
+            <v>-8.3332328018134588E-3</v>
           </cell>
           <cell r="U3">
-            <v>-5.0674419484521942E-2</v>
+            <v>-0.10134883896904388</v>
           </cell>
           <cell r="V3">
-            <v>-9.1169303186849168E-2</v>
+            <v>-0.18233860637369834</v>
           </cell>
           <cell r="W3">
-            <v>-0.12234837432605145</v>
+            <v>-0.24469674865210289</v>
           </cell>
           <cell r="X3">
-            <v>-0.13551490947298786</v>
+            <v>-0.27102981894597572</v>
           </cell>
           <cell r="Y3">
-            <v>-0.15211577411612434</v>
+            <v>-0.30423154823224868</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.1752303363680642</v>
+            <v>-0.35046067273612841</v>
           </cell>
           <cell r="C4">
-            <v>-0.18720202128767457</v>
+            <v>-0.37440404257534915</v>
           </cell>
           <cell r="D4">
-            <v>-0.19254207506095339</v>
+            <v>-0.38508415012190678</v>
           </cell>
           <cell r="E4">
-            <v>-0.18808627686047572</v>
+            <v>-0.37617255372095143</v>
           </cell>
           <cell r="F4">
-            <v>-0.18447785897188457</v>
+            <v>-0.36895571794376913</v>
           </cell>
           <cell r="G4">
-            <v>-0.15719072499544465</v>
+            <v>-0.31438144999088929</v>
           </cell>
           <cell r="H4">
-            <v>-5.9118475081447724E-3</v>
+            <v>-1.1823695016289545E-2</v>
           </cell>
           <cell r="I4">
-            <v>8.0231838516825207E-2</v>
+            <v>0.16046367703365041</v>
           </cell>
           <cell r="J4">
-            <v>0.103289876572887</v>
+            <v>0.20657975314577401</v>
           </cell>
           <cell r="K4">
-            <v>7.3393248112265913E-2</v>
+            <v>0.14678649622453183</v>
           </cell>
           <cell r="L4">
-            <v>4.1633726360065487E-2</v>
+            <v>8.3267452720130974E-2</v>
           </cell>
           <cell r="M4">
-            <v>8.3424941550644366E-2</v>
+            <v>0.16684988310128873</v>
           </cell>
           <cell r="N4">
-            <v>5.2603593176304975E-2</v>
+            <v>0.10520718635260995</v>
           </cell>
           <cell r="O4">
-            <v>1.6120779797293382E-2</v>
+            <v>3.2241559594586765E-2</v>
           </cell>
           <cell r="P4">
-            <v>-6.4415355047331549E-2</v>
+            <v>-0.1288307100946631</v>
           </cell>
           <cell r="Q4">
-            <v>-6.3166671674685274E-2</v>
+            <v>-0.12633334334937055</v>
           </cell>
           <cell r="R4">
-            <v>-5.2034091316211312E-2</v>
+            <v>-0.10406818263242262</v>
           </cell>
           <cell r="S4">
-            <v>-2.7045607255000988E-2</v>
+            <v>-5.4091214510001977E-2</v>
           </cell>
           <cell r="T4">
-            <v>-6.5917185863365063E-2</v>
+            <v>-0.13183437172673013</v>
           </cell>
           <cell r="U4">
-            <v>-3.6084920714718735E-2</v>
+            <v>-7.216984142943747E-2</v>
           </cell>
           <cell r="V4">
-            <v>-4.9542670694140922E-2</v>
+            <v>-9.9085341388281845E-2</v>
           </cell>
           <cell r="W4">
-            <v>-8.3010743933459613E-2</v>
+            <v>-0.16602148786691923</v>
           </cell>
           <cell r="X4">
-            <v>-0.13247022700834707</v>
+            <v>-0.26494045401669414</v>
           </cell>
           <cell r="Y4">
-            <v>-0.14953743885562409</v>
+            <v>-0.29907487771124819</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>0.31000000000000005</v>
+            <v>0.62000000000000011</v>
           </cell>
           <cell r="C2">
-            <v>0.30697674418604659</v>
+            <v>0.61395348837209318</v>
           </cell>
           <cell r="D2">
-            <v>0.29569767441860467</v>
+            <v>0.59139534883720934</v>
           </cell>
           <cell r="E2">
-            <v>0.29034883720930232</v>
+            <v>0.58069767441860465</v>
           </cell>
           <cell r="F2">
-            <v>0.28825581395348837</v>
+            <v>0.57651162790697674</v>
           </cell>
           <cell r="G2">
-            <v>0.29255813953488374</v>
+            <v>0.58511627906976749</v>
           </cell>
           <cell r="H2">
-            <v>0.29000000000000004</v>
+            <v>0.58000000000000007</v>
           </cell>
           <cell r="I2">
-            <v>0.35465116279069769</v>
+            <v>0.70930232558139539</v>
           </cell>
           <cell r="J2">
-            <v>0.38151162790697679</v>
+            <v>0.76302325581395358</v>
           </cell>
           <cell r="K2">
-            <v>0.37651162790697673</v>
+            <v>0.75302325581395346</v>
           </cell>
           <cell r="L2">
-            <v>0.3703488372093024</v>
+            <v>0.74069767441860479</v>
           </cell>
           <cell r="M2">
-            <v>0.37488372093023264</v>
+            <v>0.74976744186046529</v>
           </cell>
           <cell r="N2">
-            <v>0.38872093023255827</v>
+            <v>0.77744186046511654</v>
           </cell>
           <cell r="O2">
-            <v>0.38139534883720927</v>
+            <v>0.76279069767441854</v>
           </cell>
           <cell r="P2">
-            <v>0.35174418604651164</v>
+            <v>0.70348837209302328</v>
           </cell>
           <cell r="Q2">
-            <v>0.36255813953488375</v>
+            <v>0.7251162790697675</v>
           </cell>
           <cell r="R2">
-            <v>0.36674418604651166</v>
+            <v>0.73348837209302331</v>
           </cell>
           <cell r="S2">
-            <v>0.35465116279069769</v>
+            <v>0.70930232558139539</v>
           </cell>
           <cell r="T2">
-            <v>0.33674418604651168</v>
+            <v>0.67348837209302337</v>
           </cell>
           <cell r="U2">
-            <v>0.33244186046511631</v>
+            <v>0.66488372093023262</v>
           </cell>
           <cell r="V2">
-            <v>0.33139534883720934</v>
+            <v>0.66279069767441867</v>
           </cell>
           <cell r="W2">
-            <v>0.32767441860465119</v>
+            <v>0.65534883720930237</v>
           </cell>
           <cell r="X2">
-            <v>0.30279069767441869</v>
+            <v>0.60558139534883737</v>
           </cell>
           <cell r="Y2">
-            <v>0.29279069767441868</v>
+            <v>0.58558139534883735</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.27410714285714283</v>
+            <v>0.54821428571428565</v>
           </cell>
           <cell r="C3">
-            <v>0.25848214285714283</v>
+            <v>0.51696428571428565</v>
           </cell>
           <cell r="D3">
-            <v>0.24821428571428569</v>
+            <v>0.49642857142857139</v>
           </cell>
           <cell r="E3">
-            <v>0.22633928571428574</v>
+            <v>0.45267857142857149</v>
           </cell>
           <cell r="F3">
-            <v>0.21785714285714286</v>
+            <v>0.43571428571428572</v>
           </cell>
           <cell r="G3">
-            <v>0.22901785714285713</v>
+            <v>0.45803571428571427</v>
           </cell>
           <cell r="H3">
-            <v>0.24375000000000002</v>
+            <v>0.48750000000000004</v>
           </cell>
           <cell r="I3">
-            <v>0.3272321428571428</v>
+            <v>0.65446428571428561</v>
           </cell>
           <cell r="J3">
-            <v>0.35714285714285715</v>
+            <v>0.7142857142857143</v>
           </cell>
           <cell r="K3">
-            <v>0.38080357142857146</v>
+            <v>0.76160714285714293</v>
           </cell>
           <cell r="L3">
-            <v>0.34732142857142856</v>
+            <v>0.69464285714285712</v>
           </cell>
           <cell r="M3">
-            <v>0.36473214285714284</v>
+            <v>0.72946428571428568</v>
           </cell>
           <cell r="N3">
-            <v>0.36517857142857141</v>
+            <v>0.73035714285714282</v>
           </cell>
           <cell r="O3">
-            <v>0.35625000000000001</v>
+            <v>0.71250000000000002</v>
           </cell>
           <cell r="P3">
-            <v>0.30625000000000002</v>
+            <v>0.61250000000000004</v>
           </cell>
           <cell r="Q3">
-            <v>0.3191964285714286</v>
+            <v>0.63839285714285721</v>
           </cell>
           <cell r="R3">
-            <v>0.33794642857142859</v>
+            <v>0.67589285714285718</v>
           </cell>
           <cell r="S3">
-            <v>0.33660714285714283</v>
+            <v>0.67321428571428565</v>
           </cell>
           <cell r="T3">
-            <v>0.35089285714285712</v>
+            <v>0.70178571428571423</v>
           </cell>
           <cell r="U3">
-            <v>0.36964285714285711</v>
+            <v>0.73928571428571421</v>
           </cell>
           <cell r="V3">
-            <v>0.38660714285714287</v>
+            <v>0.77321428571428574</v>
           </cell>
           <cell r="W3">
-            <v>0.3549107142857143</v>
+            <v>0.7098214285714286</v>
           </cell>
           <cell r="X3">
-            <v>0.30491071428571426</v>
+            <v>0.60982142857142851</v>
           </cell>
           <cell r="Y3">
-            <v>0.28169642857142857</v>
+            <v>0.56339285714285714</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.22427652733118972</v>
+            <v>0.44855305466237944</v>
           </cell>
           <cell r="C4">
-            <v>0.2107717041800643</v>
+            <v>0.4215434083601286</v>
           </cell>
           <cell r="D4">
-            <v>0.19421221864951774</v>
+            <v>0.38842443729903547</v>
           </cell>
           <cell r="E4">
-            <v>0.20209003215434085</v>
+            <v>0.4041800643086817</v>
           </cell>
           <cell r="F4">
-            <v>0.19839228295819938</v>
+            <v>0.39678456591639877</v>
           </cell>
           <cell r="G4">
-            <v>0.20241157556270095</v>
+            <v>0.4048231511254019</v>
           </cell>
           <cell r="H4">
-            <v>0.28697749196141487</v>
+            <v>0.57395498392282973</v>
           </cell>
           <cell r="I4">
-            <v>0.36736334405144699</v>
+            <v>0.73472668810289399</v>
           </cell>
           <cell r="J4">
-            <v>0.385048231511254</v>
+            <v>0.770096463022508</v>
           </cell>
           <cell r="K4">
-            <v>0.36109324758842448</v>
+            <v>0.72218649517684896</v>
           </cell>
           <cell r="L4">
-            <v>0.35337620578778139</v>
+            <v>0.70675241157556279</v>
           </cell>
           <cell r="M4">
-            <v>0.37990353697749202</v>
+            <v>0.75980707395498404</v>
           </cell>
           <cell r="N4">
-            <v>0.39726688102893898</v>
+            <v>0.79453376205787796</v>
           </cell>
           <cell r="O4">
-            <v>0.36881028938906757</v>
+            <v>0.73762057877813514</v>
           </cell>
           <cell r="P4">
-            <v>0.33633440514469459</v>
+            <v>0.67266881028938919</v>
           </cell>
           <cell r="Q4">
-            <v>0.31897106109324763</v>
+            <v>0.63794212218649526</v>
           </cell>
           <cell r="R4">
-            <v>0.3260450160771704</v>
+            <v>0.6520900321543408</v>
           </cell>
           <cell r="S4">
-            <v>0.31495176848874601</v>
+            <v>0.62990353697749202</v>
           </cell>
           <cell r="T4">
-            <v>0.30771704180064313</v>
+            <v>0.61543408360128626</v>
           </cell>
           <cell r="U4">
-            <v>0.33536977491961417</v>
+            <v>0.67073954983922834</v>
           </cell>
           <cell r="V4">
-            <v>0.35128617363344056</v>
+            <v>0.70257234726688111</v>
           </cell>
           <cell r="W4">
-            <v>0.32781350482315119</v>
+            <v>0.65562700964630238</v>
           </cell>
           <cell r="X4">
-            <v>0.28729903536977491</v>
+            <v>0.57459807073954983</v>
           </cell>
           <cell r="Y4">
-            <v>0.23938906752411582</v>
+            <v>0.47877813504823163</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>0.3131000000000001</v>
+            <v>0.6262000000000002</v>
           </cell>
           <cell r="C2">
-            <v>0.30697674418604659</v>
+            <v>0.61395348837209318</v>
           </cell>
           <cell r="D2">
-            <v>0.28978372093023258</v>
+            <v>0.57956744186046516</v>
           </cell>
           <cell r="E2">
-            <v>0.29034883720930238</v>
+            <v>0.58069767441860476</v>
           </cell>
           <cell r="F2">
-            <v>0.28249069767441859</v>
+            <v>0.56498139534883718</v>
           </cell>
           <cell r="G2">
-            <v>0.29255813953488374</v>
+            <v>0.58511627906976749</v>
           </cell>
           <cell r="H2">
-            <v>0.29580000000000001</v>
+            <v>0.59160000000000001</v>
           </cell>
           <cell r="I2">
-            <v>0.35465116279069769</v>
+            <v>0.70930232558139539</v>
           </cell>
           <cell r="J2">
-            <v>0.38532674418604657</v>
+            <v>0.77065348837209313</v>
           </cell>
           <cell r="K2">
-            <v>0.37651162790697673</v>
+            <v>0.75302325581395346</v>
           </cell>
           <cell r="L2">
-            <v>0.36664534883720934</v>
+            <v>0.73329069767441868</v>
           </cell>
           <cell r="M2">
-            <v>0.36738604651162798</v>
+            <v>0.73477209302325597</v>
           </cell>
           <cell r="N2">
-            <v>0.3809465116279071</v>
+            <v>0.76189302325581421</v>
           </cell>
           <cell r="O2">
-            <v>0.38902325581395347</v>
+            <v>0.77804651162790694</v>
           </cell>
           <cell r="P2">
-            <v>0.35877906976744189</v>
+            <v>0.71755813953488379</v>
           </cell>
           <cell r="Q2">
-            <v>0.36618372093023255</v>
+            <v>0.7323674418604651</v>
           </cell>
           <cell r="R2">
-            <v>0.37041162790697674</v>
+            <v>0.74082325581395347</v>
           </cell>
           <cell r="S2">
-            <v>0.34755813953488374</v>
+            <v>0.69511627906976747</v>
           </cell>
           <cell r="T2">
-            <v>0.34347906976744191</v>
+            <v>0.68695813953488383</v>
           </cell>
           <cell r="U2">
-            <v>0.32911744186046515</v>
+            <v>0.65823488372093031</v>
           </cell>
           <cell r="V2">
-            <v>0.33470930232558144</v>
+            <v>0.66941860465116287</v>
           </cell>
           <cell r="W2">
-            <v>0.32767441860465119</v>
+            <v>0.65534883720930237</v>
           </cell>
           <cell r="X2">
-            <v>0.30884651162790705</v>
+            <v>0.6176930232558141</v>
           </cell>
           <cell r="Y2">
-            <v>0.29864651162790706</v>
+            <v>0.59729302325581413</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.27410714285714283</v>
+            <v>0.54821428571428565</v>
           </cell>
           <cell r="C3">
-            <v>0.25848214285714283</v>
+            <v>0.51696428571428565</v>
           </cell>
           <cell r="D3">
-            <v>0.24573214285714284</v>
+            <v>0.49146428571428569</v>
           </cell>
           <cell r="E3">
-            <v>0.22860267857142857</v>
+            <v>0.45720535714285715</v>
           </cell>
           <cell r="F3">
-            <v>0.21785714285714286</v>
+            <v>0.43571428571428572</v>
           </cell>
           <cell r="G3">
-            <v>0.23359821428571426</v>
+            <v>0.46719642857142851</v>
           </cell>
           <cell r="H3">
-            <v>0.24131250000000001</v>
+            <v>0.48262500000000003</v>
           </cell>
           <cell r="I3">
-            <v>0.32395982142857144</v>
+            <v>0.64791964285714287</v>
           </cell>
           <cell r="J3">
-            <v>0.36071428571428571</v>
+            <v>0.72142857142857142</v>
           </cell>
           <cell r="K3">
-            <v>0.37699553571428573</v>
+            <v>0.75399107142857147</v>
           </cell>
           <cell r="L3">
-            <v>0.35079464285714285</v>
+            <v>0.70158928571428569</v>
           </cell>
           <cell r="M3">
-            <v>0.36473214285714284</v>
+            <v>0.72946428571428568</v>
           </cell>
           <cell r="N3">
-            <v>0.37248214285714287</v>
+            <v>0.74496428571428575</v>
           </cell>
           <cell r="O3">
-            <v>0.35625000000000001</v>
+            <v>0.71250000000000002</v>
           </cell>
           <cell r="P3">
-            <v>0.30012500000000003</v>
+            <v>0.60025000000000006</v>
           </cell>
           <cell r="Q3">
-            <v>0.3191964285714286</v>
+            <v>0.63839285714285721</v>
           </cell>
           <cell r="R3">
-            <v>0.34132589285714288</v>
+            <v>0.68265178571428575</v>
           </cell>
           <cell r="S3">
-            <v>0.33997321428571425</v>
+            <v>0.67994642857142851</v>
           </cell>
           <cell r="T3">
-            <v>0.35791071428571425</v>
+            <v>0.7158214285714285</v>
           </cell>
           <cell r="U3">
-            <v>0.36224999999999996</v>
+            <v>0.72449999999999992</v>
           </cell>
           <cell r="V3">
-            <v>0.38274107142857139</v>
+            <v>0.76548214285714278</v>
           </cell>
           <cell r="W3">
-            <v>0.36200892857142858</v>
+            <v>0.72401785714285716</v>
           </cell>
           <cell r="X3">
-            <v>0.30186160714285715</v>
+            <v>0.60372321428571429</v>
           </cell>
           <cell r="Y3">
-            <v>0.27606250000000004</v>
+            <v>0.55212500000000009</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.21979099678456593</v>
+            <v>0.43958199356913186</v>
           </cell>
           <cell r="C4">
-            <v>0.21498713826366558</v>
+            <v>0.42997427652733117</v>
           </cell>
           <cell r="D4">
-            <v>0.19227009646302257</v>
+            <v>0.38454019292604513</v>
           </cell>
           <cell r="E4">
-            <v>0.20006913183279745</v>
+            <v>0.40013826366559491</v>
           </cell>
           <cell r="F4">
-            <v>0.20236012861736336</v>
+            <v>0.40472025723472671</v>
           </cell>
           <cell r="G4">
-            <v>0.19836334405144695</v>
+            <v>0.39672668810289391</v>
           </cell>
           <cell r="H4">
-            <v>0.28123794212218656</v>
+            <v>0.56247588424437311</v>
           </cell>
           <cell r="I4">
-            <v>0.37471061093247598</v>
+            <v>0.74942122186495197</v>
           </cell>
           <cell r="J4">
-            <v>0.38119774919614147</v>
+            <v>0.76239549839228293</v>
           </cell>
           <cell r="K4">
-            <v>0.36470418006430871</v>
+            <v>0.72940836012861743</v>
           </cell>
           <cell r="L4">
-            <v>0.35337620578778139</v>
+            <v>0.70675241157556279</v>
           </cell>
           <cell r="M4">
-            <v>0.37230546623794214</v>
+            <v>0.74461093247588428</v>
           </cell>
           <cell r="N4">
-            <v>0.39726688102893898</v>
+            <v>0.79453376205787796</v>
           </cell>
           <cell r="O4">
-            <v>0.3614340836012862</v>
+            <v>0.72286816720257241</v>
           </cell>
           <cell r="P4">
-            <v>0.33633440514469459</v>
+            <v>0.67266881028938919</v>
           </cell>
           <cell r="Q4">
-            <v>0.32216077170418012</v>
+            <v>0.64432154340836023</v>
           </cell>
           <cell r="R4">
-            <v>0.32278456591639876</v>
+            <v>0.64556913183279752</v>
           </cell>
           <cell r="S4">
-            <v>0.30865273311897107</v>
+            <v>0.61730546623794214</v>
           </cell>
           <cell r="T4">
-            <v>0.30463987138263671</v>
+            <v>0.60927974276527341</v>
           </cell>
           <cell r="U4">
-            <v>0.3420771704180065</v>
+            <v>0.68415434083601301</v>
           </cell>
           <cell r="V4">
-            <v>0.3477733118971062</v>
+            <v>0.69554662379421239</v>
           </cell>
           <cell r="W4">
-            <v>0.33436977491961417</v>
+            <v>0.66873954983922834</v>
           </cell>
           <cell r="X4">
-            <v>0.28729903536977491</v>
+            <v>0.57459807073954983</v>
           </cell>
           <cell r="Y4">
-            <v>0.24178295819935697</v>
+            <v>0.48356591639871394</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>0.3131000000000001</v>
+            <v>0.6262000000000002</v>
           </cell>
           <cell r="C2">
-            <v>0.31311627906976752</v>
+            <v>0.62623255813953504</v>
           </cell>
           <cell r="D2">
-            <v>0.28978372093023258</v>
+            <v>0.57956744186046516</v>
           </cell>
           <cell r="E2">
-            <v>0.29615581395348839</v>
+            <v>0.59231162790697678</v>
           </cell>
           <cell r="F2">
-            <v>0.28249069767441859</v>
+            <v>0.56498139534883718</v>
           </cell>
           <cell r="G2">
-            <v>0.28963255813953492</v>
+            <v>0.57926511627906985</v>
           </cell>
           <cell r="H2">
-            <v>0.29000000000000004</v>
+            <v>0.58000000000000007</v>
           </cell>
           <cell r="I2">
-            <v>0.36174418604651165</v>
+            <v>0.7234883720930233</v>
           </cell>
           <cell r="J2">
-            <v>0.3738813953488373</v>
+            <v>0.7477627906976746</v>
           </cell>
           <cell r="K2">
-            <v>0.37274651162790695</v>
+            <v>0.7454930232558139</v>
           </cell>
           <cell r="L2">
-            <v>0.37405232558139545</v>
+            <v>0.7481046511627909</v>
           </cell>
           <cell r="M2">
-            <v>0.37488372093023264</v>
+            <v>0.74976744186046529</v>
           </cell>
           <cell r="N2">
-            <v>0.38483372093023266</v>
+            <v>0.76966744186046532</v>
           </cell>
           <cell r="O2">
-            <v>0.37376744186046507</v>
+            <v>0.74753488372093013</v>
           </cell>
           <cell r="P2">
-            <v>0.34822674418604654</v>
+            <v>0.69645348837209309</v>
           </cell>
           <cell r="Q2">
-            <v>0.3698093023255814</v>
+            <v>0.7396186046511628</v>
           </cell>
           <cell r="R2">
-            <v>0.37041162790697674</v>
+            <v>0.74082325581395347</v>
           </cell>
           <cell r="S2">
-            <v>0.34755813953488374</v>
+            <v>0.69511627906976747</v>
           </cell>
           <cell r="T2">
-            <v>0.33674418604651168</v>
+            <v>0.67348837209302337</v>
           </cell>
           <cell r="U2">
-            <v>0.32911744186046515</v>
+            <v>0.65823488372093031</v>
           </cell>
           <cell r="V2">
-            <v>0.32808139534883723</v>
+            <v>0.65616279069767447</v>
           </cell>
           <cell r="W2">
-            <v>0.3342279069767442</v>
+            <v>0.66845581395348841</v>
           </cell>
           <cell r="X2">
-            <v>0.30884651162790711</v>
+            <v>0.61769302325581421</v>
           </cell>
           <cell r="Y2">
-            <v>0.28986279069767446</v>
+            <v>0.57972558139534891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.27684821428571427</v>
+            <v>0.55369642857142853</v>
           </cell>
           <cell r="C3">
-            <v>0.26106696428571424</v>
+            <v>0.52213392857142849</v>
           </cell>
           <cell r="D3">
-            <v>0.24821428571428569</v>
+            <v>0.49642857142857139</v>
           </cell>
           <cell r="E3">
-            <v>0.23086607142857143</v>
+            <v>0.46173214285714287</v>
           </cell>
           <cell r="F3">
-            <v>0.21567857142857139</v>
+            <v>0.43135714285714277</v>
           </cell>
           <cell r="G3">
-            <v>0.22672767857142856</v>
+            <v>0.45345535714285712</v>
           </cell>
           <cell r="H3">
-            <v>0.2461875</v>
+            <v>0.49237500000000001</v>
           </cell>
           <cell r="I3">
-            <v>0.32068749999999996</v>
+            <v>0.64137499999999992</v>
           </cell>
           <cell r="J3">
-            <v>0.35</v>
+            <v>0.7</v>
           </cell>
           <cell r="K3">
-            <v>0.38461160714285714</v>
+            <v>0.76922321428571427</v>
           </cell>
           <cell r="L3">
-            <v>0.34037499999999998</v>
+            <v>0.68074999999999997</v>
           </cell>
           <cell r="M3">
-            <v>0.36473214285714284</v>
+            <v>0.72946428571428568</v>
           </cell>
           <cell r="N3">
-            <v>0.3615267857142857</v>
+            <v>0.72305357142857141</v>
           </cell>
           <cell r="O3">
-            <v>0.35625000000000001</v>
+            <v>0.71250000000000002</v>
           </cell>
           <cell r="P3">
-            <v>0.3031875</v>
+            <v>0.606375</v>
           </cell>
           <cell r="Q3">
-            <v>0.32238839285714288</v>
+            <v>0.64477678571428576</v>
           </cell>
           <cell r="R3">
-            <v>0.34470535714285716</v>
+            <v>0.68941071428571432</v>
           </cell>
           <cell r="S3">
-            <v>0.33997321428571425</v>
+            <v>0.67994642857142851</v>
           </cell>
           <cell r="T3">
-            <v>0.34387499999999993</v>
+            <v>0.68774999999999986</v>
           </cell>
           <cell r="U3">
-            <v>0.36964285714285711</v>
+            <v>0.73928571428571421</v>
           </cell>
           <cell r="V3">
-            <v>0.37887500000000002</v>
+            <v>0.75775000000000003</v>
           </cell>
           <cell r="W3">
-            <v>0.3549107142857143</v>
+            <v>0.7098214285714286</v>
           </cell>
           <cell r="X3">
-            <v>0.30491071428571426</v>
+            <v>0.60982142857142851</v>
           </cell>
           <cell r="Y3">
-            <v>0.28451339285714283</v>
+            <v>0.56902678571428567</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.22651929260450163</v>
+            <v>0.45303858520900325</v>
           </cell>
           <cell r="C4">
-            <v>0.20655627009646305</v>
+            <v>0.41311254019292609</v>
           </cell>
           <cell r="D4">
-            <v>0.19809646302250808</v>
+            <v>0.39619292604501616</v>
           </cell>
           <cell r="E4">
-            <v>0.20411093247588427</v>
+            <v>0.40822186495176854</v>
           </cell>
           <cell r="F4">
-            <v>0.1964083601286174</v>
+            <v>0.3928167202572348</v>
           </cell>
           <cell r="G4">
-            <v>0.19836334405144695</v>
+            <v>0.39672668810289391</v>
           </cell>
           <cell r="H4">
-            <v>0.29271704180064317</v>
+            <v>0.58543408360128635</v>
           </cell>
           <cell r="I4">
-            <v>0.37103697749196152</v>
+            <v>0.74207395498392303</v>
           </cell>
           <cell r="J4">
-            <v>0.38119774919614147</v>
+            <v>0.76239549839228293</v>
           </cell>
           <cell r="K4">
-            <v>0.36831511254019295</v>
+            <v>0.73663022508038589</v>
           </cell>
           <cell r="L4">
-            <v>0.34630868167202578</v>
+            <v>0.69261736334405155</v>
           </cell>
           <cell r="M4">
-            <v>0.3875016077170419</v>
+            <v>0.77500321543408379</v>
           </cell>
           <cell r="N4">
-            <v>0.40521221864951773</v>
+            <v>0.81042443729903546</v>
           </cell>
           <cell r="O4">
-            <v>0.3614340836012862</v>
+            <v>0.72286816720257241</v>
           </cell>
           <cell r="P4">
-            <v>0.3329710610932477</v>
+            <v>0.6659421221864954</v>
           </cell>
           <cell r="Q4">
-            <v>0.32535048231511254</v>
+            <v>0.65070096463022509</v>
           </cell>
           <cell r="R4">
-            <v>0.3325659163987138</v>
+            <v>0.6651318327974276</v>
           </cell>
           <cell r="S4">
-            <v>0.30865273311897107</v>
+            <v>0.61730546623794214</v>
           </cell>
           <cell r="T4">
-            <v>0.31387138263665598</v>
+            <v>0.62774276527331196</v>
           </cell>
           <cell r="U4">
-            <v>0.33201607717041803</v>
+            <v>0.66403215434083607</v>
           </cell>
           <cell r="V4">
-            <v>0.35831189710610939</v>
+            <v>0.71662379421221878</v>
           </cell>
           <cell r="W4">
-            <v>0.32125723472668816</v>
+            <v>0.64251446945337631</v>
           </cell>
           <cell r="X4">
-            <v>0.29017202572347267</v>
+            <v>0.58034405144694534</v>
           </cell>
           <cell r="Y4">
-            <v>0.23460128617363349</v>
+            <v>0.46920257234726698</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>7.3825503355704702E-2</v>
+            <v>0.1476510067114094</v>
           </cell>
           <cell r="C2">
-            <v>8.1543624161073844E-2</v>
+            <v>0.16308724832214769</v>
           </cell>
           <cell r="D2">
-            <v>7.6845637583892623E-2</v>
+            <v>0.15369127516778525</v>
           </cell>
           <cell r="E2">
-            <v>7.6845637583892623E-2</v>
+            <v>0.15369127516778525</v>
           </cell>
           <cell r="F2">
-            <v>7.5167785234899337E-2</v>
+            <v>0.15033557046979867</v>
           </cell>
           <cell r="G2">
-            <v>7.9530201342281878E-2</v>
+            <v>0.15906040268456376</v>
           </cell>
           <cell r="H2">
-            <v>8.1879194630872495E-2</v>
+            <v>0.16375838926174499</v>
           </cell>
           <cell r="I2">
-            <v>0.15335570469798659</v>
+            <v>0.30671140939597319</v>
           </cell>
           <cell r="J2">
-            <v>0.17852348993288591</v>
+            <v>0.35704697986577183</v>
           </cell>
           <cell r="K2">
-            <v>0.17181208053691274</v>
+            <v>0.34362416107382548</v>
           </cell>
           <cell r="L2">
-            <v>0.16778523489932887</v>
+            <v>0.33557046979865773</v>
           </cell>
           <cell r="M2">
-            <v>0.16744966442953024</v>
+            <v>0.33489932885906049</v>
           </cell>
           <cell r="N2">
-            <v>0.17818791946308724</v>
+            <v>0.35637583892617447</v>
           </cell>
           <cell r="O2">
-            <v>0.17281879194630875</v>
+            <v>0.34563758389261751</v>
           </cell>
           <cell r="P2">
-            <v>0.12114093959731542</v>
+            <v>0.24228187919463084</v>
           </cell>
           <cell r="Q2">
-            <v>0.15838926174496645</v>
+            <v>0.31677852348993291</v>
           </cell>
           <cell r="R2">
-            <v>0.16040268456375839</v>
+            <v>0.32080536912751678</v>
           </cell>
           <cell r="S2">
-            <v>0.15033557046979867</v>
+            <v>0.30067114093959735</v>
           </cell>
           <cell r="T2">
-            <v>0.1191275167785235</v>
+            <v>0.238255033557047</v>
           </cell>
           <cell r="U2">
-            <v>0.1080536912751678</v>
+            <v>0.2161073825503356</v>
           </cell>
           <cell r="V2">
-            <v>0.11342281879194632</v>
+            <v>0.22684563758389265</v>
           </cell>
           <cell r="W2">
-            <v>0.11375838926174496</v>
+            <v>0.22751677852348992</v>
           </cell>
           <cell r="X2">
-            <v>7.8523489932885909E-2</v>
+            <v>0.15704697986577182</v>
           </cell>
           <cell r="Y2">
-            <v>7.7852348993288606E-2</v>
+            <v>0.15570469798657721</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.7037037037037038E-3</v>
+            <v>7.4074074074074077E-3</v>
           </cell>
           <cell r="C3">
-            <v>-2.2222222222222227E-2</v>
+            <v>-4.4444444444444453E-2</v>
           </cell>
           <cell r="D3">
-            <v>-2.4074074074074074E-2</v>
+            <v>-4.8148148148148148E-2</v>
           </cell>
           <cell r="E3">
-            <v>-3.5185185185185187E-2</v>
+            <v>-7.0370370370370375E-2</v>
           </cell>
           <cell r="F3">
-            <v>-4.2592592592592592E-2</v>
+            <v>-8.5185185185185183E-2</v>
           </cell>
           <cell r="G3">
-            <v>-3.333333333333334E-2</v>
+            <v>-6.666666666666668E-2</v>
           </cell>
           <cell r="H3">
-            <v>-4.2592592592592599E-2</v>
+            <v>-8.5185185185185197E-2</v>
           </cell>
           <cell r="I3">
-            <v>0.10740740740740742</v>
+            <v>0.21481481481481485</v>
           </cell>
           <cell r="J3">
-            <v>0.13703703703703704</v>
+            <v>0.27407407407407408</v>
           </cell>
           <cell r="K3">
-            <v>0.17592592592592593</v>
+            <v>0.35185185185185186</v>
           </cell>
           <cell r="L3">
-            <v>0.1</v>
+            <v>0.2</v>
           </cell>
           <cell r="M3">
-            <v>9.0740740740740733E-2</v>
+            <v>0.18148148148148147</v>
           </cell>
           <cell r="N3">
-            <v>6.2962962962962971E-2</v>
+            <v>0.12592592592592594</v>
           </cell>
           <cell r="O3">
-            <v>8.5185185185185183E-2</v>
+            <v>0.17037037037037037</v>
           </cell>
           <cell r="P3">
-            <v>3.7037037037037035E-2</v>
+            <v>7.407407407407407E-2</v>
           </cell>
           <cell r="Q3">
-            <v>3.1481481481481478E-2</v>
+            <v>6.2962962962962957E-2</v>
           </cell>
           <cell r="R3">
-            <v>3.7037037037037035E-2</v>
+            <v>7.407407407407407E-2</v>
           </cell>
           <cell r="S3">
-            <v>6.6666666666666666E-2</v>
+            <v>0.13333333333333333</v>
           </cell>
           <cell r="T3">
-            <v>0.1277777777777778</v>
+            <v>0.25555555555555559</v>
           </cell>
           <cell r="U3">
-            <v>0.12962962962962962</v>
+            <v>0.25925925925925924</v>
           </cell>
           <cell r="V3">
-            <v>0.10370370370370369</v>
+            <v>0.20740740740740737</v>
           </cell>
           <cell r="W3">
-            <v>7.9629629629629634E-2</v>
+            <v>0.15925925925925927</v>
           </cell>
           <cell r="X3">
-            <v>3.7037037037037028E-2</v>
+            <v>7.4074074074074056E-2</v>
           </cell>
           <cell r="Y3">
-            <v>7.4074074074074077E-3</v>
+            <v>1.4814814814814815E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-2.7941176470588237E-2</v>
+            <v>-5.5882352941176473E-2</v>
           </cell>
           <cell r="C4">
-            <v>-6.6176470588235281E-2</v>
+            <v>-0.13235294117647056</v>
           </cell>
           <cell r="D4">
-            <v>-0.11544117647058823</v>
+            <v>-0.23088235294117646</v>
           </cell>
           <cell r="E4">
-            <v>-0.10661764705882354</v>
+            <v>-0.21323529411764708</v>
           </cell>
           <cell r="F4">
-            <v>-0.10882352941176471</v>
+            <v>-0.21764705882352942</v>
           </cell>
           <cell r="G4">
-            <v>-0.10367647058823531</v>
+            <v>-0.20735294117647063</v>
           </cell>
           <cell r="H4">
-            <v>-5.8823529411764705E-3</v>
+            <v>-1.1764705882352941E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.12426470588235293</v>
+            <v>0.24852941176470586</v>
           </cell>
           <cell r="J4">
-            <v>0.16323529411764703</v>
+            <v>0.32647058823529407</v>
           </cell>
           <cell r="K4">
-            <v>0.1647058823529412</v>
+            <v>0.3294117647058824</v>
           </cell>
           <cell r="L4">
-            <v>0.13750000000000001</v>
+            <v>0.27500000000000002</v>
           </cell>
           <cell r="M4">
-            <v>0.17205882352941176</v>
+            <v>0.34411764705882353</v>
           </cell>
           <cell r="N4">
-            <v>0.15588235294117647</v>
+            <v>0.31176470588235294</v>
           </cell>
           <cell r="O4">
-            <v>0.13602941176470587</v>
+            <v>0.27205882352941174</v>
           </cell>
           <cell r="P4">
-            <v>9.7794117647058809E-2</v>
+            <v>0.19558823529411762</v>
           </cell>
           <cell r="Q4">
-            <v>6.1029411764705888E-2</v>
+            <v>0.12205882352941178</v>
           </cell>
           <cell r="R4">
-            <v>7.5735294117647067E-2</v>
+            <v>0.15147058823529413</v>
           </cell>
           <cell r="S4">
-            <v>6.7647058823529407E-2</v>
+            <v>0.13529411764705881</v>
           </cell>
           <cell r="T4">
-            <v>1.2499999999999999E-2</v>
+            <v>2.4999999999999998E-2</v>
           </cell>
           <cell r="U4">
-            <v>5.4411764705882354E-2</v>
+            <v>0.10882352941176471</v>
           </cell>
           <cell r="V4">
-            <v>7.6470588235294124E-2</v>
+            <v>0.15294117647058825</v>
           </cell>
           <cell r="W4">
-            <v>0.05</v>
+            <v>0.1</v>
           </cell>
           <cell r="X4">
-            <v>-4.6323529411764708E-2</v>
+            <v>-9.2647058823529416E-2</v>
           </cell>
           <cell r="Y4">
-            <v>-9.4852941176470584E-2</v>
+            <v>-0.18970588235294117</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>7.234899328859061E-2</v>
+            <v>0.14469798657718122</v>
           </cell>
           <cell r="C2">
-            <v>8.2359060402684592E-2</v>
+            <v>0.16471812080536918</v>
           </cell>
           <cell r="D2">
-            <v>7.8382550335570469E-2</v>
+            <v>0.15676510067114094</v>
           </cell>
           <cell r="E2">
-            <v>7.7614093959731553E-2</v>
+            <v>0.15522818791946311</v>
           </cell>
           <cell r="F2">
-            <v>7.591946308724834E-2</v>
+            <v>0.15183892617449668</v>
           </cell>
           <cell r="G2">
-            <v>7.7939597315436232E-2</v>
+            <v>0.15587919463087246</v>
           </cell>
           <cell r="H2">
-            <v>8.1879194630872495E-2</v>
+            <v>0.16375838926174499</v>
           </cell>
           <cell r="I2">
-            <v>0.15642281879194633</v>
+            <v>0.31284563758389267</v>
           </cell>
           <cell r="J2">
-            <v>0.1803087248322148</v>
+            <v>0.3606174496644296</v>
           </cell>
           <cell r="K2">
-            <v>0.17524832214765099</v>
+            <v>0.35049664429530197</v>
           </cell>
           <cell r="L2">
-            <v>0.16442953020134229</v>
+            <v>0.32885906040268459</v>
           </cell>
           <cell r="M2">
-            <v>0.16912416107382555</v>
+            <v>0.3382483221476511</v>
           </cell>
           <cell r="N2">
-            <v>0.17818791946308724</v>
+            <v>0.35637583892617447</v>
           </cell>
           <cell r="O2">
-            <v>0.17454697986577183</v>
+            <v>0.34909395973154367</v>
           </cell>
           <cell r="P2">
-            <v>0.12114093959731542</v>
+            <v>0.24228187919463084</v>
           </cell>
           <cell r="Q2">
-            <v>0.15522147651006712</v>
+            <v>0.31044295302013425</v>
           </cell>
           <cell r="R2">
-            <v>0.16361073825503358</v>
+            <v>0.32722147651006717</v>
           </cell>
           <cell r="S2">
-            <v>0.14732885906040269</v>
+            <v>0.29465771812080538</v>
           </cell>
           <cell r="T2">
-            <v>0.12151006711409396</v>
+            <v>0.24302013422818791</v>
           </cell>
           <cell r="U2">
-            <v>0.11021476510067117</v>
+            <v>0.22042953020134234</v>
           </cell>
           <cell r="V2">
-            <v>0.11569127516778524</v>
+            <v>0.23138255033557048</v>
           </cell>
           <cell r="W2">
-            <v>0.11375838926174496</v>
+            <v>0.22751677852348992</v>
           </cell>
           <cell r="X2">
-            <v>8.0093959731543624E-2</v>
+            <v>0.16018791946308725</v>
           </cell>
           <cell r="Y2">
-            <v>7.8630872483221481E-2</v>
+            <v>0.15726174496644296</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.6296296296296294E-3</v>
+            <v>7.2592592592592587E-3</v>
           </cell>
           <cell r="C3">
-            <v>-2.1777777777777781E-2</v>
+            <v>-4.3555555555555563E-2</v>
           </cell>
           <cell r="D3">
-            <v>-2.4555555555555553E-2</v>
+            <v>-4.9111111111111105E-2</v>
           </cell>
           <cell r="E3">
-            <v>-3.5888888888888894E-2</v>
+            <v>-7.1777777777777788E-2</v>
           </cell>
           <cell r="F3">
-            <v>-4.2592592592592592E-2</v>
+            <v>-8.5185185185185183E-2</v>
           </cell>
           <cell r="G3">
-            <v>-3.333333333333334E-2</v>
+            <v>-6.666666666666668E-2</v>
           </cell>
           <cell r="H3">
-            <v>-4.1740740740740745E-2</v>
+            <v>-8.348148148148149E-2</v>
           </cell>
           <cell r="I3">
-            <v>0.10740740740740742</v>
+            <v>0.21481481481481485</v>
           </cell>
           <cell r="J3">
-            <v>0.13703703703703701</v>
+            <v>0.27407407407407403</v>
           </cell>
           <cell r="K3">
-            <v>0.1724074074074074</v>
+            <v>0.3448148148148148</v>
           </cell>
           <cell r="L3">
-            <v>0.1</v>
+            <v>0.2</v>
           </cell>
           <cell r="M3">
-            <v>8.8925925925925922E-2</v>
+            <v>0.17785185185185184</v>
           </cell>
           <cell r="N3">
-            <v>6.2333333333333345E-2</v>
+            <v>0.12466666666666669</v>
           </cell>
           <cell r="O3">
-            <v>8.3481481481481476E-2</v>
+            <v>0.16696296296296295</v>
           </cell>
           <cell r="P3">
-            <v>3.7777777777777778E-2</v>
+            <v>7.5555555555555556E-2</v>
           </cell>
           <cell r="Q3">
-            <v>3.1166666666666662E-2</v>
+            <v>6.2333333333333324E-2</v>
           </cell>
           <cell r="R3">
-            <v>3.6296296296296299E-2</v>
+            <v>7.2592592592592597E-2</v>
           </cell>
           <cell r="S3">
-            <v>6.6000000000000003E-2</v>
+            <v>0.13200000000000001</v>
           </cell>
           <cell r="T3">
-            <v>0.13033333333333336</v>
+            <v>0.26066666666666671</v>
           </cell>
           <cell r="U3">
-            <v>0.13092592592592589</v>
+            <v>0.26185185185185178</v>
           </cell>
           <cell r="V3">
-            <v>0.10162962962962961</v>
+            <v>0.20325925925925922</v>
           </cell>
           <cell r="W3">
-            <v>7.9629629629629634E-2</v>
+            <v>0.15925925925925927</v>
           </cell>
           <cell r="X3">
-            <v>3.7407407407407403E-2</v>
+            <v>7.4814814814814806E-2</v>
           </cell>
           <cell r="Y3">
-            <v>7.4814814814814813E-3</v>
+            <v>1.4962962962962963E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-2.8499999999999998E-2</v>
+            <v>-5.6999999999999995E-2</v>
           </cell>
           <cell r="C4">
-            <v>-6.7499999999999991E-2</v>
+            <v>-0.13499999999999998</v>
           </cell>
           <cell r="D4">
-            <v>-0.11774999999999998</v>
+            <v>-0.23549999999999996</v>
           </cell>
           <cell r="E4">
-            <v>-0.10768382352941178</v>
+            <v>-0.21536764705882355</v>
           </cell>
           <cell r="F4">
-            <v>-0.11099999999999999</v>
+            <v>-0.22199999999999998</v>
           </cell>
           <cell r="G4">
-            <v>-0.10471323529411765</v>
+            <v>-0.2094264705882353</v>
           </cell>
           <cell r="H4">
-            <v>-5.7647058823529418E-3</v>
+            <v>-1.1529411764705884E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.1230220588235294</v>
+            <v>0.2460441176470588</v>
           </cell>
           <cell r="J4">
-            <v>0.16649999999999998</v>
+            <v>0.33299999999999996</v>
           </cell>
           <cell r="K4">
-            <v>0.16635294117647062</v>
+            <v>0.33270588235294124</v>
           </cell>
           <cell r="L4">
-            <v>0.13612500000000002</v>
+            <v>0.27225000000000005</v>
           </cell>
           <cell r="M4">
-            <v>0.17033823529411762</v>
+            <v>0.34067647058823525</v>
           </cell>
           <cell r="N4">
-            <v>0.15276470588235297</v>
+            <v>0.30552941176470594</v>
           </cell>
           <cell r="O4">
-            <v>0.13330882352941173</v>
+            <v>0.26661764705882346</v>
           </cell>
           <cell r="P4">
-            <v>9.6816176470588225E-2</v>
+            <v>0.19363235294117645</v>
           </cell>
           <cell r="Q4">
-            <v>6.1639705882352951E-2</v>
+            <v>0.1232794117647059</v>
           </cell>
           <cell r="R4">
-            <v>7.5735294117647067E-2</v>
+            <v>0.15147058823529413</v>
           </cell>
           <cell r="S4">
-            <v>6.7647058823529407E-2</v>
+            <v>0.13529411764705881</v>
           </cell>
           <cell r="T4">
-            <v>1.2749999999999997E-2</v>
+            <v>2.5499999999999995E-2</v>
           </cell>
           <cell r="U4">
-            <v>5.386764705882352E-2</v>
+            <v>0.10773529411764704</v>
           </cell>
           <cell r="V4">
-            <v>7.6470588235294124E-2</v>
+            <v>0.15294117647058825</v>
           </cell>
           <cell r="W4">
-            <v>5.0500000000000003E-2</v>
+            <v>0.10100000000000001</v>
           </cell>
           <cell r="X4">
-            <v>-4.6786764705882354E-2</v>
+            <v>-9.3573529411764708E-2</v>
           </cell>
           <cell r="Y4">
-            <v>-9.6750000000000003E-2</v>
+            <v>-0.19350000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>7.234899328859061E-2</v>
+            <v>0.14469798657718122</v>
           </cell>
           <cell r="C2">
-            <v>8.1543624161073844E-2</v>
+            <v>0.16308724832214769</v>
           </cell>
           <cell r="D2">
-            <v>7.6077181208053707E-2</v>
+            <v>0.15215436241610741</v>
           </cell>
           <cell r="E2">
-            <v>7.5308724832214777E-2</v>
+            <v>0.15061744966442955</v>
           </cell>
           <cell r="F2">
-            <v>7.4416107382550334E-2</v>
+            <v>0.14883221476510067</v>
           </cell>
           <cell r="G2">
-            <v>7.7939597315436232E-2</v>
+            <v>0.15587919463087246</v>
           </cell>
           <cell r="H2">
-            <v>8.1879194630872495E-2</v>
+            <v>0.16375838926174499</v>
           </cell>
           <cell r="I2">
-            <v>0.15642281879194633</v>
+            <v>0.31284563758389267</v>
           </cell>
           <cell r="J2">
-            <v>0.1803087248322148</v>
+            <v>0.3606174496644296</v>
           </cell>
           <cell r="K2">
-            <v>0.17181208053691274</v>
+            <v>0.34362416107382548</v>
           </cell>
           <cell r="L2">
-            <v>0.16610738255033561</v>
+            <v>0.33221476510067122</v>
           </cell>
           <cell r="M2">
-            <v>0.17079865771812086</v>
+            <v>0.34159731543624172</v>
           </cell>
           <cell r="N2">
-            <v>0.18175167785234897</v>
+            <v>0.36350335570469794</v>
           </cell>
           <cell r="O2">
-            <v>0.16936241610738256</v>
+            <v>0.33872483221476513</v>
           </cell>
           <cell r="P2">
-            <v>0.12114093959731542</v>
+            <v>0.24228187919463084</v>
           </cell>
           <cell r="Q2">
-            <v>0.15680536912751677</v>
+            <v>0.31361073825503355</v>
           </cell>
           <cell r="R2">
-            <v>0.16361073825503358</v>
+            <v>0.32722147651006717</v>
           </cell>
           <cell r="S2">
-            <v>0.14883221476510067</v>
+            <v>0.29766442953020134</v>
           </cell>
           <cell r="T2">
-            <v>0.11674496644295303</v>
+            <v>0.23348993288590605</v>
           </cell>
           <cell r="U2">
-            <v>0.10913422818791947</v>
+            <v>0.21826845637583894</v>
           </cell>
           <cell r="V2">
-            <v>0.11569127516778524</v>
+            <v>0.23138255033557048</v>
           </cell>
           <cell r="W2">
-            <v>0.11148322147651007</v>
+            <v>0.22296644295302015</v>
           </cell>
           <cell r="X2">
-            <v>7.6953020134228181E-2</v>
+            <v>0.15390604026845636</v>
           </cell>
           <cell r="Y2">
-            <v>7.6295302013422828E-2</v>
+            <v>0.15259060402684566</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.666666666666667E-3</v>
+            <v>7.3333333333333341E-3</v>
           </cell>
           <cell r="C3">
-            <v>-2.2222222222222227E-2</v>
+            <v>-4.4444444444444453E-2</v>
           </cell>
           <cell r="D3">
-            <v>-2.4314814814814817E-2</v>
+            <v>-4.8629629629629634E-2</v>
           </cell>
           <cell r="E3">
-            <v>-3.4833333333333341E-2</v>
+            <v>-6.9666666666666682E-2</v>
           </cell>
           <cell r="F3">
-            <v>-4.3018518518518511E-2</v>
+            <v>-8.6037037037037023E-2</v>
           </cell>
           <cell r="G3">
-            <v>-3.266666666666667E-2</v>
+            <v>-6.533333333333334E-2</v>
           </cell>
           <cell r="H3">
-            <v>-4.2592592592592599E-2</v>
+            <v>-8.5185185185185197E-2</v>
           </cell>
           <cell r="I3">
-            <v>0.1084814814814815</v>
+            <v>0.216962962962963</v>
           </cell>
           <cell r="J3">
-            <v>0.13977777777777778</v>
+            <v>0.27955555555555556</v>
           </cell>
           <cell r="K3">
-            <v>0.1759259259259259</v>
+            <v>0.3518518518518518</v>
           </cell>
           <cell r="L3">
-            <v>0.10100000000000001</v>
+            <v>0.20200000000000001</v>
           </cell>
           <cell r="M3">
-            <v>8.8925925925925922E-2</v>
+            <v>0.17785185185185184</v>
           </cell>
           <cell r="N3">
-            <v>6.1703703703703705E-2</v>
+            <v>0.12340740740740741</v>
           </cell>
           <cell r="O3">
-            <v>8.6037037037037023E-2</v>
+            <v>0.17207407407407405</v>
           </cell>
           <cell r="P3">
-            <v>3.6296296296296299E-2</v>
+            <v>7.2592592592592597E-2</v>
           </cell>
           <cell r="Q3">
-            <v>3.1166666666666662E-2</v>
+            <v>6.2333333333333324E-2</v>
           </cell>
           <cell r="R3">
-            <v>3.6666666666666667E-2</v>
+            <v>7.3333333333333334E-2</v>
           </cell>
           <cell r="S3">
-            <v>6.6666666666666652E-2</v>
+            <v>0.1333333333333333</v>
           </cell>
           <cell r="T3">
-            <v>0.12522222222222223</v>
+            <v>0.25044444444444447</v>
           </cell>
           <cell r="U3">
-            <v>0.13092592592592589</v>
+            <v>0.26185185185185178</v>
           </cell>
           <cell r="V3">
-            <v>0.10266666666666664</v>
+            <v>0.20533333333333328</v>
           </cell>
           <cell r="W3">
-            <v>7.9629629629629634E-2</v>
+            <v>0.15925925925925927</v>
           </cell>
           <cell r="X3">
-            <v>3.6296296296296292E-2</v>
+            <v>7.2592592592592584E-2</v>
           </cell>
           <cell r="Y3">
-            <v>7.3333333333333341E-3</v>
+            <v>1.4666666666666668E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-2.7941176470588237E-2</v>
+            <v>-5.5882352941176473E-2</v>
           </cell>
           <cell r="C4">
-            <v>-6.6176470588235281E-2</v>
+            <v>-0.13235294117647056</v>
           </cell>
           <cell r="D4">
-            <v>-0.11544117647058823</v>
+            <v>-0.23088235294117646</v>
           </cell>
           <cell r="E4">
-            <v>-0.10768382352941178</v>
+            <v>-0.21536764705882355</v>
           </cell>
           <cell r="F4">
-            <v>-0.10773529411764704</v>
+            <v>-0.21547058823529408</v>
           </cell>
           <cell r="G4">
-            <v>-0.10471323529411765</v>
+            <v>-0.2094264705882353</v>
           </cell>
           <cell r="H4">
-            <v>-5.7647058823529418E-3</v>
+            <v>-1.1529411764705884E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.12675</v>
+            <v>0.2535</v>
           </cell>
           <cell r="J4">
-            <v>0.16649999999999998</v>
+            <v>0.33299999999999996</v>
           </cell>
           <cell r="K4">
-            <v>0.1647058823529412</v>
+            <v>0.3294117647058824</v>
           </cell>
           <cell r="L4">
-            <v>0.13612500000000002</v>
+            <v>0.27225000000000005</v>
           </cell>
           <cell r="M4">
-            <v>0.1737794117647059</v>
+            <v>0.34755882352941181</v>
           </cell>
           <cell r="N4">
-            <v>0.15744117647058825</v>
+            <v>0.3148823529411765</v>
           </cell>
           <cell r="O4">
-            <v>0.13602941176470587</v>
+            <v>0.27205882352941174</v>
           </cell>
           <cell r="P4">
-            <v>9.8772058823529407E-2</v>
+            <v>0.19754411764705881</v>
           </cell>
           <cell r="Q4">
-            <v>6.1029411764705888E-2</v>
+            <v>0.12205882352941178</v>
           </cell>
           <cell r="R4">
-            <v>7.6492647058823526E-2</v>
+            <v>0.15298529411764705</v>
           </cell>
           <cell r="S4">
-            <v>6.83235294117647E-2</v>
+            <v>0.1366470588235294</v>
           </cell>
           <cell r="T4">
-            <v>1.2749999999999997E-2</v>
+            <v>2.5499999999999995E-2</v>
           </cell>
           <cell r="U4">
-            <v>5.3323529411764707E-2</v>
+            <v>0.10664705882352941</v>
           </cell>
           <cell r="V4">
-            <v>7.5705882352941178E-2</v>
+            <v>0.15141176470588236</v>
           </cell>
           <cell r="W4">
-            <v>4.9500000000000002E-2</v>
+            <v>9.9000000000000005E-2</v>
           </cell>
           <cell r="X4">
-            <v>-4.7249999999999993E-2</v>
+            <v>-9.4499999999999987E-2</v>
           </cell>
           <cell r="Y4">
-            <v>-9.5801470588235293E-2</v>
+            <v>-0.19160294117647059</v>
           </cell>
         </row>
       </sheetData>
@@ -3849,99 +3849,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>9.6738252428489865E-2</v>
+        <v>0.19347650485697973</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>6.63170946702836E-2</v>
+        <v>0.1326341893405672</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>5.9249671409947871E-2</v>
+        <v>0.11849934281989574</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>7.5195840810525549E-2</v>
+        <v>0.1503916816210511</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>6.5393298050519508E-2</v>
+        <v>0.13078659610103902</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>5.3232129686275255E-2</v>
+        <v>0.10646425937255051</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>4.4044187798885914E-2</v>
+        <v>8.8088375597771829E-2</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>0.15545306697152381</v>
+        <v>0.31090613394304761</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>0.16096179262552199</v>
+        <v>0.32192358525104398</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>0.13529656979902197</v>
+        <v>0.27059313959804393</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>0.16084727179955</v>
+        <v>0.32169454359909999</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>0.15244827739050901</v>
+        <v>0.30489655478101801</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>0.15161875606260752</v>
+        <v>0.30323751212521505</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>0.13538977166822791</v>
+        <v>0.27077954333645582</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>7.7954529973508824E-2</v>
+        <v>0.15590905994701765</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>0.12329828832357033</v>
+        <v>0.24659657664714066</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>0.14937099289630179</v>
+        <v>0.29874198579260358</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>0.13937249469669613</v>
+        <v>0.27874498939339226</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>9.7407622468802593E-2</v>
+        <v>0.19481524493760519</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>0.1020651678820273</v>
+        <v>0.20413033576405459</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>9.2241079755742084E-2</v>
+        <v>0.18448215951148417</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>5.8385595341365039E-2</v>
+        <v>0.11677119068273008</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>4.7506041556115881E-2</v>
+        <v>9.5012083112231763E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>4.923796391873278E-2</v>
+        <v>9.847592783746556E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3950,99 +3950,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-0.18504091200465256</v>
+        <v>-0.37008182400930512</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-0.17774520916861875</v>
+        <v>-0.35549041833723749</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-0.18637727641735927</v>
+        <v>-0.37275455283471853</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-0.19101692640912582</v>
+        <v>-0.38203385281825164</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-0.19304343502150617</v>
+        <v>-0.38608687004301234</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-0.17716875134447396</v>
+        <v>-0.35433750268894793</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-0.11233892886728361</v>
+        <v>-0.22467785773456722</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-2.1162869710069261E-2</v>
+        <v>-4.2325739420138522E-2</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.2974250959103125E-2</v>
+        <v>-4.594850191820625E-2</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-1.5686560016776874E-2</v>
+        <v>-3.1373120033553747E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-1.3276360787806791E-2</v>
+        <v>-2.6552721575613582E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-6.106536260349972E-2</v>
+        <v>-0.12213072520699944</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-8.9209935757115846E-2</v>
+        <v>-0.17841987151423169</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-0.11221089675196712</v>
+        <v>-0.22442179350393424</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-0.11364009139360108</v>
+        <v>-0.22728018278720216</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-0.11787312057404578</v>
+        <v>-0.23574624114809156</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-8.9041855703758499E-2</v>
+        <v>-0.178083711407517</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>3.016140767909474E-2</v>
+        <v>6.032281535818948E-2</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-4.1666164009067294E-3</v>
+        <v>-8.3332328018134588E-3</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-4.9680803416197981E-2</v>
+        <v>-9.9361606832395963E-2</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-9.3011107291634018E-2</v>
+        <v>-0.18602221458326804</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-0.11992563424038705</v>
+        <v>-0.23985126848077409</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-0.13020059929757657</v>
+        <v>-0.26040119859515315</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-0.15363693185728561</v>
+        <v>-0.30727386371457122</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4051,99 +4051,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-0.1752303363680642</v>
+        <v>-0.35046067273612841</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-0.18720202128767457</v>
+        <v>-0.37440404257534915</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-0.19254207506095339</v>
+        <v>-0.38508415012190678</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-0.18996713962908049</v>
+        <v>-0.37993427925816098</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-0.19012514036898309</v>
+        <v>-0.38025028073796618</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-0.16033453949535356</v>
+        <v>-0.32066907899070712</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-5.9118475081447724E-3</v>
+        <v>-1.1823695016289545E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>8.2663106350668383E-2</v>
+        <v>0.16532621270133677</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>0.10432277533861588</v>
+        <v>0.20864555067723176</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>7.0515081519628028E-2</v>
+        <v>0.14103016303925606</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>4.3333062129864083E-2</v>
+        <v>8.6666124259728167E-2</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>8.3424941550644366E-2</v>
+        <v>0.16684988310128873</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>5.4197641454374827E-2</v>
+        <v>0.10839528290874965</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>1.6443195393239247E-2</v>
+        <v>3.2886390786478495E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-6.4415355047331549E-2</v>
+        <v>-0.1288307100946631</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-6.5080813240584817E-2</v>
+        <v>-0.13016162648116963</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-5.3610881962157103E-2</v>
+        <v>-0.10722176392431421</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-2.5984995205785261E-2</v>
+        <v>-5.1969990411570521E-2</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-6.4624692022906924E-2</v>
+        <v>-0.12924938404581385</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-3.6084920714718735E-2</v>
+        <v>-7.216984142943747E-2</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-5.0553745606266243E-2</v>
+        <v>-0.10110749121253249</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-8.2172251570495361E-2</v>
+        <v>-0.16434450314099072</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-0.13247022700834707</v>
+        <v>-0.26494045401669414</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-0.14654669007851159</v>
+        <v>-0.29309338015702319</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4554,99 +4554,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>9.6738252428489865E-2</v>
+        <v>0.19347650485697973</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>6.9023914860907407E-2</v>
+        <v>0.13804782972181481</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>5.7489780179949414E-2</v>
+        <v>0.11497956035989883</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>7.3691923994315039E-2</v>
+        <v>0.14738384798863008</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>6.6040756447059312E-2</v>
+        <v>0.13208151289411862</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>5.2167487092549751E-2</v>
+        <v>0.1043349741850995</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>4.4925071554863638E-2</v>
+        <v>8.9850143109727276E-2</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>0.15083564914068645</v>
+        <v>0.3016712982813729</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>0.16257141055177718</v>
+        <v>0.32514282110355436</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>0.13943830152756345</v>
+        <v>0.2788766030551269</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>0.16245574451754552</v>
+        <v>0.32491148903509104</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>0.15095368643570009</v>
+        <v>0.30190737287140018</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>0.14711522865480728</v>
+        <v>0.29423045730961456</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>0.13270878609063924</v>
+        <v>0.26541757218127848</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>8.0340893135963182E-2</v>
+        <v>0.16068178627192636</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>0.12454372557936395</v>
+        <v>0.24908745115872791</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>0.15086470282526482</v>
+        <v>0.30172940565052964</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>0.14076621964366307</v>
+        <v>0.28153243928732613</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>9.6433546244114571E-2</v>
+        <v>0.19286709248822914</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>0.10307571409868105</v>
+        <v>0.2061514281973621</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>9.4123550771165396E-2</v>
+        <v>0.18824710154233079</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>5.7801739387951391E-2</v>
+        <v>0.11560347877590278</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>4.5643059534307417E-2</v>
+        <v>9.1286119068614835E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>4.8755238782274612E-2</v>
+        <v>9.7510477564549225E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4655,99 +4655,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-0.18322678541637163</v>
+        <v>-0.36645357083274327</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-0.1813726624169579</v>
+        <v>-0.36274532483391581</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-0.18637727641735927</v>
+        <v>-0.37275455283471853</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-0.19686438334001741</v>
+        <v>-0.39372876668003481</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-0.19690430372193629</v>
+        <v>-0.39380860744387258</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-0.17894043885791869</v>
+        <v>-0.35788087771583738</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-0.11458570744462929</v>
+        <v>-0.22917141488925857</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-2.1378817360172005E-2</v>
+        <v>-4.2757634720344009E-2</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.3206314100104167E-2</v>
+        <v>-4.6412628200208333E-2</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-1.5071400800432684E-2</v>
+        <v>-3.0142801600865368E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-1.3276360787806791E-2</v>
+        <v>-2.6552721575613582E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-6.0460755052970022E-2</v>
+        <v>-0.12092151010594004</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-8.7443402375786822E-2</v>
+        <v>-0.17488680475157364</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-0.11564592420355796</v>
+        <v>-0.23129184840711592</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-0.11591289322147309</v>
+        <v>-0.23182578644294619</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-0.11787312057404578</v>
+        <v>-0.23574624114809156</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-8.9041855703758499E-2</v>
+        <v>-0.178083711407517</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>2.926552428268598E-2</v>
+        <v>5.853104856537196E-2</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-4.1666164009067294E-3</v>
+        <v>-8.3332328018134588E-3</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-5.0674419484521942E-2</v>
+        <v>-0.10134883896904388</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-9.1169303186849168E-2</v>
+        <v>-0.18233860637369834</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-0.12234837432605145</v>
+        <v>-0.24469674865210289</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-0.13551490947298786</v>
+        <v>-0.27102981894597572</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-0.15211577411612434</v>
+        <v>-0.30423154823224868</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4756,99 +4756,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-0.1752303363680642</v>
+        <v>-0.35046067273612841</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-0.18720202128767457</v>
+        <v>-0.37440404257534915</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-0.19254207506095339</v>
+        <v>-0.38508415012190678</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-0.18808627686047572</v>
+        <v>-0.37617255372095143</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-0.18447785897188457</v>
+        <v>-0.36895571794376913</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-0.15719072499544465</v>
+        <v>-0.31438144999088929</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-5.9118475081447724E-3</v>
+        <v>-1.1823695016289545E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>8.0231838516825207E-2</v>
+        <v>0.16046367703365041</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>0.103289876572887</v>
+        <v>0.20657975314577401</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>7.3393248112265913E-2</v>
+        <v>0.14678649622453183</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>4.1633726360065487E-2</v>
+        <v>8.3267452720130974E-2</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>8.3424941550644366E-2</v>
+        <v>0.16684988310128873</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>5.2603593176304975E-2</v>
+        <v>0.10520718635260995</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>1.6120779797293382E-2</v>
+        <v>3.2241559594586765E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-6.4415355047331549E-2</v>
+        <v>-0.1288307100946631</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-6.3166671674685274E-2</v>
+        <v>-0.12633334334937055</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-5.2034091316211312E-2</v>
+        <v>-0.10406818263242262</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-2.7045607255000988E-2</v>
+        <v>-5.4091214510001977E-2</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-6.5917185863365063E-2</v>
+        <v>-0.13183437172673013</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-3.6084920714718735E-2</v>
+        <v>-7.216984142943747E-2</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-4.9542670694140922E-2</v>
+        <v>-9.9085341388281845E-2</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-8.3010743933459613E-2</v>
+        <v>-0.16602148786691923</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-0.13247022700834707</v>
+        <v>-0.26494045401669414</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-0.14953743885562409</v>
+        <v>-0.29907487771124819</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9436,99 +9436,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.47388000000000008</v>
+        <v>0.78388000000000013</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.47632341085271324</v>
+        <v>0.78330015503875983</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.44733767441860467</v>
+        <v>0.74303534883720934</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.43408217054263565</v>
+        <v>0.72443100775193803</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.40601581395348835</v>
+        <v>0.69427162790697672</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.39250480620155037</v>
+        <v>0.68506294573643411</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.41222666666666669</v>
+        <v>0.70222666666666678</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.37587782945736437</v>
+        <v>0.730528992248062</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40017829457364346</v>
+        <v>0.7816899224806203</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40372496124031004</v>
+        <v>0.78023658914728677</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38637550387596908</v>
+        <v>0.75672434108527142</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.39491038759689934</v>
+        <v>0.76979410852713193</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.42062759689922491</v>
+        <v>0.80934852713178318</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.44018201550387592</v>
+        <v>0.82157736434108519</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.41446418604651164</v>
+        <v>0.76620837209302328</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.42423813953488376</v>
+        <v>0.78679627906976746</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.40134418604651168</v>
+        <v>0.76808837209302327</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.42513116279069768</v>
+        <v>0.77978232558139537</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.37810418604651169</v>
+        <v>0.71484837209302332</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.36152186046511631</v>
+        <v>0.69396372093023262</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37555534883720931</v>
+        <v>0.70695069767441865</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.35496775193798452</v>
+        <v>0.68264217054263565</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.427364031007752</v>
+        <v>0.73015472868217068</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.442964031007752</v>
+        <v>0.73575472868217062</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9537,99 +9537,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.4379871428571428</v>
+        <v>0.71209428571428568</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.42782880952380953</v>
+        <v>0.6863109523809523</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.39985428571428572</v>
+        <v>0.64806857142857144</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.37007261904761907</v>
+        <v>0.59641190476190475</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.33561714285714284</v>
+        <v>0.5534742857142857</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.32896452380952379</v>
+        <v>0.55798238095238095</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.36597666666666667</v>
+        <v>0.60972666666666675</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.34845880952380948</v>
+        <v>0.67569095238095223</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.37580952380952382</v>
+        <v>0.73295238095238102</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40801690476190478</v>
+        <v>0.78882047619047624</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36334809523809525</v>
+        <v>0.71066952380952375</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.38475880952380948</v>
+        <v>0.74949095238095231</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.3970852380952381</v>
+        <v>0.76226380952380945</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.41503666666666666</v>
+        <v>0.77128666666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.36897000000000002</v>
+        <v>0.67522000000000004</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38087642857142862</v>
+        <v>0.70007285714285716</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.37254642857142861</v>
+        <v>0.71049285714285715</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.40708714285714281</v>
+        <v>0.74369428571428564</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.39225285714285713</v>
+        <v>0.74314571428571419</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.3987228571428571</v>
+        <v>0.76836571428571421</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.43076714285714285</v>
+        <v>0.81737428571428572</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.38220404761904764</v>
+        <v>0.73711476190476188</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.42948404761904757</v>
+        <v>0.73439476190476183</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.4318697619047619</v>
+        <v>0.71356619047619052</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9638,99 +9638,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.38815652733118972</v>
+        <v>0.61243305466237941</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.38011837084673095</v>
+        <v>0.59089007502679525</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.34585221864951776</v>
+        <v>0.54006443729903553</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34582336548767417</v>
+        <v>0.54791339764201497</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.31615228295819936</v>
+        <v>0.51454456591639874</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.30235824222936758</v>
+        <v>0.50476981779206853</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.40920415862808152</v>
+        <v>0.69618165058949644</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.38859001071811367</v>
+        <v>0.7559533547695606</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40371489817792067</v>
+        <v>0.78876312968917472</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.38830658092175779</v>
+        <v>0.74939982851018228</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36940287245444808</v>
+        <v>0.72277907824222942</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.39993020364415865</v>
+        <v>0.77983374062165067</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.42917354769560567</v>
+        <v>0.8264404287245446</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.42759695605573422</v>
+        <v>0.79640724544480179</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.39905440514469459</v>
+        <v>0.73538881028938918</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38065106109324764</v>
+        <v>0.69962212218649522</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.36064501607717042</v>
+        <v>0.68669003215434077</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.385431768488746</v>
+        <v>0.700383536977492</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.34907704180064314</v>
+        <v>0.65679408360128622</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.36444977491961417</v>
+        <v>0.69981954983922834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.39544617363344053</v>
+        <v>0.74673234726688109</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.35510683815648453</v>
+        <v>0.68292034297963566</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.41187236870310823</v>
+        <v>0.69917140407288314</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.38956240085744914</v>
+        <v>0.6289514683815649</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10141,99 +10141,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.47698000000000007</v>
+        <v>0.79008000000000023</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.47632341085271324</v>
+        <v>0.78330015503875983</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.44142372093023258</v>
+        <v>0.73120744186046516</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.4340821705426357</v>
+        <v>0.72443100775193803</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.40025069767441857</v>
+        <v>0.68274139534883715</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.39250480620155037</v>
+        <v>0.68506294573643411</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.41802666666666666</v>
+        <v>0.71382666666666672</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.37587782945736437</v>
+        <v>0.730528992248062</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40399341085271323</v>
+        <v>0.78932015503875985</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40372496124031004</v>
+        <v>0.78023658914728677</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38267201550387603</v>
+        <v>0.74931736434108531</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.38741271317829462</v>
+        <v>0.7547987596899226</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.4128531782945738</v>
+        <v>0.79379968992248084</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.44780992248062013</v>
+        <v>0.8368331782945736</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.42149906976744189</v>
+        <v>0.78027813953488379</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.42786372093023256</v>
+        <v>0.79404744186046505</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.40501162790697676</v>
+        <v>0.77542325581395344</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.41803813953488372</v>
+        <v>0.76559627906976746</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.38483906976744192</v>
+        <v>0.72831813953488378</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.35819744186046515</v>
+        <v>0.6873148837209303</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37886930232558141</v>
+        <v>0.71357860465116285</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.35496775193798452</v>
+        <v>0.68264217054263565</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.43341984496124036</v>
+        <v>0.74226635658914741</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.44881984496124039</v>
+        <v>0.74746635658914751</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10242,99 +10242,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.4379871428571428</v>
+        <v>0.71209428571428568</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.42782880952380953</v>
+        <v>0.6863109523809523</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.39737214285714284</v>
+        <v>0.64310428571428568</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.3723360119047619</v>
+        <v>0.60093869047619042</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.33561714285714284</v>
+        <v>0.5534742857142857</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.33354488095238088</v>
+        <v>0.56714309523809514</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.36353916666666669</v>
+        <v>0.60485166666666668</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.34518648809523811</v>
+        <v>0.66914630952380949</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.37938095238095237</v>
+        <v>0.74009523809523814</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40420886904761905</v>
+        <v>0.78120440476190478</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36682130952380954</v>
+        <v>0.71761595238095233</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.38475880952380948</v>
+        <v>0.74949095238095231</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.40438880952380951</v>
+        <v>0.77687095238095238</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.41503666666666666</v>
+        <v>0.77128666666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.36284500000000003</v>
+        <v>0.66297000000000006</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38087642857142862</v>
+        <v>0.70007285714285716</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.3759258928571429</v>
+        <v>0.71725178571428572</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.41045321428571424</v>
+        <v>0.75042642857142849</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.39927071428571426</v>
+        <v>0.75718142857142845</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.39132999999999996</v>
+        <v>0.75357999999999992</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.42690107142857137</v>
+        <v>0.80964214285714275</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.38930226190476191</v>
+        <v>0.75131119047619044</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.42643494047619046</v>
+        <v>0.72829654761904761</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.42623583333333337</v>
+        <v>0.70229833333333347</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10343,99 +10343,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.38367099678456595</v>
+        <v>0.60346199356913188</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.38433380493033226</v>
+        <v>0.59932094319399787</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.34391009646302256</v>
+        <v>0.53618019292604513</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34380246516613078</v>
+        <v>0.54387159699892829</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.32012012861736333</v>
+        <v>0.52248025723472669</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.29831001071811358</v>
+        <v>0.49667335476956054</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.40346460878885321</v>
+        <v>0.68470255091103982</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.39593727759914266</v>
+        <v>0.77064788853161859</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.39986441586280813</v>
+        <v>0.78106216505894965</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.39191751339764203</v>
+        <v>0.75662169346195074</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36940287245444808</v>
+        <v>0.72277907824222942</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.39233213290460878</v>
+        <v>0.76463759914255092</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.42917354769560567</v>
+        <v>0.8264404287245446</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.42022075026795286</v>
+        <v>0.78165483386923906</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.39905440514469459</v>
+        <v>0.73538881028938918</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38384077170418013</v>
+        <v>0.70600154340836019</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.35738456591639878</v>
+        <v>0.68016913183279748</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.37913273311897105</v>
+        <v>0.68778546623794212</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.34599987138263671</v>
+        <v>0.65063974276527337</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.3711571704180065</v>
+        <v>0.713234340836013</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.39193331189710617</v>
+        <v>0.73970662379421237</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.36166310825294751</v>
+        <v>0.69603288317256162</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.41187236870310823</v>
+        <v>0.69917140407288314</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.39195629153269029</v>
+        <v>0.63373924973204732</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10846,99 +10846,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.47698000000000007</v>
+        <v>0.79008000000000023</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.48246294573643422</v>
+        <v>0.79557922480620169</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.44142372093023258</v>
+        <v>0.73120744186046516</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.43988914728682171</v>
+        <v>0.73604496124031016</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.40025069767441857</v>
+        <v>0.68274139534883715</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.38957922480620155</v>
+        <v>0.67921178294573648</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.41222666666666669</v>
+        <v>0.70222666666666678</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.38297085271317832</v>
+        <v>0.74471503875968992</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.39254806201550396</v>
+        <v>0.76642945736434132</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.39995984496124026</v>
+        <v>0.77270635658914721</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.39007899224806214</v>
+        <v>0.76413131782945753</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.39491038759689934</v>
+        <v>0.76979410852713193</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.41674038759689935</v>
+        <v>0.80157410852713196</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.43255410852713172</v>
+        <v>0.80632155038759679</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.41094674418604654</v>
+        <v>0.75917348837209309</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.43148930232558141</v>
+        <v>0.80129860465116276</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.40501162790697676</v>
+        <v>0.77542325581395344</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.41803813953488372</v>
+        <v>0.76559627906976746</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.37810418604651169</v>
+        <v>0.71484837209302332</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.35819744186046515</v>
+        <v>0.6873148837209303</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37224139534883721</v>
+        <v>0.70032279069767445</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.36152124031007754</v>
+        <v>0.69574914728682169</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.43341984496124042</v>
+        <v>0.74226635658914752</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.44003612403100778</v>
+        <v>0.72989891472868229</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10947,99 +10947,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.44072821428571429</v>
+        <v>0.71757642857142856</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.43041363095238094</v>
+        <v>0.69148059523809513</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.39985428571428572</v>
+        <v>0.64806857142857144</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.37459940476190479</v>
+        <v>0.60546547619047619</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.33343857142857136</v>
+        <v>0.54911714285714275</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.32667434523809524</v>
+        <v>0.55340202380952375</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.36841416666666665</v>
+        <v>0.61460166666666671</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.34191416666666663</v>
+        <v>0.66260166666666653</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.36866666666666664</v>
+        <v>0.71866666666666668</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.41182494047619045</v>
+        <v>0.79643654761904759</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.35640166666666667</v>
+        <v>0.6967766666666666</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.38475880952380948</v>
+        <v>0.74949095238095231</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.3934334523809524</v>
+        <v>0.75496023809523805</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.41503666666666666</v>
+        <v>0.77128666666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.3659075</v>
+        <v>0.669095</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38406839285714289</v>
+        <v>0.70645678571428572</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.37930535714285718</v>
+        <v>0.72401071428571429</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.41045321428571424</v>
+        <v>0.75042642857142849</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.38523499999999994</v>
+        <v>0.72910999999999981</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.3987228571428571</v>
+        <v>0.76836571428571421</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.42303499999999999</v>
+        <v>0.80191000000000001</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.38220404761904764</v>
+        <v>0.73711476190476188</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.42948404761904757</v>
+        <v>0.73439476190476183</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.43468672619047616</v>
+        <v>0.71920011904761894</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11048,99 +11048,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.39039929260450162</v>
+        <v>0.61691858520900322</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.37590293676312969</v>
+        <v>0.58245920685959274</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.34973646302250805</v>
+        <v>0.5478329260450161</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34784426580921757</v>
+        <v>0.55195519828510187</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.31416836012861737</v>
+        <v>0.51057672025723477</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.29831001071811358</v>
+        <v>0.49667335476956054</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.41494370846730982</v>
+        <v>0.70766075026795305</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.39226364415862819</v>
+        <v>0.76330062165058965</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.39986441586280813</v>
+        <v>0.78106216505894965</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.39552844587352626</v>
+        <v>0.7638435584137192</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36233534833869246</v>
+        <v>0.70864403001071818</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40752827438370853</v>
+        <v>0.79502988210075043</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.43711888531618437</v>
+        <v>0.8423311039657021</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.42022075026795286</v>
+        <v>0.78165483386923906</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.3956910610932477</v>
+        <v>0.7286621221864954</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.38703048231511256</v>
+        <v>0.71238096463022504</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.36716591639871382</v>
+        <v>0.69973183279742757</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.37913273311897105</v>
+        <v>0.68778546623794212</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.35523138263665599</v>
+        <v>0.66910276527331192</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.36109607717041803</v>
+        <v>0.69311215434083606</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.40247189710610937</v>
+        <v>0.76078379421221876</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.34855056806002149</v>
+        <v>0.66980780278670959</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.41474535905680598</v>
+        <v>0.70491738478027866</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.38477461950696679</v>
+        <v>0.6193759056806003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11551,99 +11551,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>7.3825503355704702E-2</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>8.1543624161073844E-2</v>
+        <v>0.16308724832214769</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>7.6845637583892623E-2</v>
+        <v>0.15369127516778525</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>7.6845637583892623E-2</v>
+        <v>0.15369127516778525</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>7.5167785234899337E-2</v>
+        <v>0.15033557046979867</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>7.9530201342281878E-2</v>
+        <v>0.15906040268456376</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>8.1879194630872495E-2</v>
+        <v>0.16375838926174499</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>0.15335570469798659</v>
+        <v>0.30671140939597319</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>0.17852348993288591</v>
+        <v>0.35704697986577183</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>0.17181208053691274</v>
+        <v>0.34362416107382548</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>0.16778523489932887</v>
+        <v>0.33557046979865773</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>0.16744966442953024</v>
+        <v>0.33489932885906049</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>0.17818791946308724</v>
+        <v>0.35637583892617447</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>0.17281879194630875</v>
+        <v>0.34563758389261751</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>0.12114093959731542</v>
+        <v>0.24228187919463084</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>0.15838926174496645</v>
+        <v>0.31677852348993291</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>0.16040268456375839</v>
+        <v>0.32080536912751678</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>0.15033557046979867</v>
+        <v>0.30067114093959735</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>0.1191275167785235</v>
+        <v>0.238255033557047</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>0.1080536912751678</v>
+        <v>0.2161073825503356</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>0.11342281879194632</v>
+        <v>0.22684563758389265</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>0.11375838926174496</v>
+        <v>0.22751677852348992</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>7.8523489932885909E-2</v>
+        <v>0.15704697986577182</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>7.7852348993288606E-2</v>
+        <v>0.15570469798657721</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11652,99 +11652,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>3.7037037037037038E-3</v>
+        <v>7.4074074074074077E-3</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-2.2222222222222227E-2</v>
+        <v>-4.4444444444444453E-2</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-2.4074074074074074E-2</v>
+        <v>-4.8148148148148148E-2</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-3.5185185185185187E-2</v>
+        <v>-7.0370370370370375E-2</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-4.2592592592592592E-2</v>
+        <v>-8.5185185185185183E-2</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-3.333333333333334E-2</v>
+        <v>-6.666666666666668E-2</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-4.2592592592592599E-2</v>
+        <v>-8.5185185185185197E-2</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>0.10740740740740742</v>
+        <v>0.21481481481481485</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>0.13703703703703704</v>
+        <v>0.27407407407407408</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>0.17592592592592593</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>9.0740740740740733E-2</v>
+        <v>0.18148148148148147</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>6.2962962962962971E-2</v>
+        <v>0.12592592592592594</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>8.5185185185185183E-2</v>
+        <v>0.17037037037037037</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>3.1481481481481478E-2</v>
+        <v>6.2962962962962957E-2</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>0.1277777777777778</v>
+        <v>0.25555555555555559</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>0.12962962962962962</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>0.10370370370370369</v>
+        <v>0.20740740740740737</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>7.9629629629629634E-2</v>
+        <v>0.15925925925925927</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>3.7037037037037028E-2</v>
+        <v>7.4074074074074056E-2</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>7.4074074074074077E-3</v>
+        <v>1.4814814814814815E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11753,99 +11753,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-2.7941176470588237E-2</v>
+        <v>-5.5882352941176473E-2</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-6.6176470588235281E-2</v>
+        <v>-0.13235294117647056</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-0.11544117647058823</v>
+        <v>-0.23088235294117646</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-0.10661764705882354</v>
+        <v>-0.21323529411764708</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-0.10882352941176471</v>
+        <v>-0.21764705882352942</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-0.10367647058823531</v>
+        <v>-0.20735294117647063</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-5.8823529411764705E-3</v>
+        <v>-1.1764705882352941E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>0.12426470588235293</v>
+        <v>0.24852941176470586</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>0.16323529411764703</v>
+        <v>0.32647058823529407</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>0.1647058823529412</v>
+        <v>0.3294117647058824</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>0.13750000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>0.17205882352941176</v>
+        <v>0.34411764705882353</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>0.15588235294117647</v>
+        <v>0.31176470588235294</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>0.13602941176470587</v>
+        <v>0.27205882352941174</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>9.7794117647058809E-2</v>
+        <v>0.19558823529411762</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>6.1029411764705888E-2</v>
+        <v>0.12205882352941178</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>7.5735294117647067E-2</v>
+        <v>0.15147058823529413</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>6.7647058823529407E-2</v>
+        <v>0.13529411764705881</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>1.2499999999999999E-2</v>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>5.4411764705882354E-2</v>
+        <v>0.10882352941176471</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>7.6470588235294124E-2</v>
+        <v>0.15294117647058825</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-4.6323529411764708E-2</v>
+        <v>-9.2647058823529416E-2</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-9.4852941176470584E-2</v>
+        <v>-0.18970588235294117</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12256,99 +12256,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>7.234899328859061E-2</v>
+        <v>0.14469798657718122</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>8.2359060402684592E-2</v>
+        <v>0.16471812080536918</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>7.8382550335570469E-2</v>
+        <v>0.15676510067114094</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>7.7614093959731553E-2</v>
+        <v>0.15522818791946311</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>7.591946308724834E-2</v>
+        <v>0.15183892617449668</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>7.7939597315436232E-2</v>
+        <v>0.15587919463087246</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>8.1879194630872495E-2</v>
+        <v>0.16375838926174499</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>0.15642281879194633</v>
+        <v>0.31284563758389267</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>0.1803087248322148</v>
+        <v>0.3606174496644296</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>0.17524832214765099</v>
+        <v>0.35049664429530197</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>0.16442953020134229</v>
+        <v>0.32885906040268459</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>0.16912416107382555</v>
+        <v>0.3382483221476511</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>0.17818791946308724</v>
+        <v>0.35637583892617447</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>0.17454697986577183</v>
+        <v>0.34909395973154367</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>0.12114093959731542</v>
+        <v>0.24228187919463084</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>0.15522147651006712</v>
+        <v>0.31044295302013425</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>0.16361073825503358</v>
+        <v>0.32722147651006717</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>0.14732885906040269</v>
+        <v>0.29465771812080538</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>0.12151006711409396</v>
+        <v>0.24302013422818791</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>0.11021476510067117</v>
+        <v>0.22042953020134234</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>0.11569127516778524</v>
+        <v>0.23138255033557048</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>0.11375838926174496</v>
+        <v>0.22751677852348992</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>8.0093959731543624E-2</v>
+        <v>0.16018791946308725</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>7.8630872483221481E-2</v>
+        <v>0.15726174496644296</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12357,99 +12357,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>3.6296296296296294E-3</v>
+        <v>7.2592592592592587E-3</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-2.1777777777777781E-2</v>
+        <v>-4.3555555555555563E-2</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-2.4555555555555553E-2</v>
+        <v>-4.9111111111111105E-2</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-3.5888888888888894E-2</v>
+        <v>-7.1777777777777788E-2</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-4.2592592592592592E-2</v>
+        <v>-8.5185185185185183E-2</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-3.333333333333334E-2</v>
+        <v>-6.666666666666668E-2</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-4.1740740740740745E-2</v>
+        <v>-8.348148148148149E-2</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>0.10740740740740742</v>
+        <v>0.21481481481481485</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>0.13703703703703701</v>
+        <v>0.27407407407407403</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>0.1724074074074074</v>
+        <v>0.3448148148148148</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>8.8925925925925922E-2</v>
+        <v>0.17785185185185184</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>6.2333333333333345E-2</v>
+        <v>0.12466666666666669</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>8.3481481481481476E-2</v>
+        <v>0.16696296296296295</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>3.7777777777777778E-2</v>
+        <v>7.5555555555555556E-2</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>3.1166666666666662E-2</v>
+        <v>6.2333333333333324E-2</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>3.6296296296296299E-2</v>
+        <v>7.2592592592592597E-2</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>0.13033333333333336</v>
+        <v>0.26066666666666671</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>0.13092592592592589</v>
+        <v>0.26185185185185178</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>0.10162962962962961</v>
+        <v>0.20325925925925922</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>7.9629629629629634E-2</v>
+        <v>0.15925925925925927</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>3.7407407407407403E-2</v>
+        <v>7.4814814814814806E-2</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>7.4814814814814813E-3</v>
+        <v>1.4962962962962963E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12458,99 +12458,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-2.8499999999999998E-2</v>
+        <v>-5.6999999999999995E-2</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-6.7499999999999991E-2</v>
+        <v>-0.13499999999999998</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-0.11774999999999998</v>
+        <v>-0.23549999999999996</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-0.10768382352941178</v>
+        <v>-0.21536764705882355</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-0.11099999999999999</v>
+        <v>-0.22199999999999998</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-0.10471323529411765</v>
+        <v>-0.2094264705882353</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-5.7647058823529418E-3</v>
+        <v>-1.1529411764705884E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>0.1230220588235294</v>
+        <v>0.2460441176470588</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>0.16649999999999998</v>
+        <v>0.33299999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>0.16635294117647062</v>
+        <v>0.33270588235294124</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>0.13612500000000002</v>
+        <v>0.27225000000000005</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>0.17033823529411762</v>
+        <v>0.34067647058823525</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>0.15276470588235297</v>
+        <v>0.30552941176470594</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>0.13330882352941173</v>
+        <v>0.26661764705882346</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>9.6816176470588225E-2</v>
+        <v>0.19363235294117645</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>6.1639705882352951E-2</v>
+        <v>0.1232794117647059</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>7.5735294117647067E-2</v>
+        <v>0.15147058823529413</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>6.7647058823529407E-2</v>
+        <v>0.13529411764705881</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>1.2749999999999997E-2</v>
+        <v>2.5499999999999995E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>5.386764705882352E-2</v>
+        <v>0.10773529411764704</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>7.6470588235294124E-2</v>
+        <v>0.15294117647058825</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>5.0500000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-4.6786764705882354E-2</v>
+        <v>-9.3573529411764708E-2</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-9.6750000000000003E-2</v>
+        <v>-0.19350000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12961,99 +12961,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>7.234899328859061E-2</v>
+        <v>0.14469798657718122</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>8.1543624161073844E-2</v>
+        <v>0.16308724832214769</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>7.6077181208053707E-2</v>
+        <v>0.15215436241610741</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.5308724832214777E-2</v>
+        <v>0.15061744966442955</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>7.4416107382550334E-2</v>
+        <v>0.14883221476510067</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>7.7939597315436232E-2</v>
+        <v>0.15587919463087246</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>8.1879194630872495E-2</v>
+        <v>0.16375838926174499</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>0.15642281879194633</v>
+        <v>0.31284563758389267</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>0.1803087248322148</v>
+        <v>0.3606174496644296</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>0.17181208053691274</v>
+        <v>0.34362416107382548</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>0.16610738255033561</v>
+        <v>0.33221476510067122</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>0.17079865771812086</v>
+        <v>0.34159731543624172</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>0.18175167785234897</v>
+        <v>0.36350335570469794</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>0.16936241610738256</v>
+        <v>0.33872483221476513</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>0.12114093959731542</v>
+        <v>0.24228187919463084</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>0.15680536912751677</v>
+        <v>0.31361073825503355</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>0.16361073825503358</v>
+        <v>0.32722147651006717</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>0.14883221476510067</v>
+        <v>0.29766442953020134</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>0.11674496644295303</v>
+        <v>0.23348993288590605</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>0.10913422818791947</v>
+        <v>0.21826845637583894</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>0.11569127516778524</v>
+        <v>0.23138255033557048</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>0.11148322147651007</v>
+        <v>0.22296644295302015</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>7.6953020134228181E-2</v>
+        <v>0.15390604026845636</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>7.6295302013422828E-2</v>
+        <v>0.15259060402684566</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13062,99 +13062,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>3.666666666666667E-3</v>
+        <v>7.3333333333333341E-3</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-2.2222222222222227E-2</v>
+        <v>-4.4444444444444453E-2</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-2.4314814814814817E-2</v>
+        <v>-4.8629629629629634E-2</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-3.4833333333333341E-2</v>
+        <v>-6.9666666666666682E-2</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-4.3018518518518511E-2</v>
+        <v>-8.6037037037037023E-2</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-3.266666666666667E-2</v>
+        <v>-6.533333333333334E-2</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-4.2592592592592599E-2</v>
+        <v>-8.5185185185185197E-2</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>0.1084814814814815</v>
+        <v>0.216962962962963</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>0.13977777777777778</v>
+        <v>0.27955555555555556</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>0.1759259259259259</v>
+        <v>0.3518518518518518</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>0.10100000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>8.8925925925925922E-2</v>
+        <v>0.17785185185185184</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>6.1703703703703705E-2</v>
+        <v>0.12340740740740741</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>8.6037037037037023E-2</v>
+        <v>0.17207407407407405</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>3.6296296296296299E-2</v>
+        <v>7.2592592592592597E-2</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>3.1166666666666662E-2</v>
+        <v>6.2333333333333324E-2</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>3.6666666666666667E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>6.6666666666666652E-2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>0.12522222222222223</v>
+        <v>0.25044444444444447</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>0.13092592592592589</v>
+        <v>0.26185185185185178</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>0.10266666666666664</v>
+        <v>0.20533333333333328</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>7.9629629629629634E-2</v>
+        <v>0.15925925925925927</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>3.6296296296296292E-2</v>
+        <v>7.2592592592592584E-2</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>7.3333333333333341E-3</v>
+        <v>1.4666666666666668E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13163,99 +13163,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-2.7941176470588237E-2</v>
+        <v>-5.5882352941176473E-2</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-6.6176470588235281E-2</v>
+        <v>-0.13235294117647056</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-0.11544117647058823</v>
+        <v>-0.23088235294117646</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-0.10768382352941178</v>
+        <v>-0.21536764705882355</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-0.10773529411764704</v>
+        <v>-0.21547058823529408</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-0.10471323529411765</v>
+        <v>-0.2094264705882353</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-5.7647058823529418E-3</v>
+        <v>-1.1529411764705884E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>0.12675</v>
+        <v>0.2535</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>0.16649999999999998</v>
+        <v>0.33299999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>0.1647058823529412</v>
+        <v>0.3294117647058824</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>0.13612500000000002</v>
+        <v>0.27225000000000005</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>0.1737794117647059</v>
+        <v>0.34755882352941181</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>0.15744117647058825</v>
+        <v>0.3148823529411765</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>0.13602941176470587</v>
+        <v>0.27205882352941174</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>9.8772058823529407E-2</v>
+        <v>0.19754411764705881</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>6.1029411764705888E-2</v>
+        <v>0.12205882352941178</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>7.6492647058823526E-2</v>
+        <v>0.15298529411764705</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>6.83235294117647E-2</v>
+        <v>0.1366470588235294</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>1.2749999999999997E-2</v>
+        <v>2.5499999999999995E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>5.3323529411764707E-2</v>
+        <v>0.10664705882352941</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>7.5705882352941178E-2</v>
+        <v>0.15141176470588236</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>4.9500000000000002E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-4.7249999999999993E-2</v>
+        <v>-9.4499999999999987E-2</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-9.5801470588235293E-2</v>
+        <v>-0.19160294117647059</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18257,99 +18257,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.47058915245996169</v>
+        <v>0.77729830491992336</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.46459376588443979</v>
+        <v>0.75984086510221283</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.43637065329069519</v>
+        <v>0.72110130658139038</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.43705775779808881</v>
+        <v>0.73038218226284424</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.40280746411189489</v>
+        <v>0.6878549282237898</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.38537377871979861</v>
+        <v>0.67080089077293059</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.4102882691982303</v>
+        <v>0.69834987172979401</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.39512962875495689</v>
+        <v>0.76903259084324704</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40004500164943013</v>
+        <v>0.78142333663219365</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.4049531255248589</v>
+        <v>0.7826929177163845</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.39261962390622396</v>
+        <v>0.76921258114578117</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40453373347939203</v>
+        <v>0.78904080029211743</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.41227465499228177</v>
+        <v>0.7926426433178968</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.4324213651909638</v>
+        <v>0.80605606371526095</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.38774741306816457</v>
+        <v>0.71277482613632914</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.41135855541240346</v>
+        <v>0.76103711082480685</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.41477044914361155</v>
+        <v>0.79494089828722303</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.44485969681133075</v>
+        <v>0.81923939362266152</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.39644847478100187</v>
+        <v>0.75153694956200368</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.36770359507663186</v>
+        <v>0.70632719015326373</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.38039133439829409</v>
+        <v>0.7166226687965882</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.34858180147202339</v>
+        <v>0.66987026961071339</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.4147449137577523</v>
+        <v>0.70491649418217128</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.43405830782480692</v>
+        <v>0.71794328231628057</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18358,99 +18358,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.38574252434879797</v>
+        <v>0.60760504869759591</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.38489493202418334</v>
+        <v>0.60044319738170004</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.35803262317538187</v>
+        <v>0.56442524635076374</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34841698313429531</v>
+        <v>0.55310063293525724</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.32450035343276507</v>
+        <v>0.53124070686553015</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.32068589829328187</v>
+        <v>0.54142512991989711</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.38833930857203558</v>
+        <v>0.65445195047740456</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.33190284580365009</v>
+        <v>0.64257902494063346</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.35641407234067007</v>
+        <v>0.69416147801467354</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.3751619068272225</v>
+        <v>0.72311048032111169</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.36322257337960301</v>
+        <v>0.71041848009253927</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.35895455073939531</v>
+        <v>0.69788243481212398</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.35854005854733828</v>
+        <v>0.68517345042800992</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.36941708737938705</v>
+        <v>0.68004750809210746</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.35202836627642015</v>
+        <v>0.64133673255284029</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.35996789288180192</v>
+        <v>0.65825578576360377</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.36639919348718269</v>
+        <v>0.69819838697436531</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.4671764410759604</v>
+        <v>0.86387288215192082</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.41919145589412116</v>
+        <v>0.79702291178824225</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.37808552226599074</v>
+        <v>0.72709104453198148</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.38249763663750858</v>
+        <v>0.72083527327501717</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.34284018212336032</v>
+        <v>0.65838703091338724</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.41336237937931253</v>
+        <v>0.70215142542529174</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.40562038329653349</v>
+        <v>0.66106743325973372</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18459,99 +18459,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.35098665766466364</v>
+        <v>0.53809331532932725</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.34527111933962018</v>
+        <v>0.52119557201257372</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.32187786050785255</v>
+        <v>0.49211572101570511</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.31753222543830351</v>
+        <v>0.49133111754327369</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.29319387487727339</v>
+        <v>0.4686277497545468</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.30053065206847951</v>
+        <v>0.50111463747029239</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.44617023754390295</v>
+        <v>0.7701138084211393</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.40103619264112794</v>
+        <v>0.78084571861558916</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.41547906423763165</v>
+        <v>0.81229146180859668</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.41148477268325478</v>
+        <v>0.79575621203317626</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38617428030814727</v>
+        <v>0.75632189394962779</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.4137869189814416</v>
+        <v>0.80754717129621656</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.39694177433379896</v>
+        <v>0.76197688200093128</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.40636331315797769</v>
+        <v>0.75393995964928873</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.36333471537922146</v>
+        <v>0.66394943075844293</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.36105307458028263</v>
+        <v>0.66042614916056519</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.34654701279686956</v>
+        <v>0.65849402559373904</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.40738956968620366</v>
+        <v>0.74429913937240733</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.3492370021939849</v>
+        <v>0.65711400438796974</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.3490192046258288</v>
+        <v>0.66895840925165762</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.35480342700059408</v>
+        <v>0.66544685400118819</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.31942647649138878</v>
+        <v>0.61155961964944416</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.36725594858414162</v>
+        <v>0.60993856383494993</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.36421737171916396</v>
+        <v>0.57826141010499454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18964,99 +18964,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.47058915245996169</v>
+        <v>0.77729830491992336</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.46754623687661756</v>
+        <v>0.76574580708656836</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.43352334675778831</v>
+        <v>0.71540669351557662</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.4311912693087937</v>
+        <v>0.71864920528425413</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.40280746411189489</v>
+        <v>0.6878549282237898</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.39108232096086137</v>
+        <v>0.68221797525505601</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.40452703714759902</v>
+        <v>0.68682740762853145</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.4026076879967227</v>
+        <v>0.78398870932677867</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40385878499925776</v>
+        <v>0.78905090333184891</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.41250792136868941</v>
+        <v>0.79780250940404551</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38885369433382838</v>
+        <v>0.76168072200099002</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40068866281126481</v>
+        <v>0.78135065895586286</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.40847097510902564</v>
+        <v>0.78503528355138452</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.42494867122047786</v>
+        <v>0.79111067577428906</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.3909976871988462</v>
+        <v>0.7192753743976924</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.41835212652065151</v>
+        <v>0.77502425304130296</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.42237385812648381</v>
+        <v>0.81014771625296755</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.45234729074755736</v>
+        <v>0.83421458149511474</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.39999935952881188</v>
+        <v>0.7586387190576237</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.37108983102739823</v>
+        <v>0.71309966205479647</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37366670771032817</v>
+        <v>0.70317341542065637</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.34536891679063653</v>
+        <v>0.66344450024793966</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.42054834536624069</v>
+        <v>0.71652335739914808</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.43689715756972169</v>
+        <v>0.72362098180611012</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19065,99 +19065,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.38574252434879797</v>
+        <v>0.60760504869759591</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.38058396671703304</v>
+        <v>0.59182126676739943</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.35390477071187421</v>
+        <v>0.55616954142374841</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34841698313429531</v>
+        <v>0.55310063293525724</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.32450035343276507</v>
+        <v>0.53124070686553015</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.32289329060954808</v>
+        <v>0.54583991455242953</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.38301705573392819</v>
+        <v>0.64380744480118979</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.33190284580365009</v>
+        <v>0.64257902494063346</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.35641407234067007</v>
+        <v>0.69416147801467354</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.37864139256216139</v>
+        <v>0.73006945179098948</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.3562786552453443</v>
+        <v>0.69653064382402186</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.36573310842084994</v>
+        <v>0.71143955017503313</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.3650727263849517</v>
+        <v>0.69823878610323675</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.37562969579364147</v>
+        <v>0.69247272492061629</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.35781453360194854</v>
+        <v>0.65290906720389708</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.36295077181061997</v>
+        <v>0.66422154362123986</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.36639919348718269</v>
+        <v>0.69819838697436531</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.45924251225444124</v>
+        <v>0.84800502450888249</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.42296977045306233</v>
+        <v>0.8045795409061246</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.38157557748865062</v>
+        <v>0.73407115497730124</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.38926438937025876</v>
+        <v>0.73436877874051754</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.34284018212336032</v>
+        <v>0.65838703091338724</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.4075865984583929</v>
+        <v>0.69059986358345249</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.40817485379616553</v>
+        <v>0.66617637425899767</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19166,99 +19166,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.35472879081795694</v>
+        <v>0.54557758163591386</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.34878960839307926</v>
+        <v>0.52823255011949188</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.32017548190277401</v>
+        <v>0.48871096380554807</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.32100820328040292</v>
+        <v>0.49828307322747245</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.28968519737972792</v>
+        <v>0.46161039475945587</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.29651897236044322</v>
+        <v>0.49309127805421982</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.44940967325267533</v>
+        <v>0.77659267983868407</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.40103619264112789</v>
+        <v>0.78084571861558905</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40754281628621231</v>
+        <v>0.796418965905758</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40764205828975553</v>
+        <v>0.78807078324617774</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38617428030814727</v>
+        <v>0.75632189394962779</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40591171393514613</v>
+        <v>0.79179676120362563</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.38964107218045629</v>
+        <v>0.74737547769424595</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.40636331315797769</v>
+        <v>0.75393995964928873</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.36333471537922146</v>
+        <v>0.66394943075844293</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.36404680532608547</v>
+        <v>0.66641361065217086</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.3403080725409322</v>
+        <v>0.64601614508186433</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.41075866538306571</v>
+        <v>0.75103733076613144</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.34307946215010521</v>
+        <v>0.64479892430021035</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.3490192046258288</v>
+        <v>0.66895840925165762</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.35169699273058819</v>
+        <v>0.6592339854611764</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.31358381362822768</v>
+        <v>0.59987429392312197</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.36240229627912546</v>
+        <v>0.6002312592249176</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.36849825248688056</v>
+        <v>0.58682317164042774</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19669,99 +19669,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.46445496941076236</v>
+        <v>0.76502993882152481</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.46164129489226202</v>
+        <v>0.7539359231178574</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.44206526635650911</v>
+        <v>0.73249053271301823</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.44292424628738392</v>
+        <v>0.74211515924143456</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.39710651482965698</v>
+        <v>0.67645302965931398</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.37966523647873607</v>
+        <v>0.6593838062908054</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.4102882691982303</v>
+        <v>0.69834987172979401</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.39512962875495683</v>
+        <v>0.76903259084324693</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.40767256834908544</v>
+        <v>0.79667847003150427</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40873052344677419</v>
+        <v>0.79024771356021506</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.40015148305101511</v>
+        <v>0.78427629943536348</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40837880414751926</v>
+        <v>0.79673094162837188</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.4046672952257695</v>
+        <v>0.77742792378487224</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.43989405916144975</v>
+        <v>0.82100145165623284</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.39424796132952789</v>
+        <v>0.72577592265905577</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.41835212652065151</v>
+        <v>0.77502425304130296</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.41477044914361155</v>
+        <v>0.79494089828722303</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.44485969681133075</v>
+        <v>0.81923939362266152</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.39289759003319186</v>
+        <v>0.74443518006638365</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.36093112317509929</v>
+        <v>0.69278224635019858</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37702902105431119</v>
+        <v>0.7098980421086224</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.35500757083479723</v>
+        <v>0.68272180833626106</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.4089414821492639</v>
+        <v>0.69330963096519449</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.4312194580798922</v>
+        <v>0.71226558282645103</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19770,99 +19770,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.38352389910530998</v>
+        <v>0.60316779821061994</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.38920589733133371</v>
+        <v>0.60906512799600077</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.35390477071187421</v>
+        <v>0.55616954142374841</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.34841698313429531</v>
+        <v>0.55310063293525724</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.3224329498984374</v>
+        <v>0.52710589979687483</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.32289329060954808</v>
+        <v>0.54583991455242953</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.39366156141014297</v>
+        <v>0.66509645615361934</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.33190284580365009</v>
+        <v>0.64257902494063346</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.34965912422718998</v>
+        <v>0.68065158178771334</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.38212087829710029</v>
+        <v>0.73702842326086726</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.35975061431247363</v>
+        <v>0.70347456195828051</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.36573310842084994</v>
+        <v>0.71143955017503313</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.35200739070972487</v>
+        <v>0.67210811475278309</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.36941708737938705</v>
+        <v>0.68004750809210746</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.34624219895089176</v>
+        <v>0.62976439790178351</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.35400213502416589</v>
+        <v>0.64632427004833171</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.35976320961743907</v>
+        <v>0.68492641923487807</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.47114340548672007</v>
+        <v>0.87180681097344015</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.41919145589412116</v>
+        <v>0.79702291178824225</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.38506563271131056</v>
+        <v>0.74105126542262112</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.37911426027113349</v>
+        <v>0.71406852054226699</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.33968471363546004</v>
+        <v>0.6520760939375867</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.41625026983977237</v>
+        <v>0.70792720634621142</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.40817485379616553</v>
+        <v>0.66617637425899767</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19871,99 +19871,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.35098665766466364</v>
+        <v>0.53809331532932725</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.3417526302861611</v>
+        <v>0.51415859390565555</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.32017548190277401</v>
+        <v>0.48871096380554807</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.31927021435935321</v>
+        <v>0.4948070953853731</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.29494821362604612</v>
+        <v>0.47213642725209226</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.29651897236044322</v>
+        <v>0.49309127805421982</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.43969136612635829</v>
+        <v>0.75715606558604998</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.40103619264112789</v>
+        <v>0.78084571861558905</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.41151094026192198</v>
+        <v>0.80435521385717734</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.40379934389625638</v>
+        <v>0.78038535445917945</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.38617428030814727</v>
+        <v>0.75632189394962779</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.40591171393514613</v>
+        <v>0.79179676120362563</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.38964107218045629</v>
+        <v>0.74737547769424595</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.40983907962289073</v>
+        <v>0.76089149257911481</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.36634086253301368</v>
+        <v>0.66996172506602736</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.3670405360718883</v>
+        <v>0.67240107214377653</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.3403080725409322</v>
+        <v>0.64601614508186433</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.40065137829247954</v>
+        <v>0.7308227565849591</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.3553945422378646</v>
+        <v>0.66942908447572913</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.35541798871834535</v>
+        <v>0.6817559774366907</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.35480342700059408</v>
+        <v>0.66544685400118819</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.3223478079229693</v>
+        <v>0.6174022825126052</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.36240229627912546</v>
+        <v>0.6002312592249176</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.36421737171916396</v>
+        <v>0.57826141010499454</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20376,99 +20376,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>9.5780447948999869E-2</v>
+        <v>0.19156089589799974</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>6.767050476559551E-2</v>
+        <v>0.13534100953119102</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>5.8663040999948381E-2</v>
+        <v>0.11732608199989676</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.5195840810525549E-2</v>
+        <v>0.1503916816210511</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>6.4745839653979717E-2</v>
+        <v>0.12949167930795943</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>5.3232129686275255E-2</v>
+        <v>0.10646425937255051</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>4.4044187798885914E-2</v>
+        <v>8.8088375597771829E-2</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>0.15391392769457801</v>
+        <v>0.30782785538915602</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>0.16096179262552199</v>
+        <v>0.32192358525104398</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>0.1380577242847163</v>
+        <v>0.2761154485694326</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>0.16084727179955</v>
+        <v>0.32169454359909999</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>0.14945909548089117</v>
+        <v>0.29891819096178235</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>0.15011758026000743</v>
+        <v>0.30023516052001487</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>0.13404927887943358</v>
+        <v>0.26809855775886715</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>7.95454387484784E-2</v>
+        <v>0.1590908774969568</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>0.12454372557936395</v>
+        <v>0.24908745115872791</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>0.14937099289630179</v>
+        <v>0.29874198579260358</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>0.13937249469669613</v>
+        <v>0.27874498939339226</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>9.7407622468802593E-2</v>
+        <v>0.19481524493760519</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>0.10105462166537356</v>
+        <v>0.20210924333074712</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>9.4123550771165396E-2</v>
+        <v>0.18824710154233079</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>5.8385595341365039E-2</v>
+        <v>0.11677119068273008</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>4.6574550545211653E-2</v>
+        <v>9.3149101090423306E-2</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>4.8272513645816445E-2</v>
+        <v>9.654502729163289E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20477,99 +20477,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-0.18141265882809074</v>
+        <v>-0.36282531765618148</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-0.18137266241695793</v>
+        <v>-0.36274532483391586</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-0.18637727641735929</v>
+        <v>-0.37275455283471859</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-0.19491523102972019</v>
+        <v>-0.38983046205944039</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-0.19304343502150617</v>
+        <v>-0.38608687004301234</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-0.17716875134447396</v>
+        <v>-0.35433750268894793</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-0.11233892886728361</v>
+        <v>-0.22467785773456722</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-2.1594765010274755E-2</v>
+        <v>-4.318953002054951E-2</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.3206314100104167E-2</v>
+        <v>-4.6412628200208333E-2</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-1.5378980408604779E-2</v>
+        <v>-3.0757960817209558E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-1.3547306926333458E-2</v>
+        <v>-2.7094613852666916E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-6.0460755052970022E-2</v>
+        <v>-0.12092151010594004</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-8.8326669066451341E-2</v>
+        <v>-0.17665333813290268</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-0.11450091505302767</v>
+        <v>-0.22900183010605535</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-0.11364009139360108</v>
+        <v>-0.22728018278720216</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-0.11556188291573116</v>
+        <v>-0.23112376583146232</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-9.0859036432406615E-2</v>
+        <v>-0.18171807286481323</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>2.9862779880291818E-2</v>
+        <v>5.9725559760583635E-2</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-4.2087034352593228E-3</v>
+        <v>-8.4174068705186456E-3</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-4.9680803416197974E-2</v>
+        <v>-9.9361606832395949E-2</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-9.2090205239241593E-2</v>
+        <v>-0.18418041047848319</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-0.12113700428321926</v>
+        <v>-0.24227400856643852</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-0.13285775438528222</v>
+        <v>-0.26571550877056443</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-0.15211577411612434</v>
+        <v>-0.30423154823224868</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20578,99 +20578,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-0.17349538254263785</v>
+        <v>-0.34699076508527571</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-0.1872020212876746</v>
+        <v>-0.37440404257534921</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-0.19063571788213207</v>
+        <v>-0.38127143576426414</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-0.18808627686047572</v>
+        <v>-0.37617255372095143</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-0.1882427132366169</v>
+        <v>-0.3764854264732338</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-0.15719072499544465</v>
+        <v>-0.31438144999088929</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-5.8533143644997751E-3</v>
+        <v>-1.170662872899955E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>8.1042261128106266E-2</v>
+        <v>0.16208452225621253</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>0.103289876572887</v>
+        <v>0.20657975314577401</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>7.1954164815946964E-2</v>
+        <v>0.14390832963189393</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>4.2483394244964785E-2</v>
+        <v>8.4966788489929571E-2</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>8.4267617727923613E-2</v>
+        <v>0.16853523545584723</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>5.3134942602328261E-2</v>
+        <v>0.10626988520465652</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>1.6120779797293382E-2</v>
+        <v>3.2241559594586765E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-6.3777579254783709E-2</v>
+        <v>-0.12755515850956742</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-6.3804718863318455E-2</v>
+        <v>-0.12760943772663691</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-5.2559688198193233E-2</v>
+        <v>-0.10511937639638647</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-2.6515301230393126E-2</v>
+        <v>-5.3030602460786253E-2</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-6.4624692022906924E-2</v>
+        <v>-0.12924938404581385</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-3.6821347668080338E-2</v>
+        <v>-7.3642695336160677E-2</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-5.0553745606266243E-2</v>
+        <v>-0.10110749121253249</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-8.3849236296423851E-2</v>
+        <v>-0.1676984725928477</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-0.13247022700834707</v>
+        <v>-0.26494045401669414</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-0.14953743885562409</v>
+        <v>-0.29907487771124819</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A87061-3733-43D7-89D2-9CECA2CABEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D214918A-4F9A-4E25-A81E-B24EF75A808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="4035" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,2688 +702,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>0.61341830491992333</v>
+            <v>1.5335457622998081</v>
           </cell>
           <cell r="C2">
-            <v>0.59049419843554618</v>
+            <v>1.4762354960888655</v>
           </cell>
           <cell r="D2">
-            <v>0.56946130658139038</v>
+            <v>1.423653266453476</v>
           </cell>
           <cell r="E2">
-            <v>0.58664884892951097</v>
+            <v>1.4666221223237774</v>
           </cell>
           <cell r="F2">
-            <v>0.57009492822378982</v>
+            <v>1.4252373205594744</v>
           </cell>
           <cell r="G2">
-            <v>0.57085422410626396</v>
+            <v>1.4271355602656599</v>
           </cell>
           <cell r="H2">
-            <v>0.57612320506312731</v>
+            <v>1.4403080126578183</v>
           </cell>
           <cell r="I2">
-            <v>0.74780592417658043</v>
+            <v>1.869514810441451</v>
           </cell>
           <cell r="J2">
-            <v>0.76275666996552693</v>
+            <v>1.9068916749138172</v>
           </cell>
           <cell r="K2">
-            <v>0.75547958438305118</v>
+            <v>1.8886989609576279</v>
           </cell>
           <cell r="L2">
-            <v>0.75318591447911454</v>
+            <v>1.8829647861977863</v>
           </cell>
           <cell r="M2">
-            <v>0.76901413362545079</v>
+            <v>1.9225353340636269</v>
           </cell>
           <cell r="N2">
-            <v>0.76073597665123016</v>
+            <v>1.9018399416280753</v>
           </cell>
           <cell r="O2">
-            <v>0.7472693970485943</v>
+            <v>1.8681734926214857</v>
           </cell>
           <cell r="P2">
-            <v>0.65005482613632914</v>
+            <v>1.6251370653408228</v>
           </cell>
           <cell r="Q2">
-            <v>0.69935711082480689</v>
+            <v>1.7483927770620171</v>
           </cell>
           <cell r="R2">
-            <v>0.76034089828722307</v>
+            <v>1.9008522457180574</v>
           </cell>
           <cell r="S2">
-            <v>0.74875939362266153</v>
+            <v>1.8718984840566537</v>
           </cell>
           <cell r="T2">
-            <v>0.71017694956200372</v>
+            <v>1.7754423739050091</v>
           </cell>
           <cell r="U2">
-            <v>0.67724719015326373</v>
+            <v>1.6931179753831593</v>
           </cell>
           <cell r="V2">
-            <v>0.67246266879658823</v>
+            <v>1.6811566719914706</v>
           </cell>
           <cell r="W2">
-            <v>0.64257693627738011</v>
+            <v>1.6064423406934503</v>
           </cell>
           <cell r="X2">
-            <v>0.58034316084883797</v>
+            <v>1.4508579021220949</v>
           </cell>
           <cell r="Y2">
-            <v>0.56776994898294719</v>
+            <v>1.4194248724573679</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.44372504869759588</v>
+            <v>1.1093126217439897</v>
           </cell>
           <cell r="C3">
-            <v>0.4310965307150334</v>
+            <v>1.0777413267875835</v>
           </cell>
           <cell r="D3">
-            <v>0.41278524635076369</v>
+            <v>1.0319631158769091</v>
           </cell>
           <cell r="E3">
-            <v>0.40936729960192397</v>
+            <v>1.0234182490048098</v>
           </cell>
           <cell r="F3">
-            <v>0.41348070686553018</v>
+            <v>1.0337017671638253</v>
           </cell>
           <cell r="G3">
-            <v>0.44147846325323048</v>
+            <v>1.1036961581330762</v>
           </cell>
           <cell r="H3">
-            <v>0.53222528381073786</v>
+            <v>1.3305632095268447</v>
           </cell>
           <cell r="I3">
-            <v>0.62135235827396684</v>
+            <v>1.5533808956849171</v>
           </cell>
           <cell r="J3">
-            <v>0.67549481134800682</v>
+            <v>1.6887370283700169</v>
           </cell>
           <cell r="K3">
-            <v>0.69589714698777838</v>
+            <v>1.7397428674694457</v>
           </cell>
           <cell r="L3">
-            <v>0.69439181342587264</v>
+            <v>1.7359795335646815</v>
           </cell>
           <cell r="M3">
-            <v>0.67785576814545734</v>
+            <v>1.6946394203636432</v>
           </cell>
           <cell r="N3">
-            <v>0.65326678376134328</v>
+            <v>1.633166959403358</v>
           </cell>
           <cell r="O3">
-            <v>0.6212608414254408</v>
+            <v>1.553152103563602</v>
           </cell>
           <cell r="P3">
-            <v>0.5786167325528403</v>
+            <v>1.4465418313821008</v>
           </cell>
           <cell r="Q3">
-            <v>0.59657578576360382</v>
+            <v>1.4914394644090094</v>
           </cell>
           <cell r="R3">
-            <v>0.66359838697436535</v>
+            <v>1.6589959674359134</v>
           </cell>
           <cell r="S3">
-            <v>0.79339288215192083</v>
+            <v>1.983482205379802</v>
           </cell>
           <cell r="T3">
-            <v>0.7556629117882423</v>
+            <v>1.8891572794706055</v>
           </cell>
           <cell r="U3">
-            <v>0.69801104453198148</v>
+            <v>1.7450276113299537</v>
           </cell>
           <cell r="V3">
-            <v>0.6766752732750172</v>
+            <v>1.6916881831875428</v>
           </cell>
           <cell r="W3">
-            <v>0.63109369758005396</v>
+            <v>1.5777342439501347</v>
           </cell>
           <cell r="X3">
-            <v>0.57757809209195843</v>
+            <v>1.4439452302298961</v>
           </cell>
           <cell r="Y3">
-            <v>0.51089409992640034</v>
+            <v>1.2772352498160007</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.37421331532932722</v>
+            <v>0.93553328832331806</v>
           </cell>
           <cell r="C4">
-            <v>0.35184890534590707</v>
+            <v>0.87962226336476756</v>
           </cell>
           <cell r="D4">
-            <v>0.34047572101570511</v>
+            <v>0.85118930253926273</v>
           </cell>
           <cell r="E4">
-            <v>0.34759778420994036</v>
+            <v>0.86899446052485085</v>
           </cell>
           <cell r="F4">
-            <v>0.35086774975454682</v>
+            <v>0.877169374386367</v>
           </cell>
           <cell r="G4">
-            <v>0.40116797080362576</v>
+            <v>1.0029199270090643</v>
           </cell>
           <cell r="H4">
-            <v>0.6478871417544726</v>
+            <v>1.6197178543861814</v>
           </cell>
           <cell r="I4">
-            <v>0.75961905194892254</v>
+            <v>1.8990476298723062</v>
           </cell>
           <cell r="J4">
-            <v>0.79362479514192996</v>
+            <v>1.9840619878548247</v>
           </cell>
           <cell r="K4">
-            <v>0.76854287869984295</v>
+            <v>1.9213571967496073</v>
           </cell>
           <cell r="L4">
-            <v>0.74029522728296115</v>
+            <v>1.8507380682074028</v>
           </cell>
           <cell r="M4">
-            <v>0.78752050462954992</v>
+            <v>1.9688012615738748</v>
           </cell>
           <cell r="N4">
-            <v>0.73007021533426464</v>
+            <v>1.8251755383356614</v>
           </cell>
           <cell r="O4">
-            <v>0.69515329298262207</v>
+            <v>1.737883232456555</v>
           </cell>
           <cell r="P4">
-            <v>0.60122943075844293</v>
+            <v>1.5030735768961072</v>
           </cell>
           <cell r="Q4">
-            <v>0.59874614916056523</v>
+            <v>1.496865372901413</v>
           </cell>
           <cell r="R4">
-            <v>0.62389402559373908</v>
+            <v>1.5597350639843477</v>
           </cell>
           <cell r="S4">
-            <v>0.67381913937240734</v>
+            <v>1.6845478484310181</v>
           </cell>
           <cell r="T4">
-            <v>0.61575400438796979</v>
+            <v>1.5393850109699243</v>
           </cell>
           <cell r="U4">
-            <v>0.63987840925165762</v>
+            <v>1.5996960231291439</v>
           </cell>
           <cell r="V4">
-            <v>0.62128685400118822</v>
+            <v>1.5532171350029704</v>
           </cell>
           <cell r="W4">
-            <v>0.58426628631611088</v>
+            <v>1.4606657157902772</v>
           </cell>
           <cell r="X4">
-            <v>0.48536523050161656</v>
+            <v>1.2134130762540414</v>
           </cell>
           <cell r="Y4">
-            <v>0.42808807677166127</v>
+            <v>1.0702201919291532</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>0.61341830491992333</v>
+            <v>1.5335457622998081</v>
           </cell>
           <cell r="C2">
-            <v>0.59639914041990172</v>
+            <v>1.4909978510497541</v>
           </cell>
           <cell r="D2">
-            <v>0.56376669351557662</v>
+            <v>1.4094167337889414</v>
           </cell>
           <cell r="E2">
-            <v>0.57491587195092075</v>
+            <v>1.4372896798773018</v>
           </cell>
           <cell r="F2">
-            <v>0.57009492822378982</v>
+            <v>1.4252373205594744</v>
           </cell>
           <cell r="G2">
-            <v>0.58227130858838938</v>
+            <v>1.4556782714709733</v>
           </cell>
           <cell r="H2">
-            <v>0.56460074096186474</v>
+            <v>1.4115018524046619</v>
           </cell>
           <cell r="I2">
-            <v>0.76276204266011205</v>
+            <v>1.90690510665028</v>
           </cell>
           <cell r="J2">
-            <v>0.77038423666518219</v>
+            <v>1.9259605916629554</v>
           </cell>
           <cell r="K2">
-            <v>0.7705891760707122</v>
+            <v>1.9264729401767804</v>
           </cell>
           <cell r="L2">
-            <v>0.74565405533432338</v>
+            <v>1.8641351383358085</v>
           </cell>
           <cell r="M2">
-            <v>0.76132399228919623</v>
+            <v>1.9033099807229905</v>
           </cell>
           <cell r="N2">
-            <v>0.75312861688471788</v>
+            <v>1.8828215422117947</v>
           </cell>
           <cell r="O2">
-            <v>0.73232400910762241</v>
+            <v>1.830810022769056</v>
           </cell>
           <cell r="P2">
-            <v>0.6565553743976924</v>
+            <v>1.641388435994231</v>
           </cell>
           <cell r="Q2">
-            <v>0.713344253041303</v>
+            <v>1.7833606326032574</v>
           </cell>
           <cell r="R2">
-            <v>0.77554771625296759</v>
+            <v>1.9388692906324188</v>
           </cell>
           <cell r="S2">
-            <v>0.76373458149511475</v>
+            <v>1.9093364537377868</v>
           </cell>
           <cell r="T2">
-            <v>0.71727871905762375</v>
+            <v>1.7931967976440593</v>
           </cell>
           <cell r="U2">
-            <v>0.68401966205479647</v>
+            <v>1.710049155136991</v>
           </cell>
           <cell r="V2">
-            <v>0.65901341542065639</v>
+            <v>1.647533538551641</v>
           </cell>
           <cell r="W2">
-            <v>0.63615116691460638</v>
+            <v>1.5903779172865158</v>
           </cell>
           <cell r="X2">
-            <v>0.59195002406581476</v>
+            <v>1.4798750601645367</v>
           </cell>
           <cell r="Y2">
-            <v>0.57344764847277674</v>
+            <v>1.4336191211819418</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.44372504869759588</v>
+            <v>1.1093126217439897</v>
           </cell>
           <cell r="C3">
-            <v>0.42247460010073273</v>
+            <v>1.0561865002518318</v>
           </cell>
           <cell r="D3">
-            <v>0.40452954142374842</v>
+            <v>1.0113238535593709</v>
           </cell>
           <cell r="E3">
-            <v>0.40936729960192397</v>
+            <v>1.0234182490048098</v>
           </cell>
           <cell r="F3">
-            <v>0.41348070686553018</v>
+            <v>1.0337017671638253</v>
           </cell>
           <cell r="G3">
-            <v>0.44589324788576284</v>
+            <v>1.114733119714407</v>
           </cell>
           <cell r="H3">
-            <v>0.52158077813452308</v>
+            <v>1.3039519453363078</v>
           </cell>
           <cell r="I3">
-            <v>0.62135235827396684</v>
+            <v>1.5533808956849171</v>
           </cell>
           <cell r="J3">
-            <v>0.67549481134800682</v>
+            <v>1.6887370283700169</v>
           </cell>
           <cell r="K3">
-            <v>0.70285611845765616</v>
+            <v>1.7571402961441402</v>
           </cell>
           <cell r="L3">
-            <v>0.68050397715735522</v>
+            <v>1.7012599428933879</v>
           </cell>
           <cell r="M3">
-            <v>0.69141288350836649</v>
+            <v>1.7285322087709161</v>
           </cell>
           <cell r="N3">
-            <v>0.66633211943657011</v>
+            <v>1.6658302985914253</v>
           </cell>
           <cell r="O3">
-            <v>0.63368605825394964</v>
+            <v>1.5842151456348739</v>
           </cell>
           <cell r="P3">
-            <v>0.59018906720389708</v>
+            <v>1.4754726680097427</v>
           </cell>
           <cell r="Q3">
-            <v>0.60254154362123991</v>
+            <v>1.5063538590530996</v>
           </cell>
           <cell r="R3">
-            <v>0.66359838697436535</v>
+            <v>1.6589959674359134</v>
           </cell>
           <cell r="S3">
-            <v>0.7775250245088825</v>
+            <v>1.9438125612722061</v>
           </cell>
           <cell r="T3">
-            <v>0.76321954090612465</v>
+            <v>1.9080488522653116</v>
           </cell>
           <cell r="U3">
-            <v>0.70499115497730125</v>
+            <v>1.762477887443253</v>
           </cell>
           <cell r="V3">
-            <v>0.69020877874051756</v>
+            <v>1.7255219468512937</v>
           </cell>
           <cell r="W3">
-            <v>0.63109369758005396</v>
+            <v>1.5777342439501347</v>
           </cell>
           <cell r="X3">
-            <v>0.56602653025011918</v>
+            <v>1.415066325625298</v>
           </cell>
           <cell r="Y3">
-            <v>0.5160030409256644</v>
+            <v>1.2900076023141609</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.38169758163591383</v>
+            <v>0.95424395408978446</v>
           </cell>
           <cell r="C4">
-            <v>0.35888588345282518</v>
+            <v>0.89721470863206287</v>
           </cell>
           <cell r="D4">
-            <v>0.33707096380554807</v>
+            <v>0.84267740951387016</v>
           </cell>
           <cell r="E4">
-            <v>0.35454973989413913</v>
+            <v>0.88637434973534779</v>
           </cell>
           <cell r="F4">
-            <v>0.34385039475945589</v>
+            <v>0.85962598689863967</v>
           </cell>
           <cell r="G4">
-            <v>0.39314461138755319</v>
+            <v>0.98286152846888297</v>
           </cell>
           <cell r="H4">
-            <v>0.65436601317201737</v>
+            <v>1.6359150329300434</v>
           </cell>
           <cell r="I4">
-            <v>0.75961905194892243</v>
+            <v>1.899047629872306</v>
           </cell>
           <cell r="J4">
-            <v>0.77775229923909128</v>
+            <v>1.9443807480977282</v>
           </cell>
           <cell r="K4">
-            <v>0.76085744991284443</v>
+            <v>1.9021436247821111</v>
           </cell>
           <cell r="L4">
-            <v>0.74029522728296115</v>
+            <v>1.8507380682074028</v>
           </cell>
           <cell r="M4">
-            <v>0.77177009453695899</v>
+            <v>1.9294252363423974</v>
           </cell>
           <cell r="N4">
-            <v>0.71546881102757931</v>
+            <v>1.7886720275689481</v>
           </cell>
           <cell r="O4">
-            <v>0.69515329298262207</v>
+            <v>1.737883232456555</v>
           </cell>
           <cell r="P4">
-            <v>0.60122943075844293</v>
+            <v>1.5030735768961072</v>
           </cell>
           <cell r="Q4">
-            <v>0.60473361065217091</v>
+            <v>1.5118340266304271</v>
           </cell>
           <cell r="R4">
-            <v>0.61141614508186437</v>
+            <v>1.5285403627046608</v>
           </cell>
           <cell r="S4">
-            <v>0.68055733076613145</v>
+            <v>1.7013933269153285</v>
           </cell>
           <cell r="T4">
-            <v>0.6034389243002104</v>
+            <v>1.5085973107505259</v>
           </cell>
           <cell r="U4">
-            <v>0.63987840925165762</v>
+            <v>1.5996960231291439</v>
           </cell>
           <cell r="V4">
-            <v>0.61507398546117642</v>
+            <v>1.5376849636529408</v>
           </cell>
           <cell r="W4">
-            <v>0.57258096058978869</v>
+            <v>1.4314524014744716</v>
           </cell>
           <cell r="X4">
-            <v>0.47565792589158423</v>
+            <v>1.1891448147289605</v>
           </cell>
           <cell r="Y4">
-            <v>0.43664983830709447</v>
+            <v>1.0916245957677362</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>0.60114993882152479</v>
+            <v>1.5028748470538118</v>
           </cell>
           <cell r="C2">
-            <v>0.58458925645119075</v>
+            <v>1.4614731411279769</v>
           </cell>
           <cell r="D2">
-            <v>0.58085053271301823</v>
+            <v>1.4521263317825455</v>
           </cell>
           <cell r="E2">
-            <v>0.59838182590810118</v>
+            <v>1.495954564770253</v>
           </cell>
           <cell r="F2">
-            <v>0.558693029659314</v>
+            <v>1.396732574148285</v>
           </cell>
           <cell r="G2">
-            <v>0.55943713962413877</v>
+            <v>1.3985928490603468</v>
           </cell>
           <cell r="H2">
-            <v>0.57612320506312731</v>
+            <v>1.4403080126578183</v>
           </cell>
           <cell r="I2">
-            <v>0.74780592417658032</v>
+            <v>1.8695148104414507</v>
           </cell>
           <cell r="J2">
-            <v>0.77801180336483755</v>
+            <v>1.9450295084120937</v>
           </cell>
           <cell r="K2">
-            <v>0.76303438022688175</v>
+            <v>1.9075859505672041</v>
           </cell>
           <cell r="L2">
-            <v>0.76824963276869684</v>
+            <v>1.9206240819217419</v>
           </cell>
           <cell r="M2">
-            <v>0.77670427496170524</v>
+            <v>1.941760687404263</v>
           </cell>
           <cell r="N2">
-            <v>0.7455212571182056</v>
+            <v>1.863803142795514</v>
           </cell>
           <cell r="O2">
-            <v>0.76221478498956619</v>
+            <v>1.9055369624739154</v>
           </cell>
           <cell r="P2">
-            <v>0.66305592265905577</v>
+            <v>1.6576398066476392</v>
           </cell>
           <cell r="Q2">
-            <v>0.713344253041303</v>
+            <v>1.7833606326032574</v>
           </cell>
           <cell r="R2">
-            <v>0.76034089828722307</v>
+            <v>1.9008522457180574</v>
           </cell>
           <cell r="S2">
-            <v>0.74875939362266153</v>
+            <v>1.8718984840566537</v>
           </cell>
           <cell r="T2">
-            <v>0.7030751800663837</v>
+            <v>1.757687950165959</v>
           </cell>
           <cell r="U2">
-            <v>0.66370224635019859</v>
+            <v>1.6592556158754963</v>
           </cell>
           <cell r="V2">
-            <v>0.66573804210862242</v>
+            <v>1.6643451052715559</v>
           </cell>
           <cell r="W2">
-            <v>0.65542847500292778</v>
+            <v>1.6385711875073192</v>
           </cell>
           <cell r="X2">
-            <v>0.56873629763186118</v>
+            <v>1.4218407440796528</v>
           </cell>
           <cell r="Y2">
-            <v>0.56209224949311776</v>
+            <v>1.4052306237327943</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.43928779821061997</v>
+            <v>1.0982194955265498</v>
           </cell>
           <cell r="C3">
-            <v>0.43971846132933412</v>
+            <v>1.0992961533233352</v>
           </cell>
           <cell r="D3">
-            <v>0.40452954142374842</v>
+            <v>1.0113238535593709</v>
           </cell>
           <cell r="E3">
-            <v>0.40936729960192397</v>
+            <v>1.0234182490048098</v>
           </cell>
           <cell r="F3">
-            <v>0.40934589979687486</v>
+            <v>1.0233647494921871</v>
           </cell>
           <cell r="G3">
-            <v>0.44589324788576284</v>
+            <v>1.114733119714407</v>
           </cell>
           <cell r="H3">
-            <v>0.54286978948695264</v>
+            <v>1.3571744737173816</v>
           </cell>
           <cell r="I3">
-            <v>0.62135235827396684</v>
+            <v>1.5533808956849171</v>
           </cell>
           <cell r="J3">
-            <v>0.66198491512104662</v>
+            <v>1.6549622878026164</v>
           </cell>
           <cell r="K3">
-            <v>0.70981508992753395</v>
+            <v>1.7745377248188348</v>
           </cell>
           <cell r="L3">
-            <v>0.68744789529161388</v>
+            <v>1.7186197382290347</v>
           </cell>
           <cell r="M3">
-            <v>0.69141288350836649</v>
+            <v>1.7285322087709161</v>
           </cell>
           <cell r="N3">
-            <v>0.64020144808611645</v>
+            <v>1.6005036202152909</v>
           </cell>
           <cell r="O3">
-            <v>0.6212608414254408</v>
+            <v>1.553152103563602</v>
           </cell>
           <cell r="P3">
-            <v>0.56704439790178351</v>
+            <v>1.4176109947544588</v>
           </cell>
           <cell r="Q3">
-            <v>0.58464427004833175</v>
+            <v>1.4616106751208293</v>
           </cell>
           <cell r="R3">
-            <v>0.65032641923487811</v>
+            <v>1.625816048087195</v>
           </cell>
           <cell r="S3">
-            <v>0.80132681097344016</v>
+            <v>2.0033170274336003</v>
           </cell>
           <cell r="T3">
-            <v>0.7556629117882423</v>
+            <v>1.8891572794706055</v>
           </cell>
           <cell r="U3">
-            <v>0.71197126542262112</v>
+            <v>1.7799281635565527</v>
           </cell>
           <cell r="V3">
-            <v>0.66990852054226702</v>
+            <v>1.6747713013556673</v>
           </cell>
           <cell r="W3">
-            <v>0.62478276060425342</v>
+            <v>1.5619569015106334</v>
           </cell>
           <cell r="X3">
-            <v>0.58335387301287811</v>
+            <v>1.4583846825321951</v>
           </cell>
           <cell r="Y3">
-            <v>0.5160030409256644</v>
+            <v>1.2900076023141609</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.37421331532932722</v>
+            <v>0.93553328832331806</v>
           </cell>
           <cell r="C4">
-            <v>0.3448119272389889</v>
+            <v>0.86202981809747214</v>
           </cell>
           <cell r="D4">
-            <v>0.33707096380554807</v>
+            <v>0.84267740951387016</v>
           </cell>
           <cell r="E4">
-            <v>0.35107376205203977</v>
+            <v>0.87768440513009938</v>
           </cell>
           <cell r="F4">
-            <v>0.35437642725209229</v>
+            <v>0.88594106813023066</v>
           </cell>
           <cell r="G4">
-            <v>0.39314461138755319</v>
+            <v>0.98286152846888297</v>
           </cell>
           <cell r="H4">
-            <v>0.63492939891938327</v>
+            <v>1.587323497298458</v>
           </cell>
           <cell r="I4">
-            <v>0.75961905194892243</v>
+            <v>1.899047629872306</v>
           </cell>
           <cell r="J4">
-            <v>0.78568854719051062</v>
+            <v>1.9642213679762763</v>
           </cell>
           <cell r="K4">
-            <v>0.75317202112584614</v>
+            <v>1.8829300528146151</v>
           </cell>
           <cell r="L4">
-            <v>0.74029522728296115</v>
+            <v>1.8507380682074028</v>
           </cell>
           <cell r="M4">
-            <v>0.77177009453695899</v>
+            <v>1.9294252363423974</v>
           </cell>
           <cell r="N4">
-            <v>0.71546881102757931</v>
+            <v>1.7886720275689481</v>
           </cell>
           <cell r="O4">
-            <v>0.70210482591244816</v>
+            <v>1.7552620647811203</v>
           </cell>
           <cell r="P4">
-            <v>0.60724172506602736</v>
+            <v>1.5181043126650684</v>
           </cell>
           <cell r="Q4">
-            <v>0.61072107214377658</v>
+            <v>1.5268026803594412</v>
           </cell>
           <cell r="R4">
-            <v>0.61141614508186437</v>
+            <v>1.5285403627046608</v>
           </cell>
           <cell r="S4">
-            <v>0.66034275658495911</v>
+            <v>1.6508568914623978</v>
           </cell>
           <cell r="T4">
-            <v>0.62806908447572918</v>
+            <v>1.5701727111893229</v>
           </cell>
           <cell r="U4">
-            <v>0.6526759774366907</v>
+            <v>1.6316899435917267</v>
           </cell>
           <cell r="V4">
-            <v>0.62128685400118822</v>
+            <v>1.5532171350029704</v>
           </cell>
           <cell r="W4">
-            <v>0.59010894917927192</v>
+            <v>1.4752723729481798</v>
           </cell>
           <cell r="X4">
-            <v>0.47565792589158423</v>
+            <v>1.1891448147289605</v>
           </cell>
           <cell r="Y4">
-            <v>0.42808807677166127</v>
+            <v>1.0702201919291532</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>0.19156089589799974</v>
+            <v>0.47890223974499929</v>
           </cell>
           <cell r="C2">
-            <v>0.13534100953119102</v>
+            <v>0.33835252382797754</v>
           </cell>
           <cell r="D2">
-            <v>0.11732608199989676</v>
+            <v>0.2933152049997419</v>
           </cell>
           <cell r="E2">
-            <v>0.1503916816210511</v>
+            <v>0.37597920405262775</v>
           </cell>
           <cell r="F2">
-            <v>0.12949167930795943</v>
+            <v>0.32372919826989854</v>
           </cell>
           <cell r="G2">
-            <v>0.10646425937255051</v>
+            <v>0.26616064843137627</v>
           </cell>
           <cell r="H2">
-            <v>8.8088375597771829E-2</v>
+            <v>0.22022093899442957</v>
           </cell>
           <cell r="I2">
-            <v>0.30782785538915602</v>
+            <v>0.76956963847288995</v>
           </cell>
           <cell r="J2">
-            <v>0.32192358525104398</v>
+            <v>0.80480896312760986</v>
           </cell>
           <cell r="K2">
-            <v>0.2761154485694326</v>
+            <v>0.69028862142358149</v>
           </cell>
           <cell r="L2">
-            <v>0.32169454359909999</v>
+            <v>0.80423635899774992</v>
           </cell>
           <cell r="M2">
-            <v>0.29891819096178235</v>
+            <v>0.7472954774044559</v>
           </cell>
           <cell r="N2">
-            <v>0.30023516052001487</v>
+            <v>0.75058790130003716</v>
           </cell>
           <cell r="O2">
-            <v>0.26809855775886715</v>
+            <v>0.67024639439716782</v>
           </cell>
           <cell r="P2">
-            <v>0.1590908774969568</v>
+            <v>0.39772719374239196</v>
           </cell>
           <cell r="Q2">
-            <v>0.24908745115872791</v>
+            <v>0.62271862789681975</v>
           </cell>
           <cell r="R2">
-            <v>0.29874198579260358</v>
+            <v>0.7468549644815089</v>
           </cell>
           <cell r="S2">
-            <v>0.27874498939339226</v>
+            <v>0.69686247348348063</v>
           </cell>
           <cell r="T2">
-            <v>0.19481524493760519</v>
+            <v>0.48703811234401295</v>
           </cell>
           <cell r="U2">
-            <v>0.20210924333074712</v>
+            <v>0.50527310832686778</v>
           </cell>
           <cell r="V2">
-            <v>0.18824710154233079</v>
+            <v>0.47061775385582694</v>
           </cell>
           <cell r="W2">
-            <v>0.11677119068273008</v>
+            <v>0.29192797670682519</v>
           </cell>
           <cell r="X2">
-            <v>9.3149101090423306E-2</v>
+            <v>0.23287275272605826</v>
           </cell>
           <cell r="Y2">
-            <v>9.654502729163289E-2</v>
+            <v>0.24136256822908222</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.36282531765618148</v>
+            <v>-0.90706329414045361</v>
           </cell>
           <cell r="C3">
-            <v>-0.36274532483391586</v>
+            <v>-0.90686331208478954</v>
           </cell>
           <cell r="D3">
-            <v>-0.37275455283471859</v>
+            <v>-0.93188638208679642</v>
           </cell>
           <cell r="E3">
-            <v>-0.38983046205944039</v>
+            <v>-0.97457615514860096</v>
           </cell>
           <cell r="F3">
-            <v>-0.38608687004301234</v>
+            <v>-0.9652171751075308</v>
           </cell>
           <cell r="G3">
-            <v>-0.35433750268894793</v>
+            <v>-0.8858437567223697</v>
           </cell>
           <cell r="H3">
-            <v>-0.22467785773456722</v>
+            <v>-0.56169464433641803</v>
           </cell>
           <cell r="I3">
-            <v>-4.318953002054951E-2</v>
+            <v>-0.10797382505137376</v>
           </cell>
           <cell r="J3">
-            <v>-4.6412628200208333E-2</v>
+            <v>-0.11603157050052083</v>
           </cell>
           <cell r="K3">
-            <v>-3.0757960817209558E-2</v>
+            <v>-7.6894902043023891E-2</v>
           </cell>
           <cell r="L3">
-            <v>-2.7094613852666916E-2</v>
+            <v>-6.7736534631667289E-2</v>
           </cell>
           <cell r="M3">
-            <v>-0.12092151010594004</v>
+            <v>-0.30230377526485008</v>
           </cell>
           <cell r="N3">
-            <v>-0.17665333813290268</v>
+            <v>-0.44163334533225668</v>
           </cell>
           <cell r="O3">
-            <v>-0.22900183010605535</v>
+            <v>-0.57250457526513832</v>
           </cell>
           <cell r="P3">
-            <v>-0.22728018278720216</v>
+            <v>-0.56820045696800536</v>
           </cell>
           <cell r="Q3">
-            <v>-0.23112376583146232</v>
+            <v>-0.57780941457865576</v>
           </cell>
           <cell r="R3">
-            <v>-0.18171807286481323</v>
+            <v>-0.45429518216203307</v>
           </cell>
           <cell r="S3">
-            <v>5.9725559760583635E-2</v>
+            <v>0.14931389940145909</v>
           </cell>
           <cell r="T3">
-            <v>-8.4174068705186456E-3</v>
+            <v>-2.1043517176296614E-2</v>
           </cell>
           <cell r="U3">
-            <v>-9.9361606832395949E-2</v>
+            <v>-0.24840401708098986</v>
           </cell>
           <cell r="V3">
-            <v>-0.18418041047848319</v>
+            <v>-0.46045102619620792</v>
           </cell>
           <cell r="W3">
-            <v>-0.24227400856643852</v>
+            <v>-0.60568502141609626</v>
           </cell>
           <cell r="X3">
-            <v>-0.26571550877056443</v>
+            <v>-0.664288771926411</v>
           </cell>
           <cell r="Y3">
-            <v>-0.30423154823224868</v>
+            <v>-0.76057887058062168</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.34699076508527571</v>
+            <v>-0.86747691271318916</v>
           </cell>
           <cell r="C4">
-            <v>-0.37440404257534921</v>
+            <v>-0.9360101064383729</v>
           </cell>
           <cell r="D4">
-            <v>-0.38127143576426414</v>
+            <v>-0.95317858941066025</v>
           </cell>
           <cell r="E4">
-            <v>-0.37617255372095143</v>
+            <v>-0.94043138430237849</v>
           </cell>
           <cell r="F4">
-            <v>-0.3764854264732338</v>
+            <v>-0.94121356618308449</v>
           </cell>
           <cell r="G4">
-            <v>-0.31438144999088929</v>
+            <v>-0.78595362497722321</v>
           </cell>
           <cell r="H4">
-            <v>-1.170662872899955E-2</v>
+            <v>-2.9266571822498873E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.16208452225621253</v>
+            <v>0.40521130564053132</v>
           </cell>
           <cell r="J4">
-            <v>0.20657975314577401</v>
+            <v>0.51644938286443498</v>
           </cell>
           <cell r="K4">
-            <v>0.14390832963189393</v>
+            <v>0.35977082407973482</v>
           </cell>
           <cell r="L4">
-            <v>8.4966788489929571E-2</v>
+            <v>0.21241697122482392</v>
           </cell>
           <cell r="M4">
-            <v>0.16853523545584723</v>
+            <v>0.42133808863961802</v>
           </cell>
           <cell r="N4">
-            <v>0.10626988520465652</v>
+            <v>0.26567471301164131</v>
           </cell>
           <cell r="O4">
-            <v>3.2241559594586765E-2</v>
+            <v>8.0603898986466901E-2</v>
           </cell>
           <cell r="P4">
-            <v>-0.12755515850956742</v>
+            <v>-0.31888789627391856</v>
           </cell>
           <cell r="Q4">
-            <v>-0.12760943772663691</v>
+            <v>-0.31902359431659227</v>
           </cell>
           <cell r="R4">
-            <v>-0.10511937639638647</v>
+            <v>-0.26279844099096616</v>
           </cell>
           <cell r="S4">
-            <v>-5.3030602460786253E-2</v>
+            <v>-0.13257650615196562</v>
           </cell>
           <cell r="T4">
-            <v>-0.12924938404581385</v>
+            <v>-0.32312346011453463</v>
           </cell>
           <cell r="U4">
-            <v>-7.3642695336160677E-2</v>
+            <v>-0.1841067383404017</v>
           </cell>
           <cell r="V4">
-            <v>-0.10110749121253249</v>
+            <v>-0.25276872803133121</v>
           </cell>
           <cell r="W4">
-            <v>-0.1676984725928477</v>
+            <v>-0.41924618148211923</v>
           </cell>
           <cell r="X4">
-            <v>-0.26494045401669414</v>
+            <v>-0.66235113504173537</v>
           </cell>
           <cell r="Y4">
-            <v>-0.29907487771124819</v>
+            <v>-0.74768719427812047</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>0.19347650485697973</v>
+            <v>0.48369126214244929</v>
           </cell>
           <cell r="C2">
-            <v>0.1326341893405672</v>
+            <v>0.33158547335141797</v>
           </cell>
           <cell r="D2">
-            <v>0.11849934281989574</v>
+            <v>0.29624835704973934</v>
           </cell>
           <cell r="E2">
-            <v>0.1503916816210511</v>
+            <v>0.37597920405262775</v>
           </cell>
           <cell r="F2">
-            <v>0.13078659610103902</v>
+            <v>0.3269664902525975</v>
           </cell>
           <cell r="G2">
-            <v>0.10646425937255051</v>
+            <v>0.26616064843137627</v>
           </cell>
           <cell r="H2">
-            <v>8.8088375597771829E-2</v>
+            <v>0.22022093899442957</v>
           </cell>
           <cell r="I2">
-            <v>0.31090613394304761</v>
+            <v>0.77726533485761895</v>
           </cell>
           <cell r="J2">
-            <v>0.32192358525104398</v>
+            <v>0.80480896312760986</v>
           </cell>
           <cell r="K2">
-            <v>0.27059313959804393</v>
+            <v>0.6764828489951098</v>
           </cell>
           <cell r="L2">
-            <v>0.32169454359909999</v>
+            <v>0.80423635899774992</v>
           </cell>
           <cell r="M2">
-            <v>0.30489655478101801</v>
+            <v>0.76224138695254495</v>
           </cell>
           <cell r="N2">
-            <v>0.30323751212521505</v>
+            <v>0.75809378031303754</v>
           </cell>
           <cell r="O2">
-            <v>0.27077954333645582</v>
+            <v>0.67694885834113949</v>
           </cell>
           <cell r="P2">
-            <v>0.15590905994701765</v>
+            <v>0.38977264986754412</v>
           </cell>
           <cell r="Q2">
-            <v>0.24659657664714066</v>
+            <v>0.61649144161785163</v>
           </cell>
           <cell r="R2">
-            <v>0.29874198579260358</v>
+            <v>0.7468549644815089</v>
           </cell>
           <cell r="S2">
-            <v>0.27874498939339226</v>
+            <v>0.69686247348348063</v>
           </cell>
           <cell r="T2">
-            <v>0.19481524493760519</v>
+            <v>0.48703811234401295</v>
           </cell>
           <cell r="U2">
-            <v>0.20413033576405459</v>
+            <v>0.51032583941013643</v>
           </cell>
           <cell r="V2">
-            <v>0.18448215951148417</v>
+            <v>0.46120539877871036</v>
           </cell>
           <cell r="W2">
-            <v>0.11677119068273008</v>
+            <v>0.29192797670682519</v>
           </cell>
           <cell r="X2">
-            <v>9.5012083112231763E-2</v>
+            <v>0.2375302077805794</v>
           </cell>
           <cell r="Y2">
-            <v>9.847592783746556E-2</v>
+            <v>0.24618981959366387</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.37008182400930512</v>
+            <v>-0.92520456002326268</v>
           </cell>
           <cell r="C3">
-            <v>-0.35549041833723749</v>
+            <v>-0.88872604584309367</v>
           </cell>
           <cell r="D3">
-            <v>-0.37275455283471853</v>
+            <v>-0.93188638208679631</v>
           </cell>
           <cell r="E3">
-            <v>-0.38203385281825164</v>
+            <v>-0.95508463204562899</v>
           </cell>
           <cell r="F3">
-            <v>-0.38608687004301234</v>
+            <v>-0.9652171751075308</v>
           </cell>
           <cell r="G3">
-            <v>-0.35433750268894793</v>
+            <v>-0.8858437567223697</v>
           </cell>
           <cell r="H3">
-            <v>-0.22467785773456722</v>
+            <v>-0.56169464433641803</v>
           </cell>
           <cell r="I3">
-            <v>-4.2325739420138522E-2</v>
+            <v>-0.1058143485503463</v>
           </cell>
           <cell r="J3">
-            <v>-4.594850191820625E-2</v>
+            <v>-0.11487125479551562</v>
           </cell>
           <cell r="K3">
-            <v>-3.1373120033553747E-2</v>
+            <v>-7.8432800083884369E-2</v>
           </cell>
           <cell r="L3">
-            <v>-2.6552721575613582E-2</v>
+            <v>-6.6381803939033951E-2</v>
           </cell>
           <cell r="M3">
-            <v>-0.12213072520699944</v>
+            <v>-0.30532681301749859</v>
           </cell>
           <cell r="N3">
-            <v>-0.17841987151423169</v>
+            <v>-0.44604967878557922</v>
           </cell>
           <cell r="O3">
-            <v>-0.22442179350393424</v>
+            <v>-0.56105448375983558</v>
           </cell>
           <cell r="P3">
-            <v>-0.22728018278720216</v>
+            <v>-0.56820045696800536</v>
           </cell>
           <cell r="Q3">
-            <v>-0.23574624114809156</v>
+            <v>-0.58936560287022888</v>
           </cell>
           <cell r="R3">
-            <v>-0.178083711407517</v>
+            <v>-0.44520927851879244</v>
           </cell>
           <cell r="S3">
-            <v>6.032281535818948E-2</v>
+            <v>0.15080703839547369</v>
           </cell>
           <cell r="T3">
-            <v>-8.3332328018134588E-3</v>
+            <v>-2.0833082004533647E-2</v>
           </cell>
           <cell r="U3">
-            <v>-9.9361606832395963E-2</v>
+            <v>-0.24840401708098989</v>
           </cell>
           <cell r="V3">
-            <v>-0.18602221458326804</v>
+            <v>-0.46505553645817005</v>
           </cell>
           <cell r="W3">
-            <v>-0.23985126848077409</v>
+            <v>-0.59962817120193523</v>
           </cell>
           <cell r="X3">
-            <v>-0.26040119859515315</v>
+            <v>-0.65100299648788285</v>
           </cell>
           <cell r="Y3">
-            <v>-0.30727386371457122</v>
+            <v>-0.76818465928642798</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.35046067273612841</v>
+            <v>-0.87615168184032099</v>
           </cell>
           <cell r="C4">
-            <v>-0.37440404257534915</v>
+            <v>-0.93601010643837279</v>
           </cell>
           <cell r="D4">
-            <v>-0.38508415012190678</v>
+            <v>-0.96271037530476689</v>
           </cell>
           <cell r="E4">
-            <v>-0.37993427925816098</v>
+            <v>-0.94983569814540236</v>
           </cell>
           <cell r="F4">
-            <v>-0.38025028073796618</v>
+            <v>-0.95062570184491535</v>
           </cell>
           <cell r="G4">
-            <v>-0.32066907899070712</v>
+            <v>-0.80167269747676773</v>
           </cell>
           <cell r="H4">
-            <v>-1.1823695016289545E-2</v>
+            <v>-2.955923754072386E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.16532621270133677</v>
+            <v>0.4133155317533419</v>
           </cell>
           <cell r="J4">
-            <v>0.20864555067723176</v>
+            <v>0.52161387669307935</v>
           </cell>
           <cell r="K4">
-            <v>0.14103016303925606</v>
+            <v>0.35257540759814016</v>
           </cell>
           <cell r="L4">
-            <v>8.6666124259728167E-2</v>
+            <v>0.2166653106493204</v>
           </cell>
           <cell r="M4">
-            <v>0.16684988310128873</v>
+            <v>0.4171247077532218</v>
           </cell>
           <cell r="N4">
-            <v>0.10839528290874965</v>
+            <v>0.27098820727187412</v>
           </cell>
           <cell r="O4">
-            <v>3.2886390786478495E-2</v>
+            <v>8.221597696619623E-2</v>
           </cell>
           <cell r="P4">
-            <v>-0.1288307100946631</v>
+            <v>-0.32207677523665773</v>
           </cell>
           <cell r="Q4">
-            <v>-0.13016162648116963</v>
+            <v>-0.32540406620292406</v>
           </cell>
           <cell r="R4">
-            <v>-0.10722176392431421</v>
+            <v>-0.26805440981078549</v>
           </cell>
           <cell r="S4">
-            <v>-5.1969990411570521E-2</v>
+            <v>-0.1299249760289263</v>
           </cell>
           <cell r="T4">
-            <v>-0.12924938404581385</v>
+            <v>-0.32312346011453463</v>
           </cell>
           <cell r="U4">
-            <v>-7.216984142943747E-2</v>
+            <v>-0.18042460357359366</v>
           </cell>
           <cell r="V4">
-            <v>-0.10110749121253249</v>
+            <v>-0.25276872803133121</v>
           </cell>
           <cell r="W4">
-            <v>-0.16434450314099072</v>
+            <v>-0.41086125785247679</v>
           </cell>
           <cell r="X4">
-            <v>-0.26494045401669414</v>
+            <v>-0.66235113504173537</v>
           </cell>
           <cell r="Y4">
-            <v>-0.29309338015702319</v>
+            <v>-0.73273345039255799</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>0.19347650485697973</v>
+            <v>0.48369126214244929</v>
           </cell>
           <cell r="C2">
-            <v>0.13804782972181481</v>
+            <v>0.34511957430453705</v>
           </cell>
           <cell r="D2">
-            <v>0.11497956035989883</v>
+            <v>0.28744890089974706</v>
           </cell>
           <cell r="E2">
-            <v>0.14738384798863008</v>
+            <v>0.36845961997157517</v>
           </cell>
           <cell r="F2">
-            <v>0.13208151289411862</v>
+            <v>0.33020378223529656</v>
           </cell>
           <cell r="G2">
-            <v>0.1043349741850995</v>
+            <v>0.26083743546274873</v>
           </cell>
           <cell r="H2">
-            <v>8.9850143109727276E-2</v>
+            <v>0.22462535777431816</v>
           </cell>
           <cell r="I2">
-            <v>0.3016712982813729</v>
+            <v>0.75417824570343217</v>
           </cell>
           <cell r="J2">
-            <v>0.32514282110355436</v>
+            <v>0.81285705275888587</v>
           </cell>
           <cell r="K2">
-            <v>0.2788766030551269</v>
+            <v>0.69719150763781723</v>
           </cell>
           <cell r="L2">
-            <v>0.32491148903509104</v>
+            <v>0.81227872258772749</v>
           </cell>
           <cell r="M2">
-            <v>0.30190737287140018</v>
+            <v>0.75476843217850043</v>
           </cell>
           <cell r="N2">
-            <v>0.29423045730961456</v>
+            <v>0.73557614327403642</v>
           </cell>
           <cell r="O2">
-            <v>0.26541757218127848</v>
+            <v>0.66354393045319615</v>
           </cell>
           <cell r="P2">
-            <v>0.16068178627192636</v>
+            <v>0.40170446567981588</v>
           </cell>
           <cell r="Q2">
-            <v>0.24908745115872791</v>
+            <v>0.62271862789681975</v>
           </cell>
           <cell r="R2">
-            <v>0.30172940565052964</v>
+            <v>0.75432351412632404</v>
           </cell>
           <cell r="S2">
-            <v>0.28153243928732613</v>
+            <v>0.70383109821831535</v>
           </cell>
           <cell r="T2">
-            <v>0.19286709248822914</v>
+            <v>0.48216773122057283</v>
           </cell>
           <cell r="U2">
-            <v>0.2061514281973621</v>
+            <v>0.51537857049340519</v>
           </cell>
           <cell r="V2">
-            <v>0.18824710154233079</v>
+            <v>0.47061775385582694</v>
           </cell>
           <cell r="W2">
-            <v>0.11560347877590278</v>
+            <v>0.28900869693975695</v>
           </cell>
           <cell r="X2">
-            <v>9.1286119068614835E-2</v>
+            <v>0.22821529767153709</v>
           </cell>
           <cell r="Y2">
-            <v>9.7510477564549225E-2</v>
+            <v>0.24377619391137306</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.36645357083274327</v>
+            <v>-0.91613392708185815</v>
           </cell>
           <cell r="C3">
-            <v>-0.36274532483391581</v>
+            <v>-0.90686331208478943</v>
           </cell>
           <cell r="D3">
-            <v>-0.37275455283471853</v>
+            <v>-0.93188638208679631</v>
           </cell>
           <cell r="E3">
-            <v>-0.39372876668003481</v>
+            <v>-0.98432191670008695</v>
           </cell>
           <cell r="F3">
-            <v>-0.39380860744387258</v>
+            <v>-0.9845215186096814</v>
           </cell>
           <cell r="G3">
-            <v>-0.35788087771583738</v>
+            <v>-0.89470219428959341</v>
           </cell>
           <cell r="H3">
-            <v>-0.22917141488925857</v>
+            <v>-0.57292853722314641</v>
           </cell>
           <cell r="I3">
-            <v>-4.2757634720344009E-2</v>
+            <v>-0.10689408680086002</v>
           </cell>
           <cell r="J3">
-            <v>-4.6412628200208333E-2</v>
+            <v>-0.11603157050052083</v>
           </cell>
           <cell r="K3">
-            <v>-3.0142801600865368E-2</v>
+            <v>-7.5357004002163414E-2</v>
           </cell>
           <cell r="L3">
-            <v>-2.6552721575613582E-2</v>
+            <v>-6.6381803939033951E-2</v>
           </cell>
           <cell r="M3">
-            <v>-0.12092151010594004</v>
+            <v>-0.30230377526485008</v>
           </cell>
           <cell r="N3">
-            <v>-0.17488680475157364</v>
+            <v>-0.43721701187893408</v>
           </cell>
           <cell r="O3">
-            <v>-0.23129184840711592</v>
+            <v>-0.57822962101778974</v>
           </cell>
           <cell r="P3">
-            <v>-0.23182578644294619</v>
+            <v>-0.57956446610736545</v>
           </cell>
           <cell r="Q3">
-            <v>-0.23574624114809156</v>
+            <v>-0.58936560287022888</v>
           </cell>
           <cell r="R3">
-            <v>-0.178083711407517</v>
+            <v>-0.44520927851879244</v>
           </cell>
           <cell r="S3">
-            <v>5.853104856537196E-2</v>
+            <v>0.14632762141342989</v>
           </cell>
           <cell r="T3">
-            <v>-8.3332328018134588E-3</v>
+            <v>-2.0833082004533647E-2</v>
           </cell>
           <cell r="U3">
-            <v>-0.10134883896904388</v>
+            <v>-0.25337209742260969</v>
           </cell>
           <cell r="V3">
-            <v>-0.18233860637369834</v>
+            <v>-0.4558465159342458</v>
           </cell>
           <cell r="W3">
-            <v>-0.24469674865210289</v>
+            <v>-0.61174187163025717</v>
           </cell>
           <cell r="X3">
-            <v>-0.27102981894597572</v>
+            <v>-0.67757454736493927</v>
           </cell>
           <cell r="Y3">
-            <v>-0.30423154823224868</v>
+            <v>-0.76057887058062168</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.35046067273612841</v>
+            <v>-0.87615168184032099</v>
           </cell>
           <cell r="C4">
-            <v>-0.37440404257534915</v>
+            <v>-0.93601010643837279</v>
           </cell>
           <cell r="D4">
-            <v>-0.38508415012190678</v>
+            <v>-0.96271037530476689</v>
           </cell>
           <cell r="E4">
-            <v>-0.37617255372095143</v>
+            <v>-0.94043138430237849</v>
           </cell>
           <cell r="F4">
-            <v>-0.36895571794376913</v>
+            <v>-0.92238929485942278</v>
           </cell>
           <cell r="G4">
-            <v>-0.31438144999088929</v>
+            <v>-0.78595362497722321</v>
           </cell>
           <cell r="H4">
-            <v>-1.1823695016289545E-2</v>
+            <v>-2.955923754072386E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.16046367703365041</v>
+            <v>0.40115919258412602</v>
           </cell>
           <cell r="J4">
-            <v>0.20657975314577401</v>
+            <v>0.51644938286443498</v>
           </cell>
           <cell r="K4">
-            <v>0.14678649622453183</v>
+            <v>0.36696624056132954</v>
           </cell>
           <cell r="L4">
-            <v>8.3267452720130974E-2</v>
+            <v>0.20816863180032744</v>
           </cell>
           <cell r="M4">
-            <v>0.16684988310128873</v>
+            <v>0.4171247077532218</v>
           </cell>
           <cell r="N4">
-            <v>0.10520718635260995</v>
+            <v>0.26301796588152487</v>
           </cell>
           <cell r="O4">
-            <v>3.2241559594586765E-2</v>
+            <v>8.0603898986466901E-2</v>
           </cell>
           <cell r="P4">
-            <v>-0.1288307100946631</v>
+            <v>-0.32207677523665773</v>
           </cell>
           <cell r="Q4">
-            <v>-0.12633334334937055</v>
+            <v>-0.31583335837342635</v>
           </cell>
           <cell r="R4">
-            <v>-0.10406818263242262</v>
+            <v>-0.26017045658105653</v>
           </cell>
           <cell r="S4">
-            <v>-5.4091214510001977E-2</v>
+            <v>-0.13522803627500493</v>
           </cell>
           <cell r="T4">
-            <v>-0.13183437172673013</v>
+            <v>-0.32958592931682529</v>
           </cell>
           <cell r="U4">
-            <v>-7.216984142943747E-2</v>
+            <v>-0.18042460357359366</v>
           </cell>
           <cell r="V4">
-            <v>-9.9085341388281845E-2</v>
+            <v>-0.24771335347070458</v>
           </cell>
           <cell r="W4">
-            <v>-0.16602148786691923</v>
+            <v>-0.41505371966729804</v>
           </cell>
           <cell r="X4">
-            <v>-0.26494045401669414</v>
+            <v>-0.66235113504173537</v>
           </cell>
           <cell r="Y4">
-            <v>-0.29907487771124819</v>
+            <v>-0.74768719427812047</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>0.62000000000000011</v>
+            <v>1.5500000000000003</v>
           </cell>
           <cell r="C2">
-            <v>0.61395348837209318</v>
+            <v>1.5348837209302328</v>
           </cell>
           <cell r="D2">
-            <v>0.59139534883720934</v>
+            <v>1.4784883720930233</v>
           </cell>
           <cell r="E2">
-            <v>0.58069767441860465</v>
+            <v>1.4517441860465117</v>
           </cell>
           <cell r="F2">
-            <v>0.57651162790697674</v>
+            <v>1.4412790697674418</v>
           </cell>
           <cell r="G2">
-            <v>0.58511627906976749</v>
+            <v>1.4627906976744187</v>
           </cell>
           <cell r="H2">
-            <v>0.58000000000000007</v>
+            <v>1.4500000000000002</v>
           </cell>
           <cell r="I2">
-            <v>0.70930232558139539</v>
+            <v>1.7732558139534884</v>
           </cell>
           <cell r="J2">
-            <v>0.76302325581395358</v>
+            <v>1.907558139534884</v>
           </cell>
           <cell r="K2">
-            <v>0.75302325581395346</v>
+            <v>1.8825581395348836</v>
           </cell>
           <cell r="L2">
-            <v>0.74069767441860479</v>
+            <v>1.8517441860465118</v>
           </cell>
           <cell r="M2">
-            <v>0.74976744186046529</v>
+            <v>1.8744186046511631</v>
           </cell>
           <cell r="N2">
-            <v>0.77744186046511654</v>
+            <v>1.9436046511627911</v>
           </cell>
           <cell r="O2">
-            <v>0.76279069767441854</v>
+            <v>1.9069767441860463</v>
           </cell>
           <cell r="P2">
-            <v>0.70348837209302328</v>
+            <v>1.7587209302325582</v>
           </cell>
           <cell r="Q2">
-            <v>0.7251162790697675</v>
+            <v>1.8127906976744186</v>
           </cell>
           <cell r="R2">
-            <v>0.73348837209302331</v>
+            <v>1.8337209302325581</v>
           </cell>
           <cell r="S2">
-            <v>0.70930232558139539</v>
+            <v>1.7732558139534884</v>
           </cell>
           <cell r="T2">
-            <v>0.67348837209302337</v>
+            <v>1.6837209302325582</v>
           </cell>
           <cell r="U2">
-            <v>0.66488372093023262</v>
+            <v>1.6622093023255815</v>
           </cell>
           <cell r="V2">
-            <v>0.66279069767441867</v>
+            <v>1.6569767441860466</v>
           </cell>
           <cell r="W2">
-            <v>0.65534883720930237</v>
+            <v>1.6383720930232559</v>
           </cell>
           <cell r="X2">
-            <v>0.60558139534883737</v>
+            <v>1.5139534883720933</v>
           </cell>
           <cell r="Y2">
-            <v>0.58558139534883735</v>
+            <v>1.4639534883720933</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.54821428571428565</v>
+            <v>1.3705357142857142</v>
           </cell>
           <cell r="C3">
-            <v>0.51696428571428565</v>
+            <v>1.292410714285714</v>
           </cell>
           <cell r="D3">
-            <v>0.49642857142857139</v>
+            <v>1.2410714285714284</v>
           </cell>
           <cell r="E3">
-            <v>0.45267857142857149</v>
+            <v>1.1316964285714286</v>
           </cell>
           <cell r="F3">
-            <v>0.43571428571428572</v>
+            <v>1.0892857142857142</v>
           </cell>
           <cell r="G3">
-            <v>0.45803571428571427</v>
+            <v>1.1450892857142856</v>
           </cell>
           <cell r="H3">
-            <v>0.48750000000000004</v>
+            <v>1.21875</v>
           </cell>
           <cell r="I3">
-            <v>0.65446428571428561</v>
+            <v>1.636160714285714</v>
           </cell>
           <cell r="J3">
-            <v>0.7142857142857143</v>
+            <v>1.7857142857142856</v>
           </cell>
           <cell r="K3">
-            <v>0.76160714285714293</v>
+            <v>1.9040178571428572</v>
           </cell>
           <cell r="L3">
-            <v>0.69464285714285712</v>
+            <v>1.7366071428571428</v>
           </cell>
           <cell r="M3">
-            <v>0.72946428571428568</v>
+            <v>1.8236607142857142</v>
           </cell>
           <cell r="N3">
-            <v>0.73035714285714282</v>
+            <v>1.825892857142857</v>
           </cell>
           <cell r="O3">
-            <v>0.71250000000000002</v>
+            <v>1.78125</v>
           </cell>
           <cell r="P3">
-            <v>0.61250000000000004</v>
+            <v>1.53125</v>
           </cell>
           <cell r="Q3">
-            <v>0.63839285714285721</v>
+            <v>1.5959821428571428</v>
           </cell>
           <cell r="R3">
-            <v>0.67589285714285718</v>
+            <v>1.6897321428571428</v>
           </cell>
           <cell r="S3">
-            <v>0.67321428571428565</v>
+            <v>1.683035714285714</v>
           </cell>
           <cell r="T3">
-            <v>0.70178571428571423</v>
+            <v>1.7544642857142854</v>
           </cell>
           <cell r="U3">
-            <v>0.73928571428571421</v>
+            <v>1.8482142857142854</v>
           </cell>
           <cell r="V3">
-            <v>0.77321428571428574</v>
+            <v>1.9330357142857142</v>
           </cell>
           <cell r="W3">
-            <v>0.7098214285714286</v>
+            <v>1.7745535714285714</v>
           </cell>
           <cell r="X3">
-            <v>0.60982142857142851</v>
+            <v>1.5245535714285712</v>
           </cell>
           <cell r="Y3">
-            <v>0.56339285714285714</v>
+            <v>1.4084821428571428</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.44855305466237944</v>
+            <v>1.1213826366559485</v>
           </cell>
           <cell r="C4">
-            <v>0.4215434083601286</v>
+            <v>1.0538585209003215</v>
           </cell>
           <cell r="D4">
-            <v>0.38842443729903547</v>
+            <v>0.9710610932475886</v>
           </cell>
           <cell r="E4">
-            <v>0.4041800643086817</v>
+            <v>1.0104501607717042</v>
           </cell>
           <cell r="F4">
-            <v>0.39678456591639877</v>
+            <v>0.99196141479099686</v>
           </cell>
           <cell r="G4">
-            <v>0.4048231511254019</v>
+            <v>1.0120578778135048</v>
           </cell>
           <cell r="H4">
-            <v>0.57395498392282973</v>
+            <v>1.4348874598070742</v>
           </cell>
           <cell r="I4">
-            <v>0.73472668810289399</v>
+            <v>1.836816720257235</v>
           </cell>
           <cell r="J4">
-            <v>0.770096463022508</v>
+            <v>1.92524115755627</v>
           </cell>
           <cell r="K4">
-            <v>0.72218649517684896</v>
+            <v>1.8054662379421222</v>
           </cell>
           <cell r="L4">
-            <v>0.70675241157556279</v>
+            <v>1.7668810289389068</v>
           </cell>
           <cell r="M4">
-            <v>0.75980707395498404</v>
+            <v>1.89951768488746</v>
           </cell>
           <cell r="N4">
-            <v>0.79453376205787796</v>
+            <v>1.9863344051446947</v>
           </cell>
           <cell r="O4">
-            <v>0.73762057877813514</v>
+            <v>1.8440514469453377</v>
           </cell>
           <cell r="P4">
-            <v>0.67266881028938919</v>
+            <v>1.681672025723473</v>
           </cell>
           <cell r="Q4">
-            <v>0.63794212218649526</v>
+            <v>1.594855305466238</v>
           </cell>
           <cell r="R4">
-            <v>0.6520900321543408</v>
+            <v>1.630225080385852</v>
           </cell>
           <cell r="S4">
-            <v>0.62990353697749202</v>
+            <v>1.57475884244373</v>
           </cell>
           <cell r="T4">
-            <v>0.61543408360128626</v>
+            <v>1.5385852090032155</v>
           </cell>
           <cell r="U4">
-            <v>0.67073954983922834</v>
+            <v>1.6768488745980707</v>
           </cell>
           <cell r="V4">
-            <v>0.70257234726688111</v>
+            <v>1.7564308681672027</v>
           </cell>
           <cell r="W4">
-            <v>0.65562700964630238</v>
+            <v>1.6390675241157557</v>
           </cell>
           <cell r="X4">
-            <v>0.57459807073954983</v>
+            <v>1.4364951768488745</v>
           </cell>
           <cell r="Y4">
-            <v>0.47877813504823163</v>
+            <v>1.196945337620579</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>0.6262000000000002</v>
+            <v>1.5655000000000003</v>
           </cell>
           <cell r="C2">
-            <v>0.61395348837209318</v>
+            <v>1.5348837209302328</v>
           </cell>
           <cell r="D2">
-            <v>0.57956744186046516</v>
+            <v>1.4489186046511628</v>
           </cell>
           <cell r="E2">
-            <v>0.58069767441860476</v>
+            <v>1.4517441860465119</v>
           </cell>
           <cell r="F2">
-            <v>0.56498139534883718</v>
+            <v>1.4124534883720929</v>
           </cell>
           <cell r="G2">
-            <v>0.58511627906976749</v>
+            <v>1.4627906976744187</v>
           </cell>
           <cell r="H2">
-            <v>0.59160000000000001</v>
+            <v>1.4790000000000001</v>
           </cell>
           <cell r="I2">
-            <v>0.70930232558139539</v>
+            <v>1.7732558139534884</v>
           </cell>
           <cell r="J2">
-            <v>0.77065348837209313</v>
+            <v>1.9266337209302327</v>
           </cell>
           <cell r="K2">
-            <v>0.75302325581395346</v>
+            <v>1.8825581395348836</v>
           </cell>
           <cell r="L2">
-            <v>0.73329069767441868</v>
+            <v>1.8332267441860466</v>
           </cell>
           <cell r="M2">
-            <v>0.73477209302325597</v>
+            <v>1.8369302325581398</v>
           </cell>
           <cell r="N2">
-            <v>0.76189302325581421</v>
+            <v>1.9047325581395353</v>
           </cell>
           <cell r="O2">
-            <v>0.77804651162790694</v>
+            <v>1.9451162790697674</v>
           </cell>
           <cell r="P2">
-            <v>0.71755813953488379</v>
+            <v>1.7938953488372094</v>
           </cell>
           <cell r="Q2">
-            <v>0.7323674418604651</v>
+            <v>1.8309186046511627</v>
           </cell>
           <cell r="R2">
-            <v>0.74082325581395347</v>
+            <v>1.8520581395348836</v>
           </cell>
           <cell r="S2">
-            <v>0.69511627906976747</v>
+            <v>1.7377906976744186</v>
           </cell>
           <cell r="T2">
-            <v>0.68695813953488383</v>
+            <v>1.7173953488372096</v>
           </cell>
           <cell r="U2">
-            <v>0.65823488372093031</v>
+            <v>1.6455872093023256</v>
           </cell>
           <cell r="V2">
-            <v>0.66941860465116287</v>
+            <v>1.6735465116279071</v>
           </cell>
           <cell r="W2">
-            <v>0.65534883720930237</v>
+            <v>1.6383720930232559</v>
           </cell>
           <cell r="X2">
-            <v>0.6176930232558141</v>
+            <v>1.5442325581395351</v>
           </cell>
           <cell r="Y2">
-            <v>0.59729302325581413</v>
+            <v>1.4932325581395351</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.54821428571428565</v>
+            <v>1.3705357142857142</v>
           </cell>
           <cell r="C3">
-            <v>0.51696428571428565</v>
+            <v>1.292410714285714</v>
           </cell>
           <cell r="D3">
-            <v>0.49146428571428569</v>
+            <v>1.2286607142857142</v>
           </cell>
           <cell r="E3">
-            <v>0.45720535714285715</v>
+            <v>1.1430133928571429</v>
           </cell>
           <cell r="F3">
-            <v>0.43571428571428572</v>
+            <v>1.0892857142857142</v>
           </cell>
           <cell r="G3">
-            <v>0.46719642857142851</v>
+            <v>1.1679910714285713</v>
           </cell>
           <cell r="H3">
-            <v>0.48262500000000003</v>
+            <v>1.2065625</v>
           </cell>
           <cell r="I3">
-            <v>0.64791964285714287</v>
+            <v>1.619799107142857</v>
           </cell>
           <cell r="J3">
-            <v>0.72142857142857142</v>
+            <v>1.8035714285714284</v>
           </cell>
           <cell r="K3">
-            <v>0.75399107142857147</v>
+            <v>1.8849776785714285</v>
           </cell>
           <cell r="L3">
-            <v>0.70158928571428569</v>
+            <v>1.7539732142857141</v>
           </cell>
           <cell r="M3">
-            <v>0.72946428571428568</v>
+            <v>1.8236607142857142</v>
           </cell>
           <cell r="N3">
-            <v>0.74496428571428575</v>
+            <v>1.8624107142857143</v>
           </cell>
           <cell r="O3">
-            <v>0.71250000000000002</v>
+            <v>1.78125</v>
           </cell>
           <cell r="P3">
-            <v>0.60025000000000006</v>
+            <v>1.5006250000000001</v>
           </cell>
           <cell r="Q3">
-            <v>0.63839285714285721</v>
+            <v>1.5959821428571428</v>
           </cell>
           <cell r="R3">
-            <v>0.68265178571428575</v>
+            <v>1.7066294642857143</v>
           </cell>
           <cell r="S3">
-            <v>0.67994642857142851</v>
+            <v>1.6998660714285712</v>
           </cell>
           <cell r="T3">
-            <v>0.7158214285714285</v>
+            <v>1.7895535714285711</v>
           </cell>
           <cell r="U3">
-            <v>0.72449999999999992</v>
+            <v>1.8112499999999998</v>
           </cell>
           <cell r="V3">
-            <v>0.76548214285714278</v>
+            <v>1.9137053571428568</v>
           </cell>
           <cell r="W3">
-            <v>0.72401785714285716</v>
+            <v>1.8100446428571428</v>
           </cell>
           <cell r="X3">
-            <v>0.60372321428571429</v>
+            <v>1.5093080357142856</v>
           </cell>
           <cell r="Y3">
-            <v>0.55212500000000009</v>
+            <v>1.3803125000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.43958199356913186</v>
+            <v>1.0989549839228296</v>
           </cell>
           <cell r="C4">
-            <v>0.42997427652733117</v>
+            <v>1.0749356913183279</v>
           </cell>
           <cell r="D4">
-            <v>0.38454019292604513</v>
+            <v>0.96135048231511278</v>
           </cell>
           <cell r="E4">
-            <v>0.40013826366559491</v>
+            <v>1.0003456591639872</v>
           </cell>
           <cell r="F4">
-            <v>0.40472025723472671</v>
+            <v>1.0118006430868167</v>
           </cell>
           <cell r="G4">
-            <v>0.39672668810289391</v>
+            <v>0.99181672025723477</v>
           </cell>
           <cell r="H4">
-            <v>0.56247588424437311</v>
+            <v>1.4061897106109327</v>
           </cell>
           <cell r="I4">
-            <v>0.74942122186495197</v>
+            <v>1.8735530546623798</v>
           </cell>
           <cell r="J4">
-            <v>0.76239549839228293</v>
+            <v>1.9059887459807072</v>
           </cell>
           <cell r="K4">
-            <v>0.72940836012861743</v>
+            <v>1.8235209003215433</v>
           </cell>
           <cell r="L4">
-            <v>0.70675241157556279</v>
+            <v>1.766881028938907</v>
           </cell>
           <cell r="M4">
-            <v>0.74461093247588428</v>
+            <v>1.8615273311897107</v>
           </cell>
           <cell r="N4">
-            <v>0.79453376205787796</v>
+            <v>1.9863344051446947</v>
           </cell>
           <cell r="O4">
-            <v>0.72286816720257241</v>
+            <v>1.807170418006431</v>
           </cell>
           <cell r="P4">
-            <v>0.67266881028938919</v>
+            <v>1.681672025723473</v>
           </cell>
           <cell r="Q4">
-            <v>0.64432154340836023</v>
+            <v>1.6108038585209004</v>
           </cell>
           <cell r="R4">
-            <v>0.64556913183279752</v>
+            <v>1.6139228295819936</v>
           </cell>
           <cell r="S4">
-            <v>0.61730546623794214</v>
+            <v>1.5432636655948553</v>
           </cell>
           <cell r="T4">
-            <v>0.60927974276527341</v>
+            <v>1.5231993569131834</v>
           </cell>
           <cell r="U4">
-            <v>0.68415434083601301</v>
+            <v>1.7103858520900324</v>
           </cell>
           <cell r="V4">
-            <v>0.69554662379421239</v>
+            <v>1.7388665594855308</v>
           </cell>
           <cell r="W4">
-            <v>0.66873954983922834</v>
+            <v>1.6718488745980706</v>
           </cell>
           <cell r="X4">
-            <v>0.57459807073954983</v>
+            <v>1.4364951768488745</v>
           </cell>
           <cell r="Y4">
-            <v>0.48356591639871394</v>
+            <v>1.2089147909967848</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>0.6262000000000002</v>
+            <v>1.5655000000000003</v>
           </cell>
           <cell r="C2">
-            <v>0.62623255813953504</v>
+            <v>1.5655813953488376</v>
           </cell>
           <cell r="D2">
-            <v>0.57956744186046516</v>
+            <v>1.4489186046511628</v>
           </cell>
           <cell r="E2">
-            <v>0.59231162790697678</v>
+            <v>1.4807790697674419</v>
           </cell>
           <cell r="F2">
-            <v>0.56498139534883718</v>
+            <v>1.4124534883720929</v>
           </cell>
           <cell r="G2">
-            <v>0.57926511627906985</v>
+            <v>1.4481627906976746</v>
           </cell>
           <cell r="H2">
-            <v>0.58000000000000007</v>
+            <v>1.4500000000000002</v>
           </cell>
           <cell r="I2">
-            <v>0.7234883720930233</v>
+            <v>1.8087209302325582</v>
           </cell>
           <cell r="J2">
-            <v>0.7477627906976746</v>
+            <v>1.8694069767441863</v>
           </cell>
           <cell r="K2">
-            <v>0.7454930232558139</v>
+            <v>1.8637325581395348</v>
           </cell>
           <cell r="L2">
-            <v>0.7481046511627909</v>
+            <v>1.870261627906977</v>
           </cell>
           <cell r="M2">
-            <v>0.74976744186046529</v>
+            <v>1.8744186046511631</v>
           </cell>
           <cell r="N2">
-            <v>0.76966744186046532</v>
+            <v>1.9241686046511632</v>
           </cell>
           <cell r="O2">
-            <v>0.74753488372093013</v>
+            <v>1.8688372093023253</v>
           </cell>
           <cell r="P2">
-            <v>0.69645348837209309</v>
+            <v>1.7411337209302327</v>
           </cell>
           <cell r="Q2">
-            <v>0.7396186046511628</v>
+            <v>1.8490465116279069</v>
           </cell>
           <cell r="R2">
-            <v>0.74082325581395347</v>
+            <v>1.8520581395348836</v>
           </cell>
           <cell r="S2">
-            <v>0.69511627906976747</v>
+            <v>1.7377906976744186</v>
           </cell>
           <cell r="T2">
-            <v>0.67348837209302337</v>
+            <v>1.6837209302325582</v>
           </cell>
           <cell r="U2">
-            <v>0.65823488372093031</v>
+            <v>1.6455872093023256</v>
           </cell>
           <cell r="V2">
-            <v>0.65616279069767447</v>
+            <v>1.640406976744186</v>
           </cell>
           <cell r="W2">
-            <v>0.66845581395348841</v>
+            <v>1.671139534883721</v>
           </cell>
           <cell r="X2">
-            <v>0.61769302325581421</v>
+            <v>1.5442325581395353</v>
           </cell>
           <cell r="Y2">
-            <v>0.57972558139534891</v>
+            <v>1.4493139534883723</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.55369642857142853</v>
+            <v>1.3842410714285713</v>
           </cell>
           <cell r="C3">
-            <v>0.52213392857142849</v>
+            <v>1.3053348214285712</v>
           </cell>
           <cell r="D3">
-            <v>0.49642857142857139</v>
+            <v>1.2410714285714284</v>
           </cell>
           <cell r="E3">
-            <v>0.46173214285714287</v>
+            <v>1.1543303571428571</v>
           </cell>
           <cell r="F3">
-            <v>0.43135714285714277</v>
+            <v>1.0783928571428569</v>
           </cell>
           <cell r="G3">
-            <v>0.45345535714285712</v>
+            <v>1.1336383928571427</v>
           </cell>
           <cell r="H3">
-            <v>0.49237500000000001</v>
+            <v>1.2309375</v>
           </cell>
           <cell r="I3">
-            <v>0.64137499999999992</v>
+            <v>1.6034374999999996</v>
           </cell>
           <cell r="J3">
-            <v>0.7</v>
+            <v>1.7499999999999998</v>
           </cell>
           <cell r="K3">
-            <v>0.76922321428571427</v>
+            <v>1.9230580357142857</v>
           </cell>
           <cell r="L3">
-            <v>0.68074999999999997</v>
+            <v>1.7018749999999998</v>
           </cell>
           <cell r="M3">
-            <v>0.72946428571428568</v>
+            <v>1.8236607142857142</v>
           </cell>
           <cell r="N3">
-            <v>0.72305357142857141</v>
+            <v>1.8076339285714285</v>
           </cell>
           <cell r="O3">
-            <v>0.71250000000000002</v>
+            <v>1.78125</v>
           </cell>
           <cell r="P3">
-            <v>0.606375</v>
+            <v>1.5159374999999999</v>
           </cell>
           <cell r="Q3">
-            <v>0.64477678571428576</v>
+            <v>1.6119419642857142</v>
           </cell>
           <cell r="R3">
-            <v>0.68941071428571432</v>
+            <v>1.7235267857142857</v>
           </cell>
           <cell r="S3">
-            <v>0.67994642857142851</v>
+            <v>1.6998660714285712</v>
           </cell>
           <cell r="T3">
-            <v>0.68774999999999986</v>
+            <v>1.7193749999999997</v>
           </cell>
           <cell r="U3">
-            <v>0.73928571428571421</v>
+            <v>1.8482142857142854</v>
           </cell>
           <cell r="V3">
-            <v>0.75775000000000003</v>
+            <v>1.8943749999999999</v>
           </cell>
           <cell r="W3">
-            <v>0.7098214285714286</v>
+            <v>1.7745535714285714</v>
           </cell>
           <cell r="X3">
-            <v>0.60982142857142851</v>
+            <v>1.5245535714285712</v>
           </cell>
           <cell r="Y3">
-            <v>0.56902678571428567</v>
+            <v>1.4225669642857142</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.45303858520900325</v>
+            <v>1.132596463022508</v>
           </cell>
           <cell r="C4">
-            <v>0.41311254019292609</v>
+            <v>1.0327813504823151</v>
           </cell>
           <cell r="D4">
-            <v>0.39619292604501616</v>
+            <v>0.99048231511254037</v>
           </cell>
           <cell r="E4">
-            <v>0.40822186495176854</v>
+            <v>1.0205546623794213</v>
           </cell>
           <cell r="F4">
-            <v>0.3928167202572348</v>
+            <v>0.98204180064308688</v>
           </cell>
           <cell r="G4">
-            <v>0.39672668810289391</v>
+            <v>0.99181672025723466</v>
           </cell>
           <cell r="H4">
-            <v>0.58543408360128635</v>
+            <v>1.4635852090032158</v>
           </cell>
           <cell r="I4">
-            <v>0.74207395498392303</v>
+            <v>1.8551848874598074</v>
           </cell>
           <cell r="J4">
-            <v>0.76239549839228293</v>
+            <v>1.9059887459807072</v>
           </cell>
           <cell r="K4">
-            <v>0.73663022508038589</v>
+            <v>1.8415755627009647</v>
           </cell>
           <cell r="L4">
-            <v>0.69261736334405155</v>
+            <v>1.7315434083601287</v>
           </cell>
           <cell r="M4">
-            <v>0.77500321543408379</v>
+            <v>1.9375080385852093</v>
           </cell>
           <cell r="N4">
-            <v>0.81042443729903546</v>
+            <v>2.0260610932475887</v>
           </cell>
           <cell r="O4">
-            <v>0.72286816720257241</v>
+            <v>1.807170418006431</v>
           </cell>
           <cell r="P4">
-            <v>0.6659421221864954</v>
+            <v>1.6648553054662383</v>
           </cell>
           <cell r="Q4">
-            <v>0.65070096463022509</v>
+            <v>1.6267524115755627</v>
           </cell>
           <cell r="R4">
-            <v>0.6651318327974276</v>
+            <v>1.662829581993569</v>
           </cell>
           <cell r="S4">
-            <v>0.61730546623794214</v>
+            <v>1.5432636655948553</v>
           </cell>
           <cell r="T4">
-            <v>0.62774276527331196</v>
+            <v>1.5693569131832799</v>
           </cell>
           <cell r="U4">
-            <v>0.66403215434083607</v>
+            <v>1.6600803858520901</v>
           </cell>
           <cell r="V4">
-            <v>0.71662379421221878</v>
+            <v>1.7915594855305468</v>
           </cell>
           <cell r="W4">
-            <v>0.64251446945337631</v>
+            <v>1.6062861736334406</v>
           </cell>
           <cell r="X4">
-            <v>0.58034405144694534</v>
+            <v>1.4508601286173632</v>
           </cell>
           <cell r="Y4">
-            <v>0.46920257234726698</v>
+            <v>1.1730064308681674</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>0.1476510067114094</v>
+            <v>0.36912751677852351</v>
           </cell>
           <cell r="C2">
-            <v>0.16308724832214769</v>
+            <v>0.40771812080536918</v>
           </cell>
           <cell r="D2">
-            <v>0.15369127516778525</v>
+            <v>0.38422818791946312</v>
           </cell>
           <cell r="E2">
-            <v>0.15369127516778525</v>
+            <v>0.38422818791946312</v>
           </cell>
           <cell r="F2">
-            <v>0.15033557046979867</v>
+            <v>0.37583892617449666</v>
           </cell>
           <cell r="G2">
-            <v>0.15906040268456376</v>
+            <v>0.39765100671140935</v>
           </cell>
           <cell r="H2">
-            <v>0.16375838926174499</v>
+            <v>0.40939597315436244</v>
           </cell>
           <cell r="I2">
-            <v>0.30671140939597319</v>
+            <v>0.76677852348993292</v>
           </cell>
           <cell r="J2">
-            <v>0.35704697986577183</v>
+            <v>0.89261744966442957</v>
           </cell>
           <cell r="K2">
-            <v>0.34362416107382548</v>
+            <v>0.85906040268456363</v>
           </cell>
           <cell r="L2">
-            <v>0.33557046979865773</v>
+            <v>0.83892617449664431</v>
           </cell>
           <cell r="M2">
-            <v>0.33489932885906049</v>
+            <v>0.8372483221476511</v>
           </cell>
           <cell r="N2">
-            <v>0.35637583892617447</v>
+            <v>0.89093959731543615</v>
           </cell>
           <cell r="O2">
-            <v>0.34563758389261751</v>
+            <v>0.86409395973154368</v>
           </cell>
           <cell r="P2">
-            <v>0.24228187919463084</v>
+            <v>0.60570469798657711</v>
           </cell>
           <cell r="Q2">
-            <v>0.31677852348993291</v>
+            <v>0.79194630872483218</v>
           </cell>
           <cell r="R2">
-            <v>0.32080536912751678</v>
+            <v>0.80201342281879195</v>
           </cell>
           <cell r="S2">
-            <v>0.30067114093959735</v>
+            <v>0.75167785234899331</v>
           </cell>
           <cell r="T2">
-            <v>0.238255033557047</v>
+            <v>0.59563758389261745</v>
           </cell>
           <cell r="U2">
-            <v>0.2161073825503356</v>
+            <v>0.54026845637583898</v>
           </cell>
           <cell r="V2">
-            <v>0.22684563758389265</v>
+            <v>0.56711409395973156</v>
           </cell>
           <cell r="W2">
-            <v>0.22751677852348992</v>
+            <v>0.56879194630872476</v>
           </cell>
           <cell r="X2">
-            <v>0.15704697986577182</v>
+            <v>0.39261744966442952</v>
           </cell>
           <cell r="Y2">
-            <v>0.15570469798657721</v>
+            <v>0.389261744966443</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.4074074074074077E-3</v>
+            <v>1.8518518518518517E-2</v>
           </cell>
           <cell r="C3">
-            <v>-4.4444444444444453E-2</v>
+            <v>-0.11111111111111112</v>
           </cell>
           <cell r="D3">
-            <v>-4.8148148148148148E-2</v>
+            <v>-0.12037037037037036</v>
           </cell>
           <cell r="E3">
-            <v>-7.0370370370370375E-2</v>
+            <v>-0.17592592592592593</v>
           </cell>
           <cell r="F3">
-            <v>-8.5185185185185183E-2</v>
+            <v>-0.21296296296296294</v>
           </cell>
           <cell r="G3">
-            <v>-6.666666666666668E-2</v>
+            <v>-0.16666666666666669</v>
           </cell>
           <cell r="H3">
-            <v>-8.5185185185185197E-2</v>
+            <v>-0.21296296296296297</v>
           </cell>
           <cell r="I3">
-            <v>0.21481481481481485</v>
+            <v>0.53703703703703709</v>
           </cell>
           <cell r="J3">
-            <v>0.27407407407407408</v>
+            <v>0.68518518518518512</v>
           </cell>
           <cell r="K3">
-            <v>0.35185185185185186</v>
+            <v>0.87962962962962954</v>
           </cell>
           <cell r="L3">
-            <v>0.2</v>
+            <v>0.5</v>
           </cell>
           <cell r="M3">
-            <v>0.18148148148148147</v>
+            <v>0.45370370370370366</v>
           </cell>
           <cell r="N3">
-            <v>0.12592592592592594</v>
+            <v>0.31481481481481483</v>
           </cell>
           <cell r="O3">
-            <v>0.17037037037037037</v>
+            <v>0.42592592592592587</v>
           </cell>
           <cell r="P3">
-            <v>7.407407407407407E-2</v>
+            <v>0.18518518518518517</v>
           </cell>
           <cell r="Q3">
-            <v>6.2962962962962957E-2</v>
+            <v>0.15740740740740738</v>
           </cell>
           <cell r="R3">
-            <v>7.407407407407407E-2</v>
+            <v>0.18518518518518517</v>
           </cell>
           <cell r="S3">
-            <v>0.13333333333333333</v>
+            <v>0.33333333333333331</v>
           </cell>
           <cell r="T3">
-            <v>0.25555555555555559</v>
+            <v>0.63888888888888895</v>
           </cell>
           <cell r="U3">
-            <v>0.25925925925925924</v>
+            <v>0.64814814814814803</v>
           </cell>
           <cell r="V3">
-            <v>0.20740740740740737</v>
+            <v>0.51851851851851838</v>
           </cell>
           <cell r="W3">
-            <v>0.15925925925925927</v>
+            <v>0.39814814814814814</v>
           </cell>
           <cell r="X3">
-            <v>7.4074074074074056E-2</v>
+            <v>0.18518518518518515</v>
           </cell>
           <cell r="Y3">
-            <v>1.4814814814814815E-2</v>
+            <v>3.7037037037037035E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-5.5882352941176473E-2</v>
+            <v>-0.13970588235294118</v>
           </cell>
           <cell r="C4">
-            <v>-0.13235294117647056</v>
+            <v>-0.33088235294117641</v>
           </cell>
           <cell r="D4">
-            <v>-0.23088235294117646</v>
+            <v>-0.57720588235294112</v>
           </cell>
           <cell r="E4">
-            <v>-0.21323529411764708</v>
+            <v>-0.53308823529411764</v>
           </cell>
           <cell r="F4">
-            <v>-0.21764705882352942</v>
+            <v>-0.54411764705882348</v>
           </cell>
           <cell r="G4">
-            <v>-0.20735294117647063</v>
+            <v>-0.51838235294117652</v>
           </cell>
           <cell r="H4">
-            <v>-1.1764705882352941E-2</v>
+            <v>-2.9411764705882353E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.24852941176470586</v>
+            <v>0.62132352941176461</v>
           </cell>
           <cell r="J4">
-            <v>0.32647058823529407</v>
+            <v>0.81617647058823517</v>
           </cell>
           <cell r="K4">
-            <v>0.3294117647058824</v>
+            <v>0.82352941176470595</v>
           </cell>
           <cell r="L4">
-            <v>0.27500000000000002</v>
+            <v>0.6875</v>
           </cell>
           <cell r="M4">
-            <v>0.34411764705882353</v>
+            <v>0.86029411764705876</v>
           </cell>
           <cell r="N4">
-            <v>0.31176470588235294</v>
+            <v>0.77941176470588236</v>
           </cell>
           <cell r="O4">
+            <v>0.68014705882352933</v>
+          </cell>
+          <cell r="P4">
+            <v>0.48897058823529405</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.30514705882352944</v>
+          </cell>
+          <cell r="R4">
+            <v>0.37867647058823528</v>
+          </cell>
+          <cell r="S4">
+            <v>0.33823529411764702</v>
+          </cell>
+          <cell r="T4">
+            <v>6.2499999999999993E-2</v>
+          </cell>
+          <cell r="U4">
             <v>0.27205882352941174</v>
           </cell>
-          <cell r="P4">
-            <v>0.19558823529411762</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.12205882352941178</v>
-          </cell>
-          <cell r="R4">
-            <v>0.15147058823529413</v>
-          </cell>
-          <cell r="S4">
-            <v>0.13529411764705881</v>
-          </cell>
-          <cell r="T4">
-            <v>2.4999999999999998E-2</v>
-          </cell>
-          <cell r="U4">
-            <v>0.10882352941176471</v>
-          </cell>
           <cell r="V4">
-            <v>0.15294117647058825</v>
+            <v>0.38235294117647056</v>
           </cell>
           <cell r="W4">
-            <v>0.1</v>
+            <v>0.25</v>
           </cell>
           <cell r="X4">
-            <v>-9.2647058823529416E-2</v>
+            <v>-0.23161764705882351</v>
           </cell>
           <cell r="Y4">
-            <v>-0.18970588235294117</v>
+            <v>-0.47426470588235292</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>0.14469798657718122</v>
+            <v>0.36174496644295301</v>
           </cell>
           <cell r="C2">
-            <v>0.16471812080536918</v>
+            <v>0.4117953020134229</v>
           </cell>
           <cell r="D2">
-            <v>0.15676510067114094</v>
+            <v>0.39191275167785233</v>
           </cell>
           <cell r="E2">
-            <v>0.15522818791946311</v>
+            <v>0.38807046979865772</v>
           </cell>
           <cell r="F2">
-            <v>0.15183892617449668</v>
+            <v>0.37959731543624164</v>
           </cell>
           <cell r="G2">
-            <v>0.15587919463087246</v>
+            <v>0.38969798657718113</v>
           </cell>
           <cell r="H2">
-            <v>0.16375838926174499</v>
+            <v>0.40939597315436244</v>
           </cell>
           <cell r="I2">
-            <v>0.31284563758389267</v>
+            <v>0.78211409395973164</v>
           </cell>
           <cell r="J2">
-            <v>0.3606174496644296</v>
+            <v>0.90154362416107392</v>
           </cell>
           <cell r="K2">
-            <v>0.35049664429530197</v>
+            <v>0.87624161073825491</v>
           </cell>
           <cell r="L2">
-            <v>0.32885906040268459</v>
+            <v>0.82214765100671139</v>
           </cell>
           <cell r="M2">
-            <v>0.3382483221476511</v>
+            <v>0.84562080536912765</v>
           </cell>
           <cell r="N2">
-            <v>0.35637583892617447</v>
+            <v>0.89093959731543615</v>
           </cell>
           <cell r="O2">
-            <v>0.34909395973154367</v>
+            <v>0.87273489932885906</v>
           </cell>
           <cell r="P2">
-            <v>0.24228187919463084</v>
+            <v>0.60570469798657711</v>
           </cell>
           <cell r="Q2">
-            <v>0.31044295302013425</v>
+            <v>0.77610738255033551</v>
           </cell>
           <cell r="R2">
-            <v>0.32722147651006717</v>
+            <v>0.8180536912751678</v>
           </cell>
           <cell r="S2">
-            <v>0.29465771812080538</v>
+            <v>0.73664429530201347</v>
           </cell>
           <cell r="T2">
-            <v>0.24302013422818791</v>
+            <v>0.60755033557046978</v>
           </cell>
           <cell r="U2">
-            <v>0.22042953020134234</v>
+            <v>0.55107382550335582</v>
           </cell>
           <cell r="V2">
-            <v>0.23138255033557048</v>
+            <v>0.57845637583892617</v>
           </cell>
           <cell r="W2">
-            <v>0.22751677852348992</v>
+            <v>0.56879194630872476</v>
           </cell>
           <cell r="X2">
-            <v>0.16018791946308725</v>
+            <v>0.40046979865771809</v>
           </cell>
           <cell r="Y2">
-            <v>0.15726174496644296</v>
+            <v>0.39315436241610741</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.2592592592592587E-3</v>
+            <v>1.8148148148148146E-2</v>
           </cell>
           <cell r="C3">
-            <v>-4.3555555555555563E-2</v>
+            <v>-0.1088888888888889</v>
           </cell>
           <cell r="D3">
-            <v>-4.9111111111111105E-2</v>
+            <v>-0.12277777777777776</v>
           </cell>
           <cell r="E3">
-            <v>-7.1777777777777788E-2</v>
+            <v>-0.17944444444444446</v>
           </cell>
           <cell r="F3">
-            <v>-8.5185185185185183E-2</v>
+            <v>-0.21296296296296294</v>
           </cell>
           <cell r="G3">
-            <v>-6.666666666666668E-2</v>
+            <v>-0.16666666666666669</v>
           </cell>
           <cell r="H3">
-            <v>-8.348148148148149E-2</v>
+            <v>-0.2087037037037037</v>
           </cell>
           <cell r="I3">
-            <v>0.21481481481481485</v>
+            <v>0.53703703703703709</v>
           </cell>
           <cell r="J3">
-            <v>0.27407407407407403</v>
+            <v>0.68518518518518501</v>
           </cell>
           <cell r="K3">
-            <v>0.3448148148148148</v>
+            <v>0.86203703703703694</v>
           </cell>
           <cell r="L3">
-            <v>0.2</v>
+            <v>0.5</v>
           </cell>
           <cell r="M3">
-            <v>0.17785185185185184</v>
+            <v>0.4446296296296296</v>
           </cell>
           <cell r="N3">
-            <v>0.12466666666666669</v>
+            <v>0.3116666666666667</v>
           </cell>
           <cell r="O3">
-            <v>0.16696296296296295</v>
+            <v>0.41740740740740734</v>
           </cell>
           <cell r="P3">
-            <v>7.5555555555555556E-2</v>
+            <v>0.18888888888888888</v>
           </cell>
           <cell r="Q3">
-            <v>6.2333333333333324E-2</v>
+            <v>0.1558333333333333</v>
           </cell>
           <cell r="R3">
-            <v>7.2592592592592597E-2</v>
+            <v>0.18148148148148149</v>
           </cell>
           <cell r="S3">
-            <v>0.13200000000000001</v>
+            <v>0.33</v>
           </cell>
           <cell r="T3">
-            <v>0.26066666666666671</v>
+            <v>0.65166666666666673</v>
           </cell>
           <cell r="U3">
-            <v>0.26185185185185178</v>
+            <v>0.65462962962962945</v>
           </cell>
           <cell r="V3">
-            <v>0.20325925925925922</v>
+            <v>0.50814814814814802</v>
           </cell>
           <cell r="W3">
-            <v>0.15925925925925927</v>
+            <v>0.39814814814814814</v>
           </cell>
           <cell r="X3">
-            <v>7.4814814814814806E-2</v>
+            <v>0.187037037037037</v>
           </cell>
           <cell r="Y3">
-            <v>1.4962962962962963E-2</v>
+            <v>3.7407407407407403E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-5.6999999999999995E-2</v>
+            <v>-0.14249999999999999</v>
           </cell>
           <cell r="C4">
-            <v>-0.13499999999999998</v>
+            <v>-0.33749999999999991</v>
           </cell>
           <cell r="D4">
-            <v>-0.23549999999999996</v>
+            <v>-0.58874999999999988</v>
           </cell>
           <cell r="E4">
-            <v>-0.21536764705882355</v>
+            <v>-0.53841911764705885</v>
           </cell>
           <cell r="F4">
-            <v>-0.22199999999999998</v>
+            <v>-0.55499999999999994</v>
           </cell>
           <cell r="G4">
-            <v>-0.2094264705882353</v>
+            <v>-0.52356617647058823</v>
           </cell>
           <cell r="H4">
-            <v>-1.1529411764705884E-2</v>
+            <v>-2.8823529411764706E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.2460441176470588</v>
+            <v>0.61511029411764695</v>
           </cell>
           <cell r="J4">
-            <v>0.33299999999999996</v>
+            <v>0.83249999999999991</v>
           </cell>
           <cell r="K4">
-            <v>0.33270588235294124</v>
+            <v>0.83176470588235307</v>
           </cell>
           <cell r="L4">
-            <v>0.27225000000000005</v>
+            <v>0.68062500000000004</v>
           </cell>
           <cell r="M4">
-            <v>0.34067647058823525</v>
+            <v>0.85169117647058812</v>
           </cell>
           <cell r="N4">
-            <v>0.30552941176470594</v>
+            <v>0.76382352941176479</v>
           </cell>
           <cell r="O4">
-            <v>0.26661764705882346</v>
+            <v>0.66654411764705868</v>
           </cell>
           <cell r="P4">
-            <v>0.19363235294117645</v>
+            <v>0.48408088235294111</v>
           </cell>
           <cell r="Q4">
-            <v>0.1232794117647059</v>
+            <v>0.30819852941176473</v>
           </cell>
           <cell r="R4">
-            <v>0.15147058823529413</v>
+            <v>0.37867647058823528</v>
           </cell>
           <cell r="S4">
-            <v>0.13529411764705881</v>
+            <v>0.33823529411764702</v>
           </cell>
           <cell r="T4">
-            <v>2.5499999999999995E-2</v>
+            <v>6.3749999999999987E-2</v>
           </cell>
           <cell r="U4">
-            <v>0.10773529411764704</v>
+            <v>0.2693382352941176</v>
           </cell>
           <cell r="V4">
-            <v>0.15294117647058825</v>
+            <v>0.38235294117647056</v>
           </cell>
           <cell r="W4">
-            <v>0.10100000000000001</v>
+            <v>0.2525</v>
           </cell>
           <cell r="X4">
-            <v>-9.3573529411764708E-2</v>
+            <v>-0.23393382352941175</v>
           </cell>
           <cell r="Y4">
-            <v>-0.19350000000000001</v>
+            <v>-0.48375000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>0.14469798657718122</v>
+            <v>0.36174496644295301</v>
           </cell>
           <cell r="C2">
-            <v>0.16308724832214769</v>
+            <v>0.40771812080536918</v>
           </cell>
           <cell r="D2">
-            <v>0.15215436241610741</v>
+            <v>0.38038590604026851</v>
           </cell>
           <cell r="E2">
-            <v>0.15061744966442955</v>
+            <v>0.37654362416107384</v>
           </cell>
           <cell r="F2">
-            <v>0.14883221476510067</v>
+            <v>0.37208053691275167</v>
           </cell>
           <cell r="G2">
-            <v>0.15587919463087246</v>
+            <v>0.38969798657718113</v>
           </cell>
           <cell r="H2">
-            <v>0.16375838926174499</v>
+            <v>0.40939597315436244</v>
           </cell>
           <cell r="I2">
-            <v>0.31284563758389267</v>
+            <v>0.78211409395973164</v>
           </cell>
           <cell r="J2">
-            <v>0.3606174496644296</v>
+            <v>0.90154362416107392</v>
           </cell>
           <cell r="K2">
-            <v>0.34362416107382548</v>
+            <v>0.85906040268456363</v>
           </cell>
           <cell r="L2">
-            <v>0.33221476510067122</v>
+            <v>0.83053691275167796</v>
           </cell>
           <cell r="M2">
-            <v>0.34159731543624172</v>
+            <v>0.85399328859060419</v>
           </cell>
           <cell r="N2">
-            <v>0.36350335570469794</v>
+            <v>0.90875838926174479</v>
           </cell>
           <cell r="O2">
-            <v>0.33872483221476513</v>
+            <v>0.84681208053691281</v>
           </cell>
           <cell r="P2">
-            <v>0.24228187919463084</v>
+            <v>0.60570469798657711</v>
           </cell>
           <cell r="Q2">
-            <v>0.31361073825503355</v>
+            <v>0.78402684563758385</v>
           </cell>
           <cell r="R2">
-            <v>0.32722147651006717</v>
+            <v>0.8180536912751678</v>
           </cell>
           <cell r="S2">
-            <v>0.29766442953020134</v>
+            <v>0.74416107382550334</v>
           </cell>
           <cell r="T2">
-            <v>0.23348993288590605</v>
+            <v>0.58372483221476512</v>
           </cell>
           <cell r="U2">
-            <v>0.21826845637583894</v>
+            <v>0.54567114093959734</v>
           </cell>
           <cell r="V2">
-            <v>0.23138255033557048</v>
+            <v>0.57845637583892617</v>
           </cell>
           <cell r="W2">
-            <v>0.22296644295302015</v>
+            <v>0.55741610738255032</v>
           </cell>
           <cell r="X2">
-            <v>0.15390604026845636</v>
+            <v>0.38476510067114089</v>
           </cell>
           <cell r="Y2">
-            <v>0.15259060402684566</v>
+            <v>0.38147651006711414</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>7.3333333333333341E-3</v>
+            <v>1.8333333333333333E-2</v>
           </cell>
           <cell r="C3">
-            <v>-4.4444444444444453E-2</v>
+            <v>-0.11111111111111112</v>
           </cell>
           <cell r="D3">
-            <v>-4.8629629629629634E-2</v>
+            <v>-0.12157407407407407</v>
           </cell>
           <cell r="E3">
-            <v>-6.9666666666666682E-2</v>
+            <v>-0.17416666666666669</v>
           </cell>
           <cell r="F3">
-            <v>-8.6037037037037023E-2</v>
+            <v>-0.21509259259259256</v>
           </cell>
           <cell r="G3">
-            <v>-6.533333333333334E-2</v>
+            <v>-0.16333333333333336</v>
           </cell>
           <cell r="H3">
-            <v>-8.5185185185185197E-2</v>
+            <v>-0.21296296296296297</v>
           </cell>
           <cell r="I3">
-            <v>0.216962962962963</v>
+            <v>0.54240740740740745</v>
           </cell>
           <cell r="J3">
-            <v>0.27955555555555556</v>
+            <v>0.69888888888888889</v>
           </cell>
           <cell r="K3">
-            <v>0.3518518518518518</v>
+            <v>0.87962962962962943</v>
           </cell>
           <cell r="L3">
-            <v>0.20200000000000001</v>
+            <v>0.505</v>
           </cell>
           <cell r="M3">
-            <v>0.17785185185185184</v>
+            <v>0.4446296296296296</v>
           </cell>
           <cell r="N3">
-            <v>0.12340740740740741</v>
+            <v>0.30851851851851853</v>
           </cell>
           <cell r="O3">
-            <v>0.17207407407407405</v>
+            <v>0.43018518518518511</v>
           </cell>
           <cell r="P3">
-            <v>7.2592592592592597E-2</v>
+            <v>0.18148148148148149</v>
           </cell>
           <cell r="Q3">
-            <v>6.2333333333333324E-2</v>
+            <v>0.1558333333333333</v>
           </cell>
           <cell r="R3">
-            <v>7.3333333333333334E-2</v>
+            <v>0.18333333333333332</v>
           </cell>
           <cell r="S3">
-            <v>0.1333333333333333</v>
+            <v>0.33333333333333326</v>
           </cell>
           <cell r="T3">
-            <v>0.25044444444444447</v>
+            <v>0.62611111111111117</v>
           </cell>
           <cell r="U3">
-            <v>0.26185185185185178</v>
+            <v>0.65462962962962945</v>
           </cell>
           <cell r="V3">
-            <v>0.20533333333333328</v>
+            <v>0.5133333333333332</v>
           </cell>
           <cell r="W3">
-            <v>0.15925925925925927</v>
+            <v>0.39814814814814814</v>
           </cell>
           <cell r="X3">
-            <v>7.2592592592592584E-2</v>
+            <v>0.18148148148148147</v>
           </cell>
           <cell r="Y3">
-            <v>1.4666666666666668E-2</v>
+            <v>3.6666666666666667E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-5.5882352941176473E-2</v>
+            <v>-0.13970588235294118</v>
           </cell>
           <cell r="C4">
-            <v>-0.13235294117647056</v>
+            <v>-0.33088235294117641</v>
           </cell>
           <cell r="D4">
-            <v>-0.23088235294117646</v>
+            <v>-0.57720588235294112</v>
           </cell>
           <cell r="E4">
-            <v>-0.21536764705882355</v>
+            <v>-0.53841911764705885</v>
           </cell>
           <cell r="F4">
-            <v>-0.21547058823529408</v>
+            <v>-0.5386764705882352</v>
           </cell>
           <cell r="G4">
-            <v>-0.2094264705882353</v>
+            <v>-0.52356617647058823</v>
           </cell>
           <cell r="H4">
-            <v>-1.1529411764705884E-2</v>
+            <v>-2.8823529411764706E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.2535</v>
+            <v>0.63374999999999992</v>
           </cell>
           <cell r="J4">
-            <v>0.33299999999999996</v>
+            <v>0.83249999999999991</v>
           </cell>
           <cell r="K4">
-            <v>0.3294117647058824</v>
+            <v>0.82352941176470595</v>
           </cell>
           <cell r="L4">
-            <v>0.27225000000000005</v>
+            <v>0.68062500000000004</v>
           </cell>
           <cell r="M4">
-            <v>0.34755882352941181</v>
+            <v>0.86889705882352941</v>
           </cell>
           <cell r="N4">
-            <v>0.3148823529411765</v>
+            <v>0.7872058823529412</v>
           </cell>
           <cell r="O4">
-            <v>0.27205882352941174</v>
+            <v>0.68014705882352933</v>
           </cell>
           <cell r="P4">
-            <v>0.19754411764705881</v>
+            <v>0.49386029411764698</v>
           </cell>
           <cell r="Q4">
-            <v>0.12205882352941178</v>
+            <v>0.30514705882352944</v>
           </cell>
           <cell r="R4">
-            <v>0.15298529411764705</v>
+            <v>0.38246323529411763</v>
           </cell>
           <cell r="S4">
-            <v>0.1366470588235294</v>
+            <v>0.34161764705882347</v>
           </cell>
           <cell r="T4">
-            <v>2.5499999999999995E-2</v>
+            <v>6.3749999999999987E-2</v>
           </cell>
           <cell r="U4">
-            <v>0.10664705882352941</v>
+            <v>0.26661764705882351</v>
           </cell>
           <cell r="V4">
-            <v>0.15141176470588236</v>
+            <v>0.37852941176470589</v>
           </cell>
           <cell r="W4">
-            <v>9.9000000000000005E-2</v>
+            <v>0.2475</v>
           </cell>
           <cell r="X4">
-            <v>-9.4499999999999987E-2</v>
+            <v>-0.23624999999999996</v>
           </cell>
           <cell r="Y4">
-            <v>-0.19160294117647059</v>
+            <v>-0.47900735294117647</v>
           </cell>
         </row>
       </sheetData>
@@ -3849,99 +3849,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>0.19347650485697973</v>
+        <v>0.48369126214244929</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>0.1326341893405672</v>
+        <v>0.33158547335141797</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>0.11849934281989574</v>
+        <v>0.29624835704973934</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>0.1503916816210511</v>
+        <v>0.37597920405262775</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>0.13078659610103902</v>
+        <v>0.3269664902525975</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>0.10646425937255051</v>
+        <v>0.26616064843137627</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>8.8088375597771829E-2</v>
+        <v>0.22022093899442957</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>0.31090613394304761</v>
+        <v>0.77726533485761895</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>0.32192358525104398</v>
+        <v>0.80480896312760986</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>0.27059313959804393</v>
+        <v>0.6764828489951098</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>0.32169454359909999</v>
+        <v>0.80423635899774992</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>0.30489655478101801</v>
+        <v>0.76224138695254495</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>0.30323751212521505</v>
+        <v>0.75809378031303754</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>0.27077954333645582</v>
+        <v>0.67694885834113949</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>0.15590905994701765</v>
+        <v>0.38977264986754412</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>0.24659657664714066</v>
+        <v>0.61649144161785163</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>0.29874198579260358</v>
+        <v>0.7468549644815089</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>0.27874498939339226</v>
+        <v>0.69686247348348063</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>0.19481524493760519</v>
+        <v>0.48703811234401295</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>0.20413033576405459</v>
+        <v>0.51032583941013643</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>0.18448215951148417</v>
+        <v>0.46120539877871036</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>0.11677119068273008</v>
+        <v>0.29192797670682519</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>9.5012083112231763E-2</v>
+        <v>0.2375302077805794</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>9.847592783746556E-2</v>
+        <v>0.24618981959366387</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3950,99 +3950,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-0.37008182400930512</v>
+        <v>-0.92520456002326268</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-0.35549041833723749</v>
+        <v>-0.88872604584309367</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-0.37275455283471853</v>
+        <v>-0.93188638208679631</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-0.38203385281825164</v>
+        <v>-0.95508463204562899</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-0.38608687004301234</v>
+        <v>-0.9652171751075308</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-0.35433750268894793</v>
+        <v>-0.8858437567223697</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-0.22467785773456722</v>
+        <v>-0.56169464433641803</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-4.2325739420138522E-2</v>
+        <v>-0.1058143485503463</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-4.594850191820625E-2</v>
+        <v>-0.11487125479551562</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-3.1373120033553747E-2</v>
+        <v>-7.8432800083884369E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-2.6552721575613582E-2</v>
+        <v>-6.6381803939033951E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-0.12213072520699944</v>
+        <v>-0.30532681301749859</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-0.17841987151423169</v>
+        <v>-0.44604967878557922</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-0.22442179350393424</v>
+        <v>-0.56105448375983558</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-0.22728018278720216</v>
+        <v>-0.56820045696800536</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-0.23574624114809156</v>
+        <v>-0.58936560287022888</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-0.178083711407517</v>
+        <v>-0.44520927851879244</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>6.032281535818948E-2</v>
+        <v>0.15080703839547369</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-8.3332328018134588E-3</v>
+        <v>-2.0833082004533647E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-9.9361606832395963E-2</v>
+        <v>-0.24840401708098989</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-0.18602221458326804</v>
+        <v>-0.46505553645817005</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-0.23985126848077409</v>
+        <v>-0.59962817120193523</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-0.26040119859515315</v>
+        <v>-0.65100299648788285</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-0.30727386371457122</v>
+        <v>-0.76818465928642798</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4051,99 +4051,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-0.35046067273612841</v>
+        <v>-0.87615168184032099</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-0.37440404257534915</v>
+        <v>-0.93601010643837279</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-0.38508415012190678</v>
+        <v>-0.96271037530476689</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-0.37993427925816098</v>
+        <v>-0.94983569814540236</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-0.38025028073796618</v>
+        <v>-0.95062570184491535</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-0.32066907899070712</v>
+        <v>-0.80167269747676773</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-1.1823695016289545E-2</v>
+        <v>-2.955923754072386E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>0.16532621270133677</v>
+        <v>0.4133155317533419</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>0.20864555067723176</v>
+        <v>0.52161387669307935</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>0.14103016303925606</v>
+        <v>0.35257540759814016</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>8.6666124259728167E-2</v>
+        <v>0.2166653106493204</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>0.16684988310128873</v>
+        <v>0.4171247077532218</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>0.10839528290874965</v>
+        <v>0.27098820727187412</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>3.2886390786478495E-2</v>
+        <v>8.221597696619623E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-0.1288307100946631</v>
+        <v>-0.32207677523665773</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-0.13016162648116963</v>
+        <v>-0.32540406620292406</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-0.10722176392431421</v>
+        <v>-0.26805440981078549</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-5.1969990411570521E-2</v>
+        <v>-0.1299249760289263</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-0.12924938404581385</v>
+        <v>-0.32312346011453463</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-7.216984142943747E-2</v>
+        <v>-0.18042460357359366</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-0.10110749121253249</v>
+        <v>-0.25276872803133121</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-0.16434450314099072</v>
+        <v>-0.41086125785247679</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-0.26494045401669414</v>
+        <v>-0.66235113504173537</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-0.29309338015702319</v>
+        <v>-0.73273345039255799</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4554,99 +4554,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>0.19347650485697973</v>
+        <v>0.48369126214244929</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>0.13804782972181481</v>
+        <v>0.34511957430453705</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>0.11497956035989883</v>
+        <v>0.28744890089974706</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>0.14738384798863008</v>
+        <v>0.36845961997157517</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>0.13208151289411862</v>
+        <v>0.33020378223529656</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>0.1043349741850995</v>
+        <v>0.26083743546274873</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>8.9850143109727276E-2</v>
+        <v>0.22462535777431816</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>0.3016712982813729</v>
+        <v>0.75417824570343217</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>0.32514282110355436</v>
+        <v>0.81285705275888587</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>0.2788766030551269</v>
+        <v>0.69719150763781723</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>0.32491148903509104</v>
+        <v>0.81227872258772749</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>0.30190737287140018</v>
+        <v>0.75476843217850043</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>0.29423045730961456</v>
+        <v>0.73557614327403642</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>0.26541757218127848</v>
+        <v>0.66354393045319615</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>0.16068178627192636</v>
+        <v>0.40170446567981588</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>0.24908745115872791</v>
+        <v>0.62271862789681975</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>0.30172940565052964</v>
+        <v>0.75432351412632404</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>0.28153243928732613</v>
+        <v>0.70383109821831535</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>0.19286709248822914</v>
+        <v>0.48216773122057283</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>0.2061514281973621</v>
+        <v>0.51537857049340519</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>0.18824710154233079</v>
+        <v>0.47061775385582694</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>0.11560347877590278</v>
+        <v>0.28900869693975695</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>9.1286119068614835E-2</v>
+        <v>0.22821529767153709</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>9.7510477564549225E-2</v>
+        <v>0.24377619391137306</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4655,99 +4655,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-0.36645357083274327</v>
+        <v>-0.91613392708185815</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-0.36274532483391581</v>
+        <v>-0.90686331208478943</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-0.37275455283471853</v>
+        <v>-0.93188638208679631</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-0.39372876668003481</v>
+        <v>-0.98432191670008695</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-0.39380860744387258</v>
+        <v>-0.9845215186096814</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-0.35788087771583738</v>
+        <v>-0.89470219428959341</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-0.22917141488925857</v>
+        <v>-0.57292853722314641</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-4.2757634720344009E-2</v>
+        <v>-0.10689408680086002</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-4.6412628200208333E-2</v>
+        <v>-0.11603157050052083</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-3.0142801600865368E-2</v>
+        <v>-7.5357004002163414E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-2.6552721575613582E-2</v>
+        <v>-6.6381803939033951E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-0.12092151010594004</v>
+        <v>-0.30230377526485008</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-0.17488680475157364</v>
+        <v>-0.43721701187893408</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-0.23129184840711592</v>
+        <v>-0.57822962101778974</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-0.23182578644294619</v>
+        <v>-0.57956446610736545</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-0.23574624114809156</v>
+        <v>-0.58936560287022888</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-0.178083711407517</v>
+        <v>-0.44520927851879244</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>5.853104856537196E-2</v>
+        <v>0.14632762141342989</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-8.3332328018134588E-3</v>
+        <v>-2.0833082004533647E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-0.10134883896904388</v>
+        <v>-0.25337209742260969</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-0.18233860637369834</v>
+        <v>-0.4558465159342458</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-0.24469674865210289</v>
+        <v>-0.61174187163025717</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-0.27102981894597572</v>
+        <v>-0.67757454736493927</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-0.30423154823224868</v>
+        <v>-0.76057887058062168</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4756,99 +4756,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-0.35046067273612841</v>
+        <v>-0.87615168184032099</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-0.37440404257534915</v>
+        <v>-0.93601010643837279</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-0.38508415012190678</v>
+        <v>-0.96271037530476689</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-0.37617255372095143</v>
+        <v>-0.94043138430237849</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-0.36895571794376913</v>
+        <v>-0.92238929485942278</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-0.31438144999088929</v>
+        <v>-0.78595362497722321</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-1.1823695016289545E-2</v>
+        <v>-2.955923754072386E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>0.16046367703365041</v>
+        <v>0.40115919258412602</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>0.20657975314577401</v>
+        <v>0.51644938286443498</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>0.14678649622453183</v>
+        <v>0.36696624056132954</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>8.3267452720130974E-2</v>
+        <v>0.20816863180032744</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>0.16684988310128873</v>
+        <v>0.4171247077532218</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>0.10520718635260995</v>
+        <v>0.26301796588152487</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>3.2241559594586765E-2</v>
+        <v>8.0603898986466901E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-0.1288307100946631</v>
+        <v>-0.32207677523665773</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-0.12633334334937055</v>
+        <v>-0.31583335837342635</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-0.10406818263242262</v>
+        <v>-0.26017045658105653</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-5.4091214510001977E-2</v>
+        <v>-0.13522803627500493</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-0.13183437172673013</v>
+        <v>-0.32958592931682529</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-7.216984142943747E-2</v>
+        <v>-0.18042460357359366</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-9.9085341388281845E-2</v>
+        <v>-0.24771335347070458</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-0.16602148786691923</v>
+        <v>-0.41505371966729804</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-0.26494045401669414</v>
+        <v>-0.66235113504173537</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-0.29907487771124819</v>
+        <v>-0.74768719427812047</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9436,99 +9436,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.78388000000000013</v>
+        <v>1.7138800000000003</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.78330015503875983</v>
+        <v>1.7042303875968996</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.74303534883720934</v>
+        <v>1.6301283720930233</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.72443100775193803</v>
+        <v>1.5954775193798449</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.69427162790697672</v>
+        <v>1.5590390697674419</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.68506294573643411</v>
+        <v>1.5627373643410853</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.70222666666666678</v>
+        <v>1.5722266666666669</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.730528992248062</v>
+        <v>1.7944824806201551</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.7816899224806203</v>
+        <v>1.9262248062015506</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78023658914728677</v>
+        <v>1.9097714728682169</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.75672434108527142</v>
+        <v>1.8677708527131784</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.76979410852713193</v>
+        <v>1.8944452713178297</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.80934852713178318</v>
+        <v>1.9755113178294579</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.82157736434108519</v>
+        <v>1.9657634108527131</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.76620837209302328</v>
+        <v>1.821440930232558</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.78679627906976746</v>
+        <v>1.8744706976744185</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.76808837209302327</v>
+        <v>1.8683209302325581</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.77978232558139537</v>
+        <v>1.8437358139534883</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.71484837209302332</v>
+        <v>1.7250809302325583</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.69396372093023262</v>
+        <v>1.6912893023255815</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.70695069767441865</v>
+        <v>1.7011367441860465</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.68264217054263565</v>
+        <v>1.6656654263565893</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.73015472868217068</v>
+        <v>1.6385268217054267</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.73575472868217062</v>
+        <v>1.6141268217054265</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9537,99 +9537,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.71209428571428568</v>
+        <v>1.5344157142857142</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.6863109523809523</v>
+        <v>1.4617573809523807</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.64806857142857144</v>
+        <v>1.3927114285714284</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.59641190476190475</v>
+        <v>1.2754297619047619</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.5534742857142857</v>
+        <v>1.2070457142857143</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.55798238095238095</v>
+        <v>1.2450359523809522</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.60972666666666675</v>
+        <v>1.3409766666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.67569095238095223</v>
+        <v>1.6573873809523807</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.73295238095238102</v>
+        <v>1.8043809523809522</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78882047619047624</v>
+        <v>1.9312311904761905</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.71066952380952375</v>
+        <v>1.7526338095238094</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.74949095238095231</v>
+        <v>1.8436873809523808</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.76226380952380945</v>
+        <v>1.8577995238095237</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.77128666666666668</v>
+        <v>1.8400366666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.67522000000000004</v>
+        <v>1.5939700000000001</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.70007285714285716</v>
+        <v>1.6576621428571428</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.71049285714285715</v>
+        <v>1.7243321428571428</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.74369428571428564</v>
+        <v>1.7535157142857138</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.74314571428571419</v>
+        <v>1.7958242857142854</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.76836571428571421</v>
+        <v>1.8772942857142854</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.81737428571428572</v>
+        <v>1.9771957142857142</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.73711476190476188</v>
+        <v>1.8018469047619048</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.73439476190476183</v>
+        <v>1.6491269047619046</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.71356619047619052</v>
+        <v>1.5586554761904761</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9638,99 +9638,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.61243305466237941</v>
+        <v>1.2852626366559485</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.59089007502679525</v>
+        <v>1.2232051875669883</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.54006443729903553</v>
+        <v>1.1227010932475885</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.54791339764201497</v>
+        <v>1.1541834941050375</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.51454456591639874</v>
+        <v>1.1097214147909968</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.50476981779206853</v>
+        <v>1.1120045444801714</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.69618165058949644</v>
+        <v>1.5571141264737409</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.7559533547695606</v>
+        <v>1.8580433869239017</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78876312968917472</v>
+        <v>1.9439078242229366</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.74939982851018228</v>
+        <v>1.8326795712754556</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.72277907824222942</v>
+        <v>1.7829076956055734</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.77983374062165067</v>
+        <v>1.9195443515541266</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.8264404287245446</v>
+        <v>2.0182410718113615</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.79640724544480179</v>
+        <v>1.9028381136120045</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.73538881028938918</v>
+        <v>1.7443920257234731</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.69962212218649522</v>
+        <v>1.656535305466238</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.68669003215434077</v>
+        <v>1.664825080385852</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.700383536977492</v>
+        <v>1.6452388424437299</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.65679408360128622</v>
+        <v>1.5799452090032156</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.69981954983922834</v>
+        <v>1.7059288745980707</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.74673234726688109</v>
+        <v>1.8005908681672027</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.68292034297963566</v>
+        <v>1.6663608574490891</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.69917140407288314</v>
+        <v>1.5610685101822079</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.6289514683815649</v>
+        <v>1.3471186709539122</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10141,99 +10141,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.79008000000000023</v>
+        <v>1.7293800000000004</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.78330015503875983</v>
+        <v>1.7042303875968996</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.73120744186046516</v>
+        <v>1.6005586046511628</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.72443100775193803</v>
+        <v>1.5954775193798452</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.68274139534883715</v>
+        <v>1.530213488372093</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.68506294573643411</v>
+        <v>1.5627373643410853</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.71382666666666672</v>
+        <v>1.6012266666666668</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.730528992248062</v>
+        <v>1.7944824806201551</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78932015503875985</v>
+        <v>1.9453003875968993</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78023658914728677</v>
+        <v>1.9097714728682169</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.74931736434108531</v>
+        <v>1.8492534108527132</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.7547987596899226</v>
+        <v>1.8569568992248064</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.79379968992248084</v>
+        <v>1.9366392248062021</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.8368331782945736</v>
+        <v>2.0039029457364341</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.78027813953488379</v>
+        <v>1.8566153488372095</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.79404744186046505</v>
+        <v>1.8925986046511627</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.77542325581395344</v>
+        <v>1.8866581395348836</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.76559627906976746</v>
+        <v>1.8082706976744185</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.72831813953488378</v>
+        <v>1.7587553488372096</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.6873148837209303</v>
+        <v>1.6746672093023256</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.71357860465116285</v>
+        <v>1.7177065116279071</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.68264217054263565</v>
+        <v>1.6656654263565893</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.74226635658914741</v>
+        <v>1.6688058914728685</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.74746635658914751</v>
+        <v>1.6434058914728684</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10242,99 +10242,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.71209428571428568</v>
+        <v>1.5344157142857142</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.6863109523809523</v>
+        <v>1.4617573809523807</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.64310428571428568</v>
+        <v>1.3803007142857142</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.60093869047619042</v>
+        <v>1.2867467261904761</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.5534742857142857</v>
+        <v>1.2070457142857143</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.56714309523809514</v>
+        <v>1.2679377380952379</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.60485166666666668</v>
+        <v>1.3287891666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.66914630952380949</v>
+        <v>1.6410257738095237</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.74009523809523814</v>
+        <v>1.822238095238095</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78120440476190478</v>
+        <v>1.9121910119047618</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.71761595238095233</v>
+        <v>1.7699998809523807</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.74949095238095231</v>
+        <v>1.8436873809523808</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.77687095238095238</v>
+        <v>1.894317380952381</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.77128666666666668</v>
+        <v>1.8400366666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.66297000000000006</v>
+        <v>1.563345</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.70007285714285716</v>
+        <v>1.6576621428571428</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.71725178571428572</v>
+        <v>1.7412294642857142</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.75042642857142849</v>
+        <v>1.770346071428571</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.75718142857142845</v>
+        <v>1.8309135714285711</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.75357999999999992</v>
+        <v>1.8403299999999998</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.80964214285714275</v>
+        <v>1.9578653571428568</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.75131119047619044</v>
+        <v>1.8373379761904762</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.72829654761904761</v>
+        <v>1.633881369047619</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.70229833333333347</v>
+        <v>1.5304858333333333</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10343,99 +10343,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.60346199356913188</v>
+        <v>1.2628349839228297</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.59932094319399787</v>
+        <v>1.2442823579849946</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.53618019292604513</v>
+        <v>1.1129904823151127</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.54387159699892829</v>
+        <v>1.1440789924973205</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.52248025723472669</v>
+        <v>1.1295606430868168</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.49667335476956054</v>
+        <v>1.0917633869239014</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.68470255091103982</v>
+        <v>1.5284163772775994</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.77064788853161859</v>
+        <v>1.8947797213290465</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78106216505894965</v>
+        <v>1.9246554126473738</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.75662169346195074</v>
+        <v>1.8507342336548767</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.72277907824222942</v>
+        <v>1.7829076956055736</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.76463759914255092</v>
+        <v>1.8815539978563773</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.8264404287245446</v>
+        <v>2.0182410718113615</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.78165483386923906</v>
+        <v>1.8659570846730977</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.73538881028938918</v>
+        <v>1.7443920257234731</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.70600154340836019</v>
+        <v>1.6724838585209003</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.68016913183279748</v>
+        <v>1.6485228295819936</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.68778546623794212</v>
+        <v>1.6137436655948552</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.65063974276527337</v>
+        <v>1.5645593569131835</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.713234340836013</v>
+        <v>1.7394658520900323</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.73970662379421237</v>
+        <v>1.7830265594855308</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.69603288317256162</v>
+        <v>1.699142207931404</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.69917140407288314</v>
+        <v>1.5610685101822079</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.63373924973204732</v>
+        <v>1.3590881243301181</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10846,99 +10846,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.79008000000000023</v>
+        <v>1.7293800000000004</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.79557922480620169</v>
+        <v>1.7349280620155043</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.73120744186046516</v>
+        <v>1.6005586046511628</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.73604496124031016</v>
+        <v>1.6245124031007752</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.68274139534883715</v>
+        <v>1.530213488372093</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.67921178294573648</v>
+        <v>1.5481094573643412</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.70222666666666678</v>
+        <v>1.5722266666666669</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.74471503875968992</v>
+        <v>1.8299475968992249</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.76642945736434132</v>
+        <v>1.8880736434108529</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.77270635658914721</v>
+        <v>1.8909458914728681</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.76413131782945753</v>
+        <v>1.8862882945736437</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.76979410852713193</v>
+        <v>1.8944452713178297</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.80157410852713196</v>
+        <v>1.95607527131783</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.80632155038759679</v>
+        <v>1.9276238759689921</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.75917348837209309</v>
+        <v>1.8038537209302326</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.80129860465116276</v>
+        <v>1.9107265116279069</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.77542325581395344</v>
+        <v>1.8866581395348836</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.76559627906976746</v>
+        <v>1.8082706976744185</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.71484837209302332</v>
+        <v>1.7250809302325583</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.6873148837209303</v>
+        <v>1.6746672093023256</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.70032279069767445</v>
+        <v>1.684566976744186</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.69574914728682169</v>
+        <v>1.6984328682170544</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.74226635658914752</v>
+        <v>1.6688058914728687</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.72989891472868229</v>
+        <v>1.5994872868217056</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10947,99 +10947,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.71757642857142856</v>
+        <v>1.5481210714285714</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.69148059523809513</v>
+        <v>1.4746814880952379</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.64806857142857144</v>
+        <v>1.3927114285714284</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.60546547619047619</v>
+        <v>1.2980636904761904</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.54911714285714275</v>
+        <v>1.196152857142857</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.55340202380952375</v>
+        <v>1.2335850595238094</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.61460166666666671</v>
+        <v>1.3531641666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.66260166666666653</v>
+        <v>1.6246641666666664</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.71866666666666668</v>
+        <v>1.7686666666666664</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.79643654761904759</v>
+        <v>1.950271369047619</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.6967766666666666</v>
+        <v>1.7179016666666664</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.74949095238095231</v>
+        <v>1.8436873809523808</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.75496023809523805</v>
+        <v>1.8395405952380952</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.77128666666666668</v>
+        <v>1.8400366666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.669095</v>
+        <v>1.5786574999999998</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.70645678571428572</v>
+        <v>1.6736219642857142</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.72401071428571429</v>
+        <v>1.7581267857142857</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.75042642857142849</v>
+        <v>1.770346071428571</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.72910999999999981</v>
+        <v>1.7607349999999997</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.76836571428571421</v>
+        <v>1.8772942857142854</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.80191000000000001</v>
+        <v>1.9385349999999999</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.73711476190476188</v>
+        <v>1.8018469047619048</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.73439476190476183</v>
+        <v>1.6491269047619046</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.71920011904761894</v>
+        <v>1.5727402976190474</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11048,99 +11048,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.61691858520900322</v>
+        <v>1.2964764630225081</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.58245920685959274</v>
+        <v>1.2021280171489819</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.5478329260450161</v>
+        <v>1.1421223151125404</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.55195519828510187</v>
+        <v>1.1642879957127545</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.51057672025723477</v>
+        <v>1.099801800643087</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.49667335476956054</v>
+        <v>1.0917633869239014</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.70766075026795305</v>
+        <v>1.5858118756698825</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.76330062165058965</v>
+        <v>1.8764115541264741</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78106216505894965</v>
+        <v>1.9246554126473738</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.7638435584137192</v>
+        <v>1.868788896034298</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.70864403001071818</v>
+        <v>1.7475700750267953</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.79502988210075043</v>
+        <v>1.9575347052518759</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.8423311039657021</v>
+        <v>2.0579677599142552</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.78165483386923906</v>
+        <v>1.8659570846730977</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.7286621221864954</v>
+        <v>1.7275753054662384</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.71238096463022504</v>
+        <v>1.6884324115755627</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.69973183279742757</v>
+        <v>1.697429581993569</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.68778546623794212</v>
+        <v>1.6137436655948552</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.66910276527331192</v>
+        <v>1.6107169131832799</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.69311215434083606</v>
+        <v>1.6891603858520901</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.76078379421221876</v>
+        <v>1.8357194855305468</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.66980780278670959</v>
+        <v>1.633579506966774</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.70491738478027866</v>
+        <v>1.5754334619506967</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.6193759056806003</v>
+        <v>1.3231797642015006</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11551,99 +11551,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>0.1476510067114094</v>
+        <v>0.36912751677852351</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>0.16308724832214769</v>
+        <v>0.40771812080536918</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>0.15369127516778525</v>
+        <v>0.38422818791946312</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>0.15369127516778525</v>
+        <v>0.38422818791946312</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>0.15033557046979867</v>
+        <v>0.37583892617449666</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>0.15906040268456376</v>
+        <v>0.39765100671140935</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>0.16375838926174499</v>
+        <v>0.40939597315436244</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>0.30671140939597319</v>
+        <v>0.76677852348993292</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>0.35704697986577183</v>
+        <v>0.89261744966442957</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>0.34362416107382548</v>
+        <v>0.85906040268456363</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>0.33557046979865773</v>
+        <v>0.83892617449664431</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>0.33489932885906049</v>
+        <v>0.8372483221476511</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>0.35637583892617447</v>
+        <v>0.89093959731543615</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>0.34563758389261751</v>
+        <v>0.86409395973154368</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>0.24228187919463084</v>
+        <v>0.60570469798657711</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>0.31677852348993291</v>
+        <v>0.79194630872483218</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>0.32080536912751678</v>
+        <v>0.80201342281879195</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>0.30067114093959735</v>
+        <v>0.75167785234899331</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>0.238255033557047</v>
+        <v>0.59563758389261745</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>0.2161073825503356</v>
+        <v>0.54026845637583898</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>0.22684563758389265</v>
+        <v>0.56711409395973156</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>0.22751677852348992</v>
+        <v>0.56879194630872476</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>0.15704697986577182</v>
+        <v>0.39261744966442952</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>0.15570469798657721</v>
+        <v>0.389261744966443</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11652,99 +11652,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>7.4074074074074077E-3</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-4.4444444444444453E-2</v>
+        <v>-0.11111111111111112</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-4.8148148148148148E-2</v>
+        <v>-0.12037037037037036</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-7.0370370370370375E-2</v>
+        <v>-0.17592592592592593</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-8.5185185185185183E-2</v>
+        <v>-0.21296296296296294</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-6.666666666666668E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-8.5185185185185197E-2</v>
+        <v>-0.21296296296296297</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>0.21481481481481485</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>0.27407407407407408</v>
+        <v>0.68518518518518512</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>0.35185185185185186</v>
+        <v>0.87962962962962954</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>0.18148148148148147</v>
+        <v>0.45370370370370366</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>0.12592592592592594</v>
+        <v>0.31481481481481483</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>0.17037037037037037</v>
+        <v>0.42592592592592587</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>6.2962962962962957E-2</v>
+        <v>0.15740740740740738</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>0.13333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>0.25555555555555559</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>0.25925925925925924</v>
+        <v>0.64814814814814803</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>0.20740740740740737</v>
+        <v>0.51851851851851838</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>0.15925925925925927</v>
+        <v>0.39814814814814814</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>7.4074074074074056E-2</v>
+        <v>0.18518518518518515</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>1.4814814814814815E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11753,99 +11753,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-5.5882352941176473E-2</v>
+        <v>-0.13970588235294118</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-0.13235294117647056</v>
+        <v>-0.33088235294117641</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-0.23088235294117646</v>
+        <v>-0.57720588235294112</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-0.21323529411764708</v>
+        <v>-0.53308823529411764</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-0.21764705882352942</v>
+        <v>-0.54411764705882348</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-0.20735294117647063</v>
+        <v>-0.51838235294117652</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-1.1764705882352941E-2</v>
+        <v>-2.9411764705882353E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>0.24852941176470586</v>
+        <v>0.62132352941176461</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>0.32647058823529407</v>
+        <v>0.81617647058823517</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>0.3294117647058824</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>0.27500000000000002</v>
+        <v>0.6875</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>0.34411764705882353</v>
+        <v>0.86029411764705876</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>0.31176470588235294</v>
+        <v>0.77941176470588236</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>0.27205882352941174</v>
+        <v>0.68014705882352933</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>0.19558823529411762</v>
+        <v>0.48897058823529405</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>0.12205882352941178</v>
+        <v>0.30514705882352944</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>0.15147058823529413</v>
+        <v>0.37867647058823528</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>0.13529411764705881</v>
+        <v>0.33823529411764702</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>2.4999999999999998E-2</v>
+        <v>6.2499999999999993E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>0.10882352941176471</v>
+        <v>0.27205882352941174</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>0.15294117647058825</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-9.2647058823529416E-2</v>
+        <v>-0.23161764705882351</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-0.18970588235294117</v>
+        <v>-0.47426470588235292</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12256,99 +12256,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>0.14469798657718122</v>
+        <v>0.36174496644295301</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>0.16471812080536918</v>
+        <v>0.4117953020134229</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>0.15676510067114094</v>
+        <v>0.39191275167785233</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>0.15522818791946311</v>
+        <v>0.38807046979865772</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>0.15183892617449668</v>
+        <v>0.37959731543624164</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>0.15587919463087246</v>
+        <v>0.38969798657718113</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>0.16375838926174499</v>
+        <v>0.40939597315436244</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>0.31284563758389267</v>
+        <v>0.78211409395973164</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>0.3606174496644296</v>
+        <v>0.90154362416107392</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>0.35049664429530197</v>
+        <v>0.87624161073825491</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>0.32885906040268459</v>
+        <v>0.82214765100671139</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>0.3382483221476511</v>
+        <v>0.84562080536912765</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>0.35637583892617447</v>
+        <v>0.89093959731543615</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>0.34909395973154367</v>
+        <v>0.87273489932885906</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>0.24228187919463084</v>
+        <v>0.60570469798657711</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>0.31044295302013425</v>
+        <v>0.77610738255033551</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>0.32722147651006717</v>
+        <v>0.8180536912751678</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>0.29465771812080538</v>
+        <v>0.73664429530201347</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>0.24302013422818791</v>
+        <v>0.60755033557046978</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>0.22042953020134234</v>
+        <v>0.55107382550335582</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>0.23138255033557048</v>
+        <v>0.57845637583892617</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>0.22751677852348992</v>
+        <v>0.56879194630872476</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>0.16018791946308725</v>
+        <v>0.40046979865771809</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>0.15726174496644296</v>
+        <v>0.39315436241610741</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12357,99 +12357,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>7.2592592592592587E-3</v>
+        <v>1.8148148148148146E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-4.3555555555555563E-2</v>
+        <v>-0.1088888888888889</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-4.9111111111111105E-2</v>
+        <v>-0.12277777777777776</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-7.1777777777777788E-2</v>
+        <v>-0.17944444444444446</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-8.5185185185185183E-2</v>
+        <v>-0.21296296296296294</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-6.666666666666668E-2</v>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-8.348148148148149E-2</v>
+        <v>-0.2087037037037037</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>0.21481481481481485</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>0.27407407407407403</v>
+        <v>0.68518518518518501</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>0.3448148148148148</v>
+        <v>0.86203703703703694</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>0.17785185185185184</v>
+        <v>0.4446296296296296</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>0.12466666666666669</v>
+        <v>0.3116666666666667</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>0.16696296296296295</v>
+        <v>0.41740740740740734</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>7.5555555555555556E-2</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>6.2333333333333324E-2</v>
+        <v>0.1558333333333333</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>7.2592592592592597E-2</v>
+        <v>0.18148148148148149</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>0.13200000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>0.26066666666666671</v>
+        <v>0.65166666666666673</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>0.26185185185185178</v>
+        <v>0.65462962962962945</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>0.20325925925925922</v>
+        <v>0.50814814814814802</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>0.15925925925925927</v>
+        <v>0.39814814814814814</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>7.4814814814814806E-2</v>
+        <v>0.187037037037037</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>1.4962962962962963E-2</v>
+        <v>3.7407407407407403E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12458,99 +12458,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-5.6999999999999995E-2</v>
+        <v>-0.14249999999999999</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-0.13499999999999998</v>
+        <v>-0.33749999999999991</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-0.23549999999999996</v>
+        <v>-0.58874999999999988</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-0.21536764705882355</v>
+        <v>-0.53841911764705885</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-0.22199999999999998</v>
+        <v>-0.55499999999999994</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-0.2094264705882353</v>
+        <v>-0.52356617647058823</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-1.1529411764705884E-2</v>
+        <v>-2.8823529411764706E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>0.2460441176470588</v>
+        <v>0.61511029411764695</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>0.33299999999999996</v>
+        <v>0.83249999999999991</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>0.33270588235294124</v>
+        <v>0.83176470588235307</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>0.27225000000000005</v>
+        <v>0.68062500000000004</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>0.34067647058823525</v>
+        <v>0.85169117647058812</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>0.30552941176470594</v>
+        <v>0.76382352941176479</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>0.26661764705882346</v>
+        <v>0.66654411764705868</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>0.19363235294117645</v>
+        <v>0.48408088235294111</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>0.1232794117647059</v>
+        <v>0.30819852941176473</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>0.15147058823529413</v>
+        <v>0.37867647058823528</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>0.13529411764705881</v>
+        <v>0.33823529411764702</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>2.5499999999999995E-2</v>
+        <v>6.3749999999999987E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>0.10773529411764704</v>
+        <v>0.2693382352941176</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>0.15294117647058825</v>
+        <v>0.38235294117647056</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>0.10100000000000001</v>
+        <v>0.2525</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-9.3573529411764708E-2</v>
+        <v>-0.23393382352941175</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-0.19350000000000001</v>
+        <v>-0.48375000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12961,99 +12961,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>0.14469798657718122</v>
+        <v>0.36174496644295301</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>0.16308724832214769</v>
+        <v>0.40771812080536918</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>0.15215436241610741</v>
+        <v>0.38038590604026851</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>0.15061744966442955</v>
+        <v>0.37654362416107384</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>0.14883221476510067</v>
+        <v>0.37208053691275167</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>0.15587919463087246</v>
+        <v>0.38969798657718113</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>0.16375838926174499</v>
+        <v>0.40939597315436244</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>0.31284563758389267</v>
+        <v>0.78211409395973164</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>0.3606174496644296</v>
+        <v>0.90154362416107392</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>0.34362416107382548</v>
+        <v>0.85906040268456363</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>0.33221476510067122</v>
+        <v>0.83053691275167796</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>0.34159731543624172</v>
+        <v>0.85399328859060419</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>0.36350335570469794</v>
+        <v>0.90875838926174479</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>0.33872483221476513</v>
+        <v>0.84681208053691281</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>0.24228187919463084</v>
+        <v>0.60570469798657711</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>0.31361073825503355</v>
+        <v>0.78402684563758385</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>0.32722147651006717</v>
+        <v>0.8180536912751678</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>0.29766442953020134</v>
+        <v>0.74416107382550334</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>0.23348993288590605</v>
+        <v>0.58372483221476512</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>0.21826845637583894</v>
+        <v>0.54567114093959734</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>0.23138255033557048</v>
+        <v>0.57845637583892617</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>0.22296644295302015</v>
+        <v>0.55741610738255032</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>0.15390604026845636</v>
+        <v>0.38476510067114089</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>0.15259060402684566</v>
+        <v>0.38147651006711414</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13062,99 +13062,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>7.3333333333333341E-3</v>
+        <v>1.8333333333333333E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-4.4444444444444453E-2</v>
+        <v>-0.11111111111111112</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-4.8629629629629634E-2</v>
+        <v>-0.12157407407407407</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-6.9666666666666682E-2</v>
+        <v>-0.17416666666666669</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-8.6037037037037023E-2</v>
+        <v>-0.21509259259259256</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-6.533333333333334E-2</v>
+        <v>-0.16333333333333336</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-8.5185185185185197E-2</v>
+        <v>-0.21296296296296297</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>0.216962962962963</v>
+        <v>0.54240740740740745</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>0.27955555555555556</v>
+        <v>0.69888888888888889</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>0.3518518518518518</v>
+        <v>0.87962962962962943</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>0.20200000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>0.17785185185185184</v>
+        <v>0.4446296296296296</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>0.12340740740740741</v>
+        <v>0.30851851851851853</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>0.17207407407407405</v>
+        <v>0.43018518518518511</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>7.2592592592592597E-2</v>
+        <v>0.18148148148148149</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>6.2333333333333324E-2</v>
+        <v>0.1558333333333333</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>7.3333333333333334E-2</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>0.1333333333333333</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>0.25044444444444447</v>
+        <v>0.62611111111111117</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>0.26185185185185178</v>
+        <v>0.65462962962962945</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>0.20533333333333328</v>
+        <v>0.5133333333333332</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>0.15925925925925927</v>
+        <v>0.39814814814814814</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>7.2592592592592584E-2</v>
+        <v>0.18148148148148147</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>1.4666666666666668E-2</v>
+        <v>3.6666666666666667E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13163,99 +13163,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-5.5882352941176473E-2</v>
+        <v>-0.13970588235294118</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-0.13235294117647056</v>
+        <v>-0.33088235294117641</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-0.23088235294117646</v>
+        <v>-0.57720588235294112</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-0.21536764705882355</v>
+        <v>-0.53841911764705885</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-0.21547058823529408</v>
+        <v>-0.5386764705882352</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-0.2094264705882353</v>
+        <v>-0.52356617647058823</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-1.1529411764705884E-2</v>
+        <v>-2.8823529411764706E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>0.2535</v>
+        <v>0.63374999999999992</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>0.33299999999999996</v>
+        <v>0.83249999999999991</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>0.3294117647058824</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>0.27225000000000005</v>
+        <v>0.68062500000000004</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>0.34755882352941181</v>
+        <v>0.86889705882352941</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>0.3148823529411765</v>
+        <v>0.7872058823529412</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>0.27205882352941174</v>
+        <v>0.68014705882352933</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>0.19754411764705881</v>
+        <v>0.49386029411764698</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>0.12205882352941178</v>
+        <v>0.30514705882352944</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>0.15298529411764705</v>
+        <v>0.38246323529411763</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>0.1366470588235294</v>
+        <v>0.34161764705882347</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>2.5499999999999995E-2</v>
+        <v>6.3749999999999987E-2</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>0.10664705882352941</v>
+        <v>0.26661764705882351</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>0.15141176470588236</v>
+        <v>0.37852941176470589</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.2475</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-9.4499999999999987E-2</v>
+        <v>-0.23624999999999996</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-0.19160294117647059</v>
+        <v>-0.47900735294117647</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17203,7 +17203,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18257,99 +18257,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.77729830491992336</v>
+        <v>1.6974257622998081</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.75984086510221283</v>
+        <v>1.6455821627555323</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.72110130658139038</v>
+        <v>1.575293266453476</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.73038218226284424</v>
+        <v>1.6103554556571107</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.6878549282237898</v>
+        <v>1.5429973205594745</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.67080089077293059</v>
+        <v>1.5270822269323265</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.69834987172979401</v>
+        <v>1.562534679324485</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.76903259084324704</v>
+        <v>1.8907414771081177</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78142333663219365</v>
+        <v>1.9255583415804838</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.7826929177163845</v>
+        <v>1.9159122942909612</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.76921258114578117</v>
+        <v>1.8989914528644529</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.78904080029211743</v>
+        <v>1.9425620007302935</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.7926426433178968</v>
+        <v>1.9337466082947421</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.80605606371526095</v>
+        <v>1.9269601592881525</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.71277482613632914</v>
+        <v>1.6878570653408227</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.76103711082480685</v>
+        <v>1.8100727770620171</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.79494089828722303</v>
+        <v>1.9354522457180574</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.81923939362266152</v>
+        <v>1.9423784840566536</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.75153694956200368</v>
+        <v>1.8168023739050092</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.70632719015326373</v>
+        <v>1.7221979753831593</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.7166226687965882</v>
+        <v>1.7253166719914705</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.66987026961071339</v>
+        <v>1.6337356740267837</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.70491649418217128</v>
+        <v>1.5754312354554283</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.71794328231628057</v>
+        <v>1.5695982057907012</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18358,99 +18358,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.60760504869759591</v>
+        <v>1.2731926217439897</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.60044319738170004</v>
+        <v>1.2470879934542503</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.56442524635076374</v>
+        <v>1.1836031158769091</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.55310063293525724</v>
+        <v>1.1671515823381431</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.53124070686553015</v>
+        <v>1.1514617671638254</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.54142512991989711</v>
+        <v>1.2036428247997428</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.65445195047740456</v>
+        <v>1.4527898761935114</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.64257902494063346</v>
+        <v>1.5746075623515838</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.69416147801467354</v>
+        <v>1.7074036950366835</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.72311048032111169</v>
+        <v>1.766956200802779</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.71041848009253927</v>
+        <v>1.7520062002313481</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.69788243481212398</v>
+        <v>1.7146660870303099</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.68517345042800992</v>
+        <v>1.6650736260700247</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.68004750809210746</v>
+        <v>1.6119387702302688</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.64133673255284029</v>
+        <v>1.5092618313821009</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.65825578576360377</v>
+        <v>1.5531194644090094</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.69819838697436531</v>
+        <v>1.6935959674359133</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.86387288215192082</v>
+        <v>2.0539622053798019</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.79702291178824225</v>
+        <v>1.9305172794706056</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.72709104453198148</v>
+        <v>1.7741076113299536</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.72083527327501717</v>
+        <v>1.7358481831875427</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.65838703091338724</v>
+        <v>1.6050275772834681</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.70215142542529174</v>
+        <v>1.5685185635632295</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.66106743325973372</v>
+        <v>1.4274085831493339</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18459,99 +18459,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.53809331532932725</v>
+        <v>1.0994132883233181</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.52119557201257372</v>
+        <v>1.0489689300314342</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.49211572101570511</v>
+        <v>1.0028293025392627</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.49133111754327369</v>
+        <v>1.0127277938581842</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.4686277497545468</v>
+        <v>0.99492937438636697</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.50111463747029239</v>
+        <v>1.1028665936757309</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.7701138084211393</v>
+        <v>1.7419445210528481</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.78084571861558916</v>
+        <v>1.920274296538973</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.81229146180859668</v>
+        <v>2.0027286545214915</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.79575621203317626</v>
+        <v>1.9485705300829406</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.75632189394962779</v>
+        <v>1.8667647348740695</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.80754717129621656</v>
+        <v>1.9888279282405414</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.76197688200093128</v>
+        <v>1.8570822050023281</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.75393995964928873</v>
+        <v>1.7966698991232217</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.66394943075844293</v>
+        <v>1.5657935768961071</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.66042614916056519</v>
+        <v>1.5585453729014129</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.65849402559373904</v>
+        <v>1.5943350639843477</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.74429913937240733</v>
+        <v>1.755027848431018</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.65711400438796974</v>
+        <v>1.5807450109699244</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.66895840925165762</v>
+        <v>1.6287760231291439</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.66544685400118819</v>
+        <v>1.5973771350029704</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.61155961964944416</v>
+        <v>1.4879590491236105</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.60993856383494993</v>
+        <v>1.3379864095873748</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.57826141010499454</v>
+        <v>1.2203935252624865</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18964,99 +18964,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.77729830491992336</v>
+        <v>1.6974257622998081</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.76574580708656836</v>
+        <v>1.6603445177164209</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.71540669351557662</v>
+        <v>1.5610567337889414</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.71864920528425413</v>
+        <v>1.5810230132106351</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.6878549282237898</v>
+        <v>1.5429973205594745</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.68221797525505601</v>
+        <v>1.5556249381376399</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.68682740762853145</v>
+        <v>1.5337285190713286</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.78398870932677867</v>
+        <v>1.9281317733169467</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.78905090333184891</v>
+        <v>1.944627258329622</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.79780250940404551</v>
+        <v>1.9536862735101137</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.76168072200099002</v>
+        <v>1.8801618050024751</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.78135065895586286</v>
+        <v>1.9233366473896572</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.78503528355138452</v>
+        <v>1.9147282088784614</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.79111067577428906</v>
+        <v>1.8895966894357228</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.7192753743976924</v>
+        <v>1.7041084359942311</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.77502425304130296</v>
+        <v>1.8450406326032573</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.81014771625296755</v>
+        <v>1.9734692906324187</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.83421458149511474</v>
+        <v>1.9798164537377869</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.7586387190576237</v>
+        <v>1.8345567976440593</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.71309966205479647</v>
+        <v>1.739129155136991</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.70317341542065637</v>
+        <v>1.691693538551641</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.66344450024793966</v>
+        <v>1.6176712506198492</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.71652335739914808</v>
+        <v>1.6044483934978702</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.72362098180611012</v>
+        <v>1.5837924545152751</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19065,99 +19065,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.60760504869759591</v>
+        <v>1.2731926217439897</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.59182126676739943</v>
+        <v>1.2255331669184986</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.55616954142374841</v>
+        <v>1.1629638535593709</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.55310063293525724</v>
+        <v>1.1671515823381431</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.53124070686553015</v>
+        <v>1.1514617671638254</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.54583991455242953</v>
+        <v>1.2146797863810737</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.64380744480118979</v>
+        <v>1.4261786120029745</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.64257902494063346</v>
+        <v>1.5746075623515838</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.69416147801467354</v>
+        <v>1.7074036950366835</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.73006945179098948</v>
+        <v>1.7843536294774736</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.69653064382402186</v>
+        <v>1.7172866095600545</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.71143955017503313</v>
+        <v>1.7485588754375827</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.69823878610323675</v>
+        <v>1.697736965258092</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.69247272492061629</v>
+        <v>1.6430018123015406</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.65290906720389708</v>
+        <v>1.5381926680097426</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.66422154362123986</v>
+        <v>1.5680338590530996</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.69819838697436531</v>
+        <v>1.6935959674359133</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.84800502450888249</v>
+        <v>2.0142925612722062</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.8045795409061246</v>
+        <v>1.9494088522653117</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.73407115497730124</v>
+        <v>1.7915578874432529</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.73436877874051754</v>
+        <v>1.7696819468512937</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.65838703091338724</v>
+        <v>1.6050275772834681</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.69059986358345249</v>
+        <v>1.5396396589586314</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.66617637425899767</v>
+        <v>1.4401809356474942</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19166,99 +19166,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.54557758163591386</v>
+        <v>1.1181239540897845</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.52823255011949188</v>
+        <v>1.0665613752987295</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.48871096380554807</v>
+        <v>0.99431740951387015</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.49828307322747245</v>
+        <v>1.0301076830686811</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.46161039475945587</v>
+        <v>0.97738598689863965</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.49309127805421982</v>
+        <v>1.0828081951355497</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.77659267983868407</v>
+        <v>1.7581416995967101</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.78084571861558905</v>
+        <v>1.9202742965389727</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.796418965905758</v>
+        <v>1.9630474147643948</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78807078324617774</v>
+        <v>1.9293569581154444</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.75632189394962779</v>
+        <v>1.8667647348740695</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.79179676120362563</v>
+        <v>1.949451903009064</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.74737547769424595</v>
+        <v>1.8205786942356148</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.75393995964928873</v>
+        <v>1.7966698991232217</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.66394943075844293</v>
+        <v>1.5657935768961071</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.66641361065217086</v>
+        <v>1.5735140266304271</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.64601614508186433</v>
+        <v>1.5631403627046607</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.75103733076613144</v>
+        <v>1.7718733269153284</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.64479892430021035</v>
+        <v>1.549957310750526</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.66895840925165762</v>
+        <v>1.6287760231291439</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.6592339854611764</v>
+        <v>1.5818449636529408</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.59987429392312197</v>
+        <v>1.458745734807805</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.6002312592249176</v>
+        <v>1.3137181480622939</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.58682317164042774</v>
+        <v>1.2417979291010695</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19669,99 +19669,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.76502993882152481</v>
+        <v>1.6667548470538118</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.7539359231178574</v>
+        <v>1.6308198077946436</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.73249053271301823</v>
+        <v>1.6037663317825455</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.74211515924143456</v>
+        <v>1.6396878981035863</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.67645302965931398</v>
+        <v>1.5144925741482851</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.6593838062908054</v>
+        <v>1.4985395157270134</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.69834987172979401</v>
+        <v>1.562534679324485</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.76903259084324693</v>
+        <v>1.8907414771081175</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.79667847003150427</v>
+        <v>1.9636961750787603</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.79024771356021506</v>
+        <v>1.9347992839005375</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.78427629943536348</v>
+        <v>1.9366507485884086</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.79673094162837188</v>
+        <v>1.9617873540709296</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.77742792378487224</v>
+        <v>1.8957098094621807</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.82100145165623284</v>
+        <v>1.9643236291405821</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.72577592265905577</v>
+        <v>1.7203598066476391</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.77502425304130296</v>
+        <v>1.8450406326032573</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.79494089828722303</v>
+        <v>1.9354522457180574</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.81923939362266152</v>
+        <v>1.9423784840566536</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.74443518006638365</v>
+        <v>1.7990479501659591</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.69278224635019858</v>
+        <v>1.6883356158754963</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.7098980421086224</v>
+        <v>1.7085051052715559</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.68272180833626106</v>
+        <v>1.6658645208406526</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.69330963096519449</v>
+        <v>1.5464140774129862</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.71226558282645103</v>
+        <v>1.5554039570661276</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19770,99 +19770,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.60316779821061994</v>
+        <v>1.2620994955265499</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.60906512799600077</v>
+        <v>1.2686428199900019</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.55616954142374841</v>
+        <v>1.1629638535593709</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.55310063293525724</v>
+        <v>1.1671515823381431</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.52710589979687483</v>
+        <v>1.1411247494921872</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.54583991455242953</v>
+        <v>1.2146797863810737</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.66509645615361934</v>
+        <v>1.4794011403840484</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.64257902494063346</v>
+        <v>1.5746075623515838</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.68065158178771334</v>
+        <v>1.6736289544692831</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.73702842326086726</v>
+        <v>1.8017510581521681</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.70347456195828051</v>
+        <v>1.7346464048957013</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.71143955017503313</v>
+        <v>1.7485588754375827</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.67210811475278309</v>
+        <v>1.6324102868819577</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.68004750809210746</v>
+        <v>1.6119387702302688</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.62976439790178351</v>
+        <v>1.4803309947544587</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.64632427004833171</v>
+        <v>1.5232906751208293</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.68492641923487807</v>
+        <v>1.660416048087195</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.87180681097344015</v>
+        <v>2.0737970274336002</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.79702291178824225</v>
+        <v>1.9305172794706056</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.74105126542262112</v>
+        <v>1.8090081635565527</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.71406852054226699</v>
+        <v>1.7189313013556673</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.6520760939375867</v>
+        <v>1.5892502348439668</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.70792720634621142</v>
+        <v>1.5829580158655285</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.66617637425899767</v>
+        <v>1.4401809356474942</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19871,99 +19871,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>0.53809331532932725</v>
+        <v>1.0994132883233181</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>0.51415859390565555</v>
+        <v>1.0313764847641389</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.48871096380554807</v>
+        <v>0.99431740951387015</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>0.4948070953853731</v>
+        <v>1.0214177384634326</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.47213642725209226</v>
+        <v>1.0037010681302307</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>0.49309127805421982</v>
+        <v>1.0828081951355497</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>0.75715606558604998</v>
+        <v>1.7095501639651247</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>0.78084571861558905</v>
+        <v>1.9202742965389727</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>0.80435521385717734</v>
+        <v>1.9828880346429429</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>0.78038535445917945</v>
+        <v>1.9101433861479484</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>0.75632189394962779</v>
+        <v>1.8667647348740695</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>0.79179676120362563</v>
+        <v>1.949451903009064</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>0.74737547769424595</v>
+        <v>1.8205786942356148</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>0.76089149257911481</v>
+        <v>1.8140487314477871</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>0.66996172506602736</v>
+        <v>1.5808243126650683</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>0.67240107214377653</v>
+        <v>1.5884826803594412</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>0.64601614508186433</v>
+        <v>1.5631403627046607</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>0.7308227565849591</v>
+        <v>1.7213368914623977</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>0.66942908447572913</v>
+        <v>1.611532711189323</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>0.6817559774366907</v>
+        <v>1.6607699435917267</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>0.66544685400118819</v>
+        <v>1.5973771350029704</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>0.6174022825126052</v>
+        <v>1.5025657062815132</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>0.6002312592249176</v>
+        <v>1.3137181480622939</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>0.57826141010499454</v>
+        <v>1.2203935252624865</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20376,99 +20376,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>0.19156089589799974</v>
+        <v>0.47890223974499929</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>0.13534100953119102</v>
+        <v>0.33835252382797754</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>0.11732608199989676</v>
+        <v>0.2933152049997419</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>0.1503916816210511</v>
+        <v>0.37597920405262775</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>0.12949167930795943</v>
+        <v>0.32372919826989854</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>0.10646425937255051</v>
+        <v>0.26616064843137627</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>8.8088375597771829E-2</v>
+        <v>0.22022093899442957</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>0.30782785538915602</v>
+        <v>0.76956963847288995</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>0.32192358525104398</v>
+        <v>0.80480896312760986</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>0.2761154485694326</v>
+        <v>0.69028862142358149</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>0.32169454359909999</v>
+        <v>0.80423635899774992</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>0.29891819096178235</v>
+        <v>0.7472954774044559</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>0.30023516052001487</v>
+        <v>0.75058790130003716</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>0.26809855775886715</v>
+        <v>0.67024639439716782</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>0.1590908774969568</v>
+        <v>0.39772719374239196</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>0.24908745115872791</v>
+        <v>0.62271862789681975</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>0.29874198579260358</v>
+        <v>0.7468549644815089</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>0.27874498939339226</v>
+        <v>0.69686247348348063</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>0.19481524493760519</v>
+        <v>0.48703811234401295</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>0.20210924333074712</v>
+        <v>0.50527310832686778</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>0.18824710154233079</v>
+        <v>0.47061775385582694</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>0.11677119068273008</v>
+        <v>0.29192797670682519</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>9.3149101090423306E-2</v>
+        <v>0.23287275272605826</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>9.654502729163289E-2</v>
+        <v>0.24136256822908222</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20477,99 +20477,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-0.36282531765618148</v>
+        <v>-0.90706329414045361</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-0.36274532483391586</v>
+        <v>-0.90686331208478954</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-0.37275455283471859</v>
+        <v>-0.93188638208679642</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-0.38983046205944039</v>
+        <v>-0.97457615514860096</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-0.38608687004301234</v>
+        <v>-0.9652171751075308</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-0.35433750268894793</v>
+        <v>-0.8858437567223697</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-0.22467785773456722</v>
+        <v>-0.56169464433641803</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-4.318953002054951E-2</v>
+        <v>-0.10797382505137376</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-4.6412628200208333E-2</v>
+        <v>-0.11603157050052083</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-3.0757960817209558E-2</v>
+        <v>-7.6894902043023891E-2</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-2.7094613852666916E-2</v>
+        <v>-6.7736534631667289E-2</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-0.12092151010594004</v>
+        <v>-0.30230377526485008</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-0.17665333813290268</v>
+        <v>-0.44163334533225668</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-0.22900183010605535</v>
+        <v>-0.57250457526513832</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-0.22728018278720216</v>
+        <v>-0.56820045696800536</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-0.23112376583146232</v>
+        <v>-0.57780941457865576</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-0.18171807286481323</v>
+        <v>-0.45429518216203307</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>5.9725559760583635E-2</v>
+        <v>0.14931389940145909</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-8.4174068705186456E-3</v>
+        <v>-2.1043517176296614E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-9.9361606832395949E-2</v>
+        <v>-0.24840401708098986</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-0.18418041047848319</v>
+        <v>-0.46045102619620792</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-0.24227400856643852</v>
+        <v>-0.60568502141609626</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-0.26571550877056443</v>
+        <v>-0.664288771926411</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-0.30423154823224868</v>
+        <v>-0.76057887058062168</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20578,99 +20578,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-0.34699076508527571</v>
+        <v>-0.86747691271318916</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-0.37440404257534921</v>
+        <v>-0.9360101064383729</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-0.38127143576426414</v>
+        <v>-0.95317858941066025</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-0.37617255372095143</v>
+        <v>-0.94043138430237849</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-0.3764854264732338</v>
+        <v>-0.94121356618308449</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-0.31438144999088929</v>
+        <v>-0.78595362497722321</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-1.170662872899955E-2</v>
+        <v>-2.9266571822498873E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>0.16208452225621253</v>
+        <v>0.40521130564053132</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>0.20657975314577401</v>
+        <v>0.51644938286443498</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>0.14390832963189393</v>
+        <v>0.35977082407973482</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>8.4966788489929571E-2</v>
+        <v>0.21241697122482392</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>0.16853523545584723</v>
+        <v>0.42133808863961802</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>0.10626988520465652</v>
+        <v>0.26567471301164131</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>3.2241559594586765E-2</v>
+        <v>8.0603898986466901E-2</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-0.12755515850956742</v>
+        <v>-0.31888789627391856</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-0.12760943772663691</v>
+        <v>-0.31902359431659227</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-0.10511937639638647</v>
+        <v>-0.26279844099096616</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-5.3030602460786253E-2</v>
+        <v>-0.13257650615196562</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-0.12924938404581385</v>
+        <v>-0.32312346011453463</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-7.3642695336160677E-2</v>
+        <v>-0.1841067383404017</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-0.10110749121253249</v>
+        <v>-0.25276872803133121</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-0.1676984725928477</v>
+        <v>-0.41924618148211923</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-0.26494045401669414</v>
+        <v>-0.66235113504173537</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-0.29907487771124819</v>
+        <v>-0.74768719427812047</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D214918A-4F9A-4E25-A81E-B24EF75A808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F6549-9AF7-4128-8478-55A897112565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4035" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23385" yWindow="5505" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -702,2688 +702,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>1.5335457622998081</v>
+            <v>3.0670915245996162</v>
           </cell>
           <cell r="C2">
-            <v>1.4762354960888655</v>
+            <v>2.952470992177731</v>
           </cell>
           <cell r="D2">
-            <v>1.423653266453476</v>
+            <v>2.847306532906952</v>
           </cell>
           <cell r="E2">
-            <v>1.4666221223237774</v>
+            <v>2.9332442446475548</v>
           </cell>
           <cell r="F2">
-            <v>1.4252373205594744</v>
+            <v>2.8504746411189488</v>
           </cell>
           <cell r="G2">
-            <v>1.4271355602656599</v>
+            <v>2.8542711205313198</v>
           </cell>
           <cell r="H2">
-            <v>1.4403080126578183</v>
+            <v>2.8806160253156365</v>
           </cell>
           <cell r="I2">
-            <v>1.869514810441451</v>
+            <v>3.7390296208829019</v>
           </cell>
           <cell r="J2">
-            <v>1.9068916749138172</v>
+            <v>3.8137833498276343</v>
           </cell>
           <cell r="K2">
-            <v>1.8886989609576279</v>
+            <v>3.7773979219152558</v>
           </cell>
           <cell r="L2">
-            <v>1.8829647861977863</v>
+            <v>3.7659295723955726</v>
           </cell>
           <cell r="M2">
-            <v>1.9225353340636269</v>
+            <v>3.8450706681272537</v>
           </cell>
           <cell r="N2">
-            <v>1.9018399416280753</v>
+            <v>3.8036798832561507</v>
           </cell>
           <cell r="O2">
-            <v>1.8681734926214857</v>
+            <v>3.7363469852429714</v>
           </cell>
           <cell r="P2">
-            <v>1.6251370653408228</v>
+            <v>3.2502741306816456</v>
           </cell>
           <cell r="Q2">
-            <v>1.7483927770620171</v>
+            <v>3.4967855541240342</v>
           </cell>
           <cell r="R2">
-            <v>1.9008522457180574</v>
+            <v>3.8017044914361149</v>
           </cell>
           <cell r="S2">
-            <v>1.8718984840566537</v>
+            <v>3.7437969681133074</v>
           </cell>
           <cell r="T2">
-            <v>1.7754423739050091</v>
+            <v>3.5508847478100183</v>
           </cell>
           <cell r="U2">
-            <v>1.6931179753831593</v>
+            <v>3.3862359507663187</v>
           </cell>
           <cell r="V2">
-            <v>1.6811566719914706</v>
+            <v>3.3623133439829411</v>
           </cell>
           <cell r="W2">
-            <v>1.6064423406934503</v>
+            <v>3.2128846813869005</v>
           </cell>
           <cell r="X2">
-            <v>1.4508579021220949</v>
+            <v>2.9017158042441897</v>
           </cell>
           <cell r="Y2">
-            <v>1.4194248724573679</v>
+            <v>2.8388497449147359</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.1093126217439897</v>
+            <v>2.2186252434879794</v>
           </cell>
           <cell r="C3">
-            <v>1.0777413267875835</v>
+            <v>2.155482653575167</v>
           </cell>
           <cell r="D3">
-            <v>1.0319631158769091</v>
+            <v>2.0639262317538183</v>
           </cell>
           <cell r="E3">
-            <v>1.0234182490048098</v>
+            <v>2.0468364980096196</v>
           </cell>
           <cell r="F3">
-            <v>1.0337017671638253</v>
+            <v>2.0674035343276507</v>
           </cell>
           <cell r="G3">
-            <v>1.1036961581330762</v>
+            <v>2.2073923162661524</v>
           </cell>
           <cell r="H3">
-            <v>1.3305632095268447</v>
+            <v>2.6611264190536894</v>
           </cell>
           <cell r="I3">
-            <v>1.5533808956849171</v>
+            <v>3.1067617913698342</v>
           </cell>
           <cell r="J3">
-            <v>1.6887370283700169</v>
+            <v>3.3774740567400339</v>
           </cell>
           <cell r="K3">
-            <v>1.7397428674694457</v>
+            <v>3.4794857349388915</v>
           </cell>
           <cell r="L3">
-            <v>1.7359795335646815</v>
+            <v>3.471959067129363</v>
           </cell>
           <cell r="M3">
-            <v>1.6946394203636432</v>
+            <v>3.3892788407272865</v>
           </cell>
           <cell r="N3">
-            <v>1.633166959403358</v>
+            <v>3.266333918806716</v>
           </cell>
           <cell r="O3">
-            <v>1.553152103563602</v>
+            <v>3.106304207127204</v>
           </cell>
           <cell r="P3">
-            <v>1.4465418313821008</v>
+            <v>2.8930836627642016</v>
           </cell>
           <cell r="Q3">
-            <v>1.4914394644090094</v>
+            <v>2.9828789288180189</v>
           </cell>
           <cell r="R3">
-            <v>1.6589959674359134</v>
+            <v>3.3179919348718268</v>
           </cell>
           <cell r="S3">
-            <v>1.983482205379802</v>
+            <v>3.966964410759604</v>
           </cell>
           <cell r="T3">
-            <v>1.8891572794706055</v>
+            <v>3.778314558941211</v>
           </cell>
           <cell r="U3">
-            <v>1.7450276113299537</v>
+            <v>3.4900552226599073</v>
           </cell>
           <cell r="V3">
-            <v>1.6916881831875428</v>
+            <v>3.3833763663750855</v>
           </cell>
           <cell r="W3">
-            <v>1.5777342439501347</v>
+            <v>3.1554684879002695</v>
           </cell>
           <cell r="X3">
-            <v>1.4439452302298961</v>
+            <v>2.8878904604597921</v>
           </cell>
           <cell r="Y3">
-            <v>1.2772352498160007</v>
+            <v>2.5544704996320013</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.93553328832331806</v>
+            <v>1.8710665766466361</v>
           </cell>
           <cell r="C4">
-            <v>0.87962226336476756</v>
+            <v>1.7592445267295351</v>
           </cell>
           <cell r="D4">
-            <v>0.85118930253926273</v>
+            <v>1.7023786050785255</v>
           </cell>
           <cell r="E4">
-            <v>0.86899446052485085</v>
+            <v>1.7379889210497017</v>
           </cell>
           <cell r="F4">
-            <v>0.877169374386367</v>
+            <v>1.754338748772734</v>
           </cell>
           <cell r="G4">
-            <v>1.0029199270090643</v>
+            <v>2.0058398540181286</v>
           </cell>
           <cell r="H4">
-            <v>1.6197178543861814</v>
+            <v>3.2394357087723629</v>
           </cell>
           <cell r="I4">
-            <v>1.8990476298723062</v>
+            <v>3.7980952597446125</v>
           </cell>
           <cell r="J4">
-            <v>1.9840619878548247</v>
+            <v>3.9681239757096494</v>
           </cell>
           <cell r="K4">
-            <v>1.9213571967496073</v>
+            <v>3.8427143934992145</v>
           </cell>
           <cell r="L4">
-            <v>1.8507380682074028</v>
+            <v>3.7014761364148057</v>
           </cell>
           <cell r="M4">
-            <v>1.9688012615738748</v>
+            <v>3.9376025231477496</v>
           </cell>
           <cell r="N4">
-            <v>1.8251755383356614</v>
+            <v>3.6503510766713227</v>
           </cell>
           <cell r="O4">
-            <v>1.737883232456555</v>
+            <v>3.4757664649131099</v>
           </cell>
           <cell r="P4">
-            <v>1.5030735768961072</v>
+            <v>3.0061471537922144</v>
           </cell>
           <cell r="Q4">
-            <v>1.496865372901413</v>
+            <v>2.9937307458028259</v>
           </cell>
           <cell r="R4">
-            <v>1.5597350639843477</v>
+            <v>3.1194701279686954</v>
           </cell>
           <cell r="S4">
-            <v>1.6845478484310181</v>
+            <v>3.3690956968620362</v>
           </cell>
           <cell r="T4">
-            <v>1.5393850109699243</v>
+            <v>3.0787700219398486</v>
           </cell>
           <cell r="U4">
-            <v>1.5996960231291439</v>
+            <v>3.1993920462582879</v>
           </cell>
           <cell r="V4">
-            <v>1.5532171350029704</v>
+            <v>3.1064342700059409</v>
           </cell>
           <cell r="W4">
-            <v>1.4606657157902772</v>
+            <v>2.9213314315805543</v>
           </cell>
           <cell r="X4">
-            <v>1.2134130762540414</v>
+            <v>2.4268261525080828</v>
           </cell>
           <cell r="Y4">
-            <v>1.0702201919291532</v>
+            <v>2.1404403838583064</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>1.5335457622998081</v>
+            <v>3.0670915245996162</v>
           </cell>
           <cell r="C2">
-            <v>1.4909978510497541</v>
+            <v>2.9819957020995083</v>
           </cell>
           <cell r="D2">
-            <v>1.4094167337889414</v>
+            <v>2.8188334675778828</v>
           </cell>
           <cell r="E2">
-            <v>1.4372896798773018</v>
+            <v>2.8745793597546037</v>
           </cell>
           <cell r="F2">
-            <v>1.4252373205594744</v>
+            <v>2.8504746411189488</v>
           </cell>
           <cell r="G2">
-            <v>1.4556782714709733</v>
+            <v>2.9113565429419466</v>
           </cell>
           <cell r="H2">
-            <v>1.4115018524046619</v>
+            <v>2.8230037048093237</v>
           </cell>
           <cell r="I2">
-            <v>1.90690510665028</v>
+            <v>3.81381021330056</v>
           </cell>
           <cell r="J2">
-            <v>1.9259605916629554</v>
+            <v>3.8519211833259108</v>
           </cell>
           <cell r="K2">
-            <v>1.9264729401767804</v>
+            <v>3.8529458803535608</v>
           </cell>
           <cell r="L2">
-            <v>1.8641351383358085</v>
+            <v>3.7282702766716169</v>
           </cell>
           <cell r="M2">
-            <v>1.9033099807229905</v>
+            <v>3.806619961445981</v>
           </cell>
           <cell r="N2">
-            <v>1.8828215422117947</v>
+            <v>3.7656430844235893</v>
           </cell>
           <cell r="O2">
-            <v>1.830810022769056</v>
+            <v>3.661620045538112</v>
           </cell>
           <cell r="P2">
-            <v>1.641388435994231</v>
+            <v>3.282776871988462</v>
           </cell>
           <cell r="Q2">
-            <v>1.7833606326032574</v>
+            <v>3.5667212652065148</v>
           </cell>
           <cell r="R2">
-            <v>1.9388692906324188</v>
+            <v>3.8777385812648375</v>
           </cell>
           <cell r="S2">
-            <v>1.9093364537377868</v>
+            <v>3.8186729074755736</v>
           </cell>
           <cell r="T2">
-            <v>1.7931967976440593</v>
+            <v>3.5863935952881185</v>
           </cell>
           <cell r="U2">
-            <v>1.710049155136991</v>
+            <v>3.4200983102739819</v>
           </cell>
           <cell r="V2">
-            <v>1.647533538551641</v>
+            <v>3.2950670771032819</v>
           </cell>
           <cell r="W2">
-            <v>1.5903779172865158</v>
+            <v>3.1807558345730316</v>
           </cell>
           <cell r="X2">
-            <v>1.4798750601645367</v>
+            <v>2.9597501203290735</v>
           </cell>
           <cell r="Y2">
-            <v>1.4336191211819418</v>
+            <v>2.8672382423638836</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.1093126217439897</v>
+            <v>2.2186252434879794</v>
           </cell>
           <cell r="C3">
-            <v>1.0561865002518318</v>
+            <v>2.1123730005036636</v>
           </cell>
           <cell r="D3">
-            <v>1.0113238535593709</v>
+            <v>2.0226477071187419</v>
           </cell>
           <cell r="E3">
-            <v>1.0234182490048098</v>
+            <v>2.0468364980096196</v>
           </cell>
           <cell r="F3">
-            <v>1.0337017671638253</v>
+            <v>2.0674035343276507</v>
           </cell>
           <cell r="G3">
-            <v>1.114733119714407</v>
+            <v>2.2294662394288141</v>
           </cell>
           <cell r="H3">
-            <v>1.3039519453363078</v>
+            <v>2.6079038906726155</v>
           </cell>
           <cell r="I3">
-            <v>1.5533808956849171</v>
+            <v>3.1067617913698342</v>
           </cell>
           <cell r="J3">
-            <v>1.6887370283700169</v>
+            <v>3.3774740567400339</v>
           </cell>
           <cell r="K3">
-            <v>1.7571402961441402</v>
+            <v>3.5142805922882805</v>
           </cell>
           <cell r="L3">
-            <v>1.7012599428933879</v>
+            <v>3.4025198857867758</v>
           </cell>
           <cell r="M3">
-            <v>1.7285322087709161</v>
+            <v>3.4570644175418321</v>
           </cell>
           <cell r="N3">
-            <v>1.6658302985914253</v>
+            <v>3.3316605971828506</v>
           </cell>
           <cell r="O3">
-            <v>1.5842151456348739</v>
+            <v>3.1684302912697477</v>
           </cell>
           <cell r="P3">
-            <v>1.4754726680097427</v>
+            <v>2.9509453360194855</v>
           </cell>
           <cell r="Q3">
-            <v>1.5063538590530996</v>
+            <v>3.0127077181061992</v>
           </cell>
           <cell r="R3">
-            <v>1.6589959674359134</v>
+            <v>3.3179919348718268</v>
           </cell>
           <cell r="S3">
-            <v>1.9438125612722061</v>
+            <v>3.8876251225444123</v>
           </cell>
           <cell r="T3">
-            <v>1.9080488522653116</v>
+            <v>3.8160977045306232</v>
           </cell>
           <cell r="U3">
-            <v>1.762477887443253</v>
+            <v>3.5249557748865059</v>
           </cell>
           <cell r="V3">
-            <v>1.7255219468512937</v>
+            <v>3.4510438937025874</v>
           </cell>
           <cell r="W3">
-            <v>1.5777342439501347</v>
+            <v>3.1554684879002695</v>
           </cell>
           <cell r="X3">
-            <v>1.415066325625298</v>
+            <v>2.830132651250596</v>
           </cell>
           <cell r="Y3">
-            <v>1.2900076023141609</v>
+            <v>2.5800152046283218</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.95424395408978446</v>
+            <v>1.9084879081795689</v>
           </cell>
           <cell r="C4">
-            <v>0.89721470863206287</v>
+            <v>1.7944294172641257</v>
           </cell>
           <cell r="D4">
-            <v>0.84267740951387016</v>
+            <v>1.6853548190277403</v>
           </cell>
           <cell r="E4">
-            <v>0.88637434973534779</v>
+            <v>1.7727486994706956</v>
           </cell>
           <cell r="F4">
-            <v>0.85962598689863967</v>
+            <v>1.7192519737972793</v>
           </cell>
           <cell r="G4">
-            <v>0.98286152846888297</v>
+            <v>1.9657230569377659</v>
           </cell>
           <cell r="H4">
-            <v>1.6359150329300434</v>
+            <v>3.2718300658600867</v>
           </cell>
           <cell r="I4">
-            <v>1.899047629872306</v>
+            <v>3.798095259744612</v>
           </cell>
           <cell r="J4">
-            <v>1.9443807480977282</v>
+            <v>3.8887614961954564</v>
           </cell>
           <cell r="K4">
-            <v>1.9021436247821111</v>
+            <v>3.8042872495642222</v>
           </cell>
           <cell r="L4">
-            <v>1.8507380682074028</v>
+            <v>3.7014761364148057</v>
           </cell>
           <cell r="M4">
-            <v>1.9294252363423974</v>
+            <v>3.8588504726847948</v>
           </cell>
           <cell r="N4">
-            <v>1.7886720275689481</v>
+            <v>3.5773440551378961</v>
           </cell>
           <cell r="O4">
-            <v>1.737883232456555</v>
+            <v>3.4757664649131099</v>
           </cell>
           <cell r="P4">
-            <v>1.5030735768961072</v>
+            <v>3.0061471537922144</v>
           </cell>
           <cell r="Q4">
-            <v>1.5118340266304271</v>
+            <v>3.0236680532608542</v>
           </cell>
           <cell r="R4">
-            <v>1.5285403627046608</v>
+            <v>3.0570807254093215</v>
           </cell>
           <cell r="S4">
-            <v>1.7013933269153285</v>
+            <v>3.402786653830657</v>
           </cell>
           <cell r="T4">
-            <v>1.5085973107505259</v>
+            <v>3.0171946215010519</v>
           </cell>
           <cell r="U4">
-            <v>1.5996960231291439</v>
+            <v>3.1993920462582879</v>
           </cell>
           <cell r="V4">
-            <v>1.5376849636529408</v>
+            <v>3.0753699273058817</v>
           </cell>
           <cell r="W4">
-            <v>1.4314524014744716</v>
+            <v>2.8629048029489432</v>
           </cell>
           <cell r="X4">
-            <v>1.1891448147289605</v>
+            <v>2.378289629457921</v>
           </cell>
           <cell r="Y4">
-            <v>1.0916245957677362</v>
+            <v>2.1832491915354724</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>1.5028748470538118</v>
+            <v>3.0057496941076236</v>
           </cell>
           <cell r="C2">
-            <v>1.4614731411279769</v>
+            <v>2.9229462822559538</v>
           </cell>
           <cell r="D2">
-            <v>1.4521263317825455</v>
+            <v>2.9042526635650909</v>
           </cell>
           <cell r="E2">
-            <v>1.495954564770253</v>
+            <v>2.991909129540506</v>
           </cell>
           <cell r="F2">
-            <v>1.396732574148285</v>
+            <v>2.79346514829657</v>
           </cell>
           <cell r="G2">
-            <v>1.3985928490603468</v>
+            <v>2.7971856981206935</v>
           </cell>
           <cell r="H2">
-            <v>1.4403080126578183</v>
+            <v>2.8806160253156365</v>
           </cell>
           <cell r="I2">
-            <v>1.8695148104414507</v>
+            <v>3.7390296208829015</v>
           </cell>
           <cell r="J2">
-            <v>1.9450295084120937</v>
+            <v>3.8900590168241873</v>
           </cell>
           <cell r="K2">
-            <v>1.9075859505672041</v>
+            <v>3.8151719011344083</v>
           </cell>
           <cell r="L2">
-            <v>1.9206240819217419</v>
+            <v>3.8412481638434839</v>
           </cell>
           <cell r="M2">
-            <v>1.941760687404263</v>
+            <v>3.883521374808526</v>
           </cell>
           <cell r="N2">
-            <v>1.863803142795514</v>
+            <v>3.7276062855910279</v>
           </cell>
           <cell r="O2">
-            <v>1.9055369624739154</v>
+            <v>3.8110739249478307</v>
           </cell>
           <cell r="P2">
-            <v>1.6576398066476392</v>
+            <v>3.3152796132952784</v>
           </cell>
           <cell r="Q2">
-            <v>1.7833606326032574</v>
+            <v>3.5667212652065148</v>
           </cell>
           <cell r="R2">
-            <v>1.9008522457180574</v>
+            <v>3.8017044914361149</v>
           </cell>
           <cell r="S2">
-            <v>1.8718984840566537</v>
+            <v>3.7437969681133074</v>
           </cell>
           <cell r="T2">
-            <v>1.757687950165959</v>
+            <v>3.515375900331918</v>
           </cell>
           <cell r="U2">
-            <v>1.6592556158754963</v>
+            <v>3.3185112317509926</v>
           </cell>
           <cell r="V2">
-            <v>1.6643451052715559</v>
+            <v>3.3286902105431118</v>
           </cell>
           <cell r="W2">
-            <v>1.6385711875073192</v>
+            <v>3.2771423750146385</v>
           </cell>
           <cell r="X2">
-            <v>1.4218407440796528</v>
+            <v>2.8436814881593055</v>
           </cell>
           <cell r="Y2">
-            <v>1.4052306237327943</v>
+            <v>2.8104612474655886</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.0982194955265498</v>
+            <v>2.1964389910530997</v>
           </cell>
           <cell r="C3">
-            <v>1.0992961533233352</v>
+            <v>2.1985923066466704</v>
           </cell>
           <cell r="D3">
-            <v>1.0113238535593709</v>
+            <v>2.0226477071187419</v>
           </cell>
           <cell r="E3">
-            <v>1.0234182490048098</v>
+            <v>2.0468364980096196</v>
           </cell>
           <cell r="F3">
-            <v>1.0233647494921871</v>
+            <v>2.0467294989843743</v>
           </cell>
           <cell r="G3">
-            <v>1.114733119714407</v>
+            <v>2.2294662394288141</v>
           </cell>
           <cell r="H3">
-            <v>1.3571744737173816</v>
+            <v>2.7143489474347633</v>
           </cell>
           <cell r="I3">
-            <v>1.5533808956849171</v>
+            <v>3.1067617913698342</v>
           </cell>
           <cell r="J3">
-            <v>1.6549622878026164</v>
+            <v>3.3099245756052329</v>
           </cell>
           <cell r="K3">
-            <v>1.7745377248188348</v>
+            <v>3.5490754496376695</v>
           </cell>
           <cell r="L3">
-            <v>1.7186197382290347</v>
+            <v>3.4372394764580694</v>
           </cell>
           <cell r="M3">
-            <v>1.7285322087709161</v>
+            <v>3.4570644175418321</v>
           </cell>
           <cell r="N3">
-            <v>1.6005036202152909</v>
+            <v>3.2010072404305818</v>
           </cell>
           <cell r="O3">
-            <v>1.553152103563602</v>
+            <v>3.106304207127204</v>
           </cell>
           <cell r="P3">
-            <v>1.4176109947544588</v>
+            <v>2.8352219895089177</v>
           </cell>
           <cell r="Q3">
-            <v>1.4616106751208293</v>
+            <v>2.9232213502416586</v>
           </cell>
           <cell r="R3">
-            <v>1.625816048087195</v>
+            <v>3.2516320961743901</v>
           </cell>
           <cell r="S3">
-            <v>2.0033170274336003</v>
+            <v>4.0066340548672006</v>
           </cell>
           <cell r="T3">
-            <v>1.8891572794706055</v>
+            <v>3.778314558941211</v>
           </cell>
           <cell r="U3">
-            <v>1.7799281635565527</v>
+            <v>3.5598563271131054</v>
           </cell>
           <cell r="V3">
-            <v>1.6747713013556673</v>
+            <v>3.3495426027113346</v>
           </cell>
           <cell r="W3">
-            <v>1.5619569015106334</v>
+            <v>3.1239138030212668</v>
           </cell>
           <cell r="X3">
-            <v>1.4583846825321951</v>
+            <v>2.9167693650643902</v>
           </cell>
           <cell r="Y3">
-            <v>1.2900076023141609</v>
+            <v>2.5800152046283218</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.93553328832331806</v>
+            <v>1.8710665766466361</v>
           </cell>
           <cell r="C4">
-            <v>0.86202981809747214</v>
+            <v>1.7240596361949443</v>
           </cell>
           <cell r="D4">
-            <v>0.84267740951387016</v>
+            <v>1.6853548190277403</v>
           </cell>
           <cell r="E4">
-            <v>0.87768440513009938</v>
+            <v>1.7553688102601988</v>
           </cell>
           <cell r="F4">
-            <v>0.88594106813023066</v>
+            <v>1.7718821362604613</v>
           </cell>
           <cell r="G4">
-            <v>0.98286152846888297</v>
+            <v>1.9657230569377659</v>
           </cell>
           <cell r="H4">
-            <v>1.587323497298458</v>
+            <v>3.174646994596916</v>
           </cell>
           <cell r="I4">
-            <v>1.899047629872306</v>
+            <v>3.798095259744612</v>
           </cell>
           <cell r="J4">
-            <v>1.9642213679762763</v>
+            <v>3.9284427359525527</v>
           </cell>
           <cell r="K4">
-            <v>1.8829300528146151</v>
+            <v>3.7658601056292302</v>
           </cell>
           <cell r="L4">
-            <v>1.8507380682074028</v>
+            <v>3.7014761364148057</v>
           </cell>
           <cell r="M4">
-            <v>1.9294252363423974</v>
+            <v>3.8588504726847948</v>
           </cell>
           <cell r="N4">
-            <v>1.7886720275689481</v>
+            <v>3.5773440551378961</v>
           </cell>
           <cell r="O4">
-            <v>1.7552620647811203</v>
+            <v>3.5105241295622407</v>
           </cell>
           <cell r="P4">
-            <v>1.5181043126650684</v>
+            <v>3.0362086253301368</v>
           </cell>
           <cell r="Q4">
-            <v>1.5268026803594412</v>
+            <v>3.0536053607188824</v>
           </cell>
           <cell r="R4">
-            <v>1.5285403627046608</v>
+            <v>3.0570807254093215</v>
           </cell>
           <cell r="S4">
-            <v>1.6508568914623978</v>
+            <v>3.3017137829247956</v>
           </cell>
           <cell r="T4">
-            <v>1.5701727111893229</v>
+            <v>3.1403454223786458</v>
           </cell>
           <cell r="U4">
-            <v>1.6316899435917267</v>
+            <v>3.2633798871834534</v>
           </cell>
           <cell r="V4">
-            <v>1.5532171350029704</v>
+            <v>3.1064342700059409</v>
           </cell>
           <cell r="W4">
-            <v>1.4752723729481798</v>
+            <v>2.9505447458963596</v>
           </cell>
           <cell r="X4">
-            <v>1.1891448147289605</v>
+            <v>2.378289629457921</v>
           </cell>
           <cell r="Y4">
-            <v>1.0702201919291532</v>
+            <v>2.1404403838583064</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>0.47890223974499929</v>
+            <v>0.95780447948999858</v>
           </cell>
           <cell r="C2">
-            <v>0.33835252382797754</v>
+            <v>0.67670504765595507</v>
           </cell>
           <cell r="D2">
-            <v>0.2933152049997419</v>
+            <v>0.58663040999948379</v>
           </cell>
           <cell r="E2">
-            <v>0.37597920405262775</v>
+            <v>0.75195840810525549</v>
           </cell>
           <cell r="F2">
-            <v>0.32372919826989854</v>
+            <v>0.64745839653979709</v>
           </cell>
           <cell r="G2">
-            <v>0.26616064843137627</v>
+            <v>0.53232129686275254</v>
           </cell>
           <cell r="H2">
-            <v>0.22022093899442957</v>
+            <v>0.44044187798885914</v>
           </cell>
           <cell r="I2">
-            <v>0.76956963847288995</v>
+            <v>1.5391392769457799</v>
           </cell>
           <cell r="J2">
-            <v>0.80480896312760986</v>
+            <v>1.6096179262552197</v>
           </cell>
           <cell r="K2">
-            <v>0.69028862142358149</v>
+            <v>1.380577242847163</v>
           </cell>
           <cell r="L2">
-            <v>0.80423635899774992</v>
+            <v>1.6084727179954998</v>
           </cell>
           <cell r="M2">
-            <v>0.7472954774044559</v>
+            <v>1.4945909548089118</v>
           </cell>
           <cell r="N2">
-            <v>0.75058790130003716</v>
+            <v>1.5011758026000743</v>
           </cell>
           <cell r="O2">
-            <v>0.67024639439716782</v>
+            <v>1.3404927887943356</v>
           </cell>
           <cell r="P2">
-            <v>0.39772719374239196</v>
+            <v>0.79545438748478392</v>
           </cell>
           <cell r="Q2">
-            <v>0.62271862789681975</v>
+            <v>1.2454372557936395</v>
           </cell>
           <cell r="R2">
-            <v>0.7468549644815089</v>
+            <v>1.4937099289630178</v>
           </cell>
           <cell r="S2">
-            <v>0.69686247348348063</v>
+            <v>1.3937249469669613</v>
           </cell>
           <cell r="T2">
-            <v>0.48703811234401295</v>
+            <v>0.9740762246880259</v>
           </cell>
           <cell r="U2">
-            <v>0.50527310832686778</v>
+            <v>1.0105462166537356</v>
           </cell>
           <cell r="V2">
-            <v>0.47061775385582694</v>
+            <v>0.94123550771165387</v>
           </cell>
           <cell r="W2">
-            <v>0.29192797670682519</v>
+            <v>0.58385595341365037</v>
           </cell>
           <cell r="X2">
-            <v>0.23287275272605826</v>
+            <v>0.46574550545211651</v>
           </cell>
           <cell r="Y2">
-            <v>0.24136256822908222</v>
+            <v>0.48272513645816445</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.90706329414045361</v>
+            <v>-1.8141265882809072</v>
           </cell>
           <cell r="C3">
-            <v>-0.90686331208478954</v>
+            <v>-1.8137266241695791</v>
           </cell>
           <cell r="D3">
-            <v>-0.93188638208679642</v>
+            <v>-1.8637727641735928</v>
           </cell>
           <cell r="E3">
-            <v>-0.97457615514860096</v>
+            <v>-1.9491523102972019</v>
           </cell>
           <cell r="F3">
-            <v>-0.9652171751075308</v>
+            <v>-1.9304343502150616</v>
           </cell>
           <cell r="G3">
-            <v>-0.8858437567223697</v>
+            <v>-1.7716875134447394</v>
           </cell>
           <cell r="H3">
-            <v>-0.56169464433641803</v>
+            <v>-1.1233892886728361</v>
           </cell>
           <cell r="I3">
-            <v>-0.10797382505137376</v>
+            <v>-0.21594765010274752</v>
           </cell>
           <cell r="J3">
-            <v>-0.11603157050052083</v>
+            <v>-0.23206314100104167</v>
           </cell>
           <cell r="K3">
-            <v>-7.6894902043023891E-2</v>
+            <v>-0.15378980408604778</v>
           </cell>
           <cell r="L3">
-            <v>-6.7736534631667289E-2</v>
+            <v>-0.13547306926333458</v>
           </cell>
           <cell r="M3">
-            <v>-0.30230377526485008</v>
+            <v>-0.60460755052970017</v>
           </cell>
           <cell r="N3">
-            <v>-0.44163334533225668</v>
+            <v>-0.88326669066451335</v>
           </cell>
           <cell r="O3">
-            <v>-0.57250457526513832</v>
+            <v>-1.1450091505302766</v>
           </cell>
           <cell r="P3">
-            <v>-0.56820045696800536</v>
+            <v>-1.1364009139360107</v>
           </cell>
           <cell r="Q3">
-            <v>-0.57780941457865576</v>
+            <v>-1.1556188291573115</v>
           </cell>
           <cell r="R3">
-            <v>-0.45429518216203307</v>
+            <v>-0.90859036432406615</v>
           </cell>
           <cell r="S3">
-            <v>0.14931389940145909</v>
+            <v>0.29862779880291818</v>
           </cell>
           <cell r="T3">
-            <v>-2.1043517176296614E-2</v>
+            <v>-4.2087034352593228E-2</v>
           </cell>
           <cell r="U3">
-            <v>-0.24840401708098986</v>
+            <v>-0.49680803416197972</v>
           </cell>
           <cell r="V3">
-            <v>-0.46045102619620792</v>
+            <v>-0.92090205239241585</v>
           </cell>
           <cell r="W3">
-            <v>-0.60568502141609626</v>
+            <v>-1.2113700428321925</v>
           </cell>
           <cell r="X3">
-            <v>-0.664288771926411</v>
+            <v>-1.328577543852822</v>
           </cell>
           <cell r="Y3">
-            <v>-0.76057887058062168</v>
+            <v>-1.5211577411612434</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.86747691271318916</v>
+            <v>-1.7349538254263783</v>
           </cell>
           <cell r="C4">
-            <v>-0.9360101064383729</v>
+            <v>-1.8720202128767458</v>
           </cell>
           <cell r="D4">
-            <v>-0.95317858941066025</v>
+            <v>-1.9063571788213205</v>
           </cell>
           <cell r="E4">
-            <v>-0.94043138430237849</v>
+            <v>-1.880862768604757</v>
           </cell>
           <cell r="F4">
-            <v>-0.94121356618308449</v>
+            <v>-1.882427132366169</v>
           </cell>
           <cell r="G4">
-            <v>-0.78595362497722321</v>
+            <v>-1.5719072499544464</v>
           </cell>
           <cell r="H4">
-            <v>-2.9266571822498873E-2</v>
+            <v>-5.8533143644997745E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.40521130564053132</v>
+            <v>0.81042261128106263</v>
           </cell>
           <cell r="J4">
-            <v>0.51644938286443498</v>
+            <v>1.03289876572887</v>
           </cell>
           <cell r="K4">
-            <v>0.35977082407973482</v>
+            <v>0.71954164815946964</v>
           </cell>
           <cell r="L4">
-            <v>0.21241697122482392</v>
+            <v>0.42483394244964784</v>
           </cell>
           <cell r="M4">
-            <v>0.42133808863961802</v>
+            <v>0.84267617727923605</v>
           </cell>
           <cell r="N4">
-            <v>0.26567471301164131</v>
+            <v>0.53134942602328261</v>
           </cell>
           <cell r="O4">
-            <v>8.0603898986466901E-2</v>
+            <v>0.1612077979729338</v>
           </cell>
           <cell r="P4">
-            <v>-0.31888789627391856</v>
+            <v>-0.63777579254783712</v>
           </cell>
           <cell r="Q4">
-            <v>-0.31902359431659227</v>
+            <v>-0.63804718863318455</v>
           </cell>
           <cell r="R4">
-            <v>-0.26279844099096616</v>
+            <v>-0.52559688198193233</v>
           </cell>
           <cell r="S4">
-            <v>-0.13257650615196562</v>
+            <v>-0.26515301230393123</v>
           </cell>
           <cell r="T4">
-            <v>-0.32312346011453463</v>
+            <v>-0.64624692022906927</v>
           </cell>
           <cell r="U4">
-            <v>-0.1841067383404017</v>
+            <v>-0.3682134766808034</v>
           </cell>
           <cell r="V4">
-            <v>-0.25276872803133121</v>
+            <v>-0.50553745606266243</v>
           </cell>
           <cell r="W4">
-            <v>-0.41924618148211923</v>
+            <v>-0.83849236296423846</v>
           </cell>
           <cell r="X4">
-            <v>-0.66235113504173537</v>
+            <v>-1.3247022700834707</v>
           </cell>
           <cell r="Y4">
-            <v>-0.74768719427812047</v>
+            <v>-1.4953743885562409</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>0.48369126214244929</v>
+            <v>0.96738252428489857</v>
           </cell>
           <cell r="C2">
-            <v>0.33158547335141797</v>
+            <v>0.66317094670283594</v>
           </cell>
           <cell r="D2">
-            <v>0.29624835704973934</v>
+            <v>0.59249671409947868</v>
           </cell>
           <cell r="E2">
-            <v>0.37597920405262775</v>
+            <v>0.75195840810525549</v>
           </cell>
           <cell r="F2">
-            <v>0.3269664902525975</v>
+            <v>0.65393298050519499</v>
           </cell>
           <cell r="G2">
-            <v>0.26616064843137627</v>
+            <v>0.53232129686275254</v>
           </cell>
           <cell r="H2">
-            <v>0.22022093899442957</v>
+            <v>0.44044187798885914</v>
           </cell>
           <cell r="I2">
-            <v>0.77726533485761895</v>
+            <v>1.5545306697152379</v>
           </cell>
           <cell r="J2">
-            <v>0.80480896312760986</v>
+            <v>1.6096179262552197</v>
           </cell>
           <cell r="K2">
-            <v>0.6764828489951098</v>
+            <v>1.3529656979902196</v>
           </cell>
           <cell r="L2">
-            <v>0.80423635899774992</v>
+            <v>1.6084727179954998</v>
           </cell>
           <cell r="M2">
-            <v>0.76224138695254495</v>
+            <v>1.5244827739050899</v>
           </cell>
           <cell r="N2">
-            <v>0.75809378031303754</v>
+            <v>1.5161875606260751</v>
           </cell>
           <cell r="O2">
-            <v>0.67694885834113949</v>
+            <v>1.353897716682279</v>
           </cell>
           <cell r="P2">
-            <v>0.38977264986754412</v>
+            <v>0.77954529973508824</v>
           </cell>
           <cell r="Q2">
-            <v>0.61649144161785163</v>
+            <v>1.2329828832357033</v>
           </cell>
           <cell r="R2">
-            <v>0.7468549644815089</v>
+            <v>1.4937099289630178</v>
           </cell>
           <cell r="S2">
-            <v>0.69686247348348063</v>
+            <v>1.3937249469669613</v>
           </cell>
           <cell r="T2">
-            <v>0.48703811234401295</v>
+            <v>0.9740762246880259</v>
           </cell>
           <cell r="U2">
-            <v>0.51032583941013643</v>
+            <v>1.0206516788202729</v>
           </cell>
           <cell r="V2">
-            <v>0.46120539877871036</v>
+            <v>0.92241079755742073</v>
           </cell>
           <cell r="W2">
-            <v>0.29192797670682519</v>
+            <v>0.58385595341365037</v>
           </cell>
           <cell r="X2">
-            <v>0.2375302077805794</v>
+            <v>0.4750604155611588</v>
           </cell>
           <cell r="Y2">
-            <v>0.24618981959366387</v>
+            <v>0.49237963918732774</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.92520456002326268</v>
+            <v>-1.8504091200465254</v>
           </cell>
           <cell r="C3">
-            <v>-0.88872604584309367</v>
+            <v>-1.7774520916861873</v>
           </cell>
           <cell r="D3">
-            <v>-0.93188638208679631</v>
+            <v>-1.8637727641735926</v>
           </cell>
           <cell r="E3">
-            <v>-0.95508463204562899</v>
+            <v>-1.910169264091258</v>
           </cell>
           <cell r="F3">
-            <v>-0.9652171751075308</v>
+            <v>-1.9304343502150616</v>
           </cell>
           <cell r="G3">
-            <v>-0.8858437567223697</v>
+            <v>-1.7716875134447394</v>
           </cell>
           <cell r="H3">
-            <v>-0.56169464433641803</v>
+            <v>-1.1233892886728361</v>
           </cell>
           <cell r="I3">
-            <v>-0.1058143485503463</v>
+            <v>-0.2116286971006926</v>
           </cell>
           <cell r="J3">
-            <v>-0.11487125479551562</v>
+            <v>-0.22974250959103124</v>
           </cell>
           <cell r="K3">
-            <v>-7.8432800083884369E-2</v>
+            <v>-0.15686560016776874</v>
           </cell>
           <cell r="L3">
-            <v>-6.6381803939033951E-2</v>
+            <v>-0.1327636078780679</v>
           </cell>
           <cell r="M3">
-            <v>-0.30532681301749859</v>
+            <v>-0.61065362603499718</v>
           </cell>
           <cell r="N3">
-            <v>-0.44604967878557922</v>
+            <v>-0.89209935757115844</v>
           </cell>
           <cell r="O3">
-            <v>-0.56105448375983558</v>
+            <v>-1.1221089675196712</v>
           </cell>
           <cell r="P3">
-            <v>-0.56820045696800536</v>
+            <v>-1.1364009139360107</v>
           </cell>
           <cell r="Q3">
-            <v>-0.58936560287022888</v>
+            <v>-1.1787312057404578</v>
           </cell>
           <cell r="R3">
-            <v>-0.44520927851879244</v>
+            <v>-0.89041855703758488</v>
           </cell>
           <cell r="S3">
-            <v>0.15080703839547369</v>
+            <v>0.30161407679094737</v>
           </cell>
           <cell r="T3">
-            <v>-2.0833082004533647E-2</v>
+            <v>-4.1666164009067294E-2</v>
           </cell>
           <cell r="U3">
-            <v>-0.24840401708098989</v>
+            <v>-0.49680803416197977</v>
           </cell>
           <cell r="V3">
-            <v>-0.46505553645817005</v>
+            <v>-0.9301110729163401</v>
           </cell>
           <cell r="W3">
-            <v>-0.59962817120193523</v>
+            <v>-1.1992563424038705</v>
           </cell>
           <cell r="X3">
-            <v>-0.65100299648788285</v>
+            <v>-1.3020059929757657</v>
           </cell>
           <cell r="Y3">
-            <v>-0.76818465928642798</v>
+            <v>-1.536369318572856</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.87615168184032099</v>
+            <v>-1.752303363680642</v>
           </cell>
           <cell r="C4">
-            <v>-0.93601010643837279</v>
+            <v>-1.8720202128767456</v>
           </cell>
           <cell r="D4">
-            <v>-0.96271037530476689</v>
+            <v>-1.9254207506095338</v>
           </cell>
           <cell r="E4">
-            <v>-0.94983569814540236</v>
+            <v>-1.8996713962908047</v>
           </cell>
           <cell r="F4">
-            <v>-0.95062570184491535</v>
+            <v>-1.9012514036898307</v>
           </cell>
           <cell r="G4">
-            <v>-0.80167269747676773</v>
+            <v>-1.6033453949535355</v>
           </cell>
           <cell r="H4">
-            <v>-2.955923754072386E-2</v>
+            <v>-5.911847508144772E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.4133155317533419</v>
+            <v>0.82663106350668381</v>
           </cell>
           <cell r="J4">
-            <v>0.52161387669307935</v>
+            <v>1.0432277533861587</v>
           </cell>
           <cell r="K4">
-            <v>0.35257540759814016</v>
+            <v>0.70515081519628031</v>
           </cell>
           <cell r="L4">
-            <v>0.2166653106493204</v>
+            <v>0.43333062129864081</v>
           </cell>
           <cell r="M4">
-            <v>0.4171247077532218</v>
+            <v>0.8342494155064436</v>
           </cell>
           <cell r="N4">
-            <v>0.27098820727187412</v>
+            <v>0.54197641454374823</v>
           </cell>
           <cell r="O4">
-            <v>8.221597696619623E-2</v>
+            <v>0.16443195393239246</v>
           </cell>
           <cell r="P4">
-            <v>-0.32207677523665773</v>
+            <v>-0.64415355047331546</v>
           </cell>
           <cell r="Q4">
-            <v>-0.32540406620292406</v>
+            <v>-0.65080813240584812</v>
           </cell>
           <cell r="R4">
-            <v>-0.26805440981078549</v>
+            <v>-0.53610881962157098</v>
           </cell>
           <cell r="S4">
-            <v>-0.1299249760289263</v>
+            <v>-0.25984995205785261</v>
           </cell>
           <cell r="T4">
-            <v>-0.32312346011453463</v>
+            <v>-0.64624692022906927</v>
           </cell>
           <cell r="U4">
-            <v>-0.18042460357359366</v>
+            <v>-0.36084920714718732</v>
           </cell>
           <cell r="V4">
-            <v>-0.25276872803133121</v>
+            <v>-0.50553745606266243</v>
           </cell>
           <cell r="W4">
-            <v>-0.41086125785247679</v>
+            <v>-0.82172251570495358</v>
           </cell>
           <cell r="X4">
-            <v>-0.66235113504173537</v>
+            <v>-1.3247022700834707</v>
           </cell>
           <cell r="Y4">
-            <v>-0.73273345039255799</v>
+            <v>-1.465466900785116</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>0.48369126214244929</v>
+            <v>0.96738252428489857</v>
           </cell>
           <cell r="C2">
-            <v>0.34511957430453705</v>
+            <v>0.69023914860907409</v>
           </cell>
           <cell r="D2">
-            <v>0.28744890089974706</v>
+            <v>0.57489780179949412</v>
           </cell>
           <cell r="E2">
-            <v>0.36845961997157517</v>
+            <v>0.73691923994315034</v>
           </cell>
           <cell r="F2">
-            <v>0.33020378223529656</v>
+            <v>0.66040756447059312</v>
           </cell>
           <cell r="G2">
-            <v>0.26083743546274873</v>
+            <v>0.52167487092549747</v>
           </cell>
           <cell r="H2">
-            <v>0.22462535777431816</v>
+            <v>0.44925071554863633</v>
           </cell>
           <cell r="I2">
-            <v>0.75417824570343217</v>
+            <v>1.5083564914068643</v>
           </cell>
           <cell r="J2">
-            <v>0.81285705275888587</v>
+            <v>1.6257141055177717</v>
           </cell>
           <cell r="K2">
-            <v>0.69719150763781723</v>
+            <v>1.3943830152756345</v>
           </cell>
           <cell r="L2">
-            <v>0.81227872258772749</v>
+            <v>1.624557445175455</v>
           </cell>
           <cell r="M2">
-            <v>0.75476843217850043</v>
+            <v>1.5095368643570009</v>
           </cell>
           <cell r="N2">
-            <v>0.73557614327403642</v>
+            <v>1.4711522865480728</v>
           </cell>
           <cell r="O2">
-            <v>0.66354393045319615</v>
+            <v>1.3270878609063923</v>
           </cell>
           <cell r="P2">
-            <v>0.40170446567981588</v>
+            <v>0.80340893135963176</v>
           </cell>
           <cell r="Q2">
-            <v>0.62271862789681975</v>
+            <v>1.2454372557936395</v>
           </cell>
           <cell r="R2">
-            <v>0.75432351412632404</v>
+            <v>1.5086470282526481</v>
           </cell>
           <cell r="S2">
-            <v>0.70383109821831535</v>
+            <v>1.4076621964366307</v>
           </cell>
           <cell r="T2">
-            <v>0.48216773122057283</v>
+            <v>0.96433546244114565</v>
           </cell>
           <cell r="U2">
-            <v>0.51537857049340519</v>
+            <v>1.0307571409868104</v>
           </cell>
           <cell r="V2">
-            <v>0.47061775385582694</v>
+            <v>0.94123550771165387</v>
           </cell>
           <cell r="W2">
-            <v>0.28900869693975695</v>
+            <v>0.5780173938795139</v>
           </cell>
           <cell r="X2">
-            <v>0.22821529767153709</v>
+            <v>0.45643059534307417</v>
           </cell>
           <cell r="Y2">
-            <v>0.24377619391137306</v>
+            <v>0.48755238782274612</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-0.91613392708185815</v>
+            <v>-1.8322678541637163</v>
           </cell>
           <cell r="C3">
-            <v>-0.90686331208478943</v>
+            <v>-1.8137266241695789</v>
           </cell>
           <cell r="D3">
-            <v>-0.93188638208679631</v>
+            <v>-1.8637727641735926</v>
           </cell>
           <cell r="E3">
-            <v>-0.98432191670008695</v>
+            <v>-1.9686438334001739</v>
           </cell>
           <cell r="F3">
-            <v>-0.9845215186096814</v>
+            <v>-1.9690430372193628</v>
           </cell>
           <cell r="G3">
-            <v>-0.89470219428959341</v>
+            <v>-1.7894043885791868</v>
           </cell>
           <cell r="H3">
-            <v>-0.57292853722314641</v>
+            <v>-1.1458570744462928</v>
           </cell>
           <cell r="I3">
-            <v>-0.10689408680086002</v>
+            <v>-0.21378817360172003</v>
           </cell>
           <cell r="J3">
-            <v>-0.11603157050052083</v>
+            <v>-0.23206314100104167</v>
           </cell>
           <cell r="K3">
-            <v>-7.5357004002163414E-2</v>
+            <v>-0.15071400800432683</v>
           </cell>
           <cell r="L3">
-            <v>-6.6381803939033951E-2</v>
+            <v>-0.1327636078780679</v>
           </cell>
           <cell r="M3">
-            <v>-0.30230377526485008</v>
+            <v>-0.60460755052970017</v>
           </cell>
           <cell r="N3">
-            <v>-0.43721701187893408</v>
+            <v>-0.87443402375786816</v>
           </cell>
           <cell r="O3">
-            <v>-0.57822962101778974</v>
+            <v>-1.1564592420355795</v>
           </cell>
           <cell r="P3">
-            <v>-0.57956446610736545</v>
+            <v>-1.1591289322147309</v>
           </cell>
           <cell r="Q3">
-            <v>-0.58936560287022888</v>
+            <v>-1.1787312057404578</v>
           </cell>
           <cell r="R3">
-            <v>-0.44520927851879244</v>
+            <v>-0.89041855703758488</v>
           </cell>
           <cell r="S3">
-            <v>0.14632762141342989</v>
+            <v>0.29265524282685978</v>
           </cell>
           <cell r="T3">
-            <v>-2.0833082004533647E-2</v>
+            <v>-4.1666164009067294E-2</v>
           </cell>
           <cell r="U3">
-            <v>-0.25337209742260969</v>
+            <v>-0.50674419484521938</v>
           </cell>
           <cell r="V3">
-            <v>-0.4558465159342458</v>
+            <v>-0.9116930318684916</v>
           </cell>
           <cell r="W3">
-            <v>-0.61174187163025717</v>
+            <v>-1.2234837432605143</v>
           </cell>
           <cell r="X3">
-            <v>-0.67757454736493927</v>
+            <v>-1.3551490947298785</v>
           </cell>
           <cell r="Y3">
-            <v>-0.76057887058062168</v>
+            <v>-1.5211577411612434</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.87615168184032099</v>
+            <v>-1.752303363680642</v>
           </cell>
           <cell r="C4">
-            <v>-0.93601010643837279</v>
+            <v>-1.8720202128767456</v>
           </cell>
           <cell r="D4">
-            <v>-0.96271037530476689</v>
+            <v>-1.9254207506095338</v>
           </cell>
           <cell r="E4">
-            <v>-0.94043138430237849</v>
+            <v>-1.880862768604757</v>
           </cell>
           <cell r="F4">
-            <v>-0.92238929485942278</v>
+            <v>-1.8447785897188456</v>
           </cell>
           <cell r="G4">
-            <v>-0.78595362497722321</v>
+            <v>-1.5719072499544464</v>
           </cell>
           <cell r="H4">
-            <v>-2.955923754072386E-2</v>
+            <v>-5.911847508144772E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.40115919258412602</v>
+            <v>0.80231838516825205</v>
           </cell>
           <cell r="J4">
-            <v>0.51644938286443498</v>
+            <v>1.03289876572887</v>
           </cell>
           <cell r="K4">
-            <v>0.36696624056132954</v>
+            <v>0.73393248112265908</v>
           </cell>
           <cell r="L4">
-            <v>0.20816863180032744</v>
+            <v>0.41633726360065487</v>
           </cell>
           <cell r="M4">
-            <v>0.4171247077532218</v>
+            <v>0.8342494155064436</v>
           </cell>
           <cell r="N4">
-            <v>0.26301796588152487</v>
+            <v>0.52603593176304975</v>
           </cell>
           <cell r="O4">
-            <v>8.0603898986466901E-2</v>
+            <v>0.1612077979729338</v>
           </cell>
           <cell r="P4">
-            <v>-0.32207677523665773</v>
+            <v>-0.64415355047331546</v>
           </cell>
           <cell r="Q4">
-            <v>-0.31583335837342635</v>
+            <v>-0.63166671674685271</v>
           </cell>
           <cell r="R4">
-            <v>-0.26017045658105653</v>
+            <v>-0.52034091316211306</v>
           </cell>
           <cell r="S4">
-            <v>-0.13522803627500493</v>
+            <v>-0.27045607255000986</v>
           </cell>
           <cell r="T4">
-            <v>-0.32958592931682529</v>
+            <v>-0.65917185863365058</v>
           </cell>
           <cell r="U4">
-            <v>-0.18042460357359366</v>
+            <v>-0.36084920714718732</v>
           </cell>
           <cell r="V4">
-            <v>-0.24771335347070458</v>
+            <v>-0.49542670694140917</v>
           </cell>
           <cell r="W4">
-            <v>-0.41505371966729804</v>
+            <v>-0.83010743933459608</v>
           </cell>
           <cell r="X4">
-            <v>-0.66235113504173537</v>
+            <v>-1.3247022700834707</v>
           </cell>
           <cell r="Y4">
-            <v>-0.74768719427812047</v>
+            <v>-1.4953743885562409</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>1.5500000000000003</v>
+            <v>3.1000000000000005</v>
           </cell>
           <cell r="C2">
-            <v>1.5348837209302328</v>
+            <v>3.0697674418604657</v>
           </cell>
           <cell r="D2">
-            <v>1.4784883720930233</v>
+            <v>2.9569767441860466</v>
           </cell>
           <cell r="E2">
-            <v>1.4517441860465117</v>
+            <v>2.9034883720930234</v>
           </cell>
           <cell r="F2">
-            <v>1.4412790697674418</v>
+            <v>2.8825581395348836</v>
           </cell>
           <cell r="G2">
-            <v>1.4627906976744187</v>
+            <v>2.9255813953488374</v>
           </cell>
           <cell r="H2">
-            <v>1.4500000000000002</v>
+            <v>2.9000000000000004</v>
           </cell>
           <cell r="I2">
-            <v>1.7732558139534884</v>
+            <v>3.5465116279069768</v>
           </cell>
           <cell r="J2">
-            <v>1.907558139534884</v>
+            <v>3.8151162790697679</v>
           </cell>
           <cell r="K2">
-            <v>1.8825581395348836</v>
+            <v>3.7651162790697672</v>
           </cell>
           <cell r="L2">
-            <v>1.8517441860465118</v>
+            <v>3.7034883720930236</v>
           </cell>
           <cell r="M2">
-            <v>1.8744186046511631</v>
+            <v>3.7488372093023261</v>
           </cell>
           <cell r="N2">
-            <v>1.9436046511627911</v>
+            <v>3.8872093023255823</v>
           </cell>
           <cell r="O2">
-            <v>1.9069767441860463</v>
+            <v>3.8139534883720927</v>
           </cell>
           <cell r="P2">
-            <v>1.7587209302325582</v>
+            <v>3.5174418604651163</v>
           </cell>
           <cell r="Q2">
-            <v>1.8127906976744186</v>
+            <v>3.6255813953488372</v>
           </cell>
           <cell r="R2">
-            <v>1.8337209302325581</v>
+            <v>3.6674418604651162</v>
           </cell>
           <cell r="S2">
-            <v>1.7732558139534884</v>
+            <v>3.5465116279069768</v>
           </cell>
           <cell r="T2">
-            <v>1.6837209302325582</v>
+            <v>3.3674418604651164</v>
           </cell>
           <cell r="U2">
-            <v>1.6622093023255815</v>
+            <v>3.324418604651163</v>
           </cell>
           <cell r="V2">
-            <v>1.6569767441860466</v>
+            <v>3.3139534883720931</v>
           </cell>
           <cell r="W2">
-            <v>1.6383720930232559</v>
+            <v>3.2767441860465119</v>
           </cell>
           <cell r="X2">
-            <v>1.5139534883720933</v>
+            <v>3.0279069767441866</v>
           </cell>
           <cell r="Y2">
-            <v>1.4639534883720933</v>
+            <v>2.9279069767441865</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.3705357142857142</v>
+            <v>2.7410714285714284</v>
           </cell>
           <cell r="C3">
-            <v>1.292410714285714</v>
+            <v>2.5848214285714279</v>
           </cell>
           <cell r="D3">
-            <v>1.2410714285714284</v>
+            <v>2.4821428571428568</v>
           </cell>
           <cell r="E3">
-            <v>1.1316964285714286</v>
+            <v>2.2633928571428572</v>
           </cell>
           <cell r="F3">
-            <v>1.0892857142857142</v>
+            <v>2.1785714285714284</v>
           </cell>
           <cell r="G3">
-            <v>1.1450892857142856</v>
+            <v>2.2901785714285712</v>
           </cell>
           <cell r="H3">
-            <v>1.21875</v>
+            <v>2.4375</v>
           </cell>
           <cell r="I3">
-            <v>1.636160714285714</v>
+            <v>3.2723214285714279</v>
           </cell>
           <cell r="J3">
-            <v>1.7857142857142856</v>
+            <v>3.5714285714285712</v>
           </cell>
           <cell r="K3">
-            <v>1.9040178571428572</v>
+            <v>3.8080357142857144</v>
           </cell>
           <cell r="L3">
-            <v>1.7366071428571428</v>
+            <v>3.4732142857142856</v>
           </cell>
           <cell r="M3">
-            <v>1.8236607142857142</v>
+            <v>3.6473214285714284</v>
           </cell>
           <cell r="N3">
-            <v>1.825892857142857</v>
+            <v>3.651785714285714</v>
           </cell>
           <cell r="O3">
-            <v>1.78125</v>
+            <v>3.5625</v>
           </cell>
           <cell r="P3">
-            <v>1.53125</v>
+            <v>3.0625</v>
           </cell>
           <cell r="Q3">
-            <v>1.5959821428571428</v>
+            <v>3.1919642857142856</v>
           </cell>
           <cell r="R3">
-            <v>1.6897321428571428</v>
+            <v>3.3794642857142856</v>
           </cell>
           <cell r="S3">
-            <v>1.683035714285714</v>
+            <v>3.3660714285714279</v>
           </cell>
           <cell r="T3">
-            <v>1.7544642857142854</v>
+            <v>3.5089285714285707</v>
           </cell>
           <cell r="U3">
-            <v>1.8482142857142854</v>
+            <v>3.6964285714285707</v>
           </cell>
           <cell r="V3">
-            <v>1.9330357142857142</v>
+            <v>3.8660714285714284</v>
           </cell>
           <cell r="W3">
-            <v>1.7745535714285714</v>
+            <v>3.5491071428571428</v>
           </cell>
           <cell r="X3">
-            <v>1.5245535714285712</v>
+            <v>3.0491071428571423</v>
           </cell>
           <cell r="Y3">
-            <v>1.4084821428571428</v>
+            <v>2.8169642857142856</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.1213826366559485</v>
+            <v>2.242765273311897</v>
           </cell>
           <cell r="C4">
-            <v>1.0538585209003215</v>
+            <v>2.107717041800643</v>
           </cell>
           <cell r="D4">
-            <v>0.9710610932475886</v>
+            <v>1.9421221864951772</v>
           </cell>
           <cell r="E4">
-            <v>1.0104501607717042</v>
+            <v>2.0209003215434085</v>
           </cell>
           <cell r="F4">
-            <v>0.99196141479099686</v>
+            <v>1.9839228295819937</v>
           </cell>
           <cell r="G4">
-            <v>1.0120578778135048</v>
+            <v>2.0241157556270095</v>
           </cell>
           <cell r="H4">
-            <v>1.4348874598070742</v>
+            <v>2.8697749196141484</v>
           </cell>
           <cell r="I4">
-            <v>1.836816720257235</v>
+            <v>3.6736334405144699</v>
           </cell>
           <cell r="J4">
-            <v>1.92524115755627</v>
+            <v>3.85048231511254</v>
           </cell>
           <cell r="K4">
-            <v>1.8054662379421222</v>
+            <v>3.6109324758842445</v>
           </cell>
           <cell r="L4">
-            <v>1.7668810289389068</v>
+            <v>3.5337620578778135</v>
           </cell>
           <cell r="M4">
-            <v>1.89951768488746</v>
+            <v>3.79903536977492</v>
           </cell>
           <cell r="N4">
-            <v>1.9863344051446947</v>
+            <v>3.9726688102893895</v>
           </cell>
           <cell r="O4">
-            <v>1.8440514469453377</v>
+            <v>3.6881028938906755</v>
           </cell>
           <cell r="P4">
-            <v>1.681672025723473</v>
+            <v>3.3633440514469459</v>
           </cell>
           <cell r="Q4">
-            <v>1.594855305466238</v>
+            <v>3.189710610932476</v>
           </cell>
           <cell r="R4">
-            <v>1.630225080385852</v>
+            <v>3.260450160771704</v>
           </cell>
           <cell r="S4">
-            <v>1.57475884244373</v>
+            <v>3.14951768488746</v>
           </cell>
           <cell r="T4">
-            <v>1.5385852090032155</v>
+            <v>3.077170418006431</v>
           </cell>
           <cell r="U4">
-            <v>1.6768488745980707</v>
+            <v>3.3536977491961415</v>
           </cell>
           <cell r="V4">
-            <v>1.7564308681672027</v>
+            <v>3.5128617363344055</v>
           </cell>
           <cell r="W4">
-            <v>1.6390675241157557</v>
+            <v>3.2781350482315115</v>
           </cell>
           <cell r="X4">
-            <v>1.4364951768488745</v>
+            <v>2.872990353697749</v>
           </cell>
           <cell r="Y4">
-            <v>1.196945337620579</v>
+            <v>2.393890675241158</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>1.5655000000000003</v>
+            <v>3.1310000000000007</v>
           </cell>
           <cell r="C2">
-            <v>1.5348837209302328</v>
+            <v>3.0697674418604657</v>
           </cell>
           <cell r="D2">
-            <v>1.4489186046511628</v>
+            <v>2.8978372093023257</v>
           </cell>
           <cell r="E2">
-            <v>1.4517441860465119</v>
+            <v>2.9034883720930238</v>
           </cell>
           <cell r="F2">
-            <v>1.4124534883720929</v>
+            <v>2.8249069767441859</v>
           </cell>
           <cell r="G2">
-            <v>1.4627906976744187</v>
+            <v>2.9255813953488374</v>
           </cell>
           <cell r="H2">
-            <v>1.4790000000000001</v>
+            <v>2.9580000000000002</v>
           </cell>
           <cell r="I2">
-            <v>1.7732558139534884</v>
+            <v>3.5465116279069768</v>
           </cell>
           <cell r="J2">
-            <v>1.9266337209302327</v>
+            <v>3.8532674418604653</v>
           </cell>
           <cell r="K2">
-            <v>1.8825581395348836</v>
+            <v>3.7651162790697672</v>
           </cell>
           <cell r="L2">
-            <v>1.8332267441860466</v>
+            <v>3.6664534883720932</v>
           </cell>
           <cell r="M2">
-            <v>1.8369302325581398</v>
+            <v>3.6738604651162796</v>
           </cell>
           <cell r="N2">
-            <v>1.9047325581395353</v>
+            <v>3.8094651162790707</v>
           </cell>
           <cell r="O2">
-            <v>1.9451162790697674</v>
+            <v>3.8902325581395347</v>
           </cell>
           <cell r="P2">
-            <v>1.7938953488372094</v>
+            <v>3.5877906976744187</v>
           </cell>
           <cell r="Q2">
-            <v>1.8309186046511627</v>
+            <v>3.6618372093023255</v>
           </cell>
           <cell r="R2">
-            <v>1.8520581395348836</v>
+            <v>3.7041162790697673</v>
           </cell>
           <cell r="S2">
-            <v>1.7377906976744186</v>
+            <v>3.4755813953488373</v>
           </cell>
           <cell r="T2">
-            <v>1.7173953488372096</v>
+            <v>3.4347906976744191</v>
           </cell>
           <cell r="U2">
-            <v>1.6455872093023256</v>
+            <v>3.2911744186046512</v>
           </cell>
           <cell r="V2">
-            <v>1.6735465116279071</v>
+            <v>3.3470930232558143</v>
           </cell>
           <cell r="W2">
-            <v>1.6383720930232559</v>
+            <v>3.2767441860465119</v>
           </cell>
           <cell r="X2">
-            <v>1.5442325581395351</v>
+            <v>3.0884651162790702</v>
           </cell>
           <cell r="Y2">
-            <v>1.4932325581395351</v>
+            <v>2.9864651162790703</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.3705357142857142</v>
+            <v>2.7410714285714284</v>
           </cell>
           <cell r="C3">
-            <v>1.292410714285714</v>
+            <v>2.5848214285714279</v>
           </cell>
           <cell r="D3">
-            <v>1.2286607142857142</v>
+            <v>2.4573214285714284</v>
           </cell>
           <cell r="E3">
-            <v>1.1430133928571429</v>
+            <v>2.2860267857142857</v>
           </cell>
           <cell r="F3">
-            <v>1.0892857142857142</v>
+            <v>2.1785714285714284</v>
           </cell>
           <cell r="G3">
-            <v>1.1679910714285713</v>
+            <v>2.3359821428571426</v>
           </cell>
           <cell r="H3">
-            <v>1.2065625</v>
+            <v>2.413125</v>
           </cell>
           <cell r="I3">
-            <v>1.619799107142857</v>
+            <v>3.239598214285714</v>
           </cell>
           <cell r="J3">
-            <v>1.8035714285714284</v>
+            <v>3.6071428571428568</v>
           </cell>
           <cell r="K3">
-            <v>1.8849776785714285</v>
+            <v>3.769955357142857</v>
           </cell>
           <cell r="L3">
-            <v>1.7539732142857141</v>
+            <v>3.5079464285714281</v>
           </cell>
           <cell r="M3">
-            <v>1.8236607142857142</v>
+            <v>3.6473214285714284</v>
           </cell>
           <cell r="N3">
-            <v>1.8624107142857143</v>
+            <v>3.7248214285714285</v>
           </cell>
           <cell r="O3">
-            <v>1.78125</v>
+            <v>3.5625</v>
           </cell>
           <cell r="P3">
-            <v>1.5006250000000001</v>
+            <v>3.0012500000000002</v>
           </cell>
           <cell r="Q3">
-            <v>1.5959821428571428</v>
+            <v>3.1919642857142856</v>
           </cell>
           <cell r="R3">
-            <v>1.7066294642857143</v>
+            <v>3.4132589285714285</v>
           </cell>
           <cell r="S3">
-            <v>1.6998660714285712</v>
+            <v>3.3997321428571423</v>
           </cell>
           <cell r="T3">
-            <v>1.7895535714285711</v>
+            <v>3.5791071428571422</v>
           </cell>
           <cell r="U3">
-            <v>1.8112499999999998</v>
+            <v>3.6224999999999996</v>
           </cell>
           <cell r="V3">
-            <v>1.9137053571428568</v>
+            <v>3.8274107142857137</v>
           </cell>
           <cell r="W3">
-            <v>1.8100446428571428</v>
+            <v>3.6200892857142857</v>
           </cell>
           <cell r="X3">
-            <v>1.5093080357142856</v>
+            <v>3.0186160714285712</v>
           </cell>
           <cell r="Y3">
-            <v>1.3803125000000001</v>
+            <v>2.7606250000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.0989549839228296</v>
+            <v>2.1979099678456593</v>
           </cell>
           <cell r="C4">
-            <v>1.0749356913183279</v>
+            <v>2.1498713826366558</v>
           </cell>
           <cell r="D4">
-            <v>0.96135048231511278</v>
+            <v>1.9227009646302256</v>
           </cell>
           <cell r="E4">
-            <v>1.0003456591639872</v>
+            <v>2.0006913183279744</v>
           </cell>
           <cell r="F4">
-            <v>1.0118006430868167</v>
+            <v>2.0236012861736334</v>
           </cell>
           <cell r="G4">
-            <v>0.99181672025723477</v>
+            <v>1.9836334405144695</v>
           </cell>
           <cell r="H4">
-            <v>1.4061897106109327</v>
+            <v>2.8123794212218653</v>
           </cell>
           <cell r="I4">
-            <v>1.8735530546623798</v>
+            <v>3.7471061093247595</v>
           </cell>
           <cell r="J4">
-            <v>1.9059887459807072</v>
+            <v>3.8119774919614144</v>
           </cell>
           <cell r="K4">
-            <v>1.8235209003215433</v>
+            <v>3.6470418006430867</v>
           </cell>
           <cell r="L4">
-            <v>1.766881028938907</v>
+            <v>3.5337620578778139</v>
           </cell>
           <cell r="M4">
-            <v>1.8615273311897107</v>
+            <v>3.7230546623794214</v>
           </cell>
           <cell r="N4">
-            <v>1.9863344051446947</v>
+            <v>3.9726688102893895</v>
           </cell>
           <cell r="O4">
-            <v>1.807170418006431</v>
+            <v>3.6143408360128619</v>
           </cell>
           <cell r="P4">
-            <v>1.681672025723473</v>
+            <v>3.3633440514469459</v>
           </cell>
           <cell r="Q4">
-            <v>1.6108038585209004</v>
+            <v>3.2216077170418007</v>
           </cell>
           <cell r="R4">
-            <v>1.6139228295819936</v>
+            <v>3.2278456591639872</v>
           </cell>
           <cell r="S4">
-            <v>1.5432636655948553</v>
+            <v>3.0865273311897106</v>
           </cell>
           <cell r="T4">
-            <v>1.5231993569131834</v>
+            <v>3.0463987138263668</v>
           </cell>
           <cell r="U4">
-            <v>1.7103858520900324</v>
+            <v>3.4207717041800647</v>
           </cell>
           <cell r="V4">
-            <v>1.7388665594855308</v>
+            <v>3.4777331189710616</v>
           </cell>
           <cell r="W4">
-            <v>1.6718488745980706</v>
+            <v>3.3436977491961413</v>
           </cell>
           <cell r="X4">
-            <v>1.4364951768488745</v>
+            <v>2.872990353697749</v>
           </cell>
           <cell r="Y4">
-            <v>1.2089147909967848</v>
+            <v>2.4178295819935696</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>1.5655000000000003</v>
+            <v>3.1310000000000007</v>
           </cell>
           <cell r="C2">
-            <v>1.5655813953488376</v>
+            <v>3.1311627906976751</v>
           </cell>
           <cell r="D2">
-            <v>1.4489186046511628</v>
+            <v>2.8978372093023257</v>
           </cell>
           <cell r="E2">
-            <v>1.4807790697674419</v>
+            <v>2.9615581395348838</v>
           </cell>
           <cell r="F2">
-            <v>1.4124534883720929</v>
+            <v>2.8249069767441859</v>
           </cell>
           <cell r="G2">
-            <v>1.4481627906976746</v>
+            <v>2.8963255813953492</v>
           </cell>
           <cell r="H2">
-            <v>1.4500000000000002</v>
+            <v>2.9000000000000004</v>
           </cell>
           <cell r="I2">
-            <v>1.8087209302325582</v>
+            <v>3.6174418604651164</v>
           </cell>
           <cell r="J2">
-            <v>1.8694069767441863</v>
+            <v>3.7388139534883726</v>
           </cell>
           <cell r="K2">
-            <v>1.8637325581395348</v>
+            <v>3.7274651162790695</v>
           </cell>
           <cell r="L2">
-            <v>1.870261627906977</v>
+            <v>3.7405232558139541</v>
           </cell>
           <cell r="M2">
-            <v>1.8744186046511631</v>
+            <v>3.7488372093023261</v>
           </cell>
           <cell r="N2">
-            <v>1.9241686046511632</v>
+            <v>3.8483372093023265</v>
           </cell>
           <cell r="O2">
-            <v>1.8688372093023253</v>
+            <v>3.7376744186046507</v>
           </cell>
           <cell r="P2">
-            <v>1.7411337209302327</v>
+            <v>3.4822674418604653</v>
           </cell>
           <cell r="Q2">
-            <v>1.8490465116279069</v>
+            <v>3.6980930232558138</v>
           </cell>
           <cell r="R2">
-            <v>1.8520581395348836</v>
+            <v>3.7041162790697673</v>
           </cell>
           <cell r="S2">
-            <v>1.7377906976744186</v>
+            <v>3.4755813953488373</v>
           </cell>
           <cell r="T2">
-            <v>1.6837209302325582</v>
+            <v>3.3674418604651164</v>
           </cell>
           <cell r="U2">
-            <v>1.6455872093023256</v>
+            <v>3.2911744186046512</v>
           </cell>
           <cell r="V2">
-            <v>1.640406976744186</v>
+            <v>3.280813953488372</v>
           </cell>
           <cell r="W2">
-            <v>1.671139534883721</v>
+            <v>3.342279069767442</v>
           </cell>
           <cell r="X2">
-            <v>1.5442325581395353</v>
+            <v>3.0884651162790706</v>
           </cell>
           <cell r="Y2">
-            <v>1.4493139534883723</v>
+            <v>2.8986279069767447</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.3842410714285713</v>
+            <v>2.7684821428571427</v>
           </cell>
           <cell r="C3">
-            <v>1.3053348214285712</v>
+            <v>2.6106696428571423</v>
           </cell>
           <cell r="D3">
-            <v>1.2410714285714284</v>
+            <v>2.4821428571428568</v>
           </cell>
           <cell r="E3">
-            <v>1.1543303571428571</v>
+            <v>2.3086607142857143</v>
           </cell>
           <cell r="F3">
-            <v>1.0783928571428569</v>
+            <v>2.1567857142857139</v>
           </cell>
           <cell r="G3">
-            <v>1.1336383928571427</v>
+            <v>2.2672767857142855</v>
           </cell>
           <cell r="H3">
-            <v>1.2309375</v>
+            <v>2.461875</v>
           </cell>
           <cell r="I3">
-            <v>1.6034374999999996</v>
+            <v>3.2068749999999993</v>
           </cell>
           <cell r="J3">
-            <v>1.7499999999999998</v>
+            <v>3.4999999999999996</v>
           </cell>
           <cell r="K3">
-            <v>1.9230580357142857</v>
+            <v>3.8461160714285714</v>
           </cell>
           <cell r="L3">
-            <v>1.7018749999999998</v>
+            <v>3.4037499999999996</v>
           </cell>
           <cell r="M3">
-            <v>1.8236607142857142</v>
+            <v>3.6473214285714284</v>
           </cell>
           <cell r="N3">
-            <v>1.8076339285714285</v>
+            <v>3.6152678571428569</v>
           </cell>
           <cell r="O3">
-            <v>1.78125</v>
+            <v>3.5625</v>
           </cell>
           <cell r="P3">
-            <v>1.5159374999999999</v>
+            <v>3.0318749999999999</v>
           </cell>
           <cell r="Q3">
-            <v>1.6119419642857142</v>
+            <v>3.2238839285714285</v>
           </cell>
           <cell r="R3">
-            <v>1.7235267857142857</v>
+            <v>3.4470535714285715</v>
           </cell>
           <cell r="S3">
-            <v>1.6998660714285712</v>
+            <v>3.3997321428571423</v>
           </cell>
           <cell r="T3">
-            <v>1.7193749999999997</v>
+            <v>3.4387499999999993</v>
           </cell>
           <cell r="U3">
-            <v>1.8482142857142854</v>
+            <v>3.6964285714285707</v>
           </cell>
           <cell r="V3">
-            <v>1.8943749999999999</v>
+            <v>3.7887499999999998</v>
           </cell>
           <cell r="W3">
-            <v>1.7745535714285714</v>
+            <v>3.5491071428571428</v>
           </cell>
           <cell r="X3">
-            <v>1.5245535714285712</v>
+            <v>3.0491071428571423</v>
           </cell>
           <cell r="Y3">
-            <v>1.4225669642857142</v>
+            <v>2.8451339285714283</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.132596463022508</v>
+            <v>2.2651929260450161</v>
           </cell>
           <cell r="C4">
-            <v>1.0327813504823151</v>
+            <v>2.0655627009646302</v>
           </cell>
           <cell r="D4">
-            <v>0.99048231511254037</v>
+            <v>1.9809646302250807</v>
           </cell>
           <cell r="E4">
-            <v>1.0205546623794213</v>
+            <v>2.0411093247588425</v>
           </cell>
           <cell r="F4">
-            <v>0.98204180064308688</v>
+            <v>1.9640836012861738</v>
           </cell>
           <cell r="G4">
-            <v>0.99181672025723466</v>
+            <v>1.9836334405144693</v>
           </cell>
           <cell r="H4">
-            <v>1.4635852090032158</v>
+            <v>2.9271704180064315</v>
           </cell>
           <cell r="I4">
-            <v>1.8551848874598074</v>
+            <v>3.7103697749196147</v>
           </cell>
           <cell r="J4">
-            <v>1.9059887459807072</v>
+            <v>3.8119774919614144</v>
           </cell>
           <cell r="K4">
-            <v>1.8415755627009647</v>
+            <v>3.6831511254019293</v>
           </cell>
           <cell r="L4">
-            <v>1.7315434083601287</v>
+            <v>3.4630868167202573</v>
           </cell>
           <cell r="M4">
-            <v>1.9375080385852093</v>
+            <v>3.8750160771704185</v>
           </cell>
           <cell r="N4">
-            <v>2.0260610932475887</v>
+            <v>4.0521221864951773</v>
           </cell>
           <cell r="O4">
-            <v>1.807170418006431</v>
+            <v>3.6143408360128619</v>
           </cell>
           <cell r="P4">
-            <v>1.6648553054662383</v>
+            <v>3.3297106109324766</v>
           </cell>
           <cell r="Q4">
-            <v>1.6267524115755627</v>
+            <v>3.2535048231511254</v>
           </cell>
           <cell r="R4">
-            <v>1.662829581993569</v>
+            <v>3.325659163987138</v>
           </cell>
           <cell r="S4">
-            <v>1.5432636655948553</v>
+            <v>3.0865273311897106</v>
           </cell>
           <cell r="T4">
-            <v>1.5693569131832799</v>
+            <v>3.1387138263665597</v>
           </cell>
           <cell r="U4">
-            <v>1.6600803858520901</v>
+            <v>3.3201607717041801</v>
           </cell>
           <cell r="V4">
-            <v>1.7915594855305468</v>
+            <v>3.5831189710610936</v>
           </cell>
           <cell r="W4">
-            <v>1.6062861736334406</v>
+            <v>3.2125723472668812</v>
           </cell>
           <cell r="X4">
-            <v>1.4508601286173632</v>
+            <v>2.9017202572347265</v>
           </cell>
           <cell r="Y4">
-            <v>1.1730064308681674</v>
+            <v>2.3460128617363347</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>0.36912751677852351</v>
+            <v>0.73825503355704702</v>
           </cell>
           <cell r="C2">
-            <v>0.40771812080536918</v>
+            <v>0.81543624161073835</v>
           </cell>
           <cell r="D2">
-            <v>0.38422818791946312</v>
+            <v>0.76845637583892623</v>
           </cell>
           <cell r="E2">
-            <v>0.38422818791946312</v>
+            <v>0.76845637583892623</v>
           </cell>
           <cell r="F2">
-            <v>0.37583892617449666</v>
+            <v>0.75167785234899331</v>
           </cell>
           <cell r="G2">
-            <v>0.39765100671140935</v>
+            <v>0.7953020134228187</v>
           </cell>
           <cell r="H2">
-            <v>0.40939597315436244</v>
+            <v>0.81879194630872487</v>
           </cell>
           <cell r="I2">
-            <v>0.76677852348993292</v>
+            <v>1.5335570469798658</v>
           </cell>
           <cell r="J2">
-            <v>0.89261744966442957</v>
+            <v>1.7852348993288591</v>
           </cell>
           <cell r="K2">
-            <v>0.85906040268456363</v>
+            <v>1.7181208053691273</v>
           </cell>
           <cell r="L2">
-            <v>0.83892617449664431</v>
+            <v>1.6778523489932886</v>
           </cell>
           <cell r="M2">
-            <v>0.8372483221476511</v>
+            <v>1.6744966442953022</v>
           </cell>
           <cell r="N2">
-            <v>0.89093959731543615</v>
+            <v>1.7818791946308723</v>
           </cell>
           <cell r="O2">
-            <v>0.86409395973154368</v>
+            <v>1.7281879194630874</v>
           </cell>
           <cell r="P2">
-            <v>0.60570469798657711</v>
+            <v>1.2114093959731542</v>
           </cell>
           <cell r="Q2">
-            <v>0.79194630872483218</v>
+            <v>1.5838926174496644</v>
           </cell>
           <cell r="R2">
-            <v>0.80201342281879195</v>
+            <v>1.6040268456375839</v>
           </cell>
           <cell r="S2">
-            <v>0.75167785234899331</v>
+            <v>1.5033557046979866</v>
           </cell>
           <cell r="T2">
-            <v>0.59563758389261745</v>
+            <v>1.1912751677852349</v>
           </cell>
           <cell r="U2">
-            <v>0.54026845637583898</v>
+            <v>1.080536912751678</v>
           </cell>
           <cell r="V2">
-            <v>0.56711409395973156</v>
+            <v>1.1342281879194631</v>
           </cell>
           <cell r="W2">
-            <v>0.56879194630872476</v>
+            <v>1.1375838926174495</v>
           </cell>
           <cell r="X2">
-            <v>0.39261744966442952</v>
+            <v>0.78523489932885904</v>
           </cell>
           <cell r="Y2">
-            <v>0.389261744966443</v>
+            <v>0.778523489932886</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.8518518518518517E-2</v>
+            <v>3.7037037037037035E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.11111111111111112</v>
+            <v>-0.22222222222222224</v>
           </cell>
           <cell r="D3">
-            <v>-0.12037037037037036</v>
+            <v>-0.24074074074074073</v>
           </cell>
           <cell r="E3">
-            <v>-0.17592592592592593</v>
+            <v>-0.35185185185185186</v>
           </cell>
           <cell r="F3">
-            <v>-0.21296296296296294</v>
+            <v>-0.42592592592592587</v>
           </cell>
           <cell r="G3">
-            <v>-0.16666666666666669</v>
+            <v>-0.33333333333333337</v>
           </cell>
           <cell r="H3">
-            <v>-0.21296296296296297</v>
+            <v>-0.42592592592592593</v>
           </cell>
           <cell r="I3">
-            <v>0.53703703703703709</v>
+            <v>1.0740740740740742</v>
           </cell>
           <cell r="J3">
-            <v>0.68518518518518512</v>
+            <v>1.3703703703703702</v>
           </cell>
           <cell r="K3">
-            <v>0.87962962962962954</v>
+            <v>1.7592592592592591</v>
           </cell>
           <cell r="L3">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="M3">
-            <v>0.45370370370370366</v>
+            <v>0.90740740740740733</v>
           </cell>
           <cell r="N3">
-            <v>0.31481481481481483</v>
+            <v>0.62962962962962965</v>
           </cell>
           <cell r="O3">
-            <v>0.42592592592592587</v>
+            <v>0.85185185185185175</v>
           </cell>
           <cell r="P3">
-            <v>0.18518518518518517</v>
+            <v>0.37037037037037035</v>
           </cell>
           <cell r="Q3">
-            <v>0.15740740740740738</v>
+            <v>0.31481481481481477</v>
           </cell>
           <cell r="R3">
-            <v>0.18518518518518517</v>
+            <v>0.37037037037037035</v>
           </cell>
           <cell r="S3">
-            <v>0.33333333333333331</v>
+            <v>0.66666666666666663</v>
           </cell>
           <cell r="T3">
-            <v>0.63888888888888895</v>
+            <v>1.2777777777777779</v>
           </cell>
           <cell r="U3">
-            <v>0.64814814814814803</v>
+            <v>1.2962962962962961</v>
           </cell>
           <cell r="V3">
-            <v>0.51851851851851838</v>
+            <v>1.0370370370370368</v>
           </cell>
           <cell r="W3">
-            <v>0.39814814814814814</v>
+            <v>0.79629629629629628</v>
           </cell>
           <cell r="X3">
-            <v>0.18518518518518515</v>
+            <v>0.37037037037037029</v>
           </cell>
           <cell r="Y3">
-            <v>3.7037037037037035E-2</v>
+            <v>7.407407407407407E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.13970588235294118</v>
+            <v>-0.27941176470588236</v>
           </cell>
           <cell r="C4">
-            <v>-0.33088235294117641</v>
+            <v>-0.66176470588235281</v>
           </cell>
           <cell r="D4">
-            <v>-0.57720588235294112</v>
+            <v>-1.1544117647058822</v>
           </cell>
           <cell r="E4">
-            <v>-0.53308823529411764</v>
+            <v>-1.0661764705882353</v>
           </cell>
           <cell r="F4">
-            <v>-0.54411764705882348</v>
+            <v>-1.088235294117647</v>
           </cell>
           <cell r="G4">
-            <v>-0.51838235294117652</v>
+            <v>-1.036764705882353</v>
           </cell>
           <cell r="H4">
-            <v>-2.9411764705882353E-2</v>
+            <v>-5.8823529411764705E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.62132352941176461</v>
+            <v>1.2426470588235292</v>
           </cell>
           <cell r="J4">
-            <v>0.81617647058823517</v>
+            <v>1.6323529411764703</v>
           </cell>
           <cell r="K4">
-            <v>0.82352941176470595</v>
+            <v>1.6470588235294119</v>
           </cell>
           <cell r="L4">
-            <v>0.6875</v>
+            <v>1.375</v>
           </cell>
           <cell r="M4">
-            <v>0.86029411764705876</v>
+            <v>1.7205882352941175</v>
           </cell>
           <cell r="N4">
-            <v>0.77941176470588236</v>
+            <v>1.5588235294117647</v>
           </cell>
           <cell r="O4">
-            <v>0.68014705882352933</v>
+            <v>1.3602941176470587</v>
           </cell>
           <cell r="P4">
-            <v>0.48897058823529405</v>
+            <v>0.97794117647058809</v>
           </cell>
           <cell r="Q4">
-            <v>0.30514705882352944</v>
+            <v>0.61029411764705888</v>
           </cell>
           <cell r="R4">
-            <v>0.37867647058823528</v>
+            <v>0.75735294117647056</v>
           </cell>
           <cell r="S4">
-            <v>0.33823529411764702</v>
+            <v>0.67647058823529405</v>
           </cell>
           <cell r="T4">
-            <v>6.2499999999999993E-2</v>
+            <v>0.12499999999999999</v>
           </cell>
           <cell r="U4">
-            <v>0.27205882352941174</v>
+            <v>0.54411764705882348</v>
           </cell>
           <cell r="V4">
-            <v>0.38235294117647056</v>
+            <v>0.76470588235294112</v>
           </cell>
           <cell r="W4">
-            <v>0.25</v>
+            <v>0.5</v>
           </cell>
           <cell r="X4">
-            <v>-0.23161764705882351</v>
+            <v>-0.46323529411764702</v>
           </cell>
           <cell r="Y4">
-            <v>-0.47426470588235292</v>
+            <v>-0.94852941176470584</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>0.36174496644295301</v>
+            <v>0.72348993288590602</v>
           </cell>
           <cell r="C2">
-            <v>0.4117953020134229</v>
+            <v>0.82359060402684581</v>
           </cell>
           <cell r="D2">
-            <v>0.39191275167785233</v>
+            <v>0.78382550335570467</v>
           </cell>
           <cell r="E2">
-            <v>0.38807046979865772</v>
+            <v>0.77614093959731545</v>
           </cell>
           <cell r="F2">
-            <v>0.37959731543624164</v>
+            <v>0.75919463087248329</v>
           </cell>
           <cell r="G2">
-            <v>0.38969798657718113</v>
+            <v>0.77939597315436226</v>
           </cell>
           <cell r="H2">
-            <v>0.40939597315436244</v>
+            <v>0.81879194630872487</v>
           </cell>
           <cell r="I2">
-            <v>0.78211409395973164</v>
+            <v>1.5642281879194633</v>
           </cell>
           <cell r="J2">
-            <v>0.90154362416107392</v>
+            <v>1.8030872483221478</v>
           </cell>
           <cell r="K2">
-            <v>0.87624161073825491</v>
+            <v>1.7524832214765098</v>
           </cell>
           <cell r="L2">
-            <v>0.82214765100671139</v>
+            <v>1.6442953020134228</v>
           </cell>
           <cell r="M2">
-            <v>0.84562080536912765</v>
+            <v>1.6912416107382553</v>
           </cell>
           <cell r="N2">
-            <v>0.89093959731543615</v>
+            <v>1.7818791946308723</v>
           </cell>
           <cell r="O2">
-            <v>0.87273489932885906</v>
+            <v>1.7454697986577181</v>
           </cell>
           <cell r="P2">
-            <v>0.60570469798657711</v>
+            <v>1.2114093959731542</v>
           </cell>
           <cell r="Q2">
-            <v>0.77610738255033551</v>
+            <v>1.552214765100671</v>
           </cell>
           <cell r="R2">
-            <v>0.8180536912751678</v>
+            <v>1.6361073825503356</v>
           </cell>
           <cell r="S2">
-            <v>0.73664429530201347</v>
+            <v>1.4732885906040269</v>
           </cell>
           <cell r="T2">
-            <v>0.60755033557046978</v>
+            <v>1.2151006711409396</v>
           </cell>
           <cell r="U2">
-            <v>0.55107382550335582</v>
+            <v>1.1021476510067116</v>
           </cell>
           <cell r="V2">
-            <v>0.57845637583892617</v>
+            <v>1.1569127516778523</v>
           </cell>
           <cell r="W2">
-            <v>0.56879194630872476</v>
+            <v>1.1375838926174495</v>
           </cell>
           <cell r="X2">
-            <v>0.40046979865771809</v>
+            <v>0.80093959731543618</v>
           </cell>
           <cell r="Y2">
-            <v>0.39315436241610741</v>
+            <v>0.78630872483221481</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.8148148148148146E-2</v>
+            <v>3.6296296296296292E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.1088888888888889</v>
+            <v>-0.21777777777777779</v>
           </cell>
           <cell r="D3">
-            <v>-0.12277777777777776</v>
+            <v>-0.24555555555555553</v>
           </cell>
           <cell r="E3">
-            <v>-0.17944444444444446</v>
+            <v>-0.35888888888888892</v>
           </cell>
           <cell r="F3">
-            <v>-0.21296296296296294</v>
+            <v>-0.42592592592592587</v>
           </cell>
           <cell r="G3">
-            <v>-0.16666666666666669</v>
+            <v>-0.33333333333333337</v>
           </cell>
           <cell r="H3">
-            <v>-0.2087037037037037</v>
+            <v>-0.41740740740740739</v>
           </cell>
           <cell r="I3">
-            <v>0.53703703703703709</v>
+            <v>1.0740740740740742</v>
           </cell>
           <cell r="J3">
-            <v>0.68518518518518501</v>
+            <v>1.37037037037037</v>
           </cell>
           <cell r="K3">
-            <v>0.86203703703703694</v>
+            <v>1.7240740740740739</v>
           </cell>
           <cell r="L3">
-            <v>0.5</v>
+            <v>1</v>
           </cell>
           <cell r="M3">
-            <v>0.4446296296296296</v>
+            <v>0.88925925925925919</v>
           </cell>
           <cell r="N3">
-            <v>0.3116666666666667</v>
+            <v>0.62333333333333341</v>
           </cell>
           <cell r="O3">
-            <v>0.41740740740740734</v>
+            <v>0.83481481481481468</v>
           </cell>
           <cell r="P3">
-            <v>0.18888888888888888</v>
+            <v>0.37777777777777777</v>
           </cell>
           <cell r="Q3">
-            <v>0.1558333333333333</v>
+            <v>0.31166666666666659</v>
           </cell>
           <cell r="R3">
-            <v>0.18148148148148149</v>
+            <v>0.36296296296296299</v>
           </cell>
           <cell r="S3">
-            <v>0.33</v>
+            <v>0.66</v>
           </cell>
           <cell r="T3">
-            <v>0.65166666666666673</v>
+            <v>1.3033333333333335</v>
           </cell>
           <cell r="U3">
-            <v>0.65462962962962945</v>
+            <v>1.3092592592592589</v>
           </cell>
           <cell r="V3">
-            <v>0.50814814814814802</v>
+            <v>1.016296296296296</v>
           </cell>
           <cell r="W3">
-            <v>0.39814814814814814</v>
+            <v>0.79629629629629628</v>
           </cell>
           <cell r="X3">
-            <v>0.187037037037037</v>
+            <v>0.374074074074074</v>
           </cell>
           <cell r="Y3">
-            <v>3.7407407407407403E-2</v>
+            <v>7.4814814814814806E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.14249999999999999</v>
+            <v>-0.28499999999999998</v>
           </cell>
           <cell r="C4">
-            <v>-0.33749999999999991</v>
+            <v>-0.67499999999999982</v>
           </cell>
           <cell r="D4">
-            <v>-0.58874999999999988</v>
+            <v>-1.1774999999999998</v>
           </cell>
           <cell r="E4">
-            <v>-0.53841911764705885</v>
+            <v>-1.0768382352941177</v>
           </cell>
           <cell r="F4">
-            <v>-0.55499999999999994</v>
+            <v>-1.1099999999999999</v>
           </cell>
           <cell r="G4">
-            <v>-0.52356617647058823</v>
+            <v>-1.0471323529411765</v>
           </cell>
           <cell r="H4">
-            <v>-2.8823529411764706E-2</v>
+            <v>-5.7647058823529412E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.61511029411764695</v>
+            <v>1.2302205882352939</v>
           </cell>
           <cell r="J4">
-            <v>0.83249999999999991</v>
+            <v>1.6649999999999998</v>
           </cell>
           <cell r="K4">
-            <v>0.83176470588235307</v>
+            <v>1.6635294117647061</v>
           </cell>
           <cell r="L4">
-            <v>0.68062500000000004</v>
+            <v>1.3612500000000001</v>
           </cell>
           <cell r="M4">
-            <v>0.85169117647058812</v>
+            <v>1.7033823529411762</v>
           </cell>
           <cell r="N4">
-            <v>0.76382352941176479</v>
+            <v>1.5276470588235296</v>
           </cell>
           <cell r="O4">
-            <v>0.66654411764705868</v>
+            <v>1.3330882352941174</v>
           </cell>
           <cell r="P4">
-            <v>0.48408088235294111</v>
+            <v>0.96816176470588222</v>
           </cell>
           <cell r="Q4">
-            <v>0.30819852941176473</v>
+            <v>0.61639705882352946</v>
           </cell>
           <cell r="R4">
-            <v>0.37867647058823528</v>
+            <v>0.75735294117647056</v>
           </cell>
           <cell r="S4">
-            <v>0.33823529411764702</v>
+            <v>0.67647058823529405</v>
           </cell>
           <cell r="T4">
-            <v>6.3749999999999987E-2</v>
+            <v>0.12749999999999997</v>
           </cell>
           <cell r="U4">
-            <v>0.2693382352941176</v>
+            <v>0.5386764705882352</v>
           </cell>
           <cell r="V4">
-            <v>0.38235294117647056</v>
+            <v>0.76470588235294112</v>
           </cell>
           <cell r="W4">
-            <v>0.2525</v>
+            <v>0.505</v>
           </cell>
           <cell r="X4">
-            <v>-0.23393382352941175</v>
+            <v>-0.4678676470588235</v>
           </cell>
           <cell r="Y4">
-            <v>-0.48375000000000001</v>
+            <v>-0.96750000000000003</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>0.36174496644295301</v>
+            <v>0.72348993288590602</v>
           </cell>
           <cell r="C2">
-            <v>0.40771812080536918</v>
+            <v>0.81543624161073835</v>
           </cell>
           <cell r="D2">
-            <v>0.38038590604026851</v>
+            <v>0.76077181208053701</v>
           </cell>
           <cell r="E2">
-            <v>0.37654362416107384</v>
+            <v>0.75308724832214768</v>
           </cell>
           <cell r="F2">
-            <v>0.37208053691275167</v>
+            <v>0.74416107382550334</v>
           </cell>
           <cell r="G2">
-            <v>0.38969798657718113</v>
+            <v>0.77939597315436226</v>
           </cell>
           <cell r="H2">
-            <v>0.40939597315436244</v>
+            <v>0.81879194630872487</v>
           </cell>
           <cell r="I2">
-            <v>0.78211409395973164</v>
+            <v>1.5642281879194633</v>
           </cell>
           <cell r="J2">
-            <v>0.90154362416107392</v>
+            <v>1.8030872483221478</v>
           </cell>
           <cell r="K2">
-            <v>0.85906040268456363</v>
+            <v>1.7181208053691273</v>
           </cell>
           <cell r="L2">
-            <v>0.83053691275167796</v>
+            <v>1.6610738255033559</v>
           </cell>
           <cell r="M2">
-            <v>0.85399328859060419</v>
+            <v>1.7079865771812084</v>
           </cell>
           <cell r="N2">
-            <v>0.90875838926174479</v>
+            <v>1.8175167785234896</v>
           </cell>
           <cell r="O2">
-            <v>0.84681208053691281</v>
+            <v>1.6936241610738256</v>
           </cell>
           <cell r="P2">
-            <v>0.60570469798657711</v>
+            <v>1.2114093959731542</v>
           </cell>
           <cell r="Q2">
-            <v>0.78402684563758385</v>
+            <v>1.5680536912751677</v>
           </cell>
           <cell r="R2">
-            <v>0.8180536912751678</v>
+            <v>1.6361073825503356</v>
           </cell>
           <cell r="S2">
-            <v>0.74416107382550334</v>
+            <v>1.4883221476510067</v>
           </cell>
           <cell r="T2">
-            <v>0.58372483221476512</v>
+            <v>1.1674496644295302</v>
           </cell>
           <cell r="U2">
-            <v>0.54567114093959734</v>
+            <v>1.0913422818791947</v>
           </cell>
           <cell r="V2">
-            <v>0.57845637583892617</v>
+            <v>1.1569127516778523</v>
           </cell>
           <cell r="W2">
-            <v>0.55741610738255032</v>
+            <v>1.1148322147651006</v>
           </cell>
           <cell r="X2">
-            <v>0.38476510067114089</v>
+            <v>0.76953020134228178</v>
           </cell>
           <cell r="Y2">
-            <v>0.38147651006711414</v>
+            <v>0.76295302013422828</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>1.8333333333333333E-2</v>
+            <v>3.6666666666666667E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.11111111111111112</v>
+            <v>-0.22222222222222224</v>
           </cell>
           <cell r="D3">
-            <v>-0.12157407407407407</v>
+            <v>-0.24314814814814814</v>
           </cell>
           <cell r="E3">
-            <v>-0.17416666666666669</v>
+            <v>-0.34833333333333338</v>
           </cell>
           <cell r="F3">
-            <v>-0.21509259259259256</v>
+            <v>-0.43018518518518511</v>
           </cell>
           <cell r="G3">
-            <v>-0.16333333333333336</v>
+            <v>-0.32666666666666672</v>
           </cell>
           <cell r="H3">
-            <v>-0.21296296296296297</v>
+            <v>-0.42592592592592593</v>
           </cell>
           <cell r="I3">
-            <v>0.54240740740740745</v>
+            <v>1.0848148148148149</v>
           </cell>
           <cell r="J3">
-            <v>0.69888888888888889</v>
+            <v>1.3977777777777778</v>
           </cell>
           <cell r="K3">
-            <v>0.87962962962962943</v>
+            <v>1.7592592592592589</v>
           </cell>
           <cell r="L3">
-            <v>0.505</v>
+            <v>1.01</v>
           </cell>
           <cell r="M3">
-            <v>0.4446296296296296</v>
+            <v>0.88925925925925919</v>
           </cell>
           <cell r="N3">
-            <v>0.30851851851851853</v>
+            <v>0.61703703703703705</v>
           </cell>
           <cell r="O3">
-            <v>0.43018518518518511</v>
+            <v>0.86037037037037023</v>
           </cell>
           <cell r="P3">
-            <v>0.18148148148148149</v>
+            <v>0.36296296296296299</v>
           </cell>
           <cell r="Q3">
-            <v>0.1558333333333333</v>
+            <v>0.31166666666666659</v>
           </cell>
           <cell r="R3">
-            <v>0.18333333333333332</v>
+            <v>0.36666666666666664</v>
           </cell>
           <cell r="S3">
-            <v>0.33333333333333326</v>
+            <v>0.66666666666666652</v>
           </cell>
           <cell r="T3">
-            <v>0.62611111111111117</v>
+            <v>1.2522222222222223</v>
           </cell>
           <cell r="U3">
-            <v>0.65462962962962945</v>
+            <v>1.3092592592592589</v>
           </cell>
           <cell r="V3">
-            <v>0.5133333333333332</v>
+            <v>1.0266666666666664</v>
           </cell>
           <cell r="W3">
-            <v>0.39814814814814814</v>
+            <v>0.79629629629629628</v>
           </cell>
           <cell r="X3">
-            <v>0.18148148148148147</v>
+            <v>0.36296296296296293</v>
           </cell>
           <cell r="Y3">
-            <v>3.6666666666666667E-2</v>
+            <v>7.3333333333333334E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.13970588235294118</v>
+            <v>-0.27941176470588236</v>
           </cell>
           <cell r="C4">
-            <v>-0.33088235294117641</v>
+            <v>-0.66176470588235281</v>
           </cell>
           <cell r="D4">
-            <v>-0.57720588235294112</v>
+            <v>-1.1544117647058822</v>
           </cell>
           <cell r="E4">
-            <v>-0.53841911764705885</v>
+            <v>-1.0768382352941177</v>
           </cell>
           <cell r="F4">
-            <v>-0.5386764705882352</v>
+            <v>-1.0773529411764704</v>
           </cell>
           <cell r="G4">
-            <v>-0.52356617647058823</v>
+            <v>-1.0471323529411765</v>
           </cell>
           <cell r="H4">
-            <v>-2.8823529411764706E-2</v>
+            <v>-5.7647058823529412E-2</v>
           </cell>
           <cell r="I4">
-            <v>0.63374999999999992</v>
+            <v>1.2674999999999998</v>
           </cell>
           <cell r="J4">
-            <v>0.83249999999999991</v>
+            <v>1.6649999999999998</v>
           </cell>
           <cell r="K4">
-            <v>0.82352941176470595</v>
+            <v>1.6470588235294119</v>
           </cell>
           <cell r="L4">
-            <v>0.68062500000000004</v>
+            <v>1.3612500000000001</v>
           </cell>
           <cell r="M4">
-            <v>0.86889705882352941</v>
+            <v>1.7377941176470588</v>
           </cell>
           <cell r="N4">
-            <v>0.7872058823529412</v>
+            <v>1.5744117647058824</v>
           </cell>
           <cell r="O4">
-            <v>0.68014705882352933</v>
+            <v>1.3602941176470587</v>
           </cell>
           <cell r="P4">
-            <v>0.49386029411764698</v>
+            <v>0.98772058823529396</v>
           </cell>
           <cell r="Q4">
-            <v>0.30514705882352944</v>
+            <v>0.61029411764705888</v>
           </cell>
           <cell r="R4">
-            <v>0.38246323529411763</v>
+            <v>0.76492647058823526</v>
           </cell>
           <cell r="S4">
-            <v>0.34161764705882347</v>
+            <v>0.68323529411764694</v>
           </cell>
           <cell r="T4">
-            <v>6.3749999999999987E-2</v>
+            <v>0.12749999999999997</v>
           </cell>
           <cell r="U4">
-            <v>0.26661764705882351</v>
+            <v>0.53323529411764703</v>
           </cell>
           <cell r="V4">
-            <v>0.37852941176470589</v>
+            <v>0.75705882352941178</v>
           </cell>
           <cell r="W4">
-            <v>0.2475</v>
+            <v>0.495</v>
           </cell>
           <cell r="X4">
-            <v>-0.23624999999999996</v>
+            <v>-0.47249999999999992</v>
           </cell>
           <cell r="Y4">
-            <v>-0.47900735294117647</v>
+            <v>-0.95801470588235293</v>
           </cell>
         </row>
       </sheetData>
@@ -3849,99 +3849,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>0.48369126214244929</v>
+        <v>0.96738252428489857</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>0.33158547335141797</v>
+        <v>0.66317094670283594</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>0.29624835704973934</v>
+        <v>0.59249671409947868</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>0.37597920405262775</v>
+        <v>0.75195840810525549</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>0.3269664902525975</v>
+        <v>0.65393298050519499</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>0.26616064843137627</v>
+        <v>0.53232129686275254</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>0.22022093899442957</v>
+        <v>0.44044187798885914</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>0.77726533485761895</v>
+        <v>1.5545306697152379</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>0.80480896312760986</v>
+        <v>1.6096179262552197</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>0.6764828489951098</v>
+        <v>1.3529656979902196</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>0.80423635899774992</v>
+        <v>1.6084727179954998</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>0.76224138695254495</v>
+        <v>1.5244827739050899</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>0.75809378031303754</v>
+        <v>1.5161875606260751</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>0.67694885834113949</v>
+        <v>1.353897716682279</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>0.38977264986754412</v>
+        <v>0.77954529973508824</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>0.61649144161785163</v>
+        <v>1.2329828832357033</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>0.7468549644815089</v>
+        <v>1.4937099289630178</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>0.69686247348348063</v>
+        <v>1.3937249469669613</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>0.48703811234401295</v>
+        <v>0.9740762246880259</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>0.51032583941013643</v>
+        <v>1.0206516788202729</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>0.46120539877871036</v>
+        <v>0.92241079755742073</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>0.29192797670682519</v>
+        <v>0.58385595341365037</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>0.2375302077805794</v>
+        <v>0.4750604155611588</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>0.24618981959366387</v>
+        <v>0.49237963918732774</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3950,99 +3950,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-0.92520456002326268</v>
+        <v>-1.8504091200465254</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-0.88872604584309367</v>
+        <v>-1.7774520916861873</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-0.93188638208679631</v>
+        <v>-1.8637727641735926</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-0.95508463204562899</v>
+        <v>-1.910169264091258</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-0.9652171751075308</v>
+        <v>-1.9304343502150616</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-0.8858437567223697</v>
+        <v>-1.7716875134447394</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-0.56169464433641803</v>
+        <v>-1.1233892886728361</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-0.1058143485503463</v>
+        <v>-0.2116286971006926</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-0.11487125479551562</v>
+        <v>-0.22974250959103124</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-7.8432800083884369E-2</v>
+        <v>-0.15686560016776874</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-6.6381803939033951E-2</v>
+        <v>-0.1327636078780679</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-0.30532681301749859</v>
+        <v>-0.61065362603499718</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-0.44604967878557922</v>
+        <v>-0.89209935757115844</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-0.56105448375983558</v>
+        <v>-1.1221089675196712</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-0.56820045696800536</v>
+        <v>-1.1364009139360107</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-0.58936560287022888</v>
+        <v>-1.1787312057404578</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-0.44520927851879244</v>
+        <v>-0.89041855703758488</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>0.15080703839547369</v>
+        <v>0.30161407679094737</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-2.0833082004533647E-2</v>
+        <v>-4.1666164009067294E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-0.24840401708098989</v>
+        <v>-0.49680803416197977</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-0.46505553645817005</v>
+        <v>-0.9301110729163401</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-0.59962817120193523</v>
+        <v>-1.1992563424038705</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-0.65100299648788285</v>
+        <v>-1.3020059929757657</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-0.76818465928642798</v>
+        <v>-1.536369318572856</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4051,99 +4051,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-0.87615168184032099</v>
+        <v>-1.752303363680642</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-0.93601010643837279</v>
+        <v>-1.8720202128767456</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-0.96271037530476689</v>
+        <v>-1.9254207506095338</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-0.94983569814540236</v>
+        <v>-1.8996713962908047</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-0.95062570184491535</v>
+        <v>-1.9012514036898307</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-0.80167269747676773</v>
+        <v>-1.6033453949535355</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-2.955923754072386E-2</v>
+        <v>-5.911847508144772E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>0.4133155317533419</v>
+        <v>0.82663106350668381</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>0.52161387669307935</v>
+        <v>1.0432277533861587</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>0.35257540759814016</v>
+        <v>0.70515081519628031</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>0.2166653106493204</v>
+        <v>0.43333062129864081</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>0.4171247077532218</v>
+        <v>0.8342494155064436</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>0.27098820727187412</v>
+        <v>0.54197641454374823</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>8.221597696619623E-2</v>
+        <v>0.16443195393239246</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-0.32207677523665773</v>
+        <v>-0.64415355047331546</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-0.32540406620292406</v>
+        <v>-0.65080813240584812</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-0.26805440981078549</v>
+        <v>-0.53610881962157098</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.1299249760289263</v>
+        <v>-0.25984995205785261</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-0.32312346011453463</v>
+        <v>-0.64624692022906927</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.18042460357359366</v>
+        <v>-0.36084920714718732</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-0.25276872803133121</v>
+        <v>-0.50553745606266243</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-0.41086125785247679</v>
+        <v>-0.82172251570495358</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-0.66235113504173537</v>
+        <v>-1.3247022700834707</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-0.73273345039255799</v>
+        <v>-1.465466900785116</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4554,99 +4554,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>0.48369126214244929</v>
+        <v>0.96738252428489857</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>0.34511957430453705</v>
+        <v>0.69023914860907409</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>0.28744890089974706</v>
+        <v>0.57489780179949412</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>0.36845961997157517</v>
+        <v>0.73691923994315034</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>0.33020378223529656</v>
+        <v>0.66040756447059312</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>0.26083743546274873</v>
+        <v>0.52167487092549747</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>0.22462535777431816</v>
+        <v>0.44925071554863633</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>0.75417824570343217</v>
+        <v>1.5083564914068643</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>0.81285705275888587</v>
+        <v>1.6257141055177717</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>0.69719150763781723</v>
+        <v>1.3943830152756345</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>0.81227872258772749</v>
+        <v>1.624557445175455</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>0.75476843217850043</v>
+        <v>1.5095368643570009</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>0.73557614327403642</v>
+        <v>1.4711522865480728</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>0.66354393045319615</v>
+        <v>1.3270878609063923</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>0.40170446567981588</v>
+        <v>0.80340893135963176</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>0.62271862789681975</v>
+        <v>1.2454372557936395</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>0.75432351412632404</v>
+        <v>1.5086470282526481</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>0.70383109821831535</v>
+        <v>1.4076621964366307</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>0.48216773122057283</v>
+        <v>0.96433546244114565</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>0.51537857049340519</v>
+        <v>1.0307571409868104</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>0.47061775385582694</v>
+        <v>0.94123550771165387</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>0.28900869693975695</v>
+        <v>0.5780173938795139</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>0.22821529767153709</v>
+        <v>0.45643059534307417</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>0.24377619391137306</v>
+        <v>0.48755238782274612</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4655,99 +4655,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-0.91613392708185815</v>
+        <v>-1.8322678541637163</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-0.90686331208478943</v>
+        <v>-1.8137266241695789</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-0.93188638208679631</v>
+        <v>-1.8637727641735926</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-0.98432191670008695</v>
+        <v>-1.9686438334001739</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-0.9845215186096814</v>
+        <v>-1.9690430372193628</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-0.89470219428959341</v>
+        <v>-1.7894043885791868</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-0.57292853722314641</v>
+        <v>-1.1458570744462928</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-0.10689408680086002</v>
+        <v>-0.21378817360172003</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-0.11603157050052083</v>
+        <v>-0.23206314100104167</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-7.5357004002163414E-2</v>
+        <v>-0.15071400800432683</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-6.6381803939033951E-2</v>
+        <v>-0.1327636078780679</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-0.30230377526485008</v>
+        <v>-0.60460755052970017</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-0.43721701187893408</v>
+        <v>-0.87443402375786816</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-0.57822962101778974</v>
+        <v>-1.1564592420355795</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-0.57956446610736545</v>
+        <v>-1.1591289322147309</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-0.58936560287022888</v>
+        <v>-1.1787312057404578</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-0.44520927851879244</v>
+        <v>-0.89041855703758488</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>0.14632762141342989</v>
+        <v>0.29265524282685978</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-2.0833082004533647E-2</v>
+        <v>-4.1666164009067294E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-0.25337209742260969</v>
+        <v>-0.50674419484521938</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-0.4558465159342458</v>
+        <v>-0.9116930318684916</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-0.61174187163025717</v>
+        <v>-1.2234837432605143</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-0.67757454736493927</v>
+        <v>-1.3551490947298785</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-0.76057887058062168</v>
+        <v>-1.5211577411612434</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4756,99 +4756,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-0.87615168184032099</v>
+        <v>-1.752303363680642</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-0.93601010643837279</v>
+        <v>-1.8720202128767456</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-0.96271037530476689</v>
+        <v>-1.9254207506095338</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-0.94043138430237849</v>
+        <v>-1.880862768604757</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-0.92238929485942278</v>
+        <v>-1.8447785897188456</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-0.78595362497722321</v>
+        <v>-1.5719072499544464</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-2.955923754072386E-2</v>
+        <v>-5.911847508144772E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>0.40115919258412602</v>
+        <v>0.80231838516825205</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>0.51644938286443498</v>
+        <v>1.03289876572887</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>0.36696624056132954</v>
+        <v>0.73393248112265908</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>0.20816863180032744</v>
+        <v>0.41633726360065487</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>0.4171247077532218</v>
+        <v>0.8342494155064436</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>0.26301796588152487</v>
+        <v>0.52603593176304975</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>8.0603898986466901E-2</v>
+        <v>0.1612077979729338</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-0.32207677523665773</v>
+        <v>-0.64415355047331546</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-0.31583335837342635</v>
+        <v>-0.63166671674685271</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-0.26017045658105653</v>
+        <v>-0.52034091316211306</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.13522803627500493</v>
+        <v>-0.27045607255000986</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-0.32958592931682529</v>
+        <v>-0.65917185863365058</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.18042460357359366</v>
+        <v>-0.36084920714718732</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-0.24771335347070458</v>
+        <v>-0.49542670694140917</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-0.41505371966729804</v>
+        <v>-0.83010743933459608</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-0.66235113504173537</v>
+        <v>-1.3247022700834707</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-0.74768719427812047</v>
+        <v>-1.4953743885562409</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9436,99 +9436,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.7138800000000003</v>
+        <v>3.2638800000000003</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.7042303875968996</v>
+        <v>3.2391141085271324</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.6301283720930233</v>
+        <v>3.1086167441860466</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.5954775193798449</v>
+        <v>3.0472217054263568</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.5590390697674419</v>
+        <v>3.0003181395348837</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.5627373643410853</v>
+        <v>3.0255280620155043</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5722266666666669</v>
+        <v>3.0222266666666671</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.7944824806201551</v>
+        <v>3.5677382945736436</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9262248062015506</v>
+        <v>3.8337829457364347</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9097714728682169</v>
+        <v>3.7923296124031007</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8677708527131784</v>
+        <v>3.7195150387596905</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8944452713178297</v>
+        <v>3.768863875968993</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.9755113178294579</v>
+        <v>3.9191159689922488</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.9657634108527131</v>
+        <v>3.8727401550387595</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.821440930232558</v>
+        <v>3.5801618604651164</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.8744706976744185</v>
+        <v>3.6872613953488371</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.8683209302325581</v>
+        <v>3.7020418604651164</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.8437358139534883</v>
+        <v>3.6169916279069767</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7250809302325583</v>
+        <v>3.4088018604651165</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6912893023255815</v>
+        <v>3.353498604651163</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7011367441860465</v>
+        <v>3.3581134883720933</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6656654263565893</v>
+        <v>3.304037519379845</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6385268217054267</v>
+        <v>3.1524803100775198</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.6141268217054265</v>
+        <v>3.07808031007752</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9537,99 +9537,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.5344157142857142</v>
+        <v>2.9049514285714282</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.4617573809523807</v>
+        <v>2.7541680952380947</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.3927114285714284</v>
+        <v>2.6337828571428568</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.2754297619047619</v>
+        <v>2.4071261904761907</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.2070457142857143</v>
+        <v>2.2963314285714285</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2450359523809522</v>
+        <v>2.390125238095238</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.3409766666666667</v>
+        <v>2.5597266666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.6573873809523807</v>
+        <v>3.2935480952380947</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.8043809523809522</v>
+        <v>3.590095238095238</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9312311904761905</v>
+        <v>3.8352490476190479</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7526338095238094</v>
+        <v>3.4892409523809524</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8436873809523808</v>
+        <v>3.6673480952380952</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8577995238095237</v>
+        <v>3.6836923809523805</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8400366666666668</v>
+        <v>3.6212866666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5939700000000001</v>
+        <v>3.1252200000000001</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.6576621428571428</v>
+        <v>3.2536442857142855</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.7243321428571428</v>
+        <v>3.4140642857142858</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.7535157142857138</v>
+        <v>3.4365514285714278</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7958242857142854</v>
+        <v>3.5502885714285708</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.8772942857142854</v>
+        <v>3.7255085714285707</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.9771957142857142</v>
+        <v>3.9102314285714286</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.8018469047619048</v>
+        <v>3.576400476190476</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6491269047619046</v>
+        <v>3.1736804761904756</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5586554761904761</v>
+        <v>2.9671376190476191</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9638,99 +9638,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2852626366559485</v>
+        <v>2.4066452733118968</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2232051875669883</v>
+        <v>2.2770637084673098</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1227010932475885</v>
+        <v>2.0937621864951774</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1541834941050375</v>
+        <v>2.164633654876742</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.1097214147909968</v>
+        <v>2.1016828295819936</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.1120045444801714</v>
+        <v>2.1240624222936764</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5571141264737409</v>
+        <v>2.9920015862808151</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8580433869239017</v>
+        <v>3.6948601071811367</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9439078242229366</v>
+        <v>3.8691489817792069</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.8326795712754556</v>
+        <v>3.638145809217578</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7829076956055734</v>
+        <v>3.5497887245444804</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9195443515541266</v>
+        <v>3.8190620364415868</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>2.0182410718113615</v>
+        <v>4.004575476956056</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.9028381136120045</v>
+        <v>3.7468895605573422</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.7443920257234731</v>
+        <v>3.426064051446946</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.656535305466238</v>
+        <v>3.2513906109324759</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.664825080385852</v>
+        <v>3.2950501607717042</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.6452388424437299</v>
+        <v>3.2199976848874599</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.5799452090032156</v>
+        <v>3.118530418006431</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.7059288745980707</v>
+        <v>3.3827777491961415</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.8005908681672027</v>
+        <v>3.5570217363344057</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6663608574490891</v>
+        <v>3.3054283815648446</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5610685101822079</v>
+        <v>2.9975636870310822</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.3471186709539122</v>
+        <v>2.5440640085744914</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10141,99 +10141,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.7293800000000004</v>
+        <v>3.2948800000000005</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.7042303875968996</v>
+        <v>3.2391141085271324</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.6005586046511628</v>
+        <v>3.0494772093023257</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.5954775193798452</v>
+        <v>3.0472217054263573</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.530213488372093</v>
+        <v>2.942666976744186</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.5627373643410853</v>
+        <v>3.0255280620155043</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.6012266666666668</v>
+        <v>3.0802266666666669</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.7944824806201551</v>
+        <v>3.5677382945736436</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9453003875968993</v>
+        <v>3.8719341085271322</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9097714728682169</v>
+        <v>3.7923296124031007</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8492534108527132</v>
+        <v>3.68248015503876</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8569568992248064</v>
+        <v>3.6938871317829465</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.9366392248062021</v>
+        <v>3.8413717829457372</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>2.0039029457364341</v>
+        <v>3.9490192248062015</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.8566153488372095</v>
+        <v>3.6505106976744188</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.8925986046511627</v>
+        <v>3.7235172093023254</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.8866581395348836</v>
+        <v>3.7387162790697674</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.8082706976744185</v>
+        <v>3.5460613953488371</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7587553488372096</v>
+        <v>3.4761506976744192</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6746672093023256</v>
+        <v>3.3202544186046512</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7177065116279071</v>
+        <v>3.3912530232558145</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6656654263565893</v>
+        <v>3.304037519379845</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6688058914728685</v>
+        <v>3.2130384496124034</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.6434058914728684</v>
+        <v>3.1366384496124038</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10242,99 +10242,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.5344157142857142</v>
+        <v>2.9049514285714282</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.4617573809523807</v>
+        <v>2.7541680952380947</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.3803007142857142</v>
+        <v>2.6089614285714284</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.2867467261904761</v>
+        <v>2.4297601190476192</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.2070457142857143</v>
+        <v>2.2963314285714285</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2679377380952379</v>
+        <v>2.4359288095238094</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.3287891666666667</v>
+        <v>2.5353516666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.6410257738095237</v>
+        <v>3.2608248809523808</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.822238095238095</v>
+        <v>3.6258095238095236</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9121910119047618</v>
+        <v>3.7971686904761905</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7699998809523807</v>
+        <v>3.523973095238095</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8436873809523808</v>
+        <v>3.6673480952380952</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.894317380952381</v>
+        <v>3.756728095238095</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8400366666666668</v>
+        <v>3.6212866666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.563345</v>
+        <v>3.0639700000000003</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.6576621428571428</v>
+        <v>3.2536442857142855</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.7412294642857142</v>
+        <v>3.4478589285714287</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.770346071428571</v>
+        <v>3.4702121428571422</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.8309135714285711</v>
+        <v>3.6204671428571422</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.8403299999999998</v>
+        <v>3.6515799999999996</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.9578653571428568</v>
+        <v>3.8715707142857139</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.8373379761904762</v>
+        <v>3.6473826190476188</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.633881369047619</v>
+        <v>3.1431894047619044</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5304858333333333</v>
+        <v>2.9107983333333336</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10343,99 +10343,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2628349839228297</v>
+        <v>2.3617899678456591</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2442823579849946</v>
+        <v>2.3192180493033225</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1129904823151127</v>
+        <v>2.0743409646302258</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1440789924973205</v>
+        <v>2.1444246516613079</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.1295606430868168</v>
+        <v>2.1413612861736335</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.0917633869239014</v>
+        <v>2.0835801071811364</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5284163772775994</v>
+        <v>2.9346060878885321</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8947797213290465</v>
+        <v>3.7683327759914262</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9246554126473738</v>
+        <v>3.8306441586280813</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.8507342336548767</v>
+        <v>3.6742551339764202</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7829076956055736</v>
+        <v>3.5497887245444808</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8815539978563773</v>
+        <v>3.7430813290460883</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>2.0182410718113615</v>
+        <v>4.004575476956056</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8659570846730977</v>
+        <v>3.6731275026795287</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.7443920257234731</v>
+        <v>3.426064051446946</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.6724838585209003</v>
+        <v>3.2832877170418007</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.6485228295819936</v>
+        <v>3.2624456591639874</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.6137436655948552</v>
+        <v>3.1570073311897104</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.5645593569131835</v>
+        <v>3.0877587138263669</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.7394658520900323</v>
+        <v>3.4498517041800647</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7830265594855308</v>
+        <v>3.5218931189710618</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.699142207931404</v>
+        <v>3.3709910825294744</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5610685101822079</v>
+        <v>2.9975636870310822</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.3590881243301181</v>
+        <v>2.5680029153269031</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10846,99 +10846,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.7293800000000004</v>
+        <v>3.2948800000000005</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.7349280620155043</v>
+        <v>3.3005094573643419</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.6005586046511628</v>
+        <v>3.0494772093023257</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.6245124031007752</v>
+        <v>3.1052914728682173</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.530213488372093</v>
+        <v>2.942666976744186</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.5481094573643412</v>
+        <v>2.9962722480620161</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5722266666666669</v>
+        <v>3.0222266666666671</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8299475968992249</v>
+        <v>3.6386685271317831</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.8880736434108529</v>
+        <v>3.7574806201550395</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.8909458914728681</v>
+        <v>3.754678449612403</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8862882945736437</v>
+        <v>3.7565499224806209</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8944452713178297</v>
+        <v>3.768863875968993</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.95607527131783</v>
+        <v>3.880243875968993</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.9276238759689921</v>
+        <v>3.7964610852713174</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.8038537209302326</v>
+        <v>3.5449874418604654</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.9107265116279069</v>
+        <v>3.7597730232558138</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.8866581395348836</v>
+        <v>3.7387162790697674</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.8082706976744185</v>
+        <v>3.5460613953488371</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7250809302325583</v>
+        <v>3.4088018604651165</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6746672093023256</v>
+        <v>3.3202544186046512</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.684566976744186</v>
+        <v>3.3249739534883722</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6984328682170544</v>
+        <v>3.3695724031007752</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6688058914728687</v>
+        <v>3.2130384496124038</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5994872868217056</v>
+        <v>3.0488012403100782</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10947,99 +10947,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.5481210714285714</v>
+        <v>2.9323621428571425</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.4746814880952379</v>
+        <v>2.7800163095238091</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.3927114285714284</v>
+        <v>2.6337828571428568</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.2980636904761904</v>
+        <v>2.4523940476190478</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.196152857142857</v>
+        <v>2.2745457142857139</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2335850595238094</v>
+        <v>2.3672234523809523</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.3531641666666667</v>
+        <v>2.5841016666666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.6246641666666664</v>
+        <v>3.228101666666666</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.7686666666666664</v>
+        <v>3.5186666666666664</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.950271369047619</v>
+        <v>3.8733294047619049</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7179016666666664</v>
+        <v>3.4197766666666665</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.8436873809523808</v>
+        <v>3.6673480952380952</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8395405952380952</v>
+        <v>3.6471745238095234</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8400366666666668</v>
+        <v>3.6212866666666668</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5786574999999998</v>
+        <v>3.094595</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.6736219642857142</v>
+        <v>3.2855639285714284</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.7581267857142857</v>
+        <v>3.4816535714285717</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.770346071428571</v>
+        <v>3.4702121428571422</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7607349999999997</v>
+        <v>3.4801099999999994</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.8772942857142854</v>
+        <v>3.7255085714285707</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.9385349999999999</v>
+        <v>3.83291</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.8018469047619048</v>
+        <v>3.576400476190476</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6491269047619046</v>
+        <v>3.1736804761904756</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5727402976190474</v>
+        <v>2.9953072619047618</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11048,99 +11048,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2964764630225081</v>
+        <v>2.4290729260450159</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2021280171489819</v>
+        <v>2.234909367631297</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1421223151125404</v>
+        <v>2.1326046302250807</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1642879957127545</v>
+        <v>2.184842658092176</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.099801800643087</v>
+        <v>2.0818436012861739</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.0917633869239014</v>
+        <v>2.083580107181136</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5858118756698825</v>
+        <v>3.0493970846730982</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8764115541264741</v>
+        <v>3.7315964415862815</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9246554126473738</v>
+        <v>3.8306441586280813</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.868788896034298</v>
+        <v>3.7103644587352629</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7475700750267953</v>
+        <v>3.4791134833869242</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9575347052518759</v>
+        <v>3.8950427438370854</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>2.0579677599142552</v>
+        <v>4.0840288531618443</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8659570846730977</v>
+        <v>3.6731275026795287</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.7275753054662384</v>
+        <v>3.3924306109324767</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.6884324115755627</v>
+        <v>3.3151848231511254</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.697429581993569</v>
+        <v>3.3602591639871382</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.6137436655948552</v>
+        <v>3.1570073311897104</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.6107169131832799</v>
+        <v>3.1800738263665598</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6891603858520901</v>
+        <v>3.3492407717041801</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.8357194855305468</v>
+        <v>3.6272789710610938</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.633579506966774</v>
+        <v>3.2398656806002144</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5754334619506967</v>
+        <v>3.0262935905680597</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.3231797642015006</v>
+        <v>2.4961861950696682</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11551,99 +11551,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>0.36912751677852351</v>
+        <v>0.73825503355704702</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>0.40771812080536918</v>
+        <v>0.81543624161073835</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>0.38422818791946312</v>
+        <v>0.76845637583892623</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>0.38422818791946312</v>
+        <v>0.76845637583892623</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>0.37583892617449666</v>
+        <v>0.75167785234899331</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>0.39765100671140935</v>
+        <v>0.7953020134228187</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>0.40939597315436244</v>
+        <v>0.81879194630872487</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>0.76677852348993292</v>
+        <v>1.5335570469798658</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>0.89261744966442957</v>
+        <v>1.7852348993288591</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>0.85906040268456363</v>
+        <v>1.7181208053691273</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>0.83892617449664431</v>
+        <v>1.6778523489932886</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>0.8372483221476511</v>
+        <v>1.6744966442953022</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>0.89093959731543615</v>
+        <v>1.7818791946308723</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>0.86409395973154368</v>
+        <v>1.7281879194630874</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>0.60570469798657711</v>
+        <v>1.2114093959731542</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>0.79194630872483218</v>
+        <v>1.5838926174496644</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>0.80201342281879195</v>
+        <v>1.6040268456375839</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>0.75167785234899331</v>
+        <v>1.5033557046979866</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>0.59563758389261745</v>
+        <v>1.1912751677852349</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>0.54026845637583898</v>
+        <v>1.080536912751678</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>0.56711409395973156</v>
+        <v>1.1342281879194631</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>0.56879194630872476</v>
+        <v>1.1375838926174495</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>0.39261744966442952</v>
+        <v>0.78523489932885904</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>0.389261744966443</v>
+        <v>0.778523489932886</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11652,99 +11652,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>1.8518518518518517E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-0.11111111111111112</v>
+        <v>-0.22222222222222224</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-0.12037037037037036</v>
+        <v>-0.24074074074074073</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-0.17592592592592593</v>
+        <v>-0.35185185185185186</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-0.21296296296296294</v>
+        <v>-0.42592592592592587</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-0.21296296296296297</v>
+        <v>-0.42592592592592593</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>0.53703703703703709</v>
+        <v>1.0740740740740742</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>0.68518518518518512</v>
+        <v>1.3703703703703702</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>0.87962962962962954</v>
+        <v>1.7592592592592591</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>0.45370370370370366</v>
+        <v>0.90740740740740733</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>0.31481481481481483</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>0.42592592592592587</v>
+        <v>0.85185185185185175</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>0.18518518518518517</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>0.15740740740740738</v>
+        <v>0.31481481481481477</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>0.18518518518518517</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>0.63888888888888895</v>
+        <v>1.2777777777777779</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>0.64814814814814803</v>
+        <v>1.2962962962962961</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>0.51851851851851838</v>
+        <v>1.0370370370370368</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>0.39814814814814814</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>0.18518518518518515</v>
+        <v>0.37037037037037029</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11753,99 +11753,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.13970588235294118</v>
+        <v>-0.27941176470588236</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-0.33088235294117641</v>
+        <v>-0.66176470588235281</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-0.57720588235294112</v>
+        <v>-1.1544117647058822</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-0.53308823529411764</v>
+        <v>-1.0661764705882353</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-0.54411764705882348</v>
+        <v>-1.088235294117647</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-0.51838235294117652</v>
+        <v>-1.036764705882353</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-2.9411764705882353E-2</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>0.62132352941176461</v>
+        <v>1.2426470588235292</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>0.81617647058823517</v>
+        <v>1.6323529411764703</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>0.82352941176470595</v>
+        <v>1.6470588235294119</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>0.6875</v>
+        <v>1.375</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>0.86029411764705876</v>
+        <v>1.7205882352941175</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>0.77941176470588236</v>
+        <v>1.5588235294117647</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>0.68014705882352933</v>
+        <v>1.3602941176470587</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>0.48897058823529405</v>
+        <v>0.97794117647058809</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>0.30514705882352944</v>
+        <v>0.61029411764705888</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>0.37867647058823528</v>
+        <v>0.75735294117647056</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>0.33823529411764702</v>
+        <v>0.67647058823529405</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>6.2499999999999993E-2</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>0.27205882352941174</v>
+        <v>0.54411764705882348</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>0.38235294117647056</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-0.23161764705882351</v>
+        <v>-0.46323529411764702</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-0.47426470588235292</v>
+        <v>-0.94852941176470584</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12256,99 +12256,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>0.36174496644295301</v>
+        <v>0.72348993288590602</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>0.4117953020134229</v>
+        <v>0.82359060402684581</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>0.39191275167785233</v>
+        <v>0.78382550335570467</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>0.38807046979865772</v>
+        <v>0.77614093959731545</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>0.37959731543624164</v>
+        <v>0.75919463087248329</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>0.38969798657718113</v>
+        <v>0.77939597315436226</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>0.40939597315436244</v>
+        <v>0.81879194630872487</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>0.78211409395973164</v>
+        <v>1.5642281879194633</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>0.90154362416107392</v>
+        <v>1.8030872483221478</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>0.87624161073825491</v>
+        <v>1.7524832214765098</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>0.82214765100671139</v>
+        <v>1.6442953020134228</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>0.84562080536912765</v>
+        <v>1.6912416107382553</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>0.89093959731543615</v>
+        <v>1.7818791946308723</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>0.87273489932885906</v>
+        <v>1.7454697986577181</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>0.60570469798657711</v>
+        <v>1.2114093959731542</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>0.77610738255033551</v>
+        <v>1.552214765100671</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>0.8180536912751678</v>
+        <v>1.6361073825503356</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>0.73664429530201347</v>
+        <v>1.4732885906040269</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>0.60755033557046978</v>
+        <v>1.2151006711409396</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>0.55107382550335582</v>
+        <v>1.1021476510067116</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>0.57845637583892617</v>
+        <v>1.1569127516778523</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>0.56879194630872476</v>
+        <v>1.1375838926174495</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>0.40046979865771809</v>
+        <v>0.80093959731543618</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>0.39315436241610741</v>
+        <v>0.78630872483221481</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12357,99 +12357,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>1.8148148148148146E-2</v>
+        <v>3.6296296296296292E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-0.1088888888888889</v>
+        <v>-0.21777777777777779</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-0.12277777777777776</v>
+        <v>-0.24555555555555553</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-0.17944444444444446</v>
+        <v>-0.35888888888888892</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-0.21296296296296294</v>
+        <v>-0.42592592592592587</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-0.16666666666666669</v>
+        <v>-0.33333333333333337</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-0.2087037037037037</v>
+        <v>-0.41740740740740739</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>0.53703703703703709</v>
+        <v>1.0740740740740742</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>0.68518518518518501</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>0.86203703703703694</v>
+        <v>1.7240740740740739</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>0.4446296296296296</v>
+        <v>0.88925925925925919</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>0.3116666666666667</v>
+        <v>0.62333333333333341</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>0.41740740740740734</v>
+        <v>0.83481481481481468</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>0.18888888888888888</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>0.1558333333333333</v>
+        <v>0.31166666666666659</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>0.18148148148148149</v>
+        <v>0.36296296296296299</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>0.65166666666666673</v>
+        <v>1.3033333333333335</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>0.65462962962962945</v>
+        <v>1.3092592592592589</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>0.50814814814814802</v>
+        <v>1.016296296296296</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>0.39814814814814814</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>0.187037037037037</v>
+        <v>0.374074074074074</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>3.7407407407407403E-2</v>
+        <v>7.4814814814814806E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12458,99 +12458,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.14249999999999999</v>
+        <v>-0.28499999999999998</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-0.33749999999999991</v>
+        <v>-0.67499999999999982</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-0.58874999999999988</v>
+        <v>-1.1774999999999998</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-0.53841911764705885</v>
+        <v>-1.0768382352941177</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-0.55499999999999994</v>
+        <v>-1.1099999999999999</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-0.52356617647058823</v>
+        <v>-1.0471323529411765</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-2.8823529411764706E-2</v>
+        <v>-5.7647058823529412E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>0.61511029411764695</v>
+        <v>1.2302205882352939</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>0.83249999999999991</v>
+        <v>1.6649999999999998</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>0.83176470588235307</v>
+        <v>1.6635294117647061</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>0.68062500000000004</v>
+        <v>1.3612500000000001</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>0.85169117647058812</v>
+        <v>1.7033823529411762</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>0.76382352941176479</v>
+        <v>1.5276470588235296</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>0.66654411764705868</v>
+        <v>1.3330882352941174</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>0.48408088235294111</v>
+        <v>0.96816176470588222</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>0.30819852941176473</v>
+        <v>0.61639705882352946</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>0.37867647058823528</v>
+        <v>0.75735294117647056</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>0.33823529411764702</v>
+        <v>0.67647058823529405</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>6.3749999999999987E-2</v>
+        <v>0.12749999999999997</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>0.2693382352941176</v>
+        <v>0.5386764705882352</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>0.38235294117647056</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>0.2525</v>
+        <v>0.505</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-0.23393382352941175</v>
+        <v>-0.4678676470588235</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-0.48375000000000001</v>
+        <v>-0.96750000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12961,99 +12961,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>0.36174496644295301</v>
+        <v>0.72348993288590602</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>0.40771812080536918</v>
+        <v>0.81543624161073835</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>0.38038590604026851</v>
+        <v>0.76077181208053701</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>0.37654362416107384</v>
+        <v>0.75308724832214768</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>0.37208053691275167</v>
+        <v>0.74416107382550334</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>0.38969798657718113</v>
+        <v>0.77939597315436226</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>0.40939597315436244</v>
+        <v>0.81879194630872487</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>0.78211409395973164</v>
+        <v>1.5642281879194633</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>0.90154362416107392</v>
+        <v>1.8030872483221478</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>0.85906040268456363</v>
+        <v>1.7181208053691273</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>0.83053691275167796</v>
+        <v>1.6610738255033559</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>0.85399328859060419</v>
+        <v>1.7079865771812084</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>0.90875838926174479</v>
+        <v>1.8175167785234896</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>0.84681208053691281</v>
+        <v>1.6936241610738256</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>0.60570469798657711</v>
+        <v>1.2114093959731542</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>0.78402684563758385</v>
+        <v>1.5680536912751677</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>0.8180536912751678</v>
+        <v>1.6361073825503356</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>0.74416107382550334</v>
+        <v>1.4883221476510067</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>0.58372483221476512</v>
+        <v>1.1674496644295302</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>0.54567114093959734</v>
+        <v>1.0913422818791947</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>0.57845637583892617</v>
+        <v>1.1569127516778523</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>0.55741610738255032</v>
+        <v>1.1148322147651006</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>0.38476510067114089</v>
+        <v>0.76953020134228178</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>0.38147651006711414</v>
+        <v>0.76295302013422828</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13062,99 +13062,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>1.8333333333333333E-2</v>
+        <v>3.6666666666666667E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-0.11111111111111112</v>
+        <v>-0.22222222222222224</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-0.12157407407407407</v>
+        <v>-0.24314814814814814</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-0.17416666666666669</v>
+        <v>-0.34833333333333338</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-0.21509259259259256</v>
+        <v>-0.43018518518518511</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-0.16333333333333336</v>
+        <v>-0.32666666666666672</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-0.21296296296296297</v>
+        <v>-0.42592592592592593</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>0.54240740740740745</v>
+        <v>1.0848148148148149</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>0.69888888888888889</v>
+        <v>1.3977777777777778</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>0.87962962962962943</v>
+        <v>1.7592592592592589</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>0.505</v>
+        <v>1.01</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>0.4446296296296296</v>
+        <v>0.88925925925925919</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>0.30851851851851853</v>
+        <v>0.61703703703703705</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>0.43018518518518511</v>
+        <v>0.86037037037037023</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>0.18148148148148149</v>
+        <v>0.36296296296296299</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>0.1558333333333333</v>
+        <v>0.31166666666666659</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>0.18333333333333332</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>0.33333333333333326</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>0.62611111111111117</v>
+        <v>1.2522222222222223</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>0.65462962962962945</v>
+        <v>1.3092592592592589</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>0.5133333333333332</v>
+        <v>1.0266666666666664</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>0.39814814814814814</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>0.18148148148148147</v>
+        <v>0.36296296296296293</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>3.6666666666666667E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13163,99 +13163,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.13970588235294118</v>
+        <v>-0.27941176470588236</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-0.33088235294117641</v>
+        <v>-0.66176470588235281</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-0.57720588235294112</v>
+        <v>-1.1544117647058822</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-0.53841911764705885</v>
+        <v>-1.0768382352941177</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-0.5386764705882352</v>
+        <v>-1.0773529411764704</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-0.52356617647058823</v>
+        <v>-1.0471323529411765</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-2.8823529411764706E-2</v>
+        <v>-5.7647058823529412E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>0.63374999999999992</v>
+        <v>1.2674999999999998</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>0.83249999999999991</v>
+        <v>1.6649999999999998</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>0.82352941176470595</v>
+        <v>1.6470588235294119</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>0.68062500000000004</v>
+        <v>1.3612500000000001</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>0.86889705882352941</v>
+        <v>1.7377941176470588</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>0.7872058823529412</v>
+        <v>1.5744117647058824</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>0.68014705882352933</v>
+        <v>1.3602941176470587</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>0.49386029411764698</v>
+        <v>0.98772058823529396</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>0.30514705882352944</v>
+        <v>0.61029411764705888</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>0.38246323529411763</v>
+        <v>0.76492647058823526</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>0.34161764705882347</v>
+        <v>0.68323529411764694</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>6.3749999999999987E-2</v>
+        <v>0.12749999999999997</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>0.26661764705882351</v>
+        <v>0.53323529411764703</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>0.37852941176470589</v>
+        <v>0.75705882352941178</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>0.2475</v>
+        <v>0.495</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-0.23624999999999996</v>
+        <v>-0.47249999999999992</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-0.47900735294117647</v>
+        <v>-0.95801470588235293</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18257,99 +18257,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.6974257622998081</v>
+        <v>3.230971524599616</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.6455821627555323</v>
+        <v>3.1218176588443978</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.575293266453476</v>
+        <v>2.998946532906952</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.6103554556571107</v>
+        <v>3.0769775779808883</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.5429973205594745</v>
+        <v>2.9682346411189489</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.5270822269323265</v>
+        <v>2.9542177871979867</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.562534679324485</v>
+        <v>3.0028426919823032</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8907414771081177</v>
+        <v>3.7602562875495686</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9255583415804838</v>
+        <v>3.8324500164943012</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9159122942909612</v>
+        <v>3.8046112552485893</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8989914528644529</v>
+        <v>3.7819562390622394</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9425620007302935</v>
+        <v>3.8650973347939206</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.9337466082947421</v>
+        <v>3.8355865499228172</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.9269601592881525</v>
+        <v>3.7951336519096381</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.6878570653408227</v>
+        <v>3.3129941306816457</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.8100727770620171</v>
+        <v>3.5584655541240342</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.9354522457180574</v>
+        <v>3.8363044914361151</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.9423784840566536</v>
+        <v>3.8142769681133073</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.8168023739050092</v>
+        <v>3.5922447478100183</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.7221979753831593</v>
+        <v>3.4153159507663187</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7253166719914705</v>
+        <v>3.4064733439829413</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6337356740267837</v>
+        <v>3.2401780147202337</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5754312354554283</v>
+        <v>3.0262891375775229</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5695982057907012</v>
+        <v>2.9890230782480693</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18358,99 +18358,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2731926217439897</v>
+        <v>2.3825052434879792</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2470879934542503</v>
+        <v>2.3248293202418338</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1836031158769091</v>
+        <v>2.2155662317538183</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1671515823381431</v>
+        <v>2.1905698313429531</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.1514617671638254</v>
+        <v>2.1851635343276508</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2036428247997428</v>
+        <v>2.3073389829328192</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.4527898761935114</v>
+        <v>2.7833530857203561</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.5746075623515838</v>
+        <v>3.1279884580365009</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.7074036950366835</v>
+        <v>3.3961407234067007</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.766956200802779</v>
+        <v>3.506699068272225</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7520062002313481</v>
+        <v>3.4879857337960298</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.7146660870303099</v>
+        <v>3.4093055073939533</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.6650736260700247</v>
+        <v>3.2982405854733825</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.6119387702302688</v>
+        <v>3.1650908737938708</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5092618313821009</v>
+        <v>2.9558036627642017</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5531194644090094</v>
+        <v>3.0445589288180188</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.6935959674359133</v>
+        <v>3.3525919348718269</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>2.0539622053798019</v>
+        <v>4.0374444107596039</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.9305172794706056</v>
+        <v>3.8196745589412111</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.7741076113299536</v>
+        <v>3.5191352226599073</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7358481831875427</v>
+        <v>3.4275363663750857</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6050275772834681</v>
+        <v>3.1827618212336026</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5685185635632295</v>
+        <v>3.0124637937931253</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.4274085831493339</v>
+        <v>2.7046438329653348</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18459,99 +18459,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.0994132883233181</v>
+        <v>2.0349465766466359</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.0489689300314342</v>
+        <v>1.9285911933962019</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.0028293025392627</v>
+        <v>1.8540186050785255</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.0127277938581842</v>
+        <v>1.881722254383035</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.99492937438636697</v>
+        <v>1.8720987487727341</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.1028665936757309</v>
+        <v>2.1057865206847954</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.7419445210528481</v>
+        <v>3.3616623754390296</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.920274296538973</v>
+        <v>3.8193219264112792</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>2.0027286545214915</v>
+        <v>3.9867906423763162</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9485705300829406</v>
+        <v>3.869927726832548</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8667647348740695</v>
+        <v>3.7175028030814725</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9888279282405414</v>
+        <v>3.9576291898144165</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8570822050023281</v>
+        <v>3.6822577433379893</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.7966698991232217</v>
+        <v>3.5345531315797767</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5657935768961071</v>
+        <v>3.0688671537922145</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5585453729014129</v>
+        <v>3.0554107458028259</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.5943350639843477</v>
+        <v>3.1540701279686956</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.755027848431018</v>
+        <v>3.4395756968620361</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.5807450109699244</v>
+        <v>3.1201300219398487</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6287760231291439</v>
+        <v>3.2284720462582879</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.5973771350029704</v>
+        <v>3.1505942700059411</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.4879590491236105</v>
+        <v>2.9486247649138875</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.3379864095873748</v>
+        <v>2.551399485841416</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.2203935252624865</v>
+        <v>2.2906137171916399</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18964,99 +18964,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.6974257622998081</v>
+        <v>3.230971524599616</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.6603445177164209</v>
+        <v>3.151342368766175</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.5610567337889414</v>
+        <v>2.9704734675778828</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.5810230132106351</v>
+        <v>3.0183126930879371</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.5429973205594745</v>
+        <v>2.9682346411189489</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.5556249381376399</v>
+        <v>3.0113032096086134</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.5337285190713286</v>
+        <v>2.9452303714759904</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.9281317733169467</v>
+        <v>3.8350368799672268</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.944627258329622</v>
+        <v>3.8705878499925777</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9536862735101137</v>
+        <v>3.8801592136868943</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8801618050024751</v>
+        <v>3.7442969433382838</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9233366473896572</v>
+        <v>3.8266466281126479</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.9147282088784614</v>
+        <v>3.7975497510902558</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8895966894357228</v>
+        <v>3.7204067122047788</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.7041084359942311</v>
+        <v>3.3454968719884621</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.8450406326032573</v>
+        <v>3.6284012652065147</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.9734692906324187</v>
+        <v>3.9123385812648377</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.9798164537377869</v>
+        <v>3.8891529074755735</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.8345567976440593</v>
+        <v>3.6277535952881186</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.739129155136991</v>
+        <v>3.4491783102739819</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.691693538551641</v>
+        <v>3.3392270771032821</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6176712506198492</v>
+        <v>3.2080491679063647</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.6044483934978702</v>
+        <v>3.0843234536624067</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5837924545152751</v>
+        <v>3.0174115756972171</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19065,99 +19065,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2731926217439897</v>
+        <v>2.3825052434879792</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2255331669184986</v>
+        <v>2.2817196671703304</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1629638535593709</v>
+        <v>2.1742877071187419</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1671515823381431</v>
+        <v>2.1905698313429531</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.1514617671638254</v>
+        <v>2.1851635343276508</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2146797863810737</v>
+        <v>2.3294129060954809</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.4261786120029745</v>
+        <v>2.7301305573392822</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.5746075623515838</v>
+        <v>3.1279884580365009</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.7074036950366835</v>
+        <v>3.3961407234067007</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.7843536294774736</v>
+        <v>3.541493925621614</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7172866095600545</v>
+        <v>3.4185465524534426</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.7485588754375827</v>
+        <v>3.477091084208499</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.697736965258092</v>
+        <v>3.3635672638495171</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.6430018123015406</v>
+        <v>3.2272169579364145</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5381926680097426</v>
+        <v>3.0136653360194856</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5680338590530996</v>
+        <v>3.0743877181061992</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.6935959674359133</v>
+        <v>3.3525919348718269</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>2.0142925612722062</v>
+        <v>3.9581051225444122</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.9494088522653117</v>
+        <v>3.8574577045306233</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.7915578874432529</v>
+        <v>3.5540357748865059</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7696819468512937</v>
+        <v>3.4952038937025875</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6050275772834681</v>
+        <v>3.1827618212336026</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5396396589586314</v>
+        <v>2.9547059845839292</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.4401809356474942</v>
+        <v>2.7301885379616553</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19166,99 +19166,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.1181239540897845</v>
+        <v>2.0723679081795687</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.0665613752987295</v>
+        <v>1.9637760839307925</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.99431740951387015</v>
+        <v>1.8369948190277403</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.0301076830686811</v>
+        <v>1.9164820328040288</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>0.97738598689863965</v>
+        <v>1.8370119737972794</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.0828081951355497</v>
+        <v>2.0656697236044326</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.7581416995967101</v>
+        <v>3.3940567325267534</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.9202742965389727</v>
+        <v>3.8193219264112788</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9630474147643948</v>
+        <v>3.9074281628621232</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9293569581154444</v>
+        <v>3.8315005828975557</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8667647348740695</v>
+        <v>3.7175028030814725</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.949451903009064</v>
+        <v>3.8788771393514616</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8205786942356148</v>
+        <v>3.6092507218045626</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.7966698991232217</v>
+        <v>3.5345531315797767</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5657935768961071</v>
+        <v>3.0688671537922145</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5735140266304271</v>
+        <v>3.0853480532608542</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.5631403627046607</v>
+        <v>3.0916807254093217</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.7718733269153284</v>
+        <v>3.4732666538306569</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.549957310750526</v>
+        <v>3.058554621501052</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6287760231291439</v>
+        <v>3.2284720462582879</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.5818449636529408</v>
+        <v>3.1195299273058819</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.458745734807805</v>
+        <v>2.8901981362822764</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.3137181480622939</v>
+        <v>2.5028629627912542</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.2417979291010695</v>
+        <v>2.3334225248688059</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19669,99 +19669,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.6667548470538118</v>
+        <v>3.1696296941076234</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.6308198077946436</v>
+        <v>3.0922929489226205</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.6037663317825455</v>
+        <v>3.0558926635650909</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.6396878981035863</v>
+        <v>3.1356424628738395</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.5144925741482851</v>
+        <v>2.9112251482965701</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.4985395157270134</v>
+        <v>2.8971323647873604</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.562534679324485</v>
+        <v>3.0028426919823032</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.8907414771081175</v>
+        <v>3.7602562875495682</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9636961750787603</v>
+        <v>3.9087256834908541</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9347992839005375</v>
+        <v>3.8423852344677418</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.9366507485884086</v>
+        <v>3.8572748305101507</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.9617873540709296</v>
+        <v>3.9035480414751929</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8957098094621807</v>
+        <v>3.7595129522576944</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.9643236291405821</v>
+        <v>3.8698605916144975</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.7203598066476391</v>
+        <v>3.3779996132952785</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.8450406326032573</v>
+        <v>3.6284012652065147</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.9354522457180574</v>
+        <v>3.8363044914361151</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.9423784840566536</v>
+        <v>3.8142769681133073</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.7990479501659591</v>
+        <v>3.5567359003319181</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6883356158754963</v>
+        <v>3.3475912317509926</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7085051052715559</v>
+        <v>3.372850210543112</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.6658645208406526</v>
+        <v>3.3044357083479716</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5464140774129862</v>
+        <v>2.9682548214926388</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.5554039570661276</v>
+        <v>2.9606345807989221</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19770,99 +19770,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.2620994955265499</v>
+        <v>2.3603189910530995</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.2686428199900019</v>
+        <v>2.3679389733133371</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.1629638535593709</v>
+        <v>2.1742877071187419</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.1671515823381431</v>
+        <v>2.1905698313429531</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.1411247494921872</v>
+        <v>2.1644894989843744</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.2146797863810737</v>
+        <v>2.3294129060954809</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.4794011403840484</v>
+        <v>2.83657561410143</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.5746075623515838</v>
+        <v>3.1279884580365009</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.6736289544692831</v>
+        <v>3.3285912422718997</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.8017510581521681</v>
+        <v>3.5762887829710031</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.7346464048957013</v>
+        <v>3.4532661431247362</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.7485588754375827</v>
+        <v>3.477091084208499</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.6324102868819577</v>
+        <v>3.2329139070972484</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.6119387702302688</v>
+        <v>3.1650908737938708</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.4803309947544587</v>
+        <v>2.8979419895089178</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5232906751208293</v>
+        <v>2.9849013502416586</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.660416048087195</v>
+        <v>3.2862320961743903</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>2.0737970274336002</v>
+        <v>4.0771140548672005</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.9305172794706056</v>
+        <v>3.8196745589412111</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.8090081635565527</v>
+        <v>3.5889363271131054</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.7189313013556673</v>
+        <v>3.3937026027113348</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.5892502348439668</v>
+        <v>3.1512071363545999</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.5829580158655285</v>
+        <v>3.0413426983977234</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.4401809356474942</v>
+        <v>2.7301885379616553</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19871,99 +19871,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>1.0994132883233181</v>
+        <v>2.0349465766466359</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.0313764847641389</v>
+        <v>1.893406302861611</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>0.99431740951387015</v>
+        <v>1.8369948190277403</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.0214177384634326</v>
+        <v>1.899102143593532</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.0037010681302307</v>
+        <v>1.8896421362604614</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>1.0828081951355497</v>
+        <v>2.0656697236044326</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>1.7095501639651247</v>
+        <v>3.2968736612635827</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>1.9202742965389727</v>
+        <v>3.8193219264112788</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>1.9828880346429429</v>
+        <v>3.9471094026192195</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>1.9101433861479484</v>
+        <v>3.7930734389625638</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>1.8667647348740695</v>
+        <v>3.7175028030814725</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>1.949451903009064</v>
+        <v>3.8788771393514616</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>1.8205786942356148</v>
+        <v>3.6092507218045626</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>1.8140487314477871</v>
+        <v>3.5693107962289075</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>1.5808243126650683</v>
+        <v>3.0989286253301369</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>1.5884826803594412</v>
+        <v>3.1152853607188824</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>1.5631403627046607</v>
+        <v>3.0916807254093217</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>1.7213368914623977</v>
+        <v>3.3721937829247954</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>1.611532711189323</v>
+        <v>3.1817054223786458</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>1.6607699435917267</v>
+        <v>3.2924598871834534</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>1.5973771350029704</v>
+        <v>3.1505942700059411</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>1.5025657062815132</v>
+        <v>2.9778380792296928</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>1.3137181480622939</v>
+        <v>2.5028629627912542</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>1.2203935252624865</v>
+        <v>2.2906137171916399</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20376,99 +20376,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>0.47890223974499929</v>
+        <v>0.95780447948999858</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>0.33835252382797754</v>
+        <v>0.67670504765595507</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>0.2933152049997419</v>
+        <v>0.58663040999948379</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>0.37597920405262775</v>
+        <v>0.75195840810525549</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>0.32372919826989854</v>
+        <v>0.64745839653979709</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>0.26616064843137627</v>
+        <v>0.53232129686275254</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>0.22022093899442957</v>
+        <v>0.44044187798885914</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>0.76956963847288995</v>
+        <v>1.5391392769457799</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>0.80480896312760986</v>
+        <v>1.6096179262552197</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>0.69028862142358149</v>
+        <v>1.380577242847163</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>0.80423635899774992</v>
+        <v>1.6084727179954998</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>0.7472954774044559</v>
+        <v>1.4945909548089118</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>0.75058790130003716</v>
+        <v>1.5011758026000743</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>0.67024639439716782</v>
+        <v>1.3404927887943356</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>0.39772719374239196</v>
+        <v>0.79545438748478392</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>0.62271862789681975</v>
+        <v>1.2454372557936395</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>0.7468549644815089</v>
+        <v>1.4937099289630178</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>0.69686247348348063</v>
+        <v>1.3937249469669613</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>0.48703811234401295</v>
+        <v>0.9740762246880259</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>0.50527310832686778</v>
+        <v>1.0105462166537356</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>0.47061775385582694</v>
+        <v>0.94123550771165387</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>0.29192797670682519</v>
+        <v>0.58385595341365037</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>0.23287275272605826</v>
+        <v>0.46574550545211651</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>0.24136256822908222</v>
+        <v>0.48272513645816445</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20477,99 +20477,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-0.90706329414045361</v>
+        <v>-1.8141265882809072</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-0.90686331208478954</v>
+        <v>-1.8137266241695791</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-0.93188638208679642</v>
+        <v>-1.8637727641735928</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-0.97457615514860096</v>
+        <v>-1.9491523102972019</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-0.9652171751075308</v>
+        <v>-1.9304343502150616</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-0.8858437567223697</v>
+        <v>-1.7716875134447394</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-0.56169464433641803</v>
+        <v>-1.1233892886728361</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-0.10797382505137376</v>
+        <v>-0.21594765010274752</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-0.11603157050052083</v>
+        <v>-0.23206314100104167</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-7.6894902043023891E-2</v>
+        <v>-0.15378980408604778</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-6.7736534631667289E-2</v>
+        <v>-0.13547306926333458</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-0.30230377526485008</v>
+        <v>-0.60460755052970017</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-0.44163334533225668</v>
+        <v>-0.88326669066451335</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-0.57250457526513832</v>
+        <v>-1.1450091505302766</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-0.56820045696800536</v>
+        <v>-1.1364009139360107</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-0.57780941457865576</v>
+        <v>-1.1556188291573115</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-0.45429518216203307</v>
+        <v>-0.90859036432406615</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>0.14931389940145909</v>
+        <v>0.29862779880291818</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-2.1043517176296614E-2</v>
+        <v>-4.2087034352593228E-2</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-0.24840401708098986</v>
+        <v>-0.49680803416197972</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-0.46045102619620792</v>
+        <v>-0.92090205239241585</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-0.60568502141609626</v>
+        <v>-1.2113700428321925</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-0.664288771926411</v>
+        <v>-1.328577543852822</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-0.76057887058062168</v>
+        <v>-1.5211577411612434</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20578,99 +20578,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-0.86747691271318916</v>
+        <v>-1.7349538254263783</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-0.9360101064383729</v>
+        <v>-1.8720202128767458</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-0.95317858941066025</v>
+        <v>-1.9063571788213205</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-0.94043138430237849</v>
+        <v>-1.880862768604757</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-0.94121356618308449</v>
+        <v>-1.882427132366169</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-0.78595362497722321</v>
+        <v>-1.5719072499544464</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-2.9266571822498873E-2</v>
+        <v>-5.8533143644997745E-2</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>0.40521130564053132</v>
+        <v>0.81042261128106263</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>0.51644938286443498</v>
+        <v>1.03289876572887</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>0.35977082407973482</v>
+        <v>0.71954164815946964</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>0.21241697122482392</v>
+        <v>0.42483394244964784</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>0.42133808863961802</v>
+        <v>0.84267617727923605</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>0.26567471301164131</v>
+        <v>0.53134942602328261</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>8.0603898986466901E-2</v>
+        <v>0.1612077979729338</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-0.31888789627391856</v>
+        <v>-0.63777579254783712</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-0.31902359431659227</v>
+        <v>-0.63804718863318455</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-0.26279844099096616</v>
+        <v>-0.52559688198193233</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-0.13257650615196562</v>
+        <v>-0.26515301230393123</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-0.32312346011453463</v>
+        <v>-0.64624692022906927</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-0.1841067383404017</v>
+        <v>-0.3682134766808034</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-0.25276872803133121</v>
+        <v>-0.50553745606266243</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-0.41924618148211923</v>
+        <v>-0.83849236296423846</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-0.66235113504173537</v>
+        <v>-1.3247022700834707</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-0.74768719427812047</v>
+        <v>-1.4953743885562409</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F6549-9AF7-4128-8478-55A897112565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7380EEA-A0CA-4BC8-8923-023F6976527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="5505" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23385" yWindow="5505" windowWidth="21600" windowHeight="12660" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -702,2688 +702,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>3.0670915245996162</v>
+            <v>7.6677288114990407</v>
           </cell>
           <cell r="C2">
-            <v>2.952470992177731</v>
+            <v>7.3811774804443271</v>
           </cell>
           <cell r="D2">
-            <v>2.847306532906952</v>
+            <v>7.11826633226738</v>
           </cell>
           <cell r="E2">
-            <v>2.9332442446475548</v>
+            <v>7.3331106116188867</v>
           </cell>
           <cell r="F2">
-            <v>2.8504746411189488</v>
+            <v>7.1261866027973717</v>
           </cell>
           <cell r="G2">
-            <v>2.8542711205313198</v>
+            <v>7.1356778013282991</v>
           </cell>
           <cell r="H2">
-            <v>2.8806160253156365</v>
+            <v>7.2015400632890909</v>
           </cell>
           <cell r="I2">
-            <v>3.7390296208829019</v>
+            <v>9.3475740522072552</v>
           </cell>
           <cell r="J2">
-            <v>3.8137833498276343</v>
+            <v>9.5344583745690858</v>
           </cell>
           <cell r="K2">
-            <v>3.7773979219152558</v>
+            <v>9.4434948047881395</v>
           </cell>
           <cell r="L2">
-            <v>3.7659295723955726</v>
+            <v>9.4148239309889306</v>
           </cell>
           <cell r="M2">
-            <v>3.8450706681272537</v>
+            <v>9.6126766703181339</v>
           </cell>
           <cell r="N2">
-            <v>3.8036798832561507</v>
+            <v>9.5091997081403772</v>
           </cell>
           <cell r="O2">
-            <v>3.7363469852429714</v>
+            <v>9.3408674631074291</v>
           </cell>
           <cell r="P2">
-            <v>3.2502741306816456</v>
+            <v>8.1256853267041134</v>
           </cell>
           <cell r="Q2">
-            <v>3.4967855541240342</v>
+            <v>8.7419638853100849</v>
           </cell>
           <cell r="R2">
-            <v>3.8017044914361149</v>
+            <v>9.5042612285902877</v>
           </cell>
           <cell r="S2">
-            <v>3.7437969681133074</v>
+            <v>9.359492420283269</v>
           </cell>
           <cell r="T2">
-            <v>3.5508847478100183</v>
+            <v>8.8772118695250448</v>
           </cell>
           <cell r="U2">
-            <v>3.3862359507663187</v>
+            <v>8.4655898769157965</v>
           </cell>
           <cell r="V2">
-            <v>3.3623133439829411</v>
+            <v>8.4057833599573524</v>
           </cell>
           <cell r="W2">
-            <v>3.2128846813869005</v>
+            <v>8.0322117034672509</v>
           </cell>
           <cell r="X2">
-            <v>2.9017158042441897</v>
+            <v>7.2542895106104748</v>
           </cell>
           <cell r="Y2">
-            <v>2.8388497449147359</v>
+            <v>7.0971243622868396</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.2186252434879794</v>
+            <v>5.5465631087199485</v>
           </cell>
           <cell r="C3">
-            <v>2.155482653575167</v>
+            <v>5.3887066339379173</v>
           </cell>
           <cell r="D3">
-            <v>2.0639262317538183</v>
+            <v>5.1598155793845457</v>
           </cell>
           <cell r="E3">
-            <v>2.0468364980096196</v>
+            <v>5.1170912450240493</v>
           </cell>
           <cell r="F3">
-            <v>2.0674035343276507</v>
+            <v>5.1685088358191269</v>
           </cell>
           <cell r="G3">
-            <v>2.2073923162661524</v>
+            <v>5.5184807906653806</v>
           </cell>
           <cell r="H3">
-            <v>2.6611264190536894</v>
+            <v>6.6528160476342233</v>
           </cell>
           <cell r="I3">
-            <v>3.1067617913698342</v>
+            <v>7.7669044784245855</v>
           </cell>
           <cell r="J3">
-            <v>3.3774740567400339</v>
+            <v>8.443685141850084</v>
           </cell>
           <cell r="K3">
-            <v>3.4794857349388915</v>
+            <v>8.6987143373472282</v>
           </cell>
           <cell r="L3">
-            <v>3.471959067129363</v>
+            <v>8.6798976678234077</v>
           </cell>
           <cell r="M3">
-            <v>3.3892788407272865</v>
+            <v>8.4731971018182168</v>
           </cell>
           <cell r="N3">
-            <v>3.266333918806716</v>
+            <v>8.1658347970167906</v>
           </cell>
           <cell r="O3">
-            <v>3.106304207127204</v>
+            <v>7.76576051781801</v>
           </cell>
           <cell r="P3">
-            <v>2.8930836627642016</v>
+            <v>7.232709156910504</v>
           </cell>
           <cell r="Q3">
-            <v>2.9828789288180189</v>
+            <v>7.4571973220450474</v>
           </cell>
           <cell r="R3">
-            <v>3.3179919348718268</v>
+            <v>8.2949798371795662</v>
           </cell>
           <cell r="S3">
-            <v>3.966964410759604</v>
+            <v>9.9174110268990106</v>
           </cell>
           <cell r="T3">
-            <v>3.778314558941211</v>
+            <v>9.4457863973530269</v>
           </cell>
           <cell r="U3">
-            <v>3.4900552226599073</v>
+            <v>8.7251380566497687</v>
           </cell>
           <cell r="V3">
-            <v>3.3833763663750855</v>
+            <v>8.4584409159377145</v>
           </cell>
           <cell r="W3">
-            <v>3.1554684879002695</v>
+            <v>7.8886712197506732</v>
           </cell>
           <cell r="X3">
-            <v>2.8878904604597921</v>
+            <v>7.2197261511494801</v>
           </cell>
           <cell r="Y3">
-            <v>2.5544704996320013</v>
+            <v>6.3861762490800036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.8710665766466361</v>
+            <v>4.6776664416165907</v>
           </cell>
           <cell r="C4">
-            <v>1.7592445267295351</v>
+            <v>4.3981113168238375</v>
           </cell>
           <cell r="D4">
-            <v>1.7023786050785255</v>
+            <v>4.2559465126963136</v>
           </cell>
           <cell r="E4">
-            <v>1.7379889210497017</v>
+            <v>4.3449723026242539</v>
           </cell>
           <cell r="F4">
-            <v>1.754338748772734</v>
+            <v>4.3858468719318351</v>
           </cell>
           <cell r="G4">
-            <v>2.0058398540181286</v>
+            <v>5.0145996350453217</v>
           </cell>
           <cell r="H4">
-            <v>3.2394357087723629</v>
+            <v>8.0985892719309067</v>
           </cell>
           <cell r="I4">
-            <v>3.7980952597446125</v>
+            <v>9.4952381493615317</v>
           </cell>
           <cell r="J4">
-            <v>3.9681239757096494</v>
+            <v>9.920309939274123</v>
           </cell>
           <cell r="K4">
-            <v>3.8427143934992145</v>
+            <v>9.6067859837480363</v>
           </cell>
           <cell r="L4">
-            <v>3.7014761364148057</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>3.9376025231477496</v>
+            <v>9.8440063078693747</v>
           </cell>
           <cell r="N4">
-            <v>3.6503510766713227</v>
+            <v>9.1258776916783066</v>
           </cell>
           <cell r="O4">
-            <v>3.4757664649131099</v>
+            <v>8.6894161622827752</v>
           </cell>
           <cell r="P4">
-            <v>3.0061471537922144</v>
+            <v>7.5153678844805363</v>
           </cell>
           <cell r="Q4">
-            <v>2.9937307458028259</v>
+            <v>7.4843268645070644</v>
           </cell>
           <cell r="R4">
-            <v>3.1194701279686954</v>
+            <v>7.7986753199217382</v>
           </cell>
           <cell r="S4">
-            <v>3.3690956968620362</v>
+            <v>8.4227392421550906</v>
           </cell>
           <cell r="T4">
-            <v>3.0787700219398486</v>
+            <v>7.696925054849622</v>
           </cell>
           <cell r="U4">
-            <v>3.1993920462582879</v>
+            <v>7.9984801156457195</v>
           </cell>
           <cell r="V4">
-            <v>3.1064342700059409</v>
+            <v>7.7660856750148524</v>
           </cell>
           <cell r="W4">
-            <v>2.9213314315805543</v>
+            <v>7.303328578951386</v>
           </cell>
           <cell r="X4">
-            <v>2.4268261525080828</v>
+            <v>6.0670653812702069</v>
           </cell>
           <cell r="Y4">
-            <v>2.1404403838583064</v>
+            <v>5.3511009596457662</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>3.0670915245996162</v>
+            <v>7.6677288114990407</v>
           </cell>
           <cell r="C2">
-            <v>2.9819957020995083</v>
+            <v>7.4549892552487709</v>
           </cell>
           <cell r="D2">
-            <v>2.8188334675778828</v>
+            <v>7.0470836689447065</v>
           </cell>
           <cell r="E2">
-            <v>2.8745793597546037</v>
+            <v>7.1864483993865091</v>
           </cell>
           <cell r="F2">
-            <v>2.8504746411189488</v>
+            <v>7.1261866027973717</v>
           </cell>
           <cell r="G2">
-            <v>2.9113565429419466</v>
+            <v>7.2783913573548666</v>
           </cell>
           <cell r="H2">
-            <v>2.8230037048093237</v>
+            <v>7.0575092620233093</v>
           </cell>
           <cell r="I2">
-            <v>3.81381021330056</v>
+            <v>9.5345255332514007</v>
           </cell>
           <cell r="J2">
-            <v>3.8519211833259108</v>
+            <v>9.6298029583147766</v>
           </cell>
           <cell r="K2">
-            <v>3.8529458803535608</v>
+            <v>9.6323647008839011</v>
           </cell>
           <cell r="L2">
-            <v>3.7282702766716169</v>
+            <v>9.3206756916790425</v>
           </cell>
           <cell r="M2">
-            <v>3.806619961445981</v>
+            <v>9.516549903614953</v>
           </cell>
           <cell r="N2">
-            <v>3.7656430844235893</v>
+            <v>9.414107711058973</v>
           </cell>
           <cell r="O2">
-            <v>3.661620045538112</v>
+            <v>9.1540501138452797</v>
           </cell>
           <cell r="P2">
-            <v>3.282776871988462</v>
+            <v>8.2069421799711542</v>
           </cell>
           <cell r="Q2">
-            <v>3.5667212652065148</v>
+            <v>8.9168031630162865</v>
           </cell>
           <cell r="R2">
-            <v>3.8777385812648375</v>
+            <v>9.694346453162094</v>
           </cell>
           <cell r="S2">
-            <v>3.8186729074755736</v>
+            <v>9.5466822686889348</v>
           </cell>
           <cell r="T2">
-            <v>3.5863935952881185</v>
+            <v>8.9659839882202963</v>
           </cell>
           <cell r="U2">
-            <v>3.4200983102739819</v>
+            <v>8.5502457756849548</v>
           </cell>
           <cell r="V2">
-            <v>3.2950670771032819</v>
+            <v>8.2376676927582047</v>
           </cell>
           <cell r="W2">
-            <v>3.1807558345730316</v>
+            <v>7.9518895864325785</v>
           </cell>
           <cell r="X2">
-            <v>2.9597501203290735</v>
+            <v>7.3993753008226832</v>
           </cell>
           <cell r="Y2">
-            <v>2.8672382423638836</v>
+            <v>7.1680956059097092</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.2186252434879794</v>
+            <v>5.5465631087199485</v>
           </cell>
           <cell r="C3">
-            <v>2.1123730005036636</v>
+            <v>5.2809325012591586</v>
           </cell>
           <cell r="D3">
-            <v>2.0226477071187419</v>
+            <v>5.0566192677968544</v>
           </cell>
           <cell r="E3">
-            <v>2.0468364980096196</v>
+            <v>5.1170912450240493</v>
           </cell>
           <cell r="F3">
-            <v>2.0674035343276507</v>
+            <v>5.1685088358191269</v>
           </cell>
           <cell r="G3">
-            <v>2.2294662394288141</v>
+            <v>5.5736655985720347</v>
           </cell>
           <cell r="H3">
-            <v>2.6079038906726155</v>
+            <v>6.5197597266815386</v>
           </cell>
           <cell r="I3">
-            <v>3.1067617913698342</v>
+            <v>7.7669044784245855</v>
           </cell>
           <cell r="J3">
-            <v>3.3774740567400339</v>
+            <v>8.443685141850084</v>
           </cell>
           <cell r="K3">
-            <v>3.5142805922882805</v>
+            <v>8.7857014807207019</v>
           </cell>
           <cell r="L3">
-            <v>3.4025198857867758</v>
+            <v>8.5062997144669392</v>
           </cell>
           <cell r="M3">
-            <v>3.4570644175418321</v>
+            <v>8.6426610438545808</v>
           </cell>
           <cell r="N3">
-            <v>3.3316605971828506</v>
+            <v>8.3291514929571271</v>
           </cell>
           <cell r="O3">
-            <v>3.1684302912697477</v>
+            <v>7.9210757281743689</v>
           </cell>
           <cell r="P3">
-            <v>2.9509453360194855</v>
+            <v>7.3773633400487135</v>
           </cell>
           <cell r="Q3">
-            <v>3.0127077181061992</v>
+            <v>7.531769295265498</v>
           </cell>
           <cell r="R3">
-            <v>3.3179919348718268</v>
+            <v>8.2949798371795662</v>
           </cell>
           <cell r="S3">
-            <v>3.8876251225444123</v>
+            <v>9.7190628063610305</v>
           </cell>
           <cell r="T3">
-            <v>3.8160977045306232</v>
+            <v>9.5402442613265581</v>
           </cell>
           <cell r="U3">
-            <v>3.5249557748865059</v>
+            <v>8.8123894372162646</v>
           </cell>
           <cell r="V3">
-            <v>3.4510438937025874</v>
+            <v>8.6276097342564686</v>
           </cell>
           <cell r="W3">
-            <v>3.1554684879002695</v>
+            <v>7.8886712197506732</v>
           </cell>
           <cell r="X3">
-            <v>2.830132651250596</v>
+            <v>7.0753316281264897</v>
           </cell>
           <cell r="Y3">
-            <v>2.5800152046283218</v>
+            <v>6.450038011570804</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.9084879081795689</v>
+            <v>4.7712197704489228</v>
           </cell>
           <cell r="C4">
-            <v>1.7944294172641257</v>
+            <v>4.4860735431603143</v>
           </cell>
           <cell r="D4">
-            <v>1.6853548190277403</v>
+            <v>4.2133870475693511</v>
           </cell>
           <cell r="E4">
-            <v>1.7727486994706956</v>
+            <v>4.4318717486767394</v>
           </cell>
           <cell r="F4">
-            <v>1.7192519737972793</v>
+            <v>4.2981299344931987</v>
           </cell>
           <cell r="G4">
-            <v>1.9657230569377659</v>
+            <v>4.914307642344415</v>
           </cell>
           <cell r="H4">
-            <v>3.2718300658600867</v>
+            <v>8.1795751646502168</v>
           </cell>
           <cell r="I4">
-            <v>3.798095259744612</v>
+            <v>9.4952381493615299</v>
           </cell>
           <cell r="J4">
-            <v>3.8887614961954564</v>
+            <v>9.7219037404886404</v>
           </cell>
           <cell r="K4">
-            <v>3.8042872495642222</v>
+            <v>9.5107181239105554</v>
           </cell>
           <cell r="L4">
-            <v>3.7014761364148057</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>3.8588504726847948</v>
+            <v>9.647126181711986</v>
           </cell>
           <cell r="N4">
-            <v>3.5773440551378961</v>
+            <v>8.9433601378447403</v>
           </cell>
           <cell r="O4">
-            <v>3.4757664649131099</v>
+            <v>8.6894161622827752</v>
           </cell>
           <cell r="P4">
-            <v>3.0061471537922144</v>
+            <v>7.5153678844805363</v>
           </cell>
           <cell r="Q4">
-            <v>3.0236680532608542</v>
+            <v>7.5591701331521355</v>
           </cell>
           <cell r="R4">
-            <v>3.0570807254093215</v>
+            <v>7.6427018135233036</v>
           </cell>
           <cell r="S4">
-            <v>3.402786653830657</v>
+            <v>8.5069666345766422</v>
           </cell>
           <cell r="T4">
-            <v>3.0171946215010519</v>
+            <v>7.5429865537526295</v>
           </cell>
           <cell r="U4">
-            <v>3.1993920462582879</v>
+            <v>7.9984801156457195</v>
           </cell>
           <cell r="V4">
-            <v>3.0753699273058817</v>
+            <v>7.6884248182647044</v>
           </cell>
           <cell r="W4">
-            <v>2.8629048029489432</v>
+            <v>7.1572620073723581</v>
           </cell>
           <cell r="X4">
-            <v>2.378289629457921</v>
+            <v>5.9457240736448025</v>
           </cell>
           <cell r="Y4">
-            <v>2.1832491915354724</v>
+            <v>5.4581229788386807</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>3.0057496941076236</v>
+            <v>7.5143742352690595</v>
           </cell>
           <cell r="C2">
-            <v>2.9229462822559538</v>
+            <v>7.3073657056398842</v>
           </cell>
           <cell r="D2">
-            <v>2.9042526635650909</v>
+            <v>7.2606316589127271</v>
           </cell>
           <cell r="E2">
-            <v>2.991909129540506</v>
+            <v>7.4797728238512651</v>
           </cell>
           <cell r="F2">
-            <v>2.79346514829657</v>
+            <v>6.9836628707414246</v>
           </cell>
           <cell r="G2">
-            <v>2.7971856981206935</v>
+            <v>6.9929642453017333</v>
           </cell>
           <cell r="H2">
-            <v>2.8806160253156365</v>
+            <v>7.2015400632890909</v>
           </cell>
           <cell r="I2">
-            <v>3.7390296208829015</v>
+            <v>9.3475740522072535</v>
           </cell>
           <cell r="J2">
-            <v>3.8900590168241873</v>
+            <v>9.7251475420604692</v>
           </cell>
           <cell r="K2">
-            <v>3.8151719011344083</v>
+            <v>9.5379297528360212</v>
           </cell>
           <cell r="L2">
-            <v>3.8412481638434839</v>
+            <v>9.6031204096087102</v>
           </cell>
           <cell r="M2">
-            <v>3.883521374808526</v>
+            <v>9.7088034370213148</v>
           </cell>
           <cell r="N2">
-            <v>3.7276062855910279</v>
+            <v>9.3190157139775707</v>
           </cell>
           <cell r="O2">
-            <v>3.8110739249478307</v>
+            <v>9.5276848123695768</v>
           </cell>
           <cell r="P2">
-            <v>3.3152796132952784</v>
+            <v>8.2881990332381967</v>
           </cell>
           <cell r="Q2">
-            <v>3.5667212652065148</v>
+            <v>8.9168031630162865</v>
           </cell>
           <cell r="R2">
-            <v>3.8017044914361149</v>
+            <v>9.5042612285902877</v>
           </cell>
           <cell r="S2">
-            <v>3.7437969681133074</v>
+            <v>9.359492420283269</v>
           </cell>
           <cell r="T2">
-            <v>3.515375900331918</v>
+            <v>8.7884397508297951</v>
           </cell>
           <cell r="U2">
-            <v>3.3185112317509926</v>
+            <v>8.2962780793774815</v>
           </cell>
           <cell r="V2">
-            <v>3.3286902105431118</v>
+            <v>8.3217255263577794</v>
           </cell>
           <cell r="W2">
-            <v>3.2771423750146385</v>
+            <v>8.1928559375365957</v>
           </cell>
           <cell r="X2">
-            <v>2.8436814881593055</v>
+            <v>7.1092037203982636</v>
           </cell>
           <cell r="Y2">
-            <v>2.8104612474655886</v>
+            <v>7.0261531186639719</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.1964389910530997</v>
+            <v>5.4910974776327492</v>
           </cell>
           <cell r="C3">
-            <v>2.1985923066466704</v>
+            <v>5.496480766616676</v>
           </cell>
           <cell r="D3">
-            <v>2.0226477071187419</v>
+            <v>5.0566192677968544</v>
           </cell>
           <cell r="E3">
-            <v>2.0468364980096196</v>
+            <v>5.1170912450240493</v>
           </cell>
           <cell r="F3">
-            <v>2.0467294989843743</v>
+            <v>5.1168237474609359</v>
           </cell>
           <cell r="G3">
-            <v>2.2294662394288141</v>
+            <v>5.5736655985720347</v>
           </cell>
           <cell r="H3">
-            <v>2.7143489474347633</v>
+            <v>6.785872368586908</v>
           </cell>
           <cell r="I3">
-            <v>3.1067617913698342</v>
+            <v>7.7669044784245855</v>
           </cell>
           <cell r="J3">
-            <v>3.3099245756052329</v>
+            <v>8.2748114390130816</v>
           </cell>
           <cell r="K3">
-            <v>3.5490754496376695</v>
+            <v>8.8726886240941738</v>
           </cell>
           <cell r="L3">
-            <v>3.4372394764580694</v>
+            <v>8.5930986911451726</v>
           </cell>
           <cell r="M3">
-            <v>3.4570644175418321</v>
+            <v>8.6426610438545808</v>
           </cell>
           <cell r="N3">
-            <v>3.2010072404305818</v>
+            <v>8.0025181010764541</v>
           </cell>
           <cell r="O3">
-            <v>3.106304207127204</v>
+            <v>7.76576051781801</v>
           </cell>
           <cell r="P3">
-            <v>2.8352219895089177</v>
+            <v>7.0880549737722944</v>
           </cell>
           <cell r="Q3">
-            <v>2.9232213502416586</v>
+            <v>7.3080533756041461</v>
           </cell>
           <cell r="R3">
-            <v>3.2516320961743901</v>
+            <v>8.1290802404359752</v>
           </cell>
           <cell r="S3">
-            <v>4.0066340548672006</v>
+            <v>10.016585137168001</v>
           </cell>
           <cell r="T3">
-            <v>3.778314558941211</v>
+            <v>9.4457863973530269</v>
           </cell>
           <cell r="U3">
-            <v>3.5598563271131054</v>
+            <v>8.8996408177827639</v>
           </cell>
           <cell r="V3">
-            <v>3.3495426027113346</v>
+            <v>8.3738565067783366</v>
           </cell>
           <cell r="W3">
-            <v>3.1239138030212668</v>
+            <v>7.8097845075531671</v>
           </cell>
           <cell r="X3">
-            <v>2.9167693650643902</v>
+            <v>7.2919234126609753</v>
           </cell>
           <cell r="Y3">
-            <v>2.5800152046283218</v>
+            <v>6.450038011570804</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.8710665766466361</v>
+            <v>4.6776664416165907</v>
           </cell>
           <cell r="C4">
-            <v>1.7240596361949443</v>
+            <v>4.3101490904873607</v>
           </cell>
           <cell r="D4">
-            <v>1.6853548190277403</v>
+            <v>4.2133870475693511</v>
           </cell>
           <cell r="E4">
-            <v>1.7553688102601988</v>
+            <v>4.3884220256504971</v>
           </cell>
           <cell r="F4">
-            <v>1.7718821362604613</v>
+            <v>4.4297053406511537</v>
           </cell>
           <cell r="G4">
-            <v>1.9657230569377659</v>
+            <v>4.914307642344415</v>
           </cell>
           <cell r="H4">
-            <v>3.174646994596916</v>
+            <v>7.93661748649229</v>
           </cell>
           <cell r="I4">
-            <v>3.798095259744612</v>
+            <v>9.4952381493615299</v>
           </cell>
           <cell r="J4">
-            <v>3.9284427359525527</v>
+            <v>9.8211068398813808</v>
           </cell>
           <cell r="K4">
-            <v>3.7658601056292302</v>
+            <v>9.4146502640730763</v>
           </cell>
           <cell r="L4">
-            <v>3.7014761364148057</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>3.8588504726847948</v>
+            <v>9.647126181711986</v>
           </cell>
           <cell r="N4">
-            <v>3.5773440551378961</v>
+            <v>8.9433601378447403</v>
           </cell>
           <cell r="O4">
-            <v>3.5105241295622407</v>
+            <v>8.7763103239056015</v>
           </cell>
           <cell r="P4">
-            <v>3.0362086253301368</v>
+            <v>7.5905215633253418</v>
           </cell>
           <cell r="Q4">
-            <v>3.0536053607188824</v>
+            <v>7.6340134017972066</v>
           </cell>
           <cell r="R4">
-            <v>3.0570807254093215</v>
+            <v>7.6427018135233036</v>
           </cell>
           <cell r="S4">
-            <v>3.3017137829247956</v>
+            <v>8.2542844573119893</v>
           </cell>
           <cell r="T4">
-            <v>3.1403454223786458</v>
+            <v>7.8508635559466144</v>
           </cell>
           <cell r="U4">
-            <v>3.2633798871834534</v>
+            <v>8.1584497179586339</v>
           </cell>
           <cell r="V4">
-            <v>3.1064342700059409</v>
+            <v>7.7660856750148524</v>
           </cell>
           <cell r="W4">
-            <v>2.9505447458963596</v>
+            <v>7.3763618647408986</v>
           </cell>
           <cell r="X4">
-            <v>2.378289629457921</v>
+            <v>5.9457240736448025</v>
           </cell>
           <cell r="Y4">
-            <v>2.1404403838583064</v>
+            <v>5.3511009596457662</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>0.95780447948999858</v>
+            <v>2.3945111987249965</v>
           </cell>
           <cell r="C2">
-            <v>0.67670504765595507</v>
+            <v>1.6917626191398876</v>
           </cell>
           <cell r="D2">
-            <v>0.58663040999948379</v>
+            <v>1.4665760249987094</v>
           </cell>
           <cell r="E2">
-            <v>0.75195840810525549</v>
+            <v>1.8798960202631387</v>
           </cell>
           <cell r="F2">
-            <v>0.64745839653979709</v>
+            <v>1.6186459913494926</v>
           </cell>
           <cell r="G2">
-            <v>0.53232129686275254</v>
+            <v>1.3308032421568814</v>
           </cell>
           <cell r="H2">
-            <v>0.44044187798885914</v>
+            <v>1.1011046949721479</v>
           </cell>
           <cell r="I2">
-            <v>1.5391392769457799</v>
+            <v>3.8478481923644496</v>
           </cell>
           <cell r="J2">
-            <v>1.6096179262552197</v>
+            <v>4.0240448156380495</v>
           </cell>
           <cell r="K2">
-            <v>1.380577242847163</v>
+            <v>3.4514431071179077</v>
           </cell>
           <cell r="L2">
-            <v>1.6084727179954998</v>
+            <v>4.0211817949887498</v>
           </cell>
           <cell r="M2">
-            <v>1.4945909548089118</v>
+            <v>3.7364773870222794</v>
           </cell>
           <cell r="N2">
-            <v>1.5011758026000743</v>
+            <v>3.7529395065001858</v>
           </cell>
           <cell r="O2">
-            <v>1.3404927887943356</v>
+            <v>3.3512319719858392</v>
           </cell>
           <cell r="P2">
-            <v>0.79545438748478392</v>
+            <v>1.9886359687119599</v>
           </cell>
           <cell r="Q2">
-            <v>1.2454372557936395</v>
+            <v>3.1135931394840988</v>
           </cell>
           <cell r="R2">
-            <v>1.4937099289630178</v>
+            <v>3.7342748224075444</v>
           </cell>
           <cell r="S2">
-            <v>1.3937249469669613</v>
+            <v>3.4843123674174032</v>
           </cell>
           <cell r="T2">
-            <v>0.9740762246880259</v>
+            <v>2.4351905617200647</v>
           </cell>
           <cell r="U2">
-            <v>1.0105462166537356</v>
+            <v>2.5263655416343389</v>
           </cell>
           <cell r="V2">
-            <v>0.94123550771165387</v>
+            <v>2.3530887692791347</v>
           </cell>
           <cell r="W2">
-            <v>0.58385595341365037</v>
+            <v>1.459639883534126</v>
           </cell>
           <cell r="X2">
-            <v>0.46574550545211651</v>
+            <v>1.1643637636302913</v>
           </cell>
           <cell r="Y2">
-            <v>0.48272513645816445</v>
+            <v>1.2068128411454111</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-1.8141265882809072</v>
+            <v>-4.5353164707022682</v>
           </cell>
           <cell r="C3">
-            <v>-1.8137266241695791</v>
+            <v>-4.5343165604239477</v>
           </cell>
           <cell r="D3">
-            <v>-1.8637727641735928</v>
+            <v>-4.6594319104339821</v>
           </cell>
           <cell r="E3">
-            <v>-1.9491523102972019</v>
+            <v>-4.8728807757430044</v>
           </cell>
           <cell r="F3">
-            <v>-1.9304343502150616</v>
+            <v>-4.8260858755376539</v>
           </cell>
           <cell r="G3">
-            <v>-1.7716875134447394</v>
+            <v>-4.4292187836118488</v>
           </cell>
           <cell r="H3">
-            <v>-1.1233892886728361</v>
+            <v>-2.8084732216820902</v>
           </cell>
           <cell r="I3">
-            <v>-0.21594765010274752</v>
+            <v>-0.53986912525686881</v>
           </cell>
           <cell r="J3">
-            <v>-0.23206314100104167</v>
+            <v>-0.58015785250260421</v>
           </cell>
           <cell r="K3">
-            <v>-0.15378980408604778</v>
+            <v>-0.38447451021511947</v>
           </cell>
           <cell r="L3">
-            <v>-0.13547306926333458</v>
+            <v>-0.33868267315833644</v>
           </cell>
           <cell r="M3">
-            <v>-0.60460755052970017</v>
+            <v>-1.5115188763242504</v>
           </cell>
           <cell r="N3">
-            <v>-0.88326669066451335</v>
+            <v>-2.2081667266612834</v>
           </cell>
           <cell r="O3">
-            <v>-1.1450091505302766</v>
+            <v>-2.8625228763256914</v>
           </cell>
           <cell r="P3">
-            <v>-1.1364009139360107</v>
+            <v>-2.8410022848400267</v>
           </cell>
           <cell r="Q3">
-            <v>-1.1556188291573115</v>
+            <v>-2.8890470728932787</v>
           </cell>
           <cell r="R3">
-            <v>-0.90859036432406615</v>
+            <v>-2.2714759108101652</v>
           </cell>
           <cell r="S3">
-            <v>0.29862779880291818</v>
+            <v>0.74656949700729547</v>
           </cell>
           <cell r="T3">
-            <v>-4.2087034352593228E-2</v>
+            <v>-0.10521758588148307</v>
           </cell>
           <cell r="U3">
-            <v>-0.49680803416197972</v>
+            <v>-1.2420200854049492</v>
           </cell>
           <cell r="V3">
-            <v>-0.92090205239241585</v>
+            <v>-2.3022551309810395</v>
           </cell>
           <cell r="W3">
-            <v>-1.2113700428321925</v>
+            <v>-3.0284251070804813</v>
           </cell>
           <cell r="X3">
-            <v>-1.328577543852822</v>
+            <v>-3.3214438596320548</v>
           </cell>
           <cell r="Y3">
-            <v>-1.5211577411612434</v>
+            <v>-3.8028943529031083</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.7349538254263783</v>
+            <v>-4.337384563565946</v>
           </cell>
           <cell r="C4">
-            <v>-1.8720202128767458</v>
+            <v>-4.6800505321918644</v>
           </cell>
           <cell r="D4">
-            <v>-1.9063571788213205</v>
+            <v>-4.7658929470533016</v>
           </cell>
           <cell r="E4">
-            <v>-1.880862768604757</v>
+            <v>-4.7021569215118921</v>
           </cell>
           <cell r="F4">
-            <v>-1.882427132366169</v>
+            <v>-4.7060678309154227</v>
           </cell>
           <cell r="G4">
-            <v>-1.5719072499544464</v>
+            <v>-3.9297681248861158</v>
           </cell>
           <cell r="H4">
-            <v>-5.8533143644997745E-2</v>
+            <v>-0.14633285911249436</v>
           </cell>
           <cell r="I4">
-            <v>0.81042261128106263</v>
+            <v>2.0260565282026564</v>
           </cell>
           <cell r="J4">
-            <v>1.03289876572887</v>
+            <v>2.5822469143221749</v>
           </cell>
           <cell r="K4">
-            <v>0.71954164815946964</v>
+            <v>1.7988541203986741</v>
           </cell>
           <cell r="L4">
-            <v>0.42483394244964784</v>
+            <v>1.0620848561241196</v>
           </cell>
           <cell r="M4">
-            <v>0.84267617727923605</v>
+            <v>2.1066904431980902</v>
           </cell>
           <cell r="N4">
-            <v>0.53134942602328261</v>
+            <v>1.3283735650582065</v>
           </cell>
           <cell r="O4">
-            <v>0.1612077979729338</v>
+            <v>0.40301949493233452</v>
           </cell>
           <cell r="P4">
-            <v>-0.63777579254783712</v>
+            <v>-1.5944394813695928</v>
           </cell>
           <cell r="Q4">
-            <v>-0.63804718863318455</v>
+            <v>-1.5951179715829613</v>
           </cell>
           <cell r="R4">
-            <v>-0.52559688198193233</v>
+            <v>-1.3139922049548307</v>
           </cell>
           <cell r="S4">
-            <v>-0.26515301230393123</v>
+            <v>-0.66288253075982806</v>
           </cell>
           <cell r="T4">
-            <v>-0.64624692022906927</v>
+            <v>-1.6156173005726733</v>
           </cell>
           <cell r="U4">
-            <v>-0.3682134766808034</v>
+            <v>-0.92053369170200849</v>
           </cell>
           <cell r="V4">
-            <v>-0.50553745606266243</v>
+            <v>-1.2638436401566562</v>
           </cell>
           <cell r="W4">
-            <v>-0.83849236296423846</v>
+            <v>-2.0962309074105963</v>
           </cell>
           <cell r="X4">
-            <v>-1.3247022700834707</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-1.4953743885562409</v>
+            <v>-3.7384359713906026</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>0.96738252428489857</v>
+            <v>2.4184563107122465</v>
           </cell>
           <cell r="C2">
-            <v>0.66317094670283594</v>
+            <v>1.65792736675709</v>
           </cell>
           <cell r="D2">
-            <v>0.59249671409947868</v>
+            <v>1.4812417852486968</v>
           </cell>
           <cell r="E2">
-            <v>0.75195840810525549</v>
+            <v>1.8798960202631387</v>
           </cell>
           <cell r="F2">
-            <v>0.65393298050519499</v>
+            <v>1.6348324512629875</v>
           </cell>
           <cell r="G2">
-            <v>0.53232129686275254</v>
+            <v>1.3308032421568814</v>
           </cell>
           <cell r="H2">
-            <v>0.44044187798885914</v>
+            <v>1.1011046949721479</v>
           </cell>
           <cell r="I2">
-            <v>1.5545306697152379</v>
+            <v>3.8863266742880946</v>
           </cell>
           <cell r="J2">
-            <v>1.6096179262552197</v>
+            <v>4.0240448156380495</v>
           </cell>
           <cell r="K2">
-            <v>1.3529656979902196</v>
+            <v>3.382414244975549</v>
           </cell>
           <cell r="L2">
-            <v>1.6084727179954998</v>
+            <v>4.0211817949887498</v>
           </cell>
           <cell r="M2">
-            <v>1.5244827739050899</v>
+            <v>3.8112069347627249</v>
           </cell>
           <cell r="N2">
-            <v>1.5161875606260751</v>
+            <v>3.7904689015651876</v>
           </cell>
           <cell r="O2">
-            <v>1.353897716682279</v>
+            <v>3.3847442917056973</v>
           </cell>
           <cell r="P2">
-            <v>0.77954529973508824</v>
+            <v>1.9488632493377205</v>
           </cell>
           <cell r="Q2">
-            <v>1.2329828832357033</v>
+            <v>3.082457208089258</v>
           </cell>
           <cell r="R2">
-            <v>1.4937099289630178</v>
+            <v>3.7342748224075444</v>
           </cell>
           <cell r="S2">
-            <v>1.3937249469669613</v>
+            <v>3.4843123674174032</v>
           </cell>
           <cell r="T2">
-            <v>0.9740762246880259</v>
+            <v>2.4351905617200647</v>
           </cell>
           <cell r="U2">
-            <v>1.0206516788202729</v>
+            <v>2.5516291970506821</v>
           </cell>
           <cell r="V2">
-            <v>0.92241079755742073</v>
+            <v>2.3060269938935516</v>
           </cell>
           <cell r="W2">
-            <v>0.58385595341365037</v>
+            <v>1.459639883534126</v>
           </cell>
           <cell r="X2">
-            <v>0.4750604155611588</v>
+            <v>1.1876510389028969</v>
           </cell>
           <cell r="Y2">
-            <v>0.49237963918732774</v>
+            <v>1.2309490979683193</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-1.8504091200465254</v>
+            <v>-4.6260228001163135</v>
           </cell>
           <cell r="C3">
-            <v>-1.7774520916861873</v>
+            <v>-4.4436302292154686</v>
           </cell>
           <cell r="D3">
-            <v>-1.8637727641735926</v>
+            <v>-4.6594319104339812</v>
           </cell>
           <cell r="E3">
-            <v>-1.910169264091258</v>
+            <v>-4.7754231602281454</v>
           </cell>
           <cell r="F3">
-            <v>-1.9304343502150616</v>
+            <v>-4.8260858755376539</v>
           </cell>
           <cell r="G3">
-            <v>-1.7716875134447394</v>
+            <v>-4.4292187836118488</v>
           </cell>
           <cell r="H3">
-            <v>-1.1233892886728361</v>
+            <v>-2.8084732216820902</v>
           </cell>
           <cell r="I3">
-            <v>-0.2116286971006926</v>
+            <v>-0.52907174275173152</v>
           </cell>
           <cell r="J3">
-            <v>-0.22974250959103124</v>
+            <v>-0.57435627397757805</v>
           </cell>
           <cell r="K3">
-            <v>-0.15686560016776874</v>
+            <v>-0.39216400041942184</v>
           </cell>
           <cell r="L3">
-            <v>-0.1327636078780679</v>
+            <v>-0.33190901969516973</v>
           </cell>
           <cell r="M3">
-            <v>-0.61065362603499718</v>
+            <v>-1.526634065087493</v>
           </cell>
           <cell r="N3">
-            <v>-0.89209935757115844</v>
+            <v>-2.2302483939278961</v>
           </cell>
           <cell r="O3">
-            <v>-1.1221089675196712</v>
+            <v>-2.805272418799178</v>
           </cell>
           <cell r="P3">
-            <v>-1.1364009139360107</v>
+            <v>-2.8410022848400267</v>
           </cell>
           <cell r="Q3">
-            <v>-1.1787312057404578</v>
+            <v>-2.9468280143511443</v>
           </cell>
           <cell r="R3">
-            <v>-0.89041855703758488</v>
+            <v>-2.226046392593962</v>
           </cell>
           <cell r="S3">
-            <v>0.30161407679094737</v>
+            <v>0.75403519197736846</v>
           </cell>
           <cell r="T3">
-            <v>-4.1666164009067294E-2</v>
+            <v>-0.10416541002266824</v>
           </cell>
           <cell r="U3">
-            <v>-0.49680803416197977</v>
+            <v>-1.2420200854049495</v>
           </cell>
           <cell r="V3">
-            <v>-0.9301110729163401</v>
+            <v>-2.3252776822908503</v>
           </cell>
           <cell r="W3">
-            <v>-1.1992563424038705</v>
+            <v>-2.9981408560096763</v>
           </cell>
           <cell r="X3">
-            <v>-1.3020059929757657</v>
+            <v>-3.2550149824394143</v>
           </cell>
           <cell r="Y3">
-            <v>-1.536369318572856</v>
+            <v>-3.8409232964321398</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.752303363680642</v>
+            <v>-4.3807584092016052</v>
           </cell>
           <cell r="C4">
-            <v>-1.8720202128767456</v>
+            <v>-4.6800505321918635</v>
           </cell>
           <cell r="D4">
-            <v>-1.9254207506095338</v>
+            <v>-4.8135518765238343</v>
           </cell>
           <cell r="E4">
-            <v>-1.8996713962908047</v>
+            <v>-4.7491784907270116</v>
           </cell>
           <cell r="F4">
-            <v>-1.9012514036898307</v>
+            <v>-4.7531285092245765</v>
           </cell>
           <cell r="G4">
-            <v>-1.6033453949535355</v>
+            <v>-4.0083634873838383</v>
           </cell>
           <cell r="H4">
-            <v>-5.911847508144772E-2</v>
+            <v>-0.1477961877036193</v>
           </cell>
           <cell r="I4">
-            <v>0.82663106350668381</v>
+            <v>2.0665776587667093</v>
           </cell>
           <cell r="J4">
-            <v>1.0432277533861587</v>
+            <v>2.6080693834653967</v>
           </cell>
           <cell r="K4">
-            <v>0.70515081519628031</v>
+            <v>1.7628770379907008</v>
           </cell>
           <cell r="L4">
-            <v>0.43333062129864081</v>
+            <v>1.0833265532466021</v>
           </cell>
           <cell r="M4">
-            <v>0.8342494155064436</v>
+            <v>2.0856235387661091</v>
           </cell>
           <cell r="N4">
-            <v>0.54197641454374823</v>
+            <v>1.3549410363593706</v>
           </cell>
           <cell r="O4">
-            <v>0.16443195393239246</v>
+            <v>0.41107988483098112</v>
           </cell>
           <cell r="P4">
-            <v>-0.64415355047331546</v>
+            <v>-1.6103838761832887</v>
           </cell>
           <cell r="Q4">
-            <v>-0.65080813240584812</v>
+            <v>-1.6270203310146203</v>
           </cell>
           <cell r="R4">
-            <v>-0.53610881962157098</v>
+            <v>-1.3402720490539275</v>
           </cell>
           <cell r="S4">
-            <v>-0.25984995205785261</v>
+            <v>-0.64962488014463149</v>
           </cell>
           <cell r="T4">
-            <v>-0.64624692022906927</v>
+            <v>-1.6156173005726733</v>
           </cell>
           <cell r="U4">
-            <v>-0.36084920714718732</v>
+            <v>-0.90212301786796834</v>
           </cell>
           <cell r="V4">
-            <v>-0.50553745606266243</v>
+            <v>-1.2638436401566562</v>
           </cell>
           <cell r="W4">
-            <v>-0.82172251570495358</v>
+            <v>-2.0543062892623838</v>
           </cell>
           <cell r="X4">
-            <v>-1.3247022700834707</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-1.465466900785116</v>
+            <v>-3.66366725196279</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>0.96738252428489857</v>
+            <v>2.4184563107122465</v>
           </cell>
           <cell r="C2">
-            <v>0.69023914860907409</v>
+            <v>1.7255978715226852</v>
           </cell>
           <cell r="D2">
-            <v>0.57489780179949412</v>
+            <v>1.4372445044987354</v>
           </cell>
           <cell r="E2">
-            <v>0.73691923994315034</v>
+            <v>1.8422980998578757</v>
           </cell>
           <cell r="F2">
-            <v>0.66040756447059312</v>
+            <v>1.6510189111764828</v>
           </cell>
           <cell r="G2">
-            <v>0.52167487092549747</v>
+            <v>1.3041871773137437</v>
           </cell>
           <cell r="H2">
-            <v>0.44925071554863633</v>
+            <v>1.1231267888715908</v>
           </cell>
           <cell r="I2">
-            <v>1.5083564914068643</v>
+            <v>3.770891228517161</v>
           </cell>
           <cell r="J2">
-            <v>1.6257141055177717</v>
+            <v>4.0642852637944298</v>
           </cell>
           <cell r="K2">
-            <v>1.3943830152756345</v>
+            <v>3.4859575381890862</v>
           </cell>
           <cell r="L2">
-            <v>1.624557445175455</v>
+            <v>4.0613936129386374</v>
           </cell>
           <cell r="M2">
-            <v>1.5095368643570009</v>
+            <v>3.7738421608925021</v>
           </cell>
           <cell r="N2">
-            <v>1.4711522865480728</v>
+            <v>3.6778807163701819</v>
           </cell>
           <cell r="O2">
-            <v>1.3270878609063923</v>
+            <v>3.3177196522659806</v>
           </cell>
           <cell r="P2">
-            <v>0.80340893135963176</v>
+            <v>2.0085223283990796</v>
           </cell>
           <cell r="Q2">
-            <v>1.2454372557936395</v>
+            <v>3.1135931394840988</v>
           </cell>
           <cell r="R2">
-            <v>1.5086470282526481</v>
+            <v>3.7716175706316202</v>
           </cell>
           <cell r="S2">
-            <v>1.4076621964366307</v>
+            <v>3.5191554910915768</v>
           </cell>
           <cell r="T2">
-            <v>0.96433546244114565</v>
+            <v>2.4108386561028641</v>
           </cell>
           <cell r="U2">
-            <v>1.0307571409868104</v>
+            <v>2.5768928524670258</v>
           </cell>
           <cell r="V2">
-            <v>0.94123550771165387</v>
+            <v>2.3530887692791347</v>
           </cell>
           <cell r="W2">
-            <v>0.5780173938795139</v>
+            <v>1.4450434846987847</v>
           </cell>
           <cell r="X2">
-            <v>0.45643059534307417</v>
+            <v>1.1410764883576854</v>
           </cell>
           <cell r="Y2">
-            <v>0.48755238782274612</v>
+            <v>1.2188809695568654</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-1.8322678541637163</v>
+            <v>-4.5806696354092908</v>
           </cell>
           <cell r="C3">
-            <v>-1.8137266241695789</v>
+            <v>-4.5343165604239468</v>
           </cell>
           <cell r="D3">
-            <v>-1.8637727641735926</v>
+            <v>-4.6594319104339812</v>
           </cell>
           <cell r="E3">
-            <v>-1.9686438334001739</v>
+            <v>-4.9216095835004348</v>
           </cell>
           <cell r="F3">
-            <v>-1.9690430372193628</v>
+            <v>-4.922607593048407</v>
           </cell>
           <cell r="G3">
-            <v>-1.7894043885791868</v>
+            <v>-4.4735109714479666</v>
           </cell>
           <cell r="H3">
-            <v>-1.1458570744462928</v>
+            <v>-2.8646426861157321</v>
           </cell>
           <cell r="I3">
-            <v>-0.21378817360172003</v>
+            <v>-0.53447043400430005</v>
           </cell>
           <cell r="J3">
-            <v>-0.23206314100104167</v>
+            <v>-0.58015785250260421</v>
           </cell>
           <cell r="K3">
-            <v>-0.15071400800432683</v>
+            <v>-0.37678502001081704</v>
           </cell>
           <cell r="L3">
-            <v>-0.1327636078780679</v>
+            <v>-0.33190901969516973</v>
           </cell>
           <cell r="M3">
-            <v>-0.60460755052970017</v>
+            <v>-1.5115188763242504</v>
           </cell>
           <cell r="N3">
-            <v>-0.87443402375786816</v>
+            <v>-2.1860850593946703</v>
           </cell>
           <cell r="O3">
-            <v>-1.1564592420355795</v>
+            <v>-2.8911481050889485</v>
           </cell>
           <cell r="P3">
-            <v>-1.1591289322147309</v>
+            <v>-2.8978223305368274</v>
           </cell>
           <cell r="Q3">
-            <v>-1.1787312057404578</v>
+            <v>-2.9468280143511443</v>
           </cell>
           <cell r="R3">
-            <v>-0.89041855703758488</v>
+            <v>-2.226046392593962</v>
           </cell>
           <cell r="S3">
-            <v>0.29265524282685978</v>
+            <v>0.73163810706714949</v>
           </cell>
           <cell r="T3">
-            <v>-4.1666164009067294E-2</v>
+            <v>-0.10416541002266824</v>
           </cell>
           <cell r="U3">
-            <v>-0.50674419484521938</v>
+            <v>-1.2668604871130484</v>
           </cell>
           <cell r="V3">
-            <v>-0.9116930318684916</v>
+            <v>-2.2792325796712292</v>
           </cell>
           <cell r="W3">
-            <v>-1.2234837432605143</v>
+            <v>-3.0587093581512859</v>
           </cell>
           <cell r="X3">
-            <v>-1.3551490947298785</v>
+            <v>-3.3878727368246961</v>
           </cell>
           <cell r="Y3">
-            <v>-1.5211577411612434</v>
+            <v>-3.8028943529031083</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-1.752303363680642</v>
+            <v>-4.3807584092016052</v>
           </cell>
           <cell r="C4">
-            <v>-1.8720202128767456</v>
+            <v>-4.6800505321918635</v>
           </cell>
           <cell r="D4">
-            <v>-1.9254207506095338</v>
+            <v>-4.8135518765238343</v>
           </cell>
           <cell r="E4">
-            <v>-1.880862768604757</v>
+            <v>-4.7021569215118921</v>
           </cell>
           <cell r="F4">
-            <v>-1.8447785897188456</v>
+            <v>-4.6119464742971141</v>
           </cell>
           <cell r="G4">
-            <v>-1.5719072499544464</v>
+            <v>-3.9297681248861158</v>
           </cell>
           <cell r="H4">
-            <v>-5.911847508144772E-2</v>
+            <v>-0.1477961877036193</v>
           </cell>
           <cell r="I4">
-            <v>0.80231838516825205</v>
+            <v>2.0057959629206303</v>
           </cell>
           <cell r="J4">
-            <v>1.03289876572887</v>
+            <v>2.5822469143221749</v>
           </cell>
           <cell r="K4">
-            <v>0.73393248112265908</v>
+            <v>1.8348312028066478</v>
           </cell>
           <cell r="L4">
-            <v>0.41633726360065487</v>
+            <v>1.0408431590016372</v>
           </cell>
           <cell r="M4">
-            <v>0.8342494155064436</v>
+            <v>2.0856235387661091</v>
           </cell>
           <cell r="N4">
-            <v>0.52603593176304975</v>
+            <v>1.3150898294076243</v>
           </cell>
           <cell r="O4">
-            <v>0.1612077979729338</v>
+            <v>0.40301949493233452</v>
           </cell>
           <cell r="P4">
-            <v>-0.64415355047331546</v>
+            <v>-1.6103838761832887</v>
           </cell>
           <cell r="Q4">
-            <v>-0.63166671674685271</v>
+            <v>-1.5791667918671317</v>
           </cell>
           <cell r="R4">
-            <v>-0.52034091316211306</v>
+            <v>-1.3008522829052827</v>
           </cell>
           <cell r="S4">
-            <v>-0.27045607255000986</v>
+            <v>-0.67614018137502463</v>
           </cell>
           <cell r="T4">
-            <v>-0.65917185863365058</v>
+            <v>-1.6479296465841264</v>
           </cell>
           <cell r="U4">
-            <v>-0.36084920714718732</v>
+            <v>-0.90212301786796834</v>
           </cell>
           <cell r="V4">
-            <v>-0.49542670694140917</v>
+            <v>-1.238566767353523</v>
           </cell>
           <cell r="W4">
-            <v>-0.83010743933459608</v>
+            <v>-2.07526859833649</v>
           </cell>
           <cell r="X4">
-            <v>-1.3247022700834707</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-1.4953743885562409</v>
+            <v>-3.7384359713906026</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>3.1000000000000005</v>
+            <v>7.7500000000000018</v>
           </cell>
           <cell r="C2">
-            <v>3.0697674418604657</v>
+            <v>7.674418604651164</v>
           </cell>
           <cell r="D2">
-            <v>2.9569767441860466</v>
+            <v>7.3924418604651168</v>
           </cell>
           <cell r="E2">
-            <v>2.9034883720930234</v>
+            <v>7.2587209302325579</v>
           </cell>
           <cell r="F2">
-            <v>2.8825581395348836</v>
+            <v>7.2063953488372086</v>
           </cell>
           <cell r="G2">
-            <v>2.9255813953488374</v>
+            <v>7.3139534883720936</v>
           </cell>
           <cell r="H2">
-            <v>2.9000000000000004</v>
+            <v>7.2500000000000009</v>
           </cell>
           <cell r="I2">
-            <v>3.5465116279069768</v>
+            <v>8.8662790697674421</v>
           </cell>
           <cell r="J2">
-            <v>3.8151162790697679</v>
+            <v>9.5377906976744207</v>
           </cell>
           <cell r="K2">
-            <v>3.7651162790697672</v>
+            <v>9.4127906976744171</v>
           </cell>
           <cell r="L2">
-            <v>3.7034883720930236</v>
+            <v>9.2587209302325597</v>
           </cell>
           <cell r="M2">
-            <v>3.7488372093023261</v>
+            <v>9.3720930232558146</v>
           </cell>
           <cell r="N2">
-            <v>3.8872093023255823</v>
+            <v>9.7180232558139554</v>
           </cell>
           <cell r="O2">
-            <v>3.8139534883720927</v>
+            <v>9.5348837209302317</v>
           </cell>
           <cell r="P2">
-            <v>3.5174418604651163</v>
+            <v>8.7936046511627914</v>
           </cell>
           <cell r="Q2">
-            <v>3.6255813953488372</v>
+            <v>9.0639534883720927</v>
           </cell>
           <cell r="R2">
-            <v>3.6674418604651162</v>
+            <v>9.1686046511627914</v>
           </cell>
           <cell r="S2">
-            <v>3.5465116279069768</v>
+            <v>8.8662790697674421</v>
           </cell>
           <cell r="T2">
-            <v>3.3674418604651164</v>
+            <v>8.4186046511627914</v>
           </cell>
           <cell r="U2">
-            <v>3.324418604651163</v>
+            <v>8.3110465116279073</v>
           </cell>
           <cell r="V2">
-            <v>3.3139534883720931</v>
+            <v>8.2848837209302335</v>
           </cell>
           <cell r="W2">
-            <v>3.2767441860465119</v>
+            <v>8.1918604651162799</v>
           </cell>
           <cell r="X2">
-            <v>3.0279069767441866</v>
+            <v>7.569767441860467</v>
           </cell>
           <cell r="Y2">
-            <v>2.9279069767441865</v>
+            <v>7.3197674418604661</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.7410714285714284</v>
+            <v>6.8526785714285712</v>
           </cell>
           <cell r="C3">
-            <v>2.5848214285714279</v>
+            <v>6.4620535714285694</v>
           </cell>
           <cell r="D3">
-            <v>2.4821428571428568</v>
+            <v>6.2053571428571423</v>
           </cell>
           <cell r="E3">
-            <v>2.2633928571428572</v>
+            <v>5.6584821428571432</v>
           </cell>
           <cell r="F3">
-            <v>2.1785714285714284</v>
+            <v>5.4464285714285712</v>
           </cell>
           <cell r="G3">
-            <v>2.2901785714285712</v>
+            <v>5.7254464285714279</v>
           </cell>
           <cell r="H3">
-            <v>2.4375</v>
+            <v>6.09375</v>
           </cell>
           <cell r="I3">
-            <v>3.2723214285714279</v>
+            <v>8.1808035714285694</v>
           </cell>
           <cell r="J3">
-            <v>3.5714285714285712</v>
+            <v>8.928571428571427</v>
           </cell>
           <cell r="K3">
-            <v>3.8080357142857144</v>
+            <v>9.5200892857142865</v>
           </cell>
           <cell r="L3">
-            <v>3.4732142857142856</v>
+            <v>8.6830357142857135</v>
           </cell>
           <cell r="M3">
-            <v>3.6473214285714284</v>
+            <v>9.1183035714285712</v>
           </cell>
           <cell r="N3">
-            <v>3.651785714285714</v>
+            <v>9.1294642857142847</v>
           </cell>
           <cell r="O3">
-            <v>3.5625</v>
+            <v>8.90625</v>
           </cell>
           <cell r="P3">
-            <v>3.0625</v>
+            <v>7.65625</v>
           </cell>
           <cell r="Q3">
-            <v>3.1919642857142856</v>
+            <v>7.9799107142857135</v>
           </cell>
           <cell r="R3">
-            <v>3.3794642857142856</v>
+            <v>8.4486607142857135</v>
           </cell>
           <cell r="S3">
-            <v>3.3660714285714279</v>
+            <v>8.4151785714285694</v>
           </cell>
           <cell r="T3">
-            <v>3.5089285714285707</v>
+            <v>8.772321428571427</v>
           </cell>
           <cell r="U3">
-            <v>3.6964285714285707</v>
+            <v>9.241071428571427</v>
           </cell>
           <cell r="V3">
-            <v>3.8660714285714284</v>
+            <v>9.6651785714285712</v>
           </cell>
           <cell r="W3">
-            <v>3.5491071428571428</v>
+            <v>8.8727678571428577</v>
           </cell>
           <cell r="X3">
-            <v>3.0491071428571423</v>
+            <v>7.6227678571428559</v>
           </cell>
           <cell r="Y3">
-            <v>2.8169642857142856</v>
+            <v>7.0424107142857135</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.242765273311897</v>
+            <v>5.6069131832797421</v>
           </cell>
           <cell r="C4">
-            <v>2.107717041800643</v>
+            <v>5.269292604501608</v>
           </cell>
           <cell r="D4">
-            <v>1.9421221864951772</v>
+            <v>4.8553054662379429</v>
           </cell>
           <cell r="E4">
-            <v>2.0209003215434085</v>
+            <v>5.052250803858521</v>
           </cell>
           <cell r="F4">
-            <v>1.9839228295819937</v>
+            <v>4.959807073954984</v>
           </cell>
           <cell r="G4">
-            <v>2.0241157556270095</v>
+            <v>5.060289389067524</v>
           </cell>
           <cell r="H4">
-            <v>2.8697749196141484</v>
+            <v>7.1744372990353709</v>
           </cell>
           <cell r="I4">
-            <v>3.6736334405144699</v>
+            <v>9.1840836012861757</v>
           </cell>
           <cell r="J4">
-            <v>3.85048231511254</v>
+            <v>9.6262057877813501</v>
           </cell>
           <cell r="K4">
-            <v>3.6109324758842445</v>
+            <v>9.0273311897106119</v>
           </cell>
           <cell r="L4">
-            <v>3.5337620578778135</v>
+            <v>8.834405144694534</v>
           </cell>
           <cell r="M4">
-            <v>3.79903536977492</v>
+            <v>9.4975884244372999</v>
           </cell>
           <cell r="N4">
-            <v>3.9726688102893895</v>
+            <v>9.9316720257234739</v>
           </cell>
           <cell r="O4">
-            <v>3.6881028938906755</v>
+            <v>9.220257234726688</v>
           </cell>
           <cell r="P4">
-            <v>3.3633440514469459</v>
+            <v>8.4083601286173639</v>
           </cell>
           <cell r="Q4">
-            <v>3.189710610932476</v>
+            <v>7.97427652733119</v>
           </cell>
           <cell r="R4">
-            <v>3.260450160771704</v>
+            <v>8.1511254019292601</v>
           </cell>
           <cell r="S4">
-            <v>3.14951768488746</v>
+            <v>7.8737942122186499</v>
           </cell>
           <cell r="T4">
-            <v>3.077170418006431</v>
+            <v>7.6929260450160779</v>
           </cell>
           <cell r="U4">
-            <v>3.3536977491961415</v>
+            <v>8.384244372990354</v>
           </cell>
           <cell r="V4">
-            <v>3.5128617363344055</v>
+            <v>8.7821543408360139</v>
           </cell>
           <cell r="W4">
-            <v>3.2781350482315115</v>
+            <v>8.195337620578778</v>
           </cell>
           <cell r="X4">
-            <v>2.872990353697749</v>
+            <v>7.1824758842443721</v>
           </cell>
           <cell r="Y4">
-            <v>2.393890675241158</v>
+            <v>5.9847266881028949</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>3.1310000000000007</v>
+            <v>7.8275000000000015</v>
           </cell>
           <cell r="C2">
-            <v>3.0697674418604657</v>
+            <v>7.674418604651164</v>
           </cell>
           <cell r="D2">
-            <v>2.8978372093023257</v>
+            <v>7.2445930232558142</v>
           </cell>
           <cell r="E2">
-            <v>2.9034883720930238</v>
+            <v>7.2587209302325597</v>
           </cell>
           <cell r="F2">
-            <v>2.8249069767441859</v>
+            <v>7.062267441860465</v>
           </cell>
           <cell r="G2">
-            <v>2.9255813953488374</v>
+            <v>7.3139534883720936</v>
           </cell>
           <cell r="H2">
-            <v>2.9580000000000002</v>
+            <v>7.3950000000000005</v>
           </cell>
           <cell r="I2">
-            <v>3.5465116279069768</v>
+            <v>8.8662790697674421</v>
           </cell>
           <cell r="J2">
-            <v>3.8532674418604653</v>
+            <v>9.6331686046511642</v>
           </cell>
           <cell r="K2">
-            <v>3.7651162790697672</v>
+            <v>9.4127906976744171</v>
           </cell>
           <cell r="L2">
-            <v>3.6664534883720932</v>
+            <v>9.1661337209302332</v>
           </cell>
           <cell r="M2">
-            <v>3.6738604651162796</v>
+            <v>9.1846511627906988</v>
           </cell>
           <cell r="N2">
-            <v>3.8094651162790707</v>
+            <v>9.5236627906976761</v>
           </cell>
           <cell r="O2">
-            <v>3.8902325581395347</v>
+            <v>9.7255813953488364</v>
           </cell>
           <cell r="P2">
-            <v>3.5877906976744187</v>
+            <v>8.9694767441860463</v>
           </cell>
           <cell r="Q2">
-            <v>3.6618372093023255</v>
+            <v>9.1545930232558135</v>
           </cell>
           <cell r="R2">
-            <v>3.7041162790697673</v>
+            <v>9.2602906976744173</v>
           </cell>
           <cell r="S2">
-            <v>3.4755813953488373</v>
+            <v>8.6889534883720927</v>
           </cell>
           <cell r="T2">
-            <v>3.4347906976744191</v>
+            <v>8.5869767441860478</v>
           </cell>
           <cell r="U2">
-            <v>3.2911744186046512</v>
+            <v>8.227936046511628</v>
           </cell>
           <cell r="V2">
-            <v>3.3470930232558143</v>
+            <v>8.3677325581395365</v>
           </cell>
           <cell r="W2">
-            <v>3.2767441860465119</v>
+            <v>8.1918604651162799</v>
           </cell>
           <cell r="X2">
-            <v>3.0884651162790702</v>
+            <v>7.7211627906976759</v>
           </cell>
           <cell r="Y2">
-            <v>2.9864651162790703</v>
+            <v>7.466162790697676</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.7410714285714284</v>
+            <v>6.8526785714285712</v>
           </cell>
           <cell r="C3">
-            <v>2.5848214285714279</v>
+            <v>6.4620535714285694</v>
           </cell>
           <cell r="D3">
-            <v>2.4573214285714284</v>
+            <v>6.1433035714285715</v>
           </cell>
           <cell r="E3">
-            <v>2.2860267857142857</v>
+            <v>5.7150669642857146</v>
           </cell>
           <cell r="F3">
-            <v>2.1785714285714284</v>
+            <v>5.4464285714285712</v>
           </cell>
           <cell r="G3">
-            <v>2.3359821428571426</v>
+            <v>5.8399553571428564</v>
           </cell>
           <cell r="H3">
-            <v>2.413125</v>
+            <v>6.0328125000000004</v>
           </cell>
           <cell r="I3">
-            <v>3.239598214285714</v>
+            <v>8.0989955357142858</v>
           </cell>
           <cell r="J3">
-            <v>3.6071428571428568</v>
+            <v>9.0178571428571423</v>
           </cell>
           <cell r="K3">
-            <v>3.769955357142857</v>
+            <v>9.4248883928571416</v>
           </cell>
           <cell r="L3">
-            <v>3.5079464285714281</v>
+            <v>8.7698660714285701</v>
           </cell>
           <cell r="M3">
-            <v>3.6473214285714284</v>
+            <v>9.1183035714285712</v>
           </cell>
           <cell r="N3">
-            <v>3.7248214285714285</v>
+            <v>9.3120535714285708</v>
           </cell>
           <cell r="O3">
-            <v>3.5625</v>
+            <v>8.90625</v>
           </cell>
           <cell r="P3">
-            <v>3.0012500000000002</v>
+            <v>7.5031250000000007</v>
           </cell>
           <cell r="Q3">
-            <v>3.1919642857142856</v>
+            <v>7.9799107142857135</v>
           </cell>
           <cell r="R3">
-            <v>3.4132589285714285</v>
+            <v>8.5331473214285722</v>
           </cell>
           <cell r="S3">
-            <v>3.3997321428571423</v>
+            <v>8.4993303571428562</v>
           </cell>
           <cell r="T3">
-            <v>3.5791071428571422</v>
+            <v>8.9477678571428552</v>
           </cell>
           <cell r="U3">
-            <v>3.6224999999999996</v>
+            <v>9.0562499999999986</v>
           </cell>
           <cell r="V3">
-            <v>3.8274107142857137</v>
+            <v>9.5685267857142833</v>
           </cell>
           <cell r="W3">
-            <v>3.6200892857142857</v>
+            <v>9.0502232142857135</v>
           </cell>
           <cell r="X3">
-            <v>3.0186160714285712</v>
+            <v>7.5465401785714281</v>
           </cell>
           <cell r="Y3">
-            <v>2.7606250000000001</v>
+            <v>6.9015625000000007</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.1979099678456593</v>
+            <v>5.494774919614148</v>
           </cell>
           <cell r="C4">
-            <v>2.1498713826366558</v>
+            <v>5.3746784565916395</v>
           </cell>
           <cell r="D4">
-            <v>1.9227009646302256</v>
+            <v>4.8067524115755642</v>
           </cell>
           <cell r="E4">
-            <v>2.0006913183279744</v>
+            <v>5.0017282958199356</v>
           </cell>
           <cell r="F4">
-            <v>2.0236012861736334</v>
+            <v>5.0590032154340836</v>
           </cell>
           <cell r="G4">
-            <v>1.9836334405144695</v>
+            <v>4.9590836012861743</v>
           </cell>
           <cell r="H4">
-            <v>2.8123794212218653</v>
+            <v>7.0309485530546638</v>
           </cell>
           <cell r="I4">
-            <v>3.7471061093247595</v>
+            <v>9.3677652733118997</v>
           </cell>
           <cell r="J4">
-            <v>3.8119774919614144</v>
+            <v>9.5299437299035361</v>
           </cell>
           <cell r="K4">
-            <v>3.6470418006430867</v>
+            <v>9.1176045016077172</v>
           </cell>
           <cell r="L4">
-            <v>3.5337620578778139</v>
+            <v>8.8344051446945357</v>
           </cell>
           <cell r="M4">
-            <v>3.7230546623794214</v>
+            <v>9.3076366559485528</v>
           </cell>
           <cell r="N4">
-            <v>3.9726688102893895</v>
+            <v>9.9316720257234739</v>
           </cell>
           <cell r="O4">
-            <v>3.6143408360128619</v>
+            <v>9.0358520900321544</v>
           </cell>
           <cell r="P4">
-            <v>3.3633440514469459</v>
+            <v>8.4083601286173639</v>
           </cell>
           <cell r="Q4">
-            <v>3.2216077170418007</v>
+            <v>8.0540192926045009</v>
           </cell>
           <cell r="R4">
-            <v>3.2278456591639872</v>
+            <v>8.0696141479099683</v>
           </cell>
           <cell r="S4">
-            <v>3.0865273311897106</v>
+            <v>7.7163183279742764</v>
           </cell>
           <cell r="T4">
-            <v>3.0463987138263668</v>
+            <v>7.6159967845659171</v>
           </cell>
           <cell r="U4">
-            <v>3.4207717041800647</v>
+            <v>8.5519292604501622</v>
           </cell>
           <cell r="V4">
-            <v>3.4777331189710616</v>
+            <v>8.6943327974276539</v>
           </cell>
           <cell r="W4">
-            <v>3.3436977491961413</v>
+            <v>8.3592443729903536</v>
           </cell>
           <cell r="X4">
-            <v>2.872990353697749</v>
+            <v>7.1824758842443721</v>
           </cell>
           <cell r="Y4">
-            <v>2.4178295819935696</v>
+            <v>6.0445739549839237</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>3.1310000000000007</v>
+            <v>7.8275000000000015</v>
           </cell>
           <cell r="C2">
-            <v>3.1311627906976751</v>
+            <v>7.8279069767441882</v>
           </cell>
           <cell r="D2">
-            <v>2.8978372093023257</v>
+            <v>7.2445930232558142</v>
           </cell>
           <cell r="E2">
-            <v>2.9615581395348838</v>
+            <v>7.4038953488372092</v>
           </cell>
           <cell r="F2">
-            <v>2.8249069767441859</v>
+            <v>7.062267441860465</v>
           </cell>
           <cell r="G2">
-            <v>2.8963255813953492</v>
+            <v>7.2408139534883729</v>
           </cell>
           <cell r="H2">
-            <v>2.9000000000000004</v>
+            <v>7.2500000000000009</v>
           </cell>
           <cell r="I2">
-            <v>3.6174418604651164</v>
+            <v>9.0436046511627914</v>
           </cell>
           <cell r="J2">
-            <v>3.7388139534883726</v>
+            <v>9.3470348837209318</v>
           </cell>
           <cell r="K2">
-            <v>3.7274651162790695</v>
+            <v>9.3186627906976742</v>
           </cell>
           <cell r="L2">
-            <v>3.7405232558139541</v>
+            <v>9.3513081395348845</v>
           </cell>
           <cell r="M2">
-            <v>3.7488372093023261</v>
+            <v>9.3720930232558146</v>
           </cell>
           <cell r="N2">
-            <v>3.8483372093023265</v>
+            <v>9.6208430232558158</v>
           </cell>
           <cell r="O2">
-            <v>3.7376744186046507</v>
+            <v>9.3441860465116271</v>
           </cell>
           <cell r="P2">
-            <v>3.4822674418604653</v>
+            <v>8.705668604651164</v>
           </cell>
           <cell r="Q2">
-            <v>3.6980930232558138</v>
+            <v>9.2452325581395343</v>
           </cell>
           <cell r="R2">
-            <v>3.7041162790697673</v>
+            <v>9.2602906976744173</v>
           </cell>
           <cell r="S2">
-            <v>3.4755813953488373</v>
+            <v>8.6889534883720927</v>
           </cell>
           <cell r="T2">
-            <v>3.3674418604651164</v>
+            <v>8.4186046511627914</v>
           </cell>
           <cell r="U2">
-            <v>3.2911744186046512</v>
+            <v>8.227936046511628</v>
           </cell>
           <cell r="V2">
-            <v>3.280813953488372</v>
+            <v>8.2020348837209305</v>
           </cell>
           <cell r="W2">
-            <v>3.342279069767442</v>
+            <v>8.3556976744186056</v>
           </cell>
           <cell r="X2">
-            <v>3.0884651162790706</v>
+            <v>7.7211627906976767</v>
           </cell>
           <cell r="Y2">
-            <v>2.8986279069767447</v>
+            <v>7.2465697674418621</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2.7684821428571427</v>
+            <v>6.9212053571428562</v>
           </cell>
           <cell r="C3">
-            <v>2.6106696428571423</v>
+            <v>6.5266741071428562</v>
           </cell>
           <cell r="D3">
-            <v>2.4821428571428568</v>
+            <v>6.2053571428571423</v>
           </cell>
           <cell r="E3">
-            <v>2.3086607142857143</v>
+            <v>5.7716517857142859</v>
           </cell>
           <cell r="F3">
-            <v>2.1567857142857139</v>
+            <v>5.3919642857142849</v>
           </cell>
           <cell r="G3">
-            <v>2.2672767857142855</v>
+            <v>5.6681919642857137</v>
           </cell>
           <cell r="H3">
-            <v>2.461875</v>
+            <v>6.1546874999999996</v>
           </cell>
           <cell r="I3">
-            <v>3.2068749999999993</v>
+            <v>8.0171874999999986</v>
           </cell>
           <cell r="J3">
-            <v>3.4999999999999996</v>
+            <v>8.7499999999999982</v>
           </cell>
           <cell r="K3">
-            <v>3.8461160714285714</v>
+            <v>9.6152901785714278</v>
           </cell>
           <cell r="L3">
-            <v>3.4037499999999996</v>
+            <v>8.5093749999999986</v>
           </cell>
           <cell r="M3">
-            <v>3.6473214285714284</v>
+            <v>9.1183035714285712</v>
           </cell>
           <cell r="N3">
-            <v>3.6152678571428569</v>
+            <v>9.0381696428571416</v>
           </cell>
           <cell r="O3">
-            <v>3.5625</v>
+            <v>8.90625</v>
           </cell>
           <cell r="P3">
-            <v>3.0318749999999999</v>
+            <v>7.5796874999999995</v>
           </cell>
           <cell r="Q3">
-            <v>3.2238839285714285</v>
+            <v>8.0597098214285712</v>
           </cell>
           <cell r="R3">
-            <v>3.4470535714285715</v>
+            <v>8.6176339285714292</v>
           </cell>
           <cell r="S3">
-            <v>3.3997321428571423</v>
+            <v>8.4993303571428562</v>
           </cell>
           <cell r="T3">
-            <v>3.4387499999999993</v>
+            <v>8.5968749999999989</v>
           </cell>
           <cell r="U3">
-            <v>3.6964285714285707</v>
+            <v>9.241071428571427</v>
           </cell>
           <cell r="V3">
-            <v>3.7887499999999998</v>
+            <v>9.4718749999999989</v>
           </cell>
           <cell r="W3">
-            <v>3.5491071428571428</v>
+            <v>8.8727678571428577</v>
           </cell>
           <cell r="X3">
-            <v>3.0491071428571423</v>
+            <v>7.6227678571428559</v>
           </cell>
           <cell r="Y3">
-            <v>2.8451339285714283</v>
+            <v>7.1128348214285708</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>2.2651929260450161</v>
+            <v>5.66298231511254</v>
           </cell>
           <cell r="C4">
-            <v>2.0655627009646302</v>
+            <v>5.1639067524115756</v>
           </cell>
           <cell r="D4">
-            <v>1.9809646302250807</v>
+            <v>4.9524115755627021</v>
           </cell>
           <cell r="E4">
-            <v>2.0411093247588425</v>
+            <v>5.1027733118971064</v>
           </cell>
           <cell r="F4">
-            <v>1.9640836012861738</v>
+            <v>4.9102090032154342</v>
           </cell>
           <cell r="G4">
-            <v>1.9836334405144693</v>
+            <v>4.9590836012861734</v>
           </cell>
           <cell r="H4">
-            <v>2.9271704180064315</v>
+            <v>7.3179260450160788</v>
           </cell>
           <cell r="I4">
-            <v>3.7103697749196147</v>
+            <v>9.2759244372990359</v>
           </cell>
           <cell r="J4">
-            <v>3.8119774919614144</v>
+            <v>9.5299437299035361</v>
           </cell>
           <cell r="K4">
-            <v>3.6831511254019293</v>
+            <v>9.2078778135048225</v>
           </cell>
           <cell r="L4">
-            <v>3.4630868167202573</v>
+            <v>8.6577170418006428</v>
           </cell>
           <cell r="M4">
-            <v>3.8750160771704185</v>
+            <v>9.687540192926047</v>
           </cell>
           <cell r="N4">
-            <v>4.0521221864951773</v>
+            <v>10.130305466237942</v>
           </cell>
           <cell r="O4">
-            <v>3.6143408360128619</v>
+            <v>9.0358520900321544</v>
           </cell>
           <cell r="P4">
-            <v>3.3297106109324766</v>
+            <v>8.3242765273311914</v>
           </cell>
           <cell r="Q4">
-            <v>3.2535048231511254</v>
+            <v>8.1337620578778136</v>
           </cell>
           <cell r="R4">
-            <v>3.325659163987138</v>
+            <v>8.3141479099678453</v>
           </cell>
           <cell r="S4">
-            <v>3.0865273311897106</v>
+            <v>7.7163183279742764</v>
           </cell>
           <cell r="T4">
-            <v>3.1387138263665597</v>
+            <v>7.8467845659163995</v>
           </cell>
           <cell r="U4">
-            <v>3.3201607717041801</v>
+            <v>8.3004019292604507</v>
           </cell>
           <cell r="V4">
-            <v>3.5831189710610936</v>
+            <v>8.9577974276527339</v>
           </cell>
           <cell r="W4">
-            <v>3.2125723472668812</v>
+            <v>8.0314308681672024</v>
           </cell>
           <cell r="X4">
-            <v>2.9017202572347265</v>
+            <v>7.2543006430868164</v>
           </cell>
           <cell r="Y4">
-            <v>2.3460128617363347</v>
+            <v>5.8650321543408364</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>0.73825503355704702</v>
+            <v>1.8456375838926176</v>
           </cell>
           <cell r="C2">
-            <v>0.81543624161073835</v>
+            <v>2.038590604026846</v>
           </cell>
           <cell r="D2">
-            <v>0.76845637583892623</v>
+            <v>1.9211409395973156</v>
           </cell>
           <cell r="E2">
-            <v>0.76845637583892623</v>
+            <v>1.9211409395973156</v>
           </cell>
           <cell r="F2">
-            <v>0.75167785234899331</v>
+            <v>1.8791946308724832</v>
           </cell>
           <cell r="G2">
-            <v>0.7953020134228187</v>
+            <v>1.9882550335570468</v>
           </cell>
           <cell r="H2">
-            <v>0.81879194630872487</v>
+            <v>2.0469798657718123</v>
           </cell>
           <cell r="I2">
-            <v>1.5335570469798658</v>
+            <v>3.8338926174496644</v>
           </cell>
           <cell r="J2">
-            <v>1.7852348993288591</v>
+            <v>4.4630872483221475</v>
           </cell>
           <cell r="K2">
-            <v>1.7181208053691273</v>
+            <v>4.2953020134228179</v>
           </cell>
           <cell r="L2">
-            <v>1.6778523489932886</v>
+            <v>4.1946308724832218</v>
           </cell>
           <cell r="M2">
-            <v>1.6744966442953022</v>
+            <v>4.1862416107382554</v>
           </cell>
           <cell r="N2">
-            <v>1.7818791946308723</v>
+            <v>4.4546979865771803</v>
           </cell>
           <cell r="O2">
-            <v>1.7281879194630874</v>
+            <v>4.3204697986577187</v>
           </cell>
           <cell r="P2">
-            <v>1.2114093959731542</v>
+            <v>3.0285234899328857</v>
           </cell>
           <cell r="Q2">
-            <v>1.5838926174496644</v>
+            <v>3.9597315436241609</v>
           </cell>
           <cell r="R2">
-            <v>1.6040268456375839</v>
+            <v>4.0100671140939594</v>
           </cell>
           <cell r="S2">
-            <v>1.5033557046979866</v>
+            <v>3.7583892617449663</v>
           </cell>
           <cell r="T2">
-            <v>1.1912751677852349</v>
+            <v>2.9781879194630871</v>
           </cell>
           <cell r="U2">
-            <v>1.080536912751678</v>
+            <v>2.701342281879195</v>
           </cell>
           <cell r="V2">
-            <v>1.1342281879194631</v>
+            <v>2.8355704697986579</v>
           </cell>
           <cell r="W2">
-            <v>1.1375838926174495</v>
+            <v>2.8439597315436238</v>
           </cell>
           <cell r="X2">
-            <v>0.78523489932885904</v>
+            <v>1.9630872483221475</v>
           </cell>
           <cell r="Y2">
-            <v>0.778523489932886</v>
+            <v>1.9463087248322151</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.7037037037037035E-2</v>
+            <v>9.2592592592592587E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.22222222222222224</v>
+            <v>-0.55555555555555558</v>
           </cell>
           <cell r="D3">
-            <v>-0.24074074074074073</v>
+            <v>-0.60185185185185186</v>
           </cell>
           <cell r="E3">
-            <v>-0.35185185185185186</v>
+            <v>-0.87962962962962965</v>
           </cell>
           <cell r="F3">
-            <v>-0.42592592592592587</v>
+            <v>-1.0648148148148147</v>
           </cell>
           <cell r="G3">
-            <v>-0.33333333333333337</v>
+            <v>-0.83333333333333348</v>
           </cell>
           <cell r="H3">
-            <v>-0.42592592592592593</v>
+            <v>-1.0648148148148149</v>
           </cell>
           <cell r="I3">
-            <v>1.0740740740740742</v>
+            <v>2.6851851851851856</v>
           </cell>
           <cell r="J3">
-            <v>1.3703703703703702</v>
+            <v>3.4259259259259256</v>
           </cell>
           <cell r="K3">
-            <v>1.7592592592592591</v>
+            <v>4.3981481481481479</v>
           </cell>
           <cell r="L3">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="M3">
-            <v>0.90740740740740733</v>
+            <v>2.2685185185185182</v>
           </cell>
           <cell r="N3">
-            <v>0.62962962962962965</v>
+            <v>1.5740740740740742</v>
           </cell>
           <cell r="O3">
-            <v>0.85185185185185175</v>
+            <v>2.1296296296296293</v>
           </cell>
           <cell r="P3">
-            <v>0.37037037037037035</v>
+            <v>0.92592592592592582</v>
           </cell>
           <cell r="Q3">
-            <v>0.31481481481481477</v>
+            <v>0.78703703703703698</v>
           </cell>
           <cell r="R3">
-            <v>0.37037037037037035</v>
+            <v>0.92592592592592582</v>
           </cell>
           <cell r="S3">
-            <v>0.66666666666666663</v>
+            <v>1.6666666666666665</v>
           </cell>
           <cell r="T3">
-            <v>1.2777777777777779</v>
+            <v>3.1944444444444446</v>
           </cell>
           <cell r="U3">
-            <v>1.2962962962962961</v>
+            <v>3.24074074074074</v>
           </cell>
           <cell r="V3">
-            <v>1.0370370370370368</v>
+            <v>2.5925925925925917</v>
           </cell>
           <cell r="W3">
-            <v>0.79629629629629628</v>
+            <v>1.9907407407407407</v>
           </cell>
           <cell r="X3">
-            <v>0.37037037037037029</v>
+            <v>0.92592592592592571</v>
           </cell>
           <cell r="Y3">
-            <v>7.407407407407407E-2</v>
+            <v>0.18518518518518517</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.27941176470588236</v>
+            <v>-0.69852941176470584</v>
           </cell>
           <cell r="C4">
-            <v>-0.66176470588235281</v>
+            <v>-1.654411764705882</v>
           </cell>
           <cell r="D4">
-            <v>-1.1544117647058822</v>
+            <v>-2.8860294117647056</v>
           </cell>
           <cell r="E4">
-            <v>-1.0661764705882353</v>
+            <v>-2.6654411764705883</v>
           </cell>
           <cell r="F4">
-            <v>-1.088235294117647</v>
+            <v>-2.7205882352941173</v>
           </cell>
           <cell r="G4">
-            <v>-1.036764705882353</v>
+            <v>-2.5919117647058827</v>
           </cell>
           <cell r="H4">
-            <v>-5.8823529411764705E-2</v>
+            <v>-0.14705882352941177</v>
           </cell>
           <cell r="I4">
-            <v>1.2426470588235292</v>
+            <v>3.1066176470588229</v>
           </cell>
           <cell r="J4">
-            <v>1.6323529411764703</v>
+            <v>4.0808823529411757</v>
           </cell>
           <cell r="K4">
-            <v>1.6470588235294119</v>
+            <v>4.1176470588235299</v>
           </cell>
           <cell r="L4">
-            <v>1.375</v>
+            <v>3.4375</v>
           </cell>
           <cell r="M4">
-            <v>1.7205882352941175</v>
+            <v>4.3014705882352935</v>
           </cell>
           <cell r="N4">
-            <v>1.5588235294117647</v>
+            <v>3.8970588235294117</v>
           </cell>
           <cell r="O4">
+            <v>3.4007352941176467</v>
+          </cell>
+          <cell r="P4">
+            <v>2.4448529411764701</v>
+          </cell>
+          <cell r="Q4">
+            <v>1.5257352941176472</v>
+          </cell>
+          <cell r="R4">
+            <v>1.8933823529411764</v>
+          </cell>
+          <cell r="S4">
+            <v>1.6911764705882351</v>
+          </cell>
+          <cell r="T4">
+            <v>0.31249999999999994</v>
+          </cell>
+          <cell r="U4">
             <v>1.3602941176470587</v>
           </cell>
-          <cell r="P4">
-            <v>0.97794117647058809</v>
-          </cell>
-          <cell r="Q4">
-            <v>0.61029411764705888</v>
-          </cell>
-          <cell r="R4">
-            <v>0.75735294117647056</v>
-          </cell>
-          <cell r="S4">
-            <v>0.67647058823529405</v>
-          </cell>
-          <cell r="T4">
-            <v>0.12499999999999999</v>
-          </cell>
-          <cell r="U4">
-            <v>0.54411764705882348</v>
-          </cell>
           <cell r="V4">
-            <v>0.76470588235294112</v>
+            <v>1.9117647058823528</v>
           </cell>
           <cell r="W4">
-            <v>0.5</v>
+            <v>1.25</v>
           </cell>
           <cell r="X4">
-            <v>-0.46323529411764702</v>
+            <v>-1.1580882352941175</v>
           </cell>
           <cell r="Y4">
-            <v>-0.94852941176470584</v>
+            <v>-2.3713235294117645</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>0.72348993288590602</v>
+            <v>1.8087248322147651</v>
           </cell>
           <cell r="C2">
-            <v>0.82359060402684581</v>
+            <v>2.0589765100671147</v>
           </cell>
           <cell r="D2">
-            <v>0.78382550335570467</v>
+            <v>1.9595637583892618</v>
           </cell>
           <cell r="E2">
-            <v>0.77614093959731545</v>
+            <v>1.9403523489932886</v>
           </cell>
           <cell r="F2">
-            <v>0.75919463087248329</v>
+            <v>1.8979865771812081</v>
           </cell>
           <cell r="G2">
-            <v>0.77939597315436226</v>
+            <v>1.9484899328859058</v>
           </cell>
           <cell r="H2">
-            <v>0.81879194630872487</v>
+            <v>2.0469798657718123</v>
           </cell>
           <cell r="I2">
-            <v>1.5642281879194633</v>
+            <v>3.9105704697986581</v>
           </cell>
           <cell r="J2">
-            <v>1.8030872483221478</v>
+            <v>4.5077181208053698</v>
           </cell>
           <cell r="K2">
-            <v>1.7524832214765098</v>
+            <v>4.3812080536912745</v>
           </cell>
           <cell r="L2">
-            <v>1.6442953020134228</v>
+            <v>4.1107382550335565</v>
           </cell>
           <cell r="M2">
-            <v>1.6912416107382553</v>
+            <v>4.2281040268456387</v>
           </cell>
           <cell r="N2">
-            <v>1.7818791946308723</v>
+            <v>4.4546979865771803</v>
           </cell>
           <cell r="O2">
-            <v>1.7454697986577181</v>
+            <v>4.3636744966442951</v>
           </cell>
           <cell r="P2">
-            <v>1.2114093959731542</v>
+            <v>3.0285234899328857</v>
           </cell>
           <cell r="Q2">
-            <v>1.552214765100671</v>
+            <v>3.8805369127516776</v>
           </cell>
           <cell r="R2">
-            <v>1.6361073825503356</v>
+            <v>4.0902684563758394</v>
           </cell>
           <cell r="S2">
-            <v>1.4732885906040269</v>
+            <v>3.6832214765100675</v>
           </cell>
           <cell r="T2">
-            <v>1.2151006711409396</v>
+            <v>3.037751677852349</v>
           </cell>
           <cell r="U2">
-            <v>1.1021476510067116</v>
+            <v>2.7553691275167793</v>
           </cell>
           <cell r="V2">
-            <v>1.1569127516778523</v>
+            <v>2.892281879194631</v>
           </cell>
           <cell r="W2">
-            <v>1.1375838926174495</v>
+            <v>2.8439597315436238</v>
           </cell>
           <cell r="X2">
-            <v>0.80093959731543618</v>
+            <v>2.0023489932885905</v>
           </cell>
           <cell r="Y2">
-            <v>0.78630872483221481</v>
+            <v>1.965771812080537</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.6296296296296292E-2</v>
+            <v>9.0740740740740733E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.21777777777777779</v>
+            <v>-0.54444444444444451</v>
           </cell>
           <cell r="D3">
-            <v>-0.24555555555555553</v>
+            <v>-0.61388888888888882</v>
           </cell>
           <cell r="E3">
-            <v>-0.35888888888888892</v>
+            <v>-0.89722222222222237</v>
           </cell>
           <cell r="F3">
-            <v>-0.42592592592592587</v>
+            <v>-1.0648148148148147</v>
           </cell>
           <cell r="G3">
-            <v>-0.33333333333333337</v>
+            <v>-0.83333333333333348</v>
           </cell>
           <cell r="H3">
-            <v>-0.41740740740740739</v>
+            <v>-1.0435185185185185</v>
           </cell>
           <cell r="I3">
-            <v>1.0740740740740742</v>
+            <v>2.6851851851851856</v>
           </cell>
           <cell r="J3">
-            <v>1.37037037037037</v>
+            <v>3.4259259259259252</v>
           </cell>
           <cell r="K3">
-            <v>1.7240740740740739</v>
+            <v>4.3101851851851851</v>
           </cell>
           <cell r="L3">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="M3">
-            <v>0.88925925925925919</v>
+            <v>2.2231481481481481</v>
           </cell>
           <cell r="N3">
-            <v>0.62333333333333341</v>
+            <v>1.5583333333333336</v>
           </cell>
           <cell r="O3">
-            <v>0.83481481481481468</v>
+            <v>2.0870370370370366</v>
           </cell>
           <cell r="P3">
-            <v>0.37777777777777777</v>
+            <v>0.94444444444444442</v>
           </cell>
           <cell r="Q3">
-            <v>0.31166666666666659</v>
+            <v>0.77916666666666645</v>
           </cell>
           <cell r="R3">
-            <v>0.36296296296296299</v>
+            <v>0.90740740740740744</v>
           </cell>
           <cell r="S3">
-            <v>0.66</v>
+            <v>1.6500000000000001</v>
           </cell>
           <cell r="T3">
-            <v>1.3033333333333335</v>
+            <v>3.2583333333333337</v>
           </cell>
           <cell r="U3">
-            <v>1.3092592592592589</v>
+            <v>3.273148148148147</v>
           </cell>
           <cell r="V3">
-            <v>1.016296296296296</v>
+            <v>2.5407407407407403</v>
           </cell>
           <cell r="W3">
-            <v>0.79629629629629628</v>
+            <v>1.9907407407407407</v>
           </cell>
           <cell r="X3">
-            <v>0.374074074074074</v>
+            <v>0.93518518518518501</v>
           </cell>
           <cell r="Y3">
-            <v>7.4814814814814806E-2</v>
+            <v>0.187037037037037</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.28499999999999998</v>
+            <v>-0.71249999999999991</v>
           </cell>
           <cell r="C4">
-            <v>-0.67499999999999982</v>
+            <v>-1.6874999999999996</v>
           </cell>
           <cell r="D4">
-            <v>-1.1774999999999998</v>
+            <v>-2.9437499999999996</v>
           </cell>
           <cell r="E4">
-            <v>-1.0768382352941177</v>
+            <v>-2.6920955882352944</v>
           </cell>
           <cell r="F4">
-            <v>-1.1099999999999999</v>
+            <v>-2.7749999999999995</v>
           </cell>
           <cell r="G4">
-            <v>-1.0471323529411765</v>
+            <v>-2.617830882352941</v>
           </cell>
           <cell r="H4">
-            <v>-5.7647058823529412E-2</v>
+            <v>-0.14411764705882352</v>
           </cell>
           <cell r="I4">
-            <v>1.2302205882352939</v>
+            <v>3.075551470588235</v>
           </cell>
           <cell r="J4">
-            <v>1.6649999999999998</v>
+            <v>4.1624999999999996</v>
           </cell>
           <cell r="K4">
-            <v>1.6635294117647061</v>
+            <v>4.158823529411765</v>
           </cell>
           <cell r="L4">
-            <v>1.3612500000000001</v>
+            <v>3.4031250000000002</v>
           </cell>
           <cell r="M4">
-            <v>1.7033823529411762</v>
+            <v>4.2584558823529406</v>
           </cell>
           <cell r="N4">
-            <v>1.5276470588235296</v>
+            <v>3.8191176470588237</v>
           </cell>
           <cell r="O4">
-            <v>1.3330882352941174</v>
+            <v>3.3327205882352935</v>
           </cell>
           <cell r="P4">
-            <v>0.96816176470588222</v>
+            <v>2.4204044117647054</v>
           </cell>
           <cell r="Q4">
-            <v>0.61639705882352946</v>
+            <v>1.5409926470588236</v>
           </cell>
           <cell r="R4">
-            <v>0.75735294117647056</v>
+            <v>1.8933823529411764</v>
           </cell>
           <cell r="S4">
-            <v>0.67647058823529405</v>
+            <v>1.6911764705882351</v>
           </cell>
           <cell r="T4">
-            <v>0.12749999999999997</v>
+            <v>0.31874999999999992</v>
           </cell>
           <cell r="U4">
-            <v>0.5386764705882352</v>
+            <v>1.346691176470588</v>
           </cell>
           <cell r="V4">
-            <v>0.76470588235294112</v>
+            <v>1.9117647058823528</v>
           </cell>
           <cell r="W4">
-            <v>0.505</v>
+            <v>1.2625</v>
           </cell>
           <cell r="X4">
-            <v>-0.4678676470588235</v>
+            <v>-1.1696691176470588</v>
           </cell>
           <cell r="Y4">
-            <v>-0.96750000000000003</v>
+            <v>-2.4187500000000002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>0.72348993288590602</v>
+            <v>1.8087248322147651</v>
           </cell>
           <cell r="C2">
-            <v>0.81543624161073835</v>
+            <v>2.038590604026846</v>
           </cell>
           <cell r="D2">
-            <v>0.76077181208053701</v>
+            <v>1.9019295302013426</v>
           </cell>
           <cell r="E2">
-            <v>0.75308724832214768</v>
+            <v>1.8827181208053692</v>
           </cell>
           <cell r="F2">
-            <v>0.74416107382550334</v>
+            <v>1.8604026845637582</v>
           </cell>
           <cell r="G2">
-            <v>0.77939597315436226</v>
+            <v>1.9484899328859058</v>
           </cell>
           <cell r="H2">
-            <v>0.81879194630872487</v>
+            <v>2.0469798657718123</v>
           </cell>
           <cell r="I2">
-            <v>1.5642281879194633</v>
+            <v>3.9105704697986581</v>
           </cell>
           <cell r="J2">
-            <v>1.8030872483221478</v>
+            <v>4.5077181208053698</v>
           </cell>
           <cell r="K2">
-            <v>1.7181208053691273</v>
+            <v>4.2953020134228179</v>
           </cell>
           <cell r="L2">
-            <v>1.6610738255033559</v>
+            <v>4.15268456375839</v>
           </cell>
           <cell r="M2">
-            <v>1.7079865771812084</v>
+            <v>4.2699664429530211</v>
           </cell>
           <cell r="N2">
-            <v>1.8175167785234896</v>
+            <v>4.5437919463087244</v>
           </cell>
           <cell r="O2">
-            <v>1.6936241610738256</v>
+            <v>4.2340604026845643</v>
           </cell>
           <cell r="P2">
-            <v>1.2114093959731542</v>
+            <v>3.0285234899328857</v>
           </cell>
           <cell r="Q2">
-            <v>1.5680536912751677</v>
+            <v>3.9201342281879192</v>
           </cell>
           <cell r="R2">
-            <v>1.6361073825503356</v>
+            <v>4.0902684563758394</v>
           </cell>
           <cell r="S2">
-            <v>1.4883221476510067</v>
+            <v>3.7208053691275165</v>
           </cell>
           <cell r="T2">
-            <v>1.1674496644295302</v>
+            <v>2.9186241610738257</v>
           </cell>
           <cell r="U2">
-            <v>1.0913422818791947</v>
+            <v>2.7283557046979867</v>
           </cell>
           <cell r="V2">
-            <v>1.1569127516778523</v>
+            <v>2.892281879194631</v>
           </cell>
           <cell r="W2">
-            <v>1.1148322147651006</v>
+            <v>2.7870805369127516</v>
           </cell>
           <cell r="X2">
-            <v>0.76953020134228178</v>
+            <v>1.9238255033557046</v>
           </cell>
           <cell r="Y2">
-            <v>0.76295302013422828</v>
+            <v>1.9073825503355706</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>3.6666666666666667E-2</v>
+            <v>9.1666666666666674E-2</v>
           </cell>
           <cell r="C3">
-            <v>-0.22222222222222224</v>
+            <v>-0.55555555555555558</v>
           </cell>
           <cell r="D3">
-            <v>-0.24314814814814814</v>
+            <v>-0.60787037037037039</v>
           </cell>
           <cell r="E3">
-            <v>-0.34833333333333338</v>
+            <v>-0.87083333333333346</v>
           </cell>
           <cell r="F3">
-            <v>-0.43018518518518511</v>
+            <v>-1.0754629629629628</v>
           </cell>
           <cell r="G3">
-            <v>-0.32666666666666672</v>
+            <v>-0.81666666666666676</v>
           </cell>
           <cell r="H3">
-            <v>-0.42592592592592593</v>
+            <v>-1.0648148148148149</v>
           </cell>
           <cell r="I3">
-            <v>1.0848148148148149</v>
+            <v>2.712037037037037</v>
           </cell>
           <cell r="J3">
-            <v>1.3977777777777778</v>
+            <v>3.4944444444444445</v>
           </cell>
           <cell r="K3">
-            <v>1.7592592592592589</v>
+            <v>4.398148148148147</v>
           </cell>
           <cell r="L3">
-            <v>1.01</v>
+            <v>2.5249999999999999</v>
           </cell>
           <cell r="M3">
-            <v>0.88925925925925919</v>
+            <v>2.2231481481481481</v>
           </cell>
           <cell r="N3">
-            <v>0.61703703703703705</v>
+            <v>1.5425925925925927</v>
           </cell>
           <cell r="O3">
-            <v>0.86037037037037023</v>
+            <v>2.1509259259259257</v>
           </cell>
           <cell r="P3">
-            <v>0.36296296296296299</v>
+            <v>0.90740740740740744</v>
           </cell>
           <cell r="Q3">
-            <v>0.31166666666666659</v>
+            <v>0.77916666666666645</v>
           </cell>
           <cell r="R3">
-            <v>0.36666666666666664</v>
+            <v>0.91666666666666663</v>
           </cell>
           <cell r="S3">
-            <v>0.66666666666666652</v>
+            <v>1.6666666666666663</v>
           </cell>
           <cell r="T3">
-            <v>1.2522222222222223</v>
+            <v>3.130555555555556</v>
           </cell>
           <cell r="U3">
-            <v>1.3092592592592589</v>
+            <v>3.273148148148147</v>
           </cell>
           <cell r="V3">
-            <v>1.0266666666666664</v>
+            <v>2.566666666666666</v>
           </cell>
           <cell r="W3">
-            <v>0.79629629629629628</v>
+            <v>1.9907407407407407</v>
           </cell>
           <cell r="X3">
-            <v>0.36296296296296293</v>
+            <v>0.90740740740740733</v>
           </cell>
           <cell r="Y3">
-            <v>7.3333333333333334E-2</v>
+            <v>0.18333333333333335</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.27941176470588236</v>
+            <v>-0.69852941176470584</v>
           </cell>
           <cell r="C4">
-            <v>-0.66176470588235281</v>
+            <v>-1.654411764705882</v>
           </cell>
           <cell r="D4">
-            <v>-1.1544117647058822</v>
+            <v>-2.8860294117647056</v>
           </cell>
           <cell r="E4">
-            <v>-1.0768382352941177</v>
+            <v>-2.6920955882352944</v>
           </cell>
           <cell r="F4">
-            <v>-1.0773529411764704</v>
+            <v>-2.693382352941176</v>
           </cell>
           <cell r="G4">
-            <v>-1.0471323529411765</v>
+            <v>-2.617830882352941</v>
           </cell>
           <cell r="H4">
-            <v>-5.7647058823529412E-2</v>
+            <v>-0.14411764705882352</v>
           </cell>
           <cell r="I4">
-            <v>1.2674999999999998</v>
+            <v>3.1687499999999997</v>
           </cell>
           <cell r="J4">
-            <v>1.6649999999999998</v>
+            <v>4.1624999999999996</v>
           </cell>
           <cell r="K4">
-            <v>1.6470588235294119</v>
+            <v>4.1176470588235299</v>
           </cell>
           <cell r="L4">
-            <v>1.3612500000000001</v>
+            <v>3.4031250000000002</v>
           </cell>
           <cell r="M4">
-            <v>1.7377941176470588</v>
+            <v>4.3444852941176473</v>
           </cell>
           <cell r="N4">
-            <v>1.5744117647058824</v>
+            <v>3.9360294117647059</v>
           </cell>
           <cell r="O4">
-            <v>1.3602941176470587</v>
+            <v>3.4007352941176467</v>
           </cell>
           <cell r="P4">
-            <v>0.98772058823529396</v>
+            <v>2.4693014705882348</v>
           </cell>
           <cell r="Q4">
-            <v>0.61029411764705888</v>
+            <v>1.5257352941176472</v>
           </cell>
           <cell r="R4">
-            <v>0.76492647058823526</v>
+            <v>1.912316176470588</v>
           </cell>
           <cell r="S4">
-            <v>0.68323529411764694</v>
+            <v>1.7080882352941174</v>
           </cell>
           <cell r="T4">
-            <v>0.12749999999999997</v>
+            <v>0.31874999999999992</v>
           </cell>
           <cell r="U4">
-            <v>0.53323529411764703</v>
+            <v>1.3330882352941176</v>
           </cell>
           <cell r="V4">
-            <v>0.75705882352941178</v>
+            <v>1.8926470588235293</v>
           </cell>
           <cell r="W4">
-            <v>0.495</v>
+            <v>1.2375</v>
           </cell>
           <cell r="X4">
-            <v>-0.47249999999999992</v>
+            <v>-1.1812499999999999</v>
           </cell>
           <cell r="Y4">
-            <v>-0.95801470588235293</v>
+            <v>-2.3950367647058823</v>
           </cell>
         </row>
       </sheetData>
@@ -3849,99 +3849,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>0.96738252428489857</v>
+        <v>2.4184563107122465</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>0.66317094670283594</v>
+        <v>1.65792736675709</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>0.59249671409947868</v>
+        <v>1.4812417852486968</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>0.75195840810525549</v>
+        <v>1.8798960202631387</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>0.65393298050519499</v>
+        <v>1.6348324512629875</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>0.53232129686275254</v>
+        <v>1.3308032421568814</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>0.44044187798885914</v>
+        <v>1.1011046949721479</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>1.5545306697152379</v>
+        <v>3.8863266742880946</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>1.6096179262552197</v>
+        <v>4.0240448156380495</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>1.3529656979902196</v>
+        <v>3.382414244975549</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>1.6084727179954998</v>
+        <v>4.0211817949887498</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>1.5244827739050899</v>
+        <v>3.8112069347627249</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>1.5161875606260751</v>
+        <v>3.7904689015651876</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>1.353897716682279</v>
+        <v>3.3847442917056973</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>0.77954529973508824</v>
+        <v>1.9488632493377205</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>1.2329828832357033</v>
+        <v>3.082457208089258</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>1.4937099289630178</v>
+        <v>3.7342748224075444</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>1.3937249469669613</v>
+        <v>3.4843123674174032</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>0.9740762246880259</v>
+        <v>2.4351905617200647</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>1.0206516788202729</v>
+        <v>2.5516291970506821</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>0.92241079755742073</v>
+        <v>2.3060269938935516</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>0.58385595341365037</v>
+        <v>1.459639883534126</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>0.4750604155611588</v>
+        <v>1.1876510389028969</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>0.49237963918732774</v>
+        <v>1.2309490979683193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3950,99 +3950,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-1.8504091200465254</v>
+        <v>-4.6260228001163135</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-1.7774520916861873</v>
+        <v>-4.4436302292154686</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-1.8637727641735926</v>
+        <v>-4.6594319104339812</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-1.910169264091258</v>
+        <v>-4.7754231602281454</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-1.9304343502150616</v>
+        <v>-4.8260858755376539</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-1.7716875134447394</v>
+        <v>-4.4292187836118488</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-1.1233892886728361</v>
+        <v>-2.8084732216820902</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-0.2116286971006926</v>
+        <v>-0.52907174275173152</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-0.22974250959103124</v>
+        <v>-0.57435627397757805</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.15686560016776874</v>
+        <v>-0.39216400041942184</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-0.1327636078780679</v>
+        <v>-0.33190901969516973</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-0.61065362603499718</v>
+        <v>-1.526634065087493</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-0.89209935757115844</v>
+        <v>-2.2302483939278961</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-1.1221089675196712</v>
+        <v>-2.805272418799178</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-1.1364009139360107</v>
+        <v>-2.8410022848400267</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-1.1787312057404578</v>
+        <v>-2.9468280143511443</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-0.89041855703758488</v>
+        <v>-2.226046392593962</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>0.30161407679094737</v>
+        <v>0.75403519197736846</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-4.1666164009067294E-2</v>
+        <v>-0.10416541002266824</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-0.49680803416197977</v>
+        <v>-1.2420200854049495</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-0.9301110729163401</v>
+        <v>-2.3252776822908503</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-1.1992563424038705</v>
+        <v>-2.9981408560096763</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-1.3020059929757657</v>
+        <v>-3.2550149824394143</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-1.536369318572856</v>
+        <v>-3.8409232964321398</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4051,99 +4051,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-1.752303363680642</v>
+        <v>-4.3807584092016052</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-1.8720202128767456</v>
+        <v>-4.6800505321918635</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-1.9254207506095338</v>
+        <v>-4.8135518765238343</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-1.8996713962908047</v>
+        <v>-4.7491784907270116</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-1.9012514036898307</v>
+        <v>-4.7531285092245765</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-1.6033453949535355</v>
+        <v>-4.0083634873838383</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-5.911847508144772E-2</v>
+        <v>-0.1477961877036193</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>0.82663106350668381</v>
+        <v>2.0665776587667093</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>1.0432277533861587</v>
+        <v>2.6080693834653967</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>0.70515081519628031</v>
+        <v>1.7628770379907008</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>0.43333062129864081</v>
+        <v>1.0833265532466021</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>0.8342494155064436</v>
+        <v>2.0856235387661091</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>0.54197641454374823</v>
+        <v>1.3549410363593706</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>0.16443195393239246</v>
+        <v>0.41107988483098112</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-0.64415355047331546</v>
+        <v>-1.6103838761832887</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-0.65080813240584812</v>
+        <v>-1.6270203310146203</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-0.53610881962157098</v>
+        <v>-1.3402720490539275</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.25984995205785261</v>
+        <v>-0.64962488014463149</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-0.64624692022906927</v>
+        <v>-1.6156173005726733</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.36084920714718732</v>
+        <v>-0.90212301786796834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-0.50553745606266243</v>
+        <v>-1.2638436401566562</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-0.82172251570495358</v>
+        <v>-2.0543062892623838</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-1.3247022700834707</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-1.465466900785116</v>
+        <v>-3.66366725196279</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4554,99 +4554,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>0.96738252428489857</v>
+        <v>2.4184563107122465</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>0.69023914860907409</v>
+        <v>1.7255978715226852</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>0.57489780179949412</v>
+        <v>1.4372445044987354</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>0.73691923994315034</v>
+        <v>1.8422980998578757</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>0.66040756447059312</v>
+        <v>1.6510189111764828</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>0.52167487092549747</v>
+        <v>1.3041871773137437</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>0.44925071554863633</v>
+        <v>1.1231267888715908</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>1.5083564914068643</v>
+        <v>3.770891228517161</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>1.6257141055177717</v>
+        <v>4.0642852637944298</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>1.3943830152756345</v>
+        <v>3.4859575381890862</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>1.624557445175455</v>
+        <v>4.0613936129386374</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>1.5095368643570009</v>
+        <v>3.7738421608925021</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>1.4711522865480728</v>
+        <v>3.6778807163701819</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>1.3270878609063923</v>
+        <v>3.3177196522659806</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>0.80340893135963176</v>
+        <v>2.0085223283990796</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>1.2454372557936395</v>
+        <v>3.1135931394840988</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>1.5086470282526481</v>
+        <v>3.7716175706316202</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>1.4076621964366307</v>
+        <v>3.5191554910915768</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>0.96433546244114565</v>
+        <v>2.4108386561028641</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>1.0307571409868104</v>
+        <v>2.5768928524670258</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>0.94123550771165387</v>
+        <v>2.3530887692791347</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>0.5780173938795139</v>
+        <v>1.4450434846987847</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>0.45643059534307417</v>
+        <v>1.1410764883576854</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>0.48755238782274612</v>
+        <v>1.2188809695568654</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4655,99 +4655,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-1.8322678541637163</v>
+        <v>-4.5806696354092908</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-1.8137266241695789</v>
+        <v>-4.5343165604239468</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-1.8637727641735926</v>
+        <v>-4.6594319104339812</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-1.9686438334001739</v>
+        <v>-4.9216095835004348</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-1.9690430372193628</v>
+        <v>-4.922607593048407</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-1.7894043885791868</v>
+        <v>-4.4735109714479666</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-1.1458570744462928</v>
+        <v>-2.8646426861157321</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-0.21378817360172003</v>
+        <v>-0.53447043400430005</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-0.23206314100104167</v>
+        <v>-0.58015785250260421</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.15071400800432683</v>
+        <v>-0.37678502001081704</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-0.1327636078780679</v>
+        <v>-0.33190901969516973</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-0.60460755052970017</v>
+        <v>-1.5115188763242504</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-0.87443402375786816</v>
+        <v>-2.1860850593946703</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-1.1564592420355795</v>
+        <v>-2.8911481050889485</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-1.1591289322147309</v>
+        <v>-2.8978223305368274</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-1.1787312057404578</v>
+        <v>-2.9468280143511443</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-0.89041855703758488</v>
+        <v>-2.226046392593962</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>0.29265524282685978</v>
+        <v>0.73163810706714949</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-4.1666164009067294E-2</v>
+        <v>-0.10416541002266824</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-0.50674419484521938</v>
+        <v>-1.2668604871130484</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-0.9116930318684916</v>
+        <v>-2.2792325796712292</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-1.2234837432605143</v>
+        <v>-3.0587093581512859</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-1.3551490947298785</v>
+        <v>-3.3878727368246961</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-1.5211577411612434</v>
+        <v>-3.8028943529031083</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4756,99 +4756,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-1.752303363680642</v>
+        <v>-4.3807584092016052</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-1.8720202128767456</v>
+        <v>-4.6800505321918635</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-1.9254207506095338</v>
+        <v>-4.8135518765238343</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-1.880862768604757</v>
+        <v>-4.7021569215118921</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-1.8447785897188456</v>
+        <v>-4.6119464742971141</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-1.5719072499544464</v>
+        <v>-3.9297681248861158</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-5.911847508144772E-2</v>
+        <v>-0.1477961877036193</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>0.80231838516825205</v>
+        <v>2.0057959629206303</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>1.03289876572887</v>
+        <v>2.5822469143221749</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>0.73393248112265908</v>
+        <v>1.8348312028066478</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>0.41633726360065487</v>
+        <v>1.0408431590016372</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>0.8342494155064436</v>
+        <v>2.0856235387661091</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>0.52603593176304975</v>
+        <v>1.3150898294076243</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>0.1612077979729338</v>
+        <v>0.40301949493233452</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-0.64415355047331546</v>
+        <v>-1.6103838761832887</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-0.63166671674685271</v>
+        <v>-1.5791667918671317</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-0.52034091316211306</v>
+        <v>-1.3008522829052827</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.27045607255000986</v>
+        <v>-0.67614018137502463</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-0.65917185863365058</v>
+        <v>-1.6479296465841264</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.36084920714718732</v>
+        <v>-0.90212301786796834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-0.49542670694140917</v>
+        <v>-1.238566767353523</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-0.83010743933459608</v>
+        <v>-2.07526859833649</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-1.3247022700834707</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-1.4953743885562409</v>
+        <v>-3.7384359713906026</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9436,99 +9436,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.2638800000000003</v>
+        <v>7.9138800000000016</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.2391141085271324</v>
+        <v>7.8437652713178307</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.1086167441860466</v>
+        <v>7.5440818604651163</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0472217054263568</v>
+        <v>7.4024542635658914</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.0003181395348837</v>
+        <v>7.3241553488372082</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.0255280620155043</v>
+        <v>7.4139001550387604</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0222266666666671</v>
+        <v>7.3722266666666671</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.5677382945736436</v>
+        <v>8.8875057364341092</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8337829457364347</v>
+        <v>9.5564573643410871</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7923296124031007</v>
+        <v>9.4400040310077511</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7195150387596905</v>
+        <v>9.2747475968992266</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.768863875968993</v>
+        <v>9.392119689922481</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.9191159689922488</v>
+        <v>9.7499299224806215</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.8727401550387595</v>
+        <v>9.5936703875968981</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.5801618604651164</v>
+        <v>8.856324651162792</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.6872613953488371</v>
+        <v>9.1256334883720935</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.7020418604651164</v>
+        <v>9.2032046511627907</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.6169916279069767</v>
+        <v>8.9367590697674419</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.4088018604651165</v>
+        <v>8.4599646511627906</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.353498604651163</v>
+        <v>8.3401265116279077</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.3581134883720933</v>
+        <v>8.3290437209302333</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.304037519379845</v>
+        <v>8.2191537984496126</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.1524803100775198</v>
+        <v>7.6943407751938002</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.07808031007752</v>
+        <v>7.4699407751937992</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9537,99 +9537,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.9049514285714282</v>
+        <v>7.016558571428571</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.7541680952380947</v>
+        <v>6.6314002380952362</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.6337828571428568</v>
+        <v>6.3569971428571428</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4071261904761907</v>
+        <v>5.8022154761904767</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.2963314285714285</v>
+        <v>5.5641885714285708</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.390125238095238</v>
+        <v>5.8253930952380948</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.5597266666666667</v>
+        <v>6.2159766666666663</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.2935480952380947</v>
+        <v>8.2020302380952366</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.590095238095238</v>
+        <v>8.9472380952380934</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8352490476190479</v>
+        <v>9.5473026190476205</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4892409523809524</v>
+        <v>8.6990623809523804</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.6673480952380952</v>
+        <v>9.1383302380952376</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.6836923809523805</v>
+        <v>9.1613709523809508</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6212866666666668</v>
+        <v>8.9650366666666663</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.1252200000000001</v>
+        <v>7.7189699999999997</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.2536442857142855</v>
+        <v>8.0415907142857144</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.4140642857142858</v>
+        <v>8.4832607142857128</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.4365514285714278</v>
+        <v>8.4856585714285693</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.5502885714285708</v>
+        <v>8.8136814285714262</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.7255085714285707</v>
+        <v>9.2701514285714275</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.9102314285714286</v>
+        <v>9.7093385714285709</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.576400476190476</v>
+        <v>8.9000611904761904</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.1736804761904756</v>
+        <v>7.7473411904761891</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9671376190476191</v>
+        <v>7.1925840476190466</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9638,99 +9638,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.4066452733118968</v>
+        <v>5.7707931832797419</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.2770637084673098</v>
+        <v>5.4386392711682747</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.0937621864951774</v>
+        <v>5.0069454662379425</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.164633654876742</v>
+        <v>5.1959841371918545</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.1016828295819936</v>
+        <v>5.0775670739549836</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.1240624222936764</v>
+        <v>5.1602360557341909</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.9920015862808151</v>
+        <v>7.2966639657020371</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.6948601071811367</v>
+        <v>9.2053102679528429</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8691489817792069</v>
+        <v>9.6448724544480164</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.638145809217578</v>
+        <v>9.0545445230439459</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.5497887245444804</v>
+        <v>8.8504318113612008</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8190620364415868</v>
+        <v>9.5176150911039663</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.004575476956056</v>
+        <v>9.9635786923901399</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.7468895605573422</v>
+        <v>9.2790439013933543</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.426064051446946</v>
+        <v>8.4710801286173645</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.2513906109324759</v>
+        <v>8.0359565273311908</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.2950501607717042</v>
+        <v>8.1857254019292593</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.2199976848874599</v>
+        <v>7.9442742122186498</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.118530418006431</v>
+        <v>7.734286045016078</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.3827777491961415</v>
+        <v>8.4133243729903544</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.5570217363344057</v>
+        <v>8.8263143408360136</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.3054283815648446</v>
+        <v>8.2226309539121107</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.9975636870310822</v>
+        <v>7.3070492175777053</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.5440640085744914</v>
+        <v>6.1349000214362279</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10141,99 +10141,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.2948800000000005</v>
+        <v>7.9913800000000013</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.2391141085271324</v>
+        <v>7.8437652713178307</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0494772093023257</v>
+        <v>7.3962330232558138</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0472217054263573</v>
+        <v>7.4024542635658932</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.942666976744186</v>
+        <v>7.1800274418604646</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.0255280620155043</v>
+        <v>7.4139001550387604</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0802266666666669</v>
+        <v>7.5172266666666667</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.5677382945736436</v>
+        <v>8.8875057364341092</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8719341085271322</v>
+        <v>9.6518352713178306</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7923296124031007</v>
+        <v>9.4400040310077511</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.68248015503876</v>
+        <v>9.1821603875969</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.6938871317829465</v>
+        <v>9.2046778294573652</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.8413717829457372</v>
+        <v>9.5555694573643422</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.9490192248062015</v>
+        <v>9.7843680620155027</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.6505106976744188</v>
+        <v>9.0321967441860469</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.7235172093023254</v>
+        <v>9.2162730232558143</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.7387162790697674</v>
+        <v>9.2948906976744166</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.5460613953488371</v>
+        <v>8.7594334883720926</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.4761506976744192</v>
+        <v>8.628336744186047</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.3202544186046512</v>
+        <v>8.2570160465116285</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.3912530232558145</v>
+        <v>8.4118925581395363</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.304037519379845</v>
+        <v>8.2191537984496126</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.2130384496124034</v>
+        <v>7.8457361240310091</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.1366384496124038</v>
+        <v>7.616336124031009</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10242,99 +10242,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.9049514285714282</v>
+        <v>7.016558571428571</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.7541680952380947</v>
+        <v>6.6314002380952362</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.6089614285714284</v>
+        <v>6.294943571428572</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4297601190476192</v>
+        <v>5.8588002976190481</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.2963314285714285</v>
+        <v>5.5641885714285708</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.4359288095238094</v>
+        <v>5.9399020238095233</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.5353516666666667</v>
+        <v>6.1550391666666666</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.2608248809523808</v>
+        <v>8.1202222023809529</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.6258095238095236</v>
+        <v>9.0365238095238087</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7971686904761905</v>
+        <v>9.4521017261904756</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.523973095238095</v>
+        <v>8.785892738095237</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.6673480952380952</v>
+        <v>9.1383302380952376</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.756728095238095</v>
+        <v>9.3439602380952369</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6212866666666668</v>
+        <v>8.9650366666666663</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.0639700000000003</v>
+        <v>7.5658450000000004</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.2536442857142855</v>
+        <v>8.0415907142857144</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.4478589285714287</v>
+        <v>8.5677473214285715</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.4702121428571422</v>
+        <v>8.5698103571428561</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.6204671428571422</v>
+        <v>8.9891278571428543</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.6515799999999996</v>
+        <v>9.085329999999999</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.8715707142857139</v>
+        <v>9.612686785714283</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.6473826190476188</v>
+        <v>9.0775165476190462</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.1431894047619044</v>
+        <v>7.6711135119047613</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9107983333333336</v>
+        <v>7.0517358333333338</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10343,99 +10343,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.3617899678456591</v>
+        <v>5.6586549196141478</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.3192180493033225</v>
+        <v>5.5440251232583062</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.0743409646302258</v>
+        <v>4.9583924115755647</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.1444246516613079</v>
+        <v>5.1454616291532691</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.1413612861736335</v>
+        <v>5.1767632154340832</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.0835801071811364</v>
+        <v>5.0590302679528412</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.9346060878885321</v>
+        <v>7.1531752197213301</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.7683327759914262</v>
+        <v>9.3889919399785668</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8306441586280813</v>
+        <v>9.5486103965702025</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.6742551339764202</v>
+        <v>9.1448178349410512</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.5497887245444808</v>
+        <v>8.8504318113612026</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.7430813290460883</v>
+        <v>9.3276633226152192</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.004575476956056</v>
+        <v>9.9635786923901399</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6731275026795287</v>
+        <v>9.0946387566988207</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.426064051446946</v>
+        <v>8.4710801286173645</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.2832877170418007</v>
+        <v>8.1156992926045017</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.2624456591639874</v>
+        <v>8.1042141479099676</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.1570073311897104</v>
+        <v>7.7867983279742763</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.0877587138263669</v>
+        <v>7.6573567845659172</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.4498517041800647</v>
+        <v>8.5810092604501627</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.5218931189710618</v>
+        <v>8.7384927974276536</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.3709910825294744</v>
+        <v>8.3865377063236863</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.9975636870310822</v>
+        <v>7.3070492175777053</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.5680029153269031</v>
+        <v>6.1947472883172567</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10846,99 +10846,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.2948800000000005</v>
+        <v>7.9913800000000013</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.3005094573643419</v>
+        <v>7.997253643410855</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0494772093023257</v>
+        <v>7.3962330232558138</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.1052914728682173</v>
+        <v>7.5476286821705427</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.942666976744186</v>
+        <v>7.1800274418604646</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.9962722480620161</v>
+        <v>7.3407606201550397</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0222266666666671</v>
+        <v>7.3722266666666671</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.6386685271317831</v>
+        <v>9.0648313178294586</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.7574806201550395</v>
+        <v>9.3657015503875982</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.754678449612403</v>
+        <v>9.3458761240310082</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7565499224806209</v>
+        <v>9.3673348062015513</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.768863875968993</v>
+        <v>9.392119689922481</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.880243875968993</v>
+        <v>9.6527496899224818</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.7964610852713174</v>
+        <v>9.4029727131782934</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.5449874418604654</v>
+        <v>8.7683886046511645</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.7597730232558138</v>
+        <v>9.3069125581395351</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.7387162790697674</v>
+        <v>9.2948906976744166</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.5460613953488371</v>
+        <v>8.7594334883720926</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.4088018604651165</v>
+        <v>8.4599646511627906</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.3202544186046512</v>
+        <v>8.2570160465116285</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.3249739534883722</v>
+        <v>8.2461948837209302</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.3695724031007752</v>
+        <v>8.3829910077519383</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.2130384496124038</v>
+        <v>7.84573612403101</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.0488012403100782</v>
+        <v>7.3967431007751951</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10947,99 +10947,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.9323621428571425</v>
+        <v>7.085085357142856</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.7800163095238091</v>
+        <v>6.696020773809523</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.6337828571428568</v>
+        <v>6.3569971428571428</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.4523940476190478</v>
+        <v>5.9153851190476194</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.2745457142857139</v>
+        <v>5.5097242857142845</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.3672234523809523</v>
+        <v>5.7681386309523806</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.5841016666666667</v>
+        <v>6.2769141666666659</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.228101666666666</v>
+        <v>8.0384141666666657</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.5186666666666664</v>
+        <v>8.7686666666666646</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8733294047619049</v>
+        <v>9.6425035119047617</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4197766666666665</v>
+        <v>8.5254016666666654</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.6673480952380952</v>
+        <v>9.1383302380952376</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.6471745238095234</v>
+        <v>9.0700763095238077</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6212866666666668</v>
+        <v>8.9650366666666663</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.094595</v>
+        <v>7.6424074999999991</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.2855639285714284</v>
+        <v>8.121389821428572</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.4816535714285717</v>
+        <v>8.6522339285714285</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.4702121428571422</v>
+        <v>8.5698103571428561</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.4801099999999994</v>
+        <v>8.6382349999999981</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.7255085714285707</v>
+        <v>9.2701514285714275</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.83291</v>
+        <v>9.5160349999999987</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.576400476190476</v>
+        <v>8.9000611904761904</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.1736804761904756</v>
+        <v>7.7473411904761891</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9953072619047618</v>
+        <v>7.2630081547619039</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11048,99 +11048,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.4290729260450159</v>
+        <v>5.8268623151125398</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.234909367631297</v>
+        <v>5.3332534190782424</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.1326046302250807</v>
+        <v>5.1040515755627016</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.184842658092176</v>
+        <v>5.2465066452304399</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.0818436012861739</v>
+        <v>5.0279690032154338</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.083580107181136</v>
+        <v>5.0590302679528403</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0493970846730982</v>
+        <v>7.4401527116827451</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.7315964415862815</v>
+        <v>9.2971511039657031</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8306441586280813</v>
+        <v>9.5486103965702025</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7103644587352629</v>
+        <v>9.2350911468381565</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4791134833869242</v>
+        <v>8.6737437084673097</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8950427438370854</v>
+        <v>9.7075668595927134</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>4.0840288531618443</v>
+        <v>10.162212132904608</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.6731275026795287</v>
+        <v>9.0946387566988207</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.3924306109324767</v>
+        <v>8.3869965273311919</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.3151848231511254</v>
+        <v>8.1954420578778144</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.3602591639871382</v>
+        <v>8.3487479099678445</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.1570073311897104</v>
+        <v>7.7867983279742763</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.1800738263665598</v>
+        <v>7.8881445659163996</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.3492407717041801</v>
+        <v>8.3294819292604512</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.6272789710610938</v>
+        <v>9.0019574276527337</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.2398656806002144</v>
+        <v>8.0587242015005351</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0262935905680597</v>
+        <v>7.3788739764201496</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.4961861950696682</v>
+        <v>6.0152054876741694</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11551,99 +11551,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>0.73825503355704702</v>
+        <v>1.8456375838926176</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>0.81543624161073835</v>
+        <v>2.038590604026846</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>0.76845637583892623</v>
+        <v>1.9211409395973156</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>0.76845637583892623</v>
+        <v>1.9211409395973156</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>0.75167785234899331</v>
+        <v>1.8791946308724832</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>0.7953020134228187</v>
+        <v>1.9882550335570468</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>0.81879194630872487</v>
+        <v>2.0469798657718123</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>1.5335570469798658</v>
+        <v>3.8338926174496644</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>1.7852348993288591</v>
+        <v>4.4630872483221475</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>1.7181208053691273</v>
+        <v>4.2953020134228179</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>1.6778523489932886</v>
+        <v>4.1946308724832218</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>1.6744966442953022</v>
+        <v>4.1862416107382554</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>1.7818791946308723</v>
+        <v>4.4546979865771803</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>1.7281879194630874</v>
+        <v>4.3204697986577187</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>1.2114093959731542</v>
+        <v>3.0285234899328857</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>1.5838926174496644</v>
+        <v>3.9597315436241609</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>1.6040268456375839</v>
+        <v>4.0100671140939594</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>1.5033557046979866</v>
+        <v>3.7583892617449663</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>1.1912751677852349</v>
+        <v>2.9781879194630871</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>1.080536912751678</v>
+        <v>2.701342281879195</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>1.1342281879194631</v>
+        <v>2.8355704697986579</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>1.1375838926174495</v>
+        <v>2.8439597315436238</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>0.78523489932885904</v>
+        <v>1.9630872483221475</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>0.778523489932886</v>
+        <v>1.9463087248322151</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11652,99 +11652,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>9.2592592592592587E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-0.22222222222222224</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-0.24074074074074073</v>
+        <v>-0.60185185185185186</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-0.35185185185185186</v>
+        <v>-0.87962962962962965</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-0.42592592592592587</v>
+        <v>-1.0648148148148147</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-0.33333333333333337</v>
+        <v>-0.83333333333333348</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-0.42592592592592593</v>
+        <v>-1.0648148148148149</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>1.0740740740740742</v>
+        <v>2.6851851851851856</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>1.3703703703703702</v>
+        <v>3.4259259259259256</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>1.7592592592592591</v>
+        <v>4.3981481481481479</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>0.90740740740740733</v>
+        <v>2.2685185185185182</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>0.62962962962962965</v>
+        <v>1.5740740740740742</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>0.85185185185185175</v>
+        <v>2.1296296296296293</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>0.37037037037037035</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>0.31481481481481477</v>
+        <v>0.78703703703703698</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>0.37037037037037035</v>
+        <v>0.92592592592592582</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>0.66666666666666663</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>1.2777777777777779</v>
+        <v>3.1944444444444446</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>1.2962962962962961</v>
+        <v>3.24074074074074</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>1.0370370370370368</v>
+        <v>2.5925925925925917</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>0.79629629629629628</v>
+        <v>1.9907407407407407</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>0.37037037037037029</v>
+        <v>0.92592592592592571</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.18518518518518517</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11753,99 +11753,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.27941176470588236</v>
+        <v>-0.69852941176470584</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-0.66176470588235281</v>
+        <v>-1.654411764705882</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-1.1544117647058822</v>
+        <v>-2.8860294117647056</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-1.0661764705882353</v>
+        <v>-2.6654411764705883</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-1.088235294117647</v>
+        <v>-2.7205882352941173</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-1.036764705882353</v>
+        <v>-2.5919117647058827</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-5.8823529411764705E-2</v>
+        <v>-0.14705882352941177</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>1.2426470588235292</v>
+        <v>3.1066176470588229</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>1.6323529411764703</v>
+        <v>4.0808823529411757</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>1.6470588235294119</v>
+        <v>4.1176470588235299</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>1.375</v>
+        <v>3.4375</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>1.7205882352941175</v>
+        <v>4.3014705882352935</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>1.5588235294117647</v>
+        <v>3.8970588235294117</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>1.3602941176470587</v>
+        <v>3.4007352941176467</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>0.97794117647058809</v>
+        <v>2.4448529411764701</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>0.61029411764705888</v>
+        <v>1.5257352941176472</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>0.75735294117647056</v>
+        <v>1.8933823529411764</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>0.67647058823529405</v>
+        <v>1.6911764705882351</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>0.12499999999999999</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>0.54411764705882348</v>
+        <v>1.3602941176470587</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>0.76470588235294112</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-0.46323529411764702</v>
+        <v>-1.1580882352941175</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-0.94852941176470584</v>
+        <v>-2.3713235294117645</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12256,99 +12256,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>0.72348993288590602</v>
+        <v>1.8087248322147651</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>0.82359060402684581</v>
+        <v>2.0589765100671147</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>0.78382550335570467</v>
+        <v>1.9595637583892618</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>0.77614093959731545</v>
+        <v>1.9403523489932886</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>0.75919463087248329</v>
+        <v>1.8979865771812081</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>0.77939597315436226</v>
+        <v>1.9484899328859058</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>0.81879194630872487</v>
+        <v>2.0469798657718123</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>1.5642281879194633</v>
+        <v>3.9105704697986581</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>1.8030872483221478</v>
+        <v>4.5077181208053698</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>1.7524832214765098</v>
+        <v>4.3812080536912745</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>1.6442953020134228</v>
+        <v>4.1107382550335565</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>1.6912416107382553</v>
+        <v>4.2281040268456387</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>1.7818791946308723</v>
+        <v>4.4546979865771803</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>1.7454697986577181</v>
+        <v>4.3636744966442951</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>1.2114093959731542</v>
+        <v>3.0285234899328857</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>1.552214765100671</v>
+        <v>3.8805369127516776</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>1.6361073825503356</v>
+        <v>4.0902684563758394</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>1.4732885906040269</v>
+        <v>3.6832214765100675</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>1.2151006711409396</v>
+        <v>3.037751677852349</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>1.1021476510067116</v>
+        <v>2.7553691275167793</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>1.1569127516778523</v>
+        <v>2.892281879194631</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>1.1375838926174495</v>
+        <v>2.8439597315436238</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>0.80093959731543618</v>
+        <v>2.0023489932885905</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>0.78630872483221481</v>
+        <v>1.965771812080537</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12357,99 +12357,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>3.6296296296296292E-2</v>
+        <v>9.0740740740740733E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-0.21777777777777779</v>
+        <v>-0.54444444444444451</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-0.24555555555555553</v>
+        <v>-0.61388888888888882</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-0.35888888888888892</v>
+        <v>-0.89722222222222237</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-0.42592592592592587</v>
+        <v>-1.0648148148148147</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-0.33333333333333337</v>
+        <v>-0.83333333333333348</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-0.41740740740740739</v>
+        <v>-1.0435185185185185</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>1.0740740740740742</v>
+        <v>2.6851851851851856</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>1.37037037037037</v>
+        <v>3.4259259259259252</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>1.7240740740740739</v>
+        <v>4.3101851851851851</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>0.88925925925925919</v>
+        <v>2.2231481481481481</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>0.62333333333333341</v>
+        <v>1.5583333333333336</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>0.83481481481481468</v>
+        <v>2.0870370370370366</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>0.37777777777777777</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>0.31166666666666659</v>
+        <v>0.77916666666666645</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>0.36296296296296299</v>
+        <v>0.90740740740740744</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>0.66</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>1.3033333333333335</v>
+        <v>3.2583333333333337</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>1.3092592592592589</v>
+        <v>3.273148148148147</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>1.016296296296296</v>
+        <v>2.5407407407407403</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>0.79629629629629628</v>
+        <v>1.9907407407407407</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>0.374074074074074</v>
+        <v>0.93518518518518501</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>7.4814814814814806E-2</v>
+        <v>0.187037037037037</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12458,99 +12458,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.28499999999999998</v>
+        <v>-0.71249999999999991</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-0.67499999999999982</v>
+        <v>-1.6874999999999996</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-1.1774999999999998</v>
+        <v>-2.9437499999999996</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-1.0768382352941177</v>
+        <v>-2.6920955882352944</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-1.1099999999999999</v>
+        <v>-2.7749999999999995</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-1.0471323529411765</v>
+        <v>-2.617830882352941</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-5.7647058823529412E-2</v>
+        <v>-0.14411764705882352</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>1.2302205882352939</v>
+        <v>3.075551470588235</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>1.6649999999999998</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>1.6635294117647061</v>
+        <v>4.158823529411765</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>1.3612500000000001</v>
+        <v>3.4031250000000002</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>1.7033823529411762</v>
+        <v>4.2584558823529406</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>1.5276470588235296</v>
+        <v>3.8191176470588237</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>1.3330882352941174</v>
+        <v>3.3327205882352935</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>0.96816176470588222</v>
+        <v>2.4204044117647054</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>0.61639705882352946</v>
+        <v>1.5409926470588236</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>0.75735294117647056</v>
+        <v>1.8933823529411764</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>0.67647058823529405</v>
+        <v>1.6911764705882351</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>0.12749999999999997</v>
+        <v>0.31874999999999992</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>0.5386764705882352</v>
+        <v>1.346691176470588</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>0.76470588235294112</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>0.505</v>
+        <v>1.2625</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-0.4678676470588235</v>
+        <v>-1.1696691176470588</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-0.96750000000000003</v>
+        <v>-2.4187500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12961,99 +12961,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>0.72348993288590602</v>
+        <v>1.8087248322147651</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>0.81543624161073835</v>
+        <v>2.038590604026846</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>0.76077181208053701</v>
+        <v>1.9019295302013426</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>0.75308724832214768</v>
+        <v>1.8827181208053692</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>0.74416107382550334</v>
+        <v>1.8604026845637582</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>0.77939597315436226</v>
+        <v>1.9484899328859058</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>0.81879194630872487</v>
+        <v>2.0469798657718123</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>1.5642281879194633</v>
+        <v>3.9105704697986581</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>1.8030872483221478</v>
+        <v>4.5077181208053698</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>1.7181208053691273</v>
+        <v>4.2953020134228179</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>1.6610738255033559</v>
+        <v>4.15268456375839</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>1.7079865771812084</v>
+        <v>4.2699664429530211</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>1.8175167785234896</v>
+        <v>4.5437919463087244</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>1.6936241610738256</v>
+        <v>4.2340604026845643</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>1.2114093959731542</v>
+        <v>3.0285234899328857</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>1.5680536912751677</v>
+        <v>3.9201342281879192</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>1.6361073825503356</v>
+        <v>4.0902684563758394</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>1.4883221476510067</v>
+        <v>3.7208053691275165</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>1.1674496644295302</v>
+        <v>2.9186241610738257</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>1.0913422818791947</v>
+        <v>2.7283557046979867</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>1.1569127516778523</v>
+        <v>2.892281879194631</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>1.1148322147651006</v>
+        <v>2.7870805369127516</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>0.76953020134228178</v>
+        <v>1.9238255033557046</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>0.76295302013422828</v>
+        <v>1.9073825503355706</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13062,99 +13062,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>3.6666666666666667E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-0.22222222222222224</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-0.24314814814814814</v>
+        <v>-0.60787037037037039</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-0.34833333333333338</v>
+        <v>-0.87083333333333346</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-0.43018518518518511</v>
+        <v>-1.0754629629629628</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-0.32666666666666672</v>
+        <v>-0.81666666666666676</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-0.42592592592592593</v>
+        <v>-1.0648148148148149</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>1.0848148148148149</v>
+        <v>2.712037037037037</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>1.3977777777777778</v>
+        <v>3.4944444444444445</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>1.7592592592592589</v>
+        <v>4.398148148148147</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>1.01</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>0.88925925925925919</v>
+        <v>2.2231481481481481</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>0.61703703703703705</v>
+        <v>1.5425925925925927</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>0.86037037037037023</v>
+        <v>2.1509259259259257</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>0.36296296296296299</v>
+        <v>0.90740740740740744</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>0.31166666666666659</v>
+        <v>0.77916666666666645</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>0.36666666666666664</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>0.66666666666666652</v>
+        <v>1.6666666666666663</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>1.2522222222222223</v>
+        <v>3.130555555555556</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>1.3092592592592589</v>
+        <v>3.273148148148147</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>1.0266666666666664</v>
+        <v>2.566666666666666</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>0.79629629629629628</v>
+        <v>1.9907407407407407</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>0.36296296296296293</v>
+        <v>0.90740740740740733</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>7.3333333333333334E-2</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13163,99 +13163,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.27941176470588236</v>
+        <v>-0.69852941176470584</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-0.66176470588235281</v>
+        <v>-1.654411764705882</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-1.1544117647058822</v>
+        <v>-2.8860294117647056</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-1.0768382352941177</v>
+        <v>-2.6920955882352944</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-1.0773529411764704</v>
+        <v>-2.693382352941176</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-1.0471323529411765</v>
+        <v>-2.617830882352941</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-5.7647058823529412E-2</v>
+        <v>-0.14411764705882352</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>1.2674999999999998</v>
+        <v>3.1687499999999997</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>1.6649999999999998</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>1.6470588235294119</v>
+        <v>4.1176470588235299</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>1.3612500000000001</v>
+        <v>3.4031250000000002</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>1.7377941176470588</v>
+        <v>4.3444852941176473</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>1.5744117647058824</v>
+        <v>3.9360294117647059</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>1.3602941176470587</v>
+        <v>3.4007352941176467</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>0.98772058823529396</v>
+        <v>2.4693014705882348</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>0.61029411764705888</v>
+        <v>1.5257352941176472</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>0.76492647058823526</v>
+        <v>1.912316176470588</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>0.68323529411764694</v>
+        <v>1.7080882352941174</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>0.12749999999999997</v>
+        <v>0.31874999999999992</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>0.53323529411764703</v>
+        <v>1.3330882352941176</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>0.75705882352941178</v>
+        <v>1.8926470588235293</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>0.495</v>
+        <v>1.2375</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-0.47249999999999992</v>
+        <v>-1.1812499999999999</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-0.95801470588235293</v>
+        <v>-2.3950367647058823</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17202,7 +17202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C7C2F-0C60-4586-9548-145432D80A20}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -18168,7 +18168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7351F5A2-2459-49A7-9E0E-9B7C04C95315}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -18257,99 +18257,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.230971524599616</v>
+        <v>7.8316088114990405</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.1218176588443978</v>
+        <v>7.5505241471109938</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.998946532906952</v>
+        <v>7.2699063322673805</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0769775779808883</v>
+        <v>7.4768439449522202</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.9682346411189489</v>
+        <v>7.2439466027973713</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.9542177871979867</v>
+        <v>7.2356244679949659</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0028426919823032</v>
+        <v>7.3237667299557572</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.7602562875495686</v>
+        <v>9.3688007188739224</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8324500164943012</v>
+        <v>9.5531250412357522</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8046112552485893</v>
+        <v>9.4707081381214735</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7819562390622394</v>
+        <v>9.4308505976555974</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8650973347939206</v>
+        <v>9.6327033369848003</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.8355865499228172</v>
+        <v>9.5411063748070433</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.7951336519096381</v>
+        <v>9.3996541297740954</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.3129941306816457</v>
+        <v>8.1884053267041139</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.5584655541240342</v>
+        <v>8.8036438853100858</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.8363044914361151</v>
+        <v>9.538861228590287</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.8142769681133073</v>
+        <v>9.4299724202832689</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.5922447478100183</v>
+        <v>8.918571869525044</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.4153159507663187</v>
+        <v>8.4946698769157969</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.4064733439829413</v>
+        <v>8.4499433599573521</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.2401780147202337</v>
+        <v>8.0595050368005836</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0262891375775229</v>
+        <v>7.378862843943808</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9890230782480693</v>
+        <v>7.2472976956201727</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18358,99 +18358,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.3825052434879792</v>
+        <v>5.7104431087199483</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.3248293202418338</v>
+        <v>5.558053300604584</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.2155662317538183</v>
+        <v>5.3114555793845462</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.1905698313429531</v>
+        <v>5.2608245783573828</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.1851635343276508</v>
+        <v>5.2862688358191265</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.3073389829328192</v>
+        <v>5.6184274573320474</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.7833530857203561</v>
+        <v>6.7750427143008896</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.1279884580365009</v>
+        <v>7.7881311450912518</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.3961407234067007</v>
+        <v>8.4623518085167504</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.506699068272225</v>
+        <v>8.7259276706805622</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4879857337960298</v>
+        <v>8.6959243344900745</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.4093055073939533</v>
+        <v>8.4932237684848833</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.2982405854733825</v>
+        <v>8.1977414636834567</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.1650908737938708</v>
+        <v>7.8245471844846763</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>2.9558036627642017</v>
+        <v>7.2954291569105036</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.0445589288180188</v>
+        <v>7.5188773220450473</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.3525919348718269</v>
+        <v>8.3295798371795655</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>4.0374444107596039</v>
+        <v>9.9878910268990104</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8196745589412111</v>
+        <v>9.4871463973530261</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.5191352226599073</v>
+        <v>8.7542180566497692</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.4275363663750857</v>
+        <v>8.5026009159377143</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.1827618212336026</v>
+        <v>7.9159645530840068</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0124637937931253</v>
+        <v>7.3442994844828133</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.7046438329653348</v>
+        <v>6.5363495824133366</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18459,99 +18459,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.0349465766466359</v>
+        <v>4.8415464416165905</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.9285911933962019</v>
+        <v>4.5674579834905042</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.8540186050785255</v>
+        <v>4.4075865126963141</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.881722254383035</v>
+        <v>4.4887056359575874</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.8720987487727341</v>
+        <v>4.5036068719318347</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.1057865206847954</v>
+        <v>5.1145463017119885</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.3616623754390296</v>
+        <v>8.220815938597573</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.8193219264112792</v>
+        <v>9.5164648160281988</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.9867906423763162</v>
+        <v>9.9389766059407894</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.869927726832548</v>
+        <v>9.6339993170813703</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7175028030814725</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.9576291898144165</v>
+        <v>9.8640329745360411</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.6822577433379893</v>
+        <v>9.1577843583449727</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.5345531315797767</v>
+        <v>8.7482028289494416</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.0688671537922145</v>
+        <v>7.5780878844805359</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.0554107458028259</v>
+        <v>7.5460068645070644</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.1540701279686956</v>
+        <v>7.8332753199217384</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.4395756968620361</v>
+        <v>8.4932192421550905</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.1201300219398487</v>
+        <v>7.738285054849622</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.2284720462582879</v>
+        <v>8.0275601156457199</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.1505942700059411</v>
+        <v>7.8102456750148521</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>2.9486247649138875</v>
+        <v>7.3306219122847196</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.551399485841416</v>
+        <v>6.1916387146035401</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.2906137171916399</v>
+        <v>5.5012742929790992</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18964,99 +18964,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.230971524599616</v>
+        <v>7.8316088114990405</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.151342368766175</v>
+        <v>7.6243359219154376</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.9704734675778828</v>
+        <v>7.1987236689447069</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.0183126930879371</v>
+        <v>7.3301817327198426</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.9682346411189489</v>
+        <v>7.2439466027973713</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>3.0113032096086134</v>
+        <v>7.3783380240215335</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.9452303714759904</v>
+        <v>7.1797359286899756</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.8350368799672268</v>
+        <v>9.5557521999180679</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.8705878499925777</v>
+        <v>9.648469624981443</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8801592136868943</v>
+        <v>9.659578034217235</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7442969433382838</v>
+        <v>9.3367023583457094</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8266466281126479</v>
+        <v>9.5365765702816194</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.7975497510902558</v>
+        <v>9.4460143777256391</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.7204067122047788</v>
+        <v>9.212836780511946</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.3454968719884621</v>
+        <v>8.2696621799711547</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.6284012652065147</v>
+        <v>8.9784831630162873</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.9123385812648377</v>
+        <v>9.7289464531620933</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.8891529074755735</v>
+        <v>9.6171622686889346</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.6277535952881186</v>
+        <v>9.0073439882202955</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.4491783102739819</v>
+        <v>8.5793257756849552</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.3392270771032821</v>
+        <v>8.2818276927582044</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.2080491679063647</v>
+        <v>7.9791829197659121</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0843234536624067</v>
+        <v>7.5239486341560164</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>3.0174115756972171</v>
+        <v>7.3182689392430422</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19065,99 +19065,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.3825052434879792</v>
+        <v>5.7104431087199483</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.2817196671703304</v>
+        <v>5.4502791679258253</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.1742877071187419</v>
+        <v>5.2082592677968549</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.1905698313429531</v>
+        <v>5.2608245783573828</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.1851635343276508</v>
+        <v>5.2862688358191265</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.3294129060954809</v>
+        <v>5.6736122652387015</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.7301305573392822</v>
+        <v>6.6419863933482048</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.1279884580365009</v>
+        <v>7.7881311450912518</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.3961407234067007</v>
+        <v>8.4623518085167504</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.541493925621614</v>
+        <v>8.8129148140540359</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4185465524534426</v>
+        <v>8.5223263811336061</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.477091084208499</v>
+        <v>8.6626877105212472</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.3635672638495171</v>
+        <v>8.3610581596237932</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.2272169579364145</v>
+        <v>7.9798623948410352</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.0136653360194856</v>
+        <v>7.4400833400487132</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.0743877181061992</v>
+        <v>7.5934492952654979</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.3525919348718269</v>
+        <v>8.3295798371795655</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.9581051225444122</v>
+        <v>9.7895428063610304</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8574577045306233</v>
+        <v>9.5816042613265573</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.5540357748865059</v>
+        <v>8.841469437216265</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.4952038937025875</v>
+        <v>8.6717697342564684</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.1827618212336026</v>
+        <v>7.9159645530840068</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.9547059845839292</v>
+        <v>7.1999049614598229</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.7301885379616553</v>
+        <v>6.6002113449041371</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19166,99 +19166,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.0723679081795687</v>
+        <v>4.9350997704489226</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.9637760839307925</v>
+        <v>4.655420209826981</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.8369948190277403</v>
+        <v>4.3650270475693507</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.9164820328040288</v>
+        <v>4.5756050820100729</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.8370119737972794</v>
+        <v>4.4158899344931983</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.0656697236044326</v>
+        <v>5.0142543090110818</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.3940567325267534</v>
+        <v>8.3018018313168831</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.8193219264112788</v>
+        <v>9.516464816028197</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.9074281628621232</v>
+        <v>9.7405704071553068</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8315005828975557</v>
+        <v>9.5379314572438894</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7175028030814725</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8788771393514616</v>
+        <v>9.6671528483786524</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.6092507218045626</v>
+        <v>8.9752668045114063</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.5345531315797767</v>
+        <v>8.7482028289494416</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.0688671537922145</v>
+        <v>7.5780878844805359</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.0853480532608542</v>
+        <v>7.6208501331521354</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.0916807254093217</v>
+        <v>7.6773018135233038</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.4732666538306569</v>
+        <v>8.577446634576642</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.058554621501052</v>
+        <v>7.5843465537526296</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.2284720462582879</v>
+        <v>8.0275601156457199</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.1195299273058819</v>
+        <v>7.7325848182647041</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>2.8901981362822764</v>
+        <v>7.1845553407056917</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.5028629627912542</v>
+        <v>6.0702974069781357</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.3334225248688059</v>
+        <v>5.6082963121720137</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19669,99 +19669,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.1696296941076234</v>
+        <v>7.6782542352690593</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.0922929489226205</v>
+        <v>7.4767123723065509</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.0558926635650909</v>
+        <v>7.4122716589127275</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.1356424628738395</v>
+        <v>7.6235061571845986</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.9112251482965701</v>
+        <v>7.1014228707414242</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.8971323647873604</v>
+        <v>7.0929109119684002</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.0028426919823032</v>
+        <v>7.3237667299557572</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.7602562875495682</v>
+        <v>9.3688007188739206</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.9087256834908541</v>
+        <v>9.7438142087271356</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.8423852344677418</v>
+        <v>9.5651430861693552</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.8572748305101507</v>
+        <v>9.619147076275377</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.9035480414751929</v>
+        <v>9.7288301036879812</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.7595129522576944</v>
+        <v>9.3509223806442368</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.8698605916144975</v>
+        <v>9.5864714790362431</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.3779996132952785</v>
+        <v>8.3509190332381973</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.6284012652065147</v>
+        <v>8.9784831630162873</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.8363044914361151</v>
+        <v>9.538861228590287</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.8142769681133073</v>
+        <v>9.4299724202832689</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.5567359003319181</v>
+        <v>8.8297997508297943</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.3475912317509926</v>
+        <v>8.325358079377482</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.372850210543112</v>
+        <v>8.3658855263577792</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.3044357083479716</v>
+        <v>8.2201492708699284</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.9682548214926388</v>
+        <v>7.2337770537315969</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.9606345807989221</v>
+        <v>7.1763264519973049</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19770,99 +19770,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.3603189910530995</v>
+        <v>5.654977477632749</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>2.3679389733133371</v>
+        <v>5.6658274332833427</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>2.1742877071187419</v>
+        <v>5.2082592677968549</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>2.1905698313429531</v>
+        <v>5.2608245783573828</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>2.1644894989843744</v>
+        <v>5.2345837474609356</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.3294129060954809</v>
+        <v>5.6736122652387015</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>2.83657561410143</v>
+        <v>6.9080990352535743</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.1279884580365009</v>
+        <v>7.7881311450912518</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.3285912422718997</v>
+        <v>8.293478105679748</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.5762887829710031</v>
+        <v>8.8999019574275078</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.4532661431247362</v>
+        <v>8.6091253578118394</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.477091084208499</v>
+        <v>8.6626877105212472</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.2329139070972484</v>
+        <v>8.0344247677431202</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.1650908737938708</v>
+        <v>7.8245471844846763</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>2.8979419895089178</v>
+        <v>7.1507749737722941</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>2.9849013502416586</v>
+        <v>7.3697333756041461</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.2862320961743903</v>
+        <v>8.1636802404359745</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>4.0771140548672005</v>
+        <v>10.087065137168</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.8196745589412111</v>
+        <v>9.4871463973530261</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.5889363271131054</v>
+        <v>8.9287208177827644</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.3937026027113348</v>
+        <v>8.4180165067783363</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>3.1512071363545999</v>
+        <v>7.8370778408865007</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>3.0413426983977234</v>
+        <v>7.4164967459943085</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.7301885379616553</v>
+        <v>6.6002113449041371</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19871,99 +19871,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>2.0349465766466359</v>
+        <v>4.8415464416165905</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>1.893406302861611</v>
+        <v>4.4794957571540275</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>1.8369948190277403</v>
+        <v>4.3650270475693507</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>1.899102143593532</v>
+        <v>4.5321553589838306</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>1.8896421362604614</v>
+        <v>4.5474653406511534</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>2.0656697236044326</v>
+        <v>5.0142543090110818</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>3.2968736612635827</v>
+        <v>8.0588441531589563</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>3.8193219264112788</v>
+        <v>9.516464816028197</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>3.9471094026192195</v>
+        <v>9.8397735065480472</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>3.7930734389625638</v>
+        <v>9.4418635974064102</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>3.7175028030814725</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>3.8788771393514616</v>
+        <v>9.6671528483786524</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>3.6092507218045626</v>
+        <v>8.9752668045114063</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>3.5693107962289075</v>
+        <v>8.8350969905722678</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>3.0989286253301369</v>
+        <v>7.6532415633253414</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>3.1152853607188824</v>
+        <v>7.6956934017972065</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>3.0916807254093217</v>
+        <v>7.6773018135233038</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>3.3721937829247954</v>
+        <v>8.3247644573119892</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>3.1817054223786458</v>
+        <v>7.8922235559466145</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>3.2924598871834534</v>
+        <v>8.1875297179586344</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>3.1505942700059411</v>
+        <v>7.8102456750148521</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>2.9778380792296928</v>
+        <v>7.4036551980742322</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>2.5028629627912542</v>
+        <v>6.0702974069781357</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>2.2906137171916399</v>
+        <v>5.5012742929790992</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20376,99 +20376,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>0.95780447948999858</v>
+        <v>2.3945111987249965</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>0.67670504765595507</v>
+        <v>1.6917626191398876</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>0.58663040999948379</v>
+        <v>1.4665760249987094</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>0.75195840810525549</v>
+        <v>1.8798960202631387</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>0.64745839653979709</v>
+        <v>1.6186459913494926</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>0.53232129686275254</v>
+        <v>1.3308032421568814</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>0.44044187798885914</v>
+        <v>1.1011046949721479</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>1.5391392769457799</v>
+        <v>3.8478481923644496</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>1.6096179262552197</v>
+        <v>4.0240448156380495</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>1.380577242847163</v>
+        <v>3.4514431071179077</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>1.6084727179954998</v>
+        <v>4.0211817949887498</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>1.4945909548089118</v>
+        <v>3.7364773870222794</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>1.5011758026000743</v>
+        <v>3.7529395065001858</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>1.3404927887943356</v>
+        <v>3.3512319719858392</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>0.79545438748478392</v>
+        <v>1.9886359687119599</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>1.2454372557936395</v>
+        <v>3.1135931394840988</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>1.4937099289630178</v>
+        <v>3.7342748224075444</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>1.3937249469669613</v>
+        <v>3.4843123674174032</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>0.9740762246880259</v>
+        <v>2.4351905617200647</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>1.0105462166537356</v>
+        <v>2.5263655416343389</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>0.94123550771165387</v>
+        <v>2.3530887692791347</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>0.58385595341365037</v>
+        <v>1.459639883534126</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>0.46574550545211651</v>
+        <v>1.1643637636302913</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>0.48272513645816445</v>
+        <v>1.2068128411454111</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20477,99 +20477,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-1.8141265882809072</v>
+        <v>-4.5353164707022682</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-1.8137266241695791</v>
+        <v>-4.5343165604239477</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-1.8637727641735928</v>
+        <v>-4.6594319104339821</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-1.9491523102972019</v>
+        <v>-4.8728807757430044</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-1.9304343502150616</v>
+        <v>-4.8260858755376539</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-1.7716875134447394</v>
+        <v>-4.4292187836118488</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-1.1233892886728361</v>
+        <v>-2.8084732216820902</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-0.21594765010274752</v>
+        <v>-0.53986912525686881</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-0.23206314100104167</v>
+        <v>-0.58015785250260421</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.15378980408604778</v>
+        <v>-0.38447451021511947</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-0.13547306926333458</v>
+        <v>-0.33868267315833644</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-0.60460755052970017</v>
+        <v>-1.5115188763242504</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-0.88326669066451335</v>
+        <v>-2.2081667266612834</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-1.1450091505302766</v>
+        <v>-2.8625228763256914</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-1.1364009139360107</v>
+        <v>-2.8410022848400267</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-1.1556188291573115</v>
+        <v>-2.8890470728932787</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-0.90859036432406615</v>
+        <v>-2.2714759108101652</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>0.29862779880291818</v>
+        <v>0.74656949700729547</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-4.2087034352593228E-2</v>
+        <v>-0.10521758588148307</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-0.49680803416197972</v>
+        <v>-1.2420200854049492</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-0.92090205239241585</v>
+        <v>-2.3022551309810395</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-1.2113700428321925</v>
+        <v>-3.0284251070804813</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-1.328577543852822</v>
+        <v>-3.3214438596320548</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-1.5211577411612434</v>
+        <v>-3.8028943529031083</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20578,99 +20578,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-1.7349538254263783</v>
+        <v>-4.337384563565946</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-1.8720202128767458</v>
+        <v>-4.6800505321918644</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-1.9063571788213205</v>
+        <v>-4.7658929470533016</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-1.880862768604757</v>
+        <v>-4.7021569215118921</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-1.882427132366169</v>
+        <v>-4.7060678309154227</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-1.5719072499544464</v>
+        <v>-3.9297681248861158</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-5.8533143644997745E-2</v>
+        <v>-0.14633285911249436</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>0.81042261128106263</v>
+        <v>2.0260565282026564</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>1.03289876572887</v>
+        <v>2.5822469143221749</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>0.71954164815946964</v>
+        <v>1.7988541203986741</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>0.42483394244964784</v>
+        <v>1.0620848561241196</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>0.84267617727923605</v>
+        <v>2.1066904431980902</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>0.53134942602328261</v>
+        <v>1.3283735650582065</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>0.1612077979729338</v>
+        <v>0.40301949493233452</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-0.63777579254783712</v>
+        <v>-1.5944394813695928</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-0.63804718863318455</v>
+        <v>-1.5951179715829613</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-0.52559688198193233</v>
+        <v>-1.3139922049548307</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-0.26515301230393123</v>
+        <v>-0.66288253075982806</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-0.64624692022906927</v>
+        <v>-1.6156173005726733</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-0.3682134766808034</v>
+        <v>-0.92053369170200849</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-0.50553745606266243</v>
+        <v>-1.2638436401566562</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-0.83849236296423846</v>
+        <v>-2.0962309074105963</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-1.3247022700834707</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-1.4953743885562409</v>
+        <v>-3.7384359713906026</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7380EEA-A0CA-4BC8-8923-023F6976527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A0B56-FB9B-423C-86AC-D0AED1BA8B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="5505" windowWidth="21600" windowHeight="12660" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -183,6 +189,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,6 +482,228 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.51030581831411614</v>
+          </cell>
+          <cell r="C5">
+            <v>0.47159688794358001</v>
+          </cell>
+          <cell r="D5">
+            <v>0.49929862588156276</v>
+          </cell>
+          <cell r="E5">
+            <v>0.49712439829844401</v>
+          </cell>
+          <cell r="F5">
+            <v>0.40928803313556472</v>
+          </cell>
+          <cell r="G5">
+            <v>0.41513847531624321</v>
+          </cell>
+          <cell r="H5">
+            <v>0.41603100861972458</v>
+          </cell>
+          <cell r="I5">
+            <v>0.37360511586253214</v>
+          </cell>
+          <cell r="J5">
+            <v>0.3374075618493228</v>
+          </cell>
+          <cell r="K5">
+            <v>0.2438974588604052</v>
+          </cell>
+          <cell r="L5">
+            <v>0.22495835665509906</v>
+          </cell>
+          <cell r="M5">
+            <v>0.15092354192320609</v>
+          </cell>
+          <cell r="N5">
+            <v>0.12543648550319042</v>
+          </cell>
+          <cell r="O5">
+            <v>0.12010214933393036</v>
+          </cell>
+          <cell r="P5">
+            <v>0.16662064815851338</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.22539904007612219</v>
+          </cell>
+          <cell r="R5">
+            <v>0.2520084238217844</v>
+          </cell>
+          <cell r="S5">
+            <v>0.34610985950968326</v>
+          </cell>
+          <cell r="T5">
+            <v>0.31481428411507889</v>
+          </cell>
+          <cell r="U5">
+            <v>0.29928075674465465</v>
+          </cell>
+          <cell r="V5">
+            <v>0.3948933868801075</v>
+          </cell>
+          <cell r="W5">
+            <v>0.47230664390462329</v>
+          </cell>
+          <cell r="X5">
+            <v>0.4465373894548304</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.63471890742191872</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.69259417117623046</v>
+          </cell>
+          <cell r="C6">
+            <v>0.6090328326015928</v>
+          </cell>
+          <cell r="D6">
+            <v>0.50125130819889707</v>
+          </cell>
+          <cell r="E6">
+            <v>0.43394228609352659</v>
+          </cell>
+          <cell r="F6">
+            <v>0.40456175336940986</v>
+          </cell>
+          <cell r="G6">
+            <v>0.3239669185215438</v>
+          </cell>
+          <cell r="H6">
+            <v>0.31541525423728811</v>
+          </cell>
+          <cell r="I6">
+            <v>0.28596365121502959</v>
+          </cell>
+          <cell r="J6">
+            <v>0.29474081070042879</v>
+          </cell>
+          <cell r="K6">
+            <v>0.3117221002654687</v>
+          </cell>
+          <cell r="L6">
+            <v>0.31201008908515415</v>
+          </cell>
+          <cell r="M6">
+            <v>0.36571953491933834</v>
+          </cell>
+          <cell r="N6">
+            <v>0.3658787395344088</v>
+          </cell>
+          <cell r="O6">
+            <v>0.37095559781498877</v>
+          </cell>
+          <cell r="P6">
+            <v>0.41771980932203395</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.34483183581784771</v>
+          </cell>
+          <cell r="R6">
+            <v>0.35721414896875631</v>
+          </cell>
+          <cell r="S6">
+            <v>0.37824631151725546</v>
+          </cell>
+          <cell r="T6">
+            <v>0.32996304497651618</v>
+          </cell>
+          <cell r="U6">
+            <v>0.3417686210945477</v>
+          </cell>
+          <cell r="V6">
+            <v>0.32027010159281194</v>
+          </cell>
+          <cell r="W6">
+            <v>0.29063794159689604</v>
+          </cell>
+          <cell r="X6">
+            <v>0.29788362773126403</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.32574729426179294</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.63194867814166822</v>
+          </cell>
+          <cell r="C7">
+            <v>0.58734313561287332</v>
+          </cell>
+          <cell r="D7">
+            <v>0.63657748202736475</v>
+          </cell>
+          <cell r="E7">
+            <v>0.70980665567265311</v>
+          </cell>
+          <cell r="F7">
+            <v>0.6071441675899919</v>
+          </cell>
+          <cell r="G7">
+            <v>0.51507889922440664</v>
+          </cell>
+          <cell r="H7">
+            <v>0.37073900383931557</v>
+          </cell>
+          <cell r="I7">
+            <v>0.33002396351361796</v>
+          </cell>
+          <cell r="J7">
+            <v>0.33671102063954234</v>
+          </cell>
+          <cell r="K7">
+            <v>0.32914619031667908</v>
+          </cell>
+          <cell r="L7">
+            <v>0.33296463449199926</v>
+          </cell>
+          <cell r="M7">
+            <v>0.35022095390244529</v>
+          </cell>
+          <cell r="N7">
+            <v>0.32035664407740472</v>
+          </cell>
+          <cell r="O7">
+            <v>0.30871151665850699</v>
+          </cell>
+          <cell r="P7">
+            <v>0.42299595454662575</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.55105587621428009</v>
+          </cell>
+          <cell r="R7">
+            <v>0.56261176531216983</v>
+          </cell>
+          <cell r="S7">
+            <v>0.57277402148986056</v>
+          </cell>
+          <cell r="T7">
+            <v>0.58856852791878178</v>
+          </cell>
+          <cell r="U7">
+            <v>0.62089917931407657</v>
+          </cell>
+          <cell r="V7">
+            <v>0.61238501378546206</v>
+          </cell>
+          <cell r="W7">
+            <v>0.59929859053312373</v>
+          </cell>
+          <cell r="X7">
+            <v>0.57383789198381818</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.52926098327707494</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="2">
@@ -696,6 +926,228 @@
           </cell>
           <cell r="Y4">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.39293548010186946</v>
+          </cell>
+          <cell r="C5">
+            <v>0.35369766595768504</v>
+          </cell>
+          <cell r="D5">
+            <v>0.36448799689354083</v>
+          </cell>
+          <cell r="E5">
+            <v>0.35792956677487969</v>
+          </cell>
+          <cell r="F5">
+            <v>0.30696602485167351</v>
+          </cell>
+          <cell r="G5">
+            <v>0.29059693272137027</v>
+          </cell>
+          <cell r="H5">
+            <v>0.32034387663718794</v>
+          </cell>
+          <cell r="I5">
+            <v>0.29141199037277504</v>
+          </cell>
+          <cell r="J5">
+            <v>0.23955936891301921</v>
+          </cell>
+          <cell r="K5">
+            <v>0.17316719579088768</v>
+          </cell>
+          <cell r="L5">
+            <v>0.17771710175752825</v>
+          </cell>
+          <cell r="M5">
+            <v>0.11017418560394045</v>
+          </cell>
+          <cell r="N5">
+            <v>9.03142695622971E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>9.6081719467144278E-2</v>
+          </cell>
+          <cell r="P5">
+            <v>0.1282978990820553</v>
+          </cell>
+          <cell r="Q5">
+            <v>0.16228730885480797</v>
+          </cell>
+          <cell r="R5">
+            <v>0.19152640210455615</v>
+          </cell>
+          <cell r="S5">
+            <v>0.26304349322735926</v>
+          </cell>
+          <cell r="T5">
+            <v>0.23925885592745996</v>
+          </cell>
+          <cell r="U5">
+            <v>0.21248933728870478</v>
+          </cell>
+          <cell r="V5">
+            <v>0.31591470950408601</v>
+          </cell>
+          <cell r="W5">
+            <v>0.3400607836113288</v>
+          </cell>
+          <cell r="X5">
+            <v>0.3304376681965745</v>
+          </cell>
+          <cell r="Y5">
+            <v>0.48238636964065829</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.5194456283821729</v>
+          </cell>
+          <cell r="C6">
+            <v>0.42632298282111497</v>
+          </cell>
+          <cell r="D6">
+            <v>0.38596350731315077</v>
+          </cell>
+          <cell r="E6">
+            <v>0.33847498315295077</v>
+          </cell>
+          <cell r="F6">
+            <v>0.30342131502705738</v>
+          </cell>
+          <cell r="G6">
+            <v>0.25917353481723504</v>
+          </cell>
+          <cell r="H6">
+            <v>0.24286974576271184</v>
+          </cell>
+          <cell r="I6">
+            <v>0.22591128445987338</v>
+          </cell>
+          <cell r="J6">
+            <v>0.2122133837043087</v>
+          </cell>
+          <cell r="K6">
+            <v>0.23690879620175623</v>
+          </cell>
+          <cell r="L6">
+            <v>0.22152716325045943</v>
+          </cell>
+          <cell r="M6">
+            <v>0.25600367444353683</v>
+          </cell>
+          <cell r="N6">
+            <v>0.28172662944149479</v>
+          </cell>
+          <cell r="O6">
+            <v>0.27079758640494178</v>
+          </cell>
+          <cell r="P6">
+            <v>0.30911265889830514</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.2724171502960997</v>
+          </cell>
+          <cell r="R6">
+            <v>0.25719418725750454</v>
+          </cell>
+          <cell r="S6">
+            <v>0.2647724180620788</v>
+          </cell>
+          <cell r="T6">
+            <v>0.25407154463191745</v>
+          </cell>
+          <cell r="U6">
+            <v>0.26657952445374722</v>
+          </cell>
+          <cell r="V6">
+            <v>0.24981067924239331</v>
+          </cell>
+          <cell r="W6">
+            <v>0.21216569736573412</v>
+          </cell>
+          <cell r="X6">
+            <v>0.23830690218501122</v>
+          </cell>
+          <cell r="Y6">
+            <v>0.22802310598325504</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.44868356148058447</v>
+          </cell>
+          <cell r="C7">
+            <v>0.41701362628514005</v>
+          </cell>
+          <cell r="D7">
+            <v>0.50289621080161817</v>
+          </cell>
+          <cell r="E7">
+            <v>0.51106079208431021</v>
+          </cell>
+          <cell r="F7">
+            <v>0.45535812569249395</v>
+          </cell>
+          <cell r="G7">
+            <v>0.40176154139503717</v>
+          </cell>
+          <cell r="H7">
+            <v>0.29288381303305927</v>
+          </cell>
+          <cell r="I7">
+            <v>0.25081821227034967</v>
+          </cell>
+          <cell r="J7">
+            <v>0.25926748589244758</v>
+          </cell>
+          <cell r="K7">
+            <v>0.24356818083434251</v>
+          </cell>
+          <cell r="L7">
+            <v>0.2663717075935994</v>
+          </cell>
+          <cell r="M7">
+            <v>0.2766745535829318</v>
+          </cell>
+          <cell r="N7">
+            <v>0.22745321729495735</v>
+          </cell>
+          <cell r="O7">
+            <v>0.24079498299363547</v>
+          </cell>
+          <cell r="P7">
+            <v>0.30878704681903679</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.40227078963642449</v>
+          </cell>
+          <cell r="R7">
+            <v>0.39382823571851888</v>
+          </cell>
+          <cell r="S7">
+            <v>0.42385277590249681</v>
+          </cell>
+          <cell r="T7">
+            <v>0.41199796954314727</v>
+          </cell>
+          <cell r="U7">
+            <v>0.46567438448555742</v>
+          </cell>
+          <cell r="V7">
+            <v>0.47153646061480581</v>
+          </cell>
+          <cell r="W7">
+            <v>0.45546692880517403</v>
+          </cell>
+          <cell r="X7">
+            <v>0.41890166114818728</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.40753095712334769</v>
           </cell>
         </row>
       </sheetData>
@@ -3739,7 +4191,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6583,7 +7035,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6767,104 +7219,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
+        <v>1.0206116366282323</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
+        <v>0.94319377588716002</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
+        <v>0.99859725176312553</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
+        <v>0.99424879659688803</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
+        <v>0.81857606627112944</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
+        <v>0.83027695063248641</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
+        <v>0.83206201723944917</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
+        <v>0.74721023172506429</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
+        <v>0.6748151236986456</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
+        <v>0.48779491772081041</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
+        <v>0.44991671331019811</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
+        <v>0.30184708384641218</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
+        <v>0.25087297100638084</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
+        <v>0.24020429866786072</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
+        <v>0.33324129631702676</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
+        <v>0.45079808015224437</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
+        <v>0.5040168476435688</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
+        <v>0.69221971901936652</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
+        <v>0.62962856823015778</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
+        <v>0.5985615134893093</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
+        <v>0.789786773760215</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
+        <v>0.94461328780924658</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
+        <v>0.8930747789096608</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
+        <v>1.2694378148438374</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6977,8 +7429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B188F52-24F8-4D13-A7AA-99FC0B58CC52}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,104 +7614,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
+        <v>1.3851883423524609</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
+        <v>1.2180656652031856</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
+        <v>1.0025026163977941</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
+        <v>0.86788457218705317</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
+        <v>0.80912350673881972</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
+        <v>0.6479338370430876</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
+        <v>0.63083050847457622</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
+        <v>0.57192730243005918</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
+        <v>0.58948162140085758</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
+        <v>0.62344420053093741</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
+        <v>0.6240201781703083</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
+        <v>0.73143906983867668</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
+        <v>0.73175747906881761</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
+        <v>0.74191119562997754</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
+        <v>0.83543961864406791</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
+        <v>0.68966367163569542</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
+        <v>0.71442829793751261</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
+        <v>0.75649262303451092</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
+        <v>0.65992608995303237</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
+        <v>0.6835372421890954</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
+        <v>0.64054020318562388</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
+        <v>0.58127588319379209</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
+        <v>0.59576725546252807</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
+        <v>0.65149458852358588</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7372,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E2BC38-F3C4-48C2-8771-8511DFAC3C00}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,104 +8009,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
+        <v>1.2638973562833364</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
+        <v>1.1746862712257466</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
+        <v>1.2731549640547295</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
+        <v>1.4196133113453062</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
+        <v>1.2142883351799838</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
+        <v>1.0301577984488133</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
+        <v>0.74147800767863115</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
+        <v>0.66004792702723591</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
+        <v>0.67342204127908467</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
+        <v>0.65829238063335815</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
+        <v>0.66592926898399851</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
+        <v>0.70044190780489057</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
+        <v>0.64071328815480943</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
+        <v>0.61742303331701398</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
+        <v>0.8459919090932515</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
+        <v>1.1021117524285602</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
+        <v>1.1252235306243397</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
+        <v>1.1455480429797211</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
+        <v>1.1771370558375636</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
+        <v>1.2417983586281531</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
+        <v>1.2247700275709241</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
+        <v>1.1985971810662475</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
+        <v>1.1476757839676364</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
+        <v>1.0585219665541499</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7768,7 +8220,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7928,79 +8380,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8091,7 +8543,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,79 +8703,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8414,7 +8866,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8574,79 +9026,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8737,7 +9189,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8796,7 +9248,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y3"/>
+      <selection activeCell="A5" sqref="A5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9110,79 +9562,79 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -14989,8 +15441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B868C0-111B-47C9-B784-BA76718F02D8}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15174,104 +15626,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
+        <v>0.78587096020373892</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
+        <v>0.70739533191537007</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
+        <v>0.72897599378708167</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
+        <v>0.71585913354975939</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
+        <v>0.61393204970334703</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
+        <v>0.58119386544274054</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
+        <v>0.64068775327437588</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
+        <v>0.58282398074555009</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
+        <v>0.47911873782603842</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
+        <v>0.34633439158177537</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
+        <v>0.3554342035150565</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
+        <v>0.22034837120788089</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
+        <v>0.1806285391245942</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
+        <v>0.19216343893428856</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
+        <v>0.2565957981641106</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
+        <v>0.32457461770961593</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
+        <v>0.38305280420911231</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
+        <v>0.52608698645471852</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
+        <v>0.47851771185491992</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
+        <v>0.42497867457740957</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
+        <v>0.63182941900817202</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
+        <v>0.6801215672226576</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
+        <v>0.66087533639314899</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
+        <v>0.96477273928131657</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15444,7 +15896,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15628,104 +16080,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
+        <v>1.0388912567643458</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
+        <v>0.85264596564222994</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
+        <v>0.77192701462630153</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
+        <v>0.67694996630590154</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
+        <v>0.60684263005411476</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
+        <v>0.51834706963447008</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
+        <v>0.48573949152542367</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
+        <v>0.45182256891974676</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
+        <v>0.4244267674086174</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
+        <v>0.47381759240351246</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
+        <v>0.44305432650091886</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
+        <v>0.51200734888707367</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
+        <v>0.56345325888298958</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
+        <v>0.54159517280988356</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
+        <v>0.61822531779661027</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
+        <v>0.54483430059219939</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
+        <v>0.51438837451500907</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
+        <v>0.52954483612415759</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
+        <v>0.50814308926383489</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
+        <v>0.53315904890749444</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
+        <v>0.49962135848478662</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
+        <v>0.42433139473146825</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
+        <v>0.47661380437002243</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
+        <v>0.45604621196651007</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15839,7 +16291,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16023,104 +16475,104 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
-        <v>0</v>
+      <c r="B3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
+        <v>0.89736712296116894</v>
+      </c>
+      <c r="C3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
+        <v>0.8340272525702801</v>
+      </c>
+      <c r="D3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
+        <v>1.0057924216032363</v>
+      </c>
+      <c r="E3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
+        <v>1.0221215841686204</v>
+      </c>
+      <c r="F3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
+        <v>0.91071625138498791</v>
+      </c>
+      <c r="G3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
+        <v>0.80352308279007434</v>
+      </c>
+      <c r="H3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
+        <v>0.58576762606611854</v>
+      </c>
+      <c r="I3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
+        <v>0.50163642454069934</v>
+      </c>
+      <c r="J3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
+        <v>0.51853497178489516</v>
+      </c>
+      <c r="K3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
+        <v>0.48713636166868501</v>
+      </c>
+      <c r="L3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
+        <v>0.53274341518719881</v>
+      </c>
+      <c r="M3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
+        <v>0.55334910716586361</v>
+      </c>
+      <c r="N3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
+        <v>0.4549064345899147</v>
+      </c>
+      <c r="O3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
+        <v>0.48158996598727094</v>
+      </c>
+      <c r="P3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
+        <v>0.61757409363807358</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
+        <v>0.80454157927284897</v>
+      </c>
+      <c r="R3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
+        <v>0.78765647143703776</v>
+      </c>
+      <c r="S3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
+        <v>0.84770555180499363</v>
+      </c>
+      <c r="T3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
+        <v>0.82399593908629454</v>
+      </c>
+      <c r="U3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
+        <v>0.93134876897111485</v>
+      </c>
+      <c r="V3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
+        <v>0.94307292122961162</v>
+      </c>
+      <c r="W3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
+        <v>0.91093385761034806</v>
+      </c>
+      <c r="X3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
+        <v>0.83780332229637455</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
+        <v>0.81506191424669538</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16234,7 +16686,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16394,79 +16846,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -16557,7 +17009,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16717,79 +17169,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -16880,7 +17332,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD3 A7:XFD7"/>
+      <selection activeCell="A3" sqref="A3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17040,79 +17492,79 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -17202,8 +17654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C7C2F-0C60-4586-9548-145432D80A20}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17517,79 +17969,79 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -18168,7 +18620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7351F5A2-2459-49A7-9E0E-9B7C04C95315}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A0B56-FB9B-423C-86AC-D0AED1BA8B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5877C-AACD-4EA8-9527-240E1B90E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="30" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -926,228 +926,6 @@
           </cell>
           <cell r="Y4">
             <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.39293548010186946</v>
-          </cell>
-          <cell r="C5">
-            <v>0.35369766595768504</v>
-          </cell>
-          <cell r="D5">
-            <v>0.36448799689354083</v>
-          </cell>
-          <cell r="E5">
-            <v>0.35792956677487969</v>
-          </cell>
-          <cell r="F5">
-            <v>0.30696602485167351</v>
-          </cell>
-          <cell r="G5">
-            <v>0.29059693272137027</v>
-          </cell>
-          <cell r="H5">
-            <v>0.32034387663718794</v>
-          </cell>
-          <cell r="I5">
-            <v>0.29141199037277504</v>
-          </cell>
-          <cell r="J5">
-            <v>0.23955936891301921</v>
-          </cell>
-          <cell r="K5">
-            <v>0.17316719579088768</v>
-          </cell>
-          <cell r="L5">
-            <v>0.17771710175752825</v>
-          </cell>
-          <cell r="M5">
-            <v>0.11017418560394045</v>
-          </cell>
-          <cell r="N5">
-            <v>9.03142695622971E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>9.6081719467144278E-2</v>
-          </cell>
-          <cell r="P5">
-            <v>0.1282978990820553</v>
-          </cell>
-          <cell r="Q5">
-            <v>0.16228730885480797</v>
-          </cell>
-          <cell r="R5">
-            <v>0.19152640210455615</v>
-          </cell>
-          <cell r="S5">
-            <v>0.26304349322735926</v>
-          </cell>
-          <cell r="T5">
-            <v>0.23925885592745996</v>
-          </cell>
-          <cell r="U5">
-            <v>0.21248933728870478</v>
-          </cell>
-          <cell r="V5">
-            <v>0.31591470950408601</v>
-          </cell>
-          <cell r="W5">
-            <v>0.3400607836113288</v>
-          </cell>
-          <cell r="X5">
-            <v>0.3304376681965745</v>
-          </cell>
-          <cell r="Y5">
-            <v>0.48238636964065829</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.5194456283821729</v>
-          </cell>
-          <cell r="C6">
-            <v>0.42632298282111497</v>
-          </cell>
-          <cell r="D6">
-            <v>0.38596350731315077</v>
-          </cell>
-          <cell r="E6">
-            <v>0.33847498315295077</v>
-          </cell>
-          <cell r="F6">
-            <v>0.30342131502705738</v>
-          </cell>
-          <cell r="G6">
-            <v>0.25917353481723504</v>
-          </cell>
-          <cell r="H6">
-            <v>0.24286974576271184</v>
-          </cell>
-          <cell r="I6">
-            <v>0.22591128445987338</v>
-          </cell>
-          <cell r="J6">
-            <v>0.2122133837043087</v>
-          </cell>
-          <cell r="K6">
-            <v>0.23690879620175623</v>
-          </cell>
-          <cell r="L6">
-            <v>0.22152716325045943</v>
-          </cell>
-          <cell r="M6">
-            <v>0.25600367444353683</v>
-          </cell>
-          <cell r="N6">
-            <v>0.28172662944149479</v>
-          </cell>
-          <cell r="O6">
-            <v>0.27079758640494178</v>
-          </cell>
-          <cell r="P6">
-            <v>0.30911265889830514</v>
-          </cell>
-          <cell r="Q6">
-            <v>0.2724171502960997</v>
-          </cell>
-          <cell r="R6">
-            <v>0.25719418725750454</v>
-          </cell>
-          <cell r="S6">
-            <v>0.2647724180620788</v>
-          </cell>
-          <cell r="T6">
-            <v>0.25407154463191745</v>
-          </cell>
-          <cell r="U6">
-            <v>0.26657952445374722</v>
-          </cell>
-          <cell r="V6">
-            <v>0.24981067924239331</v>
-          </cell>
-          <cell r="W6">
-            <v>0.21216569736573412</v>
-          </cell>
-          <cell r="X6">
-            <v>0.23830690218501122</v>
-          </cell>
-          <cell r="Y6">
-            <v>0.22802310598325504</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.44868356148058447</v>
-          </cell>
-          <cell r="C7">
-            <v>0.41701362628514005</v>
-          </cell>
-          <cell r="D7">
-            <v>0.50289621080161817</v>
-          </cell>
-          <cell r="E7">
-            <v>0.51106079208431021</v>
-          </cell>
-          <cell r="F7">
-            <v>0.45535812569249395</v>
-          </cell>
-          <cell r="G7">
-            <v>0.40176154139503717</v>
-          </cell>
-          <cell r="H7">
-            <v>0.29288381303305927</v>
-          </cell>
-          <cell r="I7">
-            <v>0.25081821227034967</v>
-          </cell>
-          <cell r="J7">
-            <v>0.25926748589244758</v>
-          </cell>
-          <cell r="K7">
-            <v>0.24356818083434251</v>
-          </cell>
-          <cell r="L7">
-            <v>0.2663717075935994</v>
-          </cell>
-          <cell r="M7">
-            <v>0.2766745535829318</v>
-          </cell>
-          <cell r="N7">
-            <v>0.22745321729495735</v>
-          </cell>
-          <cell r="O7">
-            <v>0.24079498299363547</v>
-          </cell>
-          <cell r="P7">
-            <v>0.30878704681903679</v>
-          </cell>
-          <cell r="Q7">
-            <v>0.40227078963642449</v>
-          </cell>
-          <cell r="R7">
-            <v>0.39382823571851888</v>
-          </cell>
-          <cell r="S7">
-            <v>0.42385277590249681</v>
-          </cell>
-          <cell r="T7">
-            <v>0.41199796954314727</v>
-          </cell>
-          <cell r="U7">
-            <v>0.46567438448555742</v>
-          </cell>
-          <cell r="V7">
-            <v>0.47153646061480581</v>
-          </cell>
-          <cell r="W7">
-            <v>0.45546692880517403</v>
-          </cell>
-          <cell r="X7">
-            <v>0.41890166114818728</v>
-          </cell>
-          <cell r="Y7">
-            <v>0.40753095712334769</v>
           </cell>
         </row>
       </sheetData>
@@ -15442,7 +15220,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:Y3"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15630,100 +15408,100 @@
         <v>4</v>
       </c>
       <c r="B3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>0.78587096020373892</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
+        <v>1.0206116366282323</v>
       </c>
       <c r="C3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>0.70739533191537007</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
+        <v>0.94319377588716002</v>
       </c>
       <c r="D3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>0.72897599378708167</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
+        <v>0.99859725176312553</v>
       </c>
       <c r="E3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>0.71585913354975939</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
+        <v>0.99424879659688803</v>
       </c>
       <c r="F3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>0.61393204970334703</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
+        <v>0.81857606627112944</v>
       </c>
       <c r="G3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>0.58119386544274054</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
+        <v>0.83027695063248641</v>
       </c>
       <c r="H3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>0.64068775327437588</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
+        <v>0.83206201723944917</v>
       </c>
       <c r="I3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>0.58282398074555009</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
+        <v>0.74721023172506429</v>
       </c>
       <c r="J3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>0.47911873782603842</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
+        <v>0.6748151236986456</v>
       </c>
       <c r="K3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>0.34633439158177537</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
+        <v>0.48779491772081041</v>
       </c>
       <c r="L3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>0.3554342035150565</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
+        <v>0.44991671331019811</v>
       </c>
       <c r="M3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>0.22034837120788089</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
+        <v>0.30184708384641218</v>
       </c>
       <c r="N3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>0.1806285391245942</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
+        <v>0.25087297100638084</v>
       </c>
       <c r="O3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>0.19216343893428856</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
+        <v>0.24020429866786072</v>
       </c>
       <c r="P3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>0.2565957981641106</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
+        <v>0.33324129631702676</v>
       </c>
       <c r="Q3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>0.32457461770961593</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
+        <v>0.45079808015224437</v>
       </c>
       <c r="R3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>0.38305280420911231</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
+        <v>0.5040168476435688</v>
       </c>
       <c r="S3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>0.52608698645471852</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
+        <v>0.69221971901936652</v>
       </c>
       <c r="T3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>0.47851771185491992</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
+        <v>0.62962856823015778</v>
       </c>
       <c r="U3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>0.42497867457740957</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
+        <v>0.5985615134893093</v>
       </c>
       <c r="V3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>0.63182941900817202</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
+        <v>0.789786773760215</v>
       </c>
       <c r="W3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>0.6801215672226576</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
+        <v>0.94461328780924658</v>
       </c>
       <c r="X3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>0.66087533639314899</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
+        <v>0.8930747789096608</v>
       </c>
       <c r="Y3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>0.96477273928131657</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
+        <v>1.2694378148438374</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16084,100 +15862,100 @@
         <v>4</v>
       </c>
       <c r="B3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>1.0388912567643458</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
+        <v>1.3851883423524609</v>
       </c>
       <c r="C3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>0.85264596564222994</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
+        <v>1.2180656652031856</v>
       </c>
       <c r="D3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>0.77192701462630153</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
+        <v>1.0025026163977941</v>
       </c>
       <c r="E3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>0.67694996630590154</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
+        <v>0.86788457218705317</v>
       </c>
       <c r="F3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>0.60684263005411476</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
+        <v>0.80912350673881972</v>
       </c>
       <c r="G3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>0.51834706963447008</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
+        <v>0.6479338370430876</v>
       </c>
       <c r="H3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>0.48573949152542367</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
+        <v>0.63083050847457622</v>
       </c>
       <c r="I3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>0.45182256891974676</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
+        <v>0.57192730243005918</v>
       </c>
       <c r="J3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>0.4244267674086174</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
+        <v>0.58948162140085758</v>
       </c>
       <c r="K3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>0.47381759240351246</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
+        <v>0.62344420053093741</v>
       </c>
       <c r="L3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>0.44305432650091886</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
+        <v>0.6240201781703083</v>
       </c>
       <c r="M3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>0.51200734888707367</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
+        <v>0.73143906983867668</v>
       </c>
       <c r="N3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>0.56345325888298958</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
+        <v>0.73175747906881761</v>
       </c>
       <c r="O3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>0.54159517280988356</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
+        <v>0.74191119562997754</v>
       </c>
       <c r="P3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>0.61822531779661027</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
+        <v>0.83543961864406791</v>
       </c>
       <c r="Q3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>0.54483430059219939</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
+        <v>0.68966367163569542</v>
       </c>
       <c r="R3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>0.51438837451500907</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
+        <v>0.71442829793751261</v>
       </c>
       <c r="S3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>0.52954483612415759</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
+        <v>0.75649262303451092</v>
       </c>
       <c r="T3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>0.50814308926383489</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
+        <v>0.65992608995303237</v>
       </c>
       <c r="U3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>0.53315904890749444</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
+        <v>0.6835372421890954</v>
       </c>
       <c r="V3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>0.49962135848478662</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
+        <v>0.64054020318562388</v>
       </c>
       <c r="W3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>0.42433139473146825</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
+        <v>0.58127588319379209</v>
       </c>
       <c r="X3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>0.47661380437002243</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
+        <v>0.59576725546252807</v>
       </c>
       <c r="Y3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>0.45604621196651007</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
+        <v>0.65149458852358588</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16290,8 +16068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148DB5EF-CBE0-4A61-A157-99F54D94000F}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Y3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16479,100 +16257,100 @@
         <v>4</v>
       </c>
       <c r="B3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>0.89736712296116894</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
+        <v>1.2638973562833364</v>
       </c>
       <c r="C3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>0.8340272525702801</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
+        <v>1.1746862712257466</v>
       </c>
       <c r="D3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>1.0057924216032363</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
+        <v>1.2731549640547295</v>
       </c>
       <c r="E3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>1.0221215841686204</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
+        <v>1.4196133113453062</v>
       </c>
       <c r="F3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>0.91071625138498791</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
+        <v>1.2142883351799838</v>
       </c>
       <c r="G3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>0.80352308279007434</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
+        <v>1.0301577984488133</v>
       </c>
       <c r="H3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>0.58576762606611854</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
+        <v>0.74147800767863115</v>
       </c>
       <c r="I3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>0.50163642454069934</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
+        <v>0.66004792702723591</v>
       </c>
       <c r="J3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>0.51853497178489516</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
+        <v>0.67342204127908467</v>
       </c>
       <c r="K3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>0.48713636166868501</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
+        <v>0.65829238063335815</v>
       </c>
       <c r="L3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>0.53274341518719881</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
+        <v>0.66592926898399851</v>
       </c>
       <c r="M3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>0.55334910716586361</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
+        <v>0.70044190780489057</v>
       </c>
       <c r="N3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>0.4549064345899147</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
+        <v>0.64071328815480943</v>
       </c>
       <c r="O3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>0.48158996598727094</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
+        <v>0.61742303331701398</v>
       </c>
       <c r="P3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>0.61757409363807358</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
+        <v>0.8459919090932515</v>
       </c>
       <c r="Q3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>0.80454157927284897</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
+        <v>1.1021117524285602</v>
       </c>
       <c r="R3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>0.78765647143703776</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
+        <v>1.1252235306243397</v>
       </c>
       <c r="S3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>0.84770555180499363</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
+        <v>1.1455480429797211</v>
       </c>
       <c r="T3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>0.82399593908629454</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
+        <v>1.1771370558375636</v>
       </c>
       <c r="U3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>0.93134876897111485</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
+        <v>1.2417983586281531</v>
       </c>
       <c r="V3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>0.94307292122961162</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
+        <v>1.2247700275709241</v>
       </c>
       <c r="W3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>0.91093385761034806</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
+        <v>1.1985971810662475</v>
       </c>
       <c r="X3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>0.83780332229637455</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
+        <v>1.1476757839676364</v>
       </c>
       <c r="Y3" s="9">
-        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>0.81506191424669538</v>
+        <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
+        <v>1.0585219665541499</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17654,7 +17432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961C7C2F-0C60-4586-9548-145432D80A20}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:Y5"/>
     </sheetView>
   </sheetViews>

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E5877C-AACD-4EA8-9527-240E1B90E330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F9BD4-3451-4436-9E85-674386D77573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,76 +932,76 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>7.6677288114990407</v>
+            <v>9.2012745737988482</v>
           </cell>
           <cell r="C2">
-            <v>7.3811774804443271</v>
+            <v>8.8574129765331939</v>
           </cell>
           <cell r="D2">
-            <v>7.11826633226738</v>
+            <v>8.541919598720856</v>
           </cell>
           <cell r="E2">
-            <v>7.3331106116188867</v>
+            <v>8.7997327339426654</v>
           </cell>
           <cell r="F2">
-            <v>7.1261866027973717</v>
+            <v>8.5514239233568468</v>
           </cell>
           <cell r="G2">
-            <v>7.1356778013282991</v>
+            <v>8.5628133615939603</v>
           </cell>
           <cell r="H2">
-            <v>7.2015400632890909</v>
+            <v>8.6418480759469105</v>
           </cell>
           <cell r="I2">
-            <v>9.3475740522072552</v>
+            <v>11.217088862648705</v>
           </cell>
           <cell r="J2">
-            <v>9.5344583745690858</v>
+            <v>11.441350049482903</v>
           </cell>
           <cell r="K2">
-            <v>9.4434948047881395</v>
+            <v>11.332193765745767</v>
           </cell>
           <cell r="L2">
-            <v>9.4148239309889306</v>
+            <v>11.297788717186718</v>
           </cell>
           <cell r="M2">
-            <v>9.6126766703181339</v>
+            <v>11.535212004381762</v>
           </cell>
           <cell r="N2">
-            <v>9.5091997081403772</v>
+            <v>11.411039649768451</v>
           </cell>
           <cell r="O2">
-            <v>9.3408674631074291</v>
+            <v>11.209040955728915</v>
           </cell>
           <cell r="P2">
-            <v>8.1256853267041134</v>
+            <v>9.7508223920449364</v>
           </cell>
           <cell r="Q2">
-            <v>8.7419638853100849</v>
+            <v>10.490356662372102</v>
           </cell>
           <cell r="R2">
-            <v>9.5042612285902877</v>
+            <v>11.405113474308344</v>
           </cell>
           <cell r="S2">
-            <v>9.359492420283269</v>
+            <v>11.231390904339921</v>
           </cell>
           <cell r="T2">
-            <v>8.8772118695250448</v>
+            <v>10.652654243430055</v>
           </cell>
           <cell r="U2">
-            <v>8.4655898769157965</v>
+            <v>10.158707852298956</v>
           </cell>
           <cell r="V2">
-            <v>8.4057833599573524</v>
+            <v>10.086940031948824</v>
           </cell>
           <cell r="W2">
-            <v>8.0322117034672509</v>
+            <v>9.6386540441607025</v>
           </cell>
           <cell r="X2">
-            <v>7.2542895106104748</v>
+            <v>8.7051474127325683</v>
           </cell>
           <cell r="Y2">
-            <v>7.0971243622868396</v>
+            <v>8.5165492347442076</v>
           </cell>
         </row>
         <row r="3">
@@ -1080,152 +1080,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.6776664416165907</v>
+            <v>3.7421331532932722</v>
           </cell>
           <cell r="C4">
-            <v>4.3981113168238375</v>
+            <v>3.5184890534590703</v>
           </cell>
           <cell r="D4">
-            <v>4.2559465126963136</v>
+            <v>3.4047572101570509</v>
           </cell>
           <cell r="E4">
-            <v>4.3449723026242539</v>
+            <v>3.4759778420994034</v>
           </cell>
           <cell r="F4">
-            <v>4.3858468719318351</v>
+            <v>3.508677497545468</v>
           </cell>
           <cell r="G4">
-            <v>5.0145996350453217</v>
+            <v>4.0116797080362572</v>
           </cell>
           <cell r="H4">
-            <v>8.0985892719309067</v>
+            <v>6.4788714175447257</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615317</v>
+            <v>7.596190519489225</v>
           </cell>
           <cell r="J4">
-            <v>9.920309939274123</v>
+            <v>7.9362479514192987</v>
           </cell>
           <cell r="K4">
-            <v>9.6067859837480363</v>
+            <v>7.685428786998429</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>7.4029522728296113</v>
           </cell>
           <cell r="M4">
-            <v>9.8440063078693747</v>
+            <v>7.8752050462954992</v>
           </cell>
           <cell r="N4">
-            <v>9.1258776916783066</v>
+            <v>7.3007021533426455</v>
           </cell>
           <cell r="O4">
-            <v>8.6894161622827752</v>
+            <v>6.9515329298262198</v>
           </cell>
           <cell r="P4">
-            <v>7.5153678844805363</v>
+            <v>6.0122943075844288</v>
           </cell>
           <cell r="Q4">
-            <v>7.4843268645070644</v>
+            <v>5.9874614916056519</v>
           </cell>
           <cell r="R4">
-            <v>7.7986753199217382</v>
+            <v>6.2389402559373908</v>
           </cell>
           <cell r="S4">
-            <v>8.4227392421550906</v>
+            <v>6.7381913937240725</v>
           </cell>
           <cell r="T4">
-            <v>7.696925054849622</v>
+            <v>6.1575400438796972</v>
           </cell>
           <cell r="U4">
-            <v>7.9984801156457195</v>
+            <v>6.3987840925165758</v>
           </cell>
           <cell r="V4">
-            <v>7.7660856750148524</v>
+            <v>6.2128685400118817</v>
           </cell>
           <cell r="W4">
-            <v>7.303328578951386</v>
+            <v>5.8426628631611086</v>
           </cell>
           <cell r="X4">
-            <v>6.0670653812702069</v>
+            <v>4.8536523050161655</v>
           </cell>
           <cell r="Y4">
-            <v>5.3511009596457662</v>
+            <v>4.2808807677166127</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>7.6677288114990407</v>
+            <v>9.2012745737988482</v>
           </cell>
           <cell r="C2">
-            <v>7.4549892552487709</v>
+            <v>8.9459871062985243</v>
           </cell>
           <cell r="D2">
-            <v>7.0470836689447065</v>
+            <v>8.4565004027336492</v>
           </cell>
           <cell r="E2">
-            <v>7.1864483993865091</v>
+            <v>8.623738079263811</v>
           </cell>
           <cell r="F2">
-            <v>7.1261866027973717</v>
+            <v>8.5514239233568468</v>
           </cell>
           <cell r="G2">
-            <v>7.2783913573548666</v>
+            <v>8.7340696288258393</v>
           </cell>
           <cell r="H2">
-            <v>7.0575092620233093</v>
+            <v>8.4690111144279712</v>
           </cell>
           <cell r="I2">
-            <v>9.5345255332514007</v>
+            <v>11.441430639901681</v>
           </cell>
           <cell r="J2">
-            <v>9.6298029583147766</v>
+            <v>11.555763549977733</v>
           </cell>
           <cell r="K2">
-            <v>9.6323647008839011</v>
+            <v>11.558837641060682</v>
           </cell>
           <cell r="L2">
-            <v>9.3206756916790425</v>
+            <v>11.18481083001485</v>
           </cell>
           <cell r="M2">
-            <v>9.516549903614953</v>
+            <v>11.419859884337942</v>
           </cell>
           <cell r="N2">
-            <v>9.414107711058973</v>
+            <v>11.296929253270768</v>
           </cell>
           <cell r="O2">
-            <v>9.1540501138452797</v>
+            <v>10.984860136614337</v>
           </cell>
           <cell r="P2">
-            <v>8.2069421799711542</v>
+            <v>9.8483306159653861</v>
           </cell>
           <cell r="Q2">
-            <v>8.9168031630162865</v>
+            <v>10.700163795619545</v>
           </cell>
           <cell r="R2">
-            <v>9.694346453162094</v>
+            <v>11.633215743794512</v>
           </cell>
           <cell r="S2">
-            <v>9.5466822686889348</v>
+            <v>11.456018722426721</v>
           </cell>
           <cell r="T2">
-            <v>8.9659839882202963</v>
+            <v>10.759180785864356</v>
           </cell>
           <cell r="U2">
-            <v>8.5502457756849548</v>
+            <v>10.260294930821946</v>
           </cell>
           <cell r="V2">
-            <v>8.2376676927582047</v>
+            <v>9.8852012313098463</v>
           </cell>
           <cell r="W2">
-            <v>7.9518895864325785</v>
+            <v>9.5422675037190956</v>
           </cell>
           <cell r="X2">
-            <v>7.3993753008226832</v>
+            <v>8.8792503609872213</v>
           </cell>
           <cell r="Y2">
-            <v>7.1680956059097092</v>
+            <v>8.6017147270916503</v>
           </cell>
         </row>
         <row r="3">
@@ -1304,152 +1304,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.7712197704489228</v>
+            <v>3.8169758163591379</v>
           </cell>
           <cell r="C4">
-            <v>4.4860735431603143</v>
+            <v>3.5888588345282515</v>
           </cell>
           <cell r="D4">
-            <v>4.2133870475693511</v>
+            <v>3.3707096380554806</v>
           </cell>
           <cell r="E4">
-            <v>4.4318717486767394</v>
+            <v>3.5454973989413912</v>
           </cell>
           <cell r="F4">
-            <v>4.2981299344931987</v>
+            <v>3.4385039475945587</v>
           </cell>
           <cell r="G4">
-            <v>4.914307642344415</v>
+            <v>3.9314461138755319</v>
           </cell>
           <cell r="H4">
-            <v>8.1795751646502168</v>
+            <v>6.5436601317201735</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615299</v>
+            <v>7.5961905194892241</v>
           </cell>
           <cell r="J4">
-            <v>9.7219037404886404</v>
+            <v>7.7775229923909128</v>
           </cell>
           <cell r="K4">
-            <v>9.5107181239105554</v>
+            <v>7.6085744991284443</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>7.4029522728296113</v>
           </cell>
           <cell r="M4">
-            <v>9.647126181711986</v>
+            <v>7.7177009453695895</v>
           </cell>
           <cell r="N4">
-            <v>8.9433601378447403</v>
+            <v>7.1546881102757922</v>
           </cell>
           <cell r="O4">
-            <v>8.6894161622827752</v>
+            <v>6.9515329298262198</v>
           </cell>
           <cell r="P4">
-            <v>7.5153678844805363</v>
+            <v>6.0122943075844288</v>
           </cell>
           <cell r="Q4">
-            <v>7.5591701331521355</v>
+            <v>6.0473361065217084</v>
           </cell>
           <cell r="R4">
-            <v>7.6427018135233036</v>
+            <v>6.114161450818643</v>
           </cell>
           <cell r="S4">
-            <v>8.5069666345766422</v>
+            <v>6.8055733076613141</v>
           </cell>
           <cell r="T4">
-            <v>7.5429865537526295</v>
+            <v>6.0343892430021038</v>
           </cell>
           <cell r="U4">
-            <v>7.9984801156457195</v>
+            <v>6.3987840925165758</v>
           </cell>
           <cell r="V4">
-            <v>7.6884248182647044</v>
+            <v>6.1507398546117633</v>
           </cell>
           <cell r="W4">
-            <v>7.1572620073723581</v>
+            <v>5.7258096058978865</v>
           </cell>
           <cell r="X4">
-            <v>5.9457240736448025</v>
+            <v>4.756579258915842</v>
           </cell>
           <cell r="Y4">
-            <v>5.4581229788386807</v>
+            <v>4.3664983830709447</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.5143742352690595</v>
+            <v>9.0172490823228699</v>
           </cell>
           <cell r="C2">
-            <v>7.3073657056398842</v>
+            <v>8.7688388467678617</v>
           </cell>
           <cell r="D2">
-            <v>7.2606316589127271</v>
+            <v>8.7127579906952732</v>
           </cell>
           <cell r="E2">
-            <v>7.4797728238512651</v>
+            <v>8.9757273886215181</v>
           </cell>
           <cell r="F2">
-            <v>6.9836628707414246</v>
+            <v>8.3803954448897109</v>
           </cell>
           <cell r="G2">
-            <v>6.9929642453017333</v>
+            <v>8.3915570943620814</v>
           </cell>
           <cell r="H2">
-            <v>7.2015400632890909</v>
+            <v>8.6418480759469105</v>
           </cell>
           <cell r="I2">
-            <v>9.3475740522072535</v>
+            <v>11.217088862648705</v>
           </cell>
           <cell r="J2">
-            <v>9.7251475420604692</v>
+            <v>11.670177050472562</v>
           </cell>
           <cell r="K2">
-            <v>9.5379297528360212</v>
+            <v>11.445515703403224</v>
           </cell>
           <cell r="L2">
-            <v>9.6031204096087102</v>
+            <v>11.523744491530451</v>
           </cell>
           <cell r="M2">
-            <v>9.7088034370213148</v>
+            <v>11.650564124425578</v>
           </cell>
           <cell r="N2">
-            <v>9.3190157139775707</v>
+            <v>11.182818856773084</v>
           </cell>
           <cell r="O2">
-            <v>9.5276848123695768</v>
+            <v>11.433221774843492</v>
           </cell>
           <cell r="P2">
-            <v>8.2881990332381967</v>
+            <v>9.9458388398858357</v>
           </cell>
           <cell r="Q2">
-            <v>8.9168031630162865</v>
+            <v>10.700163795619545</v>
           </cell>
           <cell r="R2">
-            <v>9.5042612285902877</v>
+            <v>11.405113474308344</v>
           </cell>
           <cell r="S2">
-            <v>9.359492420283269</v>
+            <v>11.231390904339921</v>
           </cell>
           <cell r="T2">
-            <v>8.7884397508297951</v>
+            <v>10.546127700995754</v>
           </cell>
           <cell r="U2">
-            <v>8.2962780793774815</v>
+            <v>9.9555336952529778</v>
           </cell>
           <cell r="V2">
-            <v>8.3217255263577794</v>
+            <v>9.9860706316293353</v>
           </cell>
           <cell r="W2">
-            <v>8.1928559375365957</v>
+            <v>9.8314271250439162</v>
           </cell>
           <cell r="X2">
-            <v>7.1092037203982636</v>
+            <v>8.5310444644779171</v>
           </cell>
           <cell r="Y2">
-            <v>7.0261531186639719</v>
+            <v>8.4313837423967648</v>
           </cell>
         </row>
         <row r="3">
@@ -1528,152 +1528,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.6776664416165907</v>
+            <v>3.7421331532932722</v>
           </cell>
           <cell r="C4">
-            <v>4.3101490904873607</v>
+            <v>3.4481192723898886</v>
           </cell>
           <cell r="D4">
-            <v>4.2133870475693511</v>
+            <v>3.3707096380554806</v>
           </cell>
           <cell r="E4">
-            <v>4.3884220256504971</v>
+            <v>3.5107376205203975</v>
           </cell>
           <cell r="F4">
-            <v>4.4297053406511537</v>
+            <v>3.5437642725209226</v>
           </cell>
           <cell r="G4">
-            <v>4.914307642344415</v>
+            <v>3.9314461138755319</v>
           </cell>
           <cell r="H4">
-            <v>7.93661748649229</v>
+            <v>6.349293989193832</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615299</v>
+            <v>7.5961905194892241</v>
           </cell>
           <cell r="J4">
-            <v>9.8211068398813808</v>
+            <v>7.8568854719051053</v>
           </cell>
           <cell r="K4">
-            <v>9.4146502640730763</v>
+            <v>7.5317202112584605</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>7.4029522728296113</v>
           </cell>
           <cell r="M4">
-            <v>9.647126181711986</v>
+            <v>7.7177009453695895</v>
           </cell>
           <cell r="N4">
-            <v>8.9433601378447403</v>
+            <v>7.1546881102757922</v>
           </cell>
           <cell r="O4">
-            <v>8.7763103239056015</v>
+            <v>7.0210482591244814</v>
           </cell>
           <cell r="P4">
-            <v>7.5905215633253418</v>
+            <v>6.0724172506602736</v>
           </cell>
           <cell r="Q4">
-            <v>7.6340134017972066</v>
+            <v>6.1072107214377649</v>
           </cell>
           <cell r="R4">
-            <v>7.6427018135233036</v>
+            <v>6.114161450818643</v>
           </cell>
           <cell r="S4">
-            <v>8.2542844573119893</v>
+            <v>6.6034275658495911</v>
           </cell>
           <cell r="T4">
-            <v>7.8508635559466144</v>
+            <v>6.2806908447572916</v>
           </cell>
           <cell r="U4">
-            <v>8.1584497179586339</v>
+            <v>6.5267597743669068</v>
           </cell>
           <cell r="V4">
-            <v>7.7660856750148524</v>
+            <v>6.2128685400118817</v>
           </cell>
           <cell r="W4">
-            <v>7.3763618647408986</v>
+            <v>5.9010894917927192</v>
           </cell>
           <cell r="X4">
-            <v>5.9457240736448025</v>
+            <v>4.756579258915842</v>
           </cell>
           <cell r="Y4">
-            <v>5.3511009596457662</v>
+            <v>4.2808807677166127</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>2.3945111987249965</v>
+            <v>2.8734134384699956</v>
           </cell>
           <cell r="C2">
-            <v>1.6917626191398876</v>
+            <v>2.0301151429678654</v>
           </cell>
           <cell r="D2">
-            <v>1.4665760249987094</v>
+            <v>1.7598912299984515</v>
           </cell>
           <cell r="E2">
-            <v>1.8798960202631387</v>
+            <v>2.2558752243157665</v>
           </cell>
           <cell r="F2">
-            <v>1.6186459913494926</v>
+            <v>1.9423751896193913</v>
           </cell>
           <cell r="G2">
-            <v>1.3308032421568814</v>
+            <v>1.5969638905882575</v>
           </cell>
           <cell r="H2">
-            <v>1.1011046949721479</v>
+            <v>1.3213256339665773</v>
           </cell>
           <cell r="I2">
-            <v>3.8478481923644496</v>
+            <v>4.6174178308373399</v>
           </cell>
           <cell r="J2">
-            <v>4.0240448156380495</v>
+            <v>4.8288537787656587</v>
           </cell>
           <cell r="K2">
-            <v>3.4514431071179077</v>
+            <v>4.1417317285414885</v>
           </cell>
           <cell r="L2">
-            <v>4.0211817949887498</v>
+            <v>4.8254181539864991</v>
           </cell>
           <cell r="M2">
-            <v>3.7364773870222794</v>
+            <v>4.4837728644267356</v>
           </cell>
           <cell r="N2">
-            <v>3.7529395065001858</v>
+            <v>4.503527407800223</v>
           </cell>
           <cell r="O2">
-            <v>3.3512319719858392</v>
+            <v>4.0214783663830067</v>
           </cell>
           <cell r="P2">
-            <v>1.9886359687119599</v>
+            <v>2.3863631624543515</v>
           </cell>
           <cell r="Q2">
-            <v>3.1135931394840988</v>
+            <v>3.7363117673809185</v>
           </cell>
           <cell r="R2">
-            <v>3.7342748224075444</v>
+            <v>4.4811297868890536</v>
           </cell>
           <cell r="S2">
-            <v>3.4843123674174032</v>
+            <v>4.1811748409008835</v>
           </cell>
           <cell r="T2">
-            <v>2.4351905617200647</v>
+            <v>2.9222286740640779</v>
           </cell>
           <cell r="U2">
-            <v>2.5263655416343389</v>
+            <v>3.0316386499612067</v>
           </cell>
           <cell r="V2">
-            <v>2.3530887692791347</v>
+            <v>2.8237065231349616</v>
           </cell>
           <cell r="W2">
-            <v>1.459639883534126</v>
+            <v>1.751567860240951</v>
           </cell>
           <cell r="X2">
-            <v>1.1643637636302913</v>
+            <v>1.3972365163563496</v>
           </cell>
           <cell r="Y2">
-            <v>1.2068128411454111</v>
+            <v>1.4481754093744934</v>
           </cell>
         </row>
         <row r="3">
@@ -1752,152 +1752,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.337384563565946</v>
+            <v>-3.4699076508527567</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918644</v>
+            <v>-3.7440404257534916</v>
           </cell>
           <cell r="D4">
-            <v>-4.7658929470533016</v>
+            <v>-3.812714357642641</v>
           </cell>
           <cell r="E4">
-            <v>-4.7021569215118921</v>
+            <v>-3.761725537209514</v>
           </cell>
           <cell r="F4">
-            <v>-4.7060678309154227</v>
+            <v>-3.764854264732338</v>
           </cell>
           <cell r="G4">
-            <v>-3.9297681248861158</v>
+            <v>-3.1438144999088928</v>
           </cell>
           <cell r="H4">
-            <v>-0.14633285911249436</v>
+            <v>-0.11706628728999549</v>
           </cell>
           <cell r="I4">
-            <v>2.0260565282026564</v>
+            <v>1.6208452225621253</v>
           </cell>
           <cell r="J4">
-            <v>2.5822469143221749</v>
+            <v>2.0657975314577399</v>
           </cell>
           <cell r="K4">
-            <v>1.7988541203986741</v>
+            <v>1.4390832963189393</v>
           </cell>
           <cell r="L4">
-            <v>1.0620848561241196</v>
+            <v>0.84966788489929568</v>
           </cell>
           <cell r="M4">
-            <v>2.1066904431980902</v>
+            <v>1.6853523545584721</v>
           </cell>
           <cell r="N4">
-            <v>1.3283735650582065</v>
+            <v>1.0626988520465652</v>
           </cell>
           <cell r="O4">
-            <v>0.40301949493233452</v>
+            <v>0.32241559594586761</v>
           </cell>
           <cell r="P4">
-            <v>-1.5944394813695928</v>
+            <v>-1.2755515850956742</v>
           </cell>
           <cell r="Q4">
-            <v>-1.5951179715829613</v>
+            <v>-1.2760943772663691</v>
           </cell>
           <cell r="R4">
-            <v>-1.3139922049548307</v>
+            <v>-1.0511937639638647</v>
           </cell>
           <cell r="S4">
-            <v>-0.66288253075982806</v>
+            <v>-0.53030602460786247</v>
           </cell>
           <cell r="T4">
-            <v>-1.6156173005726733</v>
+            <v>-1.2924938404581385</v>
           </cell>
           <cell r="U4">
-            <v>-0.92053369170200849</v>
+            <v>-0.7364269533616068</v>
           </cell>
           <cell r="V4">
-            <v>-1.2638436401566562</v>
+            <v>-1.0110749121253249</v>
           </cell>
           <cell r="W4">
-            <v>-2.0962309074105963</v>
+            <v>-1.6769847259284769</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-2.6494045401669415</v>
           </cell>
           <cell r="Y4">
-            <v>-3.7384359713906026</v>
+            <v>-2.9907487771124819</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>2.4184563107122465</v>
+            <v>2.9021475728546955</v>
           </cell>
           <cell r="C2">
-            <v>1.65792736675709</v>
+            <v>1.9895128401085078</v>
           </cell>
           <cell r="D2">
-            <v>1.4812417852486968</v>
+            <v>1.7774901422984359</v>
           </cell>
           <cell r="E2">
-            <v>1.8798960202631387</v>
+            <v>2.2558752243157665</v>
           </cell>
           <cell r="F2">
-            <v>1.6348324512629875</v>
+            <v>1.961798941515585</v>
           </cell>
           <cell r="G2">
-            <v>1.3308032421568814</v>
+            <v>1.5969638905882575</v>
           </cell>
           <cell r="H2">
-            <v>1.1011046949721479</v>
+            <v>1.3213256339665773</v>
           </cell>
           <cell r="I2">
-            <v>3.8863266742880946</v>
+            <v>4.6635920091457139</v>
           </cell>
           <cell r="J2">
-            <v>4.0240448156380495</v>
+            <v>4.8288537787656587</v>
           </cell>
           <cell r="K2">
-            <v>3.382414244975549</v>
+            <v>4.0588970939706588</v>
           </cell>
           <cell r="L2">
-            <v>4.0211817949887498</v>
+            <v>4.8254181539864991</v>
           </cell>
           <cell r="M2">
-            <v>3.8112069347627249</v>
+            <v>4.5734483217152695</v>
           </cell>
           <cell r="N2">
-            <v>3.7904689015651876</v>
+            <v>4.5485626818782254</v>
           </cell>
           <cell r="O2">
-            <v>3.3847442917056973</v>
+            <v>4.0616931500468372</v>
           </cell>
           <cell r="P2">
-            <v>1.9488632493377205</v>
+            <v>2.3386358992052649</v>
           </cell>
           <cell r="Q2">
-            <v>3.082457208089258</v>
+            <v>3.69894864970711</v>
           </cell>
           <cell r="R2">
-            <v>3.7342748224075444</v>
+            <v>4.4811297868890536</v>
           </cell>
           <cell r="S2">
-            <v>3.4843123674174032</v>
+            <v>4.1811748409008835</v>
           </cell>
           <cell r="T2">
-            <v>2.4351905617200647</v>
+            <v>2.9222286740640779</v>
           </cell>
           <cell r="U2">
-            <v>2.5516291970506821</v>
+            <v>3.0619550364608186</v>
           </cell>
           <cell r="V2">
-            <v>2.3060269938935516</v>
+            <v>2.7672323926722622</v>
           </cell>
           <cell r="W2">
-            <v>1.459639883534126</v>
+            <v>1.751567860240951</v>
           </cell>
           <cell r="X2">
-            <v>1.1876510389028969</v>
+            <v>1.4251812466834763</v>
           </cell>
           <cell r="Y2">
-            <v>1.2309490979683193</v>
+            <v>1.4771389175619833</v>
           </cell>
         </row>
         <row r="3">
@@ -1976,152 +1976,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.3807584092016052</v>
+            <v>-3.504606727361284</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918635</v>
+            <v>-3.7440404257534912</v>
           </cell>
           <cell r="D4">
-            <v>-4.8135518765238343</v>
+            <v>-3.8508415012190675</v>
           </cell>
           <cell r="E4">
-            <v>-4.7491784907270116</v>
+            <v>-3.7993427925816095</v>
           </cell>
           <cell r="F4">
-            <v>-4.7531285092245765</v>
+            <v>-3.8025028073796614</v>
           </cell>
           <cell r="G4">
-            <v>-4.0083634873838383</v>
+            <v>-3.2066907899070709</v>
           </cell>
           <cell r="H4">
-            <v>-0.1477961877036193</v>
+            <v>-0.11823695016289544</v>
           </cell>
           <cell r="I4">
-            <v>2.0665776587667093</v>
+            <v>1.6532621270133676</v>
           </cell>
           <cell r="J4">
-            <v>2.6080693834653967</v>
+            <v>2.0864555067723174</v>
           </cell>
           <cell r="K4">
-            <v>1.7628770379907008</v>
+            <v>1.4103016303925606</v>
           </cell>
           <cell r="L4">
-            <v>1.0833265532466021</v>
+            <v>0.86666124259728161</v>
           </cell>
           <cell r="M4">
-            <v>2.0856235387661091</v>
+            <v>1.6684988310128872</v>
           </cell>
           <cell r="N4">
-            <v>1.3549410363593706</v>
+            <v>1.0839528290874965</v>
           </cell>
           <cell r="O4">
-            <v>0.41107988483098112</v>
+            <v>0.32886390786478492</v>
           </cell>
           <cell r="P4">
-            <v>-1.6103838761832887</v>
+            <v>-1.2883071009466309</v>
           </cell>
           <cell r="Q4">
-            <v>-1.6270203310146203</v>
+            <v>-1.3016162648116962</v>
           </cell>
           <cell r="R4">
-            <v>-1.3402720490539275</v>
+            <v>-1.072217639243142</v>
           </cell>
           <cell r="S4">
-            <v>-0.64962488014463149</v>
+            <v>-0.51969990411570521</v>
           </cell>
           <cell r="T4">
-            <v>-1.6156173005726733</v>
+            <v>-1.2924938404581385</v>
           </cell>
           <cell r="U4">
-            <v>-0.90212301786796834</v>
+            <v>-0.72169841429437465</v>
           </cell>
           <cell r="V4">
-            <v>-1.2638436401566562</v>
+            <v>-1.0110749121253249</v>
           </cell>
           <cell r="W4">
-            <v>-2.0543062892623838</v>
+            <v>-1.6434450314099072</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-2.6494045401669415</v>
           </cell>
           <cell r="Y4">
-            <v>-3.66366725196279</v>
+            <v>-2.930933801570232</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>2.4184563107122465</v>
+            <v>2.9021475728546955</v>
           </cell>
           <cell r="C2">
-            <v>1.7255978715226852</v>
+            <v>2.0707174458272224</v>
           </cell>
           <cell r="D2">
-            <v>1.4372445044987354</v>
+            <v>1.7246934053984824</v>
           </cell>
           <cell r="E2">
-            <v>1.8422980998578757</v>
+            <v>2.2107577198294512</v>
           </cell>
           <cell r="F2">
-            <v>1.6510189111764828</v>
+            <v>1.9812226934117794</v>
           </cell>
           <cell r="G2">
-            <v>1.3041871773137437</v>
+            <v>1.5650246127764924</v>
           </cell>
           <cell r="H2">
-            <v>1.1231267888715908</v>
+            <v>1.347752146645909</v>
           </cell>
           <cell r="I2">
-            <v>3.770891228517161</v>
+            <v>4.5250694742205928</v>
           </cell>
           <cell r="J2">
-            <v>4.0642852637944298</v>
+            <v>4.8771423165533152</v>
           </cell>
           <cell r="K2">
-            <v>3.4859575381890862</v>
+            <v>4.1831490458269034</v>
           </cell>
           <cell r="L2">
-            <v>4.0613936129386374</v>
+            <v>4.8736723355263649</v>
           </cell>
           <cell r="M2">
-            <v>3.7738421608925021</v>
+            <v>4.5286105930710026</v>
           </cell>
           <cell r="N2">
-            <v>3.6778807163701819</v>
+            <v>4.413456859644219</v>
           </cell>
           <cell r="O2">
-            <v>3.3177196522659806</v>
+            <v>3.9812635827191771</v>
           </cell>
           <cell r="P2">
-            <v>2.0085223283990796</v>
+            <v>2.4102267940788953</v>
           </cell>
           <cell r="Q2">
-            <v>3.1135931394840988</v>
+            <v>3.7363117673809185</v>
           </cell>
           <cell r="R2">
-            <v>3.7716175706316202</v>
+            <v>4.5259410847579442</v>
           </cell>
           <cell r="S2">
-            <v>3.5191554910915768</v>
+            <v>4.2229865893098921</v>
           </cell>
           <cell r="T2">
-            <v>2.4108386561028641</v>
+            <v>2.8930063873234371</v>
           </cell>
           <cell r="U2">
-            <v>2.5768928524670258</v>
+            <v>3.0922714229604313</v>
           </cell>
           <cell r="V2">
-            <v>2.3530887692791347</v>
+            <v>2.8237065231349616</v>
           </cell>
           <cell r="W2">
-            <v>1.4450434846987847</v>
+            <v>1.7340521816385417</v>
           </cell>
           <cell r="X2">
-            <v>1.1410764883576854</v>
+            <v>1.3692917860292226</v>
           </cell>
           <cell r="Y2">
-            <v>1.2188809695568654</v>
+            <v>1.4626571634682384</v>
           </cell>
         </row>
         <row r="3">
@@ -2200,152 +2200,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.3807584092016052</v>
+            <v>-3.504606727361284</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918635</v>
+            <v>-3.7440404257534912</v>
           </cell>
           <cell r="D4">
-            <v>-4.8135518765238343</v>
+            <v>-3.8508415012190675</v>
           </cell>
           <cell r="E4">
-            <v>-4.7021569215118921</v>
+            <v>-3.761725537209514</v>
           </cell>
           <cell r="F4">
-            <v>-4.6119464742971141</v>
+            <v>-3.6895571794376911</v>
           </cell>
           <cell r="G4">
-            <v>-3.9297681248861158</v>
+            <v>-3.1438144999088928</v>
           </cell>
           <cell r="H4">
-            <v>-0.1477961877036193</v>
+            <v>-0.11823695016289544</v>
           </cell>
           <cell r="I4">
-            <v>2.0057959629206303</v>
+            <v>1.6046367703365041</v>
           </cell>
           <cell r="J4">
-            <v>2.5822469143221749</v>
+            <v>2.0657975314577399</v>
           </cell>
           <cell r="K4">
-            <v>1.8348312028066478</v>
+            <v>1.4678649622453182</v>
           </cell>
           <cell r="L4">
-            <v>1.0408431590016372</v>
+            <v>0.83267452720130974</v>
           </cell>
           <cell r="M4">
-            <v>2.0856235387661091</v>
+            <v>1.6684988310128872</v>
           </cell>
           <cell r="N4">
-            <v>1.3150898294076243</v>
+            <v>1.0520718635260995</v>
           </cell>
           <cell r="O4">
-            <v>0.40301949493233452</v>
+            <v>0.32241559594586761</v>
           </cell>
           <cell r="P4">
-            <v>-1.6103838761832887</v>
+            <v>-1.2883071009466309</v>
           </cell>
           <cell r="Q4">
-            <v>-1.5791667918671317</v>
+            <v>-1.2633334334937054</v>
           </cell>
           <cell r="R4">
-            <v>-1.3008522829052827</v>
+            <v>-1.0406818263242261</v>
           </cell>
           <cell r="S4">
-            <v>-0.67614018137502463</v>
+            <v>-0.54091214510001973</v>
           </cell>
           <cell r="T4">
-            <v>-1.6479296465841264</v>
+            <v>-1.3183437172673012</v>
           </cell>
           <cell r="U4">
-            <v>-0.90212301786796834</v>
+            <v>-0.72169841429437465</v>
           </cell>
           <cell r="V4">
-            <v>-1.238566767353523</v>
+            <v>-0.99085341388281833</v>
           </cell>
           <cell r="W4">
-            <v>-2.07526859833649</v>
+            <v>-1.6602148786691922</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-2.6494045401669415</v>
           </cell>
           <cell r="Y4">
-            <v>-3.7384359713906026</v>
+            <v>-2.9907487771124819</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>7.7500000000000018</v>
+            <v>9.3000000000000007</v>
           </cell>
           <cell r="C2">
-            <v>7.674418604651164</v>
+            <v>9.2093023255813975</v>
           </cell>
           <cell r="D2">
-            <v>7.3924418604651168</v>
+            <v>8.8709302325581394</v>
           </cell>
           <cell r="E2">
-            <v>7.2587209302325579</v>
+            <v>8.7104651162790709</v>
           </cell>
           <cell r="F2">
-            <v>7.2063953488372086</v>
+            <v>8.6476744186046517</v>
           </cell>
           <cell r="G2">
-            <v>7.3139534883720936</v>
+            <v>8.7767441860465123</v>
           </cell>
           <cell r="H2">
-            <v>7.2500000000000009</v>
+            <v>8.7000000000000011</v>
           </cell>
           <cell r="I2">
-            <v>8.8662790697674421</v>
+            <v>10.63953488372093</v>
           </cell>
           <cell r="J2">
-            <v>9.5377906976744207</v>
+            <v>11.445348837209304</v>
           </cell>
           <cell r="K2">
-            <v>9.4127906976744171</v>
+            <v>11.295348837209302</v>
           </cell>
           <cell r="L2">
-            <v>9.2587209302325597</v>
+            <v>11.110465116279071</v>
           </cell>
           <cell r="M2">
-            <v>9.3720930232558146</v>
+            <v>11.246511627906978</v>
           </cell>
           <cell r="N2">
-            <v>9.7180232558139554</v>
+            <v>11.661627906976747</v>
           </cell>
           <cell r="O2">
-            <v>9.5348837209302317</v>
+            <v>11.441860465116278</v>
           </cell>
           <cell r="P2">
-            <v>8.7936046511627914</v>
+            <v>10.552325581395349</v>
           </cell>
           <cell r="Q2">
-            <v>9.0639534883720927</v>
+            <v>10.876744186046512</v>
           </cell>
           <cell r="R2">
-            <v>9.1686046511627914</v>
+            <v>11.002325581395349</v>
           </cell>
           <cell r="S2">
-            <v>8.8662790697674421</v>
+            <v>10.63953488372093</v>
           </cell>
           <cell r="T2">
-            <v>8.4186046511627914</v>
+            <v>10.102325581395348</v>
           </cell>
           <cell r="U2">
-            <v>8.3110465116279073</v>
+            <v>9.9732558139534895</v>
           </cell>
           <cell r="V2">
-            <v>8.2848837209302335</v>
+            <v>9.9418604651162799</v>
           </cell>
           <cell r="W2">
-            <v>8.1918604651162799</v>
+            <v>9.8302325581395351</v>
           </cell>
           <cell r="X2">
-            <v>7.569767441860467</v>
+            <v>9.083720930232559</v>
           </cell>
           <cell r="Y2">
-            <v>7.3197674418604661</v>
+            <v>8.7837209302325601</v>
           </cell>
         </row>
         <row r="3">
@@ -2424,152 +2424,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.6069131832797421</v>
+            <v>4.485530546623794</v>
           </cell>
           <cell r="C4">
-            <v>5.269292604501608</v>
+            <v>4.215434083601286</v>
           </cell>
           <cell r="D4">
-            <v>4.8553054662379429</v>
+            <v>3.8842443729903544</v>
           </cell>
           <cell r="E4">
-            <v>5.052250803858521</v>
+            <v>4.041800643086817</v>
           </cell>
           <cell r="F4">
-            <v>4.959807073954984</v>
+            <v>3.9678456591639875</v>
           </cell>
           <cell r="G4">
-            <v>5.060289389067524</v>
+            <v>4.048231511254019</v>
           </cell>
           <cell r="H4">
-            <v>7.1744372990353709</v>
+            <v>5.7395498392282969</v>
           </cell>
           <cell r="I4">
-            <v>9.1840836012861757</v>
+            <v>7.3472668810289399</v>
           </cell>
           <cell r="J4">
-            <v>9.6262057877813501</v>
+            <v>7.70096463022508</v>
           </cell>
           <cell r="K4">
-            <v>9.0273311897106119</v>
+            <v>7.221864951768489</v>
           </cell>
           <cell r="L4">
-            <v>8.834405144694534</v>
+            <v>7.067524115755627</v>
           </cell>
           <cell r="M4">
-            <v>9.4975884244372999</v>
+            <v>7.5980707395498399</v>
           </cell>
           <cell r="N4">
-            <v>9.9316720257234739</v>
+            <v>7.9453376205787789</v>
           </cell>
           <cell r="O4">
-            <v>9.220257234726688</v>
+            <v>7.3762057877813509</v>
           </cell>
           <cell r="P4">
-            <v>8.4083601286173639</v>
+            <v>6.7266881028938919</v>
           </cell>
           <cell r="Q4">
-            <v>7.97427652733119</v>
+            <v>6.379421221864952</v>
           </cell>
           <cell r="R4">
-            <v>8.1511254019292601</v>
+            <v>6.520900321543408</v>
           </cell>
           <cell r="S4">
-            <v>7.8737942122186499</v>
+            <v>6.29903536977492</v>
           </cell>
           <cell r="T4">
-            <v>7.6929260450160779</v>
+            <v>6.154340836012862</v>
           </cell>
           <cell r="U4">
-            <v>8.384244372990354</v>
+            <v>6.707395498392283</v>
           </cell>
           <cell r="V4">
-            <v>8.7821543408360139</v>
+            <v>7.0257234726688109</v>
           </cell>
           <cell r="W4">
-            <v>8.195337620578778</v>
+            <v>6.5562700964630229</v>
           </cell>
           <cell r="X4">
-            <v>7.1824758842443721</v>
+            <v>5.745980707395498</v>
           </cell>
           <cell r="Y4">
-            <v>5.9847266881028949</v>
+            <v>4.7877813504823159</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>7.8275000000000015</v>
+            <v>9.3930000000000025</v>
           </cell>
           <cell r="C2">
-            <v>7.674418604651164</v>
+            <v>9.2093023255813975</v>
           </cell>
           <cell r="D2">
-            <v>7.2445930232558142</v>
+            <v>8.6935116279069771</v>
           </cell>
           <cell r="E2">
-            <v>7.2587209302325597</v>
+            <v>8.7104651162790709</v>
           </cell>
           <cell r="F2">
-            <v>7.062267441860465</v>
+            <v>8.4747209302325572</v>
           </cell>
           <cell r="G2">
-            <v>7.3139534883720936</v>
+            <v>8.7767441860465123</v>
           </cell>
           <cell r="H2">
-            <v>7.3950000000000005</v>
+            <v>8.8740000000000006</v>
           </cell>
           <cell r="I2">
-            <v>8.8662790697674421</v>
+            <v>10.63953488372093</v>
           </cell>
           <cell r="J2">
-            <v>9.6331686046511642</v>
+            <v>11.559802325581396</v>
           </cell>
           <cell r="K2">
-            <v>9.4127906976744171</v>
+            <v>11.295348837209302</v>
           </cell>
           <cell r="L2">
-            <v>9.1661337209302332</v>
+            <v>10.999360465116279</v>
           </cell>
           <cell r="M2">
-            <v>9.1846511627906988</v>
+            <v>11.021581395348839</v>
           </cell>
           <cell r="N2">
-            <v>9.5236627906976761</v>
+            <v>11.428395348837212</v>
           </cell>
           <cell r="O2">
-            <v>9.7255813953488364</v>
+            <v>11.670697674418605</v>
           </cell>
           <cell r="P2">
-            <v>8.9694767441860463</v>
+            <v>10.763372093023257</v>
           </cell>
           <cell r="Q2">
-            <v>9.1545930232558135</v>
+            <v>10.985511627906977</v>
           </cell>
           <cell r="R2">
-            <v>9.2602906976744173</v>
+            <v>11.112348837209302</v>
           </cell>
           <cell r="S2">
-            <v>8.6889534883720927</v>
+            <v>10.426744186046513</v>
           </cell>
           <cell r="T2">
-            <v>8.5869767441860478</v>
+            <v>10.304372093023257</v>
           </cell>
           <cell r="U2">
-            <v>8.227936046511628</v>
+            <v>9.8735232558139536</v>
           </cell>
           <cell r="V2">
-            <v>8.3677325581395365</v>
+            <v>10.041279069767443</v>
           </cell>
           <cell r="W2">
-            <v>8.1918604651162799</v>
+            <v>9.8302325581395351</v>
           </cell>
           <cell r="X2">
-            <v>7.7211627906976759</v>
+            <v>9.2653953488372096</v>
           </cell>
           <cell r="Y2">
-            <v>7.466162790697676</v>
+            <v>8.9593953488372104</v>
           </cell>
         </row>
         <row r="3">
@@ -2648,152 +2648,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.494774919614148</v>
+            <v>4.3958199356913186</v>
           </cell>
           <cell r="C4">
-            <v>5.3746784565916395</v>
+            <v>4.2997427652733116</v>
           </cell>
           <cell r="D4">
-            <v>4.8067524115755642</v>
+            <v>3.8454019292604511</v>
           </cell>
           <cell r="E4">
-            <v>5.0017282958199356</v>
+            <v>4.0013826366559488</v>
           </cell>
           <cell r="F4">
-            <v>5.0590032154340836</v>
+            <v>4.0472025723472669</v>
           </cell>
           <cell r="G4">
-            <v>4.9590836012861743</v>
+            <v>3.9672668810289391</v>
           </cell>
           <cell r="H4">
-            <v>7.0309485530546638</v>
+            <v>5.6247588424437307</v>
           </cell>
           <cell r="I4">
-            <v>9.3677652733118997</v>
+            <v>7.494212218649519</v>
           </cell>
           <cell r="J4">
-            <v>9.5299437299035361</v>
+            <v>7.6239549839228289</v>
           </cell>
           <cell r="K4">
-            <v>9.1176045016077172</v>
+            <v>7.2940836012861734</v>
           </cell>
           <cell r="L4">
-            <v>8.8344051446945357</v>
+            <v>7.0675241157556279</v>
           </cell>
           <cell r="M4">
-            <v>9.3076366559485528</v>
+            <v>7.4461093247588428</v>
           </cell>
           <cell r="N4">
-            <v>9.9316720257234739</v>
+            <v>7.9453376205787789</v>
           </cell>
           <cell r="O4">
-            <v>9.0358520900321544</v>
+            <v>7.2286816720257239</v>
           </cell>
           <cell r="P4">
-            <v>8.4083601286173639</v>
+            <v>6.7266881028938919</v>
           </cell>
           <cell r="Q4">
-            <v>8.0540192926045009</v>
+            <v>6.4432154340836014</v>
           </cell>
           <cell r="R4">
-            <v>8.0696141479099683</v>
+            <v>6.4556913183279745</v>
           </cell>
           <cell r="S4">
-            <v>7.7163183279742764</v>
+            <v>6.1730546623794211</v>
           </cell>
           <cell r="T4">
-            <v>7.6159967845659171</v>
+            <v>6.0927974276527337</v>
           </cell>
           <cell r="U4">
-            <v>8.5519292604501622</v>
+            <v>6.8415434083601294</v>
           </cell>
           <cell r="V4">
-            <v>8.6943327974276539</v>
+            <v>6.9554662379421233</v>
           </cell>
           <cell r="W4">
-            <v>8.3592443729903536</v>
+            <v>6.6873954983922825</v>
           </cell>
           <cell r="X4">
-            <v>7.1824758842443721</v>
+            <v>5.745980707395498</v>
           </cell>
           <cell r="Y4">
-            <v>6.0445739549839237</v>
+            <v>4.8356591639871391</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>7.8275000000000015</v>
+            <v>9.3930000000000025</v>
           </cell>
           <cell r="C2">
-            <v>7.8279069767441882</v>
+            <v>9.3934883720930245</v>
           </cell>
           <cell r="D2">
-            <v>7.2445930232558142</v>
+            <v>8.6935116279069771</v>
           </cell>
           <cell r="E2">
-            <v>7.4038953488372092</v>
+            <v>8.8846744186046518</v>
           </cell>
           <cell r="F2">
-            <v>7.062267441860465</v>
+            <v>8.4747209302325572</v>
           </cell>
           <cell r="G2">
-            <v>7.2408139534883729</v>
+            <v>8.6889767441860482</v>
           </cell>
           <cell r="H2">
-            <v>7.2500000000000009</v>
+            <v>8.7000000000000011</v>
           </cell>
           <cell r="I2">
-            <v>9.0436046511627914</v>
+            <v>10.852325581395348</v>
           </cell>
           <cell r="J2">
-            <v>9.3470348837209318</v>
+            <v>11.216441860465117</v>
           </cell>
           <cell r="K2">
-            <v>9.3186627906976742</v>
+            <v>11.182395348837208</v>
           </cell>
           <cell r="L2">
-            <v>9.3513081395348845</v>
+            <v>11.221569767441862</v>
           </cell>
           <cell r="M2">
-            <v>9.3720930232558146</v>
+            <v>11.246511627906978</v>
           </cell>
           <cell r="N2">
-            <v>9.6208430232558158</v>
+            <v>11.54501162790698</v>
           </cell>
           <cell r="O2">
-            <v>9.3441860465116271</v>
+            <v>11.213023255813951</v>
           </cell>
           <cell r="P2">
-            <v>8.705668604651164</v>
+            <v>10.446802325581396</v>
           </cell>
           <cell r="Q2">
-            <v>9.2452325581395343</v>
+            <v>11.094279069767442</v>
           </cell>
           <cell r="R2">
-            <v>9.2602906976744173</v>
+            <v>11.112348837209302</v>
           </cell>
           <cell r="S2">
-            <v>8.6889534883720927</v>
+            <v>10.426744186046513</v>
           </cell>
           <cell r="T2">
-            <v>8.4186046511627914</v>
+            <v>10.102325581395348</v>
           </cell>
           <cell r="U2">
-            <v>8.227936046511628</v>
+            <v>9.8735232558139536</v>
           </cell>
           <cell r="V2">
-            <v>8.2020348837209305</v>
+            <v>9.8424418604651152</v>
           </cell>
           <cell r="W2">
-            <v>8.3556976744186056</v>
+            <v>10.026837209302325</v>
           </cell>
           <cell r="X2">
-            <v>7.7211627906976767</v>
+            <v>9.2653953488372114</v>
           </cell>
           <cell r="Y2">
-            <v>7.2465697674418621</v>
+            <v>8.6958837209302331</v>
           </cell>
         </row>
         <row r="3">
@@ -2872,152 +2872,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.66298231511254</v>
+            <v>4.5303858520900322</v>
           </cell>
           <cell r="C4">
-            <v>5.1639067524115756</v>
+            <v>4.1311254019292605</v>
           </cell>
           <cell r="D4">
-            <v>4.9524115755627021</v>
+            <v>3.9619292604501615</v>
           </cell>
           <cell r="E4">
-            <v>5.1027733118971064</v>
+            <v>4.0822186495176851</v>
           </cell>
           <cell r="F4">
-            <v>4.9102090032154342</v>
+            <v>3.9281672025723475</v>
           </cell>
           <cell r="G4">
-            <v>4.9590836012861734</v>
+            <v>3.9672668810289387</v>
           </cell>
           <cell r="H4">
-            <v>7.3179260450160788</v>
+            <v>5.854340836012863</v>
           </cell>
           <cell r="I4">
-            <v>9.2759244372990359</v>
+            <v>7.4207395498392295</v>
           </cell>
           <cell r="J4">
-            <v>9.5299437299035361</v>
+            <v>7.6239549839228289</v>
           </cell>
           <cell r="K4">
-            <v>9.2078778135048225</v>
+            <v>7.3663022508038587</v>
           </cell>
           <cell r="L4">
-            <v>8.6577170418006428</v>
+            <v>6.9261736334405146</v>
           </cell>
           <cell r="M4">
-            <v>9.687540192926047</v>
+            <v>7.750032154340837</v>
           </cell>
           <cell r="N4">
-            <v>10.130305466237942</v>
+            <v>8.1042443729903546</v>
           </cell>
           <cell r="O4">
-            <v>9.0358520900321544</v>
+            <v>7.2286816720257239</v>
           </cell>
           <cell r="P4">
-            <v>8.3242765273311914</v>
+            <v>6.6594212218649531</v>
           </cell>
           <cell r="Q4">
-            <v>8.1337620578778136</v>
+            <v>6.5070096463022509</v>
           </cell>
           <cell r="R4">
-            <v>8.3141479099678453</v>
+            <v>6.651318327974276</v>
           </cell>
           <cell r="S4">
-            <v>7.7163183279742764</v>
+            <v>6.1730546623794211</v>
           </cell>
           <cell r="T4">
-            <v>7.8467845659163995</v>
+            <v>6.2774276527331194</v>
           </cell>
           <cell r="U4">
-            <v>8.3004019292604507</v>
+            <v>6.6403215434083602</v>
           </cell>
           <cell r="V4">
-            <v>8.9577974276527339</v>
+            <v>7.1662379421221871</v>
           </cell>
           <cell r="W4">
-            <v>8.0314308681672024</v>
+            <v>6.4251446945337625</v>
           </cell>
           <cell r="X4">
-            <v>7.2543006430868164</v>
+            <v>5.803440514469453</v>
           </cell>
           <cell r="Y4">
-            <v>5.8650321543408364</v>
+            <v>4.6920257234726694</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>1.8456375838926176</v>
+            <v>2.2147651006711411</v>
           </cell>
           <cell r="C2">
-            <v>2.038590604026846</v>
+            <v>2.4463087248322148</v>
           </cell>
           <cell r="D2">
-            <v>1.9211409395973156</v>
+            <v>2.3053691275167787</v>
           </cell>
           <cell r="E2">
-            <v>1.9211409395973156</v>
+            <v>2.3053691275167787</v>
           </cell>
           <cell r="F2">
-            <v>1.8791946308724832</v>
+            <v>2.2550335570469802</v>
           </cell>
           <cell r="G2">
-            <v>1.9882550335570468</v>
+            <v>2.385906040268456</v>
           </cell>
           <cell r="H2">
-            <v>2.0469798657718123</v>
+            <v>2.4563758389261747</v>
           </cell>
           <cell r="I2">
-            <v>3.8338926174496644</v>
+            <v>4.6006711409395979</v>
           </cell>
           <cell r="J2">
-            <v>4.4630872483221475</v>
+            <v>5.3557046979865772</v>
           </cell>
           <cell r="K2">
-            <v>4.2953020134228179</v>
+            <v>5.1543624161073822</v>
           </cell>
           <cell r="L2">
-            <v>4.1946308724832218</v>
+            <v>5.0335570469798654</v>
           </cell>
           <cell r="M2">
-            <v>4.1862416107382554</v>
+            <v>5.0234899328859068</v>
           </cell>
           <cell r="N2">
-            <v>4.4546979865771803</v>
+            <v>5.3456375838926169</v>
           </cell>
           <cell r="O2">
-            <v>4.3204697986577187</v>
+            <v>5.1845637583892623</v>
           </cell>
           <cell r="P2">
-            <v>3.0285234899328857</v>
+            <v>3.6342281879194624</v>
           </cell>
           <cell r="Q2">
-            <v>3.9597315436241609</v>
+            <v>4.7516778523489931</v>
           </cell>
           <cell r="R2">
-            <v>4.0100671140939594</v>
+            <v>4.8120805369127515</v>
           </cell>
           <cell r="S2">
-            <v>3.7583892617449663</v>
+            <v>4.5100671140939603</v>
           </cell>
           <cell r="T2">
-            <v>2.9781879194630871</v>
+            <v>3.5738255033557049</v>
           </cell>
           <cell r="U2">
-            <v>2.701342281879195</v>
+            <v>3.2416107382550337</v>
           </cell>
           <cell r="V2">
-            <v>2.8355704697986579</v>
+            <v>3.4026845637583891</v>
           </cell>
           <cell r="W2">
-            <v>2.8439597315436238</v>
+            <v>3.4127516778523486</v>
           </cell>
           <cell r="X2">
-            <v>1.9630872483221475</v>
+            <v>2.3557046979865772</v>
           </cell>
           <cell r="Y2">
-            <v>1.9463087248322151</v>
+            <v>2.3355704697986579</v>
           </cell>
         </row>
         <row r="3">
@@ -3096,152 +3096,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.69852941176470584</v>
+            <v>-0.55882352941176472</v>
           </cell>
           <cell r="C4">
-            <v>-1.654411764705882</v>
+            <v>-1.3235294117647056</v>
           </cell>
           <cell r="D4">
-            <v>-2.8860294117647056</v>
+            <v>-2.3088235294117645</v>
           </cell>
           <cell r="E4">
-            <v>-2.6654411764705883</v>
+            <v>-2.1323529411764706</v>
           </cell>
           <cell r="F4">
-            <v>-2.7205882352941173</v>
+            <v>-2.1764705882352939</v>
           </cell>
           <cell r="G4">
-            <v>-2.5919117647058827</v>
+            <v>-2.0735294117647061</v>
           </cell>
           <cell r="H4">
-            <v>-0.14705882352941177</v>
+            <v>-0.11764705882352941</v>
           </cell>
           <cell r="I4">
-            <v>3.1066176470588229</v>
+            <v>2.4852941176470584</v>
           </cell>
           <cell r="J4">
-            <v>4.0808823529411757</v>
+            <v>3.2647058823529407</v>
           </cell>
           <cell r="K4">
-            <v>4.1176470588235299</v>
+            <v>3.2941176470588238</v>
           </cell>
           <cell r="L4">
-            <v>3.4375</v>
+            <v>2.75</v>
           </cell>
           <cell r="M4">
-            <v>4.3014705882352935</v>
+            <v>3.4411764705882351</v>
           </cell>
           <cell r="N4">
-            <v>3.8970588235294117</v>
+            <v>3.1176470588235294</v>
           </cell>
           <cell r="O4">
-            <v>3.4007352941176467</v>
+            <v>2.7205882352941173</v>
           </cell>
           <cell r="P4">
-            <v>2.4448529411764701</v>
+            <v>1.9558823529411762</v>
           </cell>
           <cell r="Q4">
-            <v>1.5257352941176472</v>
+            <v>1.2205882352941178</v>
           </cell>
           <cell r="R4">
-            <v>1.8933823529411764</v>
+            <v>1.5147058823529411</v>
           </cell>
           <cell r="S4">
-            <v>1.6911764705882351</v>
+            <v>1.3529411764705881</v>
           </cell>
           <cell r="T4">
-            <v>0.31249999999999994</v>
+            <v>0.24999999999999997</v>
           </cell>
           <cell r="U4">
-            <v>1.3602941176470587</v>
+            <v>1.088235294117647</v>
           </cell>
           <cell r="V4">
-            <v>1.9117647058823528</v>
+            <v>1.5294117647058822</v>
           </cell>
           <cell r="W4">
-            <v>1.25</v>
+            <v>1</v>
           </cell>
           <cell r="X4">
-            <v>-1.1580882352941175</v>
+            <v>-0.92647058823529405</v>
           </cell>
           <cell r="Y4">
-            <v>-2.3713235294117645</v>
+            <v>-1.8970588235294117</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>1.8087248322147651</v>
+            <v>2.1704697986577179</v>
           </cell>
           <cell r="C2">
-            <v>2.0589765100671147</v>
+            <v>2.4707718120805375</v>
           </cell>
           <cell r="D2">
-            <v>1.9595637583892618</v>
+            <v>2.3514765100671138</v>
           </cell>
           <cell r="E2">
-            <v>1.9403523489932886</v>
+            <v>2.3284228187919465</v>
           </cell>
           <cell r="F2">
-            <v>1.8979865771812081</v>
+            <v>2.2775838926174501</v>
           </cell>
           <cell r="G2">
-            <v>1.9484899328859058</v>
+            <v>2.3381879194630866</v>
           </cell>
           <cell r="H2">
-            <v>2.0469798657718123</v>
+            <v>2.4563758389261747</v>
           </cell>
           <cell r="I2">
-            <v>3.9105704697986581</v>
+            <v>4.69268456375839</v>
           </cell>
           <cell r="J2">
-            <v>4.5077181208053698</v>
+            <v>5.4092617449664431</v>
           </cell>
           <cell r="K2">
-            <v>4.3812080536912745</v>
+            <v>5.2574496644295294</v>
           </cell>
           <cell r="L2">
-            <v>4.1107382550335565</v>
+            <v>4.9328859060402683</v>
           </cell>
           <cell r="M2">
-            <v>4.2281040268456387</v>
+            <v>5.0737248322147659</v>
           </cell>
           <cell r="N2">
-            <v>4.4546979865771803</v>
+            <v>5.3456375838926169</v>
           </cell>
           <cell r="O2">
-            <v>4.3636744966442951</v>
+            <v>5.2364093959731548</v>
           </cell>
           <cell r="P2">
-            <v>3.0285234899328857</v>
+            <v>3.6342281879194624</v>
           </cell>
           <cell r="Q2">
-            <v>3.8805369127516776</v>
+            <v>4.6566442953020131</v>
           </cell>
           <cell r="R2">
-            <v>4.0902684563758394</v>
+            <v>4.9083221476510071</v>
           </cell>
           <cell r="S2">
-            <v>3.6832214765100675</v>
+            <v>4.4198657718120806</v>
           </cell>
           <cell r="T2">
-            <v>3.037751677852349</v>
+            <v>3.6453020134228185</v>
           </cell>
           <cell r="U2">
-            <v>2.7553691275167793</v>
+            <v>3.3064429530201349</v>
           </cell>
           <cell r="V2">
-            <v>2.892281879194631</v>
+            <v>3.4707382550335568</v>
           </cell>
           <cell r="W2">
-            <v>2.8439597315436238</v>
+            <v>3.4127516778523486</v>
           </cell>
           <cell r="X2">
-            <v>2.0023489932885905</v>
+            <v>2.4028187919463084</v>
           </cell>
           <cell r="Y2">
-            <v>1.965771812080537</v>
+            <v>2.3589261744966445</v>
           </cell>
         </row>
         <row r="3">
@@ -3320,152 +3320,152 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.71249999999999991</v>
+            <v>-0.56999999999999995</v>
           </cell>
           <cell r="C4">
-            <v>-1.6874999999999996</v>
+            <v>-1.3499999999999996</v>
           </cell>
           <cell r="D4">
-            <v>-2.9437499999999996</v>
+            <v>-2.3549999999999995</v>
           </cell>
           <cell r="E4">
-            <v>-2.6920955882352944</v>
+            <v>-2.1536764705882354</v>
           </cell>
           <cell r="F4">
-            <v>-2.7749999999999995</v>
+            <v>-2.2199999999999998</v>
           </cell>
           <cell r="G4">
-            <v>-2.617830882352941</v>
+            <v>-2.0942647058823529</v>
           </cell>
           <cell r="H4">
-            <v>-0.14411764705882352</v>
+            <v>-0.11529411764705882</v>
           </cell>
           <cell r="I4">
-            <v>3.075551470588235</v>
+            <v>2.4604411764705878</v>
           </cell>
           <cell r="J4">
-            <v>4.1624999999999996</v>
+            <v>3.3299999999999996</v>
           </cell>
           <cell r="K4">
-            <v>4.158823529411765</v>
+            <v>3.3270588235294123</v>
           </cell>
           <cell r="L4">
-            <v>3.4031250000000002</v>
+            <v>2.7225000000000001</v>
           </cell>
           <cell r="M4">
-            <v>4.2584558823529406</v>
+            <v>3.4067647058823525</v>
           </cell>
           <cell r="N4">
-            <v>3.8191176470588237</v>
+            <v>3.0552941176470592</v>
           </cell>
           <cell r="O4">
-            <v>3.3327205882352935</v>
+            <v>2.6661764705882347</v>
           </cell>
           <cell r="P4">
-            <v>2.4204044117647054</v>
+            <v>1.9363235294117644</v>
           </cell>
           <cell r="Q4">
-            <v>1.5409926470588236</v>
+            <v>1.2327941176470589</v>
           </cell>
           <cell r="R4">
-            <v>1.8933823529411764</v>
+            <v>1.5147058823529411</v>
           </cell>
           <cell r="S4">
-            <v>1.6911764705882351</v>
+            <v>1.3529411764705881</v>
           </cell>
           <cell r="T4">
-            <v>0.31874999999999992</v>
+            <v>0.25499999999999995</v>
           </cell>
           <cell r="U4">
-            <v>1.346691176470588</v>
+            <v>1.0773529411764704</v>
           </cell>
           <cell r="V4">
-            <v>1.9117647058823528</v>
+            <v>1.5294117647058822</v>
           </cell>
           <cell r="W4">
-            <v>1.2625</v>
+            <v>1.01</v>
           </cell>
           <cell r="X4">
-            <v>-1.1696691176470588</v>
+            <v>-0.935735294117647</v>
           </cell>
           <cell r="Y4">
-            <v>-2.4187500000000002</v>
+            <v>-1.9350000000000001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>1.8087248322147651</v>
+            <v>2.1704697986577179</v>
           </cell>
           <cell r="C2">
-            <v>2.038590604026846</v>
+            <v>2.4463087248322148</v>
           </cell>
           <cell r="D2">
-            <v>1.9019295302013426</v>
+            <v>2.2823154362416109</v>
           </cell>
           <cell r="E2">
-            <v>1.8827181208053692</v>
+            <v>2.2592617449664432</v>
           </cell>
           <cell r="F2">
-            <v>1.8604026845637582</v>
+            <v>2.2324832214765102</v>
           </cell>
           <cell r="G2">
-            <v>1.9484899328859058</v>
+            <v>2.3381879194630866</v>
           </cell>
           <cell r="H2">
-            <v>2.0469798657718123</v>
+            <v>2.4563758389261747</v>
           </cell>
           <cell r="I2">
-            <v>3.9105704697986581</v>
+            <v>4.69268456375839</v>
           </cell>
           <cell r="J2">
-            <v>4.5077181208053698</v>
+            <v>5.4092617449664431</v>
           </cell>
           <cell r="K2">
-            <v>4.2953020134228179</v>
+            <v>5.1543624161073822</v>
           </cell>
           <cell r="L2">
-            <v>4.15268456375839</v>
+            <v>4.9832214765100673</v>
           </cell>
           <cell r="M2">
-            <v>4.2699664429530211</v>
+            <v>5.1239597315436249</v>
           </cell>
           <cell r="N2">
-            <v>4.5437919463087244</v>
+            <v>5.4525503355704688</v>
           </cell>
           <cell r="O2">
-            <v>4.2340604026845643</v>
+            <v>5.0808724832214764</v>
           </cell>
           <cell r="P2">
-            <v>3.0285234899328857</v>
+            <v>3.6342281879194624</v>
           </cell>
           <cell r="Q2">
-            <v>3.9201342281879192</v>
+            <v>4.7041610738255031</v>
           </cell>
           <cell r="R2">
-            <v>4.0902684563758394</v>
+            <v>4.9083221476510071</v>
           </cell>
           <cell r="S2">
-            <v>3.7208053691275165</v>
+            <v>4.4649664429530205</v>
           </cell>
           <cell r="T2">
-            <v>2.9186241610738257</v>
+            <v>3.5023489932885905</v>
           </cell>
           <cell r="U2">
-            <v>2.7283557046979867</v>
+            <v>3.2740268456375841</v>
           </cell>
           <cell r="V2">
-            <v>2.892281879194631</v>
+            <v>3.4707382550335568</v>
           </cell>
           <cell r="W2">
-            <v>2.7870805369127516</v>
+            <v>3.3444966442953019</v>
           </cell>
           <cell r="X2">
-            <v>1.9238255033557046</v>
+            <v>2.3085906040268451</v>
           </cell>
           <cell r="Y2">
-            <v>1.9073825503355706</v>
+            <v>2.2888590604026851</v>
           </cell>
         </row>
         <row r="3">
@@ -3544,76 +3544,76 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.69852941176470584</v>
+            <v>-0.55882352941176472</v>
           </cell>
           <cell r="C4">
-            <v>-1.654411764705882</v>
+            <v>-1.3235294117647056</v>
           </cell>
           <cell r="D4">
-            <v>-2.8860294117647056</v>
+            <v>-2.3088235294117645</v>
           </cell>
           <cell r="E4">
-            <v>-2.6920955882352944</v>
+            <v>-2.1536764705882354</v>
           </cell>
           <cell r="F4">
-            <v>-2.693382352941176</v>
+            <v>-2.1547058823529408</v>
           </cell>
           <cell r="G4">
-            <v>-2.617830882352941</v>
+            <v>-2.0942647058823529</v>
           </cell>
           <cell r="H4">
-            <v>-0.14411764705882352</v>
+            <v>-0.11529411764705882</v>
           </cell>
           <cell r="I4">
-            <v>3.1687499999999997</v>
+            <v>2.5349999999999997</v>
           </cell>
           <cell r="J4">
-            <v>4.1624999999999996</v>
+            <v>3.3299999999999996</v>
           </cell>
           <cell r="K4">
-            <v>4.1176470588235299</v>
+            <v>3.2941176470588238</v>
           </cell>
           <cell r="L4">
-            <v>3.4031250000000002</v>
+            <v>2.7225000000000001</v>
           </cell>
           <cell r="M4">
-            <v>4.3444852941176473</v>
+            <v>3.4755882352941176</v>
           </cell>
           <cell r="N4">
-            <v>3.9360294117647059</v>
+            <v>3.1488235294117648</v>
           </cell>
           <cell r="O4">
-            <v>3.4007352941176467</v>
+            <v>2.7205882352941173</v>
           </cell>
           <cell r="P4">
-            <v>2.4693014705882348</v>
+            <v>1.9754411764705879</v>
           </cell>
           <cell r="Q4">
-            <v>1.5257352941176472</v>
+            <v>1.2205882352941178</v>
           </cell>
           <cell r="R4">
-            <v>1.912316176470588</v>
+            <v>1.5298529411764705</v>
           </cell>
           <cell r="S4">
-            <v>1.7080882352941174</v>
+            <v>1.3664705882352939</v>
           </cell>
           <cell r="T4">
-            <v>0.31874999999999992</v>
+            <v>0.25499999999999995</v>
           </cell>
           <cell r="U4">
-            <v>1.3330882352941176</v>
+            <v>1.0664705882352941</v>
           </cell>
           <cell r="V4">
-            <v>1.8926470588235293</v>
+            <v>1.5141176470588236</v>
           </cell>
           <cell r="W4">
-            <v>1.2375</v>
+            <v>0.99</v>
           </cell>
           <cell r="X4">
-            <v>-1.1812499999999999</v>
+            <v>-0.94499999999999984</v>
           </cell>
           <cell r="Y4">
-            <v>-2.3950367647058823</v>
+            <v>-1.9160294117647059</v>
           </cell>
         </row>
       </sheetData>
@@ -4079,99 +4079,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>2.4184563107122465</v>
+        <v>2.9021475728546955</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>1.65792736675709</v>
+        <v>1.9895128401085078</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>1.4812417852486968</v>
+        <v>1.7774901422984359</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>1.8798960202631387</v>
+        <v>2.2558752243157665</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>1.6348324512629875</v>
+        <v>1.961798941515585</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>1.3308032421568814</v>
+        <v>1.5969638905882575</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>1.1011046949721479</v>
+        <v>1.3213256339665773</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>3.8863266742880946</v>
+        <v>4.6635920091457139</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>4.0240448156380495</v>
+        <v>4.8288537787656587</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>3.382414244975549</v>
+        <v>4.0588970939706588</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>4.0211817949887498</v>
+        <v>4.8254181539864991</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>3.8112069347627249</v>
+        <v>4.5734483217152695</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>3.7904689015651876</v>
+        <v>4.5485626818782254</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>3.3847442917056973</v>
+        <v>4.0616931500468372</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>1.9488632493377205</v>
+        <v>2.3386358992052649</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>3.082457208089258</v>
+        <v>3.69894864970711</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>3.7342748224075444</v>
+        <v>4.4811297868890536</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>3.4843123674174032</v>
+        <v>4.1811748409008835</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>2.4351905617200647</v>
+        <v>2.9222286740640779</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>2.5516291970506821</v>
+        <v>3.0619550364608186</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>2.3060269938935516</v>
+        <v>2.7672323926722622</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>1.459639883534126</v>
+        <v>1.751567860240951</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>1.1876510389028969</v>
+        <v>1.4251812466834763</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>1.2309490979683193</v>
+        <v>1.4771389175619833</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4281,99 +4281,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-4.3807584092016052</v>
+        <v>-3.504606727361284</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-4.6800505321918635</v>
+        <v>-3.7440404257534912</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-4.8135518765238343</v>
+        <v>-3.8508415012190675</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-4.7491784907270116</v>
+        <v>-3.7993427925816095</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-4.7531285092245765</v>
+        <v>-3.8025028073796614</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-4.0083634873838383</v>
+        <v>-3.2066907899070709</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-0.1477961877036193</v>
+        <v>-0.11823695016289544</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.0665776587667093</v>
+        <v>1.6532621270133676</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>2.6080693834653967</v>
+        <v>2.0864555067723174</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>1.7628770379907008</v>
+        <v>1.4103016303925606</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>1.0833265532466021</v>
+        <v>0.86666124259728161</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>2.0856235387661091</v>
+        <v>1.6684988310128872</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>1.3549410363593706</v>
+        <v>1.0839528290874965</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>0.41107988483098112</v>
+        <v>0.32886390786478492</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.6103838761832887</v>
+        <v>-1.2883071009466309</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-1.6270203310146203</v>
+        <v>-1.3016162648116962</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-1.3402720490539275</v>
+        <v>-1.072217639243142</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.64962488014463149</v>
+        <v>-0.51969990411570521</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-1.6156173005726733</v>
+        <v>-1.2924938404581385</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.90212301786796834</v>
+        <v>-0.72169841429437465</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-1.2638436401566562</v>
+        <v>-1.0110749121253249</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-2.0543062892623838</v>
+        <v>-1.6434450314099072</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-3.3117556752086768</v>
+        <v>-2.6494045401669415</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-3.66366725196279</v>
+        <v>-2.930933801570232</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4784,99 +4784,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>2.4184563107122465</v>
+        <v>2.9021475728546955</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>1.7255978715226852</v>
+        <v>2.0707174458272224</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>1.4372445044987354</v>
+        <v>1.7246934053984824</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>1.8422980998578757</v>
+        <v>2.2107577198294512</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>1.6510189111764828</v>
+        <v>1.9812226934117794</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>1.3041871773137437</v>
+        <v>1.5650246127764924</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>1.1231267888715908</v>
+        <v>1.347752146645909</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>3.770891228517161</v>
+        <v>4.5250694742205928</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>4.0642852637944298</v>
+        <v>4.8771423165533152</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>3.4859575381890862</v>
+        <v>4.1831490458269034</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>4.0613936129386374</v>
+        <v>4.8736723355263649</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>3.7738421608925021</v>
+        <v>4.5286105930710026</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>3.6778807163701819</v>
+        <v>4.413456859644219</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>3.3177196522659806</v>
+        <v>3.9812635827191771</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>2.0085223283990796</v>
+        <v>2.4102267940788953</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>3.1135931394840988</v>
+        <v>3.7363117673809185</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>3.7716175706316202</v>
+        <v>4.5259410847579442</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>3.5191554910915768</v>
+        <v>4.2229865893098921</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>2.4108386561028641</v>
+        <v>2.8930063873234371</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>2.5768928524670258</v>
+        <v>3.0922714229604313</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>2.3530887692791347</v>
+        <v>2.8237065231349616</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>1.4450434846987847</v>
+        <v>1.7340521816385417</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>1.1410764883576854</v>
+        <v>1.3692917860292226</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>1.2188809695568654</v>
+        <v>1.4626571634682384</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4986,99 +4986,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-4.3807584092016052</v>
+        <v>-3.504606727361284</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-4.6800505321918635</v>
+        <v>-3.7440404257534912</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-4.8135518765238343</v>
+        <v>-3.8508415012190675</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-4.7021569215118921</v>
+        <v>-3.761725537209514</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-4.6119464742971141</v>
+        <v>-3.6895571794376911</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-3.9297681248861158</v>
+        <v>-3.1438144999088928</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-0.1477961877036193</v>
+        <v>-0.11823695016289544</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.0057959629206303</v>
+        <v>1.6046367703365041</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>2.5822469143221749</v>
+        <v>2.0657975314577399</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>1.8348312028066478</v>
+        <v>1.4678649622453182</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>1.0408431590016372</v>
+        <v>0.83267452720130974</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>2.0856235387661091</v>
+        <v>1.6684988310128872</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>1.3150898294076243</v>
+        <v>1.0520718635260995</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>0.40301949493233452</v>
+        <v>0.32241559594586761</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.6103838761832887</v>
+        <v>-1.2883071009466309</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-1.5791667918671317</v>
+        <v>-1.2633334334937054</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-1.3008522829052827</v>
+        <v>-1.0406818263242261</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.67614018137502463</v>
+        <v>-0.54091214510001973</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-1.6479296465841264</v>
+        <v>-1.3183437172673012</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.90212301786796834</v>
+        <v>-0.72169841429437465</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-1.238566767353523</v>
+        <v>-0.99085341388281833</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-2.07526859833649</v>
+        <v>-1.6602148786691922</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-3.3117556752086768</v>
+        <v>-2.6494045401669415</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-3.7384359713906026</v>
+        <v>-2.9907487771124819</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9666,99 +9666,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.9138800000000016</v>
+        <v>9.4638800000000014</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.8437652713178307</v>
+        <v>9.3786489922480634</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.5440818604651163</v>
+        <v>9.0225702325581398</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.4024542635658914</v>
+        <v>8.8541984496124044</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.3241553488372082</v>
+        <v>8.7654344186046522</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.4139001550387604</v>
+        <v>8.8766908527131783</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.3722266666666671</v>
+        <v>8.8222266666666673</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.8875057364341092</v>
+        <v>10.660761550387598</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5564573643410871</v>
+        <v>11.46401550387597</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.4400040310077511</v>
+        <v>11.322562170542636</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.2747475968992266</v>
+        <v>11.126491782945738</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.392119689922481</v>
+        <v>11.266538294573644</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.7499299224806215</v>
+        <v>11.693534573643413</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.5936703875968981</v>
+        <v>11.500647131782944</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.856324651162792</v>
+        <v>10.61504558139535</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.1256334883720935</v>
+        <v>10.938424186046513</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.2032046511627907</v>
+        <v>11.036925581395348</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.9367590697674419</v>
+        <v>10.71001488372093</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.4599646511627906</v>
+        <v>10.143685581395347</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.3401265116279077</v>
+        <v>10.00233581395349</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.3290437209302333</v>
+        <v>9.9860204651162796</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2191537984496126</v>
+        <v>9.8575258914728678</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.6943407751938002</v>
+        <v>9.2082942635658931</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.4699407751937992</v>
+        <v>8.9338942635658931</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9868,99 +9868,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.7707931832797419</v>
+        <v>4.6494105466237938</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.4386392711682747</v>
+        <v>4.3847807502679528</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.0069454662379425</v>
+        <v>4.0358843729903544</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.1959841371918545</v>
+        <v>4.1855339764201505</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.0775670739549836</v>
+        <v>4.0856056591639875</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.1602360557341909</v>
+        <v>4.1481781779206859</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.2966639657020371</v>
+        <v>5.8617765058949631</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.2053102679528429</v>
+        <v>7.3684935476956062</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.6448724544480164</v>
+        <v>7.7196312968917464</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.0545445230439459</v>
+        <v>7.2490782851018221</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.8504318113612008</v>
+        <v>7.0835507824222939</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.5176150911039663</v>
+        <v>7.6180974062165063</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.9635786923901399</v>
+        <v>7.9772442872454459</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.2790439013933543</v>
+        <v>7.4349924544480173</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.4710801286173645</v>
+        <v>6.7894081028938915</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.0359565273311908</v>
+        <v>6.4411012218649519</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1857254019292593</v>
+        <v>6.5555003215434082</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.9442742122186498</v>
+        <v>6.3695153697749198</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.734286045016078</v>
+        <v>6.195700836012862</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.4133243729903544</v>
+        <v>6.7364754983922834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.8263143408360136</v>
+        <v>7.0698834726688107</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2226309539121107</v>
+        <v>6.5835634297963566</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3070492175777053</v>
+        <v>5.8705540407288312</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.1349000214362279</v>
+        <v>4.9379546838156489</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10371,99 +10371,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.9913800000000013</v>
+        <v>9.5568800000000032</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.8437652713178307</v>
+        <v>9.3786489922480634</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.3962330232558138</v>
+        <v>8.8451516279069775</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.4024542635658932</v>
+        <v>8.8541984496124044</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.1800274418604646</v>
+        <v>8.5924809302325578</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.4139001550387604</v>
+        <v>8.8766908527131783</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.5172266666666667</v>
+        <v>8.9962266666666668</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.8875057364341092</v>
+        <v>10.660761550387598</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.6518352713178306</v>
+        <v>11.578468992248062</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.4400040310077511</v>
+        <v>11.322562170542636</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.1821603875969</v>
+        <v>11.015387131782946</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.2046778294573652</v>
+        <v>11.041608062015506</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.5555694573643422</v>
+        <v>11.460302015503878</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.7843680620155027</v>
+        <v>11.729484341085271</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.0321967441860469</v>
+        <v>10.826092093023258</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.2162730232558143</v>
+        <v>11.047191627906978</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.2948906976744166</v>
+        <v>11.146948837209301</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.7594334883720926</v>
+        <v>10.497224186046513</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.628336744186047</v>
+        <v>10.345732093023257</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.2570160465116285</v>
+        <v>9.9026032558139541</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.4118925581395363</v>
+        <v>10.085439069767443</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2191537984496126</v>
+        <v>9.8575258914728678</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.8457361240310091</v>
+        <v>9.3899686821705437</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.616336124031009</v>
+        <v>9.1095686821705435</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10573,99 +10573,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.6586549196141478</v>
+        <v>4.5596999356913184</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.5440251232583062</v>
+        <v>4.4690894319399783</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.9583924115755647</v>
+        <v>3.9970419292604511</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.1454616291532691</v>
+        <v>4.1451159699892823</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.1767632154340832</v>
+        <v>4.1649625723472665</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0590302679528412</v>
+        <v>4.0672135476956059</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.1531752197213301</v>
+        <v>5.746985509110397</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.3889919399785668</v>
+        <v>7.5154388853161853</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5486103965702025</v>
+        <v>7.6426216505894953</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.1448178349410512</v>
+        <v>7.3212969346195065</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.8504318113612026</v>
+        <v>7.0835507824222947</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.3276633226152192</v>
+        <v>7.4661359914255092</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.9635786923901399</v>
+        <v>7.9772442872454459</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.0946387566988207</v>
+        <v>7.2874683386923902</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.4710801286173645</v>
+        <v>6.7894081028938915</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.1156992926045017</v>
+        <v>6.5048954340836014</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1042141479099676</v>
+        <v>6.4902913183279747</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.7867983279742763</v>
+        <v>6.243534662379421</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.6573567845659172</v>
+        <v>6.1341574276527338</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.5810092604501627</v>
+        <v>6.8706234083601299</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.7384927974276536</v>
+        <v>6.999626237942123</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.3865377063236863</v>
+        <v>6.7146888317256161</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3070492175777053</v>
+        <v>5.8705540407288312</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.1947472883172567</v>
+        <v>4.9858324973204722</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11076,99 +11076,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.9913800000000013</v>
+        <v>9.5568800000000032</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.997253643410855</v>
+        <v>9.5628350387596903</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.3962330232558138</v>
+        <v>8.8451516279069775</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.5476286821705427</v>
+        <v>9.0284077519379853</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.1800274418604646</v>
+        <v>8.5924809302325578</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.3407606201550397</v>
+        <v>8.7889234108527141</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.3722266666666671</v>
+        <v>8.8222266666666673</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.0648313178294586</v>
+        <v>10.873552248062015</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.3657015503875982</v>
+        <v>11.235108527131784</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.3458761240310082</v>
+        <v>11.209608682170542</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.3673348062015513</v>
+        <v>11.237596434108529</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.392119689922481</v>
+        <v>11.266538294573644</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.6527496899224818</v>
+        <v>11.576918294573646</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.4029727131782934</v>
+        <v>11.271809922480617</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.7683886046511645</v>
+        <v>10.509522325581397</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>9.3069125581395351</v>
+        <v>11.155959069767443</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.2948906976744166</v>
+        <v>11.146948837209301</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.7594334883720926</v>
+        <v>10.497224186046513</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.4599646511627906</v>
+        <v>10.143685581395347</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.2570160465116285</v>
+        <v>9.9026032558139541</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.2461948837209302</v>
+        <v>9.8866018604651149</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.3829910077519383</v>
+        <v>10.054130542635658</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.84573612403101</v>
+        <v>9.3899686821705455</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.3967431007751951</v>
+        <v>8.8460570542635661</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11278,99 +11278,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.8268623151125398</v>
+        <v>4.694265852090032</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.3332534190782424</v>
+        <v>4.3004720685959272</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.1040515755627016</v>
+        <v>4.113569260450161</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.2465066452304399</v>
+        <v>4.2259519828510186</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.0279690032154338</v>
+        <v>4.0459272025723472</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0590302679528403</v>
+        <v>4.0672135476956051</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.4401527116827451</v>
+        <v>5.9765675026795293</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.2971511039657031</v>
+        <v>7.4419662165058957</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5486103965702025</v>
+        <v>7.6426216505894953</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.2350911468381565</v>
+        <v>7.3935155841371918</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.6737437084673097</v>
+        <v>6.9422003001071815</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.7075668595927134</v>
+        <v>7.7700588210075034</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>10.162212132904608</v>
+        <v>8.1361510396570207</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.0946387566988207</v>
+        <v>7.2874683386923902</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.3869965273311919</v>
+        <v>6.7221412218649528</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.1954420578778144</v>
+        <v>6.5686896463022508</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.3487479099678445</v>
+        <v>6.6859183279742762</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.7867983279742763</v>
+        <v>6.243534662379421</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.8881445659163996</v>
+        <v>6.3187876527331195</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.3294819292604512</v>
+        <v>6.6694015434083607</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.0019574276527337</v>
+        <v>7.2103979421221869</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.0587242015005351</v>
+        <v>6.4524380278670961</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3788739764201496</v>
+        <v>5.9280138478027862</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.0152054876741694</v>
+        <v>4.8421990568060025</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11781,99 +11781,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>1.8456375838926176</v>
+        <v>2.2147651006711411</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>2.038590604026846</v>
+        <v>2.4463087248322148</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>1.9211409395973156</v>
+        <v>2.3053691275167787</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>1.9211409395973156</v>
+        <v>2.3053691275167787</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>1.8791946308724832</v>
+        <v>2.2550335570469802</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>1.9882550335570468</v>
+        <v>2.385906040268456</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>2.0469798657718123</v>
+        <v>2.4563758389261747</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>3.8338926174496644</v>
+        <v>4.6006711409395979</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>4.4630872483221475</v>
+        <v>5.3557046979865772</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>4.2953020134228179</v>
+        <v>5.1543624161073822</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>4.1946308724832218</v>
+        <v>5.0335570469798654</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>4.1862416107382554</v>
+        <v>5.0234899328859068</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>4.4546979865771803</v>
+        <v>5.3456375838926169</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>4.3204697986577187</v>
+        <v>5.1845637583892623</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>3.0285234899328857</v>
+        <v>3.6342281879194624</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>3.9597315436241609</v>
+        <v>4.7516778523489931</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>4.0100671140939594</v>
+        <v>4.8120805369127515</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>3.7583892617449663</v>
+        <v>4.5100671140939603</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>2.9781879194630871</v>
+        <v>3.5738255033557049</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>2.701342281879195</v>
+        <v>3.2416107382550337</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>2.8355704697986579</v>
+        <v>3.4026845637583891</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>2.8439597315436238</v>
+        <v>3.4127516778523486</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>1.9630872483221475</v>
+        <v>2.3557046979865772</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>1.9463087248322151</v>
+        <v>2.3355704697986579</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11983,99 +11983,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.69852941176470584</v>
+        <v>-0.55882352941176472</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-1.654411764705882</v>
+        <v>-1.3235294117647056</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-2.8860294117647056</v>
+        <v>-2.3088235294117645</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-2.6654411764705883</v>
+        <v>-2.1323529411764706</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-2.7205882352941173</v>
+        <v>-2.1764705882352939</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-2.5919117647058827</v>
+        <v>-2.0735294117647061</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-0.14705882352941177</v>
+        <v>-0.11764705882352941</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.1066176470588229</v>
+        <v>2.4852941176470584</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>4.0808823529411757</v>
+        <v>3.2647058823529407</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>4.1176470588235299</v>
+        <v>3.2941176470588238</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>3.4375</v>
+        <v>2.75</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>4.3014705882352935</v>
+        <v>3.4411764705882351</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>3.8970588235294117</v>
+        <v>3.1176470588235294</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>3.4007352941176467</v>
+        <v>2.7205882352941173</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>2.4448529411764701</v>
+        <v>1.9558823529411762</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>1.5257352941176472</v>
+        <v>1.2205882352941178</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>1.8933823529411764</v>
+        <v>1.5147058823529411</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>1.6911764705882351</v>
+        <v>1.3529411764705881</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>0.31249999999999994</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>1.3602941176470587</v>
+        <v>1.088235294117647</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>1.9117647058823528</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-1.1580882352941175</v>
+        <v>-0.92647058823529405</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-2.3713235294117645</v>
+        <v>-1.8970588235294117</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12486,99 +12486,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>1.8087248322147651</v>
+        <v>2.1704697986577179</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>2.0589765100671147</v>
+        <v>2.4707718120805375</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>1.9595637583892618</v>
+        <v>2.3514765100671138</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>1.9403523489932886</v>
+        <v>2.3284228187919465</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>1.8979865771812081</v>
+        <v>2.2775838926174501</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>1.9484899328859058</v>
+        <v>2.3381879194630866</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>2.0469798657718123</v>
+        <v>2.4563758389261747</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>3.9105704697986581</v>
+        <v>4.69268456375839</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>4.5077181208053698</v>
+        <v>5.4092617449664431</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>4.3812080536912745</v>
+        <v>5.2574496644295294</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>4.1107382550335565</v>
+        <v>4.9328859060402683</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>4.2281040268456387</v>
+        <v>5.0737248322147659</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>4.4546979865771803</v>
+        <v>5.3456375838926169</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>4.3636744966442951</v>
+        <v>5.2364093959731548</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>3.0285234899328857</v>
+        <v>3.6342281879194624</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>3.8805369127516776</v>
+        <v>4.6566442953020131</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>4.0902684563758394</v>
+        <v>4.9083221476510071</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>3.6832214765100675</v>
+        <v>4.4198657718120806</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>3.037751677852349</v>
+        <v>3.6453020134228185</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>2.7553691275167793</v>
+        <v>3.3064429530201349</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>2.892281879194631</v>
+        <v>3.4707382550335568</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>2.8439597315436238</v>
+        <v>3.4127516778523486</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>2.0023489932885905</v>
+        <v>2.4028187919463084</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>1.965771812080537</v>
+        <v>2.3589261744966445</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12688,99 +12688,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.71249999999999991</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-1.6874999999999996</v>
+        <v>-1.3499999999999996</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-2.9437499999999996</v>
+        <v>-2.3549999999999995</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-2.6920955882352944</v>
+        <v>-2.1536764705882354</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-2.7749999999999995</v>
+        <v>-2.2199999999999998</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-2.617830882352941</v>
+        <v>-2.0942647058823529</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-0.14411764705882352</v>
+        <v>-0.11529411764705882</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>3.075551470588235</v>
+        <v>2.4604411764705878</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>4.1624999999999996</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>4.158823529411765</v>
+        <v>3.3270588235294123</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>3.4031250000000002</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>4.2584558823529406</v>
+        <v>3.4067647058823525</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>3.8191176470588237</v>
+        <v>3.0552941176470592</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>3.3327205882352935</v>
+        <v>2.6661764705882347</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>2.4204044117647054</v>
+        <v>1.9363235294117644</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>1.5409926470588236</v>
+        <v>1.2327941176470589</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>1.8933823529411764</v>
+        <v>1.5147058823529411</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>1.6911764705882351</v>
+        <v>1.3529411764705881</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>0.31874999999999992</v>
+        <v>0.25499999999999995</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>1.346691176470588</v>
+        <v>1.0773529411764704</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>1.9117647058823528</v>
+        <v>1.5294117647058822</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>1.2625</v>
+        <v>1.01</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-1.1696691176470588</v>
+        <v>-0.935735294117647</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-2.4187500000000002</v>
+        <v>-1.9350000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13191,99 +13191,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>1.8087248322147651</v>
+        <v>2.1704697986577179</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>2.038590604026846</v>
+        <v>2.4463087248322148</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>1.9019295302013426</v>
+        <v>2.2823154362416109</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>1.8827181208053692</v>
+        <v>2.2592617449664432</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>1.8604026845637582</v>
+        <v>2.2324832214765102</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>1.9484899328859058</v>
+        <v>2.3381879194630866</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>2.0469798657718123</v>
+        <v>2.4563758389261747</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>3.9105704697986581</v>
+        <v>4.69268456375839</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>4.5077181208053698</v>
+        <v>5.4092617449664431</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>4.2953020134228179</v>
+        <v>5.1543624161073822</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>4.15268456375839</v>
+        <v>4.9832214765100673</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>4.2699664429530211</v>
+        <v>5.1239597315436249</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>4.5437919463087244</v>
+        <v>5.4525503355704688</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>4.2340604026845643</v>
+        <v>5.0808724832214764</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>3.0285234899328857</v>
+        <v>3.6342281879194624</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>3.9201342281879192</v>
+        <v>4.7041610738255031</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>4.0902684563758394</v>
+        <v>4.9083221476510071</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>3.7208053691275165</v>
+        <v>4.4649664429530205</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>2.9186241610738257</v>
+        <v>3.5023489932885905</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>2.7283557046979867</v>
+        <v>3.2740268456375841</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>2.892281879194631</v>
+        <v>3.4707382550335568</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>2.7870805369127516</v>
+        <v>3.3444966442953019</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>1.9238255033557046</v>
+        <v>2.3085906040268451</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>1.9073825503355706</v>
+        <v>2.2888590604026851</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13393,99 +13393,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.69852941176470584</v>
+        <v>-0.55882352941176472</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-1.654411764705882</v>
+        <v>-1.3235294117647056</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-2.8860294117647056</v>
+        <v>-2.3088235294117645</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-2.6920955882352944</v>
+        <v>-2.1536764705882354</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-2.693382352941176</v>
+        <v>-2.1547058823529408</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-2.617830882352941</v>
+        <v>-2.0942647058823529</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-0.14411764705882352</v>
+        <v>-0.11529411764705882</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>3.1687499999999997</v>
+        <v>2.5349999999999997</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>4.1624999999999996</v>
+        <v>3.3299999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>4.1176470588235299</v>
+        <v>3.2941176470588238</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>3.4031250000000002</v>
+        <v>2.7225000000000001</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>4.3444852941176473</v>
+        <v>3.4755882352941176</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>3.9360294117647059</v>
+        <v>3.1488235294117648</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>3.4007352941176467</v>
+        <v>2.7205882352941173</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>2.4693014705882348</v>
+        <v>1.9754411764705879</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>1.5257352941176472</v>
+        <v>1.2205882352941178</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>1.912316176470588</v>
+        <v>1.5298529411764705</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>1.7080882352941174</v>
+        <v>1.3664705882352939</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>0.31874999999999992</v>
+        <v>0.25499999999999995</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>1.3330882352941176</v>
+        <v>1.0664705882352941</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>1.8926470588235293</v>
+        <v>1.5141176470588236</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>1.2375</v>
+        <v>0.99</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-1.1812499999999999</v>
+        <v>-0.94499999999999984</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-2.3950367647058823</v>
+        <v>-1.9160294117647059</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18487,99 +18487,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.8316088114990405</v>
+        <v>9.3651545737988489</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.5505241471109938</v>
+        <v>9.0267596431998598</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.2699063322673805</v>
+        <v>8.6935595987208565</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.4768439449522202</v>
+        <v>8.9434660672759989</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.2439466027973713</v>
+        <v>8.6691839233568473</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.2356244679949659</v>
+        <v>8.6627600282606263</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.3237667299557572</v>
+        <v>8.7640747426135768</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.3688007188739224</v>
+        <v>11.238315529315372</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5531250412357522</v>
+        <v>11.460016716149569</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.4707081381214735</v>
+        <v>11.359407099079101</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.4308505976555974</v>
+        <v>11.313815383853385</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.6327033369848003</v>
+        <v>11.555238671048429</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.5411063748070433</v>
+        <v>11.442946316435117</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.3996541297740954</v>
+        <v>11.267827622395581</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.1884053267041139</v>
+        <v>9.8135423920449369</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.8036438853100858</v>
+        <v>10.552036662372103</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.538861228590287</v>
+        <v>11.439713474308343</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>9.4299724202832689</v>
+        <v>11.301870904339921</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.918571869525044</v>
+        <v>10.694014243430054</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.4946698769157969</v>
+        <v>10.187787852298957</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.4499433599573521</v>
+        <v>10.131100031948824</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.0595050368005836</v>
+        <v>9.6659473774940352</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.378862843943808</v>
+        <v>8.8297207460659024</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.2472976956201727</v>
+        <v>8.6667225680775406</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18689,99 +18689,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.8415464416165905</v>
+        <v>3.906013153293272</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.5674579834905042</v>
+        <v>3.687835720125737</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.4075865126963141</v>
+        <v>3.5563972101570509</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.4887056359575874</v>
+        <v>3.6197111754327369</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.5036068719318347</v>
+        <v>3.6264374975454681</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.1145463017119885</v>
+        <v>4.111626374702924</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.220815938597573</v>
+        <v>6.601098084211392</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.5164648160281988</v>
+        <v>7.6174171861558913</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.9389766059407894</v>
+        <v>7.9549146180859651</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.6339993170813703</v>
+        <v>7.7126421203317621</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.2697170077036812</v>
+        <v>7.4189789394962782</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.8640329745360411</v>
+        <v>7.8952317129621656</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.1577843583449727</v>
+        <v>7.3326088200093125</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.7482028289494416</v>
+        <v>7.0103195964928862</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.5780878844805359</v>
+        <v>6.0750143075844285</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.5460068645070644</v>
+        <v>6.0491414916056518</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>7.8332753199217384</v>
+        <v>6.273540255937391</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.4932192421550905</v>
+        <v>6.8086713937240724</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.738285054849622</v>
+        <v>6.1989000438796973</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.0275601156457199</v>
+        <v>6.4278640925165762</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>7.8102456750148521</v>
+        <v>6.2570285400118815</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.3306219122847196</v>
+        <v>5.8699561964944422</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.1916387146035401</v>
+        <v>4.9782256383494987</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.5012742929790992</v>
+        <v>4.4310541010499458</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19194,99 +19194,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.8316088114990405</v>
+        <v>9.3651545737988489</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.6243359219154376</v>
+        <v>9.1153337729651902</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.1987236689447069</v>
+        <v>8.6081404027336497</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.3301817327198426</v>
+        <v>8.7674714125971445</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.2439466027973713</v>
+        <v>8.6691839233568473</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.3783380240215335</v>
+        <v>8.8340162954925052</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.1797359286899756</v>
+        <v>8.5912377810946374</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.5557521999180679</v>
+        <v>11.462657306568348</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.648469624981443</v>
+        <v>11.5744302166444</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.659578034217235</v>
+        <v>11.586050974394016</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.3367023583457094</v>
+        <v>11.200837496681517</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.5365765702816194</v>
+        <v>11.439886551004609</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.4460143777256391</v>
+        <v>11.328835919937434</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.212836780511946</v>
+        <v>11.043646803281003</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.2696621799711547</v>
+        <v>9.9110506159653866</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.9784831630162873</v>
+        <v>10.761843795619546</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.7289464531620933</v>
+        <v>11.667815743794511</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>9.6171622686889346</v>
+        <v>11.526498722426721</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.0073439882202955</v>
+        <v>10.800540785864355</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.5793257756849552</v>
+        <v>10.289374930821946</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.2818276927582044</v>
+        <v>9.929361231309846</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.9791829197659121</v>
+        <v>9.5695608370524283</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.5239486341560164</v>
+        <v>9.0038236943205554</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.3182689392430422</v>
+        <v>8.7518880604249834</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19396,99 +19396,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.9350997704489226</v>
+        <v>3.9808558163591377</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.655420209826981</v>
+        <v>3.7582055011949183</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.3650270475693507</v>
+        <v>3.5223496380554806</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.5756050820100729</v>
+        <v>3.6892307322747246</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.4158899344931983</v>
+        <v>3.5562639475945588</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0142543090110818</v>
+        <v>4.0313927805421983</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.3018018313168831</v>
+        <v>6.6658867983868397</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.516464816028197</v>
+        <v>7.6174171861558904</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.7405704071553068</v>
+        <v>7.7961896590575792</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.5379314572438894</v>
+        <v>7.6357878324617774</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.2697170077036812</v>
+        <v>7.4189789394962782</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.6671528483786524</v>
+        <v>7.7377276120362559</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.9752668045114063</v>
+        <v>7.1865947769424592</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.7482028289494416</v>
+        <v>7.0103195964928862</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.5780878844805359</v>
+        <v>6.0750143075844285</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.6208501331521354</v>
+        <v>6.1090161065217083</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>7.6773018135233038</v>
+        <v>6.1487614508186432</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.577446634576642</v>
+        <v>6.876053307661314</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.5843465537526296</v>
+        <v>6.0757492430021038</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.0275601156457199</v>
+        <v>6.4278640925165762</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>7.7325848182647041</v>
+        <v>6.1948998546117631</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.1845553407056917</v>
+        <v>5.7531029392312201</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.0702974069781357</v>
+        <v>4.8811525922491752</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.6082963121720137</v>
+        <v>4.5166717164042778</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19899,99 +19899,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.6782542352690593</v>
+        <v>9.1811290823228706</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>7.4767123723065509</v>
+        <v>8.9381855134345276</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>7.4122716589127275</v>
+        <v>8.8643979906952737</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>7.6235061571845986</v>
+        <v>9.1194607219548516</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>7.1014228707414242</v>
+        <v>8.4981554448897114</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>7.0929109119684002</v>
+        <v>8.4915037610287474</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.3237667299557572</v>
+        <v>8.7640747426135768</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.3688007188739206</v>
+        <v>11.238315529315372</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.7438142087271356</v>
+        <v>11.688843717139228</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.5651430861693552</v>
+        <v>11.472729036736558</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.619147076275377</v>
+        <v>11.539771158197118</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.7288301036879812</v>
+        <v>11.670590791092245</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.3509223806442368</v>
+        <v>11.21472552343975</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.5864714790362431</v>
+        <v>11.492008441510158</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.3509190332381973</v>
+        <v>10.008558839885836</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.9784831630162873</v>
+        <v>10.761843795619546</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>9.538861228590287</v>
+        <v>11.439713474308343</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>9.4299724202832689</v>
+        <v>11.301870904339921</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.8297997508297943</v>
+        <v>10.587487700995753</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.325358079377482</v>
+        <v>9.9846136952529783</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.3658855263577792</v>
+        <v>10.030230631629335</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2201492708699284</v>
+        <v>9.858720458377249</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.2337770537315969</v>
+        <v>8.6556177978112512</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.1763264519973049</v>
+        <v>8.5815570757300978</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20101,99 +20101,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.8415464416165905</v>
+        <v>3.906013153293272</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.4794957571540275</v>
+        <v>3.6174659390565553</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.3650270475693507</v>
+        <v>3.5223496380554806</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.5321553589838306</v>
+        <v>3.654470953853731</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.5474653406511534</v>
+        <v>3.6615242725209227</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0142543090110818</v>
+        <v>4.0313927805421983</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.0588441531589563</v>
+        <v>6.4715206558604983</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.516464816028197</v>
+        <v>7.6174171861558904</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.8397735065480472</v>
+        <v>7.8755521385717717</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.4418635974064102</v>
+        <v>7.5589335445917936</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>9.2697170077036812</v>
+        <v>7.4189789394962782</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.6671528483786524</v>
+        <v>7.7377276120362559</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.9752668045114063</v>
+        <v>7.1865947769424592</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.8350969905722678</v>
+        <v>7.0798349257911477</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.6532415633253414</v>
+        <v>6.1351372506602733</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.6956934017972065</v>
+        <v>6.1688907214377648</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>7.6773018135233038</v>
+        <v>6.1487614508186432</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.3247644573119892</v>
+        <v>6.673907565849591</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.8922235559466145</v>
+        <v>6.3220508447572916</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.1875297179586344</v>
+        <v>6.5558397743669072</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>7.8102456750148521</v>
+        <v>6.2570285400118815</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.4036551980742322</v>
+        <v>5.9283828251260529</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>6.0702974069781357</v>
+        <v>4.8811525922491752</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>5.5012742929790992</v>
+        <v>4.4310541010499458</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20606,99 +20606,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>2.3945111987249965</v>
+        <v>2.8734134384699956</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>1.6917626191398876</v>
+        <v>2.0301151429678654</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>1.4665760249987094</v>
+        <v>1.7598912299984515</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>1.8798960202631387</v>
+        <v>2.2558752243157665</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>1.6186459913494926</v>
+        <v>1.9423751896193913</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>1.3308032421568814</v>
+        <v>1.5969638905882575</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>1.1011046949721479</v>
+        <v>1.3213256339665773</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>3.8478481923644496</v>
+        <v>4.6174178308373399</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>4.0240448156380495</v>
+        <v>4.8288537787656587</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>3.4514431071179077</v>
+        <v>4.1417317285414885</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>4.0211817949887498</v>
+        <v>4.8254181539864991</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>3.7364773870222794</v>
+        <v>4.4837728644267356</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>3.7529395065001858</v>
+        <v>4.503527407800223</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>3.3512319719858392</v>
+        <v>4.0214783663830067</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>1.9886359687119599</v>
+        <v>2.3863631624543515</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>3.1135931394840988</v>
+        <v>3.7363117673809185</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>3.7342748224075444</v>
+        <v>4.4811297868890536</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>3.4843123674174032</v>
+        <v>4.1811748409008835</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>2.4351905617200647</v>
+        <v>2.9222286740640779</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>2.5263655416343389</v>
+        <v>3.0316386499612067</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>2.3530887692791347</v>
+        <v>2.8237065231349616</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>1.459639883534126</v>
+        <v>1.751567860240951</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>1.1643637636302913</v>
+        <v>1.3972365163563496</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>1.2068128411454111</v>
+        <v>1.4481754093744934</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20808,99 +20808,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-4.337384563565946</v>
+        <v>-3.4699076508527567</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-4.6800505321918644</v>
+        <v>-3.7440404257534916</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-4.7658929470533016</v>
+        <v>-3.812714357642641</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-4.7021569215118921</v>
+        <v>-3.761725537209514</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-4.7060678309154227</v>
+        <v>-3.764854264732338</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-3.9297681248861158</v>
+        <v>-3.1438144999088928</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-0.14633285911249436</v>
+        <v>-0.11706628728999549</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.0260565282026564</v>
+        <v>1.6208452225621253</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>2.5822469143221749</v>
+        <v>2.0657975314577399</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>1.7988541203986741</v>
+        <v>1.4390832963189393</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>1.0620848561241196</v>
+        <v>0.84966788489929568</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>2.1066904431980902</v>
+        <v>1.6853523545584721</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>1.3283735650582065</v>
+        <v>1.0626988520465652</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>0.40301949493233452</v>
+        <v>0.32241559594586761</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.5944394813695928</v>
+        <v>-1.2755515850956742</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-1.5951179715829613</v>
+        <v>-1.2760943772663691</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-1.3139922049548307</v>
+        <v>-1.0511937639638647</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-0.66288253075982806</v>
+        <v>-0.53030602460786247</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-1.6156173005726733</v>
+        <v>-1.2924938404581385</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-0.92053369170200849</v>
+        <v>-0.7364269533616068</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-1.2638436401566562</v>
+        <v>-1.0110749121253249</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-2.0962309074105963</v>
+        <v>-1.6769847259284769</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-3.3117556752086768</v>
+        <v>-2.6494045401669415</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-3.7384359713906026</v>
+        <v>-2.9907487771124819</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F9BD4-3451-4436-9E85-674386D77573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A969243-8495-47EF-BBAB-4C5E1686788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,2688 +932,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>9.2012745737988482</v>
+            <v>15.335457622998081</v>
           </cell>
           <cell r="C2">
-            <v>8.8574129765331939</v>
+            <v>14.762354960888654</v>
           </cell>
           <cell r="D2">
-            <v>8.541919598720856</v>
+            <v>14.23653266453476</v>
           </cell>
           <cell r="E2">
-            <v>8.7997327339426654</v>
+            <v>14.666221223237773</v>
           </cell>
           <cell r="F2">
-            <v>8.5514239233568468</v>
+            <v>14.252373205594743</v>
           </cell>
           <cell r="G2">
-            <v>8.5628133615939603</v>
+            <v>14.271355602656598</v>
           </cell>
           <cell r="H2">
-            <v>8.6418480759469105</v>
+            <v>14.403080126578182</v>
           </cell>
           <cell r="I2">
-            <v>11.217088862648705</v>
+            <v>18.69514810441451</v>
           </cell>
           <cell r="J2">
-            <v>11.441350049482903</v>
+            <v>19.068916749138172</v>
           </cell>
           <cell r="K2">
-            <v>11.332193765745767</v>
+            <v>18.886989609576279</v>
           </cell>
           <cell r="L2">
-            <v>11.297788717186718</v>
+            <v>18.829647861977861</v>
           </cell>
           <cell r="M2">
-            <v>11.535212004381762</v>
+            <v>19.225353340636268</v>
           </cell>
           <cell r="N2">
-            <v>11.411039649768451</v>
+            <v>19.018399416280754</v>
           </cell>
           <cell r="O2">
-            <v>11.209040955728915</v>
+            <v>18.681734926214858</v>
           </cell>
           <cell r="P2">
-            <v>9.7508223920449364</v>
+            <v>16.251370653408227</v>
           </cell>
           <cell r="Q2">
-            <v>10.490356662372102</v>
+            <v>17.48392777062017</v>
           </cell>
           <cell r="R2">
-            <v>11.405113474308344</v>
+            <v>19.008522457180575</v>
           </cell>
           <cell r="S2">
-            <v>11.231390904339921</v>
+            <v>18.718984840566538</v>
           </cell>
           <cell r="T2">
-            <v>10.652654243430055</v>
+            <v>17.75442373905009</v>
           </cell>
           <cell r="U2">
-            <v>10.158707852298956</v>
+            <v>16.931179753831593</v>
           </cell>
           <cell r="V2">
-            <v>10.086940031948824</v>
+            <v>16.811566719914705</v>
           </cell>
           <cell r="W2">
-            <v>9.6386540441607025</v>
+            <v>16.064423406934502</v>
           </cell>
           <cell r="X2">
-            <v>8.7051474127325683</v>
+            <v>14.50857902122095</v>
           </cell>
           <cell r="Y2">
-            <v>8.5165492347442076</v>
+            <v>14.194248724573679</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.5465631087199485</v>
+            <v>8.3198446630799232</v>
           </cell>
           <cell r="C3">
-            <v>5.3887066339379173</v>
+            <v>8.0830599509068755</v>
           </cell>
           <cell r="D3">
-            <v>5.1598155793845457</v>
+            <v>7.7397233690768186</v>
           </cell>
           <cell r="E3">
-            <v>5.1170912450240493</v>
+            <v>7.675636867536074</v>
           </cell>
           <cell r="F3">
-            <v>5.1685088358191269</v>
+            <v>7.7527632537286904</v>
           </cell>
           <cell r="G3">
-            <v>5.5184807906653806</v>
+            <v>8.2777211859980717</v>
           </cell>
           <cell r="H3">
-            <v>6.6528160476342233</v>
+            <v>9.9792240714513358</v>
           </cell>
           <cell r="I3">
-            <v>7.7669044784245855</v>
+            <v>11.650356717636878</v>
           </cell>
           <cell r="J3">
-            <v>8.443685141850084</v>
+            <v>12.665527712775127</v>
           </cell>
           <cell r="K3">
-            <v>8.6987143373472282</v>
+            <v>13.048071506020843</v>
           </cell>
           <cell r="L3">
-            <v>8.6798976678234077</v>
+            <v>13.019846501735111</v>
           </cell>
           <cell r="M3">
-            <v>8.4731971018182168</v>
+            <v>12.709795652727324</v>
           </cell>
           <cell r="N3">
-            <v>8.1658347970167906</v>
+            <v>12.248752195525185</v>
           </cell>
           <cell r="O3">
-            <v>7.76576051781801</v>
+            <v>11.648640776727015</v>
           </cell>
           <cell r="P3">
-            <v>7.232709156910504</v>
+            <v>10.849063735365757</v>
           </cell>
           <cell r="Q3">
-            <v>7.4571973220450474</v>
+            <v>11.185795983067571</v>
           </cell>
           <cell r="R3">
-            <v>8.2949798371795662</v>
+            <v>12.44246975576935</v>
           </cell>
           <cell r="S3">
-            <v>9.9174110268990106</v>
+            <v>14.876116540348516</v>
           </cell>
           <cell r="T3">
-            <v>9.4457863973530269</v>
+            <v>14.168679596029541</v>
           </cell>
           <cell r="U3">
-            <v>8.7251380566497687</v>
+            <v>13.087707084974653</v>
           </cell>
           <cell r="V3">
-            <v>8.4584409159377145</v>
+            <v>12.68766137390657</v>
           </cell>
           <cell r="W3">
-            <v>7.8886712197506732</v>
+            <v>11.83300682962601</v>
           </cell>
           <cell r="X3">
-            <v>7.2197261511494801</v>
+            <v>10.82958922672422</v>
           </cell>
           <cell r="Y3">
-            <v>6.3861762490800036</v>
+            <v>9.5792643736200045</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>3.7421331532932722</v>
+            <v>4.6776664416165907</v>
           </cell>
           <cell r="C4">
-            <v>3.5184890534590703</v>
+            <v>4.3981113168238375</v>
           </cell>
           <cell r="D4">
-            <v>3.4047572101570509</v>
+            <v>4.2559465126963136</v>
           </cell>
           <cell r="E4">
-            <v>3.4759778420994034</v>
+            <v>4.3449723026242539</v>
           </cell>
           <cell r="F4">
-            <v>3.508677497545468</v>
+            <v>4.3858468719318351</v>
           </cell>
           <cell r="G4">
-            <v>4.0116797080362572</v>
+            <v>5.0145996350453217</v>
           </cell>
           <cell r="H4">
-            <v>6.4788714175447257</v>
+            <v>8.0985892719309067</v>
           </cell>
           <cell r="I4">
-            <v>7.596190519489225</v>
+            <v>9.4952381493615317</v>
           </cell>
           <cell r="J4">
-            <v>7.9362479514192987</v>
+            <v>9.920309939274123</v>
           </cell>
           <cell r="K4">
-            <v>7.685428786998429</v>
+            <v>9.6067859837480363</v>
           </cell>
           <cell r="L4">
-            <v>7.4029522728296113</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>7.8752050462954992</v>
+            <v>9.8440063078693747</v>
           </cell>
           <cell r="N4">
-            <v>7.3007021533426455</v>
+            <v>9.1258776916783066</v>
           </cell>
           <cell r="O4">
-            <v>6.9515329298262198</v>
+            <v>8.6894161622827752</v>
           </cell>
           <cell r="P4">
-            <v>6.0122943075844288</v>
+            <v>7.5153678844805363</v>
           </cell>
           <cell r="Q4">
-            <v>5.9874614916056519</v>
+            <v>7.4843268645070644</v>
           </cell>
           <cell r="R4">
-            <v>6.2389402559373908</v>
+            <v>7.7986753199217382</v>
           </cell>
           <cell r="S4">
-            <v>6.7381913937240725</v>
+            <v>8.4227392421550906</v>
           </cell>
           <cell r="T4">
-            <v>6.1575400438796972</v>
+            <v>7.696925054849622</v>
           </cell>
           <cell r="U4">
-            <v>6.3987840925165758</v>
+            <v>7.9984801156457195</v>
           </cell>
           <cell r="V4">
-            <v>6.2128685400118817</v>
+            <v>7.7660856750148524</v>
           </cell>
           <cell r="W4">
-            <v>5.8426628631611086</v>
+            <v>7.303328578951386</v>
           </cell>
           <cell r="X4">
-            <v>4.8536523050161655</v>
+            <v>6.0670653812702069</v>
           </cell>
           <cell r="Y4">
-            <v>4.2808807677166127</v>
+            <v>5.3511009596457662</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>9.2012745737988482</v>
+            <v>15.335457622998081</v>
           </cell>
           <cell r="C2">
-            <v>8.9459871062985243</v>
+            <v>14.909978510497542</v>
           </cell>
           <cell r="D2">
-            <v>8.4565004027336492</v>
+            <v>14.094167337889413</v>
           </cell>
           <cell r="E2">
-            <v>8.623738079263811</v>
+            <v>14.372896798773018</v>
           </cell>
           <cell r="F2">
-            <v>8.5514239233568468</v>
+            <v>14.252373205594743</v>
           </cell>
           <cell r="G2">
-            <v>8.7340696288258393</v>
+            <v>14.556782714709733</v>
           </cell>
           <cell r="H2">
-            <v>8.4690111144279712</v>
+            <v>14.115018524046619</v>
           </cell>
           <cell r="I2">
-            <v>11.441430639901681</v>
+            <v>19.069051066502801</v>
           </cell>
           <cell r="J2">
-            <v>11.555763549977733</v>
+            <v>19.259605916629553</v>
           </cell>
           <cell r="K2">
-            <v>11.558837641060682</v>
+            <v>19.264729401767802</v>
           </cell>
           <cell r="L2">
-            <v>11.18481083001485</v>
+            <v>18.641351383358085</v>
           </cell>
           <cell r="M2">
-            <v>11.419859884337942</v>
+            <v>19.033099807229906</v>
           </cell>
           <cell r="N2">
-            <v>11.296929253270768</v>
+            <v>18.828215422117946</v>
           </cell>
           <cell r="O2">
-            <v>10.984860136614337</v>
+            <v>18.308100227690559</v>
           </cell>
           <cell r="P2">
-            <v>9.8483306159653861</v>
+            <v>16.413884359942308</v>
           </cell>
           <cell r="Q2">
-            <v>10.700163795619545</v>
+            <v>17.833606326032573</v>
           </cell>
           <cell r="R2">
-            <v>11.633215743794512</v>
+            <v>19.388692906324188</v>
           </cell>
           <cell r="S2">
-            <v>11.456018722426721</v>
+            <v>19.09336453737787</v>
           </cell>
           <cell r="T2">
-            <v>10.759180785864356</v>
+            <v>17.931967976440593</v>
           </cell>
           <cell r="U2">
-            <v>10.260294930821946</v>
+            <v>17.10049155136991</v>
           </cell>
           <cell r="V2">
-            <v>9.8852012313098463</v>
+            <v>16.475335385516409</v>
           </cell>
           <cell r="W2">
-            <v>9.5422675037190956</v>
+            <v>15.903779172865157</v>
           </cell>
           <cell r="X2">
-            <v>8.8792503609872213</v>
+            <v>14.798750601645366</v>
           </cell>
           <cell r="Y2">
-            <v>8.6017147270916503</v>
+            <v>14.336191211819418</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.5465631087199485</v>
+            <v>8.3198446630799232</v>
           </cell>
           <cell r="C3">
-            <v>5.2809325012591586</v>
+            <v>7.9213987518887388</v>
           </cell>
           <cell r="D3">
-            <v>5.0566192677968544</v>
+            <v>7.5849289016952817</v>
           </cell>
           <cell r="E3">
-            <v>5.1170912450240493</v>
+            <v>7.675636867536074</v>
           </cell>
           <cell r="F3">
-            <v>5.1685088358191269</v>
+            <v>7.7527632537286904</v>
           </cell>
           <cell r="G3">
-            <v>5.5736655985720347</v>
+            <v>8.360498397858052</v>
           </cell>
           <cell r="H3">
-            <v>6.5197597266815386</v>
+            <v>9.7796395900223079</v>
           </cell>
           <cell r="I3">
-            <v>7.7669044784245855</v>
+            <v>11.650356717636878</v>
           </cell>
           <cell r="J3">
-            <v>8.443685141850084</v>
+            <v>12.665527712775127</v>
           </cell>
           <cell r="K3">
-            <v>8.7857014807207019</v>
+            <v>13.178552221081052</v>
           </cell>
           <cell r="L3">
-            <v>8.5062997144669392</v>
+            <v>12.75944957170041</v>
           </cell>
           <cell r="M3">
-            <v>8.6426610438545808</v>
+            <v>12.963991565781871</v>
           </cell>
           <cell r="N3">
-            <v>8.3291514929571271</v>
+            <v>12.493727239435689</v>
           </cell>
           <cell r="O3">
-            <v>7.9210757281743689</v>
+            <v>11.881613592261553</v>
           </cell>
           <cell r="P3">
-            <v>7.3773633400487135</v>
+            <v>11.06604501007307</v>
           </cell>
           <cell r="Q3">
-            <v>7.531769295265498</v>
+            <v>11.297653942898247</v>
           </cell>
           <cell r="R3">
-            <v>8.2949798371795662</v>
+            <v>12.44246975576935</v>
           </cell>
           <cell r="S3">
-            <v>9.7190628063610305</v>
+            <v>14.578594209541546</v>
           </cell>
           <cell r="T3">
-            <v>9.5402442613265581</v>
+            <v>14.310366391989838</v>
           </cell>
           <cell r="U3">
-            <v>8.8123894372162646</v>
+            <v>13.218584155824397</v>
           </cell>
           <cell r="V3">
-            <v>8.6276097342564686</v>
+            <v>12.941414601384702</v>
           </cell>
           <cell r="W3">
-            <v>7.8886712197506732</v>
+            <v>11.83300682962601</v>
           </cell>
           <cell r="X3">
-            <v>7.0753316281264897</v>
+            <v>10.612997442189736</v>
           </cell>
           <cell r="Y3">
-            <v>6.450038011570804</v>
+            <v>9.675057017356206</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>3.8169758163591379</v>
+            <v>4.7712197704489228</v>
           </cell>
           <cell r="C4">
-            <v>3.5888588345282515</v>
+            <v>4.4860735431603143</v>
           </cell>
           <cell r="D4">
-            <v>3.3707096380554806</v>
+            <v>4.2133870475693511</v>
           </cell>
           <cell r="E4">
-            <v>3.5454973989413912</v>
+            <v>4.4318717486767394</v>
           </cell>
           <cell r="F4">
-            <v>3.4385039475945587</v>
+            <v>4.2981299344931987</v>
           </cell>
           <cell r="G4">
-            <v>3.9314461138755319</v>
+            <v>4.914307642344415</v>
           </cell>
           <cell r="H4">
-            <v>6.5436601317201735</v>
+            <v>8.1795751646502168</v>
           </cell>
           <cell r="I4">
-            <v>7.5961905194892241</v>
+            <v>9.4952381493615299</v>
           </cell>
           <cell r="J4">
-            <v>7.7775229923909128</v>
+            <v>9.7219037404886404</v>
           </cell>
           <cell r="K4">
-            <v>7.6085744991284443</v>
+            <v>9.5107181239105554</v>
           </cell>
           <cell r="L4">
-            <v>7.4029522728296113</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>7.7177009453695895</v>
+            <v>9.647126181711986</v>
           </cell>
           <cell r="N4">
-            <v>7.1546881102757922</v>
+            <v>8.9433601378447403</v>
           </cell>
           <cell r="O4">
-            <v>6.9515329298262198</v>
+            <v>8.6894161622827752</v>
           </cell>
           <cell r="P4">
-            <v>6.0122943075844288</v>
+            <v>7.5153678844805363</v>
           </cell>
           <cell r="Q4">
-            <v>6.0473361065217084</v>
+            <v>7.5591701331521355</v>
           </cell>
           <cell r="R4">
-            <v>6.114161450818643</v>
+            <v>7.6427018135233036</v>
           </cell>
           <cell r="S4">
-            <v>6.8055733076613141</v>
+            <v>8.5069666345766422</v>
           </cell>
           <cell r="T4">
-            <v>6.0343892430021038</v>
+            <v>7.5429865537526295</v>
           </cell>
           <cell r="U4">
-            <v>6.3987840925165758</v>
+            <v>7.9984801156457195</v>
           </cell>
           <cell r="V4">
-            <v>6.1507398546117633</v>
+            <v>7.6884248182647044</v>
           </cell>
           <cell r="W4">
-            <v>5.7258096058978865</v>
+            <v>7.1572620073723581</v>
           </cell>
           <cell r="X4">
-            <v>4.756579258915842</v>
+            <v>5.9457240736448025</v>
           </cell>
           <cell r="Y4">
-            <v>4.3664983830709447</v>
+            <v>5.4581229788386807</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>9.0172490823228699</v>
+            <v>15.028748470538119</v>
           </cell>
           <cell r="C2">
-            <v>8.7688388467678617</v>
+            <v>14.614731411279768</v>
           </cell>
           <cell r="D2">
-            <v>8.7127579906952732</v>
+            <v>14.521263317825454</v>
           </cell>
           <cell r="E2">
-            <v>8.9757273886215181</v>
+            <v>14.95954564770253</v>
           </cell>
           <cell r="F2">
-            <v>8.3803954448897109</v>
+            <v>13.967325741482849</v>
           </cell>
           <cell r="G2">
-            <v>8.3915570943620814</v>
+            <v>13.985928490603467</v>
           </cell>
           <cell r="H2">
-            <v>8.6418480759469105</v>
+            <v>14.403080126578182</v>
           </cell>
           <cell r="I2">
-            <v>11.217088862648705</v>
+            <v>18.695148104414507</v>
           </cell>
           <cell r="J2">
-            <v>11.670177050472562</v>
+            <v>19.450295084120938</v>
           </cell>
           <cell r="K2">
-            <v>11.445515703403224</v>
+            <v>19.075859505672042</v>
           </cell>
           <cell r="L2">
-            <v>11.523744491530451</v>
+            <v>19.20624081921742</v>
           </cell>
           <cell r="M2">
-            <v>11.650564124425578</v>
+            <v>19.41760687404263</v>
           </cell>
           <cell r="N2">
-            <v>11.182818856773084</v>
+            <v>18.638031427955141</v>
           </cell>
           <cell r="O2">
-            <v>11.433221774843492</v>
+            <v>19.055369624739154</v>
           </cell>
           <cell r="P2">
-            <v>9.9458388398858357</v>
+            <v>16.576398066476393</v>
           </cell>
           <cell r="Q2">
-            <v>10.700163795619545</v>
+            <v>17.833606326032573</v>
           </cell>
           <cell r="R2">
-            <v>11.405113474308344</v>
+            <v>19.008522457180575</v>
           </cell>
           <cell r="S2">
-            <v>11.231390904339921</v>
+            <v>18.718984840566538</v>
           </cell>
           <cell r="T2">
-            <v>10.546127700995754</v>
+            <v>17.57687950165959</v>
           </cell>
           <cell r="U2">
-            <v>9.9555336952529778</v>
+            <v>16.592556158754963</v>
           </cell>
           <cell r="V2">
-            <v>9.9860706316293353</v>
+            <v>16.643451052715559</v>
           </cell>
           <cell r="W2">
-            <v>9.8314271250439162</v>
+            <v>16.385711875073191</v>
           </cell>
           <cell r="X2">
-            <v>8.5310444644779171</v>
+            <v>14.218407440796527</v>
           </cell>
           <cell r="Y2">
-            <v>8.4313837423967648</v>
+            <v>14.052306237327944</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>5.4910974776327492</v>
+            <v>8.2366462164491239</v>
           </cell>
           <cell r="C3">
-            <v>5.496480766616676</v>
+            <v>8.244721149925013</v>
           </cell>
           <cell r="D3">
-            <v>5.0566192677968544</v>
+            <v>7.5849289016952817</v>
           </cell>
           <cell r="E3">
-            <v>5.1170912450240493</v>
+            <v>7.675636867536074</v>
           </cell>
           <cell r="F3">
-            <v>5.1168237474609359</v>
+            <v>7.6752356211914039</v>
           </cell>
           <cell r="G3">
-            <v>5.5736655985720347</v>
+            <v>8.360498397858052</v>
           </cell>
           <cell r="H3">
-            <v>6.785872368586908</v>
+            <v>10.178808552880362</v>
           </cell>
           <cell r="I3">
-            <v>7.7669044784245855</v>
+            <v>11.650356717636878</v>
           </cell>
           <cell r="J3">
-            <v>8.2748114390130816</v>
+            <v>12.412217158519624</v>
           </cell>
           <cell r="K3">
-            <v>8.8726886240941738</v>
+            <v>13.309032936141261</v>
           </cell>
           <cell r="L3">
-            <v>8.5930986911451726</v>
+            <v>12.889648036717761</v>
           </cell>
           <cell r="M3">
-            <v>8.6426610438545808</v>
+            <v>12.963991565781871</v>
           </cell>
           <cell r="N3">
-            <v>8.0025181010764541</v>
+            <v>12.003777151614681</v>
           </cell>
           <cell r="O3">
-            <v>7.76576051781801</v>
+            <v>11.648640776727015</v>
           </cell>
           <cell r="P3">
-            <v>7.0880549737722944</v>
+            <v>10.632082460658442</v>
           </cell>
           <cell r="Q3">
-            <v>7.3080533756041461</v>
+            <v>10.962080063406219</v>
           </cell>
           <cell r="R3">
-            <v>8.1290802404359752</v>
+            <v>12.193620360653963</v>
           </cell>
           <cell r="S3">
-            <v>10.016585137168001</v>
+            <v>15.024877705752003</v>
           </cell>
           <cell r="T3">
-            <v>9.4457863973530269</v>
+            <v>14.168679596029541</v>
           </cell>
           <cell r="U3">
-            <v>8.8996408177827639</v>
+            <v>13.349461226674146</v>
           </cell>
           <cell r="V3">
-            <v>8.3738565067783366</v>
+            <v>12.560784760167504</v>
           </cell>
           <cell r="W3">
-            <v>7.8097845075531671</v>
+            <v>11.71467676132975</v>
           </cell>
           <cell r="X3">
-            <v>7.2919234126609753</v>
+            <v>10.937885118991463</v>
           </cell>
           <cell r="Y3">
-            <v>6.450038011570804</v>
+            <v>9.675057017356206</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>3.7421331532932722</v>
+            <v>4.6776664416165907</v>
           </cell>
           <cell r="C4">
-            <v>3.4481192723898886</v>
+            <v>4.3101490904873607</v>
           </cell>
           <cell r="D4">
-            <v>3.3707096380554806</v>
+            <v>4.2133870475693511</v>
           </cell>
           <cell r="E4">
-            <v>3.5107376205203975</v>
+            <v>4.3884220256504971</v>
           </cell>
           <cell r="F4">
-            <v>3.5437642725209226</v>
+            <v>4.4297053406511537</v>
           </cell>
           <cell r="G4">
-            <v>3.9314461138755319</v>
+            <v>4.914307642344415</v>
           </cell>
           <cell r="H4">
-            <v>6.349293989193832</v>
+            <v>7.93661748649229</v>
           </cell>
           <cell r="I4">
-            <v>7.5961905194892241</v>
+            <v>9.4952381493615299</v>
           </cell>
           <cell r="J4">
-            <v>7.8568854719051053</v>
+            <v>9.8211068398813808</v>
           </cell>
           <cell r="K4">
-            <v>7.5317202112584605</v>
+            <v>9.4146502640730763</v>
           </cell>
           <cell r="L4">
-            <v>7.4029522728296113</v>
+            <v>9.2536903410370144</v>
           </cell>
           <cell r="M4">
-            <v>7.7177009453695895</v>
+            <v>9.647126181711986</v>
           </cell>
           <cell r="N4">
-            <v>7.1546881102757922</v>
+            <v>8.9433601378447403</v>
           </cell>
           <cell r="O4">
-            <v>7.0210482591244814</v>
+            <v>8.7763103239056015</v>
           </cell>
           <cell r="P4">
-            <v>6.0724172506602736</v>
+            <v>7.5905215633253418</v>
           </cell>
           <cell r="Q4">
-            <v>6.1072107214377649</v>
+            <v>7.6340134017972066</v>
           </cell>
           <cell r="R4">
-            <v>6.114161450818643</v>
+            <v>7.6427018135233036</v>
           </cell>
           <cell r="S4">
-            <v>6.6034275658495911</v>
+            <v>8.2542844573119893</v>
           </cell>
           <cell r="T4">
-            <v>6.2806908447572916</v>
+            <v>7.8508635559466144</v>
           </cell>
           <cell r="U4">
-            <v>6.5267597743669068</v>
+            <v>8.1584497179586339</v>
           </cell>
           <cell r="V4">
-            <v>6.2128685400118817</v>
+            <v>7.7660856750148524</v>
           </cell>
           <cell r="W4">
-            <v>5.9010894917927192</v>
+            <v>7.3763618647408986</v>
           </cell>
           <cell r="X4">
-            <v>4.756579258915842</v>
+            <v>5.9457240736448025</v>
           </cell>
           <cell r="Y4">
-            <v>4.2808807677166127</v>
+            <v>5.3511009596457662</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>2.8734134384699956</v>
+            <v>4.789022397449993</v>
           </cell>
           <cell r="C2">
-            <v>2.0301151429678654</v>
+            <v>3.3835252382797751</v>
           </cell>
           <cell r="D2">
-            <v>1.7598912299984515</v>
+            <v>2.9331520499974189</v>
           </cell>
           <cell r="E2">
-            <v>2.2558752243157665</v>
+            <v>3.7597920405262775</v>
           </cell>
           <cell r="F2">
-            <v>1.9423751896193913</v>
+            <v>3.2372919826989852</v>
           </cell>
           <cell r="G2">
-            <v>1.5969638905882575</v>
+            <v>2.6616064843137628</v>
           </cell>
           <cell r="H2">
-            <v>1.3213256339665773</v>
+            <v>2.2022093899442958</v>
           </cell>
           <cell r="I2">
-            <v>4.6174178308373399</v>
+            <v>7.6956963847288993</v>
           </cell>
           <cell r="J2">
-            <v>4.8288537787656587</v>
+            <v>8.048089631276099</v>
           </cell>
           <cell r="K2">
-            <v>4.1417317285414885</v>
+            <v>6.9028862142358154</v>
           </cell>
           <cell r="L2">
-            <v>4.8254181539864991</v>
+            <v>8.0423635899774997</v>
           </cell>
           <cell r="M2">
-            <v>4.4837728644267356</v>
+            <v>7.4729547740445588</v>
           </cell>
           <cell r="N2">
-            <v>4.503527407800223</v>
+            <v>7.5058790130003716</v>
           </cell>
           <cell r="O2">
-            <v>4.0214783663830067</v>
+            <v>6.7024639439716784</v>
           </cell>
           <cell r="P2">
-            <v>2.3863631624543515</v>
+            <v>3.9772719374239198</v>
           </cell>
           <cell r="Q2">
-            <v>3.7363117673809185</v>
+            <v>6.2271862789681975</v>
           </cell>
           <cell r="R2">
-            <v>4.4811297868890536</v>
+            <v>7.4685496448150888</v>
           </cell>
           <cell r="S2">
-            <v>4.1811748409008835</v>
+            <v>6.9686247348348065</v>
           </cell>
           <cell r="T2">
-            <v>2.9222286740640779</v>
+            <v>4.8703811234401293</v>
           </cell>
           <cell r="U2">
-            <v>3.0316386499612067</v>
+            <v>5.0527310832686778</v>
           </cell>
           <cell r="V2">
-            <v>2.8237065231349616</v>
+            <v>4.7061775385582694</v>
           </cell>
           <cell r="W2">
-            <v>1.751567860240951</v>
+            <v>2.919279767068252</v>
           </cell>
           <cell r="X2">
-            <v>1.3972365163563496</v>
+            <v>2.3287275272605825</v>
           </cell>
           <cell r="Y2">
-            <v>1.4481754093744934</v>
+            <v>2.4136256822908222</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-4.5353164707022682</v>
+            <v>-6.8029747060534023</v>
           </cell>
           <cell r="C3">
-            <v>-4.5343165604239477</v>
+            <v>-6.8014748406359216</v>
           </cell>
           <cell r="D3">
-            <v>-4.6594319104339821</v>
+            <v>-6.9891478656509731</v>
           </cell>
           <cell r="E3">
-            <v>-4.8728807757430044</v>
+            <v>-7.3093211636145075</v>
           </cell>
           <cell r="F3">
-            <v>-4.8260858755376539</v>
+            <v>-7.2391288133064808</v>
           </cell>
           <cell r="G3">
-            <v>-4.4292187836118488</v>
+            <v>-6.6438281754177728</v>
           </cell>
           <cell r="H3">
-            <v>-2.8084732216820902</v>
+            <v>-4.2127098325231351</v>
           </cell>
           <cell r="I3">
-            <v>-0.53986912525686881</v>
+            <v>-0.80980368788530321</v>
           </cell>
           <cell r="J3">
-            <v>-0.58015785250260421</v>
+            <v>-0.87023677875390626</v>
           </cell>
           <cell r="K3">
-            <v>-0.38447451021511947</v>
+            <v>-0.5767117653226792</v>
           </cell>
           <cell r="L3">
-            <v>-0.33868267315833644</v>
+            <v>-0.50802400973750461</v>
           </cell>
           <cell r="M3">
-            <v>-1.5115188763242504</v>
+            <v>-2.2672783144863757</v>
           </cell>
           <cell r="N3">
-            <v>-2.2081667266612834</v>
+            <v>-3.3122500899919252</v>
           </cell>
           <cell r="O3">
-            <v>-2.8625228763256914</v>
+            <v>-4.293784314488537</v>
           </cell>
           <cell r="P3">
-            <v>-2.8410022848400267</v>
+            <v>-4.2615034272600401</v>
           </cell>
           <cell r="Q3">
-            <v>-2.8890470728932787</v>
+            <v>-4.333570609339918</v>
           </cell>
           <cell r="R3">
-            <v>-2.2714759108101652</v>
+            <v>-3.407213866215248</v>
           </cell>
           <cell r="S3">
-            <v>0.74656949700729547</v>
+            <v>1.1198542455109433</v>
           </cell>
           <cell r="T3">
-            <v>-0.10521758588148307</v>
+            <v>-0.15782637882222461</v>
           </cell>
           <cell r="U3">
-            <v>-1.2420200854049492</v>
+            <v>-1.863030128107424</v>
           </cell>
           <cell r="V3">
-            <v>-2.3022551309810395</v>
+            <v>-3.4533826964715595</v>
           </cell>
           <cell r="W3">
-            <v>-3.0284251070804813</v>
+            <v>-4.5426376606207217</v>
           </cell>
           <cell r="X3">
-            <v>-3.3214438596320548</v>
+            <v>-4.9821657894480822</v>
           </cell>
           <cell r="Y3">
-            <v>-3.8028943529031083</v>
+            <v>-5.7043415293546627</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-3.4699076508527567</v>
+            <v>-4.337384563565946</v>
           </cell>
           <cell r="C4">
-            <v>-3.7440404257534916</v>
+            <v>-4.6800505321918644</v>
           </cell>
           <cell r="D4">
-            <v>-3.812714357642641</v>
+            <v>-4.7658929470533016</v>
           </cell>
           <cell r="E4">
-            <v>-3.761725537209514</v>
+            <v>-4.7021569215118921</v>
           </cell>
           <cell r="F4">
-            <v>-3.764854264732338</v>
+            <v>-4.7060678309154227</v>
           </cell>
           <cell r="G4">
-            <v>-3.1438144999088928</v>
+            <v>-3.9297681248861158</v>
           </cell>
           <cell r="H4">
-            <v>-0.11706628728999549</v>
+            <v>-0.14633285911249436</v>
           </cell>
           <cell r="I4">
-            <v>1.6208452225621253</v>
+            <v>2.0260565282026564</v>
           </cell>
           <cell r="J4">
-            <v>2.0657975314577399</v>
+            <v>2.5822469143221749</v>
           </cell>
           <cell r="K4">
-            <v>1.4390832963189393</v>
+            <v>1.7988541203986741</v>
           </cell>
           <cell r="L4">
-            <v>0.84966788489929568</v>
+            <v>1.0620848561241196</v>
           </cell>
           <cell r="M4">
-            <v>1.6853523545584721</v>
+            <v>2.1066904431980902</v>
           </cell>
           <cell r="N4">
-            <v>1.0626988520465652</v>
+            <v>1.3283735650582065</v>
           </cell>
           <cell r="O4">
-            <v>0.32241559594586761</v>
+            <v>0.40301949493233452</v>
           </cell>
           <cell r="P4">
-            <v>-1.2755515850956742</v>
+            <v>-1.5944394813695928</v>
           </cell>
           <cell r="Q4">
-            <v>-1.2760943772663691</v>
+            <v>-1.5951179715829613</v>
           </cell>
           <cell r="R4">
-            <v>-1.0511937639638647</v>
+            <v>-1.3139922049548307</v>
           </cell>
           <cell r="S4">
-            <v>-0.53030602460786247</v>
+            <v>-0.66288253075982806</v>
           </cell>
           <cell r="T4">
-            <v>-1.2924938404581385</v>
+            <v>-1.6156173005726733</v>
           </cell>
           <cell r="U4">
-            <v>-0.7364269533616068</v>
+            <v>-0.92053369170200849</v>
           </cell>
           <cell r="V4">
-            <v>-1.0110749121253249</v>
+            <v>-1.2638436401566562</v>
           </cell>
           <cell r="W4">
-            <v>-1.6769847259284769</v>
+            <v>-2.0962309074105963</v>
           </cell>
           <cell r="X4">
-            <v>-2.6494045401669415</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-2.9907487771124819</v>
+            <v>-3.7384359713906026</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>2.9021475728546955</v>
+            <v>4.8369126214244931</v>
           </cell>
           <cell r="C2">
-            <v>1.9895128401085078</v>
+            <v>3.3158547335141799</v>
           </cell>
           <cell r="D2">
-            <v>1.7774901422984359</v>
+            <v>2.9624835704973935</v>
           </cell>
           <cell r="E2">
-            <v>2.2558752243157665</v>
+            <v>3.7597920405262775</v>
           </cell>
           <cell r="F2">
-            <v>1.961798941515585</v>
+            <v>3.269664902525975</v>
           </cell>
           <cell r="G2">
-            <v>1.5969638905882575</v>
+            <v>2.6616064843137628</v>
           </cell>
           <cell r="H2">
-            <v>1.3213256339665773</v>
+            <v>2.2022093899442958</v>
           </cell>
           <cell r="I2">
-            <v>4.6635920091457139</v>
+            <v>7.7726533485761893</v>
           </cell>
           <cell r="J2">
-            <v>4.8288537787656587</v>
+            <v>8.048089631276099</v>
           </cell>
           <cell r="K2">
-            <v>4.0588970939706588</v>
+            <v>6.764828489951098</v>
           </cell>
           <cell r="L2">
-            <v>4.8254181539864991</v>
+            <v>8.0423635899774997</v>
           </cell>
           <cell r="M2">
-            <v>4.5734483217152695</v>
+            <v>7.6224138695254497</v>
           </cell>
           <cell r="N2">
-            <v>4.5485626818782254</v>
+            <v>7.5809378031303751</v>
           </cell>
           <cell r="O2">
-            <v>4.0616931500468372</v>
+            <v>6.7694885834113947</v>
           </cell>
           <cell r="P2">
-            <v>2.3386358992052649</v>
+            <v>3.897726498675441</v>
           </cell>
           <cell r="Q2">
-            <v>3.69894864970711</v>
+            <v>6.1649144161785161</v>
           </cell>
           <cell r="R2">
-            <v>4.4811297868890536</v>
+            <v>7.4685496448150888</v>
           </cell>
           <cell r="S2">
-            <v>4.1811748409008835</v>
+            <v>6.9686247348348065</v>
           </cell>
           <cell r="T2">
-            <v>2.9222286740640779</v>
+            <v>4.8703811234401293</v>
           </cell>
           <cell r="U2">
-            <v>3.0619550364608186</v>
+            <v>5.1032583941013643</v>
           </cell>
           <cell r="V2">
-            <v>2.7672323926722622</v>
+            <v>4.6120539877871032</v>
           </cell>
           <cell r="W2">
-            <v>1.751567860240951</v>
+            <v>2.919279767068252</v>
           </cell>
           <cell r="X2">
-            <v>1.4251812466834763</v>
+            <v>2.3753020778057938</v>
           </cell>
           <cell r="Y2">
-            <v>1.4771389175619833</v>
+            <v>2.4618981959366386</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-4.6260228001163135</v>
+            <v>-6.9390342001744703</v>
           </cell>
           <cell r="C3">
-            <v>-4.4436302292154686</v>
+            <v>-6.6654453438232029</v>
           </cell>
           <cell r="D3">
-            <v>-4.6594319104339812</v>
+            <v>-6.9891478656509722</v>
           </cell>
           <cell r="E3">
-            <v>-4.7754231602281454</v>
+            <v>-7.1631347403422172</v>
           </cell>
           <cell r="F3">
-            <v>-4.8260858755376539</v>
+            <v>-7.2391288133064808</v>
           </cell>
           <cell r="G3">
-            <v>-4.4292187836118488</v>
+            <v>-6.6438281754177728</v>
           </cell>
           <cell r="H3">
-            <v>-2.8084732216820902</v>
+            <v>-4.2127098325231351</v>
           </cell>
           <cell r="I3">
-            <v>-0.52907174275173152</v>
+            <v>-0.79360761412759728</v>
           </cell>
           <cell r="J3">
-            <v>-0.57435627397757805</v>
+            <v>-0.86153441096636718</v>
           </cell>
           <cell r="K3">
-            <v>-0.39216400041942184</v>
+            <v>-0.58824600062913279</v>
           </cell>
           <cell r="L3">
-            <v>-0.33190901969516973</v>
+            <v>-0.49786352954275465</v>
           </cell>
           <cell r="M3">
-            <v>-1.526634065087493</v>
+            <v>-2.2899510976312394</v>
           </cell>
           <cell r="N3">
-            <v>-2.2302483939278961</v>
+            <v>-3.3453725908918441</v>
           </cell>
           <cell r="O3">
-            <v>-2.805272418799178</v>
+            <v>-4.2079086281987665</v>
           </cell>
           <cell r="P3">
-            <v>-2.8410022848400267</v>
+            <v>-4.2615034272600401</v>
           </cell>
           <cell r="Q3">
-            <v>-2.9468280143511443</v>
+            <v>-4.4202420215267164</v>
           </cell>
           <cell r="R3">
-            <v>-2.226046392593962</v>
+            <v>-3.3390695888909434</v>
           </cell>
           <cell r="S3">
-            <v>0.75403519197736846</v>
+            <v>1.1310527879660526</v>
           </cell>
           <cell r="T3">
-            <v>-0.10416541002266824</v>
+            <v>-0.15624811503400235</v>
           </cell>
           <cell r="U3">
-            <v>-1.2420200854049495</v>
+            <v>-1.8630301281074242</v>
           </cell>
           <cell r="V3">
-            <v>-2.3252776822908503</v>
+            <v>-3.4879165234362755</v>
           </cell>
           <cell r="W3">
-            <v>-2.9981408560096763</v>
+            <v>-4.4972112840145142</v>
           </cell>
           <cell r="X3">
-            <v>-3.2550149824394143</v>
+            <v>-4.8825224736591215</v>
           </cell>
           <cell r="Y3">
-            <v>-3.8409232964321398</v>
+            <v>-5.7613849446482099</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-3.504606727361284</v>
+            <v>-4.3807584092016052</v>
           </cell>
           <cell r="C4">
-            <v>-3.7440404257534912</v>
+            <v>-4.6800505321918635</v>
           </cell>
           <cell r="D4">
-            <v>-3.8508415012190675</v>
+            <v>-4.8135518765238343</v>
           </cell>
           <cell r="E4">
-            <v>-3.7993427925816095</v>
+            <v>-4.7491784907270116</v>
           </cell>
           <cell r="F4">
-            <v>-3.8025028073796614</v>
+            <v>-4.7531285092245765</v>
           </cell>
           <cell r="G4">
-            <v>-3.2066907899070709</v>
+            <v>-4.0083634873838383</v>
           </cell>
           <cell r="H4">
-            <v>-0.11823695016289544</v>
+            <v>-0.1477961877036193</v>
           </cell>
           <cell r="I4">
-            <v>1.6532621270133676</v>
+            <v>2.0665776587667093</v>
           </cell>
           <cell r="J4">
-            <v>2.0864555067723174</v>
+            <v>2.6080693834653967</v>
           </cell>
           <cell r="K4">
-            <v>1.4103016303925606</v>
+            <v>1.7628770379907008</v>
           </cell>
           <cell r="L4">
-            <v>0.86666124259728161</v>
+            <v>1.0833265532466021</v>
           </cell>
           <cell r="M4">
-            <v>1.6684988310128872</v>
+            <v>2.0856235387661091</v>
           </cell>
           <cell r="N4">
-            <v>1.0839528290874965</v>
+            <v>1.3549410363593706</v>
           </cell>
           <cell r="O4">
-            <v>0.32886390786478492</v>
+            <v>0.41107988483098112</v>
           </cell>
           <cell r="P4">
-            <v>-1.2883071009466309</v>
+            <v>-1.6103838761832887</v>
           </cell>
           <cell r="Q4">
-            <v>-1.3016162648116962</v>
+            <v>-1.6270203310146203</v>
           </cell>
           <cell r="R4">
-            <v>-1.072217639243142</v>
+            <v>-1.3402720490539275</v>
           </cell>
           <cell r="S4">
-            <v>-0.51969990411570521</v>
+            <v>-0.64962488014463149</v>
           </cell>
           <cell r="T4">
-            <v>-1.2924938404581385</v>
+            <v>-1.6156173005726733</v>
           </cell>
           <cell r="U4">
-            <v>-0.72169841429437465</v>
+            <v>-0.90212301786796834</v>
           </cell>
           <cell r="V4">
-            <v>-1.0110749121253249</v>
+            <v>-1.2638436401566562</v>
           </cell>
           <cell r="W4">
-            <v>-1.6434450314099072</v>
+            <v>-2.0543062892623838</v>
           </cell>
           <cell r="X4">
-            <v>-2.6494045401669415</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-2.930933801570232</v>
+            <v>-3.66366725196279</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>2.9021475728546955</v>
+            <v>4.8369126214244931</v>
           </cell>
           <cell r="C2">
-            <v>2.0707174458272224</v>
+            <v>3.4511957430453704</v>
           </cell>
           <cell r="D2">
-            <v>1.7246934053984824</v>
+            <v>2.8744890089974708</v>
           </cell>
           <cell r="E2">
-            <v>2.2107577198294512</v>
+            <v>3.6845961997157515</v>
           </cell>
           <cell r="F2">
-            <v>1.9812226934117794</v>
+            <v>3.3020378223529656</v>
           </cell>
           <cell r="G2">
-            <v>1.5650246127764924</v>
+            <v>2.6083743546274873</v>
           </cell>
           <cell r="H2">
-            <v>1.347752146645909</v>
+            <v>2.2462535777431816</v>
           </cell>
           <cell r="I2">
-            <v>4.5250694742205928</v>
+            <v>7.5417824570343219</v>
           </cell>
           <cell r="J2">
-            <v>4.8771423165533152</v>
+            <v>8.1285705275888596</v>
           </cell>
           <cell r="K2">
-            <v>4.1831490458269034</v>
+            <v>6.9719150763781723</v>
           </cell>
           <cell r="L2">
-            <v>4.8736723355263649</v>
+            <v>8.1227872258772749</v>
           </cell>
           <cell r="M2">
-            <v>4.5286105930710026</v>
+            <v>7.5476843217850043</v>
           </cell>
           <cell r="N2">
-            <v>4.413456859644219</v>
+            <v>7.3557614327403638</v>
           </cell>
           <cell r="O2">
-            <v>3.9812635827191771</v>
+            <v>6.6354393045319613</v>
           </cell>
           <cell r="P2">
-            <v>2.4102267940788953</v>
+            <v>4.0170446567981593</v>
           </cell>
           <cell r="Q2">
-            <v>3.7363117673809185</v>
+            <v>6.2271862789681975</v>
           </cell>
           <cell r="R2">
-            <v>4.5259410847579442</v>
+            <v>7.5432351412632404</v>
           </cell>
           <cell r="S2">
-            <v>4.2229865893098921</v>
+            <v>7.0383109821831535</v>
           </cell>
           <cell r="T2">
-            <v>2.8930063873234371</v>
+            <v>4.8216773122057281</v>
           </cell>
           <cell r="U2">
-            <v>3.0922714229604313</v>
+            <v>5.1537857049340516</v>
           </cell>
           <cell r="V2">
-            <v>2.8237065231349616</v>
+            <v>4.7061775385582694</v>
           </cell>
           <cell r="W2">
-            <v>1.7340521816385417</v>
+            <v>2.8900869693975695</v>
           </cell>
           <cell r="X2">
-            <v>1.3692917860292226</v>
+            <v>2.2821529767153708</v>
           </cell>
           <cell r="Y2">
-            <v>1.4626571634682384</v>
+            <v>2.4377619391137308</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-4.5806696354092908</v>
+            <v>-6.8710044531139358</v>
           </cell>
           <cell r="C3">
-            <v>-4.5343165604239468</v>
+            <v>-6.8014748406359207</v>
           </cell>
           <cell r="D3">
-            <v>-4.6594319104339812</v>
+            <v>-6.9891478656509722</v>
           </cell>
           <cell r="E3">
-            <v>-4.9216095835004348</v>
+            <v>-7.3824143752506526</v>
           </cell>
           <cell r="F3">
-            <v>-4.922607593048407</v>
+            <v>-7.3839113895726101</v>
           </cell>
           <cell r="G3">
-            <v>-4.4735109714479666</v>
+            <v>-6.7102664571719508</v>
           </cell>
           <cell r="H3">
-            <v>-2.8646426861157321</v>
+            <v>-4.2969640291735978</v>
           </cell>
           <cell r="I3">
-            <v>-0.53447043400430005</v>
+            <v>-0.80170565100645008</v>
           </cell>
           <cell r="J3">
-            <v>-0.58015785250260421</v>
+            <v>-0.87023677875390626</v>
           </cell>
           <cell r="K3">
-            <v>-0.37678502001081704</v>
+            <v>-0.56517753001622562</v>
           </cell>
           <cell r="L3">
-            <v>-0.33190901969516973</v>
+            <v>-0.49786352954275465</v>
           </cell>
           <cell r="M3">
-            <v>-1.5115188763242504</v>
+            <v>-2.2672783144863757</v>
           </cell>
           <cell r="N3">
-            <v>-2.1860850593946703</v>
+            <v>-3.2791275890920057</v>
           </cell>
           <cell r="O3">
-            <v>-2.8911481050889485</v>
+            <v>-4.3367221576334227</v>
           </cell>
           <cell r="P3">
-            <v>-2.8978223305368274</v>
+            <v>-4.3467334958052408</v>
           </cell>
           <cell r="Q3">
-            <v>-2.9468280143511443</v>
+            <v>-4.4202420215267164</v>
           </cell>
           <cell r="R3">
-            <v>-2.226046392593962</v>
+            <v>-3.3390695888909434</v>
           </cell>
           <cell r="S3">
-            <v>0.73163810706714949</v>
+            <v>1.0974571606007242</v>
           </cell>
           <cell r="T3">
-            <v>-0.10416541002266824</v>
+            <v>-0.15624811503400235</v>
           </cell>
           <cell r="U3">
-            <v>-1.2668604871130484</v>
+            <v>-1.9002907306695727</v>
           </cell>
           <cell r="V3">
-            <v>-2.2792325796712292</v>
+            <v>-3.4188488695068435</v>
           </cell>
           <cell r="W3">
-            <v>-3.0587093581512859</v>
+            <v>-4.5880640372269283</v>
           </cell>
           <cell r="X3">
-            <v>-3.3878727368246961</v>
+            <v>-5.0818091052370447</v>
           </cell>
           <cell r="Y3">
-            <v>-3.8028943529031083</v>
+            <v>-5.7043415293546627</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-3.504606727361284</v>
+            <v>-4.3807584092016052</v>
           </cell>
           <cell r="C4">
-            <v>-3.7440404257534912</v>
+            <v>-4.6800505321918635</v>
           </cell>
           <cell r="D4">
-            <v>-3.8508415012190675</v>
+            <v>-4.8135518765238343</v>
           </cell>
           <cell r="E4">
-            <v>-3.761725537209514</v>
+            <v>-4.7021569215118921</v>
           </cell>
           <cell r="F4">
-            <v>-3.6895571794376911</v>
+            <v>-4.6119464742971141</v>
           </cell>
           <cell r="G4">
-            <v>-3.1438144999088928</v>
+            <v>-3.9297681248861158</v>
           </cell>
           <cell r="H4">
-            <v>-0.11823695016289544</v>
+            <v>-0.1477961877036193</v>
           </cell>
           <cell r="I4">
-            <v>1.6046367703365041</v>
+            <v>2.0057959629206303</v>
           </cell>
           <cell r="J4">
-            <v>2.0657975314577399</v>
+            <v>2.5822469143221749</v>
           </cell>
           <cell r="K4">
-            <v>1.4678649622453182</v>
+            <v>1.8348312028066478</v>
           </cell>
           <cell r="L4">
-            <v>0.83267452720130974</v>
+            <v>1.0408431590016372</v>
           </cell>
           <cell r="M4">
-            <v>1.6684988310128872</v>
+            <v>2.0856235387661091</v>
           </cell>
           <cell r="N4">
-            <v>1.0520718635260995</v>
+            <v>1.3150898294076243</v>
           </cell>
           <cell r="O4">
-            <v>0.32241559594586761</v>
+            <v>0.40301949493233452</v>
           </cell>
           <cell r="P4">
-            <v>-1.2883071009466309</v>
+            <v>-1.6103838761832887</v>
           </cell>
           <cell r="Q4">
-            <v>-1.2633334334937054</v>
+            <v>-1.5791667918671317</v>
           </cell>
           <cell r="R4">
-            <v>-1.0406818263242261</v>
+            <v>-1.3008522829052827</v>
           </cell>
           <cell r="S4">
-            <v>-0.54091214510001973</v>
+            <v>-0.67614018137502463</v>
           </cell>
           <cell r="T4">
-            <v>-1.3183437172673012</v>
+            <v>-1.6479296465841264</v>
           </cell>
           <cell r="U4">
-            <v>-0.72169841429437465</v>
+            <v>-0.90212301786796834</v>
           </cell>
           <cell r="V4">
-            <v>-0.99085341388281833</v>
+            <v>-1.238566767353523</v>
           </cell>
           <cell r="W4">
-            <v>-1.6602148786691922</v>
+            <v>-2.07526859833649</v>
           </cell>
           <cell r="X4">
-            <v>-2.6494045401669415</v>
+            <v>-3.3117556752086768</v>
           </cell>
           <cell r="Y4">
-            <v>-2.9907487771124819</v>
+            <v>-3.7384359713906026</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>9.3000000000000007</v>
+            <v>15.500000000000004</v>
           </cell>
           <cell r="C2">
-            <v>9.2093023255813975</v>
+            <v>15.348837209302328</v>
           </cell>
           <cell r="D2">
-            <v>8.8709302325581394</v>
+            <v>14.784883720930234</v>
           </cell>
           <cell r="E2">
-            <v>8.7104651162790709</v>
+            <v>14.517441860465116</v>
           </cell>
           <cell r="F2">
-            <v>8.6476744186046517</v>
+            <v>14.412790697674417</v>
           </cell>
           <cell r="G2">
-            <v>8.7767441860465123</v>
+            <v>14.627906976744187</v>
           </cell>
           <cell r="H2">
-            <v>8.7000000000000011</v>
+            <v>14.500000000000002</v>
           </cell>
           <cell r="I2">
-            <v>10.63953488372093</v>
+            <v>17.732558139534884</v>
           </cell>
           <cell r="J2">
-            <v>11.445348837209304</v>
+            <v>19.075581395348841</v>
           </cell>
           <cell r="K2">
-            <v>11.295348837209302</v>
+            <v>18.825581395348834</v>
           </cell>
           <cell r="L2">
-            <v>11.110465116279071</v>
+            <v>18.517441860465119</v>
           </cell>
           <cell r="M2">
-            <v>11.246511627906978</v>
+            <v>18.744186046511629</v>
           </cell>
           <cell r="N2">
-            <v>11.661627906976747</v>
+            <v>19.436046511627911</v>
           </cell>
           <cell r="O2">
-            <v>11.441860465116278</v>
+            <v>19.069767441860463</v>
           </cell>
           <cell r="P2">
-            <v>10.552325581395349</v>
+            <v>17.587209302325583</v>
           </cell>
           <cell r="Q2">
-            <v>10.876744186046512</v>
+            <v>18.127906976744185</v>
           </cell>
           <cell r="R2">
-            <v>11.002325581395349</v>
+            <v>18.337209302325583</v>
           </cell>
           <cell r="S2">
-            <v>10.63953488372093</v>
+            <v>17.732558139534884</v>
           </cell>
           <cell r="T2">
-            <v>10.102325581395348</v>
+            <v>16.837209302325583</v>
           </cell>
           <cell r="U2">
-            <v>9.9732558139534895</v>
+            <v>16.622093023255815</v>
           </cell>
           <cell r="V2">
-            <v>9.9418604651162799</v>
+            <v>16.569767441860467</v>
           </cell>
           <cell r="W2">
-            <v>9.8302325581395351</v>
+            <v>16.38372093023256</v>
           </cell>
           <cell r="X2">
-            <v>9.083720930232559</v>
+            <v>15.139534883720934</v>
           </cell>
           <cell r="Y2">
-            <v>8.7837209302325601</v>
+            <v>14.639534883720932</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>6.8526785714285712</v>
+            <v>10.279017857142856</v>
           </cell>
           <cell r="C3">
-            <v>6.4620535714285694</v>
+            <v>9.6930803571428541</v>
           </cell>
           <cell r="D3">
-            <v>6.2053571428571423</v>
+            <v>9.3080357142857135</v>
           </cell>
           <cell r="E3">
-            <v>5.6584821428571432</v>
+            <v>8.4877232142857153</v>
           </cell>
           <cell r="F3">
-            <v>5.4464285714285712</v>
+            <v>8.1696428571428559</v>
           </cell>
           <cell r="G3">
-            <v>5.7254464285714279</v>
+            <v>8.5881696428571423</v>
           </cell>
           <cell r="H3">
-            <v>6.09375</v>
+            <v>9.140625</v>
           </cell>
           <cell r="I3">
-            <v>8.1808035714285694</v>
+            <v>12.271205357142854</v>
           </cell>
           <cell r="J3">
-            <v>8.928571428571427</v>
+            <v>13.392857142857142</v>
           </cell>
           <cell r="K3">
-            <v>9.5200892857142865</v>
+            <v>14.280133928571429</v>
           </cell>
           <cell r="L3">
-            <v>8.6830357142857135</v>
+            <v>13.024553571428571</v>
           </cell>
           <cell r="M3">
-            <v>9.1183035714285712</v>
+            <v>13.677455357142856</v>
           </cell>
           <cell r="N3">
-            <v>9.1294642857142847</v>
+            <v>13.694196428571427</v>
           </cell>
           <cell r="O3">
-            <v>8.90625</v>
+            <v>13.359375</v>
           </cell>
           <cell r="P3">
-            <v>7.65625</v>
+            <v>11.484375</v>
           </cell>
           <cell r="Q3">
-            <v>7.9799107142857135</v>
+            <v>11.969866071428571</v>
           </cell>
           <cell r="R3">
-            <v>8.4486607142857135</v>
+            <v>12.672991071428571</v>
           </cell>
           <cell r="S3">
-            <v>8.4151785714285694</v>
+            <v>12.622767857142854</v>
           </cell>
           <cell r="T3">
-            <v>8.772321428571427</v>
+            <v>13.158482142857141</v>
           </cell>
           <cell r="U3">
-            <v>9.241071428571427</v>
+            <v>13.861607142857141</v>
           </cell>
           <cell r="V3">
-            <v>9.6651785714285712</v>
+            <v>14.497767857142856</v>
           </cell>
           <cell r="W3">
-            <v>8.8727678571428577</v>
+            <v>13.309151785714285</v>
           </cell>
           <cell r="X3">
-            <v>7.6227678571428559</v>
+            <v>11.434151785714285</v>
           </cell>
           <cell r="Y3">
-            <v>7.0424107142857135</v>
+            <v>10.563616071428571</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.485530546623794</v>
+            <v>5.6069131832797421</v>
           </cell>
           <cell r="C4">
-            <v>4.215434083601286</v>
+            <v>5.269292604501608</v>
           </cell>
           <cell r="D4">
-            <v>3.8842443729903544</v>
+            <v>4.8553054662379429</v>
           </cell>
           <cell r="E4">
-            <v>4.041800643086817</v>
+            <v>5.052250803858521</v>
           </cell>
           <cell r="F4">
-            <v>3.9678456591639875</v>
+            <v>4.959807073954984</v>
           </cell>
           <cell r="G4">
-            <v>4.048231511254019</v>
+            <v>5.060289389067524</v>
           </cell>
           <cell r="H4">
-            <v>5.7395498392282969</v>
+            <v>7.1744372990353709</v>
           </cell>
           <cell r="I4">
-            <v>7.3472668810289399</v>
+            <v>9.1840836012861757</v>
           </cell>
           <cell r="J4">
-            <v>7.70096463022508</v>
+            <v>9.6262057877813501</v>
           </cell>
           <cell r="K4">
-            <v>7.221864951768489</v>
+            <v>9.0273311897106119</v>
           </cell>
           <cell r="L4">
-            <v>7.067524115755627</v>
+            <v>8.834405144694534</v>
           </cell>
           <cell r="M4">
-            <v>7.5980707395498399</v>
+            <v>9.4975884244372999</v>
           </cell>
           <cell r="N4">
-            <v>7.9453376205787789</v>
+            <v>9.9316720257234739</v>
           </cell>
           <cell r="O4">
-            <v>7.3762057877813509</v>
+            <v>9.220257234726688</v>
           </cell>
           <cell r="P4">
-            <v>6.7266881028938919</v>
+            <v>8.4083601286173639</v>
           </cell>
           <cell r="Q4">
-            <v>6.379421221864952</v>
+            <v>7.97427652733119</v>
           </cell>
           <cell r="R4">
-            <v>6.520900321543408</v>
+            <v>8.1511254019292601</v>
           </cell>
           <cell r="S4">
-            <v>6.29903536977492</v>
+            <v>7.8737942122186499</v>
           </cell>
           <cell r="T4">
-            <v>6.154340836012862</v>
+            <v>7.6929260450160779</v>
           </cell>
           <cell r="U4">
-            <v>6.707395498392283</v>
+            <v>8.384244372990354</v>
           </cell>
           <cell r="V4">
-            <v>7.0257234726688109</v>
+            <v>8.7821543408360139</v>
           </cell>
           <cell r="W4">
-            <v>6.5562700964630229</v>
+            <v>8.195337620578778</v>
           </cell>
           <cell r="X4">
-            <v>5.745980707395498</v>
+            <v>7.1824758842443721</v>
           </cell>
           <cell r="Y4">
-            <v>4.7877813504823159</v>
+            <v>5.9847266881028949</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>9.3930000000000025</v>
+            <v>15.655000000000003</v>
           </cell>
           <cell r="C2">
-            <v>9.2093023255813975</v>
+            <v>15.348837209302328</v>
           </cell>
           <cell r="D2">
-            <v>8.6935116279069771</v>
+            <v>14.489186046511628</v>
           </cell>
           <cell r="E2">
-            <v>8.7104651162790709</v>
+            <v>14.517441860465119</v>
           </cell>
           <cell r="F2">
-            <v>8.4747209302325572</v>
+            <v>14.12453488372093</v>
           </cell>
           <cell r="G2">
-            <v>8.7767441860465123</v>
+            <v>14.627906976744187</v>
           </cell>
           <cell r="H2">
-            <v>8.8740000000000006</v>
+            <v>14.790000000000001</v>
           </cell>
           <cell r="I2">
-            <v>10.63953488372093</v>
+            <v>17.732558139534884</v>
           </cell>
           <cell r="J2">
-            <v>11.559802325581396</v>
+            <v>19.266337209302328</v>
           </cell>
           <cell r="K2">
-            <v>11.295348837209302</v>
+            <v>18.825581395348834</v>
           </cell>
           <cell r="L2">
-            <v>10.999360465116279</v>
+            <v>18.332267441860466</v>
           </cell>
           <cell r="M2">
-            <v>11.021581395348839</v>
+            <v>18.369302325581398</v>
           </cell>
           <cell r="N2">
-            <v>11.428395348837212</v>
+            <v>19.047325581395352</v>
           </cell>
           <cell r="O2">
-            <v>11.670697674418605</v>
+            <v>19.451162790697673</v>
           </cell>
           <cell r="P2">
-            <v>10.763372093023257</v>
+            <v>17.938953488372093</v>
           </cell>
           <cell r="Q2">
-            <v>10.985511627906977</v>
+            <v>18.309186046511627</v>
           </cell>
           <cell r="R2">
-            <v>11.112348837209302</v>
+            <v>18.520581395348835</v>
           </cell>
           <cell r="S2">
-            <v>10.426744186046513</v>
+            <v>17.377906976744185</v>
           </cell>
           <cell r="T2">
-            <v>10.304372093023257</v>
+            <v>17.173953488372096</v>
           </cell>
           <cell r="U2">
-            <v>9.8735232558139536</v>
+            <v>16.455872093023256</v>
           </cell>
           <cell r="V2">
-            <v>10.041279069767443</v>
+            <v>16.735465116279073</v>
           </cell>
           <cell r="W2">
-            <v>9.8302325581395351</v>
+            <v>16.38372093023256</v>
           </cell>
           <cell r="X2">
-            <v>9.2653953488372096</v>
+            <v>15.442325581395352</v>
           </cell>
           <cell r="Y2">
-            <v>8.9593953488372104</v>
+            <v>14.932325581395352</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>6.8526785714285712</v>
+            <v>10.279017857142856</v>
           </cell>
           <cell r="C3">
-            <v>6.4620535714285694</v>
+            <v>9.6930803571428541</v>
           </cell>
           <cell r="D3">
-            <v>6.1433035714285715</v>
+            <v>9.2149553571428573</v>
           </cell>
           <cell r="E3">
-            <v>5.7150669642857146</v>
+            <v>8.5726004464285719</v>
           </cell>
           <cell r="F3">
-            <v>5.4464285714285712</v>
+            <v>8.1696428571428559</v>
           </cell>
           <cell r="G3">
-            <v>5.8399553571428564</v>
+            <v>8.7599330357142851</v>
           </cell>
           <cell r="H3">
-            <v>6.0328125000000004</v>
+            <v>9.0492187499999996</v>
           </cell>
           <cell r="I3">
-            <v>8.0989955357142858</v>
+            <v>12.148493303571428</v>
           </cell>
           <cell r="J3">
-            <v>9.0178571428571423</v>
+            <v>13.526785714285714</v>
           </cell>
           <cell r="K3">
-            <v>9.4248883928571416</v>
+            <v>14.137332589285714</v>
           </cell>
           <cell r="L3">
-            <v>8.7698660714285701</v>
+            <v>13.154799107142855</v>
           </cell>
           <cell r="M3">
-            <v>9.1183035714285712</v>
+            <v>13.677455357142856</v>
           </cell>
           <cell r="N3">
-            <v>9.3120535714285708</v>
+            <v>13.968080357142856</v>
           </cell>
           <cell r="O3">
-            <v>8.90625</v>
+            <v>13.359375</v>
           </cell>
           <cell r="P3">
-            <v>7.5031250000000007</v>
+            <v>11.254687500000001</v>
           </cell>
           <cell r="Q3">
-            <v>7.9799107142857135</v>
+            <v>11.969866071428571</v>
           </cell>
           <cell r="R3">
-            <v>8.5331473214285722</v>
+            <v>12.799720982142857</v>
           </cell>
           <cell r="S3">
-            <v>8.4993303571428562</v>
+            <v>12.748995535714284</v>
           </cell>
           <cell r="T3">
-            <v>8.9477678571428552</v>
+            <v>13.421651785714284</v>
           </cell>
           <cell r="U3">
-            <v>9.0562499999999986</v>
+            <v>13.584374999999998</v>
           </cell>
           <cell r="V3">
-            <v>9.5685267857142833</v>
+            <v>14.352790178571427</v>
           </cell>
           <cell r="W3">
-            <v>9.0502232142857135</v>
+            <v>13.575334821428571</v>
           </cell>
           <cell r="X3">
-            <v>7.5465401785714281</v>
+            <v>11.319810267857143</v>
           </cell>
           <cell r="Y3">
-            <v>6.9015625000000007</v>
+            <v>10.352343750000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.3958199356913186</v>
+            <v>5.494774919614148</v>
           </cell>
           <cell r="C4">
-            <v>4.2997427652733116</v>
+            <v>5.3746784565916395</v>
           </cell>
           <cell r="D4">
-            <v>3.8454019292604511</v>
+            <v>4.8067524115755642</v>
           </cell>
           <cell r="E4">
-            <v>4.0013826366559488</v>
+            <v>5.0017282958199356</v>
           </cell>
           <cell r="F4">
-            <v>4.0472025723472669</v>
+            <v>5.0590032154340836</v>
           </cell>
           <cell r="G4">
-            <v>3.9672668810289391</v>
+            <v>4.9590836012861743</v>
           </cell>
           <cell r="H4">
-            <v>5.6247588424437307</v>
+            <v>7.0309485530546638</v>
           </cell>
           <cell r="I4">
-            <v>7.494212218649519</v>
+            <v>9.3677652733118997</v>
           </cell>
           <cell r="J4">
-            <v>7.6239549839228289</v>
+            <v>9.5299437299035361</v>
           </cell>
           <cell r="K4">
-            <v>7.2940836012861734</v>
+            <v>9.1176045016077172</v>
           </cell>
           <cell r="L4">
-            <v>7.0675241157556279</v>
+            <v>8.8344051446945357</v>
           </cell>
           <cell r="M4">
-            <v>7.4461093247588428</v>
+            <v>9.3076366559485528</v>
           </cell>
           <cell r="N4">
-            <v>7.9453376205787789</v>
+            <v>9.9316720257234739</v>
           </cell>
           <cell r="O4">
-            <v>7.2286816720257239</v>
+            <v>9.0358520900321544</v>
           </cell>
           <cell r="P4">
-            <v>6.7266881028938919</v>
+            <v>8.4083601286173639</v>
           </cell>
           <cell r="Q4">
-            <v>6.4432154340836014</v>
+            <v>8.0540192926045009</v>
           </cell>
           <cell r="R4">
-            <v>6.4556913183279745</v>
+            <v>8.0696141479099683</v>
           </cell>
           <cell r="S4">
-            <v>6.1730546623794211</v>
+            <v>7.7163183279742764</v>
           </cell>
           <cell r="T4">
-            <v>6.0927974276527337</v>
+            <v>7.6159967845659171</v>
           </cell>
           <cell r="U4">
-            <v>6.8415434083601294</v>
+            <v>8.5519292604501622</v>
           </cell>
           <cell r="V4">
-            <v>6.9554662379421233</v>
+            <v>8.6943327974276539</v>
           </cell>
           <cell r="W4">
-            <v>6.6873954983922825</v>
+            <v>8.3592443729903536</v>
           </cell>
           <cell r="X4">
-            <v>5.745980707395498</v>
+            <v>7.1824758842443721</v>
           </cell>
           <cell r="Y4">
-            <v>4.8356591639871391</v>
+            <v>6.0445739549839237</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>9.3930000000000025</v>
+            <v>15.655000000000003</v>
           </cell>
           <cell r="C2">
-            <v>9.3934883720930245</v>
+            <v>15.655813953488376</v>
           </cell>
           <cell r="D2">
-            <v>8.6935116279069771</v>
+            <v>14.489186046511628</v>
           </cell>
           <cell r="E2">
-            <v>8.8846744186046518</v>
+            <v>14.807790697674418</v>
           </cell>
           <cell r="F2">
-            <v>8.4747209302325572</v>
+            <v>14.12453488372093</v>
           </cell>
           <cell r="G2">
-            <v>8.6889767441860482</v>
+            <v>14.481627906976746</v>
           </cell>
           <cell r="H2">
-            <v>8.7000000000000011</v>
+            <v>14.500000000000002</v>
           </cell>
           <cell r="I2">
-            <v>10.852325581395348</v>
+            <v>18.087209302325583</v>
           </cell>
           <cell r="J2">
-            <v>11.216441860465117</v>
+            <v>18.694069767441864</v>
           </cell>
           <cell r="K2">
-            <v>11.182395348837208</v>
+            <v>18.637325581395348</v>
           </cell>
           <cell r="L2">
-            <v>11.221569767441862</v>
+            <v>18.702616279069769</v>
           </cell>
           <cell r="M2">
-            <v>11.246511627906978</v>
+            <v>18.744186046511629</v>
           </cell>
           <cell r="N2">
-            <v>11.54501162790698</v>
+            <v>19.241686046511632</v>
           </cell>
           <cell r="O2">
-            <v>11.213023255813951</v>
+            <v>18.688372093023254</v>
           </cell>
           <cell r="P2">
-            <v>10.446802325581396</v>
+            <v>17.411337209302328</v>
           </cell>
           <cell r="Q2">
-            <v>11.094279069767442</v>
+            <v>18.490465116279069</v>
           </cell>
           <cell r="R2">
-            <v>11.112348837209302</v>
+            <v>18.520581395348835</v>
           </cell>
           <cell r="S2">
-            <v>10.426744186046513</v>
+            <v>17.377906976744185</v>
           </cell>
           <cell r="T2">
-            <v>10.102325581395348</v>
+            <v>16.837209302325583</v>
           </cell>
           <cell r="U2">
-            <v>9.8735232558139536</v>
+            <v>16.455872093023256</v>
           </cell>
           <cell r="V2">
-            <v>9.8424418604651152</v>
+            <v>16.404069767441861</v>
           </cell>
           <cell r="W2">
-            <v>10.026837209302325</v>
+            <v>16.711395348837211</v>
           </cell>
           <cell r="X2">
-            <v>9.2653953488372114</v>
+            <v>15.442325581395353</v>
           </cell>
           <cell r="Y2">
-            <v>8.6958837209302331</v>
+            <v>14.493139534883724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>6.9212053571428562</v>
+            <v>10.381808035714284</v>
           </cell>
           <cell r="C3">
-            <v>6.5266741071428562</v>
+            <v>9.7900111607142843</v>
           </cell>
           <cell r="D3">
-            <v>6.2053571428571423</v>
+            <v>9.3080357142857135</v>
           </cell>
           <cell r="E3">
-            <v>5.7716517857142859</v>
+            <v>8.6574776785714285</v>
           </cell>
           <cell r="F3">
-            <v>5.3919642857142849</v>
+            <v>8.0879464285714278</v>
           </cell>
           <cell r="G3">
-            <v>5.6681919642857137</v>
+            <v>8.5022879464285701</v>
           </cell>
           <cell r="H3">
-            <v>6.1546874999999996</v>
+            <v>9.2320312500000004</v>
           </cell>
           <cell r="I3">
-            <v>8.0171874999999986</v>
+            <v>12.025781249999998</v>
           </cell>
           <cell r="J3">
-            <v>8.7499999999999982</v>
+            <v>13.124999999999998</v>
           </cell>
           <cell r="K3">
-            <v>9.6152901785714278</v>
+            <v>14.422935267857143</v>
           </cell>
           <cell r="L3">
-            <v>8.5093749999999986</v>
+            <v>12.764062499999998</v>
           </cell>
           <cell r="M3">
-            <v>9.1183035714285712</v>
+            <v>13.677455357142856</v>
           </cell>
           <cell r="N3">
-            <v>9.0381696428571416</v>
+            <v>13.557254464285714</v>
           </cell>
           <cell r="O3">
-            <v>8.90625</v>
+            <v>13.359375</v>
           </cell>
           <cell r="P3">
-            <v>7.5796874999999995</v>
+            <v>11.36953125</v>
           </cell>
           <cell r="Q3">
-            <v>8.0597098214285712</v>
+            <v>12.089564732142858</v>
           </cell>
           <cell r="R3">
-            <v>8.6176339285714292</v>
+            <v>12.926450892857144</v>
           </cell>
           <cell r="S3">
-            <v>8.4993303571428562</v>
+            <v>12.748995535714284</v>
           </cell>
           <cell r="T3">
-            <v>8.5968749999999989</v>
+            <v>12.895312499999998</v>
           </cell>
           <cell r="U3">
-            <v>9.241071428571427</v>
+            <v>13.861607142857141</v>
           </cell>
           <cell r="V3">
-            <v>9.4718749999999989</v>
+            <v>14.207812499999999</v>
           </cell>
           <cell r="W3">
-            <v>8.8727678571428577</v>
+            <v>13.309151785714285</v>
           </cell>
           <cell r="X3">
-            <v>7.6227678571428559</v>
+            <v>11.434151785714285</v>
           </cell>
           <cell r="Y3">
-            <v>7.1128348214285708</v>
+            <v>10.669252232142856</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.5303858520900322</v>
+            <v>5.66298231511254</v>
           </cell>
           <cell r="C4">
-            <v>4.1311254019292605</v>
+            <v>5.1639067524115756</v>
           </cell>
           <cell r="D4">
-            <v>3.9619292604501615</v>
+            <v>4.9524115755627021</v>
           </cell>
           <cell r="E4">
-            <v>4.0822186495176851</v>
+            <v>5.1027733118971064</v>
           </cell>
           <cell r="F4">
-            <v>3.9281672025723475</v>
+            <v>4.9102090032154342</v>
           </cell>
           <cell r="G4">
-            <v>3.9672668810289387</v>
+            <v>4.9590836012861734</v>
           </cell>
           <cell r="H4">
-            <v>5.854340836012863</v>
+            <v>7.3179260450160788</v>
           </cell>
           <cell r="I4">
-            <v>7.4207395498392295</v>
+            <v>9.2759244372990359</v>
           </cell>
           <cell r="J4">
-            <v>7.6239549839228289</v>
+            <v>9.5299437299035361</v>
           </cell>
           <cell r="K4">
-            <v>7.3663022508038587</v>
+            <v>9.2078778135048225</v>
           </cell>
           <cell r="L4">
-            <v>6.9261736334405146</v>
+            <v>8.6577170418006428</v>
           </cell>
           <cell r="M4">
-            <v>7.750032154340837</v>
+            <v>9.687540192926047</v>
           </cell>
           <cell r="N4">
-            <v>8.1042443729903546</v>
+            <v>10.130305466237942</v>
           </cell>
           <cell r="O4">
-            <v>7.2286816720257239</v>
+            <v>9.0358520900321544</v>
           </cell>
           <cell r="P4">
-            <v>6.6594212218649531</v>
+            <v>8.3242765273311914</v>
           </cell>
           <cell r="Q4">
-            <v>6.5070096463022509</v>
+            <v>8.1337620578778136</v>
           </cell>
           <cell r="R4">
-            <v>6.651318327974276</v>
+            <v>8.3141479099678453</v>
           </cell>
           <cell r="S4">
-            <v>6.1730546623794211</v>
+            <v>7.7163183279742764</v>
           </cell>
           <cell r="T4">
-            <v>6.2774276527331194</v>
+            <v>7.8467845659163995</v>
           </cell>
           <cell r="U4">
-            <v>6.6403215434083602</v>
+            <v>8.3004019292604507</v>
           </cell>
           <cell r="V4">
-            <v>7.1662379421221871</v>
+            <v>8.9577974276527339</v>
           </cell>
           <cell r="W4">
-            <v>6.4251446945337625</v>
+            <v>8.0314308681672024</v>
           </cell>
           <cell r="X4">
-            <v>5.803440514469453</v>
+            <v>7.2543006430868164</v>
           </cell>
           <cell r="Y4">
-            <v>4.6920257234726694</v>
+            <v>5.8650321543408364</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>2.2147651006711411</v>
+            <v>3.6912751677852351</v>
           </cell>
           <cell r="C2">
-            <v>2.4463087248322148</v>
+            <v>4.077181208053692</v>
           </cell>
           <cell r="D2">
-            <v>2.3053691275167787</v>
+            <v>3.8422818791946312</v>
           </cell>
           <cell r="E2">
-            <v>2.3053691275167787</v>
+            <v>3.8422818791946312</v>
           </cell>
           <cell r="F2">
-            <v>2.2550335570469802</v>
+            <v>3.7583892617449663</v>
           </cell>
           <cell r="G2">
-            <v>2.385906040268456</v>
+            <v>3.9765100671140936</v>
           </cell>
           <cell r="H2">
-            <v>2.4563758389261747</v>
+            <v>4.0939597315436247</v>
           </cell>
           <cell r="I2">
-            <v>4.6006711409395979</v>
+            <v>7.6677852348993287</v>
           </cell>
           <cell r="J2">
-            <v>5.3557046979865772</v>
+            <v>8.9261744966442951</v>
           </cell>
           <cell r="K2">
-            <v>5.1543624161073822</v>
+            <v>8.5906040268456358</v>
           </cell>
           <cell r="L2">
-            <v>5.0335570469798654</v>
+            <v>8.3892617449664435</v>
           </cell>
           <cell r="M2">
-            <v>5.0234899328859068</v>
+            <v>8.3724832214765108</v>
           </cell>
           <cell r="N2">
-            <v>5.3456375838926169</v>
+            <v>8.9093959731543606</v>
           </cell>
           <cell r="O2">
-            <v>5.1845637583892623</v>
+            <v>8.6409395973154375</v>
           </cell>
           <cell r="P2">
-            <v>3.6342281879194624</v>
+            <v>6.0570469798657713</v>
           </cell>
           <cell r="Q2">
-            <v>4.7516778523489931</v>
+            <v>7.9194630872483218</v>
           </cell>
           <cell r="R2">
-            <v>4.8120805369127515</v>
+            <v>8.0201342281879189</v>
           </cell>
           <cell r="S2">
-            <v>4.5100671140939603</v>
+            <v>7.5167785234899327</v>
           </cell>
           <cell r="T2">
-            <v>3.5738255033557049</v>
+            <v>5.9563758389261743</v>
           </cell>
           <cell r="U2">
-            <v>3.2416107382550337</v>
+            <v>5.40268456375839</v>
           </cell>
           <cell r="V2">
-            <v>3.4026845637583891</v>
+            <v>5.6711409395973158</v>
           </cell>
           <cell r="W2">
-            <v>3.4127516778523486</v>
+            <v>5.6879194630872476</v>
           </cell>
           <cell r="X2">
-            <v>2.3557046979865772</v>
+            <v>3.9261744966442951</v>
           </cell>
           <cell r="Y2">
-            <v>2.3355704697986579</v>
+            <v>3.8926174496644301</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>9.2592592592592587E-2</v>
+            <v>0.1388888888888889</v>
           </cell>
           <cell r="C3">
-            <v>-0.55555555555555558</v>
+            <v>-0.83333333333333337</v>
           </cell>
           <cell r="D3">
-            <v>-0.60185185185185186</v>
+            <v>-0.90277777777777768</v>
           </cell>
           <cell r="E3">
-            <v>-0.87962962962962965</v>
+            <v>-1.3194444444444444</v>
           </cell>
           <cell r="F3">
-            <v>-1.0648148148148147</v>
+            <v>-1.5972222222222221</v>
           </cell>
           <cell r="G3">
-            <v>-0.83333333333333348</v>
+            <v>-1.2500000000000002</v>
           </cell>
           <cell r="H3">
-            <v>-1.0648148148148149</v>
+            <v>-1.5972222222222223</v>
           </cell>
           <cell r="I3">
-            <v>2.6851851851851856</v>
+            <v>4.0277777777777786</v>
           </cell>
           <cell r="J3">
-            <v>3.4259259259259256</v>
+            <v>5.1388888888888884</v>
           </cell>
           <cell r="K3">
-            <v>4.3981481481481479</v>
+            <v>6.5972222222222214</v>
           </cell>
           <cell r="L3">
+            <v>3.75</v>
+          </cell>
+          <cell r="M3">
+            <v>3.4027777777777777</v>
+          </cell>
+          <cell r="N3">
+            <v>2.3611111111111112</v>
+          </cell>
+          <cell r="O3">
+            <v>3.1944444444444442</v>
+          </cell>
+          <cell r="P3">
+            <v>1.3888888888888888</v>
+          </cell>
+          <cell r="Q3">
+            <v>1.1805555555555554</v>
+          </cell>
+          <cell r="R3">
+            <v>1.3888888888888888</v>
+          </cell>
+          <cell r="S3">
             <v>2.5</v>
           </cell>
-          <cell r="M3">
-            <v>2.2685185185185182</v>
-          </cell>
-          <cell r="N3">
-            <v>1.5740740740740742</v>
-          </cell>
-          <cell r="O3">
-            <v>2.1296296296296293</v>
-          </cell>
-          <cell r="P3">
-            <v>0.92592592592592582</v>
-          </cell>
-          <cell r="Q3">
-            <v>0.78703703703703698</v>
-          </cell>
-          <cell r="R3">
-            <v>0.92592592592592582</v>
-          </cell>
-          <cell r="S3">
-            <v>1.6666666666666665</v>
-          </cell>
           <cell r="T3">
-            <v>3.1944444444444446</v>
+            <v>4.791666666666667</v>
           </cell>
           <cell r="U3">
-            <v>3.24074074074074</v>
+            <v>4.8611111111111098</v>
           </cell>
           <cell r="V3">
-            <v>2.5925925925925917</v>
+            <v>3.888888888888888</v>
           </cell>
           <cell r="W3">
-            <v>1.9907407407407407</v>
+            <v>2.9861111111111112</v>
           </cell>
           <cell r="X3">
-            <v>0.92592592592592571</v>
+            <v>1.3888888888888886</v>
           </cell>
           <cell r="Y3">
-            <v>0.18518518518518517</v>
+            <v>0.27777777777777779</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.55882352941176472</v>
+            <v>-0.69852941176470584</v>
           </cell>
           <cell r="C4">
-            <v>-1.3235294117647056</v>
+            <v>-1.654411764705882</v>
           </cell>
           <cell r="D4">
-            <v>-2.3088235294117645</v>
+            <v>-2.8860294117647056</v>
           </cell>
           <cell r="E4">
-            <v>-2.1323529411764706</v>
+            <v>-2.6654411764705883</v>
           </cell>
           <cell r="F4">
-            <v>-2.1764705882352939</v>
+            <v>-2.7205882352941173</v>
           </cell>
           <cell r="G4">
-            <v>-2.0735294117647061</v>
+            <v>-2.5919117647058827</v>
           </cell>
           <cell r="H4">
-            <v>-0.11764705882352941</v>
+            <v>-0.14705882352941177</v>
           </cell>
           <cell r="I4">
-            <v>2.4852941176470584</v>
+            <v>3.1066176470588229</v>
           </cell>
           <cell r="J4">
-            <v>3.2647058823529407</v>
+            <v>4.0808823529411757</v>
           </cell>
           <cell r="K4">
-            <v>3.2941176470588238</v>
+            <v>4.1176470588235299</v>
           </cell>
           <cell r="L4">
-            <v>2.75</v>
+            <v>3.4375</v>
           </cell>
           <cell r="M4">
-            <v>3.4411764705882351</v>
+            <v>4.3014705882352935</v>
           </cell>
           <cell r="N4">
-            <v>3.1176470588235294</v>
+            <v>3.8970588235294117</v>
           </cell>
           <cell r="O4">
-            <v>2.7205882352941173</v>
+            <v>3.4007352941176467</v>
           </cell>
           <cell r="P4">
-            <v>1.9558823529411762</v>
+            <v>2.4448529411764701</v>
           </cell>
           <cell r="Q4">
-            <v>1.2205882352941178</v>
+            <v>1.5257352941176472</v>
           </cell>
           <cell r="R4">
-            <v>1.5147058823529411</v>
+            <v>1.8933823529411764</v>
           </cell>
           <cell r="S4">
-            <v>1.3529411764705881</v>
+            <v>1.6911764705882351</v>
           </cell>
           <cell r="T4">
-            <v>0.24999999999999997</v>
+            <v>0.31249999999999994</v>
           </cell>
           <cell r="U4">
-            <v>1.088235294117647</v>
+            <v>1.3602941176470587</v>
           </cell>
           <cell r="V4">
-            <v>1.5294117647058822</v>
+            <v>1.9117647058823528</v>
           </cell>
           <cell r="W4">
-            <v>1</v>
+            <v>1.25</v>
           </cell>
           <cell r="X4">
-            <v>-0.92647058823529405</v>
+            <v>-1.1580882352941175</v>
           </cell>
           <cell r="Y4">
-            <v>-1.8970588235294117</v>
+            <v>-2.3713235294117645</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>2.1704697986577179</v>
+            <v>3.6174496644295302</v>
           </cell>
           <cell r="C2">
-            <v>2.4707718120805375</v>
+            <v>4.1179530201342294</v>
           </cell>
           <cell r="D2">
-            <v>2.3514765100671138</v>
+            <v>3.9191275167785236</v>
           </cell>
           <cell r="E2">
-            <v>2.3284228187919465</v>
+            <v>3.8807046979865771</v>
           </cell>
           <cell r="F2">
-            <v>2.2775838926174501</v>
+            <v>3.7959731543624162</v>
           </cell>
           <cell r="G2">
-            <v>2.3381879194630866</v>
+            <v>3.8969798657718115</v>
           </cell>
           <cell r="H2">
-            <v>2.4563758389261747</v>
+            <v>4.0939597315436247</v>
           </cell>
           <cell r="I2">
-            <v>4.69268456375839</v>
+            <v>7.8211409395973162</v>
           </cell>
           <cell r="J2">
-            <v>5.4092617449664431</v>
+            <v>9.0154362416107396</v>
           </cell>
           <cell r="K2">
-            <v>5.2574496644295294</v>
+            <v>8.7624161073825491</v>
           </cell>
           <cell r="L2">
-            <v>4.9328859060402683</v>
+            <v>8.221476510067113</v>
           </cell>
           <cell r="M2">
-            <v>5.0737248322147659</v>
+            <v>8.4562080536912774</v>
           </cell>
           <cell r="N2">
-            <v>5.3456375838926169</v>
+            <v>8.9093959731543606</v>
           </cell>
           <cell r="O2">
-            <v>5.2364093959731548</v>
+            <v>8.7273489932885902</v>
           </cell>
           <cell r="P2">
-            <v>3.6342281879194624</v>
+            <v>6.0570469798657713</v>
           </cell>
           <cell r="Q2">
-            <v>4.6566442953020131</v>
+            <v>7.7610738255033551</v>
           </cell>
           <cell r="R2">
-            <v>4.9083221476510071</v>
+            <v>8.1805369127516787</v>
           </cell>
           <cell r="S2">
-            <v>4.4198657718120806</v>
+            <v>7.366442953020135</v>
           </cell>
           <cell r="T2">
-            <v>3.6453020134228185</v>
+            <v>6.075503355704698</v>
           </cell>
           <cell r="U2">
-            <v>3.3064429530201349</v>
+            <v>5.5107382550335586</v>
           </cell>
           <cell r="V2">
-            <v>3.4707382550335568</v>
+            <v>5.784563758389262</v>
           </cell>
           <cell r="W2">
-            <v>3.4127516778523486</v>
+            <v>5.6879194630872476</v>
           </cell>
           <cell r="X2">
-            <v>2.4028187919463084</v>
+            <v>4.004697986577181</v>
           </cell>
           <cell r="Y2">
-            <v>2.3589261744966445</v>
+            <v>3.9315436241610739</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>9.0740740740740733E-2</v>
+            <v>0.1361111111111111</v>
           </cell>
           <cell r="C3">
-            <v>-0.54444444444444451</v>
+            <v>-0.81666666666666676</v>
           </cell>
           <cell r="D3">
-            <v>-0.61388888888888882</v>
+            <v>-0.92083333333333317</v>
           </cell>
           <cell r="E3">
-            <v>-0.89722222222222237</v>
+            <v>-1.3458333333333334</v>
           </cell>
           <cell r="F3">
-            <v>-1.0648148148148147</v>
+            <v>-1.5972222222222221</v>
           </cell>
           <cell r="G3">
-            <v>-0.83333333333333348</v>
+            <v>-1.2500000000000002</v>
           </cell>
           <cell r="H3">
-            <v>-1.0435185185185185</v>
+            <v>-1.5652777777777778</v>
           </cell>
           <cell r="I3">
-            <v>2.6851851851851856</v>
+            <v>4.0277777777777786</v>
           </cell>
           <cell r="J3">
-            <v>3.4259259259259252</v>
+            <v>5.1388888888888875</v>
           </cell>
           <cell r="K3">
-            <v>4.3101851851851851</v>
+            <v>6.4652777777777768</v>
           </cell>
           <cell r="L3">
-            <v>2.5</v>
+            <v>3.75</v>
           </cell>
           <cell r="M3">
-            <v>2.2231481481481481</v>
+            <v>3.3347222222222221</v>
           </cell>
           <cell r="N3">
-            <v>1.5583333333333336</v>
+            <v>2.3375000000000004</v>
           </cell>
           <cell r="O3">
-            <v>2.0870370370370366</v>
+            <v>3.1305555555555551</v>
           </cell>
           <cell r="P3">
-            <v>0.94444444444444442</v>
+            <v>1.4166666666666665</v>
           </cell>
           <cell r="Q3">
-            <v>0.77916666666666645</v>
+            <v>1.1687499999999997</v>
           </cell>
           <cell r="R3">
-            <v>0.90740740740740744</v>
+            <v>1.3611111111111112</v>
           </cell>
           <cell r="S3">
-            <v>1.6500000000000001</v>
+            <v>2.4750000000000001</v>
           </cell>
           <cell r="T3">
-            <v>3.2583333333333337</v>
+            <v>4.8875000000000002</v>
           </cell>
           <cell r="U3">
-            <v>3.273148148148147</v>
+            <v>4.9097222222222205</v>
           </cell>
           <cell r="V3">
-            <v>2.5407407407407403</v>
+            <v>3.81111111111111</v>
           </cell>
           <cell r="W3">
-            <v>1.9907407407407407</v>
+            <v>2.9861111111111112</v>
           </cell>
           <cell r="X3">
-            <v>0.93518518518518501</v>
+            <v>1.4027777777777775</v>
           </cell>
           <cell r="Y3">
-            <v>0.187037037037037</v>
+            <v>0.2805555555555555</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.56999999999999995</v>
+            <v>-0.71249999999999991</v>
           </cell>
           <cell r="C4">
-            <v>-1.3499999999999996</v>
+            <v>-1.6874999999999996</v>
           </cell>
           <cell r="D4">
-            <v>-2.3549999999999995</v>
+            <v>-2.9437499999999996</v>
           </cell>
           <cell r="E4">
-            <v>-2.1536764705882354</v>
+            <v>-2.6920955882352944</v>
           </cell>
           <cell r="F4">
-            <v>-2.2199999999999998</v>
+            <v>-2.7749999999999995</v>
           </cell>
           <cell r="G4">
-            <v>-2.0942647058823529</v>
+            <v>-2.617830882352941</v>
           </cell>
           <cell r="H4">
-            <v>-0.11529411764705882</v>
+            <v>-0.14411764705882352</v>
           </cell>
           <cell r="I4">
-            <v>2.4604411764705878</v>
+            <v>3.075551470588235</v>
           </cell>
           <cell r="J4">
-            <v>3.3299999999999996</v>
+            <v>4.1624999999999996</v>
           </cell>
           <cell r="K4">
-            <v>3.3270588235294123</v>
+            <v>4.158823529411765</v>
           </cell>
           <cell r="L4">
-            <v>2.7225000000000001</v>
+            <v>3.4031250000000002</v>
           </cell>
           <cell r="M4">
-            <v>3.4067647058823525</v>
+            <v>4.2584558823529406</v>
           </cell>
           <cell r="N4">
-            <v>3.0552941176470592</v>
+            <v>3.8191176470588237</v>
           </cell>
           <cell r="O4">
-            <v>2.6661764705882347</v>
+            <v>3.3327205882352935</v>
           </cell>
           <cell r="P4">
-            <v>1.9363235294117644</v>
+            <v>2.4204044117647054</v>
           </cell>
           <cell r="Q4">
-            <v>1.2327941176470589</v>
+            <v>1.5409926470588236</v>
           </cell>
           <cell r="R4">
-            <v>1.5147058823529411</v>
+            <v>1.8933823529411764</v>
           </cell>
           <cell r="S4">
-            <v>1.3529411764705881</v>
+            <v>1.6911764705882351</v>
           </cell>
           <cell r="T4">
-            <v>0.25499999999999995</v>
+            <v>0.31874999999999992</v>
           </cell>
           <cell r="U4">
-            <v>1.0773529411764704</v>
+            <v>1.346691176470588</v>
           </cell>
           <cell r="V4">
-            <v>1.5294117647058822</v>
+            <v>1.9117647058823528</v>
           </cell>
           <cell r="W4">
-            <v>1.01</v>
+            <v>1.2625</v>
           </cell>
           <cell r="X4">
-            <v>-0.935735294117647</v>
+            <v>-1.1696691176470588</v>
           </cell>
           <cell r="Y4">
-            <v>-1.9350000000000001</v>
+            <v>-2.4187500000000002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>2.1704697986577179</v>
+            <v>3.6174496644295302</v>
           </cell>
           <cell r="C2">
-            <v>2.4463087248322148</v>
+            <v>4.077181208053692</v>
           </cell>
           <cell r="D2">
-            <v>2.2823154362416109</v>
+            <v>3.8038590604026852</v>
           </cell>
           <cell r="E2">
-            <v>2.2592617449664432</v>
+            <v>3.7654362416107383</v>
           </cell>
           <cell r="F2">
-            <v>2.2324832214765102</v>
+            <v>3.7208053691275165</v>
           </cell>
           <cell r="G2">
-            <v>2.3381879194630866</v>
+            <v>3.8969798657718115</v>
           </cell>
           <cell r="H2">
-            <v>2.4563758389261747</v>
+            <v>4.0939597315436247</v>
           </cell>
           <cell r="I2">
-            <v>4.69268456375839</v>
+            <v>7.8211409395973162</v>
           </cell>
           <cell r="J2">
-            <v>5.4092617449664431</v>
+            <v>9.0154362416107396</v>
           </cell>
           <cell r="K2">
-            <v>5.1543624161073822</v>
+            <v>8.5906040268456358</v>
           </cell>
           <cell r="L2">
-            <v>4.9832214765100673</v>
+            <v>8.30536912751678</v>
           </cell>
           <cell r="M2">
-            <v>5.1239597315436249</v>
+            <v>8.5399328859060422</v>
           </cell>
           <cell r="N2">
-            <v>5.4525503355704688</v>
+            <v>9.0875838926174488</v>
           </cell>
           <cell r="O2">
-            <v>5.0808724832214764</v>
+            <v>8.4681208053691286</v>
           </cell>
           <cell r="P2">
-            <v>3.6342281879194624</v>
+            <v>6.0570469798657713</v>
           </cell>
           <cell r="Q2">
-            <v>4.7041610738255031</v>
+            <v>7.8402684563758385</v>
           </cell>
           <cell r="R2">
-            <v>4.9083221476510071</v>
+            <v>8.1805369127516787</v>
           </cell>
           <cell r="S2">
-            <v>4.4649664429530205</v>
+            <v>7.4416107382550329</v>
           </cell>
           <cell r="T2">
-            <v>3.5023489932885905</v>
+            <v>5.8372483221476514</v>
           </cell>
           <cell r="U2">
-            <v>3.2740268456375841</v>
+            <v>5.4567114093959734</v>
           </cell>
           <cell r="V2">
-            <v>3.4707382550335568</v>
+            <v>5.784563758389262</v>
           </cell>
           <cell r="W2">
-            <v>3.3444966442953019</v>
+            <v>5.5741610738255032</v>
           </cell>
           <cell r="X2">
-            <v>2.3085906040268451</v>
+            <v>3.8476510067114091</v>
           </cell>
           <cell r="Y2">
-            <v>2.2888590604026851</v>
+            <v>3.8147651006711412</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>9.1666666666666674E-2</v>
+            <v>0.13750000000000001</v>
           </cell>
           <cell r="C3">
-            <v>-0.55555555555555558</v>
+            <v>-0.83333333333333337</v>
           </cell>
           <cell r="D3">
-            <v>-0.60787037037037039</v>
+            <v>-0.91180555555555554</v>
           </cell>
           <cell r="E3">
-            <v>-0.87083333333333346</v>
+            <v>-1.3062500000000001</v>
           </cell>
           <cell r="F3">
-            <v>-1.0754629629629628</v>
+            <v>-1.6131944444444442</v>
           </cell>
           <cell r="G3">
-            <v>-0.81666666666666676</v>
+            <v>-1.2250000000000001</v>
           </cell>
           <cell r="H3">
-            <v>-1.0648148148148149</v>
+            <v>-1.5972222222222223</v>
           </cell>
           <cell r="I3">
-            <v>2.712037037037037</v>
+            <v>4.0680555555555555</v>
           </cell>
           <cell r="J3">
-            <v>3.4944444444444445</v>
+            <v>5.2416666666666671</v>
           </cell>
           <cell r="K3">
-            <v>4.398148148148147</v>
+            <v>6.5972222222222205</v>
           </cell>
           <cell r="L3">
-            <v>2.5249999999999999</v>
+            <v>3.7875000000000001</v>
           </cell>
           <cell r="M3">
-            <v>2.2231481481481481</v>
+            <v>3.3347222222222221</v>
           </cell>
           <cell r="N3">
-            <v>1.5425925925925927</v>
+            <v>2.3138888888888891</v>
           </cell>
           <cell r="O3">
-            <v>2.1509259259259257</v>
+            <v>3.2263888888888883</v>
           </cell>
           <cell r="P3">
-            <v>0.90740740740740744</v>
+            <v>1.3611111111111112</v>
           </cell>
           <cell r="Q3">
-            <v>0.77916666666666645</v>
+            <v>1.1687499999999997</v>
           </cell>
           <cell r="R3">
-            <v>0.91666666666666663</v>
+            <v>1.375</v>
           </cell>
           <cell r="S3">
-            <v>1.6666666666666663</v>
+            <v>2.4999999999999996</v>
           </cell>
           <cell r="T3">
-            <v>3.130555555555556</v>
+            <v>4.6958333333333337</v>
           </cell>
           <cell r="U3">
-            <v>3.273148148148147</v>
+            <v>4.9097222222222205</v>
           </cell>
           <cell r="V3">
-            <v>2.566666666666666</v>
+            <v>3.8499999999999988</v>
           </cell>
           <cell r="W3">
-            <v>1.9907407407407407</v>
+            <v>2.9861111111111112</v>
           </cell>
           <cell r="X3">
-            <v>0.90740740740740733</v>
+            <v>1.3611111111111109</v>
           </cell>
           <cell r="Y3">
-            <v>0.18333333333333335</v>
+            <v>0.27500000000000002</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.55882352941176472</v>
+            <v>-0.69852941176470584</v>
           </cell>
           <cell r="C4">
-            <v>-1.3235294117647056</v>
+            <v>-1.654411764705882</v>
           </cell>
           <cell r="D4">
-            <v>-2.3088235294117645</v>
+            <v>-2.8860294117647056</v>
           </cell>
           <cell r="E4">
-            <v>-2.1536764705882354</v>
+            <v>-2.6920955882352944</v>
           </cell>
           <cell r="F4">
-            <v>-2.1547058823529408</v>
+            <v>-2.693382352941176</v>
           </cell>
           <cell r="G4">
-            <v>-2.0942647058823529</v>
+            <v>-2.617830882352941</v>
           </cell>
           <cell r="H4">
-            <v>-0.11529411764705882</v>
+            <v>-0.14411764705882352</v>
           </cell>
           <cell r="I4">
-            <v>2.5349999999999997</v>
+            <v>3.1687499999999997</v>
           </cell>
           <cell r="J4">
-            <v>3.3299999999999996</v>
+            <v>4.1624999999999996</v>
           </cell>
           <cell r="K4">
-            <v>3.2941176470588238</v>
+            <v>4.1176470588235299</v>
           </cell>
           <cell r="L4">
-            <v>2.7225000000000001</v>
+            <v>3.4031250000000002</v>
           </cell>
           <cell r="M4">
-            <v>3.4755882352941176</v>
+            <v>4.3444852941176473</v>
           </cell>
           <cell r="N4">
-            <v>3.1488235294117648</v>
+            <v>3.9360294117647059</v>
           </cell>
           <cell r="O4">
-            <v>2.7205882352941173</v>
+            <v>3.4007352941176467</v>
           </cell>
           <cell r="P4">
-            <v>1.9754411764705879</v>
+            <v>2.4693014705882348</v>
           </cell>
           <cell r="Q4">
-            <v>1.2205882352941178</v>
+            <v>1.5257352941176472</v>
           </cell>
           <cell r="R4">
-            <v>1.5298529411764705</v>
+            <v>1.912316176470588</v>
           </cell>
           <cell r="S4">
-            <v>1.3664705882352939</v>
+            <v>1.7080882352941174</v>
           </cell>
           <cell r="T4">
-            <v>0.25499999999999995</v>
+            <v>0.31874999999999992</v>
           </cell>
           <cell r="U4">
-            <v>1.0664705882352941</v>
+            <v>1.3330882352941176</v>
           </cell>
           <cell r="V4">
-            <v>1.5141176470588236</v>
+            <v>1.8926470588235293</v>
           </cell>
           <cell r="W4">
-            <v>0.99</v>
+            <v>1.2375</v>
           </cell>
           <cell r="X4">
-            <v>-0.94499999999999984</v>
+            <v>-1.1812499999999999</v>
           </cell>
           <cell r="Y4">
-            <v>-1.9160294117647059</v>
+            <v>-2.3950367647058823</v>
           </cell>
         </row>
       </sheetData>
@@ -4079,99 +4079,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>2.9021475728546955</v>
+        <v>4.8369126214244931</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>1.9895128401085078</v>
+        <v>3.3158547335141799</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>1.7774901422984359</v>
+        <v>2.9624835704973935</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>2.2558752243157665</v>
+        <v>3.7597920405262775</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>1.961798941515585</v>
+        <v>3.269664902525975</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>1.5969638905882575</v>
+        <v>2.6616064843137628</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>1.3213256339665773</v>
+        <v>2.2022093899442958</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>4.6635920091457139</v>
+        <v>7.7726533485761893</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>4.8288537787656587</v>
+        <v>8.048089631276099</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>4.0588970939706588</v>
+        <v>6.764828489951098</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>4.8254181539864991</v>
+        <v>8.0423635899774997</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>4.5734483217152695</v>
+        <v>7.6224138695254497</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>4.5485626818782254</v>
+        <v>7.5809378031303751</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>4.0616931500468372</v>
+        <v>6.7694885834113947</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>2.3386358992052649</v>
+        <v>3.897726498675441</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>3.69894864970711</v>
+        <v>6.1649144161785161</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>4.4811297868890536</v>
+        <v>7.4685496448150888</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>4.1811748409008835</v>
+        <v>6.9686247348348065</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>2.9222286740640779</v>
+        <v>4.8703811234401293</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>3.0619550364608186</v>
+        <v>5.1032583941013643</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>2.7672323926722622</v>
+        <v>4.6120539877871032</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>1.751567860240951</v>
+        <v>2.919279767068252</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>1.4251812466834763</v>
+        <v>2.3753020778057938</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>1.4771389175619833</v>
+        <v>2.4618981959366386</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4180,99 +4180,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-4.6260228001163135</v>
+        <v>-6.9390342001744703</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-4.4436302292154686</v>
+        <v>-6.6654453438232029</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-4.6594319104339812</v>
+        <v>-6.9891478656509722</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-4.7754231602281454</v>
+        <v>-7.1631347403422172</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-4.8260858755376539</v>
+        <v>-7.2391288133064808</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-4.4292187836118488</v>
+        <v>-6.6438281754177728</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-2.8084732216820902</v>
+        <v>-4.2127098325231351</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-0.52907174275173152</v>
+        <v>-0.79360761412759728</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-0.57435627397757805</v>
+        <v>-0.86153441096636718</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.39216400041942184</v>
+        <v>-0.58824600062913279</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-0.33190901969516973</v>
+        <v>-0.49786352954275465</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-1.526634065087493</v>
+        <v>-2.2899510976312394</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-2.2302483939278961</v>
+        <v>-3.3453725908918441</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-2.805272418799178</v>
+        <v>-4.2079086281987665</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-2.8410022848400267</v>
+        <v>-4.2615034272600401</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-2.9468280143511443</v>
+        <v>-4.4202420215267164</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-2.226046392593962</v>
+        <v>-3.3390695888909434</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>0.75403519197736846</v>
+        <v>1.1310527879660526</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-0.10416541002266824</v>
+        <v>-0.15624811503400235</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-1.2420200854049495</v>
+        <v>-1.8630301281074242</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-2.3252776822908503</v>
+        <v>-3.4879165234362755</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-2.9981408560096763</v>
+        <v>-4.4972112840145142</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-3.2550149824394143</v>
+        <v>-4.8825224736591215</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-3.8409232964321398</v>
+        <v>-5.7613849446482099</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4281,99 +4281,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-3.504606727361284</v>
+        <v>-4.3807584092016052</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-3.7440404257534912</v>
+        <v>-4.6800505321918635</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-3.8508415012190675</v>
+        <v>-4.8135518765238343</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-3.7993427925816095</v>
+        <v>-4.7491784907270116</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-3.8025028073796614</v>
+        <v>-4.7531285092245765</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-3.2066907899070709</v>
+        <v>-4.0083634873838383</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-0.11823695016289544</v>
+        <v>-0.1477961877036193</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>1.6532621270133676</v>
+        <v>2.0665776587667093</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>2.0864555067723174</v>
+        <v>2.6080693834653967</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>1.4103016303925606</v>
+        <v>1.7628770379907008</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>0.86666124259728161</v>
+        <v>1.0833265532466021</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>1.6684988310128872</v>
+        <v>2.0856235387661091</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>1.0839528290874965</v>
+        <v>1.3549410363593706</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>0.32886390786478492</v>
+        <v>0.41107988483098112</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.2883071009466309</v>
+        <v>-1.6103838761832887</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-1.3016162648116962</v>
+        <v>-1.6270203310146203</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-1.072217639243142</v>
+        <v>-1.3402720490539275</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.51969990411570521</v>
+        <v>-0.64962488014463149</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-1.2924938404581385</v>
+        <v>-1.6156173005726733</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.72169841429437465</v>
+        <v>-0.90212301786796834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-1.0110749121253249</v>
+        <v>-1.2638436401566562</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-1.6434450314099072</v>
+        <v>-2.0543062892623838</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-2.6494045401669415</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-2.930933801570232</v>
+        <v>-3.66366725196279</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4784,99 +4784,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>2.9021475728546955</v>
+        <v>4.8369126214244931</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>2.0707174458272224</v>
+        <v>3.4511957430453704</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>1.7246934053984824</v>
+        <v>2.8744890089974708</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>2.2107577198294512</v>
+        <v>3.6845961997157515</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>1.9812226934117794</v>
+        <v>3.3020378223529656</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>1.5650246127764924</v>
+        <v>2.6083743546274873</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>1.347752146645909</v>
+        <v>2.2462535777431816</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>4.5250694742205928</v>
+        <v>7.5417824570343219</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>4.8771423165533152</v>
+        <v>8.1285705275888596</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>4.1831490458269034</v>
+        <v>6.9719150763781723</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>4.8736723355263649</v>
+        <v>8.1227872258772749</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>4.5286105930710026</v>
+        <v>7.5476843217850043</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>4.413456859644219</v>
+        <v>7.3557614327403638</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>3.9812635827191771</v>
+        <v>6.6354393045319613</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>2.4102267940788953</v>
+        <v>4.0170446567981593</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>3.7363117673809185</v>
+        <v>6.2271862789681975</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>4.5259410847579442</v>
+        <v>7.5432351412632404</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>4.2229865893098921</v>
+        <v>7.0383109821831535</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>2.8930063873234371</v>
+        <v>4.8216773122057281</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>3.0922714229604313</v>
+        <v>5.1537857049340516</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>2.8237065231349616</v>
+        <v>4.7061775385582694</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>1.7340521816385417</v>
+        <v>2.8900869693975695</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>1.3692917860292226</v>
+        <v>2.2821529767153708</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>1.4626571634682384</v>
+        <v>2.4377619391137308</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4885,99 +4885,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-4.5806696354092908</v>
+        <v>-6.8710044531139358</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-4.5343165604239468</v>
+        <v>-6.8014748406359207</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-4.6594319104339812</v>
+        <v>-6.9891478656509722</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-4.9216095835004348</v>
+        <v>-7.3824143752506526</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-4.922607593048407</v>
+        <v>-7.3839113895726101</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-4.4735109714479666</v>
+        <v>-6.7102664571719508</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-2.8646426861157321</v>
+        <v>-4.2969640291735978</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-0.53447043400430005</v>
+        <v>-0.80170565100645008</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-0.58015785250260421</v>
+        <v>-0.87023677875390626</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.37678502001081704</v>
+        <v>-0.56517753001622562</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-0.33190901969516973</v>
+        <v>-0.49786352954275465</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-1.5115188763242504</v>
+        <v>-2.2672783144863757</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-2.1860850593946703</v>
+        <v>-3.2791275890920057</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-2.8911481050889485</v>
+        <v>-4.3367221576334227</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-2.8978223305368274</v>
+        <v>-4.3467334958052408</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-2.9468280143511443</v>
+        <v>-4.4202420215267164</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-2.226046392593962</v>
+        <v>-3.3390695888909434</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>0.73163810706714949</v>
+        <v>1.0974571606007242</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-0.10416541002266824</v>
+        <v>-0.15624811503400235</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-1.2668604871130484</v>
+        <v>-1.9002907306695727</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-2.2792325796712292</v>
+        <v>-3.4188488695068435</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-3.0587093581512859</v>
+        <v>-4.5880640372269283</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-3.3878727368246961</v>
+        <v>-5.0818091052370447</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-3.8028943529031083</v>
+        <v>-5.7043415293546627</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4986,99 +4986,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-3.504606727361284</v>
+        <v>-4.3807584092016052</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-3.7440404257534912</v>
+        <v>-4.6800505321918635</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-3.8508415012190675</v>
+        <v>-4.8135518765238343</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-3.761725537209514</v>
+        <v>-4.7021569215118921</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-3.6895571794376911</v>
+        <v>-4.6119464742971141</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-3.1438144999088928</v>
+        <v>-3.9297681248861158</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-0.11823695016289544</v>
+        <v>-0.1477961877036193</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>1.6046367703365041</v>
+        <v>2.0057959629206303</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>2.0657975314577399</v>
+        <v>2.5822469143221749</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>1.4678649622453182</v>
+        <v>1.8348312028066478</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>0.83267452720130974</v>
+        <v>1.0408431590016372</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>1.6684988310128872</v>
+        <v>2.0856235387661091</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>1.0520718635260995</v>
+        <v>1.3150898294076243</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>0.32241559594586761</v>
+        <v>0.40301949493233452</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.2883071009466309</v>
+        <v>-1.6103838761832887</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-1.2633334334937054</v>
+        <v>-1.5791667918671317</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-1.0406818263242261</v>
+        <v>-1.3008522829052827</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.54091214510001973</v>
+        <v>-0.67614018137502463</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-1.3183437172673012</v>
+        <v>-1.6479296465841264</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.72169841429437465</v>
+        <v>-0.90212301786796834</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-0.99085341388281833</v>
+        <v>-1.238566767353523</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-1.6602148786691922</v>
+        <v>-2.07526859833649</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-2.6494045401669415</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-2.9907487771124819</v>
+        <v>-3.7384359713906026</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -9666,99 +9666,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.4638800000000014</v>
+        <v>15.663880000000004</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.3786489922480634</v>
+        <v>15.518183875968994</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.0225702325581398</v>
+        <v>14.936523720930234</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.8541984496124044</v>
+        <v>14.661175193798449</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.7654344186046522</v>
+        <v>14.530550697674418</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.8766908527131783</v>
+        <v>14.727853643410853</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.8222266666666673</v>
+        <v>14.622226666666668</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>10.660761550387598</v>
+        <v>17.753784806201551</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.46401550387597</v>
+        <v>19.09424806201551</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.322562170542636</v>
+        <v>18.852794728682166</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.126491782945738</v>
+        <v>18.533468527131784</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.266538294573644</v>
+        <v>18.764212713178296</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.693534573643413</v>
+        <v>19.467953178294579</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.500647131782944</v>
+        <v>19.12855410852713</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>10.61504558139535</v>
+        <v>17.649929302325582</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>10.938424186046513</v>
+        <v>18.189586976744184</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.036925581395348</v>
+        <v>18.371809302325584</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>10.71001488372093</v>
+        <v>17.803038139534884</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.143685581395347</v>
+        <v>16.878569302325584</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.00233581395349</v>
+        <v>16.651173023255815</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.9860204651162796</v>
+        <v>16.613927441860469</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.8575258914728678</v>
+        <v>16.411014263565892</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.2082942635658931</v>
+        <v>15.264108217054268</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>8.9338942635658931</v>
+        <v>14.789708217054265</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9767,99 +9767,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.016558571428571</v>
+        <v>10.442897857142857</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>6.6314002380952362</v>
+        <v>9.86242702380952</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>6.3569971428571428</v>
+        <v>9.459675714285714</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.8022154761904767</v>
+        <v>8.6314565476190488</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.5641885714285708</v>
+        <v>8.2874028571428564</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.8253930952380948</v>
+        <v>8.6881163095238083</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.2159766666666663</v>
+        <v>9.2628516666666663</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.2020302380952366</v>
+        <v>12.292432023809521</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.9472380952380934</v>
+        <v>13.411523809523809</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.5473026190476205</v>
+        <v>14.307347261904763</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.6990623809523804</v>
+        <v>13.040580238095238</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.1383302380952376</v>
+        <v>13.697482023809522</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.1613709523809508</v>
+        <v>13.726103095238093</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.9650366666666663</v>
+        <v>13.418161666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.7189699999999997</v>
+        <v>11.547095000000001</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.0415907142857144</v>
+        <v>12.031546071428572</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.4832607142857128</v>
+        <v>12.70759107142857</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.4856585714285693</v>
+        <v>12.693247857142854</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.8136814285714262</v>
+        <v>13.19984214285714</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.2701514285714275</v>
+        <v>13.890687142857141</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.7093385714285709</v>
+        <v>14.541927857142856</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.9000611904761904</v>
+        <v>13.336445119047617</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.7473411904761891</v>
+        <v>11.558725119047619</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.1925840476190466</v>
+        <v>10.713789404761904</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9868,99 +9868,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.6494105466237938</v>
+        <v>5.7707931832797419</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.3847807502679528</v>
+        <v>5.4386392711682747</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.0358843729903544</v>
+        <v>5.0069454662379425</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.1855339764201505</v>
+        <v>5.1959841371918545</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.0856056591639875</v>
+        <v>5.0775670739549836</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.1481781779206859</v>
+        <v>5.1602360557341909</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.8617765058949631</v>
+        <v>7.2966639657020371</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.3684935476956062</v>
+        <v>9.2053102679528429</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.7196312968917464</v>
+        <v>9.6448724544480164</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.2490782851018221</v>
+        <v>9.0545445230439459</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.0835507824222939</v>
+        <v>8.8504318113612008</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.6180974062165063</v>
+        <v>9.5176150911039663</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.9772442872454459</v>
+        <v>9.9635786923901399</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.4349924544480173</v>
+        <v>9.2790439013933543</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.7894081028938915</v>
+        <v>8.4710801286173645</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.4411012218649519</v>
+        <v>8.0359565273311908</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.5555003215434082</v>
+        <v>8.1857254019292593</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.3695153697749198</v>
+        <v>7.9442742122186498</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.195700836012862</v>
+        <v>7.734286045016078</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.7364754983922834</v>
+        <v>8.4133243729903544</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>7.0698834726688107</v>
+        <v>8.8263143408360136</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>6.5835634297963566</v>
+        <v>8.2226309539121107</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>5.8705540407288312</v>
+        <v>7.3070492175777053</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.9379546838156489</v>
+        <v>6.1349000214362279</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10371,99 +10371,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.5568800000000032</v>
+        <v>15.818880000000004</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.3786489922480634</v>
+        <v>15.518183875968994</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>8.8451516279069775</v>
+        <v>14.640826046511629</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.8541984496124044</v>
+        <v>14.661175193798453</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.5924809302325578</v>
+        <v>14.24229488372093</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.8766908527131783</v>
+        <v>14.727853643410853</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.9962266666666668</v>
+        <v>14.912226666666667</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>10.660761550387598</v>
+        <v>17.753784806201551</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.578468992248062</v>
+        <v>19.285003875968997</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.322562170542636</v>
+        <v>18.852794728682166</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.015387131782946</v>
+        <v>18.348294108527131</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.041608062015506</v>
+        <v>18.389328992248064</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.460302015503878</v>
+        <v>19.07923224806202</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.729484341085271</v>
+        <v>19.509949457364339</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>10.826092093023258</v>
+        <v>18.001673488372091</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>11.047191627906978</v>
+        <v>18.370866046511626</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.146948837209301</v>
+        <v>18.555181395348836</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>10.497224186046513</v>
+        <v>17.448386976744185</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.345732093023257</v>
+        <v>17.215313488372097</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.9026032558139541</v>
+        <v>16.484952093023256</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>10.085439069767443</v>
+        <v>16.779625116279075</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.8575258914728678</v>
+        <v>16.411014263565892</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.3899686821705437</v>
+        <v>15.566898914728686</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>9.1095686821705435</v>
+        <v>15.082498914728685</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10472,99 +10472,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.016558571428571</v>
+        <v>10.442897857142857</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>6.6314002380952362</v>
+        <v>9.86242702380952</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>6.294943571428572</v>
+        <v>9.3665953571428577</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.8588002976190481</v>
+        <v>8.7163337797619054</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.5641885714285708</v>
+        <v>8.2874028571428564</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.9399020238095233</v>
+        <v>8.859879702380951</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.1550391666666666</v>
+        <v>9.1714454166666659</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.1202222023809529</v>
+        <v>12.169719970238095</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.0365238095238087</v>
+        <v>13.54545238095238</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.4521017261904756</v>
+        <v>14.164545922619048</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.785892738095237</v>
+        <v>13.170825773809522</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.1383302380952376</v>
+        <v>13.697482023809522</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.3439602380952369</v>
+        <v>13.999987023809522</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.9650366666666663</v>
+        <v>13.418161666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.5658450000000004</v>
+        <v>11.317407500000002</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.0415907142857144</v>
+        <v>12.031546071428572</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.5677473214285715</v>
+        <v>12.834320982142856</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.5698103571428561</v>
+        <v>12.819475535714284</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.9891278571428543</v>
+        <v>13.463011785714283</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.085329999999999</v>
+        <v>13.613454999999998</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.612686785714283</v>
+        <v>14.396950178571426</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.0775165476190462</v>
+        <v>13.602628154761904</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.6711135119047613</v>
+        <v>11.444383601190477</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.0517358333333338</v>
+        <v>10.502517083333334</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10573,99 +10573,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.5596999356913184</v>
+        <v>5.6586549196141478</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.4690894319399783</v>
+        <v>5.5440251232583062</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.9970419292604511</v>
+        <v>4.9583924115755647</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.1451159699892823</v>
+        <v>5.1454616291532691</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.1649625723472665</v>
+        <v>5.1767632154340832</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.0672135476956059</v>
+        <v>5.0590302679528412</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.746985509110397</v>
+        <v>7.1531752197213301</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.5154388853161853</v>
+        <v>9.3889919399785668</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.6426216505894953</v>
+        <v>9.5486103965702025</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.3212969346195065</v>
+        <v>9.1448178349410512</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.0835507824222947</v>
+        <v>8.8504318113612026</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.4661359914255092</v>
+        <v>9.3276633226152192</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.9772442872454459</v>
+        <v>9.9635786923901399</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.2874683386923902</v>
+        <v>9.0946387566988207</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.7894081028938915</v>
+        <v>8.4710801286173645</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.5048954340836014</v>
+        <v>8.1156992926045017</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.4902913183279747</v>
+        <v>8.1042141479099676</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.243534662379421</v>
+        <v>7.7867983279742763</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.1341574276527338</v>
+        <v>7.6573567845659172</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.8706234083601299</v>
+        <v>8.5810092604501627</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>6.999626237942123</v>
+        <v>8.7384927974276536</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>6.7146888317256161</v>
+        <v>8.3865377063236863</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>5.8705540407288312</v>
+        <v>7.3070492175777053</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.9858324973204722</v>
+        <v>6.1947472883172567</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11076,99 +11076,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.5568800000000032</v>
+        <v>15.818880000000004</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.5628350387596903</v>
+        <v>15.825160620155042</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>8.8451516279069775</v>
+        <v>14.640826046511629</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>9.0284077519379853</v>
+        <v>14.951524031007752</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.5924809302325578</v>
+        <v>14.24229488372093</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.7889234108527141</v>
+        <v>14.581574573643412</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.8222266666666673</v>
+        <v>14.622226666666668</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>10.873552248062015</v>
+        <v>18.10843596899225</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.235108527131784</v>
+        <v>18.712736434108532</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.209608682170542</v>
+        <v>18.664538914728681</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.237596434108529</v>
+        <v>18.718642945736434</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.266538294573644</v>
+        <v>18.764212713178296</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.576918294573646</v>
+        <v>19.273592713178299</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.271809922480617</v>
+        <v>18.747158759689921</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>10.509522325581397</v>
+        <v>17.474057209302327</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>11.155959069767443</v>
+        <v>18.552145116279068</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.146948837209301</v>
+        <v>18.555181395348836</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>10.497224186046513</v>
+        <v>17.448386976744185</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.143685581395347</v>
+        <v>16.878569302325584</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.9026032558139541</v>
+        <v>16.484952093023256</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.8866018604651149</v>
+        <v>16.448229767441862</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>10.054130542635658</v>
+        <v>16.738688682170544</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.3899686821705455</v>
+        <v>15.566898914728688</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>8.8460570542635661</v>
+        <v>14.643312868217057</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11177,99 +11177,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>7.085085357142856</v>
+        <v>10.545688035714285</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>6.696020773809523</v>
+        <v>9.9593578273809502</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>6.3569971428571428</v>
+        <v>9.459675714285714</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.9153851190476194</v>
+        <v>8.801211011904762</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.5097242857142845</v>
+        <v>8.2057064285714283</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.7681386309523806</v>
+        <v>8.6022346130952361</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.2769141666666659</v>
+        <v>9.3542579166666666</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>8.0384141666666657</v>
+        <v>12.047007916666665</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.7686666666666646</v>
+        <v>13.143666666666665</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.6425035119047617</v>
+        <v>14.450148601190477</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.5254016666666654</v>
+        <v>12.780089166666665</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.1383302380952376</v>
+        <v>13.697482023809522</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.0700763095238077</v>
+        <v>13.58916113095238</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>8.9650366666666663</v>
+        <v>13.418161666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.6424074999999991</v>
+        <v>11.43225125</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.121389821428572</v>
+        <v>12.151244732142858</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.6522339285714285</v>
+        <v>12.961050892857143</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>8.5698103571428561</v>
+        <v>12.819475535714284</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>8.6382349999999981</v>
+        <v>12.936672499999997</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.2701514285714275</v>
+        <v>13.890687142857141</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.5160349999999987</v>
+        <v>14.251972499999999</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.9000611904761904</v>
+        <v>13.336445119047617</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.7473411904761891</v>
+        <v>11.558725119047619</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>7.2630081547619039</v>
+        <v>10.819425565476189</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11278,99 +11278,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>4.694265852090032</v>
+        <v>5.8268623151125398</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>4.3004720685959272</v>
+        <v>5.3332534190782424</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.113569260450161</v>
+        <v>5.1040515755627016</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>4.2259519828510186</v>
+        <v>5.2465066452304399</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>4.0459272025723472</v>
+        <v>5.0279690032154338</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.0672135476956051</v>
+        <v>5.0590302679528403</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>5.9765675026795293</v>
+        <v>7.4401527116827451</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.4419662165058957</v>
+        <v>9.2971511039657031</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.6426216505894953</v>
+        <v>9.5486103965702025</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.3935155841371918</v>
+        <v>9.2350911468381565</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>6.9422003001071815</v>
+        <v>8.6737437084673097</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.7700588210075034</v>
+        <v>9.7075668595927134</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.1361510396570207</v>
+        <v>10.162212132904608</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.2874683386923902</v>
+        <v>9.0946387566988207</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.7221412218649528</v>
+        <v>8.3869965273311919</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.5686896463022508</v>
+        <v>8.1954420578778144</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.6859183279742762</v>
+        <v>8.3487479099678445</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.243534662379421</v>
+        <v>7.7867983279742763</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.3187876527331195</v>
+        <v>7.8881445659163996</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.6694015434083607</v>
+        <v>8.3294819292604512</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>7.2103979421221869</v>
+        <v>9.0019574276527337</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>6.4524380278670961</v>
+        <v>8.0587242015005351</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>5.9280138478027862</v>
+        <v>7.3788739764201496</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.8421990568060025</v>
+        <v>6.0152054876741694</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11781,99 +11781,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>2.2147651006711411</v>
+        <v>3.6912751677852351</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>2.4463087248322148</v>
+        <v>4.077181208053692</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>2.3053691275167787</v>
+        <v>3.8422818791946312</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>2.3053691275167787</v>
+        <v>3.8422818791946312</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>2.2550335570469802</v>
+        <v>3.7583892617449663</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>2.385906040268456</v>
+        <v>3.9765100671140936</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>2.4563758389261747</v>
+        <v>4.0939597315436247</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>4.6006711409395979</v>
+        <v>7.6677852348993287</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>5.3557046979865772</v>
+        <v>8.9261744966442951</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>5.1543624161073822</v>
+        <v>8.5906040268456358</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>5.0335570469798654</v>
+        <v>8.3892617449664435</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>5.0234899328859068</v>
+        <v>8.3724832214765108</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>5.3456375838926169</v>
+        <v>8.9093959731543606</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>5.1845637583892623</v>
+        <v>8.6409395973154375</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>3.6342281879194624</v>
+        <v>6.0570469798657713</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>4.7516778523489931</v>
+        <v>7.9194630872483218</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>4.8120805369127515</v>
+        <v>8.0201342281879189</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>4.5100671140939603</v>
+        <v>7.5167785234899327</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>3.5738255033557049</v>
+        <v>5.9563758389261743</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>3.2416107382550337</v>
+        <v>5.40268456375839</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>3.4026845637583891</v>
+        <v>5.6711409395973158</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>3.4127516778523486</v>
+        <v>5.6879194630872476</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>2.3557046979865772</v>
+        <v>3.9261744966442951</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>2.3355704697986579</v>
+        <v>3.8926174496644301</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11882,99 +11882,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>9.2592592592592587E-2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-0.55555555555555558</v>
+        <v>-0.83333333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-0.60185185185185186</v>
+        <v>-0.90277777777777768</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-0.87962962962962965</v>
+        <v>-1.3194444444444444</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-1.0648148148148147</v>
+        <v>-1.5972222222222221</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-0.83333333333333348</v>
+        <v>-1.2500000000000002</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-1.0648148148148149</v>
+        <v>-1.5972222222222223</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>2.6851851851851856</v>
+        <v>4.0277777777777786</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>3.4259259259259256</v>
+        <v>5.1388888888888884</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>4.3981481481481479</v>
+        <v>6.5972222222222214</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>2.2685185185185182</v>
+        <v>3.4027777777777777</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>1.5740740740740742</v>
+        <v>2.3611111111111112</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>2.1296296296296293</v>
+        <v>3.1944444444444442</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>0.92592592592592582</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>0.78703703703703698</v>
+        <v>1.1805555555555554</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>0.92592592592592582</v>
+        <v>1.3888888888888888</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>1.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>3.1944444444444446</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>3.24074074074074</v>
+        <v>4.8611111111111098</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>2.5925925925925917</v>
+        <v>3.888888888888888</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>1.9907407407407407</v>
+        <v>2.9861111111111112</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>0.92592592592592571</v>
+        <v>1.3888888888888886</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>0.18518518518518517</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11983,99 +11983,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.55882352941176472</v>
+        <v>-0.69852941176470584</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-1.3235294117647056</v>
+        <v>-1.654411764705882</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-2.3088235294117645</v>
+        <v>-2.8860294117647056</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-2.1323529411764706</v>
+        <v>-2.6654411764705883</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-2.1764705882352939</v>
+        <v>-2.7205882352941173</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-2.0735294117647061</v>
+        <v>-2.5919117647058827</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-0.11764705882352941</v>
+        <v>-0.14705882352941177</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>2.4852941176470584</v>
+        <v>3.1066176470588229</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>3.2647058823529407</v>
+        <v>4.0808823529411757</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>3.2941176470588238</v>
+        <v>4.1176470588235299</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>2.75</v>
+        <v>3.4375</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>3.4411764705882351</v>
+        <v>4.3014705882352935</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>3.1176470588235294</v>
+        <v>3.8970588235294117</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>2.7205882352941173</v>
+        <v>3.4007352941176467</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>1.9558823529411762</v>
+        <v>2.4448529411764701</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>1.2205882352941178</v>
+        <v>1.5257352941176472</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>1.5147058823529411</v>
+        <v>1.8933823529411764</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>1.3529411764705881</v>
+        <v>1.6911764705882351</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>0.24999999999999997</v>
+        <v>0.31249999999999994</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>1.088235294117647</v>
+        <v>1.3602941176470587</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>1.5294117647058822</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-0.92647058823529405</v>
+        <v>-1.1580882352941175</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-1.8970588235294117</v>
+        <v>-2.3713235294117645</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12486,99 +12486,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>2.1704697986577179</v>
+        <v>3.6174496644295302</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>2.4707718120805375</v>
+        <v>4.1179530201342294</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>2.3514765100671138</v>
+        <v>3.9191275167785236</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>2.3284228187919465</v>
+        <v>3.8807046979865771</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>2.2775838926174501</v>
+        <v>3.7959731543624162</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>2.3381879194630866</v>
+        <v>3.8969798657718115</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>2.4563758389261747</v>
+        <v>4.0939597315436247</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>4.69268456375839</v>
+        <v>7.8211409395973162</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>5.4092617449664431</v>
+        <v>9.0154362416107396</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>5.2574496644295294</v>
+        <v>8.7624161073825491</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>4.9328859060402683</v>
+        <v>8.221476510067113</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>5.0737248322147659</v>
+        <v>8.4562080536912774</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>5.3456375838926169</v>
+        <v>8.9093959731543606</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>5.2364093959731548</v>
+        <v>8.7273489932885902</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>3.6342281879194624</v>
+        <v>6.0570469798657713</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>4.6566442953020131</v>
+        <v>7.7610738255033551</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>4.9083221476510071</v>
+        <v>8.1805369127516787</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>4.4198657718120806</v>
+        <v>7.366442953020135</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>3.6453020134228185</v>
+        <v>6.075503355704698</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>3.3064429530201349</v>
+        <v>5.5107382550335586</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>3.4707382550335568</v>
+        <v>5.784563758389262</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>3.4127516778523486</v>
+        <v>5.6879194630872476</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>2.4028187919463084</v>
+        <v>4.004697986577181</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>2.3589261744966445</v>
+        <v>3.9315436241610739</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12587,99 +12587,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>9.0740740740740733E-2</v>
+        <v>0.1361111111111111</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-0.54444444444444451</v>
+        <v>-0.81666666666666676</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-0.61388888888888882</v>
+        <v>-0.92083333333333317</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-0.89722222222222237</v>
+        <v>-1.3458333333333334</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-1.0648148148148147</v>
+        <v>-1.5972222222222221</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-0.83333333333333348</v>
+        <v>-1.2500000000000002</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-1.0435185185185185</v>
+        <v>-1.5652777777777778</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>2.6851851851851856</v>
+        <v>4.0277777777777786</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>3.4259259259259252</v>
+        <v>5.1388888888888875</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>4.3101851851851851</v>
+        <v>6.4652777777777768</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>2.2231481481481481</v>
+        <v>3.3347222222222221</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>1.5583333333333336</v>
+        <v>2.3375000000000004</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>2.0870370370370366</v>
+        <v>3.1305555555555551</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>0.94444444444444442</v>
+        <v>1.4166666666666665</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>0.77916666666666645</v>
+        <v>1.1687499999999997</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>0.90740740740740744</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>1.6500000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>3.2583333333333337</v>
+        <v>4.8875000000000002</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>3.273148148148147</v>
+        <v>4.9097222222222205</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>2.5407407407407403</v>
+        <v>3.81111111111111</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>1.9907407407407407</v>
+        <v>2.9861111111111112</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>0.93518518518518501</v>
+        <v>1.4027777777777775</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>0.187037037037037</v>
+        <v>0.2805555555555555</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12688,99 +12688,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.56999999999999995</v>
+        <v>-0.71249999999999991</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-1.3499999999999996</v>
+        <v>-1.6874999999999996</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-2.3549999999999995</v>
+        <v>-2.9437499999999996</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-2.1536764705882354</v>
+        <v>-2.6920955882352944</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-2.2199999999999998</v>
+        <v>-2.7749999999999995</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-2.0942647058823529</v>
+        <v>-2.617830882352941</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-0.11529411764705882</v>
+        <v>-0.14411764705882352</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>2.4604411764705878</v>
+        <v>3.075551470588235</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>3.3299999999999996</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>3.3270588235294123</v>
+        <v>4.158823529411765</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>2.7225000000000001</v>
+        <v>3.4031250000000002</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>3.4067647058823525</v>
+        <v>4.2584558823529406</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>3.0552941176470592</v>
+        <v>3.8191176470588237</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>2.6661764705882347</v>
+        <v>3.3327205882352935</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>1.9363235294117644</v>
+        <v>2.4204044117647054</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>1.2327941176470589</v>
+        <v>1.5409926470588236</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>1.5147058823529411</v>
+        <v>1.8933823529411764</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>1.3529411764705881</v>
+        <v>1.6911764705882351</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>0.25499999999999995</v>
+        <v>0.31874999999999992</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>1.0773529411764704</v>
+        <v>1.346691176470588</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>1.5294117647058822</v>
+        <v>1.9117647058823528</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>1.01</v>
+        <v>1.2625</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-0.935735294117647</v>
+        <v>-1.1696691176470588</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-1.9350000000000001</v>
+        <v>-2.4187500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13191,99 +13191,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>2.1704697986577179</v>
+        <v>3.6174496644295302</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>2.4463087248322148</v>
+        <v>4.077181208053692</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>2.2823154362416109</v>
+        <v>3.8038590604026852</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>2.2592617449664432</v>
+        <v>3.7654362416107383</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>2.2324832214765102</v>
+        <v>3.7208053691275165</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>2.3381879194630866</v>
+        <v>3.8969798657718115</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>2.4563758389261747</v>
+        <v>4.0939597315436247</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>4.69268456375839</v>
+        <v>7.8211409395973162</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>5.4092617449664431</v>
+        <v>9.0154362416107396</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>5.1543624161073822</v>
+        <v>8.5906040268456358</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>4.9832214765100673</v>
+        <v>8.30536912751678</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>5.1239597315436249</v>
+        <v>8.5399328859060422</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>5.4525503355704688</v>
+        <v>9.0875838926174488</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>5.0808724832214764</v>
+        <v>8.4681208053691286</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>3.6342281879194624</v>
+        <v>6.0570469798657713</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>4.7041610738255031</v>
+        <v>7.8402684563758385</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>4.9083221476510071</v>
+        <v>8.1805369127516787</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>4.4649664429530205</v>
+        <v>7.4416107382550329</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>3.5023489932885905</v>
+        <v>5.8372483221476514</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>3.2740268456375841</v>
+        <v>5.4567114093959734</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>3.4707382550335568</v>
+        <v>5.784563758389262</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>3.3444966442953019</v>
+        <v>5.5741610738255032</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>2.3085906040268451</v>
+        <v>3.8476510067114091</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>2.2888590604026851</v>
+        <v>3.8147651006711412</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13292,99 +13292,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>9.1666666666666674E-2</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-0.55555555555555558</v>
+        <v>-0.83333333333333337</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-0.60787037037037039</v>
+        <v>-0.91180555555555554</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-0.87083333333333346</v>
+        <v>-1.3062500000000001</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-1.0754629629629628</v>
+        <v>-1.6131944444444442</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-0.81666666666666676</v>
+        <v>-1.2250000000000001</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-1.0648148148148149</v>
+        <v>-1.5972222222222223</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>2.712037037037037</v>
+        <v>4.0680555555555555</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>3.4944444444444445</v>
+        <v>5.2416666666666671</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>4.398148148148147</v>
+        <v>6.5972222222222205</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>2.5249999999999999</v>
+        <v>3.7875000000000001</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>2.2231481481481481</v>
+        <v>3.3347222222222221</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>1.5425925925925927</v>
+        <v>2.3138888888888891</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>2.1509259259259257</v>
+        <v>3.2263888888888883</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>0.90740740740740744</v>
+        <v>1.3611111111111112</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>0.77916666666666645</v>
+        <v>1.1687499999999997</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>0.91666666666666663</v>
+        <v>1.375</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>1.6666666666666663</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>3.130555555555556</v>
+        <v>4.6958333333333337</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>3.273148148148147</v>
+        <v>4.9097222222222205</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>2.566666666666666</v>
+        <v>3.8499999999999988</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>1.9907407407407407</v>
+        <v>2.9861111111111112</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>0.90740740740740733</v>
+        <v>1.3611111111111109</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>0.18333333333333335</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13393,99 +13393,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.55882352941176472</v>
+        <v>-0.69852941176470584</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-1.3235294117647056</v>
+        <v>-1.654411764705882</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-2.3088235294117645</v>
+        <v>-2.8860294117647056</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-2.1536764705882354</v>
+        <v>-2.6920955882352944</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-2.1547058823529408</v>
+        <v>-2.693382352941176</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-2.0942647058823529</v>
+        <v>-2.617830882352941</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-0.11529411764705882</v>
+        <v>-0.14411764705882352</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>2.5349999999999997</v>
+        <v>3.1687499999999997</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>3.3299999999999996</v>
+        <v>4.1624999999999996</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>3.2941176470588238</v>
+        <v>4.1176470588235299</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>2.7225000000000001</v>
+        <v>3.4031250000000002</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>3.4755882352941176</v>
+        <v>4.3444852941176473</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>3.1488235294117648</v>
+        <v>3.9360294117647059</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>2.7205882352941173</v>
+        <v>3.4007352941176467</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>1.9754411764705879</v>
+        <v>2.4693014705882348</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>1.2205882352941178</v>
+        <v>1.5257352941176472</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>1.5298529411764705</v>
+        <v>1.912316176470588</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>1.3664705882352939</v>
+        <v>1.7080882352941174</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>0.25499999999999995</v>
+        <v>0.31874999999999992</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>1.0664705882352941</v>
+        <v>1.3330882352941176</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>1.5141176470588236</v>
+        <v>1.8926470588235293</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>0.99</v>
+        <v>1.2375</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-0.94499999999999984</v>
+        <v>-1.1812499999999999</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-1.9160294117647059</v>
+        <v>-2.3950367647058823</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16069,7 +16069,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18487,99 +18487,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.3651545737988489</v>
+        <v>15.499337622998082</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.0267596431998598</v>
+        <v>14.93170162755532</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>8.6935595987208565</v>
+        <v>14.388172664534761</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.9434660672759989</v>
+        <v>14.809954556571107</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.6691839233568473</v>
+        <v>14.370133205594744</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.6627600282606263</v>
+        <v>14.371302269323264</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.7640747426135768</v>
+        <v>14.525306793244848</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>11.238315529315372</v>
+        <v>18.716374771081178</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.460016716149569</v>
+        <v>19.08758341580484</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.359407099079101</v>
+        <v>18.914202942909611</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.313815383853385</v>
+        <v>18.845674528644526</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.555238671048429</v>
+        <v>19.245380007302934</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.442946316435117</v>
+        <v>19.050306082947422</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.267827622395581</v>
+        <v>18.740521592881525</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.8135423920449369</v>
+        <v>16.314090653408226</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>10.552036662372103</v>
+        <v>17.545607770620169</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.439713474308343</v>
+        <v>19.043122457180576</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>11.301870904339921</v>
+        <v>18.789464840566538</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.694014243430054</v>
+        <v>17.795783739050091</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.187787852298957</v>
+        <v>16.960259753831593</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>10.131100031948824</v>
+        <v>16.855726719914706</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.6659473774940352</v>
+        <v>16.091716740267834</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>8.8297207460659024</v>
+        <v>14.633152354554284</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>8.6667225680775406</v>
+        <v>14.344422057907012</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18588,99 +18588,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.7104431087199483</v>
+        <v>8.4837246630799239</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.558053300604584</v>
+        <v>8.2524066175735413</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.3114555793845462</v>
+        <v>7.891363369076819</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.2608245783573828</v>
+        <v>7.8193702008694075</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.2862688358191265</v>
+        <v>7.87052325372869</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.6184274573320474</v>
+        <v>8.3776678526647377</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.7750427143008896</v>
+        <v>10.101450738118002</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.7881311450912518</v>
+        <v>11.671583384303545</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.4623518085167504</v>
+        <v>12.684194379441793</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.7259276706805622</v>
+        <v>13.075284839354177</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.6959243344900745</v>
+        <v>13.035873168401778</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>8.4932237684848833</v>
+        <v>12.729822319393991</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.1977414636834567</v>
+        <v>12.280658862191851</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.8245471844846763</v>
+        <v>11.707427443393682</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.2954291569105036</v>
+        <v>10.911783735365757</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.5188773220450473</v>
+        <v>11.247475983067572</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.3295798371795655</v>
+        <v>12.47706975576935</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>9.9878910268990104</v>
+        <v>14.946596540348516</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.4871463973530261</v>
+        <v>14.21003959602954</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.7542180566497692</v>
+        <v>13.116787084974654</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.5026009159377143</v>
+        <v>12.73182137390657</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.9159645530840068</v>
+        <v>11.860300162959343</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3442994844828133</v>
+        <v>10.954162560057554</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.5363495824133366</v>
+        <v>9.7294377069533375</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18689,99 +18689,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.906013153293272</v>
+        <v>4.8415464416165905</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.687835720125737</v>
+        <v>4.5674579834905042</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.5563972101570509</v>
+        <v>4.4075865126963141</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.6197111754327369</v>
+        <v>4.4887056359575874</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.6264374975454681</v>
+        <v>4.5036068719318347</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.111626374702924</v>
+        <v>5.1145463017119885</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.601098084211392</v>
+        <v>8.220815938597573</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.6174171861558913</v>
+        <v>9.5164648160281988</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.9549146180859651</v>
+        <v>9.9389766059407894</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.7126421203317621</v>
+        <v>9.6339993170813703</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.4189789394962782</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.8952317129621656</v>
+        <v>9.8640329745360411</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.3326088200093125</v>
+        <v>9.1577843583449727</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.0103195964928862</v>
+        <v>8.7482028289494416</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.0750143075844285</v>
+        <v>7.5780878844805359</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.0491414916056518</v>
+        <v>7.5460068645070644</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.273540255937391</v>
+        <v>7.8332753199217384</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.8086713937240724</v>
+        <v>8.4932192421550905</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.1989000438796973</v>
+        <v>7.738285054849622</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.4278640925165762</v>
+        <v>8.0275601156457199</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>6.2570285400118815</v>
+        <v>7.8102456750148521</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.8699561964944422</v>
+        <v>7.3306219122847196</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.9782256383494987</v>
+        <v>6.1916387146035401</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.4310541010499458</v>
+        <v>5.5012742929790992</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19194,99 +19194,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.3651545737988489</v>
+        <v>15.499337622998082</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.1153337729651902</v>
+        <v>15.079325177164208</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>8.6081404027336497</v>
+        <v>14.245807337889413</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.7674714125971445</v>
+        <v>14.516630132106352</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.6691839233568473</v>
+        <v>14.370133205594744</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.8340162954925052</v>
+        <v>14.656729381376399</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.5912377810946374</v>
+        <v>14.237245190713285</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>11.462657306568348</v>
+        <v>19.090277733169469</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.5744302166444</v>
+        <v>19.278272583296221</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.586050974394016</v>
+        <v>19.291942735101134</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.200837496681517</v>
+        <v>18.65737805002475</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.439886551004609</v>
+        <v>19.053126473896572</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.328835919937434</v>
+        <v>18.860122088784614</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.043646803281003</v>
+        <v>18.366886894357226</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>9.9110506159653866</v>
+        <v>16.476604359942307</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>10.761843795619546</v>
+        <v>17.895286326032572</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.667815743794511</v>
+        <v>19.423292906324189</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>11.526498722426721</v>
+        <v>19.163844537377869</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.800540785864355</v>
+        <v>17.973327976440594</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>10.289374930821946</v>
+        <v>17.12957155136991</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.929361231309846</v>
+        <v>16.519495385516411</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.5695608370524283</v>
+        <v>15.93107250619849</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>9.0038236943205554</v>
+        <v>14.923323934978701</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>8.7518880604249834</v>
+        <v>14.486364545152751</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19295,99 +19295,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.7104431087199483</v>
+        <v>8.4837246630799239</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.4502791679258253</v>
+        <v>8.0907454185554055</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.2082592677968549</v>
+        <v>7.7365689016952821</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.2608245783573828</v>
+        <v>7.8193702008694075</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.2862688358191265</v>
+        <v>7.87052325372869</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.6736122652387015</v>
+        <v>8.460445064524718</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.6419863933482048</v>
+        <v>9.9018662566889741</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.7881311450912518</v>
+        <v>11.671583384303545</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.4623518085167504</v>
+        <v>12.684194379441793</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.8129148140540359</v>
+        <v>13.205765554414386</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.5223263811336061</v>
+        <v>12.775476238367077</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>8.6626877105212472</v>
+        <v>12.984018232448538</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.3610581596237932</v>
+        <v>12.525633906102355</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.9798623948410352</v>
+        <v>11.94040025892822</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.4400833400487132</v>
+        <v>11.128765010073071</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.5934492952654979</v>
+        <v>11.359333942898248</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.3295798371795655</v>
+        <v>12.47706975576935</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>9.7895428063610304</v>
+        <v>14.649074209541546</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.5816042613265573</v>
+        <v>14.351726391989837</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.841469437216265</v>
+        <v>13.247664155824397</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.6717697342564684</v>
+        <v>12.985574601384702</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.9159645530840068</v>
+        <v>11.860300162959343</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.1999049614598229</v>
+        <v>10.73757077552307</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.6002113449041371</v>
+        <v>9.8252303506895391</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19396,99 +19396,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.9808558163591377</v>
+        <v>4.9350997704489226</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.7582055011949183</v>
+        <v>4.655420209826981</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.5223496380554806</v>
+        <v>4.3650270475693507</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.6892307322747246</v>
+        <v>4.5756050820100729</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.5562639475945588</v>
+        <v>4.4158899344931983</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.0313927805421983</v>
+        <v>5.0142543090110818</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.6658867983868397</v>
+        <v>8.3018018313168831</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.6174171861558904</v>
+        <v>9.516464816028197</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.7961896590575792</v>
+        <v>9.7405704071553068</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.6357878324617774</v>
+        <v>9.5379314572438894</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.4189789394962782</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.7377276120362559</v>
+        <v>9.6671528483786524</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.1865947769424592</v>
+        <v>8.9752668045114063</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.0103195964928862</v>
+        <v>8.7482028289494416</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.0750143075844285</v>
+        <v>7.5780878844805359</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.1090161065217083</v>
+        <v>7.6208501331521354</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.1487614508186432</v>
+        <v>7.6773018135233038</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.876053307661314</v>
+        <v>8.577446634576642</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.0757492430021038</v>
+        <v>7.5843465537526296</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.4278640925165762</v>
+        <v>8.0275601156457199</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>6.1948998546117631</v>
+        <v>7.7325848182647041</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.7531029392312201</v>
+        <v>7.1845553407056917</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.8811525922491752</v>
+        <v>6.0702974069781357</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.5166717164042778</v>
+        <v>5.6082963121720137</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19899,99 +19899,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>9.1811290823228706</v>
+        <v>15.19262847053812</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>8.9381855134345276</v>
+        <v>14.784078077946434</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>8.8643979906952737</v>
+        <v>14.672903317825455</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>9.1194607219548516</v>
+        <v>15.103278981035864</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.4981554448897114</v>
+        <v>14.08508574148285</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.4915037610287474</v>
+        <v>14.085875157270133</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>8.7640747426135768</v>
+        <v>14.525306793244848</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>11.238315529315372</v>
+        <v>18.716374771081174</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>11.688843717139228</v>
+        <v>19.468961750787606</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>11.472729036736558</v>
+        <v>19.103072839005375</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>11.539771158197118</v>
+        <v>19.222267485884085</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>11.670590791092245</v>
+        <v>19.437633540709296</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>11.21472552343975</v>
+        <v>18.669938094621809</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>11.492008441510158</v>
+        <v>19.11415629140582</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>10.008558839885836</v>
+        <v>16.639118066476392</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>10.761843795619546</v>
+        <v>17.895286326032572</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>11.439713474308343</v>
+        <v>19.043122457180576</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>11.301870904339921</v>
+        <v>18.789464840566538</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>10.587487700995753</v>
+        <v>17.618239501659591</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>9.9846136952529783</v>
+        <v>16.621636158754963</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>10.030230631629335</v>
+        <v>16.68761105271556</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>9.858720458377249</v>
+        <v>16.413005208406524</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>8.6556177978112512</v>
+        <v>14.342980774129861</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>8.5815570757300978</v>
+        <v>14.202479570661277</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20000,99 +20000,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.654977477632749</v>
+        <v>8.4005262164491246</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.6658274332833427</v>
+        <v>8.4140678165916789</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.2082592677968549</v>
+        <v>7.7365689016952821</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.2608245783573828</v>
+        <v>7.8193702008694075</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.2345837474609356</v>
+        <v>7.7929956211914035</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.6736122652387015</v>
+        <v>8.460445064524718</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.9080990352535743</v>
+        <v>10.301035219547028</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.7881311450912518</v>
+        <v>11.671583384303545</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>8.293478105679748</v>
+        <v>12.430883825186291</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>8.8999019574275078</v>
+        <v>13.336246269474595</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.6091253578118394</v>
+        <v>12.905674703384427</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>8.6626877105212472</v>
+        <v>12.984018232448538</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>8.0344247677431202</v>
+        <v>12.035683818281347</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.8245471844846763</v>
+        <v>11.707427443393682</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>7.1507749737722941</v>
+        <v>10.694802460658442</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>7.3697333756041461</v>
+        <v>11.02376006340622</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1636802404359745</v>
+        <v>12.228220360653962</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>10.087065137168</v>
+        <v>15.095357705752003</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>9.4871463973530261</v>
+        <v>14.21003959602954</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.9287208177827644</v>
+        <v>13.378541226674146</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.4180165067783363</v>
+        <v>12.604944760167504</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>7.8370778408865007</v>
+        <v>11.741970094663083</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.4164967459943085</v>
+        <v>11.062458452324798</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.6002113449041371</v>
+        <v>9.8252303506895391</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20101,99 +20101,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>3.906013153293272</v>
+        <v>4.8415464416165905</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>3.6174659390565553</v>
+        <v>4.4794957571540275</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>3.5223496380554806</v>
+        <v>4.3650270475693507</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>3.654470953853731</v>
+        <v>4.5321553589838306</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>3.6615242725209227</v>
+        <v>4.5474653406511534</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>4.0313927805421983</v>
+        <v>5.0142543090110818</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>6.4715206558604983</v>
+        <v>8.0588441531589563</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>7.6174171861558904</v>
+        <v>9.516464816028197</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>7.8755521385717717</v>
+        <v>9.8397735065480472</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>7.5589335445917936</v>
+        <v>9.4418635974064102</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>7.4189789394962782</v>
+        <v>9.2697170077036812</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>7.7377276120362559</v>
+        <v>9.6671528483786524</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>7.1865947769424592</v>
+        <v>8.9752668045114063</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>7.0798349257911477</v>
+        <v>8.8350969905722678</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>6.1351372506602733</v>
+        <v>7.6532415633253414</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>6.1688907214377648</v>
+        <v>7.6956934017972065</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>6.1487614508186432</v>
+        <v>7.6773018135233038</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>6.673907565849591</v>
+        <v>8.3247644573119892</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>6.3220508447572916</v>
+        <v>7.8922235559466145</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>6.5558397743669072</v>
+        <v>8.1875297179586344</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>6.2570285400118815</v>
+        <v>7.8102456750148521</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>5.9283828251260529</v>
+        <v>7.4036551980742322</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>4.8811525922491752</v>
+        <v>6.0702974069781357</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>4.4310541010499458</v>
+        <v>5.5012742929790992</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20606,99 +20606,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>2.8734134384699956</v>
+        <v>4.789022397449993</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>2.0301151429678654</v>
+        <v>3.3835252382797751</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>1.7598912299984515</v>
+        <v>2.9331520499974189</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>2.2558752243157665</v>
+        <v>3.7597920405262775</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>1.9423751896193913</v>
+        <v>3.2372919826989852</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>1.5969638905882575</v>
+        <v>2.6616064843137628</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>1.3213256339665773</v>
+        <v>2.2022093899442958</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>4.6174178308373399</v>
+        <v>7.6956963847288993</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>4.8288537787656587</v>
+        <v>8.048089631276099</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>4.1417317285414885</v>
+        <v>6.9028862142358154</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>4.8254181539864991</v>
+        <v>8.0423635899774997</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>4.4837728644267356</v>
+        <v>7.4729547740445588</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>4.503527407800223</v>
+        <v>7.5058790130003716</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>4.0214783663830067</v>
+        <v>6.7024639439716784</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>2.3863631624543515</v>
+        <v>3.9772719374239198</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>3.7363117673809185</v>
+        <v>6.2271862789681975</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>4.4811297868890536</v>
+        <v>7.4685496448150888</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>4.1811748409008835</v>
+        <v>6.9686247348348065</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>2.9222286740640779</v>
+        <v>4.8703811234401293</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>3.0316386499612067</v>
+        <v>5.0527310832686778</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>2.8237065231349616</v>
+        <v>4.7061775385582694</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>1.751567860240951</v>
+        <v>2.919279767068252</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>1.3972365163563496</v>
+        <v>2.3287275272605825</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>1.4481754093744934</v>
+        <v>2.4136256822908222</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20707,99 +20707,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-4.5353164707022682</v>
+        <v>-6.8029747060534023</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-4.5343165604239477</v>
+        <v>-6.8014748406359216</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-4.6594319104339821</v>
+        <v>-6.9891478656509731</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-4.8728807757430044</v>
+        <v>-7.3093211636145075</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-4.8260858755376539</v>
+        <v>-7.2391288133064808</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-4.4292187836118488</v>
+        <v>-6.6438281754177728</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-2.8084732216820902</v>
+        <v>-4.2127098325231351</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-0.53986912525686881</v>
+        <v>-0.80980368788530321</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-0.58015785250260421</v>
+        <v>-0.87023677875390626</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.38447451021511947</v>
+        <v>-0.5767117653226792</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-0.33868267315833644</v>
+        <v>-0.50802400973750461</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-1.5115188763242504</v>
+        <v>-2.2672783144863757</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-2.2081667266612834</v>
+        <v>-3.3122500899919252</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-2.8625228763256914</v>
+        <v>-4.293784314488537</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-2.8410022848400267</v>
+        <v>-4.2615034272600401</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-2.8890470728932787</v>
+        <v>-4.333570609339918</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-2.2714759108101652</v>
+        <v>-3.407213866215248</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>0.74656949700729547</v>
+        <v>1.1198542455109433</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-0.10521758588148307</v>
+        <v>-0.15782637882222461</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-1.2420200854049492</v>
+        <v>-1.863030128107424</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-2.3022551309810395</v>
+        <v>-3.4533826964715595</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-3.0284251070804813</v>
+        <v>-4.5426376606207217</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-3.3214438596320548</v>
+        <v>-4.9821657894480822</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-3.8028943529031083</v>
+        <v>-5.7043415293546627</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20808,99 +20808,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>-3.4699076508527567</v>
+        <v>-4.337384563565946</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>-3.7440404257534916</v>
+        <v>-4.6800505321918644</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>-3.812714357642641</v>
+        <v>-4.7658929470533016</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>-3.761725537209514</v>
+        <v>-4.7021569215118921</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>-3.764854264732338</v>
+        <v>-4.7060678309154227</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>-3.1438144999088928</v>
+        <v>-3.9297681248861158</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>-0.11706628728999549</v>
+        <v>-0.14633285911249436</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>1.6208452225621253</v>
+        <v>2.0260565282026564</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>2.0657975314577399</v>
+        <v>2.5822469143221749</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>1.4390832963189393</v>
+        <v>1.7988541203986741</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>0.84966788489929568</v>
+        <v>1.0620848561241196</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>1.6853523545584721</v>
+        <v>2.1066904431980902</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>1.0626988520465652</v>
+        <v>1.3283735650582065</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>0.32241559594586761</v>
+        <v>0.40301949493233452</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.2755515850956742</v>
+        <v>-1.5944394813695928</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>-1.2760943772663691</v>
+        <v>-1.5951179715829613</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>-1.0511937639638647</v>
+        <v>-1.3139922049548307</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>-0.53030602460786247</v>
+        <v>-0.66288253075982806</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>-1.2924938404581385</v>
+        <v>-1.6156173005726733</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>-0.7364269533616068</v>
+        <v>-0.92053369170200849</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>-1.0110749121253249</v>
+        <v>-1.2638436401566562</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>-1.6769847259284769</v>
+        <v>-2.0962309074105963</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>-2.6494045401669415</v>
+        <v>-3.3117556752086768</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>-2.9907487771124819</v>
+        <v>-3.7384359713906026</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A969243-8495-47EF-BBAB-4C5E1686788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F1FF0-DB56-490B-B792-52300F03E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$5)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7002,99 +7002,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>1.0206116366282323</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>0.94319377588716002</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>0.99859725176312553</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>0.99424879659688803</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>0.81857606627112944</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>0.83027695063248641</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>0.83206201723944917</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>0.74721023172506429</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>0.6748151236986456</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>0.48779491772081041</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>0.44991671331019811</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.30184708384641218</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.25087297100638084</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.24020429866786072</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.33324129631702676</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>0.45079808015224437</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>0.5040168476435688</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>0.69221971901936652</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>0.62962856823015778</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>0.5985615134893093</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>0.789786773760215</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>0.94461328780924658</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>0.8930747789096608</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>1.2694378148438374</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7397,99 +7397,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>1.3851883423524609</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>1.2180656652031856</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>1.0025026163977941</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>0.86788457218705317</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>0.80912350673881972</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>0.6479338370430876</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>0.63083050847457622</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>0.57192730243005918</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>0.58948162140085758</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>0.62344420053093741</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>0.6240201781703083</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>0.73143906983867668</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>0.73175747906881761</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>0.74191119562997754</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>0.83543961864406791</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>0.68966367163569542</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>0.71442829793751261</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>0.75649262303451092</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>0.65992608995303237</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>0.6835372421890954</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>0.64054020318562388</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>0.58127588319379209</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>0.59576725546252807</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>0.65149458852358588</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -7792,99 +7792,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>1.2638973562833364</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>1.1746862712257466</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>1.2731549640547295</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>1.4196133113453062</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>1.2142883351799838</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>1.0301577984488133</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>0.74147800767863115</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>0.66004792702723591</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>0.67342204127908467</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>0.65829238063335815</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>0.66592926898399851</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>0.70044190780489057</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>0.64071328815480943</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>0.61742303331701398</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>0.8459919090932515</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>1.1021117524285602</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>1.1252235306243397</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>1.1455480429797211</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>1.1771370558375636</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>1.2417983586281531</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>1.2247700275709241</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>1.1985971810662475</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>1.1476757839676364</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>1.0585219665541499</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -8966,7 +8966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9002,7 +9002,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15409,99 +15409,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>1.0206116366282323</v>
+        <v>5.1030581831411617</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>0.94319377588716002</v>
+        <v>4.7159688794357999</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>0.99859725176312553</v>
+        <v>4.9929862588156277</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>0.99424879659688803</v>
+        <v>4.9712439829844399</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>0.81857606627112944</v>
+        <v>4.092880331355647</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>0.83027695063248641</v>
+        <v>4.1513847531624322</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>0.83206201723944917</v>
+        <v>4.1603100861972457</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>0.74721023172506429</v>
+        <v>3.7360511586253216</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>0.6748151236986456</v>
+        <v>3.3740756184932281</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>0.48779491772081041</v>
+        <v>2.4389745886040521</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>0.44991671331019811</v>
+        <v>2.2495835665509905</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>0.30184708384641218</v>
+        <v>1.5092354192320609</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>0.25087297100638084</v>
+        <v>1.2543648550319042</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>0.24020429866786072</v>
+        <v>1.2010214933393035</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>0.33324129631702676</v>
+        <v>1.6662064815851338</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>0.45079808015224437</v>
+        <v>2.2539904007612219</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>0.5040168476435688</v>
+        <v>2.5200842382178439</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>0.69221971901936652</v>
+        <v>3.4610985950968325</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>0.62962856823015778</v>
+        <v>3.148142841150789</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>0.5985615134893093</v>
+        <v>2.9928075674465466</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>0.789786773760215</v>
+        <v>3.9489338688010749</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>0.94461328780924658</v>
+        <v>4.7230664390462334</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>0.8930747789096608</v>
+        <v>4.4653738945483044</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>1.2694378148438374</v>
+        <v>6.3471890742191874</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15863,99 +15863,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>1.3851883423524609</v>
+        <v>6.9259417117623041</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>1.2180656652031856</v>
+        <v>6.0903283260159284</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>1.0025026163977941</v>
+        <v>5.0125130819889705</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>0.86788457218705317</v>
+        <v>4.3394228609352661</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>0.80912350673881972</v>
+        <v>4.0456175336940987</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>0.6479338370430876</v>
+        <v>3.2396691852154378</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>0.63083050847457622</v>
+        <v>3.1541525423728811</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>0.57192730243005918</v>
+        <v>2.859636512150296</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>0.58948162140085758</v>
+        <v>2.9474081070042879</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>0.62344420053093741</v>
+        <v>3.1172210026546869</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>0.6240201781703083</v>
+        <v>3.1201008908515417</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>0.73143906983867668</v>
+        <v>3.6571953491933833</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>0.73175747906881761</v>
+        <v>3.6587873953440879</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>0.74191119562997754</v>
+        <v>3.7095559781498877</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>0.83543961864406791</v>
+        <v>4.1771980932203396</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>0.68966367163569542</v>
+        <v>3.4483183581784771</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>0.71442829793751261</v>
+        <v>3.5721414896875632</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>0.75649262303451092</v>
+        <v>3.7824631151725545</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>0.65992608995303237</v>
+        <v>3.2996304497651616</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>0.6835372421890954</v>
+        <v>3.4176862109454769</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>0.64054020318562388</v>
+        <v>3.2027010159281195</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>0.58127588319379209</v>
+        <v>2.9063794159689604</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>0.59576725546252807</v>
+        <v>2.9788362773126402</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>0.65149458852358588</v>
+        <v>3.2574729426179294</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16068,7 +16068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148DB5EF-CBE0-4A61-A157-99F54D94000F}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -16258,99 +16258,99 @@
       </c>
       <c r="B3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>1.2638973562833364</v>
+        <v>6.319486781416682</v>
       </c>
       <c r="C3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>1.1746862712257466</v>
+        <v>5.8734313561287337</v>
       </c>
       <c r="D3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>1.2731549640547295</v>
+        <v>6.3657748202736473</v>
       </c>
       <c r="E3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>1.4196133113453062</v>
+        <v>7.0980665567265309</v>
       </c>
       <c r="F3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>1.2142883351799838</v>
+        <v>6.0714416758999192</v>
       </c>
       <c r="G3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>1.0301577984488133</v>
+        <v>5.1507889922440668</v>
       </c>
       <c r="H3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>0.74147800767863115</v>
+        <v>3.7073900383931555</v>
       </c>
       <c r="I3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>0.66004792702723591</v>
+        <v>3.3002396351361796</v>
       </c>
       <c r="J3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>0.67342204127908467</v>
+        <v>3.3671102063954232</v>
       </c>
       <c r="K3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>0.65829238063335815</v>
+        <v>3.2914619031667907</v>
       </c>
       <c r="L3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>0.66592926898399851</v>
+        <v>3.3296463449199925</v>
       </c>
       <c r="M3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>0.70044190780489057</v>
+        <v>3.5022095390244528</v>
       </c>
       <c r="N3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>0.64071328815480943</v>
+        <v>3.203566440774047</v>
       </c>
       <c r="O3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>0.61742303331701398</v>
+        <v>3.08711516658507</v>
       </c>
       <c r="P3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>0.8459919090932515</v>
+        <v>4.229959545466258</v>
       </c>
       <c r="Q3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>1.1021117524285602</v>
+        <v>5.5105587621428009</v>
       </c>
       <c r="R3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>1.1252235306243397</v>
+        <v>5.6261176531216979</v>
       </c>
       <c r="S3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>1.1455480429797211</v>
+        <v>5.7277402148986054</v>
       </c>
       <c r="T3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>1.1771370558375636</v>
+        <v>5.8856852791878183</v>
       </c>
       <c r="U3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>1.2417983586281531</v>
+        <v>6.2089917931407657</v>
       </c>
       <c r="V3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>1.2247700275709241</v>
+        <v>6.1238501378546211</v>
       </c>
       <c r="W3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>1.1985971810662475</v>
+        <v>5.9929859053312375</v>
       </c>
       <c r="X3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>1.1476757839676364</v>
+        <v>5.7383789198381816</v>
       </c>
       <c r="Y3" s="9">
         <f>VLOOKUP($A3,'RES installed'!$A$2:$C$4,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>1.0585219665541499</v>
+        <v>5.2926098327707489</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee4/ieee4_2020.xlsx
+++ b/data/IEEE_9/ieee4/ieee4_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F1FF0-DB56-490B-B792-52300F03E1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863153A-9845-494D-BA69-5CB6D71D319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="2805" windowWidth="21600" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -932,2688 +932,2688 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>15.335457622998081</v>
+            <v>30.670915245996163</v>
           </cell>
           <cell r="C2">
-            <v>14.762354960888654</v>
+            <v>29.524709921777308</v>
           </cell>
           <cell r="D2">
-            <v>14.23653266453476</v>
+            <v>28.47306532906952</v>
           </cell>
           <cell r="E2">
-            <v>14.666221223237773</v>
+            <v>29.332442446475547</v>
           </cell>
           <cell r="F2">
-            <v>14.252373205594743</v>
+            <v>28.504746411189487</v>
           </cell>
           <cell r="G2">
-            <v>14.271355602656598</v>
+            <v>28.542711205313196</v>
           </cell>
           <cell r="H2">
-            <v>14.403080126578182</v>
+            <v>28.806160253156364</v>
           </cell>
           <cell r="I2">
-            <v>18.69514810441451</v>
+            <v>37.390296208829021</v>
           </cell>
           <cell r="J2">
-            <v>19.068916749138172</v>
+            <v>38.137833498276343</v>
           </cell>
           <cell r="K2">
-            <v>18.886989609576279</v>
+            <v>37.773979219152558</v>
           </cell>
           <cell r="L2">
-            <v>18.829647861977861</v>
+            <v>37.659295723955722</v>
           </cell>
           <cell r="M2">
-            <v>19.225353340636268</v>
+            <v>38.450706681272536</v>
           </cell>
           <cell r="N2">
-            <v>19.018399416280754</v>
+            <v>38.036798832561509</v>
           </cell>
           <cell r="O2">
-            <v>18.681734926214858</v>
+            <v>37.363469852429716</v>
           </cell>
           <cell r="P2">
-            <v>16.251370653408227</v>
+            <v>32.502741306816453</v>
           </cell>
           <cell r="Q2">
-            <v>17.48392777062017</v>
+            <v>34.96785554124034</v>
           </cell>
           <cell r="R2">
-            <v>19.008522457180575</v>
+            <v>38.017044914361151</v>
           </cell>
           <cell r="S2">
-            <v>18.718984840566538</v>
+            <v>37.437969681133076</v>
           </cell>
           <cell r="T2">
-            <v>17.75442373905009</v>
+            <v>35.508847478100179</v>
           </cell>
           <cell r="U2">
-            <v>16.931179753831593</v>
+            <v>33.862359507663186</v>
           </cell>
           <cell r="V2">
-            <v>16.811566719914705</v>
+            <v>33.623133439829409</v>
           </cell>
           <cell r="W2">
-            <v>16.064423406934502</v>
+            <v>32.128846813869004</v>
           </cell>
           <cell r="X2">
-            <v>14.50857902122095</v>
+            <v>29.017158042441899</v>
           </cell>
           <cell r="Y2">
-            <v>14.194248724573679</v>
+            <v>28.388497449147359</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8.3198446630799232</v>
+            <v>16.639689326159846</v>
           </cell>
           <cell r="C3">
-            <v>8.0830599509068755</v>
+            <v>16.166119901813751</v>
           </cell>
           <cell r="D3">
-            <v>7.7397233690768186</v>
+            <v>15.479446738153637</v>
           </cell>
           <cell r="E3">
-            <v>7.675636867536074</v>
+            <v>15.351273735072148</v>
           </cell>
           <cell r="F3">
-            <v>7.7527632537286904</v>
+            <v>15.505526507457381</v>
           </cell>
           <cell r="G3">
-            <v>8.2777211859980717</v>
+            <v>16.555442371996143</v>
           </cell>
           <cell r="H3">
-            <v>9.9792240714513358</v>
+            <v>19.958448142902672</v>
           </cell>
           <cell r="I3">
-            <v>11.650356717636878</v>
+            <v>23.300713435273757</v>
           </cell>
           <cell r="J3">
-            <v>12.665527712775127</v>
+            <v>25.331055425550254</v>
           </cell>
           <cell r="K3">
-            <v>13.048071506020843</v>
+            <v>26.096143012041686</v>
           </cell>
           <cell r="L3">
-            <v>13.019846501735111</v>
+            <v>26.039693003470223</v>
           </cell>
           <cell r="M3">
-            <v>12.709795652727324</v>
+            <v>25.419591305454649</v>
           </cell>
           <cell r="N3">
-            <v>12.248752195525185</v>
+            <v>24.49750439105037</v>
           </cell>
           <cell r="O3">
-            <v>11.648640776727015</v>
+            <v>23.297281553454031</v>
           </cell>
           <cell r="P3">
-            <v>10.849063735365757</v>
+            <v>21.698127470731514</v>
           </cell>
           <cell r="Q3">
-            <v>11.185795983067571</v>
+            <v>22.371591966135142</v>
           </cell>
           <cell r="R3">
-            <v>12.44246975576935</v>
+            <v>24.8849395115387</v>
           </cell>
           <cell r="S3">
-            <v>14.876116540348516</v>
+            <v>29.752233080697032</v>
           </cell>
           <cell r="T3">
-            <v>14.168679596029541</v>
+            <v>28.337359192059083</v>
           </cell>
           <cell r="U3">
-            <v>13.087707084974653</v>
+            <v>26.175414169949306</v>
           </cell>
           <cell r="V3">
-            <v>12.68766137390657</v>
+            <v>25.37532274781314</v>
           </cell>
           <cell r="W3">
-            <v>11.83300682962601</v>
+            <v>23.66601365925202</v>
           </cell>
           <cell r="X3">
-            <v>10.82958922672422</v>
+            <v>21.65917845344844</v>
           </cell>
           <cell r="Y3">
-            <v>9.5792643736200045</v>
+            <v>19.158528747240009</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.6776664416165907</v>
+            <v>9.3553328832331815</v>
           </cell>
           <cell r="C4">
-            <v>4.3981113168238375</v>
+            <v>8.796222633647675</v>
           </cell>
           <cell r="D4">
-            <v>4.2559465126963136</v>
+            <v>8.5118930253926273</v>
           </cell>
           <cell r="E4">
-            <v>4.3449723026242539</v>
+            <v>8.6899446052485079</v>
           </cell>
           <cell r="F4">
-            <v>4.3858468719318351</v>
+            <v>8.7716937438636702</v>
           </cell>
           <cell r="G4">
-            <v>5.0145996350453217</v>
+            <v>10.029199270090643</v>
           </cell>
           <cell r="H4">
-            <v>8.0985892719309067</v>
+            <v>16.197178543861813</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615317</v>
+            <v>18.990476298723063</v>
           </cell>
           <cell r="J4">
-            <v>9.920309939274123</v>
+            <v>19.840619878548246</v>
           </cell>
           <cell r="K4">
-            <v>9.6067859837480363</v>
+            <v>19.213571967496073</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>18.507380682074029</v>
           </cell>
           <cell r="M4">
-            <v>9.8440063078693747</v>
+            <v>19.688012615738749</v>
           </cell>
           <cell r="N4">
-            <v>9.1258776916783066</v>
+            <v>18.251755383356613</v>
           </cell>
           <cell r="O4">
-            <v>8.6894161622827752</v>
+            <v>17.37883232456555</v>
           </cell>
           <cell r="P4">
-            <v>7.5153678844805363</v>
+            <v>15.030735768961073</v>
           </cell>
           <cell r="Q4">
-            <v>7.4843268645070644</v>
+            <v>14.968653729014129</v>
           </cell>
           <cell r="R4">
-            <v>7.7986753199217382</v>
+            <v>15.597350639843476</v>
           </cell>
           <cell r="S4">
-            <v>8.4227392421550906</v>
+            <v>16.845478484310181</v>
           </cell>
           <cell r="T4">
-            <v>7.696925054849622</v>
+            <v>15.393850109699244</v>
           </cell>
           <cell r="U4">
-            <v>7.9984801156457195</v>
+            <v>15.996960231291439</v>
           </cell>
           <cell r="V4">
-            <v>7.7660856750148524</v>
+            <v>15.532171350029705</v>
           </cell>
           <cell r="W4">
-            <v>7.303328578951386</v>
+            <v>14.606657157902772</v>
           </cell>
           <cell r="X4">
-            <v>6.0670653812702069</v>
+            <v>12.134130762540414</v>
           </cell>
           <cell r="Y4">
-            <v>5.3511009596457662</v>
+            <v>10.702201919291532</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>15.335457622998081</v>
+            <v>30.670915245996163</v>
           </cell>
           <cell r="C2">
-            <v>14.909978510497542</v>
+            <v>29.819957020995083</v>
           </cell>
           <cell r="D2">
-            <v>14.094167337889413</v>
+            <v>28.188334675778826</v>
           </cell>
           <cell r="E2">
-            <v>14.372896798773018</v>
+            <v>28.745793597546037</v>
           </cell>
           <cell r="F2">
-            <v>14.252373205594743</v>
+            <v>28.504746411189487</v>
           </cell>
           <cell r="G2">
-            <v>14.556782714709733</v>
+            <v>29.113565429419467</v>
           </cell>
           <cell r="H2">
-            <v>14.115018524046619</v>
+            <v>28.230037048093237</v>
           </cell>
           <cell r="I2">
-            <v>19.069051066502801</v>
+            <v>38.138102133005603</v>
           </cell>
           <cell r="J2">
-            <v>19.259605916629553</v>
+            <v>38.519211833259106</v>
           </cell>
           <cell r="K2">
-            <v>19.264729401767802</v>
+            <v>38.529458803535604</v>
           </cell>
           <cell r="L2">
-            <v>18.641351383358085</v>
+            <v>37.28270276671617</v>
           </cell>
           <cell r="M2">
-            <v>19.033099807229906</v>
+            <v>38.066199614459812</v>
           </cell>
           <cell r="N2">
-            <v>18.828215422117946</v>
+            <v>37.656430844235892</v>
           </cell>
           <cell r="O2">
-            <v>18.308100227690559</v>
+            <v>36.616200455381119</v>
           </cell>
           <cell r="P2">
-            <v>16.413884359942308</v>
+            <v>32.827768719884617</v>
           </cell>
           <cell r="Q2">
-            <v>17.833606326032573</v>
+            <v>35.667212652065146</v>
           </cell>
           <cell r="R2">
-            <v>19.388692906324188</v>
+            <v>38.777385812648376</v>
           </cell>
           <cell r="S2">
-            <v>19.09336453737787</v>
+            <v>38.186729074755739</v>
           </cell>
           <cell r="T2">
-            <v>17.931967976440593</v>
+            <v>35.863935952881185</v>
           </cell>
           <cell r="U2">
-            <v>17.10049155136991</v>
+            <v>34.200983102739819</v>
           </cell>
           <cell r="V2">
-            <v>16.475335385516409</v>
+            <v>32.950670771032819</v>
           </cell>
           <cell r="W2">
-            <v>15.903779172865157</v>
+            <v>31.807558345730314</v>
           </cell>
           <cell r="X2">
-            <v>14.798750601645366</v>
+            <v>29.597501203290733</v>
           </cell>
           <cell r="Y2">
-            <v>14.336191211819418</v>
+            <v>28.672382423638837</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8.3198446630799232</v>
+            <v>16.639689326159846</v>
           </cell>
           <cell r="C3">
-            <v>7.9213987518887388</v>
+            <v>15.842797503777478</v>
           </cell>
           <cell r="D3">
-            <v>7.5849289016952817</v>
+            <v>15.169857803390563</v>
           </cell>
           <cell r="E3">
-            <v>7.675636867536074</v>
+            <v>15.351273735072148</v>
           </cell>
           <cell r="F3">
-            <v>7.7527632537286904</v>
+            <v>15.505526507457381</v>
           </cell>
           <cell r="G3">
-            <v>8.360498397858052</v>
+            <v>16.720996795716104</v>
           </cell>
           <cell r="H3">
-            <v>9.7796395900223079</v>
+            <v>19.559279180044616</v>
           </cell>
           <cell r="I3">
-            <v>11.650356717636878</v>
+            <v>23.300713435273757</v>
           </cell>
           <cell r="J3">
-            <v>12.665527712775127</v>
+            <v>25.331055425550254</v>
           </cell>
           <cell r="K3">
-            <v>13.178552221081052</v>
+            <v>26.357104442162104</v>
           </cell>
           <cell r="L3">
-            <v>12.75944957170041</v>
+            <v>25.518899143400819</v>
           </cell>
           <cell r="M3">
-            <v>12.963991565781871</v>
+            <v>25.927983131563742</v>
           </cell>
           <cell r="N3">
-            <v>12.493727239435689</v>
+            <v>24.987454478871378</v>
           </cell>
           <cell r="O3">
-            <v>11.881613592261553</v>
+            <v>23.763227184523107</v>
           </cell>
           <cell r="P3">
-            <v>11.06604501007307</v>
+            <v>22.132090020146141</v>
           </cell>
           <cell r="Q3">
-            <v>11.297653942898247</v>
+            <v>22.595307885796494</v>
           </cell>
           <cell r="R3">
-            <v>12.44246975576935</v>
+            <v>24.8849395115387</v>
           </cell>
           <cell r="S3">
-            <v>14.578594209541546</v>
+            <v>29.157188419083091</v>
           </cell>
           <cell r="T3">
-            <v>14.310366391989838</v>
+            <v>28.620732783979676</v>
           </cell>
           <cell r="U3">
-            <v>13.218584155824397</v>
+            <v>26.437168311648794</v>
           </cell>
           <cell r="V3">
-            <v>12.941414601384702</v>
+            <v>25.882829202769404</v>
           </cell>
           <cell r="W3">
-            <v>11.83300682962601</v>
+            <v>23.66601365925202</v>
           </cell>
           <cell r="X3">
-            <v>10.612997442189736</v>
+            <v>21.225994884379471</v>
           </cell>
           <cell r="Y3">
-            <v>9.675057017356206</v>
+            <v>19.350114034712412</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.7712197704489228</v>
+            <v>9.5424395408978455</v>
           </cell>
           <cell r="C4">
-            <v>4.4860735431603143</v>
+            <v>8.9721470863206285</v>
           </cell>
           <cell r="D4">
-            <v>4.2133870475693511</v>
+            <v>8.4267740951387022</v>
           </cell>
           <cell r="E4">
-            <v>4.4318717486767394</v>
+            <v>8.8637434973534788</v>
           </cell>
           <cell r="F4">
-            <v>4.2981299344931987</v>
+            <v>8.5962598689863974</v>
           </cell>
           <cell r="G4">
-            <v>4.914307642344415</v>
+            <v>9.8286152846888299</v>
           </cell>
           <cell r="H4">
-            <v>8.1795751646502168</v>
+            <v>16.359150329300434</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615299</v>
+            <v>18.99047629872306</v>
           </cell>
           <cell r="J4">
-            <v>9.7219037404886404</v>
+            <v>19.443807480977281</v>
           </cell>
           <cell r="K4">
-            <v>9.5107181239105554</v>
+            <v>19.021436247821111</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>18.507380682074029</v>
           </cell>
           <cell r="M4">
-            <v>9.647126181711986</v>
+            <v>19.294252363423972</v>
           </cell>
           <cell r="N4">
-            <v>8.9433601378447403</v>
+            <v>17.886720275689481</v>
           </cell>
           <cell r="O4">
-            <v>8.6894161622827752</v>
+            <v>17.37883232456555</v>
           </cell>
           <cell r="P4">
-            <v>7.5153678844805363</v>
+            <v>15.030735768961073</v>
           </cell>
           <cell r="Q4">
-            <v>7.5591701331521355</v>
+            <v>15.118340266304271</v>
           </cell>
           <cell r="R4">
-            <v>7.6427018135233036</v>
+            <v>15.285403627046607</v>
           </cell>
           <cell r="S4">
-            <v>8.5069666345766422</v>
+            <v>17.013933269153284</v>
           </cell>
           <cell r="T4">
-            <v>7.5429865537526295</v>
+            <v>15.085973107505259</v>
           </cell>
           <cell r="U4">
-            <v>7.9984801156457195</v>
+            <v>15.996960231291439</v>
           </cell>
           <cell r="V4">
-            <v>7.6884248182647044</v>
+            <v>15.376849636529409</v>
           </cell>
           <cell r="W4">
-            <v>7.1572620073723581</v>
+            <v>14.314524014744716</v>
           </cell>
           <cell r="X4">
-            <v>5.9457240736448025</v>
+            <v>11.891448147289605</v>
           </cell>
           <cell r="Y4">
-            <v>5.4581229788386807</v>
+            <v>10.916245957677361</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>15.028748470538119</v>
+            <v>30.057496941076238</v>
           </cell>
           <cell r="C2">
-            <v>14.614731411279768</v>
+            <v>29.229462822559537</v>
           </cell>
           <cell r="D2">
-            <v>14.521263317825454</v>
+            <v>29.042526635650908</v>
           </cell>
           <cell r="E2">
-            <v>14.95954564770253</v>
+            <v>29.91909129540506</v>
           </cell>
           <cell r="F2">
-            <v>13.967325741482849</v>
+            <v>27.934651482965698</v>
           </cell>
           <cell r="G2">
-            <v>13.985928490603467</v>
+            <v>27.971856981206933</v>
           </cell>
           <cell r="H2">
-            <v>14.403080126578182</v>
+            <v>28.806160253156364</v>
           </cell>
           <cell r="I2">
-            <v>18.695148104414507</v>
+            <v>37.390296208829014</v>
           </cell>
           <cell r="J2">
-            <v>19.450295084120938</v>
+            <v>38.900590168241877</v>
           </cell>
           <cell r="K2">
-            <v>19.075859505672042</v>
+            <v>38.151719011344085</v>
           </cell>
           <cell r="L2">
-            <v>19.20624081921742</v>
+            <v>38.412481638434841</v>
           </cell>
           <cell r="M2">
-            <v>19.41760687404263</v>
+            <v>38.835213748085259</v>
           </cell>
           <cell r="N2">
-            <v>18.638031427955141</v>
+            <v>37.276062855910283</v>
           </cell>
           <cell r="O2">
-            <v>19.055369624739154</v>
+            <v>38.110739249478307</v>
           </cell>
           <cell r="P2">
-            <v>16.576398066476393</v>
+            <v>33.152796132952787</v>
           </cell>
           <cell r="Q2">
-            <v>17.833606326032573</v>
+            <v>35.667212652065146</v>
           </cell>
           <cell r="R2">
-            <v>19.008522457180575</v>
+            <v>38.017044914361151</v>
           </cell>
           <cell r="S2">
-            <v>18.718984840566538</v>
+            <v>37.437969681133076</v>
           </cell>
           <cell r="T2">
-            <v>17.57687950165959</v>
+            <v>35.15375900331918</v>
           </cell>
           <cell r="U2">
-            <v>16.592556158754963</v>
+            <v>33.185112317509926</v>
           </cell>
           <cell r="V2">
-            <v>16.643451052715559</v>
+            <v>33.286902105431118</v>
           </cell>
           <cell r="W2">
-            <v>16.385711875073191</v>
+            <v>32.771423750146383</v>
           </cell>
           <cell r="X2">
-            <v>14.218407440796527</v>
+            <v>28.436814881593055</v>
           </cell>
           <cell r="Y2">
-            <v>14.052306237327944</v>
+            <v>28.104612474655887</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8.2366462164491239</v>
+            <v>16.473292432898248</v>
           </cell>
           <cell r="C3">
-            <v>8.244721149925013</v>
+            <v>16.489442299850026</v>
           </cell>
           <cell r="D3">
-            <v>7.5849289016952817</v>
+            <v>15.169857803390563</v>
           </cell>
           <cell r="E3">
-            <v>7.675636867536074</v>
+            <v>15.351273735072148</v>
           </cell>
           <cell r="F3">
-            <v>7.6752356211914039</v>
+            <v>15.350471242382808</v>
           </cell>
           <cell r="G3">
-            <v>8.360498397858052</v>
+            <v>16.720996795716104</v>
           </cell>
           <cell r="H3">
-            <v>10.178808552880362</v>
+            <v>20.357617105760724</v>
           </cell>
           <cell r="I3">
-            <v>11.650356717636878</v>
+            <v>23.300713435273757</v>
           </cell>
           <cell r="J3">
-            <v>12.412217158519624</v>
+            <v>24.824434317039248</v>
           </cell>
           <cell r="K3">
-            <v>13.309032936141261</v>
+            <v>26.618065872282521</v>
           </cell>
           <cell r="L3">
-            <v>12.889648036717761</v>
+            <v>25.779296073435521</v>
           </cell>
           <cell r="M3">
-            <v>12.963991565781871</v>
+            <v>25.927983131563742</v>
           </cell>
           <cell r="N3">
-            <v>12.003777151614681</v>
+            <v>24.007554303229362</v>
           </cell>
           <cell r="O3">
-            <v>11.648640776727015</v>
+            <v>23.297281553454031</v>
           </cell>
           <cell r="P3">
-            <v>10.632082460658442</v>
+            <v>21.264164921316883</v>
           </cell>
           <cell r="Q3">
-            <v>10.962080063406219</v>
+            <v>21.924160126812438</v>
           </cell>
           <cell r="R3">
-            <v>12.193620360653963</v>
+            <v>24.387240721307926</v>
           </cell>
           <cell r="S3">
-            <v>15.024877705752003</v>
+            <v>30.049755411504005</v>
           </cell>
           <cell r="T3">
-            <v>14.168679596029541</v>
+            <v>28.337359192059083</v>
           </cell>
           <cell r="U3">
-            <v>13.349461226674146</v>
+            <v>26.698922453348292</v>
           </cell>
           <cell r="V3">
-            <v>12.560784760167504</v>
+            <v>25.121569520335008</v>
           </cell>
           <cell r="W3">
-            <v>11.71467676132975</v>
+            <v>23.4293535226595</v>
           </cell>
           <cell r="X3">
-            <v>10.937885118991463</v>
+            <v>21.875770237982927</v>
           </cell>
           <cell r="Y3">
-            <v>9.675057017356206</v>
+            <v>19.350114034712412</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>4.6776664416165907</v>
+            <v>9.3553328832331815</v>
           </cell>
           <cell r="C4">
-            <v>4.3101490904873607</v>
+            <v>8.6202981809747214</v>
           </cell>
           <cell r="D4">
-            <v>4.2133870475693511</v>
+            <v>8.4267740951387022</v>
           </cell>
           <cell r="E4">
-            <v>4.3884220256504971</v>
+            <v>8.7768440513009942</v>
           </cell>
           <cell r="F4">
-            <v>4.4297053406511537</v>
+            <v>8.8594106813023075</v>
           </cell>
           <cell r="G4">
-            <v>4.914307642344415</v>
+            <v>9.8286152846888299</v>
           </cell>
           <cell r="H4">
-            <v>7.93661748649229</v>
+            <v>15.87323497298458</v>
           </cell>
           <cell r="I4">
-            <v>9.4952381493615299</v>
+            <v>18.99047629872306</v>
           </cell>
           <cell r="J4">
-            <v>9.8211068398813808</v>
+            <v>19.642213679762762</v>
           </cell>
           <cell r="K4">
-            <v>9.4146502640730763</v>
+            <v>18.829300528146153</v>
           </cell>
           <cell r="L4">
-            <v>9.2536903410370144</v>
+            <v>18.507380682074029</v>
           </cell>
           <cell r="M4">
-            <v>9.647126181711986</v>
+            <v>19.294252363423972</v>
           </cell>
           <cell r="N4">
-            <v>8.9433601378447403</v>
+            <v>17.886720275689481</v>
           </cell>
           <cell r="O4">
-            <v>8.7763103239056015</v>
+            <v>17.552620647811203</v>
           </cell>
           <cell r="P4">
-            <v>7.5905215633253418</v>
+            <v>15.181043126650684</v>
           </cell>
           <cell r="Q4">
-            <v>7.6340134017972066</v>
+            <v>15.268026803594413</v>
           </cell>
           <cell r="R4">
-            <v>7.6427018135233036</v>
+            <v>15.285403627046607</v>
           </cell>
           <cell r="S4">
-            <v>8.2542844573119893</v>
+            <v>16.508568914623979</v>
           </cell>
           <cell r="T4">
-            <v>7.8508635559466144</v>
+            <v>15.701727111893229</v>
           </cell>
           <cell r="U4">
-            <v>8.1584497179586339</v>
+            <v>16.316899435917268</v>
           </cell>
           <cell r="V4">
-            <v>7.7660856750148524</v>
+            <v>15.532171350029705</v>
           </cell>
           <cell r="W4">
-            <v>7.3763618647408986</v>
+            <v>14.752723729481797</v>
           </cell>
           <cell r="X4">
-            <v>5.9457240736448025</v>
+            <v>11.891448147289605</v>
           </cell>
           <cell r="Y4">
-            <v>5.3511009596457662</v>
+            <v>10.702201919291532</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>4.789022397449993</v>
+            <v>9.5780447948999861</v>
           </cell>
           <cell r="C2">
-            <v>3.3835252382797751</v>
+            <v>6.7670504765595503</v>
           </cell>
           <cell r="D2">
-            <v>2.9331520499974189</v>
+            <v>5.8663040999948377</v>
           </cell>
           <cell r="E2">
-            <v>3.7597920405262775</v>
+            <v>7.5195840810525549</v>
           </cell>
           <cell r="F2">
-            <v>3.2372919826989852</v>
+            <v>6.4745839653979704</v>
           </cell>
           <cell r="G2">
-            <v>2.6616064843137628</v>
+            <v>5.3232129686275256</v>
           </cell>
           <cell r="H2">
-            <v>2.2022093899442958</v>
+            <v>4.4044187798885917</v>
           </cell>
           <cell r="I2">
-            <v>7.6956963847288993</v>
+            <v>15.391392769457799</v>
           </cell>
           <cell r="J2">
-            <v>8.048089631276099</v>
+            <v>16.096179262552198</v>
           </cell>
           <cell r="K2">
-            <v>6.9028862142358154</v>
+            <v>13.805772428471631</v>
           </cell>
           <cell r="L2">
-            <v>8.0423635899774997</v>
+            <v>16.084727179954999</v>
           </cell>
           <cell r="M2">
-            <v>7.4729547740445588</v>
+            <v>14.945909548089118</v>
           </cell>
           <cell r="N2">
-            <v>7.5058790130003716</v>
+            <v>15.011758026000743</v>
           </cell>
           <cell r="O2">
-            <v>6.7024639439716784</v>
+            <v>13.404927887943357</v>
           </cell>
           <cell r="P2">
-            <v>3.9772719374239198</v>
+            <v>7.9545438748478396</v>
           </cell>
           <cell r="Q2">
-            <v>6.2271862789681975</v>
+            <v>12.454372557936395</v>
           </cell>
           <cell r="R2">
-            <v>7.4685496448150888</v>
+            <v>14.937099289630178</v>
           </cell>
           <cell r="S2">
-            <v>6.9686247348348065</v>
+            <v>13.937249469669613</v>
           </cell>
           <cell r="T2">
-            <v>4.8703811234401293</v>
+            <v>9.7407622468802586</v>
           </cell>
           <cell r="U2">
-            <v>5.0527310832686778</v>
+            <v>10.105462166537356</v>
           </cell>
           <cell r="V2">
-            <v>4.7061775385582694</v>
+            <v>9.4123550771165387</v>
           </cell>
           <cell r="W2">
-            <v>2.919279767068252</v>
+            <v>5.838559534136504</v>
           </cell>
           <cell r="X2">
-            <v>2.3287275272605825</v>
+            <v>4.657455054521165</v>
           </cell>
           <cell r="Y2">
-            <v>2.4136256822908222</v>
+            <v>4.8272513645816444</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-6.8029747060534023</v>
+            <v>-13.605949412106805</v>
           </cell>
           <cell r="C3">
-            <v>-6.8014748406359216</v>
+            <v>-13.602949681271843</v>
           </cell>
           <cell r="D3">
-            <v>-6.9891478656509731</v>
+            <v>-13.978295731301946</v>
           </cell>
           <cell r="E3">
-            <v>-7.3093211636145075</v>
+            <v>-14.618642327229015</v>
           </cell>
           <cell r="F3">
-            <v>-7.2391288133064808</v>
+            <v>-14.478257626612962</v>
           </cell>
           <cell r="G3">
-            <v>-6.6438281754177728</v>
+            <v>-13.287656350835546</v>
           </cell>
           <cell r="H3">
-            <v>-4.2127098325231351</v>
+            <v>-8.4254196650462703</v>
           </cell>
           <cell r="I3">
-            <v>-0.80980368788530321</v>
+            <v>-1.6196073757706064</v>
           </cell>
           <cell r="J3">
-            <v>-0.87023677875390626</v>
+            <v>-1.7404735575078125</v>
           </cell>
           <cell r="K3">
-            <v>-0.5767117653226792</v>
+            <v>-1.1534235306453584</v>
           </cell>
           <cell r="L3">
-            <v>-0.50802400973750461</v>
+            <v>-1.0160480194750092</v>
           </cell>
           <cell r="M3">
-            <v>-2.2672783144863757</v>
+            <v>-4.5345566289727515</v>
           </cell>
           <cell r="N3">
-            <v>-3.3122500899919252</v>
+            <v>-6.6245001799838503</v>
           </cell>
           <cell r="O3">
-            <v>-4.293784314488537</v>
+            <v>-8.5875686289770741</v>
           </cell>
           <cell r="P3">
-            <v>-4.2615034272600401</v>
+            <v>-8.5230068545200801</v>
           </cell>
           <cell r="Q3">
-            <v>-4.333570609339918</v>
+            <v>-8.667141218679836</v>
           </cell>
           <cell r="R3">
-            <v>-3.407213866215248</v>
+            <v>-6.814427732430496</v>
           </cell>
           <cell r="S3">
-            <v>1.1198542455109433</v>
+            <v>2.2397084910218865</v>
           </cell>
           <cell r="T3">
-            <v>-0.15782637882222461</v>
+            <v>-0.31565275764444922</v>
           </cell>
           <cell r="U3">
-            <v>-1.863030128107424</v>
+            <v>-3.7260602562148479</v>
           </cell>
           <cell r="V3">
-            <v>-3.4533826964715595</v>
+            <v>-6.906765392943119</v>
           </cell>
           <cell r="W3">
-            <v>-4.5426376606207217</v>
+            <v>-9.0852753212414434</v>
           </cell>
           <cell r="X3">
-            <v>-4.9821657894480822</v>
+            <v>-9.9643315788961644</v>
           </cell>
           <cell r="Y3">
-            <v>-5.7043415293546627</v>
+            <v>-11.408683058709325</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.337384563565946</v>
+            <v>-8.6747691271318921</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918644</v>
+            <v>-9.3601010643837288</v>
           </cell>
           <cell r="D4">
-            <v>-4.7658929470533016</v>
+            <v>-9.5317858941066032</v>
           </cell>
           <cell r="E4">
-            <v>-4.7021569215118921</v>
+            <v>-9.4043138430237843</v>
           </cell>
           <cell r="F4">
-            <v>-4.7060678309154227</v>
+            <v>-9.4121356618308454</v>
           </cell>
           <cell r="G4">
-            <v>-3.9297681248861158</v>
+            <v>-7.8595362497722316</v>
           </cell>
           <cell r="H4">
-            <v>-0.14633285911249436</v>
+            <v>-0.29266571822498871</v>
           </cell>
           <cell r="I4">
-            <v>2.0260565282026564</v>
+            <v>4.0521130564053127</v>
           </cell>
           <cell r="J4">
-            <v>2.5822469143221749</v>
+            <v>5.1644938286443498</v>
           </cell>
           <cell r="K4">
-            <v>1.7988541203986741</v>
+            <v>3.5977082407973482</v>
           </cell>
           <cell r="L4">
-            <v>1.0620848561241196</v>
+            <v>2.1241697122482393</v>
           </cell>
           <cell r="M4">
-            <v>2.1066904431980902</v>
+            <v>4.2133808863961804</v>
           </cell>
           <cell r="N4">
-            <v>1.3283735650582065</v>
+            <v>2.6567471301164129</v>
           </cell>
           <cell r="O4">
-            <v>0.40301949493233452</v>
+            <v>0.80603898986466904</v>
           </cell>
           <cell r="P4">
-            <v>-1.5944394813695928</v>
+            <v>-3.1888789627391856</v>
           </cell>
           <cell r="Q4">
-            <v>-1.5951179715829613</v>
+            <v>-3.1902359431659226</v>
           </cell>
           <cell r="R4">
-            <v>-1.3139922049548307</v>
+            <v>-2.6279844099096614</v>
           </cell>
           <cell r="S4">
-            <v>-0.66288253075982806</v>
+            <v>-1.3257650615196561</v>
           </cell>
           <cell r="T4">
-            <v>-1.6156173005726733</v>
+            <v>-3.2312346011453466</v>
           </cell>
           <cell r="U4">
-            <v>-0.92053369170200849</v>
+            <v>-1.841067383404017</v>
           </cell>
           <cell r="V4">
-            <v>-1.2638436401566562</v>
+            <v>-2.5276872803133124</v>
           </cell>
           <cell r="W4">
-            <v>-2.0962309074105963</v>
+            <v>-4.1924618148211925</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-6.6235113504173535</v>
           </cell>
           <cell r="Y4">
-            <v>-3.7384359713906026</v>
+            <v>-7.4768719427812051</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>4.8369126214244931</v>
+            <v>9.6738252428489862</v>
           </cell>
           <cell r="C2">
-            <v>3.3158547335141799</v>
+            <v>6.6317094670283598</v>
           </cell>
           <cell r="D2">
-            <v>2.9624835704973935</v>
+            <v>5.9249671409947871</v>
           </cell>
           <cell r="E2">
-            <v>3.7597920405262775</v>
+            <v>7.5195840810525549</v>
           </cell>
           <cell r="F2">
-            <v>3.269664902525975</v>
+            <v>6.5393298050519499</v>
           </cell>
           <cell r="G2">
-            <v>2.6616064843137628</v>
+            <v>5.3232129686275256</v>
           </cell>
           <cell r="H2">
-            <v>2.2022093899442958</v>
+            <v>4.4044187798885917</v>
           </cell>
           <cell r="I2">
-            <v>7.7726533485761893</v>
+            <v>15.545306697152379</v>
           </cell>
           <cell r="J2">
-            <v>8.048089631276099</v>
+            <v>16.096179262552198</v>
           </cell>
           <cell r="K2">
-            <v>6.764828489951098</v>
+            <v>13.529656979902196</v>
           </cell>
           <cell r="L2">
-            <v>8.0423635899774997</v>
+            <v>16.084727179954999</v>
           </cell>
           <cell r="M2">
-            <v>7.6224138695254497</v>
+            <v>15.244827739050899</v>
           </cell>
           <cell r="N2">
-            <v>7.5809378031303751</v>
+            <v>15.16187560626075</v>
           </cell>
           <cell r="O2">
-            <v>6.7694885834113947</v>
+            <v>13.538977166822789</v>
           </cell>
           <cell r="P2">
-            <v>3.897726498675441</v>
+            <v>7.7954529973508819</v>
           </cell>
           <cell r="Q2">
-            <v>6.1649144161785161</v>
+            <v>12.329828832357032</v>
           </cell>
           <cell r="R2">
-            <v>7.4685496448150888</v>
+            <v>14.937099289630178</v>
           </cell>
           <cell r="S2">
-            <v>6.9686247348348065</v>
+            <v>13.937249469669613</v>
           </cell>
           <cell r="T2">
-            <v>4.8703811234401293</v>
+            <v>9.7407622468802586</v>
           </cell>
           <cell r="U2">
-            <v>5.1032583941013643</v>
+            <v>10.206516788202729</v>
           </cell>
           <cell r="V2">
-            <v>4.6120539877871032</v>
+            <v>9.2241079755742064</v>
           </cell>
           <cell r="W2">
-            <v>2.919279767068252</v>
+            <v>5.838559534136504</v>
           </cell>
           <cell r="X2">
-            <v>2.3753020778057938</v>
+            <v>4.7506041556115877</v>
           </cell>
           <cell r="Y2">
-            <v>2.4618981959366386</v>
+            <v>4.9237963918732772</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-6.9390342001744703</v>
+            <v>-13.878068400348941</v>
           </cell>
           <cell r="C3">
-            <v>-6.6654453438232029</v>
+            <v>-13.330890687646406</v>
           </cell>
           <cell r="D3">
-            <v>-6.9891478656509722</v>
+            <v>-13.978295731301944</v>
           </cell>
           <cell r="E3">
-            <v>-7.1631347403422172</v>
+            <v>-14.326269480684434</v>
           </cell>
           <cell r="F3">
-            <v>-7.2391288133064808</v>
+            <v>-14.478257626612962</v>
           </cell>
           <cell r="G3">
-            <v>-6.6438281754177728</v>
+            <v>-13.287656350835546</v>
           </cell>
           <cell r="H3">
-            <v>-4.2127098325231351</v>
+            <v>-8.4254196650462703</v>
           </cell>
           <cell r="I3">
-            <v>-0.79360761412759728</v>
+            <v>-1.5872152282551946</v>
           </cell>
           <cell r="J3">
-            <v>-0.86153441096636718</v>
+            <v>-1.7230688219327344</v>
           </cell>
           <cell r="K3">
-            <v>-0.58824600062913279</v>
+            <v>-1.1764920012582656</v>
           </cell>
           <cell r="L3">
-            <v>-0.49786352954275465</v>
+            <v>-0.99572705908550929</v>
           </cell>
           <cell r="M3">
-            <v>-2.2899510976312394</v>
+            <v>-4.5799021952624788</v>
           </cell>
           <cell r="N3">
-            <v>-3.3453725908918441</v>
+            <v>-6.6907451817836883</v>
           </cell>
           <cell r="O3">
-            <v>-4.2079086281987665</v>
+            <v>-8.4158172563975331</v>
           </cell>
           <cell r="P3">
-            <v>-4.2615034272600401</v>
+            <v>-8.5230068545200801</v>
           </cell>
           <cell r="Q3">
-            <v>-4.4202420215267164</v>
+            <v>-8.8404840430534328</v>
           </cell>
           <cell r="R3">
-            <v>-3.3390695888909434</v>
+            <v>-6.6781391777818868</v>
           </cell>
           <cell r="S3">
-            <v>1.1310527879660526</v>
+            <v>2.2621055759321052</v>
           </cell>
           <cell r="T3">
-            <v>-0.15624811503400235</v>
+            <v>-0.3124962300680047</v>
           </cell>
           <cell r="U3">
-            <v>-1.8630301281074242</v>
+            <v>-3.7260602562148484</v>
           </cell>
           <cell r="V3">
-            <v>-3.4879165234362755</v>
+            <v>-6.9758330468725509</v>
           </cell>
           <cell r="W3">
-            <v>-4.4972112840145142</v>
+            <v>-8.9944225680290284</v>
           </cell>
           <cell r="X3">
-            <v>-4.8825224736591215</v>
+            <v>-9.765044947318243</v>
           </cell>
           <cell r="Y3">
-            <v>-5.7613849446482099</v>
+            <v>-11.52276988929642</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.3807584092016052</v>
+            <v>-8.7615168184032104</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918635</v>
+            <v>-9.360101064383727</v>
           </cell>
           <cell r="D4">
-            <v>-4.8135518765238343</v>
+            <v>-9.6271037530476686</v>
           </cell>
           <cell r="E4">
-            <v>-4.7491784907270116</v>
+            <v>-9.4983569814540232</v>
           </cell>
           <cell r="F4">
-            <v>-4.7531285092245765</v>
+            <v>-9.5062570184491531</v>
           </cell>
           <cell r="G4">
-            <v>-4.0083634873838383</v>
+            <v>-8.0167269747676766</v>
           </cell>
           <cell r="H4">
-            <v>-0.1477961877036193</v>
+            <v>-0.29559237540723859</v>
           </cell>
           <cell r="I4">
-            <v>2.0665776587667093</v>
+            <v>4.1331553175334186</v>
           </cell>
           <cell r="J4">
-            <v>2.6080693834653967</v>
+            <v>5.2161387669307935</v>
           </cell>
           <cell r="K4">
-            <v>1.7628770379907008</v>
+            <v>3.5257540759814017</v>
           </cell>
           <cell r="L4">
-            <v>1.0833265532466021</v>
+            <v>2.1666531064932042</v>
           </cell>
           <cell r="M4">
-            <v>2.0856235387661091</v>
+            <v>4.1712470775322181</v>
           </cell>
           <cell r="N4">
-            <v>1.3549410363593706</v>
+            <v>2.7098820727187412</v>
           </cell>
           <cell r="O4">
-            <v>0.41107988483098112</v>
+            <v>0.82215976966196225</v>
           </cell>
           <cell r="P4">
-            <v>-1.6103838761832887</v>
+            <v>-3.2207677523665774</v>
           </cell>
           <cell r="Q4">
-            <v>-1.6270203310146203</v>
+            <v>-3.2540406620292406</v>
           </cell>
           <cell r="R4">
-            <v>-1.3402720490539275</v>
+            <v>-2.680544098107855</v>
           </cell>
           <cell r="S4">
-            <v>-0.64962488014463149</v>
+            <v>-1.299249760289263</v>
           </cell>
           <cell r="T4">
-            <v>-1.6156173005726733</v>
+            <v>-3.2312346011453466</v>
           </cell>
           <cell r="U4">
-            <v>-0.90212301786796834</v>
+            <v>-1.8042460357359367</v>
           </cell>
           <cell r="V4">
-            <v>-1.2638436401566562</v>
+            <v>-2.5276872803133124</v>
           </cell>
           <cell r="W4">
-            <v>-2.0543062892623838</v>
+            <v>-4.1086125785247676</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-6.6235113504173535</v>
           </cell>
           <cell r="Y4">
-            <v>-3.66366725196279</v>
+            <v>-7.3273345039255799</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>4.8369126214244931</v>
+            <v>9.6738252428489862</v>
           </cell>
           <cell r="C2">
-            <v>3.4511957430453704</v>
+            <v>6.9023914860907407</v>
           </cell>
           <cell r="D2">
-            <v>2.8744890089974708</v>
+            <v>5.7489780179949417</v>
           </cell>
           <cell r="E2">
-            <v>3.6845961997157515</v>
+            <v>7.3691923994315029</v>
           </cell>
           <cell r="F2">
-            <v>3.3020378223529656</v>
+            <v>6.6040756447059312</v>
           </cell>
           <cell r="G2">
-            <v>2.6083743546274873</v>
+            <v>5.2167487092549747</v>
           </cell>
           <cell r="H2">
-            <v>2.2462535777431816</v>
+            <v>4.4925071554863631</v>
           </cell>
           <cell r="I2">
-            <v>7.5417824570343219</v>
+            <v>15.083564914068644</v>
           </cell>
           <cell r="J2">
-            <v>8.1285705275888596</v>
+            <v>16.257141055177719</v>
           </cell>
           <cell r="K2">
-            <v>6.9719150763781723</v>
+            <v>13.943830152756345</v>
           </cell>
           <cell r="L2">
-            <v>8.1227872258772749</v>
+            <v>16.24557445175455</v>
           </cell>
           <cell r="M2">
-            <v>7.5476843217850043</v>
+            <v>15.095368643570009</v>
           </cell>
           <cell r="N2">
-            <v>7.3557614327403638</v>
+            <v>14.711522865480728</v>
           </cell>
           <cell r="O2">
-            <v>6.6354393045319613</v>
+            <v>13.270878609063923</v>
           </cell>
           <cell r="P2">
-            <v>4.0170446567981593</v>
+            <v>8.0340893135963185</v>
           </cell>
           <cell r="Q2">
-            <v>6.2271862789681975</v>
+            <v>12.454372557936395</v>
           </cell>
           <cell r="R2">
-            <v>7.5432351412632404</v>
+            <v>15.086470282526481</v>
           </cell>
           <cell r="S2">
-            <v>7.0383109821831535</v>
+            <v>14.076621964366307</v>
           </cell>
           <cell r="T2">
-            <v>4.8216773122057281</v>
+            <v>9.6433546244114563</v>
           </cell>
           <cell r="U2">
-            <v>5.1537857049340516</v>
+            <v>10.307571409868103</v>
           </cell>
           <cell r="V2">
-            <v>4.7061775385582694</v>
+            <v>9.4123550771165387</v>
           </cell>
           <cell r="W2">
-            <v>2.8900869693975695</v>
+            <v>5.780173938795139</v>
           </cell>
           <cell r="X2">
-            <v>2.2821529767153708</v>
+            <v>4.5643059534307415</v>
           </cell>
           <cell r="Y2">
-            <v>2.4377619391137308</v>
+            <v>4.8755238782274617</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-6.8710044531139358</v>
+            <v>-13.742008906227872</v>
           </cell>
           <cell r="C3">
-            <v>-6.8014748406359207</v>
+            <v>-13.602949681271841</v>
           </cell>
           <cell r="D3">
-            <v>-6.9891478656509722</v>
+            <v>-13.978295731301944</v>
           </cell>
           <cell r="E3">
-            <v>-7.3824143752506526</v>
+            <v>-14.764828750501305</v>
           </cell>
           <cell r="F3">
-            <v>-7.3839113895726101</v>
+            <v>-14.76782277914522</v>
           </cell>
           <cell r="G3">
-            <v>-6.7102664571719508</v>
+            <v>-13.420532914343902</v>
           </cell>
           <cell r="H3">
-            <v>-4.2969640291735978</v>
+            <v>-8.5939280583471955</v>
           </cell>
           <cell r="I3">
-            <v>-0.80170565100645008</v>
+            <v>-1.6034113020129002</v>
           </cell>
           <cell r="J3">
-            <v>-0.87023677875390626</v>
+            <v>-1.7404735575078125</v>
           </cell>
           <cell r="K3">
-            <v>-0.56517753001622562</v>
+            <v>-1.1303550600324512</v>
           </cell>
           <cell r="L3">
-            <v>-0.49786352954275465</v>
+            <v>-0.99572705908550929</v>
           </cell>
           <cell r="M3">
-            <v>-2.2672783144863757</v>
+            <v>-4.5345566289727515</v>
           </cell>
           <cell r="N3">
-            <v>-3.2791275890920057</v>
+            <v>-6.5582551781840115</v>
           </cell>
           <cell r="O3">
-            <v>-4.3367221576334227</v>
+            <v>-8.6734443152668455</v>
           </cell>
           <cell r="P3">
-            <v>-4.3467334958052408</v>
+            <v>-8.6934669916104816</v>
           </cell>
           <cell r="Q3">
-            <v>-4.4202420215267164</v>
+            <v>-8.8404840430534328</v>
           </cell>
           <cell r="R3">
-            <v>-3.3390695888909434</v>
+            <v>-6.6781391777818868</v>
           </cell>
           <cell r="S3">
-            <v>1.0974571606007242</v>
+            <v>2.1949143212014484</v>
           </cell>
           <cell r="T3">
-            <v>-0.15624811503400235</v>
+            <v>-0.3124962300680047</v>
           </cell>
           <cell r="U3">
-            <v>-1.9002907306695727</v>
+            <v>-3.8005814613391453</v>
           </cell>
           <cell r="V3">
-            <v>-3.4188488695068435</v>
+            <v>-6.837697739013687</v>
           </cell>
           <cell r="W3">
-            <v>-4.5880640372269283</v>
+            <v>-9.1761280744538567</v>
           </cell>
           <cell r="X3">
-            <v>-5.0818091052370447</v>
+            <v>-10.163618210474089</v>
           </cell>
           <cell r="Y3">
-            <v>-5.7043415293546627</v>
+            <v>-11.408683058709325</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-4.3807584092016052</v>
+            <v>-8.7615168184032104</v>
           </cell>
           <cell r="C4">
-            <v>-4.6800505321918635</v>
+            <v>-9.360101064383727</v>
           </cell>
           <cell r="D4">
-            <v>-4.8135518765238343</v>
+            <v>-9.6271037530476686</v>
           </cell>
           <cell r="E4">
-            <v>-4.7021569215118921</v>
+            <v>-9.4043138430237843</v>
           </cell>
           <cell r="F4">
-            <v>-4.6119464742971141</v>
+            <v>-9.2238929485942283</v>
           </cell>
           <cell r="G4">
-            <v>-3.9297681248861158</v>
+            <v>-7.8595362497722316</v>
           </cell>
           <cell r="H4">
-            <v>-0.1477961877036193</v>
+            <v>-0.29559237540723859</v>
           </cell>
           <cell r="I4">
-            <v>2.0057959629206303</v>
+            <v>4.0115919258412607</v>
           </cell>
           <cell r="J4">
-            <v>2.5822469143221749</v>
+            <v>5.1644938286443498</v>
           </cell>
           <cell r="K4">
-            <v>1.8348312028066478</v>
+            <v>3.6696624056132956</v>
           </cell>
           <cell r="L4">
-            <v>1.0408431590016372</v>
+            <v>2.0816863180032743</v>
           </cell>
           <cell r="M4">
-            <v>2.0856235387661091</v>
+            <v>4.1712470775322181</v>
           </cell>
           <cell r="N4">
-            <v>1.3150898294076243</v>
+            <v>2.6301796588152486</v>
           </cell>
           <cell r="O4">
-            <v>0.40301949493233452</v>
+            <v>0.80603898986466904</v>
           </cell>
           <cell r="P4">
-            <v>-1.6103838761832887</v>
+            <v>-3.2207677523665774</v>
           </cell>
           <cell r="Q4">
-            <v>-1.5791667918671317</v>
+            <v>-3.1583335837342634</v>
           </cell>
           <cell r="R4">
-            <v>-1.3008522829052827</v>
+            <v>-2.6017045658105653</v>
           </cell>
           <cell r="S4">
-            <v>-0.67614018137502463</v>
+            <v>-1.3522803627500493</v>
           </cell>
           <cell r="T4">
-            <v>-1.6479296465841264</v>
+            <v>-3.2958592931682529</v>
           </cell>
           <cell r="U4">
-            <v>-0.90212301786796834</v>
+            <v>-1.8042460357359367</v>
           </cell>
           <cell r="V4">
-            <v>-1.238566767353523</v>
+            <v>-2.477133534707046</v>
           </cell>
           <cell r="W4">
-            <v>-2.07526859833649</v>
+            <v>-4.15053719667298</v>
           </cell>
           <cell r="X4">
-            <v>-3.3117556752086768</v>
+            <v>-6.6235113504173535</v>
           </cell>
           <cell r="Y4">
-            <v>-3.7384359713906026</v>
+            <v>-7.4768719427812051</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>15.500000000000004</v>
+            <v>31.000000000000007</v>
           </cell>
           <cell r="C2">
-            <v>15.348837209302328</v>
+            <v>30.697674418604656</v>
           </cell>
           <cell r="D2">
-            <v>14.784883720930234</v>
+            <v>29.569767441860467</v>
           </cell>
           <cell r="E2">
-            <v>14.517441860465116</v>
+            <v>29.034883720930232</v>
           </cell>
           <cell r="F2">
-            <v>14.412790697674417</v>
+            <v>28.825581395348834</v>
           </cell>
           <cell r="G2">
-            <v>14.627906976744187</v>
+            <v>29.255813953488374</v>
           </cell>
           <cell r="H2">
-            <v>14.500000000000002</v>
+            <v>29.000000000000004</v>
           </cell>
           <cell r="I2">
-            <v>17.732558139534884</v>
+            <v>35.465116279069768</v>
           </cell>
           <cell r="J2">
-            <v>19.075581395348841</v>
+            <v>38.151162790697683</v>
           </cell>
           <cell r="K2">
-            <v>18.825581395348834</v>
+            <v>37.651162790697668</v>
           </cell>
           <cell r="L2">
-            <v>18.517441860465119</v>
+            <v>37.034883720930239</v>
           </cell>
           <cell r="M2">
-            <v>18.744186046511629</v>
+            <v>37.488372093023258</v>
           </cell>
           <cell r="N2">
-            <v>19.436046511627911</v>
+            <v>38.872093023255822</v>
           </cell>
           <cell r="O2">
-            <v>19.069767441860463</v>
+            <v>38.139534883720927</v>
           </cell>
           <cell r="P2">
-            <v>17.587209302325583</v>
+            <v>35.174418604651166</v>
           </cell>
           <cell r="Q2">
-            <v>18.127906976744185</v>
+            <v>36.255813953488371</v>
           </cell>
           <cell r="R2">
-            <v>18.337209302325583</v>
+            <v>36.674418604651166</v>
           </cell>
           <cell r="S2">
-            <v>17.732558139534884</v>
+            <v>35.465116279069768</v>
           </cell>
           <cell r="T2">
-            <v>16.837209302325583</v>
+            <v>33.674418604651166</v>
           </cell>
           <cell r="U2">
-            <v>16.622093023255815</v>
+            <v>33.244186046511629</v>
           </cell>
           <cell r="V2">
-            <v>16.569767441860467</v>
+            <v>33.139534883720934</v>
           </cell>
           <cell r="W2">
-            <v>16.38372093023256</v>
+            <v>32.767441860465119</v>
           </cell>
           <cell r="X2">
-            <v>15.139534883720934</v>
+            <v>30.279069767441868</v>
           </cell>
           <cell r="Y2">
-            <v>14.639534883720932</v>
+            <v>29.279069767441865</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>10.279017857142856</v>
+            <v>20.558035714285712</v>
           </cell>
           <cell r="C3">
-            <v>9.6930803571428541</v>
+            <v>19.386160714285708</v>
           </cell>
           <cell r="D3">
-            <v>9.3080357142857135</v>
+            <v>18.616071428571427</v>
           </cell>
           <cell r="E3">
-            <v>8.4877232142857153</v>
+            <v>16.975446428571431</v>
           </cell>
           <cell r="F3">
-            <v>8.1696428571428559</v>
+            <v>16.339285714285712</v>
           </cell>
           <cell r="G3">
-            <v>8.5881696428571423</v>
+            <v>17.176339285714285</v>
           </cell>
           <cell r="H3">
-            <v>9.140625</v>
+            <v>18.28125</v>
           </cell>
           <cell r="I3">
-            <v>12.271205357142854</v>
+            <v>24.542410714285708</v>
           </cell>
           <cell r="J3">
-            <v>13.392857142857142</v>
+            <v>26.785714285714285</v>
           </cell>
           <cell r="K3">
-            <v>14.280133928571429</v>
+            <v>28.560267857142858</v>
           </cell>
           <cell r="L3">
-            <v>13.024553571428571</v>
+            <v>26.049107142857142</v>
           </cell>
           <cell r="M3">
-            <v>13.677455357142856</v>
+            <v>27.354910714285712</v>
           </cell>
           <cell r="N3">
-            <v>13.694196428571427</v>
+            <v>27.388392857142854</v>
           </cell>
           <cell r="O3">
-            <v>13.359375</v>
+            <v>26.71875</v>
           </cell>
           <cell r="P3">
-            <v>11.484375</v>
+            <v>22.96875</v>
           </cell>
           <cell r="Q3">
-            <v>11.969866071428571</v>
+            <v>23.939732142857142</v>
           </cell>
           <cell r="R3">
-            <v>12.672991071428571</v>
+            <v>25.345982142857142</v>
           </cell>
           <cell r="S3">
-            <v>12.622767857142854</v>
+            <v>25.245535714285708</v>
           </cell>
           <cell r="T3">
-            <v>13.158482142857141</v>
+            <v>26.316964285714281</v>
           </cell>
           <cell r="U3">
-            <v>13.861607142857141</v>
+            <v>27.723214285714281</v>
           </cell>
           <cell r="V3">
-            <v>14.497767857142856</v>
+            <v>28.995535714285712</v>
           </cell>
           <cell r="W3">
-            <v>13.309151785714285</v>
+            <v>26.618303571428569</v>
           </cell>
           <cell r="X3">
-            <v>11.434151785714285</v>
+            <v>22.868303571428569</v>
           </cell>
           <cell r="Y3">
-            <v>10.563616071428571</v>
+            <v>21.127232142857142</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.6069131832797421</v>
+            <v>11.213826366559484</v>
           </cell>
           <cell r="C4">
-            <v>5.269292604501608</v>
+            <v>10.538585209003216</v>
           </cell>
           <cell r="D4">
-            <v>4.8553054662379429</v>
+            <v>9.7106109324758858</v>
           </cell>
           <cell r="E4">
-            <v>5.052250803858521</v>
+            <v>10.104501607717042</v>
           </cell>
           <cell r="F4">
-            <v>4.959807073954984</v>
+            <v>9.919614147909968</v>
           </cell>
           <cell r="G4">
-            <v>5.060289389067524</v>
+            <v>10.120578778135048</v>
           </cell>
           <cell r="H4">
-            <v>7.1744372990353709</v>
+            <v>14.348874598070742</v>
           </cell>
           <cell r="I4">
-            <v>9.1840836012861757</v>
+            <v>18.368167202572351</v>
           </cell>
           <cell r="J4">
-            <v>9.6262057877813501</v>
+            <v>19.2524115755627</v>
           </cell>
           <cell r="K4">
-            <v>9.0273311897106119</v>
+            <v>18.054662379421224</v>
           </cell>
           <cell r="L4">
-            <v>8.834405144694534</v>
+            <v>17.668810289389068</v>
           </cell>
           <cell r="M4">
-            <v>9.4975884244372999</v>
+            <v>18.9951768488746</v>
           </cell>
           <cell r="N4">
-            <v>9.9316720257234739</v>
+            <v>19.863344051446948</v>
           </cell>
           <cell r="O4">
-            <v>9.220257234726688</v>
+            <v>18.440514469453376</v>
           </cell>
           <cell r="P4">
-            <v>8.4083601286173639</v>
+            <v>16.816720257234728</v>
           </cell>
           <cell r="Q4">
-            <v>7.97427652733119</v>
+            <v>15.94855305466238</v>
           </cell>
           <cell r="R4">
-            <v>8.1511254019292601</v>
+            <v>16.30225080385852</v>
           </cell>
           <cell r="S4">
-            <v>7.8737942122186499</v>
+            <v>15.7475884244373</v>
           </cell>
           <cell r="T4">
-            <v>7.6929260450160779</v>
+            <v>15.385852090032156</v>
           </cell>
           <cell r="U4">
-            <v>8.384244372990354</v>
+            <v>16.768488745980708</v>
           </cell>
           <cell r="V4">
-            <v>8.7821543408360139</v>
+            <v>17.564308681672028</v>
           </cell>
           <cell r="W4">
-            <v>8.195337620578778</v>
+            <v>16.390675241157556</v>
           </cell>
           <cell r="X4">
-            <v>7.1824758842443721</v>
+            <v>14.364951768488744</v>
           </cell>
           <cell r="Y4">
-            <v>5.9847266881028949</v>
+            <v>11.96945337620579</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>15.655000000000003</v>
+            <v>31.310000000000006</v>
           </cell>
           <cell r="C2">
-            <v>15.348837209302328</v>
+            <v>30.697674418604656</v>
           </cell>
           <cell r="D2">
-            <v>14.489186046511628</v>
+            <v>28.978372093023257</v>
           </cell>
           <cell r="E2">
-            <v>14.517441860465119</v>
+            <v>29.034883720930239</v>
           </cell>
           <cell r="F2">
-            <v>14.12453488372093</v>
+            <v>28.24906976744186</v>
           </cell>
           <cell r="G2">
-            <v>14.627906976744187</v>
+            <v>29.255813953488374</v>
           </cell>
           <cell r="H2">
-            <v>14.790000000000001</v>
+            <v>29.580000000000002</v>
           </cell>
           <cell r="I2">
-            <v>17.732558139534884</v>
+            <v>35.465116279069768</v>
           </cell>
           <cell r="J2">
-            <v>19.266337209302328</v>
+            <v>38.532674418604657</v>
           </cell>
           <cell r="K2">
-            <v>18.825581395348834</v>
+            <v>37.651162790697668</v>
           </cell>
           <cell r="L2">
-            <v>18.332267441860466</v>
+            <v>36.664534883720933</v>
           </cell>
           <cell r="M2">
-            <v>18.369302325581398</v>
+            <v>36.738604651162795</v>
           </cell>
           <cell r="N2">
-            <v>19.047325581395352</v>
+            <v>38.094651162790704</v>
           </cell>
           <cell r="O2">
-            <v>19.451162790697673</v>
+            <v>38.902325581395345</v>
           </cell>
           <cell r="P2">
-            <v>17.938953488372093</v>
+            <v>35.877906976744185</v>
           </cell>
           <cell r="Q2">
-            <v>18.309186046511627</v>
+            <v>36.618372093023254</v>
           </cell>
           <cell r="R2">
-            <v>18.520581395348835</v>
+            <v>37.041162790697669</v>
           </cell>
           <cell r="S2">
-            <v>17.377906976744185</v>
+            <v>34.755813953488371</v>
           </cell>
           <cell r="T2">
-            <v>17.173953488372096</v>
+            <v>34.347906976744191</v>
           </cell>
           <cell r="U2">
-            <v>16.455872093023256</v>
+            <v>32.911744186046512</v>
           </cell>
           <cell r="V2">
-            <v>16.735465116279073</v>
+            <v>33.470930232558146</v>
           </cell>
           <cell r="W2">
-            <v>16.38372093023256</v>
+            <v>32.767441860465119</v>
           </cell>
           <cell r="X2">
-            <v>15.442325581395352</v>
+            <v>30.884651162790703</v>
           </cell>
           <cell r="Y2">
-            <v>14.932325581395352</v>
+            <v>29.864651162790704</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>10.279017857142856</v>
+            <v>20.558035714285712</v>
           </cell>
           <cell r="C3">
-            <v>9.6930803571428541</v>
+            <v>19.386160714285708</v>
           </cell>
           <cell r="D3">
-            <v>9.2149553571428573</v>
+            <v>18.429910714285715</v>
           </cell>
           <cell r="E3">
-            <v>8.5726004464285719</v>
+            <v>17.145200892857144</v>
           </cell>
           <cell r="F3">
-            <v>8.1696428571428559</v>
+            <v>16.339285714285712</v>
           </cell>
           <cell r="G3">
-            <v>8.7599330357142851</v>
+            <v>17.51986607142857</v>
           </cell>
           <cell r="H3">
-            <v>9.0492187499999996</v>
+            <v>18.098437499999999</v>
           </cell>
           <cell r="I3">
-            <v>12.148493303571428</v>
+            <v>24.296986607142856</v>
           </cell>
           <cell r="J3">
-            <v>13.526785714285714</v>
+            <v>27.053571428571427</v>
           </cell>
           <cell r="K3">
-            <v>14.137332589285714</v>
+            <v>28.274665178571428</v>
           </cell>
           <cell r="L3">
-            <v>13.154799107142855</v>
+            <v>26.30959821428571</v>
           </cell>
           <cell r="M3">
-            <v>13.677455357142856</v>
+            <v>27.354910714285712</v>
           </cell>
           <cell r="N3">
-            <v>13.968080357142856</v>
+            <v>27.936160714285712</v>
           </cell>
           <cell r="O3">
-            <v>13.359375</v>
+            <v>26.71875</v>
           </cell>
           <cell r="P3">
-            <v>11.254687500000001</v>
+            <v>22.509375000000002</v>
           </cell>
           <cell r="Q3">
-            <v>11.969866071428571</v>
+            <v>23.939732142857142</v>
           </cell>
           <cell r="R3">
-            <v>12.799720982142857</v>
+            <v>25.599441964285713</v>
           </cell>
           <cell r="S3">
-            <v>12.748995535714284</v>
+            <v>25.497991071428569</v>
           </cell>
           <cell r="T3">
-            <v>13.421651785714284</v>
+            <v>26.843303571428567</v>
           </cell>
           <cell r="U3">
-            <v>13.584374999999998</v>
+            <v>27.168749999999996</v>
           </cell>
           <cell r="V3">
-            <v>14.352790178571427</v>
+            <v>28.705580357142853</v>
           </cell>
           <cell r="W3">
-            <v>13.575334821428571</v>
+            <v>27.150669642857142</v>
           </cell>
           <cell r="X3">
-            <v>11.319810267857143</v>
+            <v>22.639620535714286</v>
           </cell>
           <cell r="Y3">
-            <v>10.352343750000001</v>
+            <v>20.704687500000002</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.494774919614148</v>
+            <v>10.989549839228296</v>
           </cell>
           <cell r="C4">
-            <v>5.3746784565916395</v>
+            <v>10.749356913183279</v>
           </cell>
           <cell r="D4">
-            <v>4.8067524115755642</v>
+            <v>9.6135048231511284</v>
           </cell>
           <cell r="E4">
-            <v>5.0017282958199356</v>
+            <v>10.003456591639871</v>
           </cell>
           <cell r="F4">
-            <v>5.0590032154340836</v>
+            <v>10.118006430868167</v>
           </cell>
           <cell r="G4">
-            <v>4.9590836012861743</v>
+            <v>9.9181672025723486</v>
           </cell>
           <cell r="H4">
-            <v>7.0309485530546638</v>
+            <v>14.061897106109328</v>
           </cell>
           <cell r="I4">
-            <v>9.3677652733118997</v>
+            <v>18.735530546623799</v>
           </cell>
           <cell r="J4">
-            <v>9.5299437299035361</v>
+            <v>19.059887459807072</v>
           </cell>
           <cell r="K4">
-            <v>9.1176045016077172</v>
+            <v>18.235209003215434</v>
           </cell>
           <cell r="L4">
-            <v>8.8344051446945357</v>
+            <v>17.668810289389071</v>
           </cell>
           <cell r="M4">
-            <v>9.3076366559485528</v>
+            <v>18.615273311897106</v>
           </cell>
           <cell r="N4">
-            <v>9.9316720257234739</v>
+            <v>19.863344051446948</v>
           </cell>
           <cell r="O4">
-            <v>9.0358520900321544</v>
+            <v>18.071704180064309</v>
           </cell>
           <cell r="P4">
-            <v>8.4083601286173639</v>
+            <v>16.816720257234728</v>
           </cell>
           <cell r="Q4">
-            <v>8.0540192926045009</v>
+            <v>16.108038585209002</v>
           </cell>
           <cell r="R4">
-            <v>8.0696141479099683</v>
+            <v>16.139228295819937</v>
           </cell>
           <cell r="S4">
-            <v>7.7163183279742764</v>
+            <v>15.432636655948553</v>
           </cell>
           <cell r="T4">
-            <v>7.6159967845659171</v>
+            <v>15.231993569131834</v>
           </cell>
           <cell r="U4">
-            <v>8.5519292604501622</v>
+            <v>17.103858520900324</v>
           </cell>
           <cell r="V4">
-            <v>8.6943327974276539</v>
+            <v>17.388665594855308</v>
           </cell>
           <cell r="W4">
-            <v>8.3592443729903536</v>
+            <v>16.718488745980707</v>
           </cell>
           <cell r="X4">
-            <v>7.1824758842443721</v>
+            <v>14.364951768488744</v>
           </cell>
           <cell r="Y4">
-            <v>6.0445739549839237</v>
+            <v>12.089147909967847</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>15.655000000000003</v>
+            <v>31.310000000000006</v>
           </cell>
           <cell r="C2">
-            <v>15.655813953488376</v>
+            <v>31.311627906976753</v>
           </cell>
           <cell r="D2">
-            <v>14.489186046511628</v>
+            <v>28.978372093023257</v>
           </cell>
           <cell r="E2">
-            <v>14.807790697674418</v>
+            <v>29.615581395348837</v>
           </cell>
           <cell r="F2">
-            <v>14.12453488372093</v>
+            <v>28.24906976744186</v>
           </cell>
           <cell r="G2">
-            <v>14.481627906976746</v>
+            <v>28.963255813953491</v>
           </cell>
           <cell r="H2">
-            <v>14.500000000000002</v>
+            <v>29.000000000000004</v>
           </cell>
           <cell r="I2">
-            <v>18.087209302325583</v>
+            <v>36.174418604651166</v>
           </cell>
           <cell r="J2">
-            <v>18.694069767441864</v>
+            <v>37.388139534883727</v>
           </cell>
           <cell r="K2">
-            <v>18.637325581395348</v>
+            <v>37.274651162790697</v>
           </cell>
           <cell r="L2">
-            <v>18.702616279069769</v>
+            <v>37.405232558139538</v>
           </cell>
           <cell r="M2">
-            <v>18.744186046511629</v>
+            <v>37.488372093023258</v>
           </cell>
           <cell r="N2">
-            <v>19.241686046511632</v>
+            <v>38.483372093023263</v>
           </cell>
           <cell r="O2">
-            <v>18.688372093023254</v>
+            <v>37.376744186046508</v>
           </cell>
           <cell r="P2">
-            <v>17.411337209302328</v>
+            <v>34.822674418604656</v>
           </cell>
           <cell r="Q2">
-            <v>18.490465116279069</v>
+            <v>36.980930232558137</v>
           </cell>
           <cell r="R2">
-            <v>18.520581395348835</v>
+            <v>37.041162790697669</v>
           </cell>
           <cell r="S2">
-            <v>17.377906976744185</v>
+            <v>34.755813953488371</v>
           </cell>
           <cell r="T2">
-            <v>16.837209302325583</v>
+            <v>33.674418604651166</v>
           </cell>
           <cell r="U2">
-            <v>16.455872093023256</v>
+            <v>32.911744186046512</v>
           </cell>
           <cell r="V2">
-            <v>16.404069767441861</v>
+            <v>32.808139534883722</v>
           </cell>
           <cell r="W2">
-            <v>16.711395348837211</v>
+            <v>33.422790697674422</v>
           </cell>
           <cell r="X2">
-            <v>15.442325581395353</v>
+            <v>30.884651162790707</v>
           </cell>
           <cell r="Y2">
-            <v>14.493139534883724</v>
+            <v>28.986279069767448</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>10.381808035714284</v>
+            <v>20.763616071428569</v>
           </cell>
           <cell r="C3">
-            <v>9.7900111607142843</v>
+            <v>19.580022321428569</v>
           </cell>
           <cell r="D3">
-            <v>9.3080357142857135</v>
+            <v>18.616071428571427</v>
           </cell>
           <cell r="E3">
-            <v>8.6574776785714285</v>
+            <v>17.314955357142857</v>
           </cell>
           <cell r="F3">
-            <v>8.0879464285714278</v>
+            <v>16.175892857142856</v>
           </cell>
           <cell r="G3">
-            <v>8.5022879464285701</v>
+            <v>17.00457589285714</v>
           </cell>
           <cell r="H3">
-            <v>9.2320312500000004</v>
+            <v>18.464062500000001</v>
           </cell>
           <cell r="I3">
-            <v>12.025781249999998</v>
+            <v>24.051562499999996</v>
           </cell>
           <cell r="J3">
-            <v>13.124999999999998</v>
+            <v>26.249999999999996</v>
           </cell>
           <cell r="K3">
-            <v>14.422935267857143</v>
+            <v>28.845870535714287</v>
           </cell>
           <cell r="L3">
-            <v>12.764062499999998</v>
+            <v>25.528124999999996</v>
           </cell>
           <cell r="M3">
-            <v>13.677455357142856</v>
+            <v>27.354910714285712</v>
           </cell>
           <cell r="N3">
-            <v>13.557254464285714</v>
+            <v>27.114508928571428</v>
           </cell>
           <cell r="O3">
-            <v>13.359375</v>
+            <v>26.71875</v>
           </cell>
           <cell r="P3">
-            <v>11.36953125</v>
+            <v>22.739062499999999</v>
           </cell>
           <cell r="Q3">
-            <v>12.089564732142858</v>
+            <v>24.179129464285715</v>
           </cell>
           <cell r="R3">
-            <v>12.926450892857144</v>
+            <v>25.852901785714288</v>
           </cell>
           <cell r="S3">
-            <v>12.748995535714284</v>
+            <v>25.497991071428569</v>
           </cell>
           <cell r="T3">
-            <v>12.895312499999998</v>
+            <v>25.790624999999995</v>
           </cell>
           <cell r="U3">
-            <v>13.861607142857141</v>
+            <v>27.723214285714281</v>
           </cell>
           <cell r="V3">
-            <v>14.207812499999999</v>
+            <v>28.415624999999999</v>
           </cell>
           <cell r="W3">
-            <v>13.309151785714285</v>
+            <v>26.618303571428569</v>
           </cell>
           <cell r="X3">
-            <v>11.434151785714285</v>
+            <v>22.868303571428569</v>
           </cell>
           <cell r="Y3">
-            <v>10.669252232142856</v>
+            <v>21.338504464285712</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.66298231511254</v>
+            <v>11.32596463022508</v>
           </cell>
           <cell r="C4">
-            <v>5.1639067524115756</v>
+            <v>10.327813504823151</v>
           </cell>
           <cell r="D4">
-            <v>4.9524115755627021</v>
+            <v>9.9048231511254041</v>
           </cell>
           <cell r="E4">
-            <v>5.1027733118971064</v>
+            <v>10.205546623794213</v>
           </cell>
           <cell r="F4">
-            <v>4.9102090032154342</v>
+            <v>9.8204180064308684</v>
           </cell>
           <cell r="G4">
-            <v>4.9590836012861734</v>
+            <v>9.9181672025723469</v>
           </cell>
           <cell r="H4">
-            <v>7.3179260450160788</v>
+            <v>14.635852090032158</v>
           </cell>
           <cell r="I4">
-            <v>9.2759244372990359</v>
+            <v>18.551848874598072</v>
           </cell>
           <cell r="J4">
-            <v>9.5299437299035361</v>
+            <v>19.059887459807072</v>
           </cell>
           <cell r="K4">
-            <v>9.2078778135048225</v>
+            <v>18.415755627009645</v>
           </cell>
           <cell r="L4">
-            <v>8.6577170418006428</v>
+            <v>17.315434083601286</v>
           </cell>
           <cell r="M4">
-            <v>9.687540192926047</v>
+            <v>19.375080385852094</v>
           </cell>
           <cell r="N4">
-            <v>10.130305466237942</v>
+            <v>20.260610932475885</v>
           </cell>
           <cell r="O4">
-            <v>9.0358520900321544</v>
+            <v>18.071704180064309</v>
           </cell>
           <cell r="P4">
-            <v>8.3242765273311914</v>
+            <v>16.648553054662383</v>
           </cell>
           <cell r="Q4">
-            <v>8.1337620578778136</v>
+            <v>16.267524115755627</v>
           </cell>
           <cell r="R4">
-            <v>8.3141479099678453</v>
+            <v>16.628295819935691</v>
           </cell>
           <cell r="S4">
-            <v>7.7163183279742764</v>
+            <v>15.432636655948553</v>
           </cell>
           <cell r="T4">
-            <v>7.8467845659163995</v>
+            <v>15.693569131832799</v>
           </cell>
           <cell r="U4">
-            <v>8.3004019292604507</v>
+            <v>16.600803858520901</v>
           </cell>
           <cell r="V4">
-            <v>8.9577974276527339</v>
+            <v>17.915594855305468</v>
           </cell>
           <cell r="W4">
-            <v>8.0314308681672024</v>
+            <v>16.062861736334405</v>
           </cell>
           <cell r="X4">
-            <v>7.2543006430868164</v>
+            <v>14.508601286173633</v>
           </cell>
           <cell r="Y4">
-            <v>5.8650321543408364</v>
+            <v>11.730064308681673</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>3.6912751677852351</v>
+            <v>7.3825503355704702</v>
           </cell>
           <cell r="C2">
-            <v>4.077181208053692</v>
+            <v>8.154362416107384</v>
           </cell>
           <cell r="D2">
-            <v>3.8422818791946312</v>
+            <v>7.6845637583892623</v>
           </cell>
           <cell r="E2">
-            <v>3.8422818791946312</v>
+            <v>7.6845637583892623</v>
           </cell>
           <cell r="F2">
-            <v>3.7583892617449663</v>
+            <v>7.5167785234899327</v>
           </cell>
           <cell r="G2">
-            <v>3.9765100671140936</v>
+            <v>7.9530201342281872</v>
           </cell>
           <cell r="H2">
-            <v>4.0939597315436247</v>
+            <v>8.1879194630872494</v>
           </cell>
           <cell r="I2">
-            <v>7.6677852348993287</v>
+            <v>15.335570469798657</v>
           </cell>
           <cell r="J2">
-            <v>8.9261744966442951</v>
+            <v>17.85234899328859</v>
           </cell>
           <cell r="K2">
-            <v>8.5906040268456358</v>
+            <v>17.181208053691272</v>
           </cell>
           <cell r="L2">
-            <v>8.3892617449664435</v>
+            <v>16.778523489932887</v>
           </cell>
           <cell r="M2">
-            <v>8.3724832214765108</v>
+            <v>16.744966442953022</v>
           </cell>
           <cell r="N2">
-            <v>8.9093959731543606</v>
+            <v>17.818791946308721</v>
           </cell>
           <cell r="O2">
-            <v>8.6409395973154375</v>
+            <v>17.281879194630875</v>
           </cell>
           <cell r="P2">
-            <v>6.0570469798657713</v>
+            <v>12.114093959731543</v>
           </cell>
           <cell r="Q2">
-            <v>7.9194630872483218</v>
+            <v>15.838926174496644</v>
           </cell>
           <cell r="R2">
-            <v>8.0201342281879189</v>
+            <v>16.040268456375838</v>
           </cell>
           <cell r="S2">
-            <v>7.5167785234899327</v>
+            <v>15.033557046979865</v>
           </cell>
           <cell r="T2">
-            <v>5.9563758389261743</v>
+            <v>11.912751677852349</v>
           </cell>
           <cell r="U2">
-            <v>5.40268456375839</v>
+            <v>10.80536912751678</v>
           </cell>
           <cell r="V2">
-            <v>5.6711409395973158</v>
+            <v>11.342281879194632</v>
           </cell>
           <cell r="W2">
-            <v>5.6879194630872476</v>
+            <v>11.375838926174495</v>
           </cell>
           <cell r="X2">
-            <v>3.9261744966442951</v>
+            <v>7.8523489932885902</v>
           </cell>
           <cell r="Y2">
-            <v>3.8926174496644301</v>
+            <v>7.7852348993288603</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.1388888888888889</v>
+            <v>0.27777777777777779</v>
           </cell>
           <cell r="C3">
-            <v>-0.83333333333333337</v>
+            <v>-1.6666666666666667</v>
           </cell>
           <cell r="D3">
-            <v>-0.90277777777777768</v>
+            <v>-1.8055555555555554</v>
           </cell>
           <cell r="E3">
-            <v>-1.3194444444444444</v>
+            <v>-2.6388888888888888</v>
           </cell>
           <cell r="F3">
-            <v>-1.5972222222222221</v>
+            <v>-3.1944444444444442</v>
           </cell>
           <cell r="G3">
-            <v>-1.2500000000000002</v>
+            <v>-2.5000000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-1.5972222222222223</v>
+            <v>-3.1944444444444446</v>
           </cell>
           <cell r="I3">
-            <v>4.0277777777777786</v>
+            <v>8.0555555555555571</v>
           </cell>
           <cell r="J3">
-            <v>5.1388888888888884</v>
+            <v>10.277777777777777</v>
           </cell>
           <cell r="K3">
-            <v>6.5972222222222214</v>
+            <v>13.194444444444443</v>
           </cell>
           <cell r="L3">
-            <v>3.75</v>
+            <v>7.5</v>
           </cell>
           <cell r="M3">
-            <v>3.4027777777777777</v>
+            <v>6.8055555555555554</v>
           </cell>
           <cell r="N3">
-            <v>2.3611111111111112</v>
+            <v>4.7222222222222223</v>
           </cell>
           <cell r="O3">
-            <v>3.1944444444444442</v>
+            <v>6.3888888888888884</v>
           </cell>
           <cell r="P3">
-            <v>1.3888888888888888</v>
+            <v>2.7777777777777777</v>
           </cell>
           <cell r="Q3">
-            <v>1.1805555555555554</v>
+            <v>2.3611111111111107</v>
           </cell>
           <cell r="R3">
-            <v>1.3888888888888888</v>
+            <v>2.7777777777777777</v>
           </cell>
           <cell r="S3">
-            <v>2.5</v>
+            <v>5</v>
           </cell>
           <cell r="T3">
-            <v>4.791666666666667</v>
+            <v>9.5833333333333339</v>
           </cell>
           <cell r="U3">
-            <v>4.8611111111111098</v>
+            <v>9.7222222222222197</v>
           </cell>
           <cell r="V3">
-            <v>3.888888888888888</v>
+            <v>7.7777777777777759</v>
           </cell>
           <cell r="W3">
-            <v>2.9861111111111112</v>
+            <v>5.9722222222222223</v>
           </cell>
           <cell r="X3">
-            <v>1.3888888888888886</v>
+            <v>2.7777777777777772</v>
           </cell>
           <cell r="Y3">
-            <v>0.27777777777777779</v>
+            <v>0.55555555555555558</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.69852941176470584</v>
+            <v>-1.3970588235294117</v>
           </cell>
           <cell r="C4">
-            <v>-1.654411764705882</v>
+            <v>-3.3088235294117641</v>
           </cell>
           <cell r="D4">
-            <v>-2.8860294117647056</v>
+            <v>-5.7720588235294112</v>
           </cell>
           <cell r="E4">
-            <v>-2.6654411764705883</v>
+            <v>-5.3308823529411766</v>
           </cell>
           <cell r="F4">
-            <v>-2.7205882352941173</v>
+            <v>-5.4411764705882346</v>
           </cell>
           <cell r="G4">
-            <v>-2.5919117647058827</v>
+            <v>-5.1838235294117654</v>
           </cell>
           <cell r="H4">
-            <v>-0.14705882352941177</v>
+            <v>-0.29411764705882354</v>
           </cell>
           <cell r="I4">
-            <v>3.1066176470588229</v>
+            <v>6.2132352941176459</v>
           </cell>
           <cell r="J4">
-            <v>4.0808823529411757</v>
+            <v>8.1617647058823515</v>
           </cell>
           <cell r="K4">
-            <v>4.1176470588235299</v>
+            <v>8.2352941176470598</v>
           </cell>
           <cell r="L4">
-            <v>3.4375</v>
+            <v>6.875</v>
           </cell>
           <cell r="M4">
-            <v>4.3014705882352935</v>
+            <v>8.602941176470587</v>
           </cell>
           <cell r="N4">
-            <v>3.8970588235294117</v>
+            <v>7.7941176470588234</v>
           </cell>
           <cell r="O4">
-            <v>3.4007352941176467</v>
+            <v>6.8014705882352935</v>
           </cell>
           <cell r="P4">
-            <v>2.4448529411764701</v>
+            <v>4.8897058823529402</v>
           </cell>
           <cell r="Q4">
-            <v>1.5257352941176472</v>
+            <v>3.0514705882352944</v>
           </cell>
           <cell r="R4">
-            <v>1.8933823529411764</v>
+            <v>3.7867647058823528</v>
           </cell>
           <cell r="S4">
-            <v>1.6911764705882351</v>
+            <v>3.3823529411764701</v>
           </cell>
           <cell r="T4">
-            <v>0.31249999999999994</v>
+            <v>0.62499999999999989</v>
           </cell>
           <cell r="U4">
-            <v>1.3602941176470587</v>
+            <v>2.7205882352941173</v>
           </cell>
           <cell r="V4">
-            <v>1.9117647058823528</v>
+            <v>3.8235294117647056</v>
           </cell>
           <cell r="W4">
-            <v>1.25</v>
+            <v>2.5</v>
           </cell>
           <cell r="X4">
-            <v>-1.1580882352941175</v>
+            <v>-2.3161764705882351</v>
           </cell>
           <cell r="Y4">
-            <v>-2.3713235294117645</v>
+            <v>-4.742647058823529</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>3.6174496644295302</v>
+            <v>7.2348993288590604</v>
           </cell>
           <cell r="C2">
-            <v>4.1179530201342294</v>
+            <v>8.2359060402684587</v>
           </cell>
           <cell r="D2">
-            <v>3.9191275167785236</v>
+            <v>7.8382550335570471</v>
           </cell>
           <cell r="E2">
-            <v>3.8807046979865771</v>
+            <v>7.7614093959731543</v>
           </cell>
           <cell r="F2">
-            <v>3.7959731543624162</v>
+            <v>7.5919463087248324</v>
           </cell>
           <cell r="G2">
-            <v>3.8969798657718115</v>
+            <v>7.7939597315436231</v>
           </cell>
           <cell r="H2">
-            <v>4.0939597315436247</v>
+            <v>8.1879194630872494</v>
           </cell>
           <cell r="I2">
-            <v>7.8211409395973162</v>
+            <v>15.642281879194632</v>
           </cell>
           <cell r="J2">
-            <v>9.0154362416107396</v>
+            <v>18.030872483221479</v>
           </cell>
           <cell r="K2">
-            <v>8.7624161073825491</v>
+            <v>17.524832214765098</v>
           </cell>
           <cell r="L2">
-            <v>8.221476510067113</v>
+            <v>16.442953020134226</v>
           </cell>
           <cell r="M2">
-            <v>8.4562080536912774</v>
+            <v>16.912416107382555</v>
           </cell>
           <cell r="N2">
-            <v>8.9093959731543606</v>
+            <v>17.818791946308721</v>
           </cell>
           <cell r="O2">
-            <v>8.7273489932885902</v>
+            <v>17.45469798657718</v>
           </cell>
           <cell r="P2">
-            <v>6.0570469798657713</v>
+            <v>12.114093959731543</v>
           </cell>
           <cell r="Q2">
-            <v>7.7610738255033551</v>
+            <v>15.52214765100671</v>
           </cell>
           <cell r="R2">
-            <v>8.1805369127516787</v>
+            <v>16.361073825503357</v>
           </cell>
           <cell r="S2">
-            <v>7.366442953020135</v>
+            <v>14.73288590604027</v>
           </cell>
           <cell r="T2">
-            <v>6.075503355704698</v>
+            <v>12.151006711409396</v>
           </cell>
           <cell r="U2">
-            <v>5.5107382550335586</v>
+            <v>11.021476510067117</v>
           </cell>
           <cell r="V2">
-            <v>5.784563758389262</v>
+            <v>11.569127516778524</v>
           </cell>
           <cell r="W2">
-            <v>5.6879194630872476</v>
+            <v>11.375838926174495</v>
           </cell>
           <cell r="X2">
-            <v>4.004697986577181</v>
+            <v>8.009395973154362</v>
           </cell>
           <cell r="Y2">
-            <v>3.9315436241610739</v>
+            <v>7.8630872483221479</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.1361111111111111</v>
+            <v>0.2722222222222222</v>
           </cell>
           <cell r="C3">
-            <v>-0.81666666666666676</v>
+            <v>-1.6333333333333335</v>
           </cell>
           <cell r="D3">
-            <v>-0.92083333333333317</v>
+            <v>-1.8416666666666663</v>
           </cell>
           <cell r="E3">
-            <v>-1.3458333333333334</v>
+            <v>-2.6916666666666669</v>
           </cell>
           <cell r="F3">
-            <v>-1.5972222222222221</v>
+            <v>-3.1944444444444442</v>
           </cell>
           <cell r="G3">
-            <v>-1.2500000000000002</v>
+            <v>-2.5000000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-1.5652777777777778</v>
+            <v>-3.1305555555555555</v>
           </cell>
           <cell r="I3">
-            <v>4.0277777777777786</v>
+            <v>8.0555555555555571</v>
           </cell>
           <cell r="J3">
-            <v>5.1388888888888875</v>
+            <v>10.277777777777775</v>
           </cell>
           <cell r="K3">
-            <v>6.4652777777777768</v>
+            <v>12.930555555555554</v>
           </cell>
           <cell r="L3">
-            <v>3.75</v>
+            <v>7.5</v>
           </cell>
           <cell r="M3">
-            <v>3.3347222222222221</v>
+            <v>6.6694444444444443</v>
           </cell>
           <cell r="N3">
-            <v>2.3375000000000004</v>
+            <v>4.6750000000000007</v>
           </cell>
           <cell r="O3">
-            <v>3.1305555555555551</v>
+            <v>6.2611111111111102</v>
           </cell>
           <cell r="P3">
-            <v>1.4166666666666665</v>
+            <v>2.833333333333333</v>
           </cell>
           <cell r="Q3">
-            <v>1.1687499999999997</v>
+            <v>2.3374999999999995</v>
           </cell>
           <cell r="R3">
-            <v>1.3611111111111112</v>
+            <v>2.7222222222222223</v>
           </cell>
           <cell r="S3">
-            <v>2.4750000000000001</v>
+            <v>4.95</v>
           </cell>
           <cell r="T3">
-            <v>4.8875000000000002</v>
+            <v>9.7750000000000004</v>
           </cell>
           <cell r="U3">
-            <v>4.9097222222222205</v>
+            <v>9.8194444444444411</v>
           </cell>
           <cell r="V3">
-            <v>3.81111111111111</v>
+            <v>7.62222222222222</v>
           </cell>
           <cell r="W3">
-            <v>2.9861111111111112</v>
+            <v>5.9722222222222223</v>
           </cell>
           <cell r="X3">
-            <v>1.4027777777777775</v>
+            <v>2.8055555555555549</v>
           </cell>
           <cell r="Y3">
-            <v>0.2805555555555555</v>
+            <v>0.56111111111111101</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.71249999999999991</v>
+            <v>-1.4249999999999998</v>
           </cell>
           <cell r="C4">
-            <v>-1.6874999999999996</v>
+            <v>-3.3749999999999991</v>
           </cell>
           <cell r="D4">
-            <v>-2.9437499999999996</v>
+            <v>-5.8874999999999993</v>
           </cell>
           <cell r="E4">
-            <v>-2.6920955882352944</v>
+            <v>-5.3841911764705888</v>
           </cell>
           <cell r="F4">
-            <v>-2.7749999999999995</v>
+            <v>-5.5499999999999989</v>
           </cell>
           <cell r="G4">
-            <v>-2.617830882352941</v>
+            <v>-5.2356617647058821</v>
           </cell>
           <cell r="H4">
-            <v>-0.14411764705882352</v>
+            <v>-0.28823529411764703</v>
           </cell>
           <cell r="I4">
-            <v>3.075551470588235</v>
+            <v>6.1511029411764699</v>
           </cell>
           <cell r="J4">
-            <v>4.1624999999999996</v>
+            <v>8.3249999999999993</v>
           </cell>
           <cell r="K4">
-            <v>4.158823529411765</v>
+            <v>8.3176470588235301</v>
           </cell>
           <cell r="L4">
-            <v>3.4031250000000002</v>
+            <v>6.8062500000000004</v>
           </cell>
           <cell r="M4">
-            <v>4.2584558823529406</v>
+            <v>8.5169117647058812</v>
           </cell>
           <cell r="N4">
-            <v>3.8191176470588237</v>
+            <v>7.6382352941176475</v>
           </cell>
           <cell r="O4">
-            <v>3.3327205882352935</v>
+            <v>6.665441176470587</v>
           </cell>
           <cell r="P4">
-            <v>2.4204044117647054</v>
+            <v>4.8408088235294109</v>
           </cell>
           <cell r="Q4">
-            <v>1.5409926470588236</v>
+            <v>3.0819852941176471</v>
           </cell>
           <cell r="R4">
-            <v>1.8933823529411764</v>
+            <v>3.7867647058823528</v>
           </cell>
           <cell r="S4">
-            <v>1.6911764705882351</v>
+            <v>3.3823529411764701</v>
           </cell>
           <cell r="T4">
-            <v>0.31874999999999992</v>
+            <v>0.63749999999999984</v>
           </cell>
           <cell r="U4">
-            <v>1.346691176470588</v>
+            <v>2.693382352941176</v>
           </cell>
           <cell r="V4">
-            <v>1.9117647058823528</v>
+            <v>3.8235294117647056</v>
           </cell>
           <cell r="W4">
-            <v>1.2625</v>
+            <v>2.5249999999999999</v>
           </cell>
           <cell r="X4">
-            <v>-1.1696691176470588</v>
+            <v>-2.3393382352941177</v>
           </cell>
           <cell r="Y4">
-            <v>-2.4187500000000002</v>
+            <v>-4.8375000000000004</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>3.6174496644295302</v>
+            <v>7.2348993288590604</v>
           </cell>
           <cell r="C2">
-            <v>4.077181208053692</v>
+            <v>8.154362416107384</v>
           </cell>
           <cell r="D2">
-            <v>3.8038590604026852</v>
+            <v>7.6077181208053704</v>
           </cell>
           <cell r="E2">
-            <v>3.7654362416107383</v>
+            <v>7.5308724832214766</v>
           </cell>
           <cell r="F2">
-            <v>3.7208053691275165</v>
+            <v>7.4416107382550329</v>
           </cell>
           <cell r="G2">
-            <v>3.8969798657718115</v>
+            <v>7.7939597315436231</v>
           </cell>
           <cell r="H2">
-            <v>4.0939597315436247</v>
+            <v>8.1879194630872494</v>
           </cell>
           <cell r="I2">
-            <v>7.8211409395973162</v>
+            <v>15.642281879194632</v>
           </cell>
           <cell r="J2">
-            <v>9.0154362416107396</v>
+            <v>18.030872483221479</v>
           </cell>
           <cell r="K2">
-            <v>8.5906040268456358</v>
+            <v>17.181208053691272</v>
           </cell>
           <cell r="L2">
-            <v>8.30536912751678</v>
+            <v>16.61073825503356</v>
           </cell>
           <cell r="M2">
-            <v>8.5399328859060422</v>
+            <v>17.079865771812084</v>
           </cell>
           <cell r="N2">
-            <v>9.0875838926174488</v>
+            <v>18.175167785234898</v>
           </cell>
           <cell r="O2">
-            <v>8.4681208053691286</v>
+            <v>16.936241610738257</v>
           </cell>
           <cell r="P2">
-            <v>6.0570469798657713</v>
+            <v>12.114093959731543</v>
           </cell>
           <cell r="Q2">
-            <v>7.8402684563758385</v>
+            <v>15.680536912751677</v>
           </cell>
           <cell r="R2">
-            <v>8.1805369127516787</v>
+            <v>16.361073825503357</v>
           </cell>
           <cell r="S2">
-            <v>7.4416107382550329</v>
+            <v>14.883221476510066</v>
           </cell>
           <cell r="T2">
-            <v>5.8372483221476514</v>
+            <v>11.674496644295303</v>
           </cell>
           <cell r="U2">
-            <v>5.4567114093959734</v>
+            <v>10.913422818791947</v>
           </cell>
           <cell r="V2">
-            <v>5.784563758389262</v>
+            <v>11.569127516778524</v>
           </cell>
           <cell r="W2">
-            <v>5.5741610738255032</v>
+            <v>11.148322147651006</v>
           </cell>
           <cell r="X2">
-            <v>3.8476510067114091</v>
+            <v>7.6953020134228183</v>
           </cell>
           <cell r="Y2">
-            <v>3.8147651006711412</v>
+            <v>7.6295302013422823</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.13750000000000001</v>
+            <v>0.27500000000000002</v>
           </cell>
           <cell r="C3">
-            <v>-0.83333333333333337</v>
+            <v>-1.6666666666666667</v>
           </cell>
           <cell r="D3">
-            <v>-0.91180555555555554</v>
+            <v>-1.8236111111111111</v>
           </cell>
           <cell r="E3">
-            <v>-1.3062500000000001</v>
+            <v>-2.6125000000000003</v>
           </cell>
           <cell r="F3">
-            <v>-1.6131944444444442</v>
+            <v>-3.2263888888888883</v>
           </cell>
           <cell r="G3">
-            <v>-1.2250000000000001</v>
+            <v>-2.4500000000000002</v>
           </cell>
           <cell r="H3">
-            <v>-1.5972222222222223</v>
+            <v>-3.1944444444444446</v>
           </cell>
           <cell r="I3">
-            <v>4.0680555555555555</v>
+            <v>8.1361111111111111</v>
           </cell>
           <cell r="J3">
-            <v>5.2416666666666671</v>
+            <v>10.483333333333334</v>
           </cell>
           <cell r="K3">
-            <v>6.5972222222222205</v>
+            <v>13.194444444444441</v>
           </cell>
           <cell r="L3">
-            <v>3.7875000000000001</v>
+            <v>7.5750000000000002</v>
           </cell>
           <cell r="M3">
-            <v>3.3347222222222221</v>
+            <v>6.6694444444444443</v>
           </cell>
           <cell r="N3">
-            <v>2.3138888888888891</v>
+            <v>4.6277777777777782</v>
           </cell>
           <cell r="O3">
-            <v>3.2263888888888883</v>
+            <v>6.4527777777777766</v>
           </cell>
           <cell r="P3">
-            <v>1.3611111111111112</v>
+            <v>2.7222222222222223</v>
           </cell>
           <cell r="Q3">
-            <v>1.1687499999999997</v>
+            <v>2.3374999999999995</v>
           </cell>
           <cell r="R3">
-            <v>1.375</v>
+            <v>2.75</v>
           </cell>
           <cell r="S3">
-            <v>2.4999999999999996</v>
+            <v>4.9999999999999991</v>
           </cell>
           <cell r="T3">
-            <v>4.6958333333333337</v>
+            <v>9.3916666666666675</v>
           </cell>
           <cell r="U3">
-            <v>4.9097222222222205</v>
+            <v>9.8194444444444411</v>
           </cell>
           <cell r="V3">
-            <v>3.8499999999999988</v>
+            <v>7.6999999999999975</v>
           </cell>
           <cell r="W3">
-            <v>2.9861111111111112</v>
+            <v>5.9722222222222223</v>
           </cell>
           <cell r="X3">
-            <v>1.3611111111111109</v>
+            <v>2.7222222222222219</v>
           </cell>
           <cell r="Y3">
-            <v>0.27500000000000002</v>
+            <v>0.55000000000000004</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-0.69852941176470584</v>
+            <v>-1.3970588235294117</v>
           </cell>
           <cell r="C4">
-            <v>-1.654411764705882</v>
+            <v>-3.3088235294117641</v>
           </cell>
           <cell r="D4">
-            <v>-2.8860294117647056</v>
+            <v>-5.7720588235294112</v>
           </cell>
           <cell r="E4">
-            <v>-2.6920955882352944</v>
+            <v>-5.3841911764705888</v>
           </cell>
           <cell r="F4">
-            <v>-2.693382352941176</v>
+            <v>-5.386764705882352</v>
           </cell>
           <cell r="G4">
-            <v>-2.617830882352941</v>
+            <v>-5.2356617647058821</v>
           </cell>
           <cell r="H4">
-            <v>-0.14411764705882352</v>
+            <v>-0.28823529411764703</v>
           </cell>
           <cell r="I4">
-            <v>3.1687499999999997</v>
+            <v>6.3374999999999995</v>
           </cell>
           <cell r="J4">
-            <v>4.1624999999999996</v>
+            <v>8.3249999999999993</v>
           </cell>
           <cell r="K4">
-            <v>4.1176470588235299</v>
+            <v>8.2352941176470598</v>
           </cell>
           <cell r="L4">
-            <v>3.4031250000000002</v>
+            <v>6.8062500000000004</v>
           </cell>
           <cell r="M4">
-            <v>4.3444852941176473</v>
+            <v>8.6889705882352946</v>
           </cell>
           <cell r="N4">
-            <v>3.9360294117647059</v>
+            <v>7.8720588235294118</v>
           </cell>
           <cell r="O4">
-            <v>3.4007352941176467</v>
+            <v>6.8014705882352935</v>
           </cell>
           <cell r="P4">
-            <v>2.4693014705882348</v>
+            <v>4.9386029411764696</v>
           </cell>
           <cell r="Q4">
-            <v>1.5257352941176472</v>
+            <v>3.0514705882352944</v>
           </cell>
           <cell r="R4">
-            <v>1.912316176470588</v>
+            <v>3.8246323529411761</v>
           </cell>
           <cell r="S4">
-            <v>1.7080882352941174</v>
+            <v>3.4161764705882347</v>
           </cell>
           <cell r="T4">
-            <v>0.31874999999999992</v>
+            <v>0.63749999999999984</v>
           </cell>
           <cell r="U4">
-            <v>1.3330882352941176</v>
+            <v>2.6661764705882351</v>
           </cell>
           <cell r="V4">
-            <v>1.8926470588235293</v>
+            <v>3.7852941176470587</v>
           </cell>
           <cell r="W4">
-            <v>1.2375</v>
+            <v>2.4750000000000001</v>
           </cell>
           <cell r="X4">
-            <v>-1.1812499999999999</v>
+            <v>-2.3624999999999998</v>
           </cell>
           <cell r="Y4">
-            <v>-2.3950367647058823</v>
+            <v>-4.7900735294117647</v>
           </cell>
         </row>
       </sheetData>
@@ -4079,99 +4079,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>4.8369126214244931</v>
+        <v>9.6738252428489862</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>3.3158547335141799</v>
+        <v>6.6317094670283598</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>2.9624835704973935</v>
+        <v>5.9249671409947871</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>3.7597920405262775</v>
+        <v>7.5195840810525549</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>3.269664902525975</v>
+        <v>6.5393298050519499</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>2.6616064843137628</v>
+        <v>5.3232129686275256</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>2.2022093899442958</v>
+        <v>4.4044187798885917</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>7.7726533485761893</v>
+        <v>15.545306697152379</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>8.048089631276099</v>
+        <v>16.096179262552198</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>6.764828489951098</v>
+        <v>13.529656979902196</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>8.0423635899774997</v>
+        <v>16.084727179954999</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>7.6224138695254497</v>
+        <v>15.244827739050899</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>7.5809378031303751</v>
+        <v>15.16187560626075</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>6.7694885834113947</v>
+        <v>13.538977166822789</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>3.897726498675441</v>
+        <v>7.7954529973508819</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>6.1649144161785161</v>
+        <v>12.329828832357032</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>7.4685496448150888</v>
+        <v>14.937099289630178</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>6.9686247348348065</v>
+        <v>13.937249469669613</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>4.8703811234401293</v>
+        <v>9.7407622468802586</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>5.1032583941013643</v>
+        <v>10.206516788202729</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>4.6120539877871032</v>
+        <v>9.2241079755742064</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>2.919279767068252</v>
+        <v>5.838559534136504</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>2.3753020778057938</v>
+        <v>4.7506041556115877</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>2.4618981959366386</v>
+        <v>4.9237963918732772</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4180,99 +4180,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-6.9390342001744703</v>
+        <v>-13.878068400348941</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-6.6654453438232029</v>
+        <v>-13.330890687646406</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-6.9891478656509722</v>
+        <v>-13.978295731301944</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-7.1631347403422172</v>
+        <v>-14.326269480684434</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-7.2391288133064808</v>
+        <v>-14.478257626612962</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-6.6438281754177728</v>
+        <v>-13.287656350835546</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-4.2127098325231351</v>
+        <v>-8.4254196650462703</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-0.79360761412759728</v>
+        <v>-1.5872152282551946</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-0.86153441096636718</v>
+        <v>-1.7230688219327344</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.58824600062913279</v>
+        <v>-1.1764920012582656</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-0.49786352954275465</v>
+        <v>-0.99572705908550929</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.2899510976312394</v>
+        <v>-4.5799021952624788</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.3453725908918441</v>
+        <v>-6.6907451817836883</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-4.2079086281987665</v>
+        <v>-8.4158172563975331</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-4.2615034272600401</v>
+        <v>-8.5230068545200801</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-4.4202420215267164</v>
+        <v>-8.8404840430534328</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-3.3390695888909434</v>
+        <v>-6.6781391777818868</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>1.1310527879660526</v>
+        <v>2.2621055759321052</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-0.15624811503400235</v>
+        <v>-0.3124962300680047</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-1.8630301281074242</v>
+        <v>-3.7260602562148484</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-3.4879165234362755</v>
+        <v>-6.9758330468725509</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-4.4972112840145142</v>
+        <v>-8.9944225680290284</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-4.8825224736591215</v>
+        <v>-9.765044947318243</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-5.7613849446482099</v>
+        <v>-11.52276988929642</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4281,99 +4281,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>-4.3807584092016052</v>
+        <v>-8.7615168184032104</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>-4.6800505321918635</v>
+        <v>-9.360101064383727</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>-4.8135518765238343</v>
+        <v>-9.6271037530476686</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>-4.7491784907270116</v>
+        <v>-9.4983569814540232</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>-4.7531285092245765</v>
+        <v>-9.5062570184491531</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>-4.0083634873838383</v>
+        <v>-8.0167269747676766</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>-0.1477961877036193</v>
+        <v>-0.29559237540723859</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>2.0665776587667093</v>
+        <v>4.1331553175334186</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>2.6080693834653967</v>
+        <v>5.2161387669307935</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>1.7628770379907008</v>
+        <v>3.5257540759814017</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>1.0833265532466021</v>
+        <v>2.1666531064932042</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>2.0856235387661091</v>
+        <v>4.1712470775322181</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>1.3549410363593706</v>
+        <v>2.7098820727187412</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>0.41107988483098112</v>
+        <v>0.82215976966196225</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.6103838761832887</v>
+        <v>-3.2207677523665774</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>-1.6270203310146203</v>
+        <v>-3.2540406620292406</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>-1.3402720490539275</v>
+        <v>-2.680544098107855</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>-0.64962488014463149</v>
+        <v>-1.299249760289263</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>-1.6156173005726733</v>
+        <v>-3.2312346011453466</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>-0.90212301786796834</v>
+        <v>-1.8042460357359367</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>-1.2638436401566562</v>
+        <v>-2.5276872803133124</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>-2.0543062892623838</v>
+        <v>-4.1086125785247676</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>-3.3117556752086768</v>
+        <v>-6.6235113504173535</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>-3.66366725196279</v>
+        <v>-7.3273345039255799</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4784,99 +4784,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>4.8369126214244931</v>
+        <v>9.6738252428489862</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>3.4511957430453704</v>
+        <v>6.9023914860907407</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>2.8744890089974708</v>
+        <v>5.7489780179949417</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>3.6845961997157515</v>
+        <v>7.3691923994315029</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>3.3020378223529656</v>
+        <v>6.6040756447059312</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>2.6083743546274873</v>
+        <v>5.2167487092549747</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>2.2462535777431816</v>
+        <v>4.4925071554863631</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>7.5417824570343219</v>
+        <v>15.083564914068644</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>8.1285705275888596</v>
+        <v>16.257141055177719</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>6.9719150763781723</v>
+        <v>13.943830152756345</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>8.1227872258772749</v>
+        <v>16.24557445175455</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>7.5476843217850043</v>
+        <v>15.095368643570009</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>7.3557614327403638</v>
+        <v>14.711522865480728</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>6.6354393045319613</v>
+        <v>13.270878609063923</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>4.0170446567981593</v>
+        <v>8.0340893135963185</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>6.2271862789681975</v>
+        <v>12.454372557936395</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>7.5432351412632404</v>
+        <v>15.086470282526481</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>7.0383109821831535</v>
+        <v>14.076621964366307</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>4.8216773122057281</v>
+        <v>9.6433546244114563</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>5.1537857049340516</v>
+        <v>10.307571409868103</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>4.7061775385582694</v>
+        <v>9.4123550771165387</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>2.8900869693975695</v>
+        <v>5.780173938795139</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>2.2821529767153708</v>
+        <v>4.5643059534307415</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>2.4377619391137308</v>
+        <v>4.8755238782274617</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4885,99 +4885,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-6.8710044531139358</v>
+        <v>-13.742008906227872</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-6.8014748406359207</v>
+        <v>-13.602949681271841</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-6.9891478656509722</v>
+        <v>-13.978295731301944</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-7.3824143752506526</v>
+        <v>-14.764828750501305</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-7.3839113895726101</v>
+        <v>-14.76782277914522</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-6.7102664571719508</v>
+        <v>-13.420532914343902</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-4.2969640291735978</v>
+        <v>-8.5939280583471955</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-0.80170565100645008</v>
+        <v>-1.6034113020129002</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-0.87023677875390626</v>
+        <v>-1.7404735575078125</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.56517753001622562</v>
+        <v>-1.1303550600324512</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-0.49786352954275465</v>
+        <v>-0.99572705908550929</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.2672783144863757</v>
+        <v>-4.5345566289727515</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-3.2791275890920057</v>
+        <v>-6.5582551781840115</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-4.3367221576334227</v>
+        <v>-8.6734443152668455</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-4.3467334958052408</v>
+        <v>-8.6934669916104816</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-4.4202420215267164</v>
+        <v>-8.8404840430534328</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-3.3390695888909434</v>
+        <v>-6.6781391777818868</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>1.0974571606007242</v>
+        <v>2.1949143212014484</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-0.15624811503400235</v>
+        <v>-0.3124962300680047</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-1.9002907306695727</v>
+        <v>-3.8005814613391453</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-3.4188488695068435</v>
+        <v>-6.837697739013687</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-4.5880640372269283</v>
+        <v>-9.1761280744538567</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-5.0818091052370447</v>
+        <v>-10.163618210474089</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-5.7043415293546627</v>
+        <v>-11.408683058709325</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4986,99 +4986,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>-4.3807584092016052</v>
+        <v>-8.7615168184032104</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>-4.6800505321918635</v>
+        <v>-9.360101064383727</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>-4.8135518765238343</v>
+        <v>-9.6271037530476686</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>-4.7021569215118921</v>
+        <v>-9.4043138430237843</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>-4.6119464742971141</v>
+        <v>-9.2238929485942283</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>-3.9297681248861158</v>
+        <v>-7.8595362497722316</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>-0.1477961877036193</v>
+        <v>-0.29559237540723859</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.0057959629206303</v>
+        <v>4.0115919258412607</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>2.5822469143221749</v>
+        <v>5.1644938286443498</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>1.8348312028066478</v>
+        <v>3.6696624056132956</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>1.0408431590016372</v>
+        <v>2.0816863180032743</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>2.0856235387661091</v>
+        <v>4.1712470775322181</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>1.3150898294076243</v>
+        <v>2.6301796588152486</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>0.40301949493233452</v>
+        <v>0.80603898986466904</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.6103838761832887</v>
+        <v>-3.2207677523665774</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>-1.5791667918671317</v>
+        <v>-3.1583335837342634</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>-1.3008522829052827</v>
+        <v>-2.6017045658105653</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>-0.67614018137502463</v>
+        <v>-1.3522803627500493</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>-1.6479296465841264</v>
+        <v>-3.2958592931682529</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>-0.90212301786796834</v>
+        <v>-1.8042460357359367</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>-1.238566767353523</v>
+        <v>-2.477133534707046</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>-2.07526859833649</v>
+        <v>-4.15053719667298</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>-3.3117556752086768</v>
+        <v>-6.6235113504173535</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>-3.7384359713906026</v>
+        <v>-7.4768719427812051</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5489,99 +5489,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>0.25676266666666658</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>0.28266311111111103</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>0.36791288888888884</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>0.4217973333333333</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>0.4959377777777777</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>0.57971555555555554</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>0.51676444444444447</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>0.73877155555555563</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>0.67774044444444437</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>0.7654684444444444</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>0.78669688888888889</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>0.72972622222222217</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>0.68839111111111106</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>0.63376355555555552</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>0.58376533333333325</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>0.52538133333333326</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>0.51991288888888887</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>0.41193244444444443</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>0.34082488888888884</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>0.40443377777777778</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>0.41207822222222218</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>0.47092266666666666</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>0.22865777777777779</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>0.2195377777777778</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5691,99 +5691,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>0.12838133333333329</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>0.14133155555555552</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>0.18395644444444442</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>0.21089866666666665</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>0.24796888888888885</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>0.28985777777777777</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>0.25838222222222224</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>0.36938577777777781</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>0.33887022222222218</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>0.3827342222222222</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>0.39334844444444445</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>0.36486311111111108</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>0.34419555555555553</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>0.31688177777777776</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>0.29188266666666662</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>0.26269066666666663</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>0.25995644444444443</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>0.20596622222222222</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>0.17041244444444442</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>0.20221688888888889</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>0.20603911111111109</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>0.23546133333333333</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>0.1143288888888889</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>0.1097688888888889</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -6194,99 +6194,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.53387999999999991</v>
+        <v>0.71183999999999992</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56499999999999995</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.59662666666666664</v>
+        <v>0.79550222222222222</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62374666666666667</v>
+        <v>0.83166222222222219</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63082666666666665</v>
+        <v>0.8411022222222222</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65987999999999991</v>
+        <v>0.87983999999999984</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65650666666666668</v>
+        <v>0.87534222222222224</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62055199999999988</v>
+        <v>0.82740266666666651</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56224533333333326</v>
+        <v>0.74966044444444446</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82564133333333323</v>
+        <v>1.1008551111111111</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.80627199999999999</v>
+        <v>1.0750293333333334</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74243200000000009</v>
+        <v>0.98990933333333342</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72439200000000004</v>
+        <v>0.96585600000000005</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72736933333333331</v>
+        <v>0.96982577777777768</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.69290933333333327</v>
+        <v>0.92387911111111098</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63515466666666665</v>
+        <v>0.8468728888888889</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57083200000000001</v>
+        <v>0.76110933333333342</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55035466666666666</v>
+        <v>0.73380622222222225</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34595066666666663</v>
+        <v>0.46126755555555554</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36996266666666666</v>
+        <v>0.49328355555555553</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40448799999999996</v>
+        <v>0.5393173333333332</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41413999999999995</v>
+        <v>0.5521866666666666</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43191999999999997</v>
+        <v>0.57589333333333326</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47675999999999996</v>
+        <v>0.63567999999999991</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -6396,99 +6396,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.53387999999999991</v>
+        <v>0.35591999999999996</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56499999999999995</v>
+        <v>0.37666666666666665</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.59662666666666664</v>
+        <v>0.39775111111111111</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62374666666666667</v>
+        <v>0.4158311111111111</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63082666666666665</v>
+        <v>0.4205511111111111</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65987999999999991</v>
+        <v>0.43991999999999992</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65650666666666668</v>
+        <v>0.43767111111111112</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62055199999999988</v>
+        <v>0.41370133333333325</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$2-'FL Characterization'!J$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56224533333333326</v>
+        <v>0.37483022222222223</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$2-'FL Characterization'!K$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.82564133333333323</v>
+        <v>0.55042755555555556</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$2-'FL Characterization'!L$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.80627199999999999</v>
+        <v>0.5375146666666667</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$2-'FL Characterization'!M$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.74243200000000009</v>
+        <v>0.49495466666666671</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$2-'FL Characterization'!N$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72439200000000004</v>
+        <v>0.48292800000000002</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$2-'FL Characterization'!O$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.72736933333333331</v>
+        <v>0.48491288888888884</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$2-'FL Characterization'!P$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.69290933333333327</v>
+        <v>0.46193955555555549</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$2-'FL Characterization'!Q$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63515466666666665</v>
+        <v>0.42343644444444445</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$2-'FL Characterization'!R$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57083200000000001</v>
+        <v>0.38055466666666671</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$2-'FL Characterization'!S$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55035466666666666</v>
+        <v>0.36690311111111112</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$2-'FL Characterization'!T$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.34595066666666663</v>
+        <v>0.23063377777777777</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$2-'FL Characterization'!U$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.36996266666666666</v>
+        <v>0.24664177777777777</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$2-'FL Characterization'!V$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.40448799999999996</v>
+        <v>0.2696586666666666</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$2-'FL Characterization'!W$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.41413999999999995</v>
+        <v>0.2760933333333333</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$2-'FL Characterization'!X$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43191999999999997</v>
+        <v>0.28794666666666663</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$2-'FL Characterization'!Y$3)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47675999999999996</v>
+        <v>0.31783999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8966,7 +8966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9666,99 +9666,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>15.663880000000004</v>
+        <v>31.218506666666674</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>15.518183875968994</v>
+        <v>30.923469974160213</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>14.936523720930234</v>
+        <v>29.771954108527133</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>14.661175193798449</v>
+        <v>29.226528165374678</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>14.530550697674418</v>
+        <v>28.982594728682166</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>14.727853643410853</v>
+        <v>29.389076175710596</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>14.622226666666668</v>
+        <v>29.162968888888891</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>17.753784806201551</v>
+        <v>35.493418501291991</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>19.09424806201551</v>
+        <v>38.176051679586571</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>18.852794728682166</v>
+        <v>37.687447235142116</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>18.533468527131784</v>
+        <v>37.056252609819126</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>18.764212713178296</v>
+        <v>37.515074315245478</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>19.467953178294579</v>
+        <v>38.914635245478046</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>19.12855410852713</v>
+        <v>38.217917105943151</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>17.649929302325582</v>
+        <v>35.258045271317833</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>18.189586976744184</v>
+        <v>36.33805395348837</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>18.371809302325584</v>
+        <v>36.720551937984496</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.803038139534884</v>
+        <v>35.559089612403099</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>16.878569302325584</v>
+        <v>33.729565271317831</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>16.651173023255815</v>
+        <v>33.282959379844961</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>16.613927441860469</v>
+        <v>33.198414883720936</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>16.411014263565892</v>
+        <v>32.803832971576227</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>15.264108217054268</v>
+        <v>30.445167545219647</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>14.789708217054265</v>
+        <v>29.479300878552976</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -9767,99 +9767,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.442897857142857</v>
+        <v>20.721915714285711</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.86242702380952</v>
+        <v>19.555507380952374</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.459675714285714</v>
+        <v>18.767711428571427</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.6314565476190488</v>
+        <v>17.119179761904764</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.2874028571428564</v>
+        <v>16.457045714285712</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.6881163095238083</v>
+        <v>17.276285952380952</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>9.2628516666666663</v>
+        <v>18.403476666666666</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>12.292432023809521</v>
+        <v>24.563637380952375</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>13.411523809523809</v>
+        <v>26.804380952380953</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>14.307347261904763</v>
+        <v>28.58748119047619</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>13.040580238095238</v>
+        <v>26.065133809523807</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>13.697482023809522</v>
+        <v>27.374937380952378</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>13.726103095238093</v>
+        <v>27.420299523809522</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>13.418161666666666</v>
+        <v>26.777536666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>11.547095000000001</v>
+        <v>23.031469999999999</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>12.031546071428572</v>
+        <v>24.001412142857141</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>12.70759107142857</v>
+        <v>25.380582142857143</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.693247857142854</v>
+        <v>25.316015714285708</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>13.19984214285714</v>
+        <v>26.358324285714282</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>13.890687142857141</v>
+        <v>27.752294285714282</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>14.541927857142856</v>
+        <v>29.039695714285713</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>13.336445119047617</v>
+        <v>26.645596904761902</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>11.558725119047619</v>
+        <v>22.992876904761903</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>10.713789404761904</v>
+        <v>21.277405476190477</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -9868,99 +9868,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.7707931832797419</v>
+        <v>11.323079699892817</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.4386392711682747</v>
+        <v>10.651482986780994</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.0069454662379425</v>
+        <v>9.8117042658092188</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.1959841371918545</v>
+        <v>10.200323829939265</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.0775670739549836</v>
+        <v>9.9981208145766338</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.1602360557341909</v>
+        <v>10.187209889246159</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.2966639657020371</v>
+        <v>14.430359042515185</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.2053102679528429</v>
+        <v>18.382318313683463</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.6448724544480164</v>
+        <v>19.264856020007144</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.0545445230439459</v>
+        <v>18.072804601643448</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.8504318113612008</v>
+        <v>17.679494733833511</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.5176150911039663</v>
+        <v>19.00852795998571</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.9635786923901399</v>
+        <v>19.88461516255806</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.2790439013933543</v>
+        <v>18.479705580564488</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.4710801286173645</v>
+        <v>16.858533590568062</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.0359565273311908</v>
+        <v>15.989673054662379</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1857254019292593</v>
+        <v>16.325317470525185</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.9442742122186498</v>
+        <v>15.794575091103967</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.734286045016078</v>
+        <v>15.413425423365489</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.4133243729903544</v>
+        <v>16.787875412647374</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.8263143408360136</v>
+        <v>17.593748681672029</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.2226309539121107</v>
+        <v>16.40887079671311</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3070492175777053</v>
+        <v>14.448000657377634</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.1349000214362279</v>
+        <v>12.069568931761346</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -10371,99 +10371,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>15.818880000000004</v>
+        <v>31.528506666666672</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>15.518183875968994</v>
+        <v>30.923469974160213</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>14.640826046511629</v>
+        <v>29.180558759689923</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>14.661175193798453</v>
+        <v>29.226528165374685</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>14.24229488372093</v>
+        <v>28.406083100775191</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>14.727853643410853</v>
+        <v>29.389076175710596</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>14.912226666666667</v>
+        <v>29.742968888888889</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>17.753784806201551</v>
+        <v>35.493418501291991</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>19.285003875968997</v>
+        <v>38.557563307493545</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>18.852794728682166</v>
+        <v>37.687447235142116</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>18.348294108527131</v>
+        <v>36.685903772609819</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>18.389328992248064</v>
+        <v>36.765306873385015</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>19.07923224806202</v>
+        <v>38.137193385012928</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>19.509949457364339</v>
+        <v>38.98070780361757</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>18.001673488372091</v>
+        <v>35.961533643410853</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>18.370866046511626</v>
+        <v>36.700612093023253</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>18.555181395348836</v>
+        <v>37.087296124030999</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.448386976744185</v>
+        <v>34.849787286821702</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>17.215313488372097</v>
+        <v>34.403053643410857</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>16.484952093023256</v>
+        <v>32.950517519379844</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>16.779625116279075</v>
+        <v>33.529810232558148</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>16.411014263565892</v>
+        <v>32.803832971576227</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>15.566898914728686</v>
+        <v>31.050748940568482</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>15.082498914728685</v>
+        <v>30.064882273901816</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -10472,99 +10472,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.442897857142857</v>
+        <v>20.721915714285711</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.86242702380952</v>
+        <v>19.555507380952374</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.3665953571428577</v>
+        <v>18.581550714285715</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.7163337797619054</v>
+        <v>17.288934226190477</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.2874028571428564</v>
+        <v>16.457045714285712</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.859879702380951</v>
+        <v>17.619812738095238</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>9.1714454166666659</v>
+        <v>18.220664166666666</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>12.169719970238095</v>
+        <v>24.318213273809523</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>13.54545238095238</v>
+        <v>27.072238095238095</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>14.164545922619048</v>
+        <v>28.301878511904761</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>13.170825773809522</v>
+        <v>26.325624880952375</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>13.697482023809522</v>
+        <v>27.374937380952378</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>13.999987023809522</v>
+        <v>27.96806738095238</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>13.418161666666666</v>
+        <v>26.777536666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>11.317407500000002</v>
+        <v>22.572095000000001</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>12.031546071428572</v>
+        <v>24.001412142857141</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>12.834320982142856</v>
+        <v>25.634041964285714</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.819475535714284</v>
+        <v>25.568471071428569</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>13.463011785714283</v>
+        <v>26.884663571428568</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>13.613454999999998</v>
+        <v>27.197829999999996</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>14.396950178571426</v>
+        <v>28.749740357142855</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>13.602628154761904</v>
+        <v>27.177962976190475</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>11.444383601190477</v>
+        <v>22.76419386904762</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>10.502517083333334</v>
+        <v>20.854860833333337</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -10573,99 +10573,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.6586549196141478</v>
+        <v>11.098803172561629</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.5440251232583062</v>
+        <v>10.862254690961057</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>4.9583924115755647</v>
+        <v>9.7145981564844615</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.1454616291532691</v>
+        <v>10.099278813862094</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.1767632154340832</v>
+        <v>10.196513097534833</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0590302679528412</v>
+        <v>9.9847983136834593</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.1531752197213301</v>
+        <v>14.143381550553771</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.3889919399785668</v>
+        <v>18.749681657734911</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5486103965702025</v>
+        <v>19.072331904251516</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.1448178349410512</v>
+        <v>18.253351225437658</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.8504318113612026</v>
+        <v>17.679494733833515</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.3276633226152192</v>
+        <v>18.628624423008215</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>9.9635786923901399</v>
+        <v>19.88461516255806</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.0946387566988207</v>
+        <v>18.110895291175421</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.4710801286173645</v>
+        <v>16.858533590568062</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.1156992926045017</v>
+        <v>16.149158585209001</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.1042141479099676</v>
+        <v>16.162294962486602</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.7867983279742763</v>
+        <v>15.47962332261522</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.6573567845659172</v>
+        <v>15.259566902465167</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.5810092604501627</v>
+        <v>17.12324518756699</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>8.7384927974276536</v>
+        <v>17.418105594855309</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.3865377063236863</v>
+        <v>16.736684301536261</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3070492175777053</v>
+        <v>14.448000657377634</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.1947472883172567</v>
+        <v>12.189263465523403</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11076,99 +11076,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>15.818880000000004</v>
+        <v>31.528506666666672</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>15.825160620155042</v>
+        <v>31.53742346253231</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>14.640826046511629</v>
+        <v>29.180558759689923</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>14.951524031007752</v>
+        <v>29.807225839793283</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>14.24229488372093</v>
+        <v>28.406083100775191</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>14.581574573643412</v>
+        <v>29.096518036175713</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>14.622226666666668</v>
+        <v>29.162968888888891</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>18.10843596899225</v>
+        <v>36.202720826873389</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>18.712736434108532</v>
+        <v>37.413028423772616</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>18.664538914728681</v>
+        <v>37.310935607235145</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>18.718642945736434</v>
+        <v>37.426601447028425</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>18.764212713178296</v>
+        <v>37.515074315245478</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>19.273592713178299</v>
+        <v>38.525914315245487</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>18.747158759689921</v>
+        <v>37.455126408268733</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>17.474057209302327</v>
+        <v>34.906301085271323</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>18.552145116279068</v>
+        <v>37.063170232558136</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>18.555181395348836</v>
+        <v>37.087296124030999</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>17.448386976744185</v>
+        <v>34.849787286821702</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>16.878569302325584</v>
+        <v>33.729565271317831</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>16.484952093023256</v>
+        <v>32.950517519379844</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>16.448229767441862</v>
+        <v>32.867019534883724</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>16.738688682170544</v>
+        <v>33.45918180878553</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>15.566898914728688</v>
+        <v>31.050748940568486</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>14.643312868217057</v>
+        <v>29.18651018087856</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11177,99 +11177,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>10.545688035714285</v>
+        <v>20.927496071428568</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>9.9593578273809502</v>
+        <v>19.749368988095235</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>9.459675714285714</v>
+        <v>18.767711428571427</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>8.801211011904762</v>
+        <v>17.45868869047619</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>8.2057064285714283</v>
+        <v>16.293652857142856</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>8.6022346130952361</v>
+        <v>17.104522559523808</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>9.3542579166666666</v>
+        <v>18.586289166666667</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>12.047007916666665</v>
+        <v>24.072789166666663</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>13.143666666666665</v>
+        <v>26.268666666666665</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>14.450148601190477</v>
+        <v>28.873083869047619</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>12.780089166666665</v>
+        <v>25.544151666666661</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>13.697482023809522</v>
+        <v>27.374937380952378</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>13.58916113095238</v>
+        <v>27.146415595238096</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>13.418161666666666</v>
+        <v>26.777536666666666</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>11.43225125</v>
+        <v>22.801782499999998</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>12.151244732142858</v>
+        <v>24.240809464285714</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>12.961050892857143</v>
+        <v>25.887501785714289</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>12.819475535714284</v>
+        <v>25.568471071428569</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>12.936672499999997</v>
+        <v>25.831984999999996</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>13.890687142857141</v>
+        <v>27.752294285714282</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>14.251972499999999</v>
+        <v>28.459785</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>13.336445119047617</v>
+        <v>26.645596904761902</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>11.558725119047619</v>
+        <v>22.992876904761903</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>10.819425565476189</v>
+        <v>21.488677797619047</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11278,99 +11278,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>5.8268623151125398</v>
+        <v>11.435217963558413</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>5.3332534190782424</v>
+        <v>10.44071128260093</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>5.1040515755627016</v>
+        <v>10.005916484458737</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>5.2465066452304399</v>
+        <v>10.301368846016436</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>5.0279690032154338</v>
+        <v>9.8989246730975342</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>5.0590302679528403</v>
+        <v>9.9847983136834575</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>7.4401527116827451</v>
+        <v>14.717336534476601</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>9.2971511039657031</v>
+        <v>18.565999985709183</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>9.5486103965702025</v>
+        <v>19.072331904251516</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>9.2350911468381565</v>
+        <v>18.433897849231869</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>8.6737437084673097</v>
+        <v>17.326118528045729</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>9.7075668595927134</v>
+        <v>19.388431496963204</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>10.162212132904608</v>
+        <v>20.281882043586997</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>9.0946387566988207</v>
+        <v>18.110895291175421</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>8.3869965273311919</v>
+        <v>16.690366387995716</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>8.1954420578778144</v>
+        <v>16.308644115755627</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>8.3487479099678445</v>
+        <v>16.651362486602356</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>7.7867983279742763</v>
+        <v>15.47962332261522</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>7.8881445659163996</v>
+        <v>15.721142465166132</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>8.3294819292604512</v>
+        <v>16.620190525187567</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>9.0019574276527337</v>
+        <v>17.945034855305469</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>8.0587242015005351</v>
+        <v>16.081057291889959</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>7.3788739764201496</v>
+        <v>14.591650175062522</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>6.0152054876741694</v>
+        <v>11.830179864237229</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -11781,99 +11781,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>3.6912751677852351</v>
+        <v>7.3825503355704702</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>4.077181208053692</v>
+        <v>8.154362416107384</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>3.8422818791946312</v>
+        <v>7.6845637583892623</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>3.8422818791946312</v>
+        <v>7.6845637583892623</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>3.7583892617449663</v>
+        <v>7.5167785234899327</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>3.9765100671140936</v>
+        <v>7.9530201342281872</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>4.0939597315436247</v>
+        <v>8.1879194630872494</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>7.6677852348993287</v>
+        <v>15.335570469798657</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>8.9261744966442951</v>
+        <v>17.85234899328859</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>8.5906040268456358</v>
+        <v>17.181208053691272</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>8.3892617449664435</v>
+        <v>16.778523489932887</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>8.3724832214765108</v>
+        <v>16.744966442953022</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>8.9093959731543606</v>
+        <v>17.818791946308721</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>8.6409395973154375</v>
+        <v>17.281879194630875</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>6.0570469798657713</v>
+        <v>12.114093959731543</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>7.9194630872483218</v>
+        <v>15.838926174496644</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>8.0201342281879189</v>
+        <v>16.040268456375838</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>7.5167785234899327</v>
+        <v>15.033557046979865</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>5.9563758389261743</v>
+        <v>11.912751677852349</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>5.40268456375839</v>
+        <v>10.80536912751678</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>5.6711409395973158</v>
+        <v>11.342281879194632</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>5.6879194630872476</v>
+        <v>11.375838926174495</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>3.9261744966442951</v>
+        <v>7.8523489932885902</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>3.8926174496644301</v>
+        <v>7.7852348993288603</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -11882,99 +11882,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>0.1388888888888889</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-0.83333333333333337</v>
+        <v>-1.6666666666666667</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-0.90277777777777768</v>
+        <v>-1.8055555555555554</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-1.3194444444444444</v>
+        <v>-2.6388888888888888</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-1.5972222222222221</v>
+        <v>-3.1944444444444442</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-1.2500000000000002</v>
+        <v>-2.5000000000000004</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-1.5972222222222223</v>
+        <v>-3.1944444444444446</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>4.0277777777777786</v>
+        <v>8.0555555555555571</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>5.1388888888888884</v>
+        <v>10.277777777777777</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>6.5972222222222214</v>
+        <v>13.194444444444443</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>3.4027777777777777</v>
+        <v>6.8055555555555554</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>2.3611111111111112</v>
+        <v>4.7222222222222223</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>3.1944444444444442</v>
+        <v>6.3888888888888884</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>1.3888888888888888</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>1.1805555555555554</v>
+        <v>2.3611111111111107</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>1.3888888888888888</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>4.791666666666667</v>
+        <v>9.5833333333333339</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>4.8611111111111098</v>
+        <v>9.7222222222222197</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>3.888888888888888</v>
+        <v>7.7777777777777759</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>2.9861111111111112</v>
+        <v>5.9722222222222223</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>1.3888888888888886</v>
+        <v>2.7777777777777772</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>0.27777777777777779</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -11983,99 +11983,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-0.69852941176470584</v>
+        <v>-1.3970588235294117</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-1.654411764705882</v>
+        <v>-3.3088235294117641</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-2.8860294117647056</v>
+        <v>-5.7720588235294112</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-2.6654411764705883</v>
+        <v>-5.3308823529411766</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-2.7205882352941173</v>
+        <v>-5.4411764705882346</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-2.5919117647058827</v>
+        <v>-5.1838235294117654</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-0.14705882352941177</v>
+        <v>-0.29411764705882354</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.1066176470588229</v>
+        <v>6.2132352941176459</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>4.0808823529411757</v>
+        <v>8.1617647058823515</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>4.1176470588235299</v>
+        <v>8.2352941176470598</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>3.4375</v>
+        <v>6.875</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>4.3014705882352935</v>
+        <v>8.602941176470587</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>3.8970588235294117</v>
+        <v>7.7941176470588234</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>3.4007352941176467</v>
+        <v>6.8014705882352935</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>2.4448529411764701</v>
+        <v>4.8897058823529402</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>1.5257352941176472</v>
+        <v>3.0514705882352944</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>1.8933823529411764</v>
+        <v>3.7867647058823528</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>1.6911764705882351</v>
+        <v>3.3823529411764701</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>0.31249999999999994</v>
+        <v>0.62499999999999989</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>1.3602941176470587</v>
+        <v>2.7205882352941173</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>1.9117647058823528</v>
+        <v>3.8235294117647056</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-1.1580882352941175</v>
+        <v>-2.3161764705882351</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-2.3713235294117645</v>
+        <v>-4.742647058823529</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12486,99 +12486,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>3.6174496644295302</v>
+        <v>7.2348993288590604</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>4.1179530201342294</v>
+        <v>8.2359060402684587</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>3.9191275167785236</v>
+        <v>7.8382550335570471</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>3.8807046979865771</v>
+        <v>7.7614093959731543</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>3.7959731543624162</v>
+        <v>7.5919463087248324</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>3.8969798657718115</v>
+        <v>7.7939597315436231</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>4.0939597315436247</v>
+        <v>8.1879194630872494</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>7.8211409395973162</v>
+        <v>15.642281879194632</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>9.0154362416107396</v>
+        <v>18.030872483221479</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>8.7624161073825491</v>
+        <v>17.524832214765098</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>8.221476510067113</v>
+        <v>16.442953020134226</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>8.4562080536912774</v>
+        <v>16.912416107382555</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>8.9093959731543606</v>
+        <v>17.818791946308721</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>8.7273489932885902</v>
+        <v>17.45469798657718</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>6.0570469798657713</v>
+        <v>12.114093959731543</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>7.7610738255033551</v>
+        <v>15.52214765100671</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>8.1805369127516787</v>
+        <v>16.361073825503357</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>7.366442953020135</v>
+        <v>14.73288590604027</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>6.075503355704698</v>
+        <v>12.151006711409396</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>5.5107382550335586</v>
+        <v>11.021476510067117</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>5.784563758389262</v>
+        <v>11.569127516778524</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>5.6879194630872476</v>
+        <v>11.375838926174495</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>4.004697986577181</v>
+        <v>8.009395973154362</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>3.9315436241610739</v>
+        <v>7.8630872483221479</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12587,99 +12587,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>0.1361111111111111</v>
+        <v>0.2722222222222222</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-0.81666666666666676</v>
+        <v>-1.6333333333333335</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-0.92083333333333317</v>
+        <v>-1.8416666666666663</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-1.3458333333333334</v>
+        <v>-2.6916666666666669</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-1.5972222222222221</v>
+        <v>-3.1944444444444442</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-1.2500000000000002</v>
+        <v>-2.5000000000000004</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-1.5652777777777778</v>
+        <v>-3.1305555555555555</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>4.0277777777777786</v>
+        <v>8.0555555555555571</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>5.1388888888888875</v>
+        <v>10.277777777777775</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>6.4652777777777768</v>
+        <v>12.930555555555554</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>3.3347222222222221</v>
+        <v>6.6694444444444443</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>2.3375000000000004</v>
+        <v>4.6750000000000007</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>3.1305555555555551</v>
+        <v>6.2611111111111102</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>1.4166666666666665</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>1.1687499999999997</v>
+        <v>2.3374999999999995</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>1.3611111111111112</v>
+        <v>2.7222222222222223</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>2.4750000000000001</v>
+        <v>4.95</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>4.8875000000000002</v>
+        <v>9.7750000000000004</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>4.9097222222222205</v>
+        <v>9.8194444444444411</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>3.81111111111111</v>
+        <v>7.62222222222222</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>2.9861111111111112</v>
+        <v>5.9722222222222223</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>1.4027777777777775</v>
+        <v>2.8055555555555549</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>0.2805555555555555</v>
+        <v>0.56111111111111101</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12688,99 +12688,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-0.71249999999999991</v>
+        <v>-1.4249999999999998</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-1.6874999999999996</v>
+        <v>-3.3749999999999991</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-2.9437499999999996</v>
+        <v>-5.8874999999999993</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-2.6920955882352944</v>
+        <v>-5.3841911764705888</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-2.7749999999999995</v>
+        <v>-5.5499999999999989</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-2.617830882352941</v>
+        <v>-5.2356617647058821</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-0.14411764705882352</v>
+        <v>-0.28823529411764703</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>3.075551470588235</v>
+        <v>6.1511029411764699</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>4.1624999999999996</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>4.158823529411765</v>
+        <v>8.3176470588235301</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>3.4031250000000002</v>
+        <v>6.8062500000000004</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>4.2584558823529406</v>
+        <v>8.5169117647058812</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>3.8191176470588237</v>
+        <v>7.6382352941176475</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>3.3327205882352935</v>
+        <v>6.665441176470587</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>2.4204044117647054</v>
+        <v>4.8408088235294109</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>1.5409926470588236</v>
+        <v>3.0819852941176471</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>1.8933823529411764</v>
+        <v>3.7867647058823528</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>1.6911764705882351</v>
+        <v>3.3823529411764701</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>0.31874999999999992</v>
+        <v>0.63749999999999984</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>1.346691176470588</v>
+        <v>2.693382352941176</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>1.9117647058823528</v>
+        <v>3.8235294117647056</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>1.2625</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-1.1696691176470588</v>
+        <v>-2.3393382352941177</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-2.4187500000000002</v>
+        <v>-4.8375000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13191,99 +13191,99 @@
       </c>
       <c r="B2" s="4">
         <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>3.6174496644295302</v>
+        <v>7.2348993288590604</v>
       </c>
       <c r="C2" s="4">
         <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>4.077181208053692</v>
+        <v>8.154362416107384</v>
       </c>
       <c r="D2" s="4">
         <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>3.8038590604026852</v>
+        <v>7.6077181208053704</v>
       </c>
       <c r="E2" s="4">
         <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>3.7654362416107383</v>
+        <v>7.5308724832214766</v>
       </c>
       <c r="F2" s="4">
         <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>3.7208053691275165</v>
+        <v>7.4416107382550329</v>
       </c>
       <c r="G2" s="4">
         <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>3.8969798657718115</v>
+        <v>7.7939597315436231</v>
       </c>
       <c r="H2" s="4">
         <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>4.0939597315436247</v>
+        <v>8.1879194630872494</v>
       </c>
       <c r="I2" s="4">
         <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>7.8211409395973162</v>
+        <v>15.642281879194632</v>
       </c>
       <c r="J2" s="4">
         <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>9.0154362416107396</v>
+        <v>18.030872483221479</v>
       </c>
       <c r="K2" s="4">
         <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>8.5906040268456358</v>
+        <v>17.181208053691272</v>
       </c>
       <c r="L2" s="4">
         <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>8.30536912751678</v>
+        <v>16.61073825503356</v>
       </c>
       <c r="M2" s="4">
         <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>8.5399328859060422</v>
+        <v>17.079865771812084</v>
       </c>
       <c r="N2" s="4">
         <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>9.0875838926174488</v>
+        <v>18.175167785234898</v>
       </c>
       <c r="O2" s="4">
         <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>8.4681208053691286</v>
+        <v>16.936241610738257</v>
       </c>
       <c r="P2" s="4">
         <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>6.0570469798657713</v>
+        <v>12.114093959731543</v>
       </c>
       <c r="Q2" s="4">
         <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>7.8402684563758385</v>
+        <v>15.680536912751677</v>
       </c>
       <c r="R2" s="4">
         <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>8.1805369127516787</v>
+        <v>16.361073825503357</v>
       </c>
       <c r="S2" s="4">
         <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>7.4416107382550329</v>
+        <v>14.883221476510066</v>
       </c>
       <c r="T2" s="4">
         <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>5.8372483221476514</v>
+        <v>11.674496644295303</v>
       </c>
       <c r="U2" s="4">
         <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>5.4567114093959734</v>
+        <v>10.913422818791947</v>
       </c>
       <c r="V2" s="4">
         <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>5.784563758389262</v>
+        <v>11.569127516778524</v>
       </c>
       <c r="W2" s="4">
         <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>5.5741610738255032</v>
+        <v>11.148322147651006</v>
       </c>
       <c r="X2" s="4">
         <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>3.8476510067114091</v>
+        <v>7.6953020134228183</v>
       </c>
       <c r="Y2" s="4">
         <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>3.8147651006711412</v>
+        <v>7.6295302013422823</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13292,99 +13292,99 @@
       </c>
       <c r="B3" s="4">
         <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>0.13750000000000001</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C3" s="4">
         <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-0.83333333333333337</v>
+        <v>-1.6666666666666667</v>
       </c>
       <c r="D3" s="4">
         <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-0.91180555555555554</v>
+        <v>-1.8236111111111111</v>
       </c>
       <c r="E3" s="4">
         <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-1.3062500000000001</v>
+        <v>-2.6125000000000003</v>
       </c>
       <c r="F3" s="4">
         <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-1.6131944444444442</v>
+        <v>-3.2263888888888883</v>
       </c>
       <c r="G3" s="4">
         <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-1.2250000000000001</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="H3" s="4">
         <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-1.5972222222222223</v>
+        <v>-3.1944444444444446</v>
       </c>
       <c r="I3" s="4">
         <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>4.0680555555555555</v>
+        <v>8.1361111111111111</v>
       </c>
       <c r="J3" s="4">
         <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>5.2416666666666671</v>
+        <v>10.483333333333334</v>
       </c>
       <c r="K3" s="4">
         <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>6.5972222222222205</v>
+        <v>13.194444444444441</v>
       </c>
       <c r="L3" s="4">
         <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>3.7875000000000001</v>
+        <v>7.5750000000000002</v>
       </c>
       <c r="M3" s="4">
         <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>3.3347222222222221</v>
+        <v>6.6694444444444443</v>
       </c>
       <c r="N3" s="4">
         <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>2.3138888888888891</v>
+        <v>4.6277777777777782</v>
       </c>
       <c r="O3" s="4">
         <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>3.2263888888888883</v>
+        <v>6.4527777777777766</v>
       </c>
       <c r="P3" s="4">
         <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>1.3611111111111112</v>
+        <v>2.7222222222222223</v>
       </c>
       <c r="Q3" s="4">
         <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>1.1687499999999997</v>
+        <v>2.3374999999999995</v>
       </c>
       <c r="R3" s="4">
         <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>1.375</v>
+        <v>2.75</v>
       </c>
       <c r="S3" s="4">
         <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>2.4999999999999996</v>
+        <v>4.9999999999999991</v>
       </c>
       <c r="T3" s="4">
         <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>4.6958333333333337</v>
+        <v>9.3916666666666675</v>
       </c>
       <c r="U3" s="4">
         <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>4.9097222222222205</v>
+        <v>9.8194444444444411</v>
       </c>
       <c r="V3" s="4">
         <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>3.8499999999999988</v>
+        <v>7.6999999999999975</v>
       </c>
       <c r="W3" s="4">
         <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>2.9861111111111112</v>
+        <v>5.9722222222222223</v>
       </c>
       <c r="X3" s="4">
         <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>1.3611111111111109</v>
+        <v>2.7222222222222219</v>
       </c>
       <c r="Y3" s="4">
         <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>0.27500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13393,99 +13393,99 @@
       </c>
       <c r="B4" s="4">
         <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-0.69852941176470584</v>
+        <v>-1.3970588235294117</v>
       </c>
       <c r="C4" s="4">
         <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-1.654411764705882</v>
+        <v>-3.3088235294117641</v>
       </c>
       <c r="D4" s="4">
         <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-2.8860294117647056</v>
+        <v>-5.7720588235294112</v>
       </c>
       <c r="E4" s="4">
         <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-2.6920955882352944</v>
+        <v>-5.3841911764705888</v>
       </c>
       <c r="F4" s="4">
         <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-2.693382352941176</v>
+        <v>-5.386764705882352</v>
       </c>
       <c r="G4" s="4">
         <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-2.617830882352941</v>
+        <v>-5.2356617647058821</v>
       </c>
       <c r="H4" s="4">
         <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-0.14411764705882352</v>
+        <v>-0.28823529411764703</v>
       </c>
       <c r="I4" s="4">
         <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>3.1687499999999997</v>
+        <v>6.3374999999999995</v>
       </c>
       <c r="J4" s="4">
         <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>4.1624999999999996</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="K4" s="4">
         <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>4.1176470588235299</v>
+        <v>8.2352941176470598</v>
       </c>
       <c r="L4" s="4">
         <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>3.4031250000000002</v>
+        <v>6.8062500000000004</v>
       </c>
       <c r="M4" s="4">
         <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>4.3444852941176473</v>
+        <v>8.6889705882352946</v>
       </c>
       <c r="N4" s="4">
         <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>3.9360294117647059</v>
+        <v>7.8720588235294118</v>
       </c>
       <c r="O4" s="4">
         <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>3.4007352941176467</v>
+        <v>6.8014705882352935</v>
       </c>
       <c r="P4" s="4">
         <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>2.4693014705882348</v>
+        <v>4.9386029411764696</v>
       </c>
       <c r="Q4" s="4">
         <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>1.5257352941176472</v>
+        <v>3.0514705882352944</v>
       </c>
       <c r="R4" s="4">
         <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>1.912316176470588</v>
+        <v>3.8246323529411761</v>
       </c>
       <c r="S4" s="4">
         <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>1.7080882352941174</v>
+        <v>3.4161764705882347</v>
       </c>
       <c r="T4" s="4">
         <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>0.31874999999999992</v>
+        <v>0.63749999999999984</v>
       </c>
       <c r="U4" s="4">
         <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>1.3330882352941176</v>
+        <v>2.6661764705882351</v>
       </c>
       <c r="V4" s="4">
         <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>1.8926470588235293</v>
+        <v>3.7852941176470587</v>
       </c>
       <c r="W4" s="4">
         <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>1.2375</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="X4" s="4">
         <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-1.1812499999999999</v>
+        <v>-2.3624999999999998</v>
       </c>
       <c r="Y4" s="4">
         <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-2.3950367647058823</v>
+        <v>-4.7900735294117647</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13896,99 +13896,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>0.25676266666666658</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>0.28266311111111103</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>0.36791288888888884</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>0.4217973333333333</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>0.4959377777777777</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>0.57971555555555554</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>0.51676444444444447</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>0.73877155555555563</v>
       </c>
       <c r="J2" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>0.67774044444444437</v>
       </c>
       <c r="K2" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>0.7654684444444444</v>
       </c>
       <c r="L2" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>0.78669688888888889</v>
       </c>
       <c r="M2" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>0.72972622222222217</v>
       </c>
       <c r="N2" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>0.68839111111111106</v>
       </c>
       <c r="O2" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>0.63376355555555552</v>
       </c>
       <c r="P2" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>0.58376533333333325</v>
       </c>
       <c r="Q2" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>0.52538133333333326</v>
       </c>
       <c r="R2" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>0.51991288888888887</v>
       </c>
       <c r="S2" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>0.41193244444444443</v>
       </c>
       <c r="T2" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>0.34082488888888884</v>
       </c>
       <c r="U2" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>0.40443377777777778</v>
       </c>
       <c r="V2" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>0.41207822222222218</v>
       </c>
       <c r="W2" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>0.47092266666666666</v>
       </c>
       <c r="X2" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>0.22865777777777779</v>
       </c>
       <c r="Y2" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>0.2195377777777778</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -14098,99 +14098,99 @@
       </c>
       <c r="B4" s="4">
         <f>('FL Characterization'!B$4-'FL Characterization'!B$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.19257199999999997</v>
+        <v>0.12838133333333329</v>
       </c>
       <c r="C4" s="4">
         <f>('FL Characterization'!C$4-'FL Characterization'!C$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.21199733333333329</v>
+        <v>0.14133155555555552</v>
       </c>
       <c r="D4" s="4">
         <f>('FL Characterization'!D$4-'FL Characterization'!D$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.27593466666666666</v>
+        <v>0.18395644444444442</v>
       </c>
       <c r="E4" s="4">
         <f>('FL Characterization'!E$4-'FL Characterization'!E$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.31634799999999996</v>
+        <v>0.21089866666666665</v>
       </c>
       <c r="F4" s="4">
         <f>('FL Characterization'!F$4-'FL Characterization'!F$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.37195333333333325</v>
+        <v>0.24796888888888885</v>
       </c>
       <c r="G4" s="4">
         <f>('FL Characterization'!G$4-'FL Characterization'!G$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43478666666666665</v>
+        <v>0.28985777777777777</v>
       </c>
       <c r="H4" s="4">
         <f>('FL Characterization'!H$4-'FL Characterization'!H$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38757333333333338</v>
+        <v>0.25838222222222224</v>
       </c>
       <c r="I4" s="4">
         <f>('FL Characterization'!I$4-'FL Characterization'!I$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.55407866666666672</v>
+        <v>0.36938577777777781</v>
       </c>
       <c r="J4" s="4">
         <f>('FL Characterization'!J$4-'FL Characterization'!J$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.50830533333333328</v>
+        <v>0.33887022222222218</v>
       </c>
       <c r="K4" s="4">
         <f>('FL Characterization'!K$4-'FL Characterization'!K$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.57410133333333335</v>
+        <v>0.3827342222222222</v>
       </c>
       <c r="L4" s="4">
         <f>('FL Characterization'!L$4-'FL Characterization'!L$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5900226666666667</v>
+        <v>0.39334844444444445</v>
       </c>
       <c r="M4" s="4">
         <f>('FL Characterization'!M$4-'FL Characterization'!M$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.5472946666666666</v>
+        <v>0.36486311111111108</v>
       </c>
       <c r="N4" s="4">
         <f>('FL Characterization'!N$4-'FL Characterization'!N$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.51629333333333327</v>
+        <v>0.34419555555555553</v>
       </c>
       <c r="O4" s="4">
         <f>('FL Characterization'!O$4-'FL Characterization'!O$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.47532266666666662</v>
+        <v>0.31688177777777776</v>
       </c>
       <c r="P4" s="4">
         <f>('FL Characterization'!P$4-'FL Characterization'!P$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.43782399999999999</v>
+        <v>0.29188266666666662</v>
       </c>
       <c r="Q4" s="4">
         <f>('FL Characterization'!Q$4-'FL Characterization'!Q$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.39403599999999994</v>
+        <v>0.26269066666666663</v>
       </c>
       <c r="R4" s="4">
         <f>('FL Characterization'!R$4-'FL Characterization'!R$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.38993466666666665</v>
+        <v>0.25995644444444443</v>
       </c>
       <c r="S4" s="4">
         <f>('FL Characterization'!S$4-'FL Characterization'!S$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.3089493333333333</v>
+        <v>0.20596622222222222</v>
       </c>
       <c r="T4" s="4">
         <f>('FL Characterization'!T$4-'FL Characterization'!T$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.25561866666666666</v>
+        <v>0.17041244444444442</v>
       </c>
       <c r="U4" s="4">
         <f>('FL Characterization'!U$4-'FL Characterization'!U$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30332533333333334</v>
+        <v>0.20221688888888889</v>
       </c>
       <c r="V4" s="4">
         <f>('FL Characterization'!V$4-'FL Characterization'!V$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.30905866666666665</v>
+        <v>0.20603911111111109</v>
       </c>
       <c r="W4" s="4">
         <f>('FL Characterization'!W$4-'FL Characterization'!W$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.35319200000000001</v>
+        <v>0.23546133333333333</v>
       </c>
       <c r="X4" s="4">
         <f>('FL Characterization'!X$4-'FL Characterization'!X$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.17149333333333333</v>
+        <v>0.1143288888888889</v>
       </c>
       <c r="Y4" s="4">
         <f>('FL Characterization'!Y$4-'FL Characterization'!Y$2)*VLOOKUP($A4,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.16465333333333335</v>
+        <v>0.1097688888888889</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14601,99 +14601,99 @@
       </c>
       <c r="B2" s="4">
         <f>('FL Characterization'!B$2-'FL Characterization'!B$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.53387999999999991</v>
+        <v>0.71183999999999992</v>
       </c>
       <c r="C2" s="4">
         <f>('FL Characterization'!C$2-'FL Characterization'!C$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.56499999999999995</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="D2" s="4">
         <f>('FL Characterization'!D$2-'FL Characterization'!D$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.59662666666666664</v>
+        <v>0.79550222222222222</v>
       </c>
       <c r="E2" s="4">
         <f>('FL Characterization'!E$2-'FL Characterization'!E$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62374666666666667</v>
+        <v>0.83166222222222219</v>
       </c>
       <c r="F2" s="4">
         <f>('FL Characterization'!F$2-'FL Characterization'!F$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.63082666666666665</v>
+        <v>0.8411022222222222</v>
       </c>
       <c r="G2" s="4">
         <f>('FL Characterization'!G$2-'FL Characterization'!G$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65987999999999991</v>
+        <v>0.87983999999999984</v>
       </c>
       <c r="H2" s="4">
         <f>('FL Characterization'!H$2-'FL Characterization'!H$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.65650666666666668</v>
+        <v>0.87534222222222224</v>
       </c>
       <c r="I2" s="4">
         <f>('FL Characterization'!I$2-'FL Characterization'!I$3)*VLOOKUP($A2,'FL Ratio'!$A$2:$B$16,2,FALSE)</f>
-        <v>0.62055199999999988</v>
+        <v>0.82740266666666651</v>
       </c>
       <c r="J2" s="4">
        